--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -553,430 +553,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.194612</v>
+                  <v>0.299949</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.191638</v>
+                  <v>0.287121</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.185948</v>
+                  <v>0.276605</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.181213</v>
+                  <v>0.267628</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.176405</v>
+                  <v>0.256472</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.168787</v>
+                  <v>0.24504</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.161006</v>
+                  <v>0.233163</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.150825</v>
+                  <v>0.218159</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.228826</v>
+                  <v>0.341848</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.226788</v>
+                  <v>0.33683</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.224044</v>
+                  <v>0.32914</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.220862</v>
+                  <v>0.323291</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.216427</v>
+                  <v>0.31628</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.212846</v>
+                  <v>0.30976</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.208735</v>
+                  <v>0.300991</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.203903</v>
+                  <v>0.293743</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.199642</v>
+                  <v>0.284792</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.194027</v>
+                  <v>0.275362</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.188103</v>
+                  <v>0.265254</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.180311</v>
+                  <v>0.251157</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.17321</v>
+                  <v>0.23875</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.164054</v>
+                  <v>0.224983</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.239603</v>
+                  <v>0.349144</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.236062</v>
+                  <v>0.342727</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.233229</v>
+                  <v>0.334127</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.229128</v>
+                  <v>0.328853</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.22522</v>
+                  <v>0.322139</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.21992</v>
+                  <v>0.316201</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.215386</v>
+                  <v>0.310719</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.211557</v>
+                  <v>0.299521</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.206831</v>
+                  <v>0.292527</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.200459</v>
+                  <v>0.280738</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.194838</v>
+                  <v>0.268983</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.1876</v>
+                  <v>0.258928</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.180276</v>
+                  <v>0.248514</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.171747</v>
+                  <v>0.231067</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.243193</v>
+                  <v>0.348487</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.241149</v>
+                  <v>0.342996</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.237429</v>
+                  <v>0.337131</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.23329</v>
+                  <v>0.330766</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.230414</v>
+                  <v>0.323655</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.22565</v>
+                  <v>0.31677</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.220718</v>
+                  <v>0.309786</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.216313</v>
+                  <v>0.301265</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.210133</v>
+                  <v>0.291955</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.204258</v>
+                  <v>0.282602</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.198303</v>
+                  <v>0.271642</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.192364</v>
+                  <v>0.259986</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.185475</v>
+                  <v>0.247571</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.177313</v>
+                  <v>0.234175</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.165935</v>
+                  <v>0.220899</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.244443</v>
+                  <v>0.345661</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.24075</v>
+                  <v>0.340052</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.237198</v>
+                  <v>0.333789</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.232552</v>
+                  <v>0.327238</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.227956</v>
+                  <v>0.319794</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.223337</v>
+                  <v>0.312256</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.218764</v>
+                  <v>0.303728</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.21417</v>
+                  <v>0.294609</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.207987</v>
+                  <v>0.285147</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.201565</v>
+                  <v>0.275168</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.194506</v>
+                  <v>0.264106</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.187368</v>
+                  <v>0.252473</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.179344</v>
+                  <v>0.238801</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.169953</v>
+                  <v>0.225136</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.246575</v>
+                  <v>0.347264</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.243515</v>
+                  <v>0.341956</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.239984</v>
+                  <v>0.335628</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.235197</v>
+                  <v>0.32867</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.230719</v>
+                  <v>0.321519</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.225781</v>
+                  <v>0.313847</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.220304</v>
+                  <v>0.304901</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.214988</v>
+                  <v>0.296281</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.209112</v>
+                  <v>0.286915</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.203632</v>
+                  <v>0.276889</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.196996</v>
+                  <v>0.266398</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.1892</v>
+                  <v>0.254564</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.181456</v>
+                  <v>0.241835</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.17154</v>
+                  <v>0.227844</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.248397</v>
+                  <v>0.350006</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.244699</v>
+                  <v>0.344331</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.240805</v>
+                  <v>0.338426</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.236921</v>
+                  <v>0.331637</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.23242</v>
+                  <v>0.324611</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.227354</v>
+                  <v>0.316646</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.222391</v>
+                  <v>0.308415</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.217037</v>
+                  <v>0.299852</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.211349</v>
+                  <v>0.290469</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.205524</v>
+                  <v>0.280611</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.198702</v>
+                  <v>0.269566</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.191964</v>
+                  <v>0.257965</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.183929</v>
+                  <v>0.245446</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.17547</v>
+                  <v>0.231696</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.248616</v>
+                  <v>0.351141</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.245787</v>
+                  <v>0.34605</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.242009</v>
+                  <v>0.340123</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.238089</v>
+                  <v>0.333482</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.23324</v>
+                  <v>0.32637</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.228697</v>
+                  <v>0.318856</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.223516</v>
+                  <v>0.310478</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.21841</v>
+                  <v>0.301954</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.213314</v>
+                  <v>0.292679</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.207162</v>
+                  <v>0.282964</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.200421</v>
+                  <v>0.272133</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.193599</v>
+                  <v>0.261023</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.185725</v>
+                  <v>0.248331</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.176764</v>
+                  <v>0.234229</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.166714</v>
+                  <v>0.220121</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.245794</v>
+                  <v>0.347401</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.242525</v>
+                  <v>0.341691</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.238424</v>
+                  <v>0.335029</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.234103</v>
+                  <v>0.328343</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.229231</v>
+                  <v>0.320742</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.224664</v>
+                  <v>0.312829</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.219304</v>
+                  <v>0.304263</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.214252</v>
+                  <v>0.295448</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.208518</v>
+                  <v>0.285869</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.202065</v>
+                  <v>0.275217</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.195244</v>
+                  <v>0.264204</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.187756</v>
+                  <v>0.251532</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.179133</v>
+                  <v>0.238596</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.169207</v>
+                  <v>0.223777</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.246917</v>
+                  <v>0.34861</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.246332</v>
+                  <v>0.342652</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.242585</v>
+                  <v>0.336407</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.238219</v>
+                  <v>0.329477</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.232265</v>
+                  <v>0.322466</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.228123</v>
+                  <v>0.314629</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.222635</v>
+                  <v>0.305939</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.216763</v>
+                  <v>0.297194</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.210668</v>
+                  <v>0.287604</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.204186</v>
+                  <v>0.27728</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.196987</v>
+                  <v>0.266552</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.189119</v>
+                  <v>0.254412</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.180213</v>
+                  <v>0.241015</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.169992</v>
+                  <v>0.226701</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.247592</v>
+                  <v>0.349805</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.244288</v>
+                  <v>0.344041</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.240723</v>
+                  <v>0.338138</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.236424</v>
+                  <v>0.331133</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.231662</v>
+                  <v>0.323772</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.226876</v>
+                  <v>0.316269</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1447,430 +1447,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.201291</v>
+                  <v>0.2258</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.201516</v>
+                  <v>0.224459</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.200249</v>
+                  <v>0.225393</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.200249</v>
+                  <v>0.2244</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.200505</v>
+                  <v>0.226924</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.199087</v>
+                  <v>0.226065</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.198418</v>
+                  <v>0.225953</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.198247</v>
+                  <v>0.226748</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.221437</v>
+                  <v>0.248024</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.219922</v>
+                  <v>0.247182</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.218528</v>
+                  <v>0.24655</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.2171</v>
+                  <v>0.245634</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.215463</v>
+                  <v>0.244415</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.214955</v>
+                  <v>0.243493</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.213377</v>
+                  <v>0.243126</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.212913</v>
+                  <v>0.241082</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.211602</v>
+                  <v>0.240901</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.210815</v>
+                  <v>0.240178</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.207504</v>
+                  <v>0.239302</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.207086</v>
+                  <v>0.238751</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.205552</v>
+                  <v>0.238491</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.204648</v>
+                  <v>0.238289</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.224703</v>
+                  <v>0.260113</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.223023</v>
+                  <v>0.261841</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.220848</v>
+                  <v>0.253551</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.218965</v>
+                  <v>0.255139</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.217972</v>
+                  <v>0.246089</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.215821</v>
+                  <v>0.245273</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.214615</v>
+                  <v>0.258949</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.213219</v>
+                  <v>0.242286</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.211578</v>
+                  <v>0.248465</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.210634</v>
+                  <v>0.262686</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.210872</v>
+                  <v>0.241111</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.208499</v>
+                  <v>0.246167</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.206422</v>
+                  <v>0.252809</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.206007</v>
+                  <v>0.241128</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.2255</v>
+                  <v>0.253164</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.223422</v>
+                  <v>0.251465</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.221975</v>
+                  <v>0.250173</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.220213</v>
+                  <v>0.248828</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.218556</v>
+                  <v>0.247451</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.217427</v>
+                  <v>0.246539</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.216138</v>
+                  <v>0.245315</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.214962</v>
+                  <v>0.244571</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.2136</v>
+                  <v>0.243575</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.213041</v>
+                  <v>0.243024</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.211832</v>
+                  <v>0.241938</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.209509</v>
+                  <v>0.244428</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.208684</v>
+                  <v>0.24347</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.207132</v>
+                  <v>0.242826</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.205146</v>
+                  <v>0.241548</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.225152</v>
+                  <v>0.255253</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.222728</v>
+                  <v>0.254488</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.221529</v>
+                  <v>0.253756</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.219913</v>
+                  <v>0.251095</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.218323</v>
+                  <v>0.24945</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.217431</v>
+                  <v>0.248883</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.215819</v>
+                  <v>0.247526</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.215038</v>
+                  <v>0.247336</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.213131</v>
+                  <v>0.246347</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.212027</v>
+                  <v>0.24544</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.210712</v>
+                  <v>0.243998</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.208761</v>
+                  <v>0.243852</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.207429</v>
+                  <v>0.242968</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.20611</v>
+                  <v>0.2415</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.226496</v>
+                  <v>0.256836</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.224306</v>
+                  <v>0.25472</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.22236</v>
+                  <v>0.252306</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.220723</v>
+                  <v>0.250828</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.219672</v>
+                  <v>0.250034</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.217845</v>
+                  <v>0.248296</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.216338</v>
+                  <v>0.246977</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.215434</v>
+                  <v>0.246389</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.21392</v>
+                  <v>0.246238</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.212572</v>
+                  <v>0.24534</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.211105</v>
+                  <v>0.24473</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.209406</v>
+                  <v>0.243844</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.207868</v>
+                  <v>0.242615</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.20659</v>
+                  <v>0.241593</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.226701</v>
+                  <v>0.257587</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.225122</v>
+                  <v>0.255667</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.223251</v>
+                  <v>0.255027</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.221644</v>
+                  <v>0.252959</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.220299</v>
+                  <v>0.251614</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.218858</v>
+                  <v>0.250375</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.217246</v>
+                  <v>0.248611</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.215881</v>
+                  <v>0.247439</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.214362</v>
+                  <v>0.246153</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.212958</v>
+                  <v>0.244547</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.211369</v>
+                  <v>0.24421</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.209912</v>
+                  <v>0.243638</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.20825</v>
+                  <v>0.242331</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.206617</v>
+                  <v>0.241552</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.228183</v>
+                  <v>0.256787</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.227169</v>
+                  <v>0.256303</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.22497</v>
+                  <v>0.253748</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.222703</v>
+                  <v>0.253337</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.221276</v>
+                  <v>0.250958</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.219577</v>
+                  <v>0.249347</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.218228</v>
+                  <v>0.247985</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.21622</v>
+                  <v>0.246379</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.214969</v>
+                  <v>0.24535</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.213557</v>
+                  <v>0.24459</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.212248</v>
+                  <v>0.243665</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.210401</v>
+                  <v>0.243668</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.208988</v>
+                  <v>0.242665</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.207346</v>
+                  <v>0.241684</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.205767</v>
+                  <v>0.240453</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.225906</v>
+                  <v>0.257123</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.224097</v>
+                  <v>0.254833</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.222728</v>
+                  <v>0.253951</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.221308</v>
+                  <v>0.252073</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.220196</v>
+                  <v>0.25011</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.21862</v>
+                  <v>0.248357</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.21655</v>
+                  <v>0.24795</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.215537</v>
+                  <v>0.246069</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.214238</v>
+                  <v>0.244996</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.212117</v>
+                  <v>0.244297</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.210881</v>
+                  <v>0.243469</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.209702</v>
+                  <v>0.242728</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.208043</v>
+                  <v>0.241769</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.206454</v>
+                  <v>0.240877</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.226329</v>
+                  <v>0.257936</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.224658</v>
+                  <v>0.255371</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.222948</v>
+                  <v>0.254859</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.221866</v>
+                  <v>0.252724</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.220554</v>
+                  <v>0.249733</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.218875</v>
+                  <v>0.249298</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.216964</v>
+                  <v>0.247332</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.216028</v>
+                  <v>0.24666</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.214504</v>
+                  <v>0.245592</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.212833</v>
+                  <v>0.243678</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.211468</v>
+                  <v>0.243529</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.209966</v>
+                  <v>0.240796</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.208345</v>
+                  <v>0.241136</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.206874</v>
+                  <v>0.241069</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.226779</v>
+                  <v>0.261531</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.224795</v>
+                  <v>0.259078</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.223089</v>
+                  <v>0.256431</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.222063</v>
+                  <v>0.25263</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.220921</v>
+                  <v>0.252447</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.219072</v>
+                  <v>0.249685</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2341,430 +2341,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.208606</v>
+                  <v>0.198383</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.209511</v>
+                  <v>0.199267</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.208379</v>
+                  <v>0.199525</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.207471</v>
+                  <v>0.197334</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.208052</v>
+                  <v>0.198565</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.207445</v>
+                  <v>0.198936</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.206031</v>
+                  <v>0.198452</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.227022</v>
+                  <v>0.215961</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.225902</v>
+                  <v>0.215244</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.225349</v>
+                  <v>0.21435</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.224759</v>
+                  <v>0.213437</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.222172</v>
+                  <v>0.212581</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.220768</v>
+                  <v>0.211106</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.220222</v>
+                  <v>0.210784</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.219154</v>
+                  <v>0.209604</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.218249</v>
+                  <v>0.208939</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.217496</v>
+                  <v>0.208416</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.21592</v>
+                  <v>0.207743</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.215069</v>
+                  <v>0.206777</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.214014</v>
+                  <v>0.207094</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.213713</v>
+                  <v>0.206913</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.231544</v>
+                  <v>0.220136</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.229919</v>
+                  <v>0.218569</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.228007</v>
+                  <v>0.216868</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.225997</v>
+                  <v>0.215292</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.224769</v>
+                  <v>0.213881</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.222897</v>
+                  <v>0.212185</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.221417</v>
+                  <v>0.211346</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.220399</v>
+                  <v>0.210599</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.219409</v>
+                  <v>0.20971</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.218654</v>
+                  <v>0.209475</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.2176</v>
+                  <v>0.209037</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.216706</v>
+                  <v>0.209003</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.215503</v>
+                  <v>0.208022</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.21437</v>
+                  <v>0.206809</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.232848</v>
+                  <v>0.220464</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.230791</v>
+                  <v>0.219379</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.228567</v>
+                  <v>0.217829</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.227428</v>
+                  <v>0.216953</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.225946</v>
+                  <v>0.215165</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.224501</v>
+                  <v>0.214284</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.223499</v>
+                  <v>0.213826</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.221763</v>
+                  <v>0.212967</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.220712</v>
+                  <v>0.211858</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.219726</v>
+                  <v>0.211401</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.218625</v>
+                  <v>0.210809</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.217414</v>
+                  <v>0.209892</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.216309</v>
+                  <v>0.208877</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.215473</v>
+                  <v>0.208406</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.234185</v>
+                  <v>0.222068</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.231995</v>
+                  <v>0.220497</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.230333</v>
+                  <v>0.218915</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.228753</v>
+                  <v>0.217481</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.227289</v>
+                  <v>0.216657</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.225584</v>
+                  <v>0.215296</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.224278</v>
+                  <v>0.214206</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.223081</v>
+                  <v>0.2135</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.221831</v>
+                  <v>0.212592</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.221009</v>
+                  <v>0.212097</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.219558</v>
+                  <v>0.211276</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.218221</v>
+                  <v>0.210485</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.216985</v>
+                  <v>0.209692</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.215766</v>
+                  <v>0.208984</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.215022</v>
+                  <v>0.208562</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.232794</v>
+                  <v>0.220973</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.231625</v>
+                  <v>0.219742</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.229878</v>
+                  <v>0.218299</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.227973</v>
+                  <v>0.21703</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.226546</v>
+                  <v>0.215892</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.224849</v>
+                  <v>0.214778</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.223557</v>
+                  <v>0.213747</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.222089</v>
+                  <v>0.212701</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.220911</v>
+                  <v>0.21184</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.219549</v>
+                  <v>0.211061</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.218464</v>
+                  <v>0.21027</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.217405</v>
+                  <v>0.209689</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.216331</v>
+                  <v>0.209147</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.215458</v>
+                  <v>0.208611</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.233837</v>
+                  <v>0.221458</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.232005</v>
+                  <v>0.220098</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.230439</v>
+                  <v>0.218877</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.228893</v>
+                  <v>0.217635</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.227426</v>
+                  <v>0.216434</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.225865</v>
+                  <v>0.215332</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.224498</v>
+                  <v>0.214335</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.223047</v>
+                  <v>0.213364</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.221774</v>
+                  <v>0.212489</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.22041</v>
+                  <v>0.211502</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.219137</v>
+                  <v>0.210796</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.217886</v>
+                  <v>0.209966</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.216679</v>
+                  <v>0.209322</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.215674</v>
+                  <v>0.208741</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.234727</v>
+                  <v>0.221534</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.232964</v>
+                  <v>0.220068</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.231308</v>
+                  <v>0.218683</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.229417</v>
+                  <v>0.21743</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.227967</v>
+                  <v>0.21615</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.226301</v>
+                  <v>0.215041</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.224841</v>
+                  <v>0.21389</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.223213</v>
+                  <v>0.212888</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.222211</v>
+                  <v>0.211961</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.220851</v>
+                  <v>0.211154</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.219426</v>
+                  <v>0.210321</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.218379</v>
+                  <v>0.209764</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.217286</v>
+                  <v>0.209162</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.216168</v>
+                  <v>0.2085</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.235399</v>
+                  <v>0.221781</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.233298</v>
+                  <v>0.220286</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.231768</v>
+                  <v>0.21896</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.22999</v>
+                  <v>0.217658</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.228418</v>
+                  <v>0.216372</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.22708</v>
+                  <v>0.21525</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.225417</v>
+                  <v>0.214091</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.22423</v>
+                  <v>0.213104</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.223036</v>
+                  <v>0.212132</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.221508</v>
+                  <v>0.211337</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.22016</v>
+                  <v>0.210563</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.219138</v>
+                  <v>0.209814</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.217869</v>
+                  <v>0.209056</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.216605</v>
+                  <v>0.208578</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.215346</v>
+                  <v>0.207967</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.233921</v>
+                  <v>0.220829</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.23228</v>
+                  <v>0.219414</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.229977</v>
+                  <v>0.218059</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.229139</v>
+                  <v>0.216713</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.227523</v>
+                  <v>0.215534</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.226097</v>
+                  <v>0.214163</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.224516</v>
+                  <v>0.213147</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.223005</v>
+                  <v>0.212243</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.221893</v>
+                  <v>0.211488</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.220026</v>
+                  <v>0.210531</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.219126</v>
+                  <v>0.209823</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.217574</v>
+                  <v>0.209147</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.216965</v>
+                  <v>0.208532</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.215759</v>
+                  <v>0.20807</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.233797</v>
+                  <v>0.221166</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.23263</v>
+                  <v>0.21972</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.231029</v>
+                  <v>0.218344</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.229376</v>
+                  <v>0.217066</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.22777</v>
+                  <v>0.215858</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.2262</v>
+                  <v>0.214734</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.224234</v>
+                  <v>0.213715</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2825,7 +2825,7 @@
         <axId val="163989376"/>
         <scaling>
           <orientation val="minMax"/>
-          <max val="0.4"/>
+          <max val="0.5"/>
         </scaling>
         <delete val="0"/>
         <axPos val="l"/>
@@ -3223,8 +3223,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="3" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="4" style="1" width="11.42578125"/>
+    <col customWidth="1" max="4" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="5" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.299949</v>
+        <v>0.297699</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2258</v>
+        <v>0.227372</v>
       </c>
       <c r="D2" t="n">
-        <v>0.198383</v>
+        <v>0.195725</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.287121</v>
+        <v>0.288464</v>
       </c>
       <c r="C3" t="n">
-        <v>0.224459</v>
+        <v>0.228577</v>
       </c>
       <c r="D3" t="n">
-        <v>0.199267</v>
+        <v>0.196868</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.276605</v>
+        <v>0.277839</v>
       </c>
       <c r="C4" t="n">
-        <v>0.225393</v>
+        <v>0.229445</v>
       </c>
       <c r="D4" t="n">
-        <v>0.199525</v>
+        <v>0.195462</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.267628</v>
+        <v>0.268151</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2244</v>
+        <v>0.229317</v>
       </c>
       <c r="D5" t="n">
-        <v>0.197334</v>
+        <v>0.196239</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.256472</v>
+        <v>0.257181</v>
       </c>
       <c r="C6" t="n">
-        <v>0.226924</v>
+        <v>0.230447</v>
       </c>
       <c r="D6" t="n">
-        <v>0.198565</v>
+        <v>0.196399</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.24504</v>
+        <v>0.246485</v>
       </c>
       <c r="C7" t="n">
-        <v>0.226065</v>
+        <v>0.228876</v>
       </c>
       <c r="D7" t="n">
-        <v>0.198936</v>
+        <v>0.197753</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.233163</v>
+        <v>0.232446</v>
       </c>
       <c r="C8" t="n">
-        <v>0.225953</v>
+        <v>0.230494</v>
       </c>
       <c r="D8" t="n">
-        <v>0.198452</v>
+        <v>0.197851</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.218159</v>
+        <v>0.218296</v>
       </c>
       <c r="C9" t="n">
-        <v>0.226748</v>
+        <v>0.231056</v>
       </c>
       <c r="D9" t="n">
-        <v>0.215961</v>
+        <v>0.213679</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.341848</v>
+        <v>0.342122</v>
       </c>
       <c r="C10" t="n">
-        <v>0.248024</v>
+        <v>0.250458</v>
       </c>
       <c r="D10" t="n">
-        <v>0.215244</v>
+        <v>0.213099</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.33683</v>
+        <v>0.339683</v>
       </c>
       <c r="C11" t="n">
-        <v>0.247182</v>
+        <v>0.248822</v>
       </c>
       <c r="D11" t="n">
-        <v>0.21435</v>
+        <v>0.212314</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.32914</v>
+        <v>0.330325</v>
       </c>
       <c r="C12" t="n">
-        <v>0.24655</v>
+        <v>0.248168</v>
       </c>
       <c r="D12" t="n">
-        <v>0.213437</v>
+        <v>0.211175</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.323291</v>
+        <v>0.32369</v>
       </c>
       <c r="C13" t="n">
-        <v>0.245634</v>
+        <v>0.246593</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212581</v>
+        <v>0.210208</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.31628</v>
+        <v>0.317033</v>
       </c>
       <c r="C14" t="n">
-        <v>0.244415</v>
+        <v>0.245005</v>
       </c>
       <c r="D14" t="n">
-        <v>0.211106</v>
+        <v>0.208165</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.30976</v>
+        <v>0.3091</v>
       </c>
       <c r="C15" t="n">
-        <v>0.243493</v>
+        <v>0.248533</v>
       </c>
       <c r="D15" t="n">
-        <v>0.210784</v>
+        <v>0.20751</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.300991</v>
+        <v>0.301343</v>
       </c>
       <c r="C16" t="n">
-        <v>0.243126</v>
+        <v>0.243316</v>
       </c>
       <c r="D16" t="n">
-        <v>0.209604</v>
+        <v>0.207039</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.293743</v>
+        <v>0.293263</v>
       </c>
       <c r="C17" t="n">
-        <v>0.241082</v>
+        <v>0.242295</v>
       </c>
       <c r="D17" t="n">
-        <v>0.208939</v>
+        <v>0.205727</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.284792</v>
+        <v>0.285485</v>
       </c>
       <c r="C18" t="n">
-        <v>0.240901</v>
+        <v>0.242134</v>
       </c>
       <c r="D18" t="n">
-        <v>0.208416</v>
+        <v>0.205401</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.275362</v>
+        <v>0.275192</v>
       </c>
       <c r="C19" t="n">
-        <v>0.240178</v>
+        <v>0.24131</v>
       </c>
       <c r="D19" t="n">
-        <v>0.207743</v>
+        <v>0.204951</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.265254</v>
+        <v>0.264093</v>
       </c>
       <c r="C20" t="n">
-        <v>0.239302</v>
+        <v>0.240937</v>
       </c>
       <c r="D20" t="n">
-        <v>0.206777</v>
+        <v>0.204399</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.251157</v>
+        <v>0.251571</v>
       </c>
       <c r="C21" t="n">
-        <v>0.238751</v>
+        <v>0.240904</v>
       </c>
       <c r="D21" t="n">
-        <v>0.207094</v>
+        <v>0.204685</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.23875</v>
+        <v>0.238565</v>
       </c>
       <c r="C22" t="n">
-        <v>0.238491</v>
+        <v>0.239655</v>
       </c>
       <c r="D22" t="n">
-        <v>0.206913</v>
+        <v>0.204475</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.224983</v>
+        <v>0.224463</v>
       </c>
       <c r="C23" t="n">
-        <v>0.238289</v>
+        <v>0.238785</v>
       </c>
       <c r="D23" t="n">
-        <v>0.220136</v>
+        <v>0.216634</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.349144</v>
+        <v>0.347285</v>
       </c>
       <c r="C24" t="n">
-        <v>0.260113</v>
+        <v>0.253936</v>
       </c>
       <c r="D24" t="n">
-        <v>0.218569</v>
+        <v>0.215402</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342727</v>
+        <v>0.3409</v>
       </c>
       <c r="C25" t="n">
-        <v>0.261841</v>
+        <v>0.252361</v>
       </c>
       <c r="D25" t="n">
-        <v>0.216868</v>
+        <v>0.214306</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.334127</v>
+        <v>0.335115</v>
       </c>
       <c r="C26" t="n">
-        <v>0.253551</v>
+        <v>0.250455</v>
       </c>
       <c r="D26" t="n">
-        <v>0.215292</v>
+        <v>0.212959</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328853</v>
+        <v>0.328216</v>
       </c>
       <c r="C27" t="n">
-        <v>0.255139</v>
+        <v>0.24842</v>
       </c>
       <c r="D27" t="n">
-        <v>0.213881</v>
+        <v>0.21207</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.322139</v>
+        <v>0.321576</v>
       </c>
       <c r="C28" t="n">
-        <v>0.246089</v>
+        <v>0.247388</v>
       </c>
       <c r="D28" t="n">
-        <v>0.212185</v>
+        <v>0.210809</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.316201</v>
+        <v>0.314165</v>
       </c>
       <c r="C29" t="n">
-        <v>0.245273</v>
+        <v>0.246066</v>
       </c>
       <c r="D29" t="n">
-        <v>0.211346</v>
+        <v>0.209425</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.310719</v>
+        <v>0.3064</v>
       </c>
       <c r="C30" t="n">
-        <v>0.258949</v>
+        <v>0.249019</v>
       </c>
       <c r="D30" t="n">
-        <v>0.210599</v>
+        <v>0.208601</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.299521</v>
+        <v>0.29804</v>
       </c>
       <c r="C31" t="n">
-        <v>0.242286</v>
+        <v>0.243455</v>
       </c>
       <c r="D31" t="n">
-        <v>0.20971</v>
+        <v>0.207778</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.292527</v>
+        <v>0.288759</v>
       </c>
       <c r="C32" t="n">
-        <v>0.248465</v>
+        <v>0.246832</v>
       </c>
       <c r="D32" t="n">
-        <v>0.209475</v>
+        <v>0.207953</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.280738</v>
+        <v>0.2792</v>
       </c>
       <c r="C33" t="n">
-        <v>0.262686</v>
+        <v>0.246258</v>
       </c>
       <c r="D33" t="n">
-        <v>0.209037</v>
+        <v>0.20697</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.268983</v>
+        <v>0.269488</v>
       </c>
       <c r="C34" t="n">
-        <v>0.241111</v>
+        <v>0.246128</v>
       </c>
       <c r="D34" t="n">
-        <v>0.209003</v>
+        <v>0.206708</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.258928</v>
+        <v>0.256801</v>
       </c>
       <c r="C35" t="n">
-        <v>0.246167</v>
+        <v>0.244864</v>
       </c>
       <c r="D35" t="n">
-        <v>0.208022</v>
+        <v>0.206914</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.248514</v>
+        <v>0.243983</v>
       </c>
       <c r="C36" t="n">
-        <v>0.252809</v>
+        <v>0.244415</v>
       </c>
       <c r="D36" t="n">
-        <v>0.206809</v>
+        <v>0.205477</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.231067</v>
+        <v>0.230828</v>
       </c>
       <c r="C37" t="n">
-        <v>0.241128</v>
+        <v>0.239622</v>
       </c>
       <c r="D37" t="n">
-        <v>0.220464</v>
+        <v>0.218114</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.348487</v>
+        <v>0.349872</v>
       </c>
       <c r="C38" t="n">
-        <v>0.253164</v>
+        <v>0.254474</v>
       </c>
       <c r="D38" t="n">
-        <v>0.219379</v>
+        <v>0.216646</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.342996</v>
+        <v>0.343973</v>
       </c>
       <c r="C39" t="n">
-        <v>0.251465</v>
+        <v>0.252722</v>
       </c>
       <c r="D39" t="n">
-        <v>0.217829</v>
+        <v>0.215545</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.337131</v>
+        <v>0.338489</v>
       </c>
       <c r="C40" t="n">
-        <v>0.250173</v>
+        <v>0.251486</v>
       </c>
       <c r="D40" t="n">
-        <v>0.216953</v>
+        <v>0.214325</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.330766</v>
+        <v>0.331824</v>
       </c>
       <c r="C41" t="n">
-        <v>0.248828</v>
+        <v>0.250226</v>
       </c>
       <c r="D41" t="n">
-        <v>0.215165</v>
+        <v>0.213151</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.323655</v>
+        <v>0.325153</v>
       </c>
       <c r="C42" t="n">
-        <v>0.247451</v>
+        <v>0.249229</v>
       </c>
       <c r="D42" t="n">
-        <v>0.214284</v>
+        <v>0.212605</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.31677</v>
+        <v>0.317767</v>
       </c>
       <c r="C43" t="n">
-        <v>0.246539</v>
+        <v>0.24836</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213826</v>
+        <v>0.213063</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.309786</v>
+        <v>0.309934</v>
       </c>
       <c r="C44" t="n">
-        <v>0.245315</v>
+        <v>0.247498</v>
       </c>
       <c r="D44" t="n">
-        <v>0.212967</v>
+        <v>0.212069</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.301265</v>
+        <v>0.301184</v>
       </c>
       <c r="C45" t="n">
-        <v>0.244571</v>
+        <v>0.246416</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211858</v>
+        <v>0.211109</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291955</v>
+        <v>0.292624</v>
       </c>
       <c r="C46" t="n">
-        <v>0.243575</v>
+        <v>0.245826</v>
       </c>
       <c r="D46" t="n">
-        <v>0.211401</v>
+        <v>0.210374</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.282602</v>
+        <v>0.282562</v>
       </c>
       <c r="C47" t="n">
-        <v>0.243024</v>
+        <v>0.244791</v>
       </c>
       <c r="D47" t="n">
-        <v>0.210809</v>
+        <v>0.20995</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.271642</v>
+        <v>0.271726</v>
       </c>
       <c r="C48" t="n">
-        <v>0.241938</v>
+        <v>0.243782</v>
       </c>
       <c r="D48" t="n">
-        <v>0.209892</v>
+        <v>0.209139</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.259986</v>
+        <v>0.259905</v>
       </c>
       <c r="C49" t="n">
-        <v>0.244428</v>
+        <v>0.246024</v>
       </c>
       <c r="D49" t="n">
-        <v>0.208877</v>
+        <v>0.207791</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.247571</v>
+        <v>0.247827</v>
       </c>
       <c r="C50" t="n">
-        <v>0.24347</v>
+        <v>0.24446</v>
       </c>
       <c r="D50" t="n">
-        <v>0.208406</v>
+        <v>0.207653</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.234175</v>
+        <v>0.234301</v>
       </c>
       <c r="C51" t="n">
-        <v>0.242826</v>
+        <v>0.242994</v>
       </c>
       <c r="D51" t="n">
-        <v>0.222068</v>
+        <v>0.221219</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.220899</v>
+        <v>0.220378</v>
       </c>
       <c r="C52" t="n">
-        <v>0.241548</v>
+        <v>0.242274</v>
       </c>
       <c r="D52" t="n">
-        <v>0.220497</v>
+        <v>0.219418</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.345661</v>
+        <v>0.347416</v>
       </c>
       <c r="C53" t="n">
-        <v>0.255253</v>
+        <v>0.25628</v>
       </c>
       <c r="D53" t="n">
-        <v>0.218915</v>
+        <v>0.217884</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.340052</v>
+        <v>0.341684</v>
       </c>
       <c r="C54" t="n">
-        <v>0.254488</v>
+        <v>0.255199</v>
       </c>
       <c r="D54" t="n">
-        <v>0.217481</v>
+        <v>0.216305</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.333789</v>
+        <v>0.335951</v>
       </c>
       <c r="C55" t="n">
-        <v>0.253756</v>
+        <v>0.253962</v>
       </c>
       <c r="D55" t="n">
-        <v>0.216657</v>
+        <v>0.215586</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.327238</v>
+        <v>0.328708</v>
       </c>
       <c r="C56" t="n">
-        <v>0.251095</v>
+        <v>0.252163</v>
       </c>
       <c r="D56" t="n">
-        <v>0.215296</v>
+        <v>0.214207</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.319794</v>
+        <v>0.32114</v>
       </c>
       <c r="C57" t="n">
-        <v>0.24945</v>
+        <v>0.25158</v>
       </c>
       <c r="D57" t="n">
-        <v>0.214206</v>
+        <v>0.213675</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.312256</v>
+        <v>0.31288</v>
       </c>
       <c r="C58" t="n">
-        <v>0.248883</v>
+        <v>0.249931</v>
       </c>
       <c r="D58" t="n">
-        <v>0.2135</v>
+        <v>0.21331</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.303728</v>
+        <v>0.30506</v>
       </c>
       <c r="C59" t="n">
-        <v>0.247526</v>
+        <v>0.249401</v>
       </c>
       <c r="D59" t="n">
-        <v>0.212592</v>
+        <v>0.212077</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294609</v>
+        <v>0.29529</v>
       </c>
       <c r="C60" t="n">
-        <v>0.247336</v>
+        <v>0.248434</v>
       </c>
       <c r="D60" t="n">
-        <v>0.212097</v>
+        <v>0.211798</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.285147</v>
+        <v>0.285949</v>
       </c>
       <c r="C61" t="n">
-        <v>0.246347</v>
+        <v>0.247946</v>
       </c>
       <c r="D61" t="n">
-        <v>0.211276</v>
+        <v>0.211002</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.275168</v>
+        <v>0.275487</v>
       </c>
       <c r="C62" t="n">
-        <v>0.24544</v>
+        <v>0.246556</v>
       </c>
       <c r="D62" t="n">
-        <v>0.210485</v>
+        <v>0.210014</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.264106</v>
+        <v>0.264295</v>
       </c>
       <c r="C63" t="n">
-        <v>0.243998</v>
+        <v>0.246473</v>
       </c>
       <c r="D63" t="n">
-        <v>0.209692</v>
+        <v>0.20917</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.252473</v>
+        <v>0.251879</v>
       </c>
       <c r="C64" t="n">
-        <v>0.243852</v>
+        <v>0.245251</v>
       </c>
       <c r="D64" t="n">
-        <v>0.208984</v>
+        <v>0.208411</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.238801</v>
+        <v>0.238708</v>
       </c>
       <c r="C65" t="n">
-        <v>0.242968</v>
+        <v>0.244259</v>
       </c>
       <c r="D65" t="n">
-        <v>0.208562</v>
+        <v>0.207898</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.225136</v>
+        <v>0.224313</v>
       </c>
       <c r="C66" t="n">
-        <v>0.2415</v>
+        <v>0.243006</v>
       </c>
       <c r="D66" t="n">
-        <v>0.220973</v>
+        <v>0.219284</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.347264</v>
+        <v>0.348641</v>
       </c>
       <c r="C67" t="n">
-        <v>0.256836</v>
+        <v>0.257861</v>
       </c>
       <c r="D67" t="n">
-        <v>0.219742</v>
+        <v>0.218283</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.341956</v>
+        <v>0.343014</v>
       </c>
       <c r="C68" t="n">
-        <v>0.25472</v>
+        <v>0.256265</v>
       </c>
       <c r="D68" t="n">
-        <v>0.218299</v>
+        <v>0.217245</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.335628</v>
+        <v>0.336752</v>
       </c>
       <c r="C69" t="n">
-        <v>0.252306</v>
+        <v>0.255133</v>
       </c>
       <c r="D69" t="n">
-        <v>0.21703</v>
+        <v>0.216103</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.32867</v>
+        <v>0.32933</v>
       </c>
       <c r="C70" t="n">
-        <v>0.250828</v>
+        <v>0.253853</v>
       </c>
       <c r="D70" t="n">
-        <v>0.215892</v>
+        <v>0.214939</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.321519</v>
+        <v>0.322065</v>
       </c>
       <c r="C71" t="n">
-        <v>0.250034</v>
+        <v>0.252827</v>
       </c>
       <c r="D71" t="n">
-        <v>0.214778</v>
+        <v>0.213914</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.313847</v>
+        <v>0.314616</v>
       </c>
       <c r="C72" t="n">
-        <v>0.248296</v>
+        <v>0.251381</v>
       </c>
       <c r="D72" t="n">
-        <v>0.213747</v>
+        <v>0.212859</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.304901</v>
+        <v>0.305524</v>
       </c>
       <c r="C73" t="n">
-        <v>0.246977</v>
+        <v>0.249751</v>
       </c>
       <c r="D73" t="n">
-        <v>0.212701</v>
+        <v>0.211601</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.296281</v>
+        <v>0.297168</v>
       </c>
       <c r="C74" t="n">
-        <v>0.246389</v>
+        <v>0.248918</v>
       </c>
       <c r="D74" t="n">
-        <v>0.21184</v>
+        <v>0.210933</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286915</v>
+        <v>0.287089</v>
       </c>
       <c r="C75" t="n">
-        <v>0.246238</v>
+        <v>0.248002</v>
       </c>
       <c r="D75" t="n">
-        <v>0.211061</v>
+        <v>0.21032</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.276889</v>
+        <v>0.277773</v>
       </c>
       <c r="C76" t="n">
-        <v>0.24534</v>
+        <v>0.247147</v>
       </c>
       <c r="D76" t="n">
-        <v>0.21027</v>
+        <v>0.209385</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.266398</v>
+        <v>0.266426</v>
       </c>
       <c r="C77" t="n">
-        <v>0.24473</v>
+        <v>0.246031</v>
       </c>
       <c r="D77" t="n">
-        <v>0.209689</v>
+        <v>0.20865</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.254564</v>
+        <v>0.254675</v>
       </c>
       <c r="C78" t="n">
-        <v>0.243844</v>
+        <v>0.244989</v>
       </c>
       <c r="D78" t="n">
-        <v>0.209147</v>
+        <v>0.208178</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.241835</v>
+        <v>0.241545</v>
       </c>
       <c r="C79" t="n">
-        <v>0.242615</v>
+        <v>0.243826</v>
       </c>
       <c r="D79" t="n">
-        <v>0.208611</v>
+        <v>0.207643</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227844</v>
+        <v>0.227495</v>
       </c>
       <c r="C80" t="n">
-        <v>0.241593</v>
+        <v>0.242784</v>
       </c>
       <c r="D80" t="n">
-        <v>0.221458</v>
+        <v>0.21996</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.350006</v>
+        <v>0.351437</v>
       </c>
       <c r="C81" t="n">
-        <v>0.257587</v>
+        <v>0.257451</v>
       </c>
       <c r="D81" t="n">
-        <v>0.220098</v>
+        <v>0.218502</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.344331</v>
+        <v>0.345733</v>
       </c>
       <c r="C82" t="n">
-        <v>0.255667</v>
+        <v>0.25614</v>
       </c>
       <c r="D82" t="n">
-        <v>0.218877</v>
+        <v>0.217551</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.338426</v>
+        <v>0.339369</v>
       </c>
       <c r="C83" t="n">
-        <v>0.255027</v>
+        <v>0.255742</v>
       </c>
       <c r="D83" t="n">
-        <v>0.217635</v>
+        <v>0.215841</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.331637</v>
+        <v>0.332521</v>
       </c>
       <c r="C84" t="n">
-        <v>0.252959</v>
+        <v>0.254008</v>
       </c>
       <c r="D84" t="n">
-        <v>0.216434</v>
+        <v>0.214621</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.324611</v>
+        <v>0.32541</v>
       </c>
       <c r="C85" t="n">
-        <v>0.251614</v>
+        <v>0.252295</v>
       </c>
       <c r="D85" t="n">
-        <v>0.215332</v>
+        <v>0.214006</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.316646</v>
+        <v>0.317595</v>
       </c>
       <c r="C86" t="n">
-        <v>0.250375</v>
+        <v>0.252002</v>
       </c>
       <c r="D86" t="n">
-        <v>0.214335</v>
+        <v>0.213345</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.308415</v>
+        <v>0.30949</v>
       </c>
       <c r="C87" t="n">
-        <v>0.248611</v>
+        <v>0.249869</v>
       </c>
       <c r="D87" t="n">
-        <v>0.213364</v>
+        <v>0.212403</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.299852</v>
+        <v>0.300728</v>
       </c>
       <c r="C88" t="n">
-        <v>0.247439</v>
+        <v>0.24931</v>
       </c>
       <c r="D88" t="n">
-        <v>0.212489</v>
+        <v>0.211173</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.290469</v>
+        <v>0.29074</v>
       </c>
       <c r="C89" t="n">
-        <v>0.246153</v>
+        <v>0.248108</v>
       </c>
       <c r="D89" t="n">
-        <v>0.211502</v>
+        <v>0.210384</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.280611</v>
+        <v>0.280758</v>
       </c>
       <c r="C90" t="n">
-        <v>0.244547</v>
+        <v>0.247136</v>
       </c>
       <c r="D90" t="n">
-        <v>0.210796</v>
+        <v>0.209634</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.269566</v>
+        <v>0.269627</v>
       </c>
       <c r="C91" t="n">
-        <v>0.24421</v>
+        <v>0.245846</v>
       </c>
       <c r="D91" t="n">
-        <v>0.209966</v>
+        <v>0.208865</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.257965</v>
+        <v>0.257688</v>
       </c>
       <c r="C92" t="n">
-        <v>0.243638</v>
+        <v>0.245176</v>
       </c>
       <c r="D92" t="n">
-        <v>0.209322</v>
+        <v>0.208211</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.245446</v>
+        <v>0.244699</v>
       </c>
       <c r="C93" t="n">
-        <v>0.242331</v>
+        <v>0.243262</v>
       </c>
       <c r="D93" t="n">
-        <v>0.208741</v>
+        <v>0.2075</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.231696</v>
+        <v>0.230985</v>
       </c>
       <c r="C94" t="n">
-        <v>0.241552</v>
+        <v>0.242789</v>
       </c>
       <c r="D94" t="n">
-        <v>0.221534</v>
+        <v>0.220266</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.351141</v>
+        <v>0.352537</v>
       </c>
       <c r="C95" t="n">
-        <v>0.256787</v>
+        <v>0.256748</v>
       </c>
       <c r="D95" t="n">
-        <v>0.220068</v>
+        <v>0.218273</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.34605</v>
+        <v>0.346988</v>
       </c>
       <c r="C96" t="n">
-        <v>0.256303</v>
+        <v>0.256128</v>
       </c>
       <c r="D96" t="n">
-        <v>0.218683</v>
+        <v>0.216971</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.340123</v>
+        <v>0.340924</v>
       </c>
       <c r="C97" t="n">
-        <v>0.253748</v>
+        <v>0.255423</v>
       </c>
       <c r="D97" t="n">
-        <v>0.21743</v>
+        <v>0.216191</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.333482</v>
+        <v>0.334504</v>
       </c>
       <c r="C98" t="n">
-        <v>0.253337</v>
+        <v>0.254067</v>
       </c>
       <c r="D98" t="n">
-        <v>0.21615</v>
+        <v>0.214886</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.32637</v>
+        <v>0.327223</v>
       </c>
       <c r="C99" t="n">
-        <v>0.250958</v>
+        <v>0.252039</v>
       </c>
       <c r="D99" t="n">
-        <v>0.215041</v>
+        <v>0.213632</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.318856</v>
+        <v>0.31914</v>
       </c>
       <c r="C100" t="n">
-        <v>0.249347</v>
+        <v>0.250034</v>
       </c>
       <c r="D100" t="n">
-        <v>0.21389</v>
+        <v>0.212672</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.310478</v>
+        <v>0.311756</v>
       </c>
       <c r="C101" t="n">
-        <v>0.247985</v>
+        <v>0.250246</v>
       </c>
       <c r="D101" t="n">
-        <v>0.212888</v>
+        <v>0.21138</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.301954</v>
+        <v>0.301346</v>
       </c>
       <c r="C102" t="n">
-        <v>0.246379</v>
+        <v>0.247838</v>
       </c>
       <c r="D102" t="n">
-        <v>0.211961</v>
+        <v>0.210836</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.292679</v>
+        <v>0.292345</v>
       </c>
       <c r="C103" t="n">
-        <v>0.24535</v>
+        <v>0.247589</v>
       </c>
       <c r="D103" t="n">
-        <v>0.211154</v>
+        <v>0.210204</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.282964</v>
+        <v>0.282669</v>
       </c>
       <c r="C104" t="n">
-        <v>0.24459</v>
+        <v>0.246415</v>
       </c>
       <c r="D104" t="n">
-        <v>0.210321</v>
+        <v>0.209082</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.272133</v>
+        <v>0.271867</v>
       </c>
       <c r="C105" t="n">
-        <v>0.243665</v>
+        <v>0.244845</v>
       </c>
       <c r="D105" t="n">
-        <v>0.209764</v>
+        <v>0.208867</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.261023</v>
+        <v>0.259945</v>
       </c>
       <c r="C106" t="n">
-        <v>0.243668</v>
+        <v>0.243991</v>
       </c>
       <c r="D106" t="n">
-        <v>0.209162</v>
+        <v>0.208028</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.248331</v>
+        <v>0.247238</v>
       </c>
       <c r="C107" t="n">
-        <v>0.242665</v>
+        <v>0.24295</v>
       </c>
       <c r="D107" t="n">
-        <v>0.2085</v>
+        <v>0.207794</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.234229</v>
+        <v>0.233517</v>
       </c>
       <c r="C108" t="n">
-        <v>0.241684</v>
+        <v>0.243132</v>
       </c>
       <c r="D108" t="n">
-        <v>0.221781</v>
+        <v>0.220018</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.220121</v>
+        <v>0.219003</v>
       </c>
       <c r="C109" t="n">
-        <v>0.240453</v>
+        <v>0.241832</v>
       </c>
       <c r="D109" t="n">
-        <v>0.220286</v>
+        <v>0.218707</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.347401</v>
+        <v>0.347713</v>
       </c>
       <c r="C110" t="n">
-        <v>0.257123</v>
+        <v>0.255427</v>
       </c>
       <c r="D110" t="n">
-        <v>0.21896</v>
+        <v>0.217424</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.341691</v>
+        <v>0.341351</v>
       </c>
       <c r="C111" t="n">
-        <v>0.254833</v>
+        <v>0.255463</v>
       </c>
       <c r="D111" t="n">
-        <v>0.217658</v>
+        <v>0.215819</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.335029</v>
+        <v>0.334985</v>
       </c>
       <c r="C112" t="n">
-        <v>0.253951</v>
+        <v>0.25412</v>
       </c>
       <c r="D112" t="n">
-        <v>0.216372</v>
+        <v>0.214793</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.328343</v>
+        <v>0.328046</v>
       </c>
       <c r="C113" t="n">
-        <v>0.252073</v>
+        <v>0.25267</v>
       </c>
       <c r="D113" t="n">
-        <v>0.21525</v>
+        <v>0.214049</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.320742</v>
+        <v>0.320326</v>
       </c>
       <c r="C114" t="n">
-        <v>0.25011</v>
+        <v>0.251848</v>
       </c>
       <c r="D114" t="n">
-        <v>0.214091</v>
+        <v>0.212939</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.312829</v>
+        <v>0.3122</v>
       </c>
       <c r="C115" t="n">
-        <v>0.248357</v>
+        <v>0.249027</v>
       </c>
       <c r="D115" t="n">
-        <v>0.213104</v>
+        <v>0.211546</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304263</v>
+        <v>0.304253</v>
       </c>
       <c r="C116" t="n">
-        <v>0.24795</v>
+        <v>0.249387</v>
       </c>
       <c r="D116" t="n">
-        <v>0.212132</v>
+        <v>0.211257</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.295448</v>
+        <v>0.294797</v>
       </c>
       <c r="C117" t="n">
-        <v>0.246069</v>
+        <v>0.248366</v>
       </c>
       <c r="D117" t="n">
-        <v>0.211337</v>
+        <v>0.210521</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.285869</v>
+        <v>0.28495</v>
       </c>
       <c r="C118" t="n">
-        <v>0.244996</v>
+        <v>0.246604</v>
       </c>
       <c r="D118" t="n">
-        <v>0.210563</v>
+        <v>0.209665</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.275217</v>
+        <v>0.274449</v>
       </c>
       <c r="C119" t="n">
-        <v>0.244297</v>
+        <v>0.246275</v>
       </c>
       <c r="D119" t="n">
-        <v>0.209814</v>
+        <v>0.208996</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.264204</v>
+        <v>0.262859</v>
       </c>
       <c r="C120" t="n">
-        <v>0.243469</v>
+        <v>0.245173</v>
       </c>
       <c r="D120" t="n">
-        <v>0.209056</v>
+        <v>0.208119</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.251532</v>
+        <v>0.250799</v>
       </c>
       <c r="C121" t="n">
-        <v>0.242728</v>
+        <v>0.242887</v>
       </c>
       <c r="D121" t="n">
-        <v>0.208578</v>
+        <v>0.207469</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.238596</v>
+        <v>0.237233</v>
       </c>
       <c r="C122" t="n">
-        <v>0.241769</v>
+        <v>0.241756</v>
       </c>
       <c r="D122" t="n">
-        <v>0.207967</v>
+        <v>0.20706</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.223777</v>
+        <v>0.222598</v>
       </c>
       <c r="C123" t="n">
-        <v>0.240877</v>
+        <v>0.241881</v>
       </c>
       <c r="D123" t="n">
-        <v>0.220829</v>
+        <v>0.219208</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.34861</v>
+        <v>0.348521</v>
       </c>
       <c r="C124" t="n">
-        <v>0.257936</v>
+        <v>0.256909</v>
       </c>
       <c r="D124" t="n">
-        <v>0.219414</v>
+        <v>0.218002</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.342652</v>
+        <v>0.342979</v>
       </c>
       <c r="C125" t="n">
-        <v>0.255371</v>
+        <v>0.255574</v>
       </c>
       <c r="D125" t="n">
-        <v>0.218059</v>
+        <v>0.216657</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.336407</v>
+        <v>0.336391</v>
       </c>
       <c r="C126" t="n">
-        <v>0.254859</v>
+        <v>0.254239</v>
       </c>
       <c r="D126" t="n">
-        <v>0.216713</v>
+        <v>0.214867</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.329477</v>
+        <v>0.329479</v>
       </c>
       <c r="C127" t="n">
-        <v>0.252724</v>
+        <v>0.253326</v>
       </c>
       <c r="D127" t="n">
-        <v>0.215534</v>
+        <v>0.214404</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.322466</v>
+        <v>0.322313</v>
       </c>
       <c r="C128" t="n">
-        <v>0.249733</v>
+        <v>0.251901</v>
       </c>
       <c r="D128" t="n">
-        <v>0.214163</v>
+        <v>0.212962</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.314629</v>
+        <v>0.314402</v>
       </c>
       <c r="C129" t="n">
-        <v>0.249298</v>
+        <v>0.250492</v>
       </c>
       <c r="D129" t="n">
-        <v>0.213147</v>
+        <v>0.211904</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.305939</v>
+        <v>0.305872</v>
       </c>
       <c r="C130" t="n">
-        <v>0.247332</v>
+        <v>0.248123</v>
       </c>
       <c r="D130" t="n">
-        <v>0.212243</v>
+        <v>0.211175</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.297194</v>
+        <v>0.297285</v>
       </c>
       <c r="C131" t="n">
-        <v>0.24666</v>
+        <v>0.248287</v>
       </c>
       <c r="D131" t="n">
-        <v>0.211488</v>
+        <v>0.210215</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.287604</v>
+        <v>0.287665</v>
       </c>
       <c r="C132" t="n">
-        <v>0.245592</v>
+        <v>0.247156</v>
       </c>
       <c r="D132" t="n">
-        <v>0.210531</v>
+        <v>0.209179</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.27728</v>
+        <v>0.277255</v>
       </c>
       <c r="C133" t="n">
-        <v>0.243678</v>
+        <v>0.246311</v>
       </c>
       <c r="D133" t="n">
-        <v>0.209823</v>
+        <v>0.208828</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.266552</v>
+        <v>0.266227</v>
       </c>
       <c r="C134" t="n">
-        <v>0.243529</v>
+        <v>0.244542</v>
       </c>
       <c r="D134" t="n">
-        <v>0.209147</v>
+        <v>0.20794</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.254412</v>
+        <v>0.253593</v>
       </c>
       <c r="C135" t="n">
-        <v>0.240796</v>
+        <v>0.244433</v>
       </c>
       <c r="D135" t="n">
-        <v>0.208532</v>
+        <v>0.207694</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.241015</v>
+        <v>0.240431</v>
       </c>
       <c r="C136" t="n">
-        <v>0.241136</v>
+        <v>0.241741</v>
       </c>
       <c r="D136" t="n">
-        <v>0.20807</v>
+        <v>0.206783</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.226701</v>
+        <v>0.22586</v>
       </c>
       <c r="C137" t="n">
-        <v>0.241069</v>
+        <v>0.2424</v>
       </c>
       <c r="D137" t="n">
-        <v>0.221166</v>
+        <v>0.21957</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.349805</v>
+        <v>0.350475</v>
       </c>
       <c r="C138" t="n">
-        <v>0.261531</v>
+        <v>0.25746</v>
       </c>
       <c r="D138" t="n">
-        <v>0.21972</v>
+        <v>0.218246</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.344041</v>
+        <v>0.344358</v>
       </c>
       <c r="C139" t="n">
-        <v>0.259078</v>
+        <v>0.255257</v>
       </c>
       <c r="D139" t="n">
-        <v>0.218344</v>
+        <v>0.216973</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338138</v>
+        <v>0.337951</v>
       </c>
       <c r="C140" t="n">
-        <v>0.256431</v>
+        <v>0.254778</v>
       </c>
       <c r="D140" t="n">
-        <v>0.217066</v>
+        <v>0.21561</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331133</v>
+        <v>0.33128</v>
       </c>
       <c r="C141" t="n">
-        <v>0.25263</v>
+        <v>0.251386</v>
       </c>
       <c r="D141" t="n">
-        <v>0.215858</v>
+        <v>0.214238</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.323772</v>
+        <v>0.32382</v>
       </c>
       <c r="C142" t="n">
-        <v>0.252447</v>
+        <v>0.25067</v>
       </c>
       <c r="D142" t="n">
-        <v>0.214734</v>
+        <v>0.213306</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.316269</v>
+        <v>0.316203</v>
       </c>
       <c r="C143" t="n">
-        <v>0.249685</v>
+        <v>0.251338</v>
       </c>
       <c r="D143" t="n">
-        <v>0.213715</v>
+        <v>0.212645</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.297699</v>
+        <v>0.302307</v>
       </c>
       <c r="C2" t="n">
-        <v>0.227372</v>
+        <v>0.219656</v>
       </c>
       <c r="D2" t="n">
-        <v>0.195725</v>
+        <v>0.197953</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.288464</v>
+        <v>0.287762</v>
       </c>
       <c r="C3" t="n">
-        <v>0.228577</v>
+        <v>0.218452</v>
       </c>
       <c r="D3" t="n">
-        <v>0.196868</v>
+        <v>0.197168</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.277839</v>
+        <v>0.278876</v>
       </c>
       <c r="C4" t="n">
-        <v>0.229445</v>
+        <v>0.218805</v>
       </c>
       <c r="D4" t="n">
-        <v>0.195462</v>
+        <v>0.198128</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.268151</v>
+        <v>0.271209</v>
       </c>
       <c r="C5" t="n">
-        <v>0.229317</v>
+        <v>0.219294</v>
       </c>
       <c r="D5" t="n">
-        <v>0.196239</v>
+        <v>0.197198</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.257181</v>
+        <v>0.258438</v>
       </c>
       <c r="C6" t="n">
-        <v>0.230447</v>
+        <v>0.221468</v>
       </c>
       <c r="D6" t="n">
-        <v>0.196399</v>
+        <v>0.199729</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.246485</v>
+        <v>0.246039</v>
       </c>
       <c r="C7" t="n">
-        <v>0.228876</v>
+        <v>0.219109</v>
       </c>
       <c r="D7" t="n">
-        <v>0.197753</v>
+        <v>0.199858</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.232446</v>
+        <v>0.233113</v>
       </c>
       <c r="C8" t="n">
-        <v>0.230494</v>
+        <v>0.21991</v>
       </c>
       <c r="D8" t="n">
-        <v>0.197851</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.218296</v>
+        <v>0.217831</v>
       </c>
       <c r="C9" t="n">
-        <v>0.231056</v>
+        <v>0.220426</v>
       </c>
       <c r="D9" t="n">
-        <v>0.213679</v>
+        <v>0.214923</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.342122</v>
+        <v>0.342707</v>
       </c>
       <c r="C10" t="n">
-        <v>0.250458</v>
+        <v>0.239354</v>
       </c>
       <c r="D10" t="n">
-        <v>0.213099</v>
+        <v>0.214651</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.339683</v>
+        <v>0.337125</v>
       </c>
       <c r="C11" t="n">
-        <v>0.248822</v>
+        <v>0.237979</v>
       </c>
       <c r="D11" t="n">
-        <v>0.212314</v>
+        <v>0.214177</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.330325</v>
+        <v>0.332502</v>
       </c>
       <c r="C12" t="n">
-        <v>0.248168</v>
+        <v>0.237636</v>
       </c>
       <c r="D12" t="n">
-        <v>0.211175</v>
+        <v>0.212488</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.32369</v>
+        <v>0.323095</v>
       </c>
       <c r="C13" t="n">
-        <v>0.246593</v>
+        <v>0.235753</v>
       </c>
       <c r="D13" t="n">
-        <v>0.210208</v>
+        <v>0.21255</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.317033</v>
+        <v>0.316646</v>
       </c>
       <c r="C14" t="n">
-        <v>0.245005</v>
+        <v>0.234589</v>
       </c>
       <c r="D14" t="n">
-        <v>0.208165</v>
+        <v>0.210085</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3091</v>
+        <v>0.308426</v>
       </c>
       <c r="C15" t="n">
-        <v>0.248533</v>
+        <v>0.234385</v>
       </c>
       <c r="D15" t="n">
-        <v>0.20751</v>
+        <v>0.209476</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.301343</v>
+        <v>0.300203</v>
       </c>
       <c r="C16" t="n">
-        <v>0.243316</v>
+        <v>0.233962</v>
       </c>
       <c r="D16" t="n">
-        <v>0.207039</v>
+        <v>0.209944</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.293263</v>
+        <v>0.292017</v>
       </c>
       <c r="C17" t="n">
-        <v>0.242295</v>
+        <v>0.232401</v>
       </c>
       <c r="D17" t="n">
-        <v>0.205727</v>
+        <v>0.208162</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.285485</v>
+        <v>0.283898</v>
       </c>
       <c r="C18" t="n">
-        <v>0.242134</v>
+        <v>0.231844</v>
       </c>
       <c r="D18" t="n">
-        <v>0.205401</v>
+        <v>0.207504</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.275192</v>
+        <v>0.274041</v>
       </c>
       <c r="C19" t="n">
-        <v>0.24131</v>
+        <v>0.231806</v>
       </c>
       <c r="D19" t="n">
-        <v>0.204951</v>
+        <v>0.20699</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.264093</v>
+        <v>0.263205</v>
       </c>
       <c r="C20" t="n">
-        <v>0.240937</v>
+        <v>0.247336</v>
       </c>
       <c r="D20" t="n">
-        <v>0.204399</v>
+        <v>0.206522</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.251571</v>
+        <v>0.25048</v>
       </c>
       <c r="C21" t="n">
-        <v>0.240904</v>
+        <v>0.233831</v>
       </c>
       <c r="D21" t="n">
-        <v>0.204685</v>
+        <v>0.206744</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.238565</v>
+        <v>0.237782</v>
       </c>
       <c r="C22" t="n">
-        <v>0.239655</v>
+        <v>0.229416</v>
       </c>
       <c r="D22" t="n">
-        <v>0.204475</v>
+        <v>0.206411</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.224463</v>
+        <v>0.224551</v>
       </c>
       <c r="C23" t="n">
-        <v>0.238785</v>
+        <v>0.229575</v>
       </c>
       <c r="D23" t="n">
-        <v>0.216634</v>
+        <v>0.218243</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.347285</v>
+        <v>0.355148</v>
       </c>
       <c r="C24" t="n">
-        <v>0.253936</v>
+        <v>0.254743</v>
       </c>
       <c r="D24" t="n">
-        <v>0.215402</v>
+        <v>0.217455</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3409</v>
+        <v>0.340191</v>
       </c>
       <c r="C25" t="n">
-        <v>0.252361</v>
+        <v>0.245264</v>
       </c>
       <c r="D25" t="n">
-        <v>0.214306</v>
+        <v>0.216111</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.335115</v>
+        <v>0.345305</v>
       </c>
       <c r="C26" t="n">
-        <v>0.250455</v>
+        <v>0.250841</v>
       </c>
       <c r="D26" t="n">
-        <v>0.212959</v>
+        <v>0.214003</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328216</v>
+        <v>0.327929</v>
       </c>
       <c r="C27" t="n">
-        <v>0.24842</v>
+        <v>0.239631</v>
       </c>
       <c r="D27" t="n">
-        <v>0.21207</v>
+        <v>0.213887</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.321576</v>
+        <v>0.320905</v>
       </c>
       <c r="C28" t="n">
-        <v>0.247388</v>
+        <v>0.247444</v>
       </c>
       <c r="D28" t="n">
-        <v>0.210809</v>
+        <v>0.211775</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.314165</v>
+        <v>0.321866</v>
       </c>
       <c r="C29" t="n">
-        <v>0.246066</v>
+        <v>0.246407</v>
       </c>
       <c r="D29" t="n">
-        <v>0.209425</v>
+        <v>0.210579</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.3064</v>
+        <v>0.30997</v>
       </c>
       <c r="C30" t="n">
-        <v>0.249019</v>
+        <v>0.245617</v>
       </c>
       <c r="D30" t="n">
-        <v>0.208601</v>
+        <v>0.209742</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.29804</v>
+        <v>0.302231</v>
       </c>
       <c r="C31" t="n">
-        <v>0.243455</v>
+        <v>0.243229</v>
       </c>
       <c r="D31" t="n">
-        <v>0.207778</v>
+        <v>0.209289</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.288759</v>
+        <v>0.288613</v>
       </c>
       <c r="C32" t="n">
-        <v>0.246832</v>
+        <v>0.243233</v>
       </c>
       <c r="D32" t="n">
-        <v>0.207953</v>
+        <v>0.209228</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.2792</v>
+        <v>0.27796</v>
       </c>
       <c r="C33" t="n">
-        <v>0.246258</v>
+        <v>0.240347</v>
       </c>
       <c r="D33" t="n">
-        <v>0.20697</v>
+        <v>0.208316</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.269488</v>
+        <v>0.268149</v>
       </c>
       <c r="C34" t="n">
-        <v>0.246128</v>
+        <v>0.242412</v>
       </c>
       <c r="D34" t="n">
-        <v>0.206708</v>
+        <v>0.208305</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.256801</v>
+        <v>0.256614</v>
       </c>
       <c r="C35" t="n">
-        <v>0.244864</v>
+        <v>0.249839</v>
       </c>
       <c r="D35" t="n">
-        <v>0.206914</v>
+        <v>0.207859</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.243983</v>
+        <v>0.244256</v>
       </c>
       <c r="C36" t="n">
-        <v>0.244415</v>
+        <v>0.24078</v>
       </c>
       <c r="D36" t="n">
-        <v>0.205477</v>
+        <v>0.206872</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.230828</v>
+        <v>0.231705</v>
       </c>
       <c r="C37" t="n">
-        <v>0.239622</v>
+        <v>0.247651</v>
       </c>
       <c r="D37" t="n">
-        <v>0.218114</v>
+        <v>0.218861</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.349872</v>
+        <v>0.348105</v>
       </c>
       <c r="C38" t="n">
-        <v>0.254474</v>
+        <v>0.243655</v>
       </c>
       <c r="D38" t="n">
-        <v>0.216646</v>
+        <v>0.217735</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.343973</v>
+        <v>0.342306</v>
       </c>
       <c r="C39" t="n">
-        <v>0.252722</v>
+        <v>0.2418</v>
       </c>
       <c r="D39" t="n">
-        <v>0.215545</v>
+        <v>0.216981</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.338489</v>
+        <v>0.336229</v>
       </c>
       <c r="C40" t="n">
-        <v>0.251486</v>
+        <v>0.240436</v>
       </c>
       <c r="D40" t="n">
-        <v>0.214325</v>
+        <v>0.215602</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.331824</v>
+        <v>0.329778</v>
       </c>
       <c r="C41" t="n">
-        <v>0.250226</v>
+        <v>0.239157</v>
       </c>
       <c r="D41" t="n">
-        <v>0.213151</v>
+        <v>0.214297</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.325153</v>
+        <v>0.322929</v>
       </c>
       <c r="C42" t="n">
-        <v>0.249229</v>
+        <v>0.238827</v>
       </c>
       <c r="D42" t="n">
-        <v>0.212605</v>
+        <v>0.213988</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.317767</v>
+        <v>0.316009</v>
       </c>
       <c r="C43" t="n">
-        <v>0.24836</v>
+        <v>0.237278</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213063</v>
+        <v>0.213448</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.309934</v>
+        <v>0.308709</v>
       </c>
       <c r="C44" t="n">
-        <v>0.247498</v>
+        <v>0.236587</v>
       </c>
       <c r="D44" t="n">
-        <v>0.212069</v>
+        <v>0.212731</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.301184</v>
+        <v>0.300053</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246416</v>
+        <v>0.235246</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211109</v>
+        <v>0.211847</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.292624</v>
+        <v>0.291176</v>
       </c>
       <c r="C46" t="n">
-        <v>0.245826</v>
+        <v>0.234834</v>
       </c>
       <c r="D46" t="n">
-        <v>0.210374</v>
+        <v>0.211314</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.282562</v>
+        <v>0.281834</v>
       </c>
       <c r="C47" t="n">
-        <v>0.244791</v>
+        <v>0.234403</v>
       </c>
       <c r="D47" t="n">
-        <v>0.20995</v>
+        <v>0.210862</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.271726</v>
+        <v>0.2709</v>
       </c>
       <c r="C48" t="n">
-        <v>0.243782</v>
+        <v>0.233222</v>
       </c>
       <c r="D48" t="n">
-        <v>0.209139</v>
+        <v>0.21008</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.259905</v>
+        <v>0.259903</v>
       </c>
       <c r="C49" t="n">
-        <v>0.246024</v>
+        <v>0.2324</v>
       </c>
       <c r="D49" t="n">
-        <v>0.207791</v>
+        <v>0.208774</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.247827</v>
+        <v>0.247563</v>
       </c>
       <c r="C50" t="n">
-        <v>0.24446</v>
+        <v>0.231771</v>
       </c>
       <c r="D50" t="n">
-        <v>0.207653</v>
+        <v>0.208945</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.234301</v>
+        <v>0.233551</v>
       </c>
       <c r="C51" t="n">
-        <v>0.242994</v>
+        <v>0.231397</v>
       </c>
       <c r="D51" t="n">
-        <v>0.221219</v>
+        <v>0.221331</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.220378</v>
+        <v>0.220473</v>
       </c>
       <c r="C52" t="n">
-        <v>0.242274</v>
+        <v>0.230795</v>
       </c>
       <c r="D52" t="n">
-        <v>0.219418</v>
+        <v>0.219813</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.347416</v>
+        <v>0.344976</v>
       </c>
       <c r="C53" t="n">
-        <v>0.25628</v>
+        <v>0.243421</v>
       </c>
       <c r="D53" t="n">
-        <v>0.217884</v>
+        <v>0.218385</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.341684</v>
+        <v>0.339479</v>
       </c>
       <c r="C54" t="n">
-        <v>0.255199</v>
+        <v>0.242445</v>
       </c>
       <c r="D54" t="n">
-        <v>0.216305</v>
+        <v>0.217582</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.335951</v>
+        <v>0.333449</v>
       </c>
       <c r="C55" t="n">
-        <v>0.253962</v>
+        <v>0.241416</v>
       </c>
       <c r="D55" t="n">
-        <v>0.215586</v>
+        <v>0.216704</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.328708</v>
+        <v>0.326752</v>
       </c>
       <c r="C56" t="n">
-        <v>0.252163</v>
+        <v>0.239993</v>
       </c>
       <c r="D56" t="n">
-        <v>0.214207</v>
+        <v>0.215198</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.32114</v>
+        <v>0.319489</v>
       </c>
       <c r="C57" t="n">
-        <v>0.25158</v>
+        <v>0.239037</v>
       </c>
       <c r="D57" t="n">
-        <v>0.213675</v>
+        <v>0.214076</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.31288</v>
+        <v>0.31161</v>
       </c>
       <c r="C58" t="n">
-        <v>0.249931</v>
+        <v>0.238165</v>
       </c>
       <c r="D58" t="n">
-        <v>0.21331</v>
+        <v>0.213919</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.30506</v>
+        <v>0.303351</v>
       </c>
       <c r="C59" t="n">
-        <v>0.249401</v>
+        <v>0.237095</v>
       </c>
       <c r="D59" t="n">
-        <v>0.212077</v>
+        <v>0.212706</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.29529</v>
+        <v>0.294028</v>
       </c>
       <c r="C60" t="n">
-        <v>0.248434</v>
+        <v>0.236361</v>
       </c>
       <c r="D60" t="n">
-        <v>0.211798</v>
+        <v>0.212482</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.285949</v>
+        <v>0.284927</v>
       </c>
       <c r="C61" t="n">
-        <v>0.247946</v>
+        <v>0.235806</v>
       </c>
       <c r="D61" t="n">
-        <v>0.211002</v>
+        <v>0.211593</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.275487</v>
+        <v>0.27484</v>
       </c>
       <c r="C62" t="n">
-        <v>0.246556</v>
+        <v>0.23511</v>
       </c>
       <c r="D62" t="n">
-        <v>0.210014</v>
+        <v>0.210699</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.264295</v>
+        <v>0.263627</v>
       </c>
       <c r="C63" t="n">
-        <v>0.246473</v>
+        <v>0.233913</v>
       </c>
       <c r="D63" t="n">
-        <v>0.20917</v>
+        <v>0.210024</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.251879</v>
+        <v>0.251654</v>
       </c>
       <c r="C64" t="n">
-        <v>0.245251</v>
+        <v>0.233206</v>
       </c>
       <c r="D64" t="n">
-        <v>0.208411</v>
+        <v>0.209256</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.238708</v>
+        <v>0.238253</v>
       </c>
       <c r="C65" t="n">
-        <v>0.244259</v>
+        <v>0.232913</v>
       </c>
       <c r="D65" t="n">
-        <v>0.207898</v>
+        <v>0.209042</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.224313</v>
+        <v>0.224545</v>
       </c>
       <c r="C66" t="n">
-        <v>0.243006</v>
+        <v>0.232476</v>
       </c>
       <c r="D66" t="n">
-        <v>0.219284</v>
+        <v>0.220204</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.348641</v>
+        <v>0.346821</v>
       </c>
       <c r="C67" t="n">
-        <v>0.257861</v>
+        <v>0.244792</v>
       </c>
       <c r="D67" t="n">
-        <v>0.218283</v>
+        <v>0.218795</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.343014</v>
+        <v>0.341474</v>
       </c>
       <c r="C68" t="n">
-        <v>0.256265</v>
+        <v>0.243513</v>
       </c>
       <c r="D68" t="n">
-        <v>0.217245</v>
+        <v>0.217449</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.336752</v>
+        <v>0.335228</v>
       </c>
       <c r="C69" t="n">
-        <v>0.255133</v>
+        <v>0.241992</v>
       </c>
       <c r="D69" t="n">
-        <v>0.216103</v>
+        <v>0.216474</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.32933</v>
+        <v>0.328587</v>
       </c>
       <c r="C70" t="n">
-        <v>0.253853</v>
+        <v>0.240959</v>
       </c>
       <c r="D70" t="n">
-        <v>0.214939</v>
+        <v>0.215118</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.322065</v>
+        <v>0.321194</v>
       </c>
       <c r="C71" t="n">
-        <v>0.252827</v>
+        <v>0.239587</v>
       </c>
       <c r="D71" t="n">
-        <v>0.213914</v>
+        <v>0.214065</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.314616</v>
+        <v>0.313343</v>
       </c>
       <c r="C72" t="n">
-        <v>0.251381</v>
+        <v>0.238219</v>
       </c>
       <c r="D72" t="n">
-        <v>0.212859</v>
+        <v>0.213337</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.305524</v>
+        <v>0.304823</v>
       </c>
       <c r="C73" t="n">
-        <v>0.249751</v>
+        <v>0.237339</v>
       </c>
       <c r="D73" t="n">
-        <v>0.211601</v>
+        <v>0.212354</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.297168</v>
+        <v>0.296632</v>
       </c>
       <c r="C74" t="n">
-        <v>0.248918</v>
+        <v>0.236531</v>
       </c>
       <c r="D74" t="n">
-        <v>0.210933</v>
+        <v>0.211846</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.287089</v>
+        <v>0.286849</v>
       </c>
       <c r="C75" t="n">
-        <v>0.248002</v>
+        <v>0.23596</v>
       </c>
       <c r="D75" t="n">
-        <v>0.21032</v>
+        <v>0.211064</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.277773</v>
+        <v>0.27699</v>
       </c>
       <c r="C76" t="n">
-        <v>0.247147</v>
+        <v>0.23476</v>
       </c>
       <c r="D76" t="n">
-        <v>0.209385</v>
+        <v>0.210312</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.266426</v>
+        <v>0.266066</v>
       </c>
       <c r="C77" t="n">
-        <v>0.246031</v>
+        <v>0.234237</v>
       </c>
       <c r="D77" t="n">
-        <v>0.20865</v>
+        <v>0.209327</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.254675</v>
+        <v>0.254979</v>
       </c>
       <c r="C78" t="n">
-        <v>0.244989</v>
+        <v>0.233224</v>
       </c>
       <c r="D78" t="n">
-        <v>0.208178</v>
+        <v>0.208856</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.241545</v>
+        <v>0.242</v>
       </c>
       <c r="C79" t="n">
-        <v>0.243826</v>
+        <v>0.232642</v>
       </c>
       <c r="D79" t="n">
-        <v>0.207643</v>
+        <v>0.208654</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227495</v>
+        <v>0.228024</v>
       </c>
       <c r="C80" t="n">
-        <v>0.242784</v>
+        <v>0.232038</v>
       </c>
       <c r="D80" t="n">
-        <v>0.21996</v>
+        <v>0.220559</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.351437</v>
+        <v>0.349005</v>
       </c>
       <c r="C81" t="n">
-        <v>0.257451</v>
+        <v>0.245363</v>
       </c>
       <c r="D81" t="n">
-        <v>0.218502</v>
+        <v>0.219054</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.345733</v>
+        <v>0.343268</v>
       </c>
       <c r="C82" t="n">
-        <v>0.25614</v>
+        <v>0.243858</v>
       </c>
       <c r="D82" t="n">
-        <v>0.217551</v>
+        <v>0.218035</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.339369</v>
+        <v>0.337165</v>
       </c>
       <c r="C83" t="n">
-        <v>0.255742</v>
+        <v>0.242377</v>
       </c>
       <c r="D83" t="n">
-        <v>0.215841</v>
+        <v>0.216867</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.332521</v>
+        <v>0.330306</v>
       </c>
       <c r="C84" t="n">
-        <v>0.254008</v>
+        <v>0.241345</v>
       </c>
       <c r="D84" t="n">
-        <v>0.214621</v>
+        <v>0.215624</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.32541</v>
+        <v>0.323145</v>
       </c>
       <c r="C85" t="n">
-        <v>0.252295</v>
+        <v>0.240093</v>
       </c>
       <c r="D85" t="n">
-        <v>0.214006</v>
+        <v>0.214821</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.317595</v>
+        <v>0.315881</v>
       </c>
       <c r="C86" t="n">
-        <v>0.252002</v>
+        <v>0.239239</v>
       </c>
       <c r="D86" t="n">
-        <v>0.213345</v>
+        <v>0.214082</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.30949</v>
+        <v>0.307504</v>
       </c>
       <c r="C87" t="n">
-        <v>0.249869</v>
+        <v>0.237978</v>
       </c>
       <c r="D87" t="n">
-        <v>0.212403</v>
+        <v>0.212963</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300728</v>
+        <v>0.299098</v>
       </c>
       <c r="C88" t="n">
-        <v>0.24931</v>
+        <v>0.236988</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211173</v>
+        <v>0.212211</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.29074</v>
+        <v>0.289688</v>
       </c>
       <c r="C89" t="n">
-        <v>0.248108</v>
+        <v>0.236049</v>
       </c>
       <c r="D89" t="n">
-        <v>0.210384</v>
+        <v>0.211243</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.280758</v>
+        <v>0.279876</v>
       </c>
       <c r="C90" t="n">
-        <v>0.247136</v>
+        <v>0.235054</v>
       </c>
       <c r="D90" t="n">
-        <v>0.209634</v>
+        <v>0.210639</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.269627</v>
+        <v>0.26916</v>
       </c>
       <c r="C91" t="n">
-        <v>0.245846</v>
+        <v>0.234188</v>
       </c>
       <c r="D91" t="n">
-        <v>0.208865</v>
+        <v>0.209959</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.257688</v>
+        <v>0.257487</v>
       </c>
       <c r="C92" t="n">
-        <v>0.245176</v>
+        <v>0.233682</v>
       </c>
       <c r="D92" t="n">
-        <v>0.208211</v>
+        <v>0.209187</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.244699</v>
+        <v>0.244856</v>
       </c>
       <c r="C93" t="n">
-        <v>0.243262</v>
+        <v>0.232462</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2075</v>
+        <v>0.2085</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.230985</v>
+        <v>0.231088</v>
       </c>
       <c r="C94" t="n">
-        <v>0.242789</v>
+        <v>0.232191</v>
       </c>
       <c r="D94" t="n">
-        <v>0.220266</v>
+        <v>0.220593</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.352537</v>
+        <v>0.349461</v>
       </c>
       <c r="C95" t="n">
-        <v>0.256748</v>
+        <v>0.245808</v>
       </c>
       <c r="D95" t="n">
-        <v>0.218273</v>
+        <v>0.219345</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.346988</v>
+        <v>0.34394</v>
       </c>
       <c r="C96" t="n">
-        <v>0.256128</v>
+        <v>0.244273</v>
       </c>
       <c r="D96" t="n">
-        <v>0.216971</v>
+        <v>0.218074</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.340924</v>
+        <v>0.337882</v>
       </c>
       <c r="C97" t="n">
-        <v>0.255423</v>
+        <v>0.243155</v>
       </c>
       <c r="D97" t="n">
-        <v>0.216191</v>
+        <v>0.216854</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.334504</v>
+        <v>0.331271</v>
       </c>
       <c r="C98" t="n">
-        <v>0.254067</v>
+        <v>0.241369</v>
       </c>
       <c r="D98" t="n">
-        <v>0.214886</v>
+        <v>0.215527</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.327223</v>
+        <v>0.32438</v>
       </c>
       <c r="C99" t="n">
-        <v>0.252039</v>
+        <v>0.240149</v>
       </c>
       <c r="D99" t="n">
-        <v>0.213632</v>
+        <v>0.214633</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.31914</v>
+        <v>0.316761</v>
       </c>
       <c r="C100" t="n">
-        <v>0.250034</v>
+        <v>0.239056</v>
       </c>
       <c r="D100" t="n">
-        <v>0.212672</v>
+        <v>0.213374</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.311756</v>
+        <v>0.308612</v>
       </c>
       <c r="C101" t="n">
-        <v>0.250246</v>
+        <v>0.237967</v>
       </c>
       <c r="D101" t="n">
-        <v>0.21138</v>
+        <v>0.212368</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.301346</v>
+        <v>0.299893</v>
       </c>
       <c r="C102" t="n">
-        <v>0.247838</v>
+        <v>0.236688</v>
       </c>
       <c r="D102" t="n">
-        <v>0.210836</v>
+        <v>0.211494</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.292345</v>
+        <v>0.290975</v>
       </c>
       <c r="C103" t="n">
-        <v>0.247589</v>
+        <v>0.236693</v>
       </c>
       <c r="D103" t="n">
-        <v>0.210204</v>
+        <v>0.210922</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.282669</v>
+        <v>0.281208</v>
       </c>
       <c r="C104" t="n">
-        <v>0.246415</v>
+        <v>0.235093</v>
       </c>
       <c r="D104" t="n">
-        <v>0.209082</v>
+        <v>0.210056</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.271867</v>
+        <v>0.270875</v>
       </c>
       <c r="C105" t="n">
-        <v>0.244845</v>
+        <v>0.234241</v>
       </c>
       <c r="D105" t="n">
-        <v>0.208867</v>
+        <v>0.209884</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.259945</v>
+        <v>0.259242</v>
       </c>
       <c r="C106" t="n">
-        <v>0.243991</v>
+        <v>0.234175</v>
       </c>
       <c r="D106" t="n">
-        <v>0.208028</v>
+        <v>0.209129</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247238</v>
+        <v>0.246868</v>
       </c>
       <c r="C107" t="n">
-        <v>0.24295</v>
+        <v>0.232347</v>
       </c>
       <c r="D107" t="n">
-        <v>0.207794</v>
+        <v>0.208672</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.233517</v>
+        <v>0.233334</v>
       </c>
       <c r="C108" t="n">
-        <v>0.243132</v>
+        <v>0.232498</v>
       </c>
       <c r="D108" t="n">
-        <v>0.220018</v>
+        <v>0.220941</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.219003</v>
+        <v>0.219232</v>
       </c>
       <c r="C109" t="n">
-        <v>0.241832</v>
+        <v>0.231611</v>
       </c>
       <c r="D109" t="n">
-        <v>0.218707</v>
+        <v>0.219612</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.347713</v>
+        <v>0.345584</v>
       </c>
       <c r="C110" t="n">
-        <v>0.255427</v>
+        <v>0.245217</v>
       </c>
       <c r="D110" t="n">
-        <v>0.217424</v>
+        <v>0.218588</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.341351</v>
+        <v>0.339316</v>
       </c>
       <c r="C111" t="n">
-        <v>0.255463</v>
+        <v>0.244266</v>
       </c>
       <c r="D111" t="n">
-        <v>0.215819</v>
+        <v>0.216858</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.334985</v>
+        <v>0.333033</v>
       </c>
       <c r="C112" t="n">
-        <v>0.25412</v>
+        <v>0.244106</v>
       </c>
       <c r="D112" t="n">
-        <v>0.214793</v>
+        <v>0.215764</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.328046</v>
+        <v>0.32574</v>
       </c>
       <c r="C113" t="n">
-        <v>0.25267</v>
+        <v>0.241805</v>
       </c>
       <c r="D113" t="n">
-        <v>0.214049</v>
+        <v>0.214749</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.320326</v>
+        <v>0.318401</v>
       </c>
       <c r="C114" t="n">
-        <v>0.251848</v>
+        <v>0.240539</v>
       </c>
       <c r="D114" t="n">
-        <v>0.212939</v>
+        <v>0.213799</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.3122</v>
+        <v>0.310409</v>
       </c>
       <c r="C115" t="n">
-        <v>0.249027</v>
+        <v>0.238993</v>
       </c>
       <c r="D115" t="n">
-        <v>0.211546</v>
+        <v>0.212461</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304253</v>
+        <v>0.302394</v>
       </c>
       <c r="C116" t="n">
-        <v>0.249387</v>
+        <v>0.239107</v>
       </c>
       <c r="D116" t="n">
-        <v>0.211257</v>
+        <v>0.212076</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.294797</v>
+        <v>0.292946</v>
       </c>
       <c r="C117" t="n">
-        <v>0.248366</v>
+        <v>0.238063</v>
       </c>
       <c r="D117" t="n">
-        <v>0.210521</v>
+        <v>0.210927</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.28495</v>
+        <v>0.283599</v>
       </c>
       <c r="C118" t="n">
-        <v>0.246604</v>
+        <v>0.236053</v>
       </c>
       <c r="D118" t="n">
-        <v>0.209665</v>
+        <v>0.21044</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.274449</v>
+        <v>0.273071</v>
       </c>
       <c r="C119" t="n">
-        <v>0.246275</v>
+        <v>0.23647</v>
       </c>
       <c r="D119" t="n">
-        <v>0.208996</v>
+        <v>0.210017</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.262859</v>
+        <v>0.261883</v>
       </c>
       <c r="C120" t="n">
-        <v>0.245173</v>
+        <v>0.235851</v>
       </c>
       <c r="D120" t="n">
-        <v>0.208119</v>
+        <v>0.20896</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.250799</v>
+        <v>0.249592</v>
       </c>
       <c r="C121" t="n">
-        <v>0.242887</v>
+        <v>0.23483</v>
       </c>
       <c r="D121" t="n">
-        <v>0.207469</v>
+        <v>0.208865</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.237233</v>
+        <v>0.236668</v>
       </c>
       <c r="C122" t="n">
-        <v>0.241756</v>
+        <v>0.233196</v>
       </c>
       <c r="D122" t="n">
-        <v>0.20706</v>
+        <v>0.208137</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.222598</v>
+        <v>0.222415</v>
       </c>
       <c r="C123" t="n">
-        <v>0.241881</v>
+        <v>0.23184</v>
       </c>
       <c r="D123" t="n">
-        <v>0.219208</v>
+        <v>0.220146</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.348521</v>
+        <v>0.34674</v>
       </c>
       <c r="C124" t="n">
-        <v>0.256909</v>
+        <v>0.249588</v>
       </c>
       <c r="D124" t="n">
-        <v>0.218002</v>
+        <v>0.218631</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.342979</v>
+        <v>0.340958</v>
       </c>
       <c r="C125" t="n">
-        <v>0.255574</v>
+        <v>0.246994</v>
       </c>
       <c r="D125" t="n">
-        <v>0.216657</v>
+        <v>0.217602</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.336391</v>
+        <v>0.334333</v>
       </c>
       <c r="C126" t="n">
-        <v>0.254239</v>
+        <v>0.243474</v>
       </c>
       <c r="D126" t="n">
-        <v>0.214867</v>
+        <v>0.216214</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.329479</v>
+        <v>0.327156</v>
       </c>
       <c r="C127" t="n">
-        <v>0.253326</v>
+        <v>0.243573</v>
       </c>
       <c r="D127" t="n">
-        <v>0.214404</v>
+        <v>0.215204</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.322313</v>
+        <v>0.319909</v>
       </c>
       <c r="C128" t="n">
-        <v>0.251901</v>
+        <v>0.241178</v>
       </c>
       <c r="D128" t="n">
-        <v>0.212962</v>
+        <v>0.214039</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.314402</v>
+        <v>0.312191</v>
       </c>
       <c r="C129" t="n">
-        <v>0.250492</v>
+        <v>0.241773</v>
       </c>
       <c r="D129" t="n">
-        <v>0.211904</v>
+        <v>0.213132</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.305872</v>
+        <v>0.304119</v>
       </c>
       <c r="C130" t="n">
-        <v>0.248123</v>
+        <v>0.241157</v>
       </c>
       <c r="D130" t="n">
-        <v>0.211175</v>
+        <v>0.212197</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.297285</v>
+        <v>0.295049</v>
       </c>
       <c r="C131" t="n">
-        <v>0.248287</v>
+        <v>0.239807</v>
       </c>
       <c r="D131" t="n">
-        <v>0.210215</v>
+        <v>0.211324</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.287665</v>
+        <v>0.286139</v>
       </c>
       <c r="C132" t="n">
-        <v>0.247156</v>
+        <v>0.238758</v>
       </c>
       <c r="D132" t="n">
-        <v>0.209179</v>
+        <v>0.2104</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.277255</v>
+        <v>0.275893</v>
       </c>
       <c r="C133" t="n">
-        <v>0.246311</v>
+        <v>0.23828</v>
       </c>
       <c r="D133" t="n">
-        <v>0.208828</v>
+        <v>0.209769</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.266227</v>
+        <v>0.264802</v>
       </c>
       <c r="C134" t="n">
-        <v>0.244542</v>
+        <v>0.238102</v>
       </c>
       <c r="D134" t="n">
-        <v>0.20794</v>
+        <v>0.209268</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.253593</v>
+        <v>0.252654</v>
       </c>
       <c r="C135" t="n">
-        <v>0.244433</v>
+        <v>0.23766</v>
       </c>
       <c r="D135" t="n">
-        <v>0.207694</v>
+        <v>0.208844</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.240431</v>
+        <v>0.239622</v>
       </c>
       <c r="C136" t="n">
-        <v>0.241741</v>
+        <v>0.235519</v>
       </c>
       <c r="D136" t="n">
-        <v>0.206783</v>
+        <v>0.208262</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.22586</v>
+        <v>0.225719</v>
       </c>
       <c r="C137" t="n">
-        <v>0.2424</v>
+        <v>0.234497</v>
       </c>
       <c r="D137" t="n">
-        <v>0.21957</v>
+        <v>0.22056</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.350475</v>
+        <v>0.348347</v>
       </c>
       <c r="C138" t="n">
-        <v>0.25746</v>
+        <v>0.250864</v>
       </c>
       <c r="D138" t="n">
-        <v>0.218246</v>
+        <v>0.21898</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.344358</v>
+        <v>0.342057</v>
       </c>
       <c r="C139" t="n">
-        <v>0.255257</v>
+        <v>0.250616</v>
       </c>
       <c r="D139" t="n">
-        <v>0.216973</v>
+        <v>0.217868</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.337951</v>
+        <v>0.336275</v>
       </c>
       <c r="C140" t="n">
-        <v>0.254778</v>
+        <v>0.247587</v>
       </c>
       <c r="D140" t="n">
-        <v>0.21561</v>
+        <v>0.216571</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.33128</v>
+        <v>0.328637</v>
       </c>
       <c r="C141" t="n">
-        <v>0.251386</v>
+        <v>0.244238</v>
       </c>
       <c r="D141" t="n">
-        <v>0.214238</v>
+        <v>0.21575</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.32382</v>
+        <v>0.321588</v>
       </c>
       <c r="C142" t="n">
-        <v>0.25067</v>
+        <v>0.245553</v>
       </c>
       <c r="D142" t="n">
-        <v>0.213306</v>
+        <v>0.214224</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.316203</v>
+        <v>0.314328</v>
       </c>
       <c r="C143" t="n">
-        <v>0.251338</v>
+        <v>0.245103</v>
       </c>
       <c r="D143" t="n">
-        <v>0.212645</v>
+        <v>0.213406</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.302307</v>
+        <v>0.296605</v>
       </c>
       <c r="C2" t="n">
-        <v>0.219656</v>
+        <v>0.219069</v>
       </c>
       <c r="D2" t="n">
-        <v>0.197953</v>
+        <v>0.198686</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.287762</v>
+        <v>0.287572</v>
       </c>
       <c r="C3" t="n">
-        <v>0.218452</v>
+        <v>0.219355</v>
       </c>
       <c r="D3" t="n">
-        <v>0.197168</v>
+        <v>0.196711</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.278876</v>
+        <v>0.278996</v>
       </c>
       <c r="C4" t="n">
-        <v>0.218805</v>
+        <v>0.219826</v>
       </c>
       <c r="D4" t="n">
-        <v>0.198128</v>
+        <v>0.198195</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.271209</v>
+        <v>0.268944</v>
       </c>
       <c r="C5" t="n">
-        <v>0.219294</v>
+        <v>0.220187</v>
       </c>
       <c r="D5" t="n">
-        <v>0.197198</v>
+        <v>0.197889</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.258438</v>
+        <v>0.258188</v>
       </c>
       <c r="C6" t="n">
-        <v>0.221468</v>
+        <v>0.220984</v>
       </c>
       <c r="D6" t="n">
-        <v>0.199729</v>
+        <v>0.199395</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.246039</v>
+        <v>0.246609</v>
       </c>
       <c r="C7" t="n">
-        <v>0.219109</v>
+        <v>0.220714</v>
       </c>
       <c r="D7" t="n">
-        <v>0.199858</v>
+        <v>0.199612</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.233113</v>
+        <v>0.232671</v>
       </c>
       <c r="C8" t="n">
-        <v>0.21991</v>
+        <v>0.220817</v>
       </c>
       <c r="D8" t="n">
-        <v>0.199834</v>
+        <v>0.199209</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.217831</v>
+        <v>0.218204</v>
       </c>
       <c r="C9" t="n">
-        <v>0.220426</v>
+        <v>0.221442</v>
       </c>
       <c r="D9" t="n">
-        <v>0.214923</v>
+        <v>0.214406</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.342707</v>
+        <v>0.342341</v>
       </c>
       <c r="C10" t="n">
-        <v>0.239354</v>
+        <v>0.239145</v>
       </c>
       <c r="D10" t="n">
-        <v>0.214651</v>
+        <v>0.213514</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.337125</v>
+        <v>0.336944</v>
       </c>
       <c r="C11" t="n">
-        <v>0.237979</v>
+        <v>0.238087</v>
       </c>
       <c r="D11" t="n">
-        <v>0.214177</v>
+        <v>0.213718</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.332502</v>
+        <v>0.32903</v>
       </c>
       <c r="C12" t="n">
-        <v>0.237636</v>
+        <v>0.237568</v>
       </c>
       <c r="D12" t="n">
-        <v>0.212488</v>
+        <v>0.212347</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.323095</v>
+        <v>0.322006</v>
       </c>
       <c r="C13" t="n">
-        <v>0.235753</v>
+        <v>0.236114</v>
       </c>
       <c r="D13" t="n">
-        <v>0.21255</v>
+        <v>0.211751</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.316646</v>
+        <v>0.316655</v>
       </c>
       <c r="C14" t="n">
-        <v>0.234589</v>
+        <v>0.245204</v>
       </c>
       <c r="D14" t="n">
-        <v>0.210085</v>
+        <v>0.209583</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.308426</v>
+        <v>0.308125</v>
       </c>
       <c r="C15" t="n">
-        <v>0.234385</v>
+        <v>0.233948</v>
       </c>
       <c r="D15" t="n">
-        <v>0.209476</v>
+        <v>0.209541</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.300203</v>
+        <v>0.299753</v>
       </c>
       <c r="C16" t="n">
-        <v>0.233962</v>
+        <v>0.233563</v>
       </c>
       <c r="D16" t="n">
-        <v>0.209944</v>
+        <v>0.209642</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.292017</v>
+        <v>0.292194</v>
       </c>
       <c r="C17" t="n">
-        <v>0.232401</v>
+        <v>0.23568</v>
       </c>
       <c r="D17" t="n">
-        <v>0.208162</v>
+        <v>0.207887</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.283898</v>
+        <v>0.283502</v>
       </c>
       <c r="C18" t="n">
-        <v>0.231844</v>
+        <v>0.24126</v>
       </c>
       <c r="D18" t="n">
-        <v>0.207504</v>
+        <v>0.207985</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.274041</v>
+        <v>0.273416</v>
       </c>
       <c r="C19" t="n">
-        <v>0.231806</v>
+        <v>0.241998</v>
       </c>
       <c r="D19" t="n">
-        <v>0.20699</v>
+        <v>0.207162</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.263205</v>
+        <v>0.263062</v>
       </c>
       <c r="C20" t="n">
-        <v>0.247336</v>
+        <v>0.231195</v>
       </c>
       <c r="D20" t="n">
-        <v>0.206522</v>
+        <v>0.206744</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.25048</v>
+        <v>0.250388</v>
       </c>
       <c r="C21" t="n">
-        <v>0.233831</v>
+        <v>0.231088</v>
       </c>
       <c r="D21" t="n">
-        <v>0.206744</v>
+        <v>0.206068</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.237782</v>
+        <v>0.237541</v>
       </c>
       <c r="C22" t="n">
-        <v>0.229416</v>
+        <v>0.230225</v>
       </c>
       <c r="D22" t="n">
-        <v>0.206411</v>
+        <v>0.205757</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.224551</v>
+        <v>0.223998</v>
       </c>
       <c r="C23" t="n">
-        <v>0.229575</v>
+        <v>0.23988</v>
       </c>
       <c r="D23" t="n">
-        <v>0.218243</v>
+        <v>0.218533</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.355148</v>
+        <v>0.345601</v>
       </c>
       <c r="C24" t="n">
-        <v>0.254743</v>
+        <v>0.254664</v>
       </c>
       <c r="D24" t="n">
-        <v>0.217455</v>
+        <v>0.216836</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.340191</v>
+        <v>0.339516</v>
       </c>
       <c r="C25" t="n">
-        <v>0.245264</v>
+        <v>0.25318</v>
       </c>
       <c r="D25" t="n">
-        <v>0.216111</v>
+        <v>0.216254</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.345305</v>
+        <v>0.335977</v>
       </c>
       <c r="C26" t="n">
-        <v>0.250841</v>
+        <v>0.250655</v>
       </c>
       <c r="D26" t="n">
-        <v>0.214003</v>
+        <v>0.2146</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.327929</v>
+        <v>0.329202</v>
       </c>
       <c r="C27" t="n">
-        <v>0.239631</v>
+        <v>0.24887</v>
       </c>
       <c r="D27" t="n">
-        <v>0.213887</v>
+        <v>0.213347</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.320905</v>
+        <v>0.321838</v>
       </c>
       <c r="C28" t="n">
-        <v>0.247444</v>
+        <v>0.247607</v>
       </c>
       <c r="D28" t="n">
-        <v>0.211775</v>
+        <v>0.211911</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.321866</v>
+        <v>0.316942</v>
       </c>
       <c r="C29" t="n">
-        <v>0.246407</v>
+        <v>0.246188</v>
       </c>
       <c r="D29" t="n">
-        <v>0.210579</v>
+        <v>0.21097</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.30997</v>
+        <v>0.306876</v>
       </c>
       <c r="C30" t="n">
-        <v>0.245617</v>
+        <v>0.245109</v>
       </c>
       <c r="D30" t="n">
-        <v>0.209742</v>
+        <v>0.209777</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.302231</v>
+        <v>0.298786</v>
       </c>
       <c r="C31" t="n">
-        <v>0.243229</v>
+        <v>0.250784</v>
       </c>
       <c r="D31" t="n">
-        <v>0.209289</v>
+        <v>0.209397</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.288613</v>
+        <v>0.28803</v>
       </c>
       <c r="C32" t="n">
-        <v>0.243233</v>
+        <v>0.2504</v>
       </c>
       <c r="D32" t="n">
-        <v>0.209228</v>
+        <v>0.208955</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.27796</v>
+        <v>0.27973</v>
       </c>
       <c r="C33" t="n">
-        <v>0.240347</v>
+        <v>0.250023</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208316</v>
+        <v>0.208142</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.268149</v>
+        <v>0.269292</v>
       </c>
       <c r="C34" t="n">
-        <v>0.242412</v>
+        <v>0.232238</v>
       </c>
       <c r="D34" t="n">
-        <v>0.208305</v>
+        <v>0.208413</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.256614</v>
+        <v>0.259329</v>
       </c>
       <c r="C35" t="n">
-        <v>0.249839</v>
+        <v>0.242054</v>
       </c>
       <c r="D35" t="n">
-        <v>0.207859</v>
+        <v>0.208008</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244256</v>
+        <v>0.247988</v>
       </c>
       <c r="C36" t="n">
-        <v>0.24078</v>
+        <v>0.230805</v>
       </c>
       <c r="D36" t="n">
-        <v>0.206872</v>
+        <v>0.207369</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.231705</v>
+        <v>0.230724</v>
       </c>
       <c r="C37" t="n">
-        <v>0.247651</v>
+        <v>0.230225</v>
       </c>
       <c r="D37" t="n">
-        <v>0.218861</v>
+        <v>0.219487</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.348105</v>
+        <v>0.348174</v>
       </c>
       <c r="C38" t="n">
-        <v>0.243655</v>
+        <v>0.243646</v>
       </c>
       <c r="D38" t="n">
-        <v>0.217735</v>
+        <v>0.21791</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.342306</v>
+        <v>0.342189</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2418</v>
+        <v>0.241932</v>
       </c>
       <c r="D39" t="n">
-        <v>0.216981</v>
+        <v>0.217126</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.336229</v>
+        <v>0.336274</v>
       </c>
       <c r="C40" t="n">
-        <v>0.240436</v>
+        <v>0.240692</v>
       </c>
       <c r="D40" t="n">
-        <v>0.215602</v>
+        <v>0.215839</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.329778</v>
+        <v>0.330022</v>
       </c>
       <c r="C41" t="n">
-        <v>0.239157</v>
+        <v>0.239232</v>
       </c>
       <c r="D41" t="n">
-        <v>0.214297</v>
+        <v>0.214465</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.322929</v>
+        <v>0.323078</v>
       </c>
       <c r="C42" t="n">
-        <v>0.238827</v>
+        <v>0.238454</v>
       </c>
       <c r="D42" t="n">
-        <v>0.213988</v>
+        <v>0.214249</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.316009</v>
+        <v>0.315956</v>
       </c>
       <c r="C43" t="n">
-        <v>0.237278</v>
+        <v>0.237121</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213448</v>
+        <v>0.213276</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.308709</v>
+        <v>0.308614</v>
       </c>
       <c r="C44" t="n">
-        <v>0.236587</v>
+        <v>0.236526</v>
       </c>
       <c r="D44" t="n">
-        <v>0.212731</v>
+        <v>0.212909</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300053</v>
+        <v>0.299818</v>
       </c>
       <c r="C45" t="n">
-        <v>0.235246</v>
+        <v>0.235312</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211847</v>
+        <v>0.211854</v>
       </c>
     </row>
     <row r="46">
@@ -3868,10 +3868,10 @@
         <v>0.291176</v>
       </c>
       <c r="C46" t="n">
-        <v>0.234834</v>
+        <v>0.234816</v>
       </c>
       <c r="D46" t="n">
-        <v>0.211314</v>
+        <v>0.211102</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.281834</v>
+        <v>0.281612</v>
       </c>
       <c r="C47" t="n">
-        <v>0.234403</v>
+        <v>0.234431</v>
       </c>
       <c r="D47" t="n">
-        <v>0.210862</v>
+        <v>0.210917</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2709</v>
+        <v>0.27089</v>
       </c>
       <c r="C48" t="n">
-        <v>0.233222</v>
+        <v>0.233255</v>
       </c>
       <c r="D48" t="n">
-        <v>0.21008</v>
+        <v>0.21003</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.259903</v>
+        <v>0.259543</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2324</v>
+        <v>0.232407</v>
       </c>
       <c r="D49" t="n">
-        <v>0.208774</v>
+        <v>0.208854</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.247563</v>
+        <v>0.24715</v>
       </c>
       <c r="C50" t="n">
-        <v>0.231771</v>
+        <v>0.232196</v>
       </c>
       <c r="D50" t="n">
-        <v>0.208945</v>
+        <v>0.208559</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.233551</v>
+        <v>0.233685</v>
       </c>
       <c r="C51" t="n">
-        <v>0.231397</v>
+        <v>0.231663</v>
       </c>
       <c r="D51" t="n">
-        <v>0.221331</v>
+        <v>0.221596</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.220473</v>
+        <v>0.220403</v>
       </c>
       <c r="C52" t="n">
-        <v>0.230795</v>
+        <v>0.23107</v>
       </c>
       <c r="D52" t="n">
-        <v>0.219813</v>
+        <v>0.220092</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.344976</v>
+        <v>0.344535</v>
       </c>
       <c r="C53" t="n">
-        <v>0.243421</v>
+        <v>0.243428</v>
       </c>
       <c r="D53" t="n">
-        <v>0.218385</v>
+        <v>0.218212</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.339479</v>
+        <v>0.339205</v>
       </c>
       <c r="C54" t="n">
-        <v>0.242445</v>
+        <v>0.242533</v>
       </c>
       <c r="D54" t="n">
-        <v>0.217582</v>
+        <v>0.217579</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.333449</v>
+        <v>0.332949</v>
       </c>
       <c r="C55" t="n">
-        <v>0.241416</v>
+        <v>0.241565</v>
       </c>
       <c r="D55" t="n">
-        <v>0.216704</v>
+        <v>0.216368</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.326752</v>
+        <v>0.32661</v>
       </c>
       <c r="C56" t="n">
-        <v>0.239993</v>
+        <v>0.23996</v>
       </c>
       <c r="D56" t="n">
-        <v>0.215198</v>
+        <v>0.215581</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.319489</v>
+        <v>0.319296</v>
       </c>
       <c r="C57" t="n">
-        <v>0.239037</v>
+        <v>0.239179</v>
       </c>
       <c r="D57" t="n">
-        <v>0.214076</v>
+        <v>0.21424</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.31161</v>
+        <v>0.311682</v>
       </c>
       <c r="C58" t="n">
-        <v>0.238165</v>
+        <v>0.238278</v>
       </c>
       <c r="D58" t="n">
-        <v>0.213919</v>
+        <v>0.214011</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.303351</v>
+        <v>0.302856</v>
       </c>
       <c r="C59" t="n">
-        <v>0.237095</v>
+        <v>0.237273</v>
       </c>
       <c r="D59" t="n">
-        <v>0.212706</v>
+        <v>0.213025</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294028</v>
+        <v>0.29555</v>
       </c>
       <c r="C60" t="n">
-        <v>0.236361</v>
+        <v>0.236781</v>
       </c>
       <c r="D60" t="n">
-        <v>0.212482</v>
+        <v>0.212638</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284927</v>
+        <v>0.285573</v>
       </c>
       <c r="C61" t="n">
-        <v>0.235806</v>
+        <v>0.236171</v>
       </c>
       <c r="D61" t="n">
-        <v>0.211593</v>
+        <v>0.211767</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.27484</v>
+        <v>0.275091</v>
       </c>
       <c r="C62" t="n">
-        <v>0.23511</v>
+        <v>0.235093</v>
       </c>
       <c r="D62" t="n">
-        <v>0.210699</v>
+        <v>0.210827</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263627</v>
+        <v>0.263993</v>
       </c>
       <c r="C63" t="n">
-        <v>0.233913</v>
+        <v>0.234267</v>
       </c>
       <c r="D63" t="n">
-        <v>0.210024</v>
+        <v>0.210009</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.251654</v>
+        <v>0.251803</v>
       </c>
       <c r="C64" t="n">
-        <v>0.233206</v>
+        <v>0.233772</v>
       </c>
       <c r="D64" t="n">
-        <v>0.209256</v>
+        <v>0.209293</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.238253</v>
+        <v>0.238924</v>
       </c>
       <c r="C65" t="n">
-        <v>0.232913</v>
+        <v>0.233096</v>
       </c>
       <c r="D65" t="n">
-        <v>0.209042</v>
+        <v>0.209011</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.224545</v>
+        <v>0.224735</v>
       </c>
       <c r="C66" t="n">
-        <v>0.232476</v>
+        <v>0.232707</v>
       </c>
       <c r="D66" t="n">
-        <v>0.220204</v>
+        <v>0.220511</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.346821</v>
+        <v>0.347305</v>
       </c>
       <c r="C67" t="n">
-        <v>0.244792</v>
+        <v>0.245193</v>
       </c>
       <c r="D67" t="n">
-        <v>0.218795</v>
+        <v>0.219159</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.341474</v>
+        <v>0.34173</v>
       </c>
       <c r="C68" t="n">
-        <v>0.243513</v>
+        <v>0.243912</v>
       </c>
       <c r="D68" t="n">
-        <v>0.217449</v>
+        <v>0.217715</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.335228</v>
+        <v>0.335393</v>
       </c>
       <c r="C69" t="n">
-        <v>0.241992</v>
+        <v>0.242189</v>
       </c>
       <c r="D69" t="n">
-        <v>0.216474</v>
+        <v>0.216465</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.328587</v>
+        <v>0.328441</v>
       </c>
       <c r="C70" t="n">
-        <v>0.240959</v>
+        <v>0.241362</v>
       </c>
       <c r="D70" t="n">
-        <v>0.215118</v>
+        <v>0.2155</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.321194</v>
+        <v>0.321141</v>
       </c>
       <c r="C71" t="n">
-        <v>0.239587</v>
+        <v>0.239912</v>
       </c>
       <c r="D71" t="n">
-        <v>0.214065</v>
+        <v>0.214452</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.313343</v>
+        <v>0.313073</v>
       </c>
       <c r="C72" t="n">
-        <v>0.238219</v>
+        <v>0.238846</v>
       </c>
       <c r="D72" t="n">
-        <v>0.213337</v>
+        <v>0.213674</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.304823</v>
+        <v>0.304477</v>
       </c>
       <c r="C73" t="n">
-        <v>0.237339</v>
+        <v>0.237428</v>
       </c>
       <c r="D73" t="n">
-        <v>0.212354</v>
+        <v>0.212234</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.296632</v>
+        <v>0.296116</v>
       </c>
       <c r="C74" t="n">
-        <v>0.236531</v>
+        <v>0.236659</v>
       </c>
       <c r="D74" t="n">
-        <v>0.211846</v>
+        <v>0.21205</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286849</v>
+        <v>0.286229</v>
       </c>
       <c r="C75" t="n">
-        <v>0.23596</v>
+        <v>0.236073</v>
       </c>
       <c r="D75" t="n">
-        <v>0.211064</v>
+        <v>0.211056</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.27699</v>
+        <v>0.276534</v>
       </c>
       <c r="C76" t="n">
-        <v>0.23476</v>
+        <v>0.235092</v>
       </c>
       <c r="D76" t="n">
-        <v>0.210312</v>
+        <v>0.210641</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.266066</v>
+        <v>0.265565</v>
       </c>
       <c r="C77" t="n">
-        <v>0.234237</v>
+        <v>0.234574</v>
       </c>
       <c r="D77" t="n">
-        <v>0.209327</v>
+        <v>0.209796</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.254979</v>
+        <v>0.254429</v>
       </c>
       <c r="C78" t="n">
-        <v>0.233224</v>
+        <v>0.233636</v>
       </c>
       <c r="D78" t="n">
-        <v>0.208856</v>
+        <v>0.209045</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.242</v>
+        <v>0.241161</v>
       </c>
       <c r="C79" t="n">
-        <v>0.232642</v>
+        <v>0.233152</v>
       </c>
       <c r="D79" t="n">
-        <v>0.208654</v>
+        <v>0.209069</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.228024</v>
+        <v>0.227477</v>
       </c>
       <c r="C80" t="n">
-        <v>0.232038</v>
+        <v>0.232477</v>
       </c>
       <c r="D80" t="n">
-        <v>0.220559</v>
+        <v>0.220734</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.349005</v>
+        <v>0.348866</v>
       </c>
       <c r="C81" t="n">
-        <v>0.245363</v>
+        <v>0.245675</v>
       </c>
       <c r="D81" t="n">
-        <v>0.219054</v>
+        <v>0.219249</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.343268</v>
+        <v>0.34318</v>
       </c>
       <c r="C82" t="n">
-        <v>0.243858</v>
+        <v>0.244115</v>
       </c>
       <c r="D82" t="n">
-        <v>0.218035</v>
+        <v>0.218118</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.337165</v>
+        <v>0.33707</v>
       </c>
       <c r="C83" t="n">
-        <v>0.242377</v>
+        <v>0.242694</v>
       </c>
       <c r="D83" t="n">
-        <v>0.216867</v>
+        <v>0.216934</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.330306</v>
+        <v>0.330332</v>
       </c>
       <c r="C84" t="n">
-        <v>0.241345</v>
+        <v>0.241614</v>
       </c>
       <c r="D84" t="n">
-        <v>0.215624</v>
+        <v>0.215857</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.323145</v>
+        <v>0.323147</v>
       </c>
       <c r="C85" t="n">
-        <v>0.240093</v>
+        <v>0.240475</v>
       </c>
       <c r="D85" t="n">
-        <v>0.214821</v>
+        <v>0.215146</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.315881</v>
+        <v>0.315543</v>
       </c>
       <c r="C86" t="n">
-        <v>0.239239</v>
+        <v>0.239451</v>
       </c>
       <c r="D86" t="n">
-        <v>0.214082</v>
+        <v>0.214149</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.307504</v>
+        <v>0.307224</v>
       </c>
       <c r="C87" t="n">
-        <v>0.237978</v>
+        <v>0.238408</v>
       </c>
       <c r="D87" t="n">
-        <v>0.212963</v>
+        <v>0.213163</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.299098</v>
+        <v>0.298464</v>
       </c>
       <c r="C88" t="n">
-        <v>0.236988</v>
+        <v>0.237289</v>
       </c>
       <c r="D88" t="n">
-        <v>0.212211</v>
+        <v>0.212155</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.289688</v>
+        <v>0.289093</v>
       </c>
       <c r="C89" t="n">
-        <v>0.236049</v>
+        <v>0.236381</v>
       </c>
       <c r="D89" t="n">
-        <v>0.211243</v>
+        <v>0.211593</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.279876</v>
+        <v>0.27954</v>
       </c>
       <c r="C90" t="n">
-        <v>0.235054</v>
+        <v>0.235546</v>
       </c>
       <c r="D90" t="n">
-        <v>0.210639</v>
+        <v>0.210905</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.26916</v>
+        <v>0.268643</v>
       </c>
       <c r="C91" t="n">
-        <v>0.234188</v>
+        <v>0.234704</v>
       </c>
       <c r="D91" t="n">
-        <v>0.209959</v>
+        <v>0.210194</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.257487</v>
+        <v>0.257066</v>
       </c>
       <c r="C92" t="n">
-        <v>0.233682</v>
+        <v>0.233919</v>
       </c>
       <c r="D92" t="n">
-        <v>0.209187</v>
+        <v>0.209417</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.244856</v>
+        <v>0.244497</v>
       </c>
       <c r="C93" t="n">
-        <v>0.232462</v>
+        <v>0.2331</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2085</v>
+        <v>0.208702</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.231088</v>
+        <v>0.230692</v>
       </c>
       <c r="C94" t="n">
-        <v>0.232191</v>
+        <v>0.232469</v>
       </c>
       <c r="D94" t="n">
-        <v>0.220593</v>
+        <v>0.220728</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.349461</v>
+        <v>0.349766</v>
       </c>
       <c r="C95" t="n">
-        <v>0.245808</v>
+        <v>0.246309</v>
       </c>
       <c r="D95" t="n">
-        <v>0.219345</v>
+        <v>0.219415</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.34394</v>
+        <v>0.344133</v>
       </c>
       <c r="C96" t="n">
-        <v>0.244273</v>
+        <v>0.244916</v>
       </c>
       <c r="D96" t="n">
-        <v>0.218074</v>
+        <v>0.218053</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.337882</v>
+        <v>0.337954</v>
       </c>
       <c r="C97" t="n">
-        <v>0.243155</v>
+        <v>0.243837</v>
       </c>
       <c r="D97" t="n">
-        <v>0.216854</v>
+        <v>0.216993</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.331271</v>
+        <v>0.331492</v>
       </c>
       <c r="C98" t="n">
-        <v>0.241369</v>
+        <v>0.241699</v>
       </c>
       <c r="D98" t="n">
-        <v>0.215527</v>
+        <v>0.215672</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.32438</v>
+        <v>0.324365</v>
       </c>
       <c r="C99" t="n">
-        <v>0.240149</v>
+        <v>0.240573</v>
       </c>
       <c r="D99" t="n">
-        <v>0.214633</v>
+        <v>0.214595</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.316761</v>
+        <v>0.316836</v>
       </c>
       <c r="C100" t="n">
-        <v>0.239056</v>
+        <v>0.239271</v>
       </c>
       <c r="D100" t="n">
-        <v>0.213374</v>
+        <v>0.213458</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.308612</v>
+        <v>0.308749</v>
       </c>
       <c r="C101" t="n">
-        <v>0.237967</v>
+        <v>0.238391</v>
       </c>
       <c r="D101" t="n">
-        <v>0.212368</v>
+        <v>0.212551</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.299893</v>
+        <v>0.29999</v>
       </c>
       <c r="C102" t="n">
-        <v>0.236688</v>
+        <v>0.238068</v>
       </c>
       <c r="D102" t="n">
-        <v>0.211494</v>
+        <v>0.211753</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.290975</v>
+        <v>0.291135</v>
       </c>
       <c r="C103" t="n">
-        <v>0.236693</v>
+        <v>0.237146</v>
       </c>
       <c r="D103" t="n">
-        <v>0.210922</v>
+        <v>0.211126</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.281208</v>
+        <v>0.281278</v>
       </c>
       <c r="C104" t="n">
-        <v>0.235093</v>
+        <v>0.235796</v>
       </c>
       <c r="D104" t="n">
-        <v>0.210056</v>
+        <v>0.210358</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.270875</v>
+        <v>0.270851</v>
       </c>
       <c r="C105" t="n">
-        <v>0.234241</v>
+        <v>0.234944</v>
       </c>
       <c r="D105" t="n">
-        <v>0.209884</v>
+        <v>0.209893</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.259242</v>
+        <v>0.259207</v>
       </c>
       <c r="C106" t="n">
-        <v>0.234175</v>
+        <v>0.234637</v>
       </c>
       <c r="D106" t="n">
-        <v>0.209129</v>
+        <v>0.209352</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.246868</v>
+        <v>0.247026</v>
       </c>
       <c r="C107" t="n">
-        <v>0.232347</v>
+        <v>0.233197</v>
       </c>
       <c r="D107" t="n">
-        <v>0.208672</v>
+        <v>0.209033</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.233334</v>
+        <v>0.233391</v>
       </c>
       <c r="C108" t="n">
-        <v>0.232498</v>
+        <v>0.232927</v>
       </c>
       <c r="D108" t="n">
-        <v>0.220941</v>
+        <v>0.221224</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.219232</v>
+        <v>0.219173</v>
       </c>
       <c r="C109" t="n">
-        <v>0.231611</v>
+        <v>0.231757</v>
       </c>
       <c r="D109" t="n">
-        <v>0.219612</v>
+        <v>0.219689</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.345584</v>
+        <v>0.345828</v>
       </c>
       <c r="C110" t="n">
-        <v>0.245217</v>
+        <v>0.246462</v>
       </c>
       <c r="D110" t="n">
-        <v>0.218588</v>
+        <v>0.218501</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.339316</v>
+        <v>0.339512</v>
       </c>
       <c r="C111" t="n">
-        <v>0.244266</v>
+        <v>0.245261</v>
       </c>
       <c r="D111" t="n">
-        <v>0.216858</v>
+        <v>0.217267</v>
       </c>
     </row>
     <row r="112">
@@ -4792,10 +4792,10 @@
         <v>0.333033</v>
       </c>
       <c r="C112" t="n">
-        <v>0.244106</v>
+        <v>0.24467</v>
       </c>
       <c r="D112" t="n">
-        <v>0.215764</v>
+        <v>0.216052</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.32574</v>
+        <v>0.325881</v>
       </c>
       <c r="C113" t="n">
-        <v>0.241805</v>
+        <v>0.243007</v>
       </c>
       <c r="D113" t="n">
-        <v>0.214749</v>
+        <v>0.214738</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.318401</v>
+        <v>0.318641</v>
       </c>
       <c r="C114" t="n">
-        <v>0.240539</v>
+        <v>0.241593</v>
       </c>
       <c r="D114" t="n">
-        <v>0.213799</v>
+        <v>0.21389</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.310409</v>
+        <v>0.31067</v>
       </c>
       <c r="C115" t="n">
-        <v>0.238993</v>
+        <v>0.240274</v>
       </c>
       <c r="D115" t="n">
-        <v>0.212461</v>
+        <v>0.212936</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.302394</v>
+        <v>0.302247</v>
       </c>
       <c r="C116" t="n">
-        <v>0.239107</v>
+        <v>0.239419</v>
       </c>
       <c r="D116" t="n">
-        <v>0.212076</v>
+        <v>0.212177</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.292946</v>
+        <v>0.293196</v>
       </c>
       <c r="C117" t="n">
-        <v>0.238063</v>
+        <v>0.237919</v>
       </c>
       <c r="D117" t="n">
-        <v>0.210927</v>
+        <v>0.211216</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.283599</v>
+        <v>0.283633</v>
       </c>
       <c r="C118" t="n">
-        <v>0.236053</v>
+        <v>0.237032</v>
       </c>
       <c r="D118" t="n">
-        <v>0.21044</v>
+        <v>0.21042</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.273071</v>
+        <v>0.273381</v>
       </c>
       <c r="C119" t="n">
-        <v>0.23647</v>
+        <v>0.237176</v>
       </c>
       <c r="D119" t="n">
-        <v>0.210017</v>
+        <v>0.210049</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.261883</v>
+        <v>0.262031</v>
       </c>
       <c r="C120" t="n">
-        <v>0.235851</v>
+        <v>0.235824</v>
       </c>
       <c r="D120" t="n">
-        <v>0.20896</v>
+        <v>0.209068</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.249592</v>
+        <v>0.249917</v>
       </c>
       <c r="C121" t="n">
-        <v>0.23483</v>
+        <v>0.23426</v>
       </c>
       <c r="D121" t="n">
-        <v>0.208865</v>
+        <v>0.208873</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.236668</v>
+        <v>0.237001</v>
       </c>
       <c r="C122" t="n">
-        <v>0.233196</v>
+        <v>0.233836</v>
       </c>
       <c r="D122" t="n">
-        <v>0.208137</v>
+        <v>0.208459</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.222415</v>
+        <v>0.222829</v>
       </c>
       <c r="C123" t="n">
-        <v>0.23184</v>
+        <v>0.232896</v>
       </c>
       <c r="D123" t="n">
-        <v>0.220146</v>
+        <v>0.220066</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.34674</v>
+        <v>0.347202</v>
       </c>
       <c r="C124" t="n">
-        <v>0.249588</v>
+        <v>0.247717</v>
       </c>
       <c r="D124" t="n">
-        <v>0.218631</v>
+        <v>0.218848</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.340958</v>
+        <v>0.340876</v>
       </c>
       <c r="C125" t="n">
-        <v>0.246994</v>
+        <v>0.247993</v>
       </c>
       <c r="D125" t="n">
-        <v>0.217602</v>
+        <v>0.217433</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.334333</v>
+        <v>0.334763</v>
       </c>
       <c r="C126" t="n">
-        <v>0.243474</v>
+        <v>0.245791</v>
       </c>
       <c r="D126" t="n">
-        <v>0.216214</v>
+        <v>0.216301</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.327156</v>
+        <v>0.32753</v>
       </c>
       <c r="C127" t="n">
-        <v>0.243573</v>
+        <v>0.245927</v>
       </c>
       <c r="D127" t="n">
-        <v>0.215204</v>
+        <v>0.215266</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.319909</v>
+        <v>0.320333</v>
       </c>
       <c r="C128" t="n">
-        <v>0.241178</v>
+        <v>0.244236</v>
       </c>
       <c r="D128" t="n">
-        <v>0.214039</v>
+        <v>0.214121</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.312191</v>
+        <v>0.312548</v>
       </c>
       <c r="C129" t="n">
-        <v>0.241773</v>
+        <v>0.244132</v>
       </c>
       <c r="D129" t="n">
-        <v>0.213132</v>
+        <v>0.212804</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.304119</v>
+        <v>0.304159</v>
       </c>
       <c r="C130" t="n">
-        <v>0.241157</v>
+        <v>0.241328</v>
       </c>
       <c r="D130" t="n">
-        <v>0.212197</v>
+        <v>0.212356</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.295049</v>
+        <v>0.295685</v>
       </c>
       <c r="C131" t="n">
-        <v>0.239807</v>
+        <v>0.241498</v>
       </c>
       <c r="D131" t="n">
-        <v>0.211324</v>
+        <v>0.211214</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.286139</v>
+        <v>0.285997</v>
       </c>
       <c r="C132" t="n">
-        <v>0.238758</v>
+        <v>0.240272</v>
       </c>
       <c r="D132" t="n">
-        <v>0.2104</v>
+        <v>0.210634</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275893</v>
+        <v>0.276021</v>
       </c>
       <c r="C133" t="n">
-        <v>0.23828</v>
+        <v>0.239578</v>
       </c>
       <c r="D133" t="n">
-        <v>0.209769</v>
+        <v>0.210302</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.264802</v>
+        <v>0.264901</v>
       </c>
       <c r="C134" t="n">
-        <v>0.238102</v>
+        <v>0.238662</v>
       </c>
       <c r="D134" t="n">
-        <v>0.209268</v>
+        <v>0.209273</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.252654</v>
+        <v>0.253385</v>
       </c>
       <c r="C135" t="n">
-        <v>0.23766</v>
+        <v>0.237698</v>
       </c>
       <c r="D135" t="n">
-        <v>0.208844</v>
+        <v>0.208877</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.239622</v>
+        <v>0.240425</v>
       </c>
       <c r="C136" t="n">
-        <v>0.235519</v>
+        <v>0.236878</v>
       </c>
       <c r="D136" t="n">
-        <v>0.208262</v>
+        <v>0.208507</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.225719</v>
+        <v>0.226163</v>
       </c>
       <c r="C137" t="n">
-        <v>0.234497</v>
+        <v>0.234992</v>
       </c>
       <c r="D137" t="n">
-        <v>0.22056</v>
+        <v>0.220577</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.348347</v>
+        <v>0.348516</v>
       </c>
       <c r="C138" t="n">
-        <v>0.250864</v>
+        <v>0.250808</v>
       </c>
       <c r="D138" t="n">
-        <v>0.21898</v>
+        <v>0.219219</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.342057</v>
+        <v>0.342648</v>
       </c>
       <c r="C139" t="n">
-        <v>0.250616</v>
+        <v>0.248761</v>
       </c>
       <c r="D139" t="n">
-        <v>0.217868</v>
+        <v>0.21792</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.336275</v>
+        <v>0.335923</v>
       </c>
       <c r="C140" t="n">
-        <v>0.247587</v>
+        <v>0.247472</v>
       </c>
       <c r="D140" t="n">
-        <v>0.216571</v>
+        <v>0.216866</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.328637</v>
+        <v>0.329669</v>
       </c>
       <c r="C141" t="n">
-        <v>0.244238</v>
+        <v>0.246683</v>
       </c>
       <c r="D141" t="n">
-        <v>0.21575</v>
+        <v>0.215582</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.321588</v>
+        <v>0.322</v>
       </c>
       <c r="C142" t="n">
-        <v>0.245553</v>
+        <v>0.249046</v>
       </c>
       <c r="D142" t="n">
-        <v>0.214224</v>
+        <v>0.21456</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.314328</v>
+        <v>0.314371</v>
       </c>
       <c r="C143" t="n">
-        <v>0.245103</v>
+        <v>0.244062</v>
       </c>
       <c r="D143" t="n">
-        <v>0.213406</v>
+        <v>0.213578</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.296605</v>
+        <v>0.300081</v>
       </c>
       <c r="C2" t="n">
-        <v>0.219069</v>
+        <v>0.223766</v>
       </c>
       <c r="D2" t="n">
-        <v>0.198686</v>
+        <v>0.195828</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.287572</v>
+        <v>0.286584</v>
       </c>
       <c r="C3" t="n">
-        <v>0.219355</v>
+        <v>0.224519</v>
       </c>
       <c r="D3" t="n">
-        <v>0.196711</v>
+        <v>0.196769</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.278996</v>
+        <v>0.277695</v>
       </c>
       <c r="C4" t="n">
-        <v>0.219826</v>
+        <v>0.22393</v>
       </c>
       <c r="D4" t="n">
-        <v>0.198195</v>
+        <v>0.196037</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.268944</v>
+        <v>0.267499</v>
       </c>
       <c r="C5" t="n">
-        <v>0.220187</v>
+        <v>0.223678</v>
       </c>
       <c r="D5" t="n">
-        <v>0.197889</v>
+        <v>0.195953</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.258188</v>
+        <v>0.257643</v>
       </c>
       <c r="C6" t="n">
-        <v>0.220984</v>
+        <v>0.22505</v>
       </c>
       <c r="D6" t="n">
-        <v>0.199395</v>
+        <v>0.197466</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.246609</v>
+        <v>0.245049</v>
       </c>
       <c r="C7" t="n">
-        <v>0.220714</v>
+        <v>0.224011</v>
       </c>
       <c r="D7" t="n">
-        <v>0.199612</v>
+        <v>0.196909</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.232671</v>
+        <v>0.234407</v>
       </c>
       <c r="C8" t="n">
-        <v>0.220817</v>
+        <v>0.226019</v>
       </c>
       <c r="D8" t="n">
-        <v>0.199209</v>
+        <v>0.198546</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.218204</v>
+        <v>0.217987</v>
       </c>
       <c r="C9" t="n">
-        <v>0.221442</v>
+        <v>0.225946</v>
       </c>
       <c r="D9" t="n">
-        <v>0.214406</v>
+        <v>0.214691</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.342341</v>
+        <v>0.342669</v>
       </c>
       <c r="C10" t="n">
-        <v>0.239145</v>
+        <v>0.248284</v>
       </c>
       <c r="D10" t="n">
-        <v>0.213514</v>
+        <v>0.213884</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.336944</v>
+        <v>0.338085</v>
       </c>
       <c r="C11" t="n">
-        <v>0.238087</v>
+        <v>0.246674</v>
       </c>
       <c r="D11" t="n">
-        <v>0.213718</v>
+        <v>0.213005</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.32903</v>
+        <v>0.33111</v>
       </c>
       <c r="C12" t="n">
-        <v>0.237568</v>
+        <v>0.253785</v>
       </c>
       <c r="D12" t="n">
-        <v>0.212347</v>
+        <v>0.212292</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.322006</v>
+        <v>0.323669</v>
       </c>
       <c r="C13" t="n">
-        <v>0.236114</v>
+        <v>0.258815</v>
       </c>
       <c r="D13" t="n">
-        <v>0.211751</v>
+        <v>0.210581</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.316655</v>
+        <v>0.315553</v>
       </c>
       <c r="C14" t="n">
-        <v>0.245204</v>
+        <v>0.241703</v>
       </c>
       <c r="D14" t="n">
-        <v>0.209583</v>
+        <v>0.208933</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.308125</v>
+        <v>0.310354</v>
       </c>
       <c r="C15" t="n">
-        <v>0.233948</v>
+        <v>0.255506</v>
       </c>
       <c r="D15" t="n">
-        <v>0.209541</v>
+        <v>0.208817</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.299753</v>
+        <v>0.301381</v>
       </c>
       <c r="C16" t="n">
-        <v>0.233563</v>
+        <v>0.238208</v>
       </c>
       <c r="D16" t="n">
-        <v>0.209642</v>
+        <v>0.208202</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.292194</v>
+        <v>0.293229</v>
       </c>
       <c r="C17" t="n">
-        <v>0.23568</v>
+        <v>0.249296</v>
       </c>
       <c r="D17" t="n">
-        <v>0.207887</v>
+        <v>0.206475</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.283502</v>
+        <v>0.283617</v>
       </c>
       <c r="C18" t="n">
-        <v>0.24126</v>
+        <v>0.236375</v>
       </c>
       <c r="D18" t="n">
-        <v>0.207985</v>
+        <v>0.206621</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.273416</v>
+        <v>0.275186</v>
       </c>
       <c r="C19" t="n">
-        <v>0.241998</v>
+        <v>0.235775</v>
       </c>
       <c r="D19" t="n">
-        <v>0.207162</v>
+        <v>0.206345</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.263062</v>
+        <v>0.263681</v>
       </c>
       <c r="C20" t="n">
-        <v>0.231195</v>
+        <v>0.234278</v>
       </c>
       <c r="D20" t="n">
-        <v>0.206744</v>
+        <v>0.205364</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.250388</v>
+        <v>0.25136</v>
       </c>
       <c r="C21" t="n">
-        <v>0.231088</v>
+        <v>0.244439</v>
       </c>
       <c r="D21" t="n">
-        <v>0.206068</v>
+        <v>0.205451</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.237541</v>
+        <v>0.238208</v>
       </c>
       <c r="C22" t="n">
-        <v>0.230225</v>
+        <v>0.233991</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205757</v>
+        <v>0.205401</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.223998</v>
+        <v>0.22464</v>
       </c>
       <c r="C23" t="n">
-        <v>0.23988</v>
+        <v>0.243969</v>
       </c>
       <c r="D23" t="n">
-        <v>0.218533</v>
+        <v>0.216998</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.345601</v>
+        <v>0.345609</v>
       </c>
       <c r="C24" t="n">
-        <v>0.254664</v>
+        <v>0.268444</v>
       </c>
       <c r="D24" t="n">
-        <v>0.216836</v>
+        <v>0.216489</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.339516</v>
+        <v>0.340726</v>
       </c>
       <c r="C25" t="n">
-        <v>0.25318</v>
+        <v>0.245822</v>
       </c>
       <c r="D25" t="n">
-        <v>0.216254</v>
+        <v>0.214986</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.335977</v>
+        <v>0.335979</v>
       </c>
       <c r="C26" t="n">
-        <v>0.250655</v>
+        <v>0.261073</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2146</v>
+        <v>0.2133</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.329202</v>
+        <v>0.327231</v>
       </c>
       <c r="C27" t="n">
-        <v>0.24887</v>
+        <v>0.243176</v>
       </c>
       <c r="D27" t="n">
-        <v>0.213347</v>
+        <v>0.212051</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.321838</v>
+        <v>0.321119</v>
       </c>
       <c r="C28" t="n">
-        <v>0.247607</v>
+        <v>0.253009</v>
       </c>
       <c r="D28" t="n">
-        <v>0.211911</v>
+        <v>0.210531</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.316942</v>
+        <v>0.315827</v>
       </c>
       <c r="C29" t="n">
-        <v>0.246188</v>
+        <v>0.257202</v>
       </c>
       <c r="D29" t="n">
-        <v>0.21097</v>
+        <v>0.209818</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.306876</v>
+        <v>0.305812</v>
       </c>
       <c r="C30" t="n">
-        <v>0.245109</v>
+        <v>0.247724</v>
       </c>
       <c r="D30" t="n">
-        <v>0.209777</v>
+        <v>0.209274</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.298786</v>
+        <v>0.298568</v>
       </c>
       <c r="C31" t="n">
-        <v>0.250784</v>
+        <v>0.248497</v>
       </c>
       <c r="D31" t="n">
-        <v>0.209397</v>
+        <v>0.208613</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.28803</v>
+        <v>0.28938</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2504</v>
+        <v>0.254133</v>
       </c>
       <c r="D32" t="n">
-        <v>0.208955</v>
+        <v>0.208505</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.27973</v>
+        <v>0.280433</v>
       </c>
       <c r="C33" t="n">
-        <v>0.250023</v>
+        <v>0.236957</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208142</v>
+        <v>0.2076</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.269292</v>
+        <v>0.269507</v>
       </c>
       <c r="C34" t="n">
-        <v>0.232238</v>
+        <v>0.252781</v>
       </c>
       <c r="D34" t="n">
-        <v>0.208413</v>
+        <v>0.207905</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.259329</v>
+        <v>0.257842</v>
       </c>
       <c r="C35" t="n">
-        <v>0.242054</v>
+        <v>0.247321</v>
       </c>
       <c r="D35" t="n">
-        <v>0.208008</v>
+        <v>0.207591</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.247988</v>
+        <v>0.244617</v>
       </c>
       <c r="C36" t="n">
-        <v>0.230805</v>
+        <v>0.243719</v>
       </c>
       <c r="D36" t="n">
-        <v>0.207369</v>
+        <v>0.206387</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.230724</v>
+        <v>0.230852</v>
       </c>
       <c r="C37" t="n">
-        <v>0.230225</v>
+        <v>0.255858</v>
       </c>
       <c r="D37" t="n">
-        <v>0.219487</v>
+        <v>0.218404</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.348174</v>
+        <v>0.347958</v>
       </c>
       <c r="C38" t="n">
-        <v>0.243646</v>
+        <v>0.247903</v>
       </c>
       <c r="D38" t="n">
-        <v>0.21791</v>
+        <v>0.217596</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.342189</v>
+        <v>0.342876</v>
       </c>
       <c r="C39" t="n">
-        <v>0.241932</v>
+        <v>0.245843</v>
       </c>
       <c r="D39" t="n">
-        <v>0.217126</v>
+        <v>0.216012</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.336274</v>
+        <v>0.336713</v>
       </c>
       <c r="C40" t="n">
-        <v>0.240692</v>
+        <v>0.245055</v>
       </c>
       <c r="D40" t="n">
-        <v>0.215839</v>
+        <v>0.214982</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.330022</v>
+        <v>0.330616</v>
       </c>
       <c r="C41" t="n">
-        <v>0.239232</v>
+        <v>0.243997</v>
       </c>
       <c r="D41" t="n">
-        <v>0.214465</v>
+        <v>0.213959</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.323078</v>
+        <v>0.323949</v>
       </c>
       <c r="C42" t="n">
-        <v>0.238454</v>
+        <v>0.243366</v>
       </c>
       <c r="D42" t="n">
-        <v>0.214249</v>
+        <v>0.212875</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.315956</v>
+        <v>0.317063</v>
       </c>
       <c r="C43" t="n">
-        <v>0.237121</v>
+        <v>0.24218</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213276</v>
+        <v>0.211821</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.308614</v>
+        <v>0.310085</v>
       </c>
       <c r="C44" t="n">
-        <v>0.236526</v>
+        <v>0.241441</v>
       </c>
       <c r="D44" t="n">
-        <v>0.212909</v>
+        <v>0.211566</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.299818</v>
+        <v>0.301334</v>
       </c>
       <c r="C45" t="n">
-        <v>0.235312</v>
+        <v>0.240696</v>
       </c>
       <c r="D45" t="n">
-        <v>0.211854</v>
+        <v>0.210137</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291176</v>
+        <v>0.292774</v>
       </c>
       <c r="C46" t="n">
-        <v>0.234816</v>
+        <v>0.239734</v>
       </c>
       <c r="D46" t="n">
-        <v>0.211102</v>
+        <v>0.209821</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.281612</v>
+        <v>0.282831</v>
       </c>
       <c r="C47" t="n">
-        <v>0.234431</v>
+        <v>0.238855</v>
       </c>
       <c r="D47" t="n">
-        <v>0.210917</v>
+        <v>0.209729</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.27089</v>
+        <v>0.271795</v>
       </c>
       <c r="C48" t="n">
-        <v>0.233255</v>
+        <v>0.238157</v>
       </c>
       <c r="D48" t="n">
-        <v>0.21003</v>
+        <v>0.209015</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.259543</v>
+        <v>0.260453</v>
       </c>
       <c r="C49" t="n">
-        <v>0.232407</v>
+        <v>0.237811</v>
       </c>
       <c r="D49" t="n">
-        <v>0.208854</v>
+        <v>0.208089</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.24715</v>
+        <v>0.247969</v>
       </c>
       <c r="C50" t="n">
-        <v>0.232196</v>
+        <v>0.237149</v>
       </c>
       <c r="D50" t="n">
-        <v>0.208559</v>
+        <v>0.207772</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.233685</v>
+        <v>0.234487</v>
       </c>
       <c r="C51" t="n">
-        <v>0.231663</v>
+        <v>0.236257</v>
       </c>
       <c r="D51" t="n">
-        <v>0.221596</v>
+        <v>0.220725</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.220403</v>
+        <v>0.220605</v>
       </c>
       <c r="C52" t="n">
-        <v>0.23107</v>
+        <v>0.235317</v>
       </c>
       <c r="D52" t="n">
-        <v>0.220092</v>
+        <v>0.218835</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.344535</v>
+        <v>0.345417</v>
       </c>
       <c r="C53" t="n">
-        <v>0.243428</v>
+        <v>0.248635</v>
       </c>
       <c r="D53" t="n">
-        <v>0.218212</v>
+        <v>0.217534</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.339205</v>
+        <v>0.34032</v>
       </c>
       <c r="C54" t="n">
-        <v>0.242533</v>
+        <v>0.247369</v>
       </c>
       <c r="D54" t="n">
-        <v>0.217579</v>
+        <v>0.216174</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.332949</v>
+        <v>0.334389</v>
       </c>
       <c r="C55" t="n">
-        <v>0.241565</v>
+        <v>0.246176</v>
       </c>
       <c r="D55" t="n">
-        <v>0.216368</v>
+        <v>0.215432</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.32661</v>
+        <v>0.328021</v>
       </c>
       <c r="C56" t="n">
-        <v>0.23996</v>
+        <v>0.245579</v>
       </c>
       <c r="D56" t="n">
-        <v>0.215581</v>
+        <v>0.21443</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.319296</v>
+        <v>0.320631</v>
       </c>
       <c r="C57" t="n">
-        <v>0.239179</v>
+        <v>0.244621</v>
       </c>
       <c r="D57" t="n">
-        <v>0.21424</v>
+        <v>0.213485</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.311682</v>
+        <v>0.313163</v>
       </c>
       <c r="C58" t="n">
-        <v>0.238278</v>
+        <v>0.24379</v>
       </c>
       <c r="D58" t="n">
-        <v>0.214011</v>
+        <v>0.212781</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.302856</v>
+        <v>0.304549</v>
       </c>
       <c r="C59" t="n">
-        <v>0.237273</v>
+        <v>0.242752</v>
       </c>
       <c r="D59" t="n">
-        <v>0.213025</v>
+        <v>0.211722</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.29555</v>
+        <v>0.295562</v>
       </c>
       <c r="C60" t="n">
-        <v>0.236781</v>
+        <v>0.242447</v>
       </c>
       <c r="D60" t="n">
-        <v>0.212638</v>
+        <v>0.211489</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.285573</v>
+        <v>0.286394</v>
       </c>
       <c r="C61" t="n">
-        <v>0.236171</v>
+        <v>0.242108</v>
       </c>
       <c r="D61" t="n">
-        <v>0.211767</v>
+        <v>0.210802</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.275091</v>
+        <v>0.276338</v>
       </c>
       <c r="C62" t="n">
-        <v>0.235093</v>
+        <v>0.239733</v>
       </c>
       <c r="D62" t="n">
-        <v>0.210827</v>
+        <v>0.209841</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263993</v>
+        <v>0.265076</v>
       </c>
       <c r="C63" t="n">
-        <v>0.234267</v>
+        <v>0.240387</v>
       </c>
       <c r="D63" t="n">
-        <v>0.210009</v>
+        <v>0.209178</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.251803</v>
+        <v>0.252605</v>
       </c>
       <c r="C64" t="n">
-        <v>0.233772</v>
+        <v>0.238781</v>
       </c>
       <c r="D64" t="n">
-        <v>0.209293</v>
+        <v>0.20862</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.238924</v>
+        <v>0.2393</v>
       </c>
       <c r="C65" t="n">
-        <v>0.233096</v>
+        <v>0.238401</v>
       </c>
       <c r="D65" t="n">
-        <v>0.209011</v>
+        <v>0.208238</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.224735</v>
+        <v>0.225062</v>
       </c>
       <c r="C66" t="n">
-        <v>0.232707</v>
+        <v>0.237167</v>
       </c>
       <c r="D66" t="n">
-        <v>0.220511</v>
+        <v>0.219549</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.347305</v>
+        <v>0.346651</v>
       </c>
       <c r="C67" t="n">
-        <v>0.245193</v>
+        <v>0.249483</v>
       </c>
       <c r="D67" t="n">
-        <v>0.219159</v>
+        <v>0.218567</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.34173</v>
+        <v>0.341795</v>
       </c>
       <c r="C68" t="n">
-        <v>0.243912</v>
+        <v>0.248288</v>
       </c>
       <c r="D68" t="n">
-        <v>0.217715</v>
+        <v>0.217194</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.335393</v>
+        <v>0.335216</v>
       </c>
       <c r="C69" t="n">
-        <v>0.242189</v>
+        <v>0.24746</v>
       </c>
       <c r="D69" t="n">
-        <v>0.216465</v>
+        <v>0.215973</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.328441</v>
+        <v>0.328797</v>
       </c>
       <c r="C70" t="n">
-        <v>0.241362</v>
+        <v>0.246396</v>
       </c>
       <c r="D70" t="n">
-        <v>0.2155</v>
+        <v>0.21501</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.321141</v>
+        <v>0.322577</v>
       </c>
       <c r="C71" t="n">
-        <v>0.239912</v>
+        <v>0.244771</v>
       </c>
       <c r="D71" t="n">
-        <v>0.214452</v>
+        <v>0.213663</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.313073</v>
+        <v>0.314389</v>
       </c>
       <c r="C72" t="n">
-        <v>0.238846</v>
+        <v>0.243688</v>
       </c>
       <c r="D72" t="n">
-        <v>0.213674</v>
+        <v>0.212963</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.304477</v>
+        <v>0.306252</v>
       </c>
       <c r="C73" t="n">
-        <v>0.237428</v>
+        <v>0.242597</v>
       </c>
       <c r="D73" t="n">
-        <v>0.212234</v>
+        <v>0.212135</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.296116</v>
+        <v>0.297727</v>
       </c>
       <c r="C74" t="n">
-        <v>0.236659</v>
+        <v>0.242013</v>
       </c>
       <c r="D74" t="n">
-        <v>0.21205</v>
+        <v>0.211244</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286229</v>
+        <v>0.288055</v>
       </c>
       <c r="C75" t="n">
-        <v>0.236073</v>
+        <v>0.241457</v>
       </c>
       <c r="D75" t="n">
-        <v>0.211056</v>
+        <v>0.210524</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.276534</v>
+        <v>0.277891</v>
       </c>
       <c r="C76" t="n">
-        <v>0.235092</v>
+        <v>0.240952</v>
       </c>
       <c r="D76" t="n">
-        <v>0.210641</v>
+        <v>0.209803</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.265565</v>
+        <v>0.267316</v>
       </c>
       <c r="C77" t="n">
-        <v>0.234574</v>
+        <v>0.239764</v>
       </c>
       <c r="D77" t="n">
-        <v>0.209796</v>
+        <v>0.209058</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.254429</v>
+        <v>0.255208</v>
       </c>
       <c r="C78" t="n">
-        <v>0.233636</v>
+        <v>0.239</v>
       </c>
       <c r="D78" t="n">
-        <v>0.209045</v>
+        <v>0.208621</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.241161</v>
+        <v>0.242185</v>
       </c>
       <c r="C79" t="n">
-        <v>0.233152</v>
+        <v>0.237799</v>
       </c>
       <c r="D79" t="n">
-        <v>0.209069</v>
+        <v>0.208128</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227477</v>
+        <v>0.228692</v>
       </c>
       <c r="C80" t="n">
-        <v>0.232477</v>
+        <v>0.237043</v>
       </c>
       <c r="D80" t="n">
-        <v>0.220734</v>
+        <v>0.219901</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.348866</v>
+        <v>0.350374</v>
       </c>
       <c r="C81" t="n">
-        <v>0.245675</v>
+        <v>0.250917</v>
       </c>
       <c r="D81" t="n">
-        <v>0.219249</v>
+        <v>0.218492</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.34318</v>
+        <v>0.345191</v>
       </c>
       <c r="C82" t="n">
-        <v>0.244115</v>
+        <v>0.249386</v>
       </c>
       <c r="D82" t="n">
-        <v>0.218118</v>
+        <v>0.217456</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.33707</v>
+        <v>0.339058</v>
       </c>
       <c r="C83" t="n">
-        <v>0.242694</v>
+        <v>0.247242</v>
       </c>
       <c r="D83" t="n">
-        <v>0.216934</v>
+        <v>0.216143</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.330332</v>
+        <v>0.331745</v>
       </c>
       <c r="C84" t="n">
-        <v>0.241614</v>
+        <v>0.246676</v>
       </c>
       <c r="D84" t="n">
-        <v>0.215857</v>
+        <v>0.215241</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.323147</v>
+        <v>0.324846</v>
       </c>
       <c r="C85" t="n">
-        <v>0.240475</v>
+        <v>0.245348</v>
       </c>
       <c r="D85" t="n">
-        <v>0.215146</v>
+        <v>0.214354</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.315543</v>
+        <v>0.316844</v>
       </c>
       <c r="C86" t="n">
-        <v>0.239451</v>
+        <v>0.244499</v>
       </c>
       <c r="D86" t="n">
-        <v>0.214149</v>
+        <v>0.21358</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.307224</v>
+        <v>0.308582</v>
       </c>
       <c r="C87" t="n">
-        <v>0.238408</v>
+        <v>0.243579</v>
       </c>
       <c r="D87" t="n">
-        <v>0.213163</v>
+        <v>0.212612</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.298464</v>
+        <v>0.300148</v>
       </c>
       <c r="C88" t="n">
-        <v>0.237289</v>
+        <v>0.242163</v>
       </c>
       <c r="D88" t="n">
-        <v>0.212155</v>
+        <v>0.21181</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.289093</v>
+        <v>0.29067</v>
       </c>
       <c r="C89" t="n">
-        <v>0.236381</v>
+        <v>0.241276</v>
       </c>
       <c r="D89" t="n">
-        <v>0.211593</v>
+        <v>0.210734</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.27954</v>
+        <v>0.280893</v>
       </c>
       <c r="C90" t="n">
-        <v>0.235546</v>
+        <v>0.240448</v>
       </c>
       <c r="D90" t="n">
-        <v>0.210905</v>
+        <v>0.21005</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.268643</v>
+        <v>0.270088</v>
       </c>
       <c r="C91" t="n">
-        <v>0.234704</v>
+        <v>0.239836</v>
       </c>
       <c r="D91" t="n">
-        <v>0.210194</v>
+        <v>0.209271</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.257066</v>
+        <v>0.258116</v>
       </c>
       <c r="C92" t="n">
-        <v>0.233919</v>
+        <v>0.238487</v>
       </c>
       <c r="D92" t="n">
-        <v>0.209417</v>
+        <v>0.208775</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.244497</v>
+        <v>0.24579</v>
       </c>
       <c r="C93" t="n">
-        <v>0.2331</v>
+        <v>0.237881</v>
       </c>
       <c r="D93" t="n">
-        <v>0.208702</v>
+        <v>0.208179</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.230692</v>
+        <v>0.231671</v>
       </c>
       <c r="C94" t="n">
-        <v>0.232469</v>
+        <v>0.237247</v>
       </c>
       <c r="D94" t="n">
-        <v>0.220728</v>
+        <v>0.220012</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.349766</v>
+        <v>0.350418</v>
       </c>
       <c r="C95" t="n">
-        <v>0.246309</v>
+        <v>0.250319</v>
       </c>
       <c r="D95" t="n">
-        <v>0.219415</v>
+        <v>0.218801</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.344133</v>
+        <v>0.345255</v>
       </c>
       <c r="C96" t="n">
-        <v>0.244916</v>
+        <v>0.249128</v>
       </c>
       <c r="D96" t="n">
-        <v>0.218053</v>
+        <v>0.217332</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.337954</v>
+        <v>0.339227</v>
       </c>
       <c r="C97" t="n">
-        <v>0.243837</v>
+        <v>0.247894</v>
       </c>
       <c r="D97" t="n">
-        <v>0.216993</v>
+        <v>0.216282</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.331492</v>
+        <v>0.332845</v>
       </c>
       <c r="C98" t="n">
-        <v>0.241699</v>
+        <v>0.246435</v>
       </c>
       <c r="D98" t="n">
-        <v>0.215672</v>
+        <v>0.215286</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.324365</v>
+        <v>0.326031</v>
       </c>
       <c r="C99" t="n">
-        <v>0.240573</v>
+        <v>0.245098</v>
       </c>
       <c r="D99" t="n">
-        <v>0.214595</v>
+        <v>0.214076</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.316836</v>
+        <v>0.318532</v>
       </c>
       <c r="C100" t="n">
-        <v>0.239271</v>
+        <v>0.24396</v>
       </c>
       <c r="D100" t="n">
-        <v>0.213458</v>
+        <v>0.21317</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.308749</v>
+        <v>0.310743</v>
       </c>
       <c r="C101" t="n">
-        <v>0.238391</v>
+        <v>0.242816</v>
       </c>
       <c r="D101" t="n">
-        <v>0.212551</v>
+        <v>0.212029</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.29999</v>
+        <v>0.302075</v>
       </c>
       <c r="C102" t="n">
-        <v>0.238068</v>
+        <v>0.242255</v>
       </c>
       <c r="D102" t="n">
-        <v>0.211753</v>
+        <v>0.21146</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.291135</v>
+        <v>0.293062</v>
       </c>
       <c r="C103" t="n">
-        <v>0.237146</v>
+        <v>0.241328</v>
       </c>
       <c r="D103" t="n">
-        <v>0.211126</v>
+        <v>0.210602</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.281278</v>
+        <v>0.282703</v>
       </c>
       <c r="C104" t="n">
-        <v>0.235796</v>
+        <v>0.240187</v>
       </c>
       <c r="D104" t="n">
-        <v>0.210358</v>
+        <v>0.209967</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.270851</v>
+        <v>0.272458</v>
       </c>
       <c r="C105" t="n">
-        <v>0.234944</v>
+        <v>0.239415</v>
       </c>
       <c r="D105" t="n">
-        <v>0.209893</v>
+        <v>0.209373</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.259207</v>
+        <v>0.260458</v>
       </c>
       <c r="C106" t="n">
-        <v>0.234637</v>
+        <v>0.238545</v>
       </c>
       <c r="D106" t="n">
-        <v>0.209352</v>
+        <v>0.208795</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247026</v>
+        <v>0.247684</v>
       </c>
       <c r="C107" t="n">
-        <v>0.233197</v>
+        <v>0.237953</v>
       </c>
       <c r="D107" t="n">
-        <v>0.209033</v>
+        <v>0.208182</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.233391</v>
+        <v>0.233901</v>
       </c>
       <c r="C108" t="n">
-        <v>0.232927</v>
+        <v>0.2366</v>
       </c>
       <c r="D108" t="n">
-        <v>0.221224</v>
+        <v>0.220494</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.219173</v>
+        <v>0.21914</v>
       </c>
       <c r="C109" t="n">
-        <v>0.231757</v>
+        <v>0.236131</v>
       </c>
       <c r="D109" t="n">
-        <v>0.219689</v>
+        <v>0.218988</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.345828</v>
+        <v>0.347228</v>
       </c>
       <c r="C110" t="n">
-        <v>0.246462</v>
+        <v>0.249254</v>
       </c>
       <c r="D110" t="n">
-        <v>0.218501</v>
+        <v>0.217872</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.339512</v>
+        <v>0.341738</v>
       </c>
       <c r="C111" t="n">
-        <v>0.245261</v>
+        <v>0.247883</v>
       </c>
       <c r="D111" t="n">
-        <v>0.217267</v>
+        <v>0.216654</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.333033</v>
+        <v>0.335413</v>
       </c>
       <c r="C112" t="n">
-        <v>0.24467</v>
+        <v>0.246493</v>
       </c>
       <c r="D112" t="n">
-        <v>0.216052</v>
+        <v>0.215419</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.325881</v>
+        <v>0.328674</v>
       </c>
       <c r="C113" t="n">
-        <v>0.243007</v>
+        <v>0.245713</v>
       </c>
       <c r="D113" t="n">
-        <v>0.214738</v>
+        <v>0.214386</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.318641</v>
+        <v>0.321223</v>
       </c>
       <c r="C114" t="n">
-        <v>0.241593</v>
+        <v>0.244429</v>
       </c>
       <c r="D114" t="n">
-        <v>0.21389</v>
+        <v>0.213466</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.31067</v>
+        <v>0.313311</v>
       </c>
       <c r="C115" t="n">
-        <v>0.240274</v>
+        <v>0.24372</v>
       </c>
       <c r="D115" t="n">
-        <v>0.212936</v>
+        <v>0.212667</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.302247</v>
+        <v>0.305059</v>
       </c>
       <c r="C116" t="n">
-        <v>0.239419</v>
+        <v>0.241942</v>
       </c>
       <c r="D116" t="n">
-        <v>0.212177</v>
+        <v>0.21173</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293196</v>
+        <v>0.295793</v>
       </c>
       <c r="C117" t="n">
-        <v>0.237919</v>
+        <v>0.241675</v>
       </c>
       <c r="D117" t="n">
-        <v>0.211216</v>
+        <v>0.211066</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.283633</v>
+        <v>0.285992</v>
       </c>
       <c r="C118" t="n">
-        <v>0.237032</v>
+        <v>0.240514</v>
       </c>
       <c r="D118" t="n">
-        <v>0.21042</v>
+        <v>0.210416</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.273381</v>
+        <v>0.275428</v>
       </c>
       <c r="C119" t="n">
-        <v>0.237176</v>
+        <v>0.239707</v>
       </c>
       <c r="D119" t="n">
-        <v>0.210049</v>
+        <v>0.209241</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.262031</v>
+        <v>0.263861</v>
       </c>
       <c r="C120" t="n">
-        <v>0.235824</v>
+        <v>0.238988</v>
       </c>
       <c r="D120" t="n">
-        <v>0.209068</v>
+        <v>0.209064</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.249917</v>
+        <v>0.25126</v>
       </c>
       <c r="C121" t="n">
-        <v>0.23426</v>
+        <v>0.237325</v>
       </c>
       <c r="D121" t="n">
-        <v>0.208873</v>
+        <v>0.208393</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.237001</v>
+        <v>0.237673</v>
       </c>
       <c r="C122" t="n">
-        <v>0.233836</v>
+        <v>0.236838</v>
       </c>
       <c r="D122" t="n">
-        <v>0.208459</v>
+        <v>0.208022</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.222829</v>
+        <v>0.223044</v>
       </c>
       <c r="C123" t="n">
-        <v>0.232896</v>
+        <v>0.236451</v>
       </c>
       <c r="D123" t="n">
-        <v>0.220066</v>
+        <v>0.219286</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.347202</v>
+        <v>0.348471</v>
       </c>
       <c r="C124" t="n">
-        <v>0.247717</v>
+        <v>0.250741</v>
       </c>
       <c r="D124" t="n">
-        <v>0.218848</v>
+        <v>0.218354</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.340876</v>
+        <v>0.342435</v>
       </c>
       <c r="C125" t="n">
-        <v>0.247993</v>
+        <v>0.24938</v>
       </c>
       <c r="D125" t="n">
-        <v>0.217433</v>
+        <v>0.216979</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.334763</v>
+        <v>0.336596</v>
       </c>
       <c r="C126" t="n">
-        <v>0.245791</v>
+        <v>0.24763</v>
       </c>
       <c r="D126" t="n">
-        <v>0.216301</v>
+        <v>0.215932</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.32753</v>
+        <v>0.330178</v>
       </c>
       <c r="C127" t="n">
-        <v>0.245927</v>
+        <v>0.246413</v>
       </c>
       <c r="D127" t="n">
-        <v>0.215266</v>
+        <v>0.214786</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.320333</v>
+        <v>0.323281</v>
       </c>
       <c r="C128" t="n">
-        <v>0.244236</v>
+        <v>0.245044</v>
       </c>
       <c r="D128" t="n">
-        <v>0.214121</v>
+        <v>0.213428</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.312548</v>
+        <v>0.314624</v>
       </c>
       <c r="C129" t="n">
-        <v>0.244132</v>
+        <v>0.244378</v>
       </c>
       <c r="D129" t="n">
-        <v>0.212804</v>
+        <v>0.212499</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.304159</v>
+        <v>0.306407</v>
       </c>
       <c r="C130" t="n">
-        <v>0.241328</v>
+        <v>0.242276</v>
       </c>
       <c r="D130" t="n">
-        <v>0.212356</v>
+        <v>0.211816</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.295685</v>
+        <v>0.297256</v>
       </c>
       <c r="C131" t="n">
-        <v>0.241498</v>
+        <v>0.243222</v>
       </c>
       <c r="D131" t="n">
-        <v>0.211214</v>
+        <v>0.211177</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.285997</v>
+        <v>0.287734</v>
       </c>
       <c r="C132" t="n">
-        <v>0.240272</v>
+        <v>0.241682</v>
       </c>
       <c r="D132" t="n">
-        <v>0.210634</v>
+        <v>0.210632</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.276021</v>
+        <v>0.278071</v>
       </c>
       <c r="C133" t="n">
-        <v>0.239578</v>
+        <v>0.240207</v>
       </c>
       <c r="D133" t="n">
-        <v>0.210302</v>
+        <v>0.210052</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.264901</v>
+        <v>0.266594</v>
       </c>
       <c r="C134" t="n">
-        <v>0.238662</v>
+        <v>0.238617</v>
       </c>
       <c r="D134" t="n">
-        <v>0.209273</v>
+        <v>0.209088</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.253385</v>
+        <v>0.254743</v>
       </c>
       <c r="C135" t="n">
-        <v>0.237698</v>
+        <v>0.237628</v>
       </c>
       <c r="D135" t="n">
-        <v>0.208877</v>
+        <v>0.208682</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.240425</v>
+        <v>0.241315</v>
       </c>
       <c r="C136" t="n">
-        <v>0.236878</v>
+        <v>0.238242</v>
       </c>
       <c r="D136" t="n">
-        <v>0.208507</v>
+        <v>0.208234</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.226163</v>
+        <v>0.226194</v>
       </c>
       <c r="C137" t="n">
-        <v>0.234992</v>
+        <v>0.238106</v>
       </c>
       <c r="D137" t="n">
-        <v>0.220577</v>
+        <v>0.220249</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.348516</v>
+        <v>0.350171</v>
       </c>
       <c r="C138" t="n">
-        <v>0.250808</v>
+        <v>0.252753</v>
       </c>
       <c r="D138" t="n">
-        <v>0.219219</v>
+        <v>0.218591</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.342648</v>
+        <v>0.344994</v>
       </c>
       <c r="C139" t="n">
-        <v>0.248761</v>
+        <v>0.252589</v>
       </c>
       <c r="D139" t="n">
-        <v>0.21792</v>
+        <v>0.217473</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.335923</v>
+        <v>0.338948</v>
       </c>
       <c r="C140" t="n">
-        <v>0.247472</v>
+        <v>0.252709</v>
       </c>
       <c r="D140" t="n">
-        <v>0.216866</v>
+        <v>0.216289</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.329669</v>
+        <v>0.331371</v>
       </c>
       <c r="C141" t="n">
-        <v>0.246683</v>
+        <v>0.248077</v>
       </c>
       <c r="D141" t="n">
-        <v>0.215582</v>
+        <v>0.215316</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.322</v>
+        <v>0.324646</v>
       </c>
       <c r="C142" t="n">
-        <v>0.249046</v>
+        <v>0.24951</v>
       </c>
       <c r="D142" t="n">
-        <v>0.21456</v>
+        <v>0.214153</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.314371</v>
+        <v>0.316685</v>
       </c>
       <c r="C143" t="n">
-        <v>0.244062</v>
+        <v>0.246551</v>
       </c>
       <c r="D143" t="n">
-        <v>0.213578</v>
+        <v>0.213529</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.300081</v>
+        <v>0.300554</v>
       </c>
       <c r="C2" t="n">
-        <v>0.223766</v>
+        <v>0.22427</v>
       </c>
       <c r="D2" t="n">
-        <v>0.195828</v>
+        <v>0.191551</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.286584</v>
+        <v>0.289243</v>
       </c>
       <c r="C3" t="n">
-        <v>0.224519</v>
+        <v>0.224072</v>
       </c>
       <c r="D3" t="n">
-        <v>0.196769</v>
+        <v>0.192012</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.277695</v>
+        <v>0.279191</v>
       </c>
       <c r="C4" t="n">
-        <v>0.22393</v>
+        <v>0.224382</v>
       </c>
       <c r="D4" t="n">
-        <v>0.196037</v>
+        <v>0.19277</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.267499</v>
+        <v>0.269754</v>
       </c>
       <c r="C5" t="n">
-        <v>0.223678</v>
+        <v>0.22447</v>
       </c>
       <c r="D5" t="n">
-        <v>0.195953</v>
+        <v>0.191632</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.257643</v>
+        <v>0.258429</v>
       </c>
       <c r="C6" t="n">
-        <v>0.22505</v>
+        <v>0.225123</v>
       </c>
       <c r="D6" t="n">
-        <v>0.197466</v>
+        <v>0.192527</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.245049</v>
+        <v>0.246413</v>
       </c>
       <c r="C7" t="n">
-        <v>0.224011</v>
+        <v>0.224894</v>
       </c>
       <c r="D7" t="n">
-        <v>0.196909</v>
+        <v>0.192962</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.234407</v>
+        <v>0.233538</v>
       </c>
       <c r="C8" t="n">
-        <v>0.226019</v>
+        <v>0.224949</v>
       </c>
       <c r="D8" t="n">
-        <v>0.198546</v>
+        <v>0.193632</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.217987</v>
+        <v>0.218522</v>
       </c>
       <c r="C9" t="n">
-        <v>0.225946</v>
+        <v>0.225535</v>
       </c>
       <c r="D9" t="n">
-        <v>0.214691</v>
+        <v>0.208437</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.342669</v>
+        <v>0.345641</v>
       </c>
       <c r="C10" t="n">
-        <v>0.248284</v>
+        <v>0.243267</v>
       </c>
       <c r="D10" t="n">
-        <v>0.213884</v>
+        <v>0.208226</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.338085</v>
+        <v>0.339581</v>
       </c>
       <c r="C11" t="n">
-        <v>0.246674</v>
+        <v>0.242144</v>
       </c>
       <c r="D11" t="n">
-        <v>0.213005</v>
+        <v>0.208268</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.33111</v>
+        <v>0.332189</v>
       </c>
       <c r="C12" t="n">
-        <v>0.253785</v>
+        <v>0.255439</v>
       </c>
       <c r="D12" t="n">
-        <v>0.212292</v>
+        <v>0.208232</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.323669</v>
+        <v>0.325618</v>
       </c>
       <c r="C13" t="n">
-        <v>0.258815</v>
+        <v>0.257579</v>
       </c>
       <c r="D13" t="n">
-        <v>0.210581</v>
+        <v>0.206463</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.315553</v>
+        <v>0.316538</v>
       </c>
       <c r="C14" t="n">
-        <v>0.241703</v>
+        <v>0.238897</v>
       </c>
       <c r="D14" t="n">
-        <v>0.208933</v>
+        <v>0.204428</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.310354</v>
+        <v>0.309417</v>
       </c>
       <c r="C15" t="n">
-        <v>0.255506</v>
+        <v>0.239098</v>
       </c>
       <c r="D15" t="n">
-        <v>0.208817</v>
+        <v>0.203764</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.301381</v>
+        <v>0.301124</v>
       </c>
       <c r="C16" t="n">
-        <v>0.238208</v>
+        <v>0.238363</v>
       </c>
       <c r="D16" t="n">
-        <v>0.208202</v>
+        <v>0.203091</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.293229</v>
+        <v>0.292366</v>
       </c>
       <c r="C17" t="n">
-        <v>0.249296</v>
+        <v>0.237609</v>
       </c>
       <c r="D17" t="n">
-        <v>0.206475</v>
+        <v>0.20193</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.283617</v>
+        <v>0.283976</v>
       </c>
       <c r="C18" t="n">
-        <v>0.236375</v>
+        <v>0.257246</v>
       </c>
       <c r="D18" t="n">
-        <v>0.206621</v>
+        <v>0.202387</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.275186</v>
+        <v>0.27362</v>
       </c>
       <c r="C19" t="n">
-        <v>0.235775</v>
+        <v>0.240717</v>
       </c>
       <c r="D19" t="n">
-        <v>0.206345</v>
+        <v>0.202163</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.263681</v>
+        <v>0.263331</v>
       </c>
       <c r="C20" t="n">
-        <v>0.234278</v>
+        <v>0.249671</v>
       </c>
       <c r="D20" t="n">
-        <v>0.205364</v>
+        <v>0.201145</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.25136</v>
+        <v>0.251379</v>
       </c>
       <c r="C21" t="n">
-        <v>0.244439</v>
+        <v>0.234887</v>
       </c>
       <c r="D21" t="n">
-        <v>0.205451</v>
+        <v>0.200881</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.238208</v>
+        <v>0.238475</v>
       </c>
       <c r="C22" t="n">
-        <v>0.233991</v>
+        <v>0.234614</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205401</v>
+        <v>0.201524</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.22464</v>
+        <v>0.224127</v>
       </c>
       <c r="C23" t="n">
-        <v>0.243969</v>
+        <v>0.248642</v>
       </c>
       <c r="D23" t="n">
-        <v>0.216998</v>
+        <v>0.212623</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.345609</v>
+        <v>0.357094</v>
       </c>
       <c r="C24" t="n">
-        <v>0.268444</v>
+        <v>0.26899</v>
       </c>
       <c r="D24" t="n">
-        <v>0.216489</v>
+        <v>0.21157</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.340726</v>
+        <v>0.340095</v>
       </c>
       <c r="C25" t="n">
-        <v>0.245822</v>
+        <v>0.246515</v>
       </c>
       <c r="D25" t="n">
-        <v>0.214986</v>
+        <v>0.210189</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.335979</v>
+        <v>0.33391</v>
       </c>
       <c r="C26" t="n">
-        <v>0.261073</v>
+        <v>0.260886</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2133</v>
+        <v>0.209061</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.327231</v>
+        <v>0.329459</v>
       </c>
       <c r="C27" t="n">
-        <v>0.243176</v>
+        <v>0.244339</v>
       </c>
       <c r="D27" t="n">
-        <v>0.212051</v>
+        <v>0.20765</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.321119</v>
+        <v>0.322288</v>
       </c>
       <c r="C28" t="n">
-        <v>0.253009</v>
+        <v>0.257953</v>
       </c>
       <c r="D28" t="n">
-        <v>0.210531</v>
+        <v>0.206589</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.315827</v>
+        <v>0.31289</v>
       </c>
       <c r="C29" t="n">
-        <v>0.257202</v>
+        <v>0.255192</v>
       </c>
       <c r="D29" t="n">
-        <v>0.209818</v>
+        <v>0.205661</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.305812</v>
+        <v>0.305143</v>
       </c>
       <c r="C30" t="n">
-        <v>0.247724</v>
+        <v>0.255131</v>
       </c>
       <c r="D30" t="n">
-        <v>0.209274</v>
+        <v>0.204221</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.298568</v>
+        <v>0.29697</v>
       </c>
       <c r="C31" t="n">
-        <v>0.248497</v>
+        <v>0.254348</v>
       </c>
       <c r="D31" t="n">
-        <v>0.208613</v>
+        <v>0.203593</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.28938</v>
+        <v>0.287577</v>
       </c>
       <c r="C32" t="n">
-        <v>0.254133</v>
+        <v>0.238786</v>
       </c>
       <c r="D32" t="n">
-        <v>0.208505</v>
+        <v>0.204422</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.280433</v>
+        <v>0.278376</v>
       </c>
       <c r="C33" t="n">
-        <v>0.236957</v>
+        <v>0.253156</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2076</v>
+        <v>0.202838</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.269507</v>
+        <v>0.268211</v>
       </c>
       <c r="C34" t="n">
-        <v>0.252781</v>
+        <v>0.253177</v>
       </c>
       <c r="D34" t="n">
-        <v>0.207905</v>
+        <v>0.203478</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.257842</v>
+        <v>0.256719</v>
       </c>
       <c r="C35" t="n">
-        <v>0.247321</v>
+        <v>0.252009</v>
       </c>
       <c r="D35" t="n">
-        <v>0.207591</v>
+        <v>0.203337</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244617</v>
+        <v>0.246453</v>
       </c>
       <c r="C36" t="n">
-        <v>0.243719</v>
+        <v>0.235304</v>
       </c>
       <c r="D36" t="n">
-        <v>0.206387</v>
+        <v>0.201769</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.230852</v>
+        <v>0.231147</v>
       </c>
       <c r="C37" t="n">
-        <v>0.255858</v>
+        <v>0.249548</v>
       </c>
       <c r="D37" t="n">
-        <v>0.218404</v>
+        <v>0.213664</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.347958</v>
+        <v>0.348093</v>
       </c>
       <c r="C38" t="n">
-        <v>0.247903</v>
+        <v>0.248056</v>
       </c>
       <c r="D38" t="n">
-        <v>0.217596</v>
+        <v>0.212005</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.342876</v>
+        <v>0.342247</v>
       </c>
       <c r="C39" t="n">
-        <v>0.245843</v>
+        <v>0.246473</v>
       </c>
       <c r="D39" t="n">
-        <v>0.216012</v>
+        <v>0.211232</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.336713</v>
+        <v>0.33642</v>
       </c>
       <c r="C40" t="n">
-        <v>0.245055</v>
+        <v>0.245181</v>
       </c>
       <c r="D40" t="n">
-        <v>0.214982</v>
+        <v>0.209827</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.330616</v>
+        <v>0.330006</v>
       </c>
       <c r="C41" t="n">
-        <v>0.243997</v>
+        <v>0.243782</v>
       </c>
       <c r="D41" t="n">
-        <v>0.213959</v>
+        <v>0.209086</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.323949</v>
+        <v>0.323722</v>
       </c>
       <c r="C42" t="n">
-        <v>0.243366</v>
+        <v>0.243146</v>
       </c>
       <c r="D42" t="n">
-        <v>0.212875</v>
+        <v>0.208845</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.317063</v>
+        <v>0.316448</v>
       </c>
       <c r="C43" t="n">
-        <v>0.24218</v>
+        <v>0.242215</v>
       </c>
       <c r="D43" t="n">
-        <v>0.211821</v>
+        <v>0.208374</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.310085</v>
+        <v>0.308895</v>
       </c>
       <c r="C44" t="n">
-        <v>0.241441</v>
+        <v>0.241316</v>
       </c>
       <c r="D44" t="n">
-        <v>0.211566</v>
+        <v>0.208292</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.301334</v>
+        <v>0.300563</v>
       </c>
       <c r="C45" t="n">
-        <v>0.240696</v>
+        <v>0.240259</v>
       </c>
       <c r="D45" t="n">
-        <v>0.210137</v>
+        <v>0.207243</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.292774</v>
+        <v>0.291189</v>
       </c>
       <c r="C46" t="n">
-        <v>0.239734</v>
+        <v>0.239759</v>
       </c>
       <c r="D46" t="n">
-        <v>0.209821</v>
+        <v>0.206005</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.282831</v>
+        <v>0.281513</v>
       </c>
       <c r="C47" t="n">
-        <v>0.238855</v>
+        <v>0.239874</v>
       </c>
       <c r="D47" t="n">
-        <v>0.209729</v>
+        <v>0.206219</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.271795</v>
+        <v>0.271499</v>
       </c>
       <c r="C48" t="n">
-        <v>0.238157</v>
+        <v>0.238596</v>
       </c>
       <c r="D48" t="n">
-        <v>0.209015</v>
+        <v>0.20602</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.260453</v>
+        <v>0.259911</v>
       </c>
       <c r="C49" t="n">
-        <v>0.237811</v>
+        <v>0.238941</v>
       </c>
       <c r="D49" t="n">
-        <v>0.208089</v>
+        <v>0.204565</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.247969</v>
+        <v>0.247792</v>
       </c>
       <c r="C50" t="n">
-        <v>0.237149</v>
+        <v>0.239519</v>
       </c>
       <c r="D50" t="n">
-        <v>0.207772</v>
+        <v>0.204325</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.234487</v>
+        <v>0.234341</v>
       </c>
       <c r="C51" t="n">
-        <v>0.236257</v>
+        <v>0.237779</v>
       </c>
       <c r="D51" t="n">
-        <v>0.220725</v>
+        <v>0.216359</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.220605</v>
+        <v>0.220478</v>
       </c>
       <c r="C52" t="n">
-        <v>0.235317</v>
+        <v>0.236252</v>
       </c>
       <c r="D52" t="n">
-        <v>0.218835</v>
+        <v>0.21445</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.345417</v>
+        <v>0.345161</v>
       </c>
       <c r="C53" t="n">
-        <v>0.248635</v>
+        <v>0.248317</v>
       </c>
       <c r="D53" t="n">
-        <v>0.217534</v>
+        <v>0.213275</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.34032</v>
+        <v>0.33972</v>
       </c>
       <c r="C54" t="n">
-        <v>0.247369</v>
+        <v>0.247523</v>
       </c>
       <c r="D54" t="n">
-        <v>0.216174</v>
+        <v>0.212365</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.334389</v>
+        <v>0.33338</v>
       </c>
       <c r="C55" t="n">
-        <v>0.246176</v>
+        <v>0.246401</v>
       </c>
       <c r="D55" t="n">
-        <v>0.215432</v>
+        <v>0.211437</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.328021</v>
+        <v>0.326608</v>
       </c>
       <c r="C56" t="n">
-        <v>0.245579</v>
+        <v>0.245564</v>
       </c>
       <c r="D56" t="n">
-        <v>0.21443</v>
+        <v>0.210104</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.320631</v>
+        <v>0.319304</v>
       </c>
       <c r="C57" t="n">
-        <v>0.244621</v>
+        <v>0.244452</v>
       </c>
       <c r="D57" t="n">
-        <v>0.213485</v>
+        <v>0.209184</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.313163</v>
+        <v>0.311594</v>
       </c>
       <c r="C58" t="n">
-        <v>0.24379</v>
+        <v>0.244123</v>
       </c>
       <c r="D58" t="n">
-        <v>0.212781</v>
+        <v>0.208734</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304549</v>
+        <v>0.303118</v>
       </c>
       <c r="C59" t="n">
-        <v>0.242752</v>
+        <v>0.242608</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211722</v>
+        <v>0.207648</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.295562</v>
+        <v>0.294123</v>
       </c>
       <c r="C60" t="n">
-        <v>0.242447</v>
+        <v>0.242034</v>
       </c>
       <c r="D60" t="n">
-        <v>0.211489</v>
+        <v>0.207676</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.286394</v>
+        <v>0.284777</v>
       </c>
       <c r="C61" t="n">
-        <v>0.242108</v>
+        <v>0.241768</v>
       </c>
       <c r="D61" t="n">
-        <v>0.210802</v>
+        <v>0.20695</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.276338</v>
+        <v>0.274546</v>
       </c>
       <c r="C62" t="n">
-        <v>0.239733</v>
+        <v>0.240525</v>
       </c>
       <c r="D62" t="n">
-        <v>0.209841</v>
+        <v>0.206069</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.265076</v>
+        <v>0.263516</v>
       </c>
       <c r="C63" t="n">
-        <v>0.240387</v>
+        <v>0.239467</v>
       </c>
       <c r="D63" t="n">
-        <v>0.209178</v>
+        <v>0.205569</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.252605</v>
+        <v>0.251543</v>
       </c>
       <c r="C64" t="n">
-        <v>0.238781</v>
+        <v>0.239078</v>
       </c>
       <c r="D64" t="n">
-        <v>0.20862</v>
+        <v>0.204878</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.2393</v>
+        <v>0.238515</v>
       </c>
       <c r="C65" t="n">
-        <v>0.238401</v>
+        <v>0.238267</v>
       </c>
       <c r="D65" t="n">
-        <v>0.208238</v>
+        <v>0.204416</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.225062</v>
+        <v>0.224679</v>
       </c>
       <c r="C66" t="n">
-        <v>0.237167</v>
+        <v>0.237187</v>
       </c>
       <c r="D66" t="n">
-        <v>0.219549</v>
+        <v>0.214944</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.346651</v>
+        <v>0.346792</v>
       </c>
       <c r="C67" t="n">
-        <v>0.249483</v>
+        <v>0.249389</v>
       </c>
       <c r="D67" t="n">
-        <v>0.218567</v>
+        <v>0.213598</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.341795</v>
+        <v>0.341538</v>
       </c>
       <c r="C68" t="n">
-        <v>0.248288</v>
+        <v>0.247926</v>
       </c>
       <c r="D68" t="n">
-        <v>0.217194</v>
+        <v>0.212411</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.335216</v>
+        <v>0.335328</v>
       </c>
       <c r="C69" t="n">
-        <v>0.24746</v>
+        <v>0.247159</v>
       </c>
       <c r="D69" t="n">
-        <v>0.215973</v>
+        <v>0.211431</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.328797</v>
+        <v>0.328624</v>
       </c>
       <c r="C70" t="n">
-        <v>0.246396</v>
+        <v>0.245905</v>
       </c>
       <c r="D70" t="n">
-        <v>0.21501</v>
+        <v>0.210454</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.322577</v>
+        <v>0.321066</v>
       </c>
       <c r="C71" t="n">
-        <v>0.244771</v>
+        <v>0.244491</v>
       </c>
       <c r="D71" t="n">
-        <v>0.213663</v>
+        <v>0.209408</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.314389</v>
+        <v>0.313227</v>
       </c>
       <c r="C72" t="n">
-        <v>0.243688</v>
+        <v>0.243508</v>
       </c>
       <c r="D72" t="n">
-        <v>0.212963</v>
+        <v>0.208541</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.306252</v>
+        <v>0.304981</v>
       </c>
       <c r="C73" t="n">
-        <v>0.242597</v>
+        <v>0.242614</v>
       </c>
       <c r="D73" t="n">
-        <v>0.212135</v>
+        <v>0.207617</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.297727</v>
+        <v>0.296251</v>
       </c>
       <c r="C74" t="n">
-        <v>0.242013</v>
+        <v>0.242199</v>
       </c>
       <c r="D74" t="n">
-        <v>0.211244</v>
+        <v>0.207117</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.288055</v>
+        <v>0.286203</v>
       </c>
       <c r="C75" t="n">
-        <v>0.241457</v>
+        <v>0.241438</v>
       </c>
       <c r="D75" t="n">
-        <v>0.210524</v>
+        <v>0.206269</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.277891</v>
+        <v>0.27662</v>
       </c>
       <c r="C76" t="n">
-        <v>0.240952</v>
+        <v>0.240273</v>
       </c>
       <c r="D76" t="n">
-        <v>0.209803</v>
+        <v>0.205859</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.267316</v>
+        <v>0.265488</v>
       </c>
       <c r="C77" t="n">
-        <v>0.239764</v>
+        <v>0.239233</v>
       </c>
       <c r="D77" t="n">
-        <v>0.209058</v>
+        <v>0.205165</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.255208</v>
+        <v>0.254847</v>
       </c>
       <c r="C78" t="n">
-        <v>0.239</v>
+        <v>0.238604</v>
       </c>
       <c r="D78" t="n">
-        <v>0.208621</v>
+        <v>0.204612</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.242185</v>
+        <v>0.24189</v>
       </c>
       <c r="C79" t="n">
-        <v>0.237799</v>
+        <v>0.237633</v>
       </c>
       <c r="D79" t="n">
-        <v>0.208128</v>
+        <v>0.204281</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.228692</v>
+        <v>0.228248</v>
       </c>
       <c r="C80" t="n">
-        <v>0.237043</v>
+        <v>0.237104</v>
       </c>
       <c r="D80" t="n">
-        <v>0.219901</v>
+        <v>0.215132</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.350374</v>
+        <v>0.349148</v>
       </c>
       <c r="C81" t="n">
-        <v>0.250917</v>
+        <v>0.250649</v>
       </c>
       <c r="D81" t="n">
-        <v>0.218492</v>
+        <v>0.213838</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.345191</v>
+        <v>0.34365</v>
       </c>
       <c r="C82" t="n">
-        <v>0.249386</v>
+        <v>0.249255</v>
       </c>
       <c r="D82" t="n">
-        <v>0.217456</v>
+        <v>0.21284</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.339058</v>
+        <v>0.337359</v>
       </c>
       <c r="C83" t="n">
-        <v>0.247242</v>
+        <v>0.247435</v>
       </c>
       <c r="D83" t="n">
-        <v>0.216143</v>
+        <v>0.211726</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.331745</v>
+        <v>0.330846</v>
       </c>
       <c r="C84" t="n">
-        <v>0.246676</v>
+        <v>0.24603</v>
       </c>
       <c r="D84" t="n">
-        <v>0.215241</v>
+        <v>0.21047</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.324846</v>
+        <v>0.323718</v>
       </c>
       <c r="C85" t="n">
-        <v>0.245348</v>
+        <v>0.244875</v>
       </c>
       <c r="D85" t="n">
-        <v>0.214354</v>
+        <v>0.209745</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.316844</v>
+        <v>0.316074</v>
       </c>
       <c r="C86" t="n">
-        <v>0.244499</v>
+        <v>0.243853</v>
       </c>
       <c r="D86" t="n">
-        <v>0.21358</v>
+        <v>0.208894</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.308582</v>
+        <v>0.307507</v>
       </c>
       <c r="C87" t="n">
-        <v>0.243579</v>
+        <v>0.243342</v>
       </c>
       <c r="D87" t="n">
-        <v>0.212612</v>
+        <v>0.208172</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300148</v>
+        <v>0.298978</v>
       </c>
       <c r="C88" t="n">
-        <v>0.242163</v>
+        <v>0.242194</v>
       </c>
       <c r="D88" t="n">
-        <v>0.21181</v>
+        <v>0.207384</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.29067</v>
+        <v>0.288969</v>
       </c>
       <c r="C89" t="n">
-        <v>0.241276</v>
+        <v>0.241286</v>
       </c>
       <c r="D89" t="n">
-        <v>0.210734</v>
+        <v>0.206495</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.280893</v>
+        <v>0.279959</v>
       </c>
       <c r="C90" t="n">
-        <v>0.240448</v>
+        <v>0.240348</v>
       </c>
       <c r="D90" t="n">
-        <v>0.21005</v>
+        <v>0.205995</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.270088</v>
+        <v>0.268838</v>
       </c>
       <c r="C91" t="n">
-        <v>0.239836</v>
+        <v>0.23958</v>
       </c>
       <c r="D91" t="n">
-        <v>0.209271</v>
+        <v>0.205397</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.258116</v>
+        <v>0.257593</v>
       </c>
       <c r="C92" t="n">
-        <v>0.238487</v>
+        <v>0.238634</v>
       </c>
       <c r="D92" t="n">
-        <v>0.208775</v>
+        <v>0.204663</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.24579</v>
+        <v>0.245143</v>
       </c>
       <c r="C93" t="n">
-        <v>0.237881</v>
+        <v>0.237732</v>
       </c>
       <c r="D93" t="n">
-        <v>0.208179</v>
+        <v>0.204262</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.231671</v>
+        <v>0.230929</v>
       </c>
       <c r="C94" t="n">
-        <v>0.237247</v>
+        <v>0.236839</v>
       </c>
       <c r="D94" t="n">
-        <v>0.220012</v>
+        <v>0.215284</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.350418</v>
+        <v>0.349834</v>
       </c>
       <c r="C95" t="n">
-        <v>0.250319</v>
+        <v>0.249982</v>
       </c>
       <c r="D95" t="n">
-        <v>0.218801</v>
+        <v>0.214032</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.345255</v>
+        <v>0.344311</v>
       </c>
       <c r="C96" t="n">
-        <v>0.249128</v>
+        <v>0.248914</v>
       </c>
       <c r="D96" t="n">
-        <v>0.217332</v>
+        <v>0.212781</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.339227</v>
+        <v>0.338447</v>
       </c>
       <c r="C97" t="n">
-        <v>0.247894</v>
+        <v>0.247693</v>
       </c>
       <c r="D97" t="n">
-        <v>0.216282</v>
+        <v>0.211651</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.332845</v>
+        <v>0.331686</v>
       </c>
       <c r="C98" t="n">
-        <v>0.246435</v>
+        <v>0.24639</v>
       </c>
       <c r="D98" t="n">
-        <v>0.215286</v>
+        <v>0.210637</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.326031</v>
+        <v>0.324521</v>
       </c>
       <c r="C99" t="n">
-        <v>0.245098</v>
+        <v>0.245688</v>
       </c>
       <c r="D99" t="n">
-        <v>0.214076</v>
+        <v>0.209688</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.318532</v>
+        <v>0.316939</v>
       </c>
       <c r="C100" t="n">
-        <v>0.24396</v>
+        <v>0.244221</v>
       </c>
       <c r="D100" t="n">
-        <v>0.21317</v>
+        <v>0.20875</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.310743</v>
+        <v>0.309222</v>
       </c>
       <c r="C101" t="n">
-        <v>0.242816</v>
+        <v>0.24314</v>
       </c>
       <c r="D101" t="n">
-        <v>0.212029</v>
+        <v>0.207829</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302075</v>
+        <v>0.300477</v>
       </c>
       <c r="C102" t="n">
-        <v>0.242255</v>
+        <v>0.241964</v>
       </c>
       <c r="D102" t="n">
-        <v>0.21146</v>
+        <v>0.207107</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.293062</v>
+        <v>0.291039</v>
       </c>
       <c r="C103" t="n">
-        <v>0.241328</v>
+        <v>0.241264</v>
       </c>
       <c r="D103" t="n">
-        <v>0.210602</v>
+        <v>0.206269</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.282703</v>
+        <v>0.28153</v>
       </c>
       <c r="C104" t="n">
-        <v>0.240187</v>
+        <v>0.240149</v>
       </c>
       <c r="D104" t="n">
-        <v>0.209967</v>
+        <v>0.205555</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.272458</v>
+        <v>0.271118</v>
       </c>
       <c r="C105" t="n">
-        <v>0.239415</v>
+        <v>0.239355</v>
       </c>
       <c r="D105" t="n">
-        <v>0.209373</v>
+        <v>0.205294</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.260458</v>
+        <v>0.259733</v>
       </c>
       <c r="C106" t="n">
-        <v>0.238545</v>
+        <v>0.238061</v>
       </c>
       <c r="D106" t="n">
-        <v>0.208795</v>
+        <v>0.204789</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247684</v>
+        <v>0.247503</v>
       </c>
       <c r="C107" t="n">
-        <v>0.237953</v>
+        <v>0.237706</v>
       </c>
       <c r="D107" t="n">
-        <v>0.208182</v>
+        <v>0.204399</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.233901</v>
+        <v>0.233858</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2366</v>
+        <v>0.236775</v>
       </c>
       <c r="D108" t="n">
-        <v>0.220494</v>
+        <v>0.215433</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.21914</v>
+        <v>0.219889</v>
       </c>
       <c r="C109" t="n">
-        <v>0.236131</v>
+        <v>0.236246</v>
       </c>
       <c r="D109" t="n">
-        <v>0.218988</v>
+        <v>0.214098</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.347228</v>
+        <v>0.345812</v>
       </c>
       <c r="C110" t="n">
-        <v>0.249254</v>
+        <v>0.249507</v>
       </c>
       <c r="D110" t="n">
-        <v>0.217872</v>
+        <v>0.213086</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.341738</v>
+        <v>0.339576</v>
       </c>
       <c r="C111" t="n">
-        <v>0.247883</v>
+        <v>0.248166</v>
       </c>
       <c r="D111" t="n">
-        <v>0.216654</v>
+        <v>0.211862</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.335413</v>
+        <v>0.332783</v>
       </c>
       <c r="C112" t="n">
-        <v>0.246493</v>
+        <v>0.2468</v>
       </c>
       <c r="D112" t="n">
-        <v>0.215419</v>
+        <v>0.210903</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.328674</v>
+        <v>0.325961</v>
       </c>
       <c r="C113" t="n">
-        <v>0.245713</v>
+        <v>0.245191</v>
       </c>
       <c r="D113" t="n">
-        <v>0.214386</v>
+        <v>0.209792</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.321223</v>
+        <v>0.318285</v>
       </c>
       <c r="C114" t="n">
-        <v>0.244429</v>
+        <v>0.244296</v>
       </c>
       <c r="D114" t="n">
-        <v>0.213466</v>
+        <v>0.208871</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313311</v>
+        <v>0.310856</v>
       </c>
       <c r="C115" t="n">
-        <v>0.24372</v>
+        <v>0.243706</v>
       </c>
       <c r="D115" t="n">
-        <v>0.212667</v>
+        <v>0.207814</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.305059</v>
+        <v>0.3022</v>
       </c>
       <c r="C116" t="n">
-        <v>0.241942</v>
+        <v>0.242402</v>
       </c>
       <c r="D116" t="n">
-        <v>0.21173</v>
+        <v>0.207137</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.295793</v>
+        <v>0.293054</v>
       </c>
       <c r="C117" t="n">
-        <v>0.241675</v>
+        <v>0.240693</v>
       </c>
       <c r="D117" t="n">
-        <v>0.211066</v>
+        <v>0.206212</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.285992</v>
+        <v>0.283857</v>
       </c>
       <c r="C118" t="n">
-        <v>0.240514</v>
+        <v>0.240545</v>
       </c>
       <c r="D118" t="n">
-        <v>0.210416</v>
+        <v>0.205804</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.275428</v>
+        <v>0.273449</v>
       </c>
       <c r="C119" t="n">
-        <v>0.239707</v>
+        <v>0.240024</v>
       </c>
       <c r="D119" t="n">
-        <v>0.209241</v>
+        <v>0.205273</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.263861</v>
+        <v>0.262136</v>
       </c>
       <c r="C120" t="n">
-        <v>0.238988</v>
+        <v>0.238067</v>
       </c>
       <c r="D120" t="n">
-        <v>0.209064</v>
+        <v>0.204509</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.25126</v>
+        <v>0.249976</v>
       </c>
       <c r="C121" t="n">
-        <v>0.237325</v>
+        <v>0.238024</v>
       </c>
       <c r="D121" t="n">
-        <v>0.208393</v>
+        <v>0.204233</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.237673</v>
+        <v>0.236745</v>
       </c>
       <c r="C122" t="n">
-        <v>0.236838</v>
+        <v>0.23719</v>
       </c>
       <c r="D122" t="n">
-        <v>0.208022</v>
+        <v>0.203738</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.223044</v>
+        <v>0.22292</v>
       </c>
       <c r="C123" t="n">
-        <v>0.236451</v>
+        <v>0.236383</v>
       </c>
       <c r="D123" t="n">
-        <v>0.219286</v>
+        <v>0.214646</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.348471</v>
+        <v>0.346844</v>
       </c>
       <c r="C124" t="n">
-        <v>0.250741</v>
+        <v>0.250137</v>
       </c>
       <c r="D124" t="n">
-        <v>0.218354</v>
+        <v>0.213336</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.342435</v>
+        <v>0.340927</v>
       </c>
       <c r="C125" t="n">
-        <v>0.24938</v>
+        <v>0.248433</v>
       </c>
       <c r="D125" t="n">
-        <v>0.216979</v>
+        <v>0.212177</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.336596</v>
+        <v>0.334276</v>
       </c>
       <c r="C126" t="n">
-        <v>0.24763</v>
+        <v>0.247823</v>
       </c>
       <c r="D126" t="n">
-        <v>0.215932</v>
+        <v>0.211014</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.330178</v>
+        <v>0.327319</v>
       </c>
       <c r="C127" t="n">
-        <v>0.246413</v>
+        <v>0.245928</v>
       </c>
       <c r="D127" t="n">
-        <v>0.214786</v>
+        <v>0.209865</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.323281</v>
+        <v>0.319632</v>
       </c>
       <c r="C128" t="n">
-        <v>0.245044</v>
+        <v>0.245268</v>
       </c>
       <c r="D128" t="n">
-        <v>0.213428</v>
+        <v>0.208734</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.314624</v>
+        <v>0.311942</v>
       </c>
       <c r="C129" t="n">
-        <v>0.244378</v>
+        <v>0.244061</v>
       </c>
       <c r="D129" t="n">
-        <v>0.212499</v>
+        <v>0.208072</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.306407</v>
+        <v>0.303587</v>
       </c>
       <c r="C130" t="n">
-        <v>0.242276</v>
+        <v>0.243757</v>
       </c>
       <c r="D130" t="n">
-        <v>0.211816</v>
+        <v>0.207335</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.297256</v>
+        <v>0.29524</v>
       </c>
       <c r="C131" t="n">
-        <v>0.243222</v>
+        <v>0.241549</v>
       </c>
       <c r="D131" t="n">
-        <v>0.211177</v>
+        <v>0.206328</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.287734</v>
+        <v>0.285607</v>
       </c>
       <c r="C132" t="n">
-        <v>0.241682</v>
+        <v>0.240557</v>
       </c>
       <c r="D132" t="n">
-        <v>0.210632</v>
+        <v>0.205604</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.278071</v>
+        <v>0.275658</v>
       </c>
       <c r="C133" t="n">
-        <v>0.240207</v>
+        <v>0.239914</v>
       </c>
       <c r="D133" t="n">
-        <v>0.210052</v>
+        <v>0.205302</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.266594</v>
+        <v>0.264986</v>
       </c>
       <c r="C134" t="n">
-        <v>0.238617</v>
+        <v>0.239234</v>
       </c>
       <c r="D134" t="n">
-        <v>0.209088</v>
+        <v>0.204629</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.254743</v>
+        <v>0.25267</v>
       </c>
       <c r="C135" t="n">
-        <v>0.237628</v>
+        <v>0.238968</v>
       </c>
       <c r="D135" t="n">
-        <v>0.208682</v>
+        <v>0.204019</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.241315</v>
+        <v>0.240008</v>
       </c>
       <c r="C136" t="n">
-        <v>0.238242</v>
+        <v>0.237574</v>
       </c>
       <c r="D136" t="n">
-        <v>0.208234</v>
+        <v>0.203851</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.226194</v>
+        <v>0.225745</v>
       </c>
       <c r="C137" t="n">
-        <v>0.238106</v>
+        <v>0.236508</v>
       </c>
       <c r="D137" t="n">
-        <v>0.220249</v>
+        <v>0.215158</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.350171</v>
+        <v>0.347798</v>
       </c>
       <c r="C138" t="n">
-        <v>0.252753</v>
+        <v>0.253928</v>
       </c>
       <c r="D138" t="n">
-        <v>0.218591</v>
+        <v>0.213768</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.344994</v>
+        <v>0.341691</v>
       </c>
       <c r="C139" t="n">
-        <v>0.252589</v>
+        <v>0.254985</v>
       </c>
       <c r="D139" t="n">
-        <v>0.217473</v>
+        <v>0.212922</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338948</v>
+        <v>0.335813</v>
       </c>
       <c r="C140" t="n">
-        <v>0.252709</v>
+        <v>0.24859</v>
       </c>
       <c r="D140" t="n">
-        <v>0.216289</v>
+        <v>0.21137</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331371</v>
+        <v>0.328817</v>
       </c>
       <c r="C141" t="n">
-        <v>0.248077</v>
+        <v>0.249672</v>
       </c>
       <c r="D141" t="n">
-        <v>0.215316</v>
+        <v>0.210365</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.324646</v>
+        <v>0.321533</v>
       </c>
       <c r="C142" t="n">
-        <v>0.24951</v>
+        <v>0.249319</v>
       </c>
       <c r="D142" t="n">
-        <v>0.214153</v>
+        <v>0.209688</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.316685</v>
+        <v>0.314196</v>
       </c>
       <c r="C143" t="n">
-        <v>0.246551</v>
+        <v>0.247357</v>
       </c>
       <c r="D143" t="n">
-        <v>0.213529</v>
+        <v>0.208463</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.300554</v>
+        <v>0.29778</v>
       </c>
       <c r="C2" t="n">
-        <v>0.22427</v>
+        <v>0.223309</v>
       </c>
       <c r="D2" t="n">
-        <v>0.191551</v>
+        <v>0.191657</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.289243</v>
+        <v>0.288326</v>
       </c>
       <c r="C3" t="n">
-        <v>0.224072</v>
+        <v>0.22427</v>
       </c>
       <c r="D3" t="n">
-        <v>0.192012</v>
+        <v>0.191558</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279191</v>
+        <v>0.278827</v>
       </c>
       <c r="C4" t="n">
-        <v>0.224382</v>
+        <v>0.223408</v>
       </c>
       <c r="D4" t="n">
-        <v>0.19277</v>
+        <v>0.192171</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.269754</v>
+        <v>0.268263</v>
       </c>
       <c r="C5" t="n">
-        <v>0.22447</v>
+        <v>0.223418</v>
       </c>
       <c r="D5" t="n">
-        <v>0.191632</v>
+        <v>0.192371</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.258429</v>
+        <v>0.25834</v>
       </c>
       <c r="C6" t="n">
-        <v>0.225123</v>
+        <v>0.22418</v>
       </c>
       <c r="D6" t="n">
-        <v>0.192527</v>
+        <v>0.192808</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.246413</v>
+        <v>0.244949</v>
       </c>
       <c r="C7" t="n">
-        <v>0.224894</v>
+        <v>0.225192</v>
       </c>
       <c r="D7" t="n">
-        <v>0.192962</v>
+        <v>0.192421</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.233538</v>
+        <v>0.232359</v>
       </c>
       <c r="C8" t="n">
-        <v>0.224949</v>
+        <v>0.225151</v>
       </c>
       <c r="D8" t="n">
-        <v>0.193632</v>
+        <v>0.193813</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.218522</v>
+        <v>0.217459</v>
       </c>
       <c r="C9" t="n">
-        <v>0.225535</v>
+        <v>0.226001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.208437</v>
+        <v>0.20848</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.345641</v>
+        <v>0.34252</v>
       </c>
       <c r="C10" t="n">
-        <v>0.243267</v>
+        <v>0.243481</v>
       </c>
       <c r="D10" t="n">
-        <v>0.208226</v>
+        <v>0.208209</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.339581</v>
+        <v>0.337173</v>
       </c>
       <c r="C11" t="n">
-        <v>0.242144</v>
+        <v>0.242246</v>
       </c>
       <c r="D11" t="n">
-        <v>0.208268</v>
+        <v>0.207151</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.332189</v>
+        <v>0.329302</v>
       </c>
       <c r="C12" t="n">
-        <v>0.255439</v>
+        <v>0.242078</v>
       </c>
       <c r="D12" t="n">
-        <v>0.208232</v>
+        <v>0.20768</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.325618</v>
+        <v>0.322772</v>
       </c>
       <c r="C13" t="n">
-        <v>0.257579</v>
+        <v>0.240523</v>
       </c>
       <c r="D13" t="n">
-        <v>0.206463</v>
+        <v>0.206171</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.316538</v>
+        <v>0.31557</v>
       </c>
       <c r="C14" t="n">
-        <v>0.238897</v>
+        <v>0.23942</v>
       </c>
       <c r="D14" t="n">
-        <v>0.204428</v>
+        <v>0.204005</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.309417</v>
+        <v>0.310246</v>
       </c>
       <c r="C15" t="n">
-        <v>0.239098</v>
+        <v>0.239261</v>
       </c>
       <c r="D15" t="n">
-        <v>0.203764</v>
+        <v>0.204405</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.301124</v>
+        <v>0.300132</v>
       </c>
       <c r="C16" t="n">
-        <v>0.238363</v>
+        <v>0.238384</v>
       </c>
       <c r="D16" t="n">
-        <v>0.203091</v>
+        <v>0.203586</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.292366</v>
+        <v>0.29158</v>
       </c>
       <c r="C17" t="n">
-        <v>0.237609</v>
+        <v>0.237344</v>
       </c>
       <c r="D17" t="n">
-        <v>0.20193</v>
+        <v>0.202738</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.283976</v>
+        <v>0.28498</v>
       </c>
       <c r="C18" t="n">
-        <v>0.257246</v>
+        <v>0.236332</v>
       </c>
       <c r="D18" t="n">
-        <v>0.202387</v>
+        <v>0.202028</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.27362</v>
+        <v>0.276111</v>
       </c>
       <c r="C19" t="n">
-        <v>0.240717</v>
+        <v>0.24891</v>
       </c>
       <c r="D19" t="n">
-        <v>0.202163</v>
+        <v>0.201606</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.263331</v>
+        <v>0.263476</v>
       </c>
       <c r="C20" t="n">
-        <v>0.249671</v>
+        <v>0.238715</v>
       </c>
       <c r="D20" t="n">
-        <v>0.201145</v>
+        <v>0.201658</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.251379</v>
+        <v>0.252152</v>
       </c>
       <c r="C21" t="n">
-        <v>0.234887</v>
+        <v>0.235177</v>
       </c>
       <c r="D21" t="n">
-        <v>0.200881</v>
+        <v>0.201068</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.238475</v>
+        <v>0.23776</v>
       </c>
       <c r="C22" t="n">
-        <v>0.234614</v>
+        <v>0.234243</v>
       </c>
       <c r="D22" t="n">
-        <v>0.201524</v>
+        <v>0.201</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.224127</v>
+        <v>0.224345</v>
       </c>
       <c r="C23" t="n">
-        <v>0.248642</v>
+        <v>0.233914</v>
       </c>
       <c r="D23" t="n">
-        <v>0.212623</v>
+        <v>0.212672</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.357094</v>
+        <v>0.345968</v>
       </c>
       <c r="C24" t="n">
-        <v>0.26899</v>
+        <v>0.251829</v>
       </c>
       <c r="D24" t="n">
-        <v>0.21157</v>
+        <v>0.211482</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.340095</v>
+        <v>0.341508</v>
       </c>
       <c r="C25" t="n">
-        <v>0.246515</v>
+        <v>0.263298</v>
       </c>
       <c r="D25" t="n">
-        <v>0.210189</v>
+        <v>0.211664</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.33391</v>
+        <v>0.336035</v>
       </c>
       <c r="C26" t="n">
-        <v>0.260886</v>
+        <v>0.260391</v>
       </c>
       <c r="D26" t="n">
-        <v>0.209061</v>
+        <v>0.209077</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.329459</v>
+        <v>0.327793</v>
       </c>
       <c r="C27" t="n">
-        <v>0.244339</v>
+        <v>0.243435</v>
       </c>
       <c r="D27" t="n">
-        <v>0.20765</v>
+        <v>0.208419</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.322288</v>
+        <v>0.320336</v>
       </c>
       <c r="C28" t="n">
-        <v>0.257953</v>
+        <v>0.242945</v>
       </c>
       <c r="D28" t="n">
-        <v>0.206589</v>
+        <v>0.206604</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.31289</v>
+        <v>0.315653</v>
       </c>
       <c r="C29" t="n">
-        <v>0.255192</v>
+        <v>0.258884</v>
       </c>
       <c r="D29" t="n">
-        <v>0.205661</v>
+        <v>0.205474</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.305143</v>
+        <v>0.307702</v>
       </c>
       <c r="C30" t="n">
-        <v>0.255131</v>
+        <v>0.23969</v>
       </c>
       <c r="D30" t="n">
-        <v>0.204221</v>
+        <v>0.204654</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.29697</v>
+        <v>0.298888</v>
       </c>
       <c r="C31" t="n">
-        <v>0.254348</v>
+        <v>0.238658</v>
       </c>
       <c r="D31" t="n">
-        <v>0.203593</v>
+        <v>0.204014</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.287577</v>
+        <v>0.290542</v>
       </c>
       <c r="C32" t="n">
-        <v>0.238786</v>
+        <v>0.255622</v>
       </c>
       <c r="D32" t="n">
-        <v>0.204422</v>
+        <v>0.204178</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.278376</v>
+        <v>0.278406</v>
       </c>
       <c r="C33" t="n">
-        <v>0.253156</v>
+        <v>0.253415</v>
       </c>
       <c r="D33" t="n">
-        <v>0.202838</v>
+        <v>0.203265</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.268211</v>
+        <v>0.268149</v>
       </c>
       <c r="C34" t="n">
-        <v>0.253177</v>
+        <v>0.236924</v>
       </c>
       <c r="D34" t="n">
-        <v>0.203478</v>
+        <v>0.203205</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.256719</v>
+        <v>0.257295</v>
       </c>
       <c r="C35" t="n">
-        <v>0.252009</v>
+        <v>0.236529</v>
       </c>
       <c r="D35" t="n">
-        <v>0.203337</v>
+        <v>0.203261</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.246453</v>
+        <v>0.243811</v>
       </c>
       <c r="C36" t="n">
-        <v>0.235304</v>
+        <v>0.254955</v>
       </c>
       <c r="D36" t="n">
-        <v>0.201769</v>
+        <v>0.202068</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.231147</v>
+        <v>0.230871</v>
       </c>
       <c r="C37" t="n">
-        <v>0.249548</v>
+        <v>0.241177</v>
       </c>
       <c r="D37" t="n">
-        <v>0.213664</v>
+        <v>0.21349</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.348093</v>
+        <v>0.348277</v>
       </c>
       <c r="C38" t="n">
-        <v>0.248056</v>
+        <v>0.248271</v>
       </c>
       <c r="D38" t="n">
-        <v>0.212005</v>
+        <v>0.212231</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.342247</v>
+        <v>0.342345</v>
       </c>
       <c r="C39" t="n">
-        <v>0.246473</v>
+        <v>0.246377</v>
       </c>
       <c r="D39" t="n">
-        <v>0.211232</v>
+        <v>0.211111</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.33642</v>
+        <v>0.336703</v>
       </c>
       <c r="C40" t="n">
-        <v>0.245181</v>
+        <v>0.245379</v>
       </c>
       <c r="D40" t="n">
-        <v>0.209827</v>
+        <v>0.209953</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.330006</v>
+        <v>0.33014</v>
       </c>
       <c r="C41" t="n">
-        <v>0.243782</v>
+        <v>0.243905</v>
       </c>
       <c r="D41" t="n">
-        <v>0.209086</v>
+        <v>0.209266</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.323722</v>
+        <v>0.323431</v>
       </c>
       <c r="C42" t="n">
-        <v>0.243146</v>
+        <v>0.243268</v>
       </c>
       <c r="D42" t="n">
-        <v>0.208845</v>
+        <v>0.208649</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.316448</v>
+        <v>0.316506</v>
       </c>
       <c r="C43" t="n">
-        <v>0.242215</v>
+        <v>0.242018</v>
       </c>
       <c r="D43" t="n">
-        <v>0.208374</v>
+        <v>0.208594</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.308895</v>
+        <v>0.309091</v>
       </c>
       <c r="C44" t="n">
-        <v>0.241316</v>
+        <v>0.241435</v>
       </c>
       <c r="D44" t="n">
-        <v>0.208292</v>
+        <v>0.208296</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300563</v>
+        <v>0.300442</v>
       </c>
       <c r="C45" t="n">
-        <v>0.240259</v>
+        <v>0.240429</v>
       </c>
       <c r="D45" t="n">
-        <v>0.207243</v>
+        <v>0.206708</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291189</v>
+        <v>0.29109</v>
       </c>
       <c r="C46" t="n">
-        <v>0.239759</v>
+        <v>0.239805</v>
       </c>
       <c r="D46" t="n">
-        <v>0.206005</v>
+        <v>0.206181</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.281513</v>
+        <v>0.281516</v>
       </c>
       <c r="C47" t="n">
-        <v>0.239874</v>
+        <v>0.239352</v>
       </c>
       <c r="D47" t="n">
-        <v>0.206219</v>
+        <v>0.205869</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.271499</v>
+        <v>0.271556</v>
       </c>
       <c r="C48" t="n">
-        <v>0.238596</v>
+        <v>0.238342</v>
       </c>
       <c r="D48" t="n">
-        <v>0.20602</v>
+        <v>0.205892</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.259911</v>
+        <v>0.260068</v>
       </c>
       <c r="C49" t="n">
-        <v>0.238941</v>
+        <v>0.238533</v>
       </c>
       <c r="D49" t="n">
-        <v>0.204565</v>
+        <v>0.20426</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.247792</v>
+        <v>0.247487</v>
       </c>
       <c r="C50" t="n">
-        <v>0.239519</v>
+        <v>0.239745</v>
       </c>
       <c r="D50" t="n">
-        <v>0.204325</v>
+        <v>0.20421</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.234341</v>
+        <v>0.234295</v>
       </c>
       <c r="C51" t="n">
-        <v>0.237779</v>
+        <v>0.237786</v>
       </c>
       <c r="D51" t="n">
-        <v>0.216359</v>
+        <v>0.21631</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.220478</v>
+        <v>0.220298</v>
       </c>
       <c r="C52" t="n">
-        <v>0.236252</v>
+        <v>0.236576</v>
       </c>
       <c r="D52" t="n">
-        <v>0.21445</v>
+        <v>0.214635</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.345161</v>
+        <v>0.345128</v>
       </c>
       <c r="C53" t="n">
-        <v>0.248317</v>
+        <v>0.248497</v>
       </c>
       <c r="D53" t="n">
-        <v>0.213275</v>
+        <v>0.213255</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.33972</v>
+        <v>0.339754</v>
       </c>
       <c r="C54" t="n">
-        <v>0.247523</v>
+        <v>0.247686</v>
       </c>
       <c r="D54" t="n">
-        <v>0.212365</v>
+        <v>0.212248</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.33338</v>
+        <v>0.333657</v>
       </c>
       <c r="C55" t="n">
-        <v>0.246401</v>
+        <v>0.246294</v>
       </c>
       <c r="D55" t="n">
-        <v>0.211437</v>
+        <v>0.211702</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.326608</v>
+        <v>0.32669</v>
       </c>
       <c r="C56" t="n">
-        <v>0.245564</v>
+        <v>0.245711</v>
       </c>
       <c r="D56" t="n">
-        <v>0.210104</v>
+        <v>0.210285</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.319304</v>
+        <v>0.319416</v>
       </c>
       <c r="C57" t="n">
-        <v>0.244452</v>
+        <v>0.244143</v>
       </c>
       <c r="D57" t="n">
-        <v>0.209184</v>
+        <v>0.209105</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.311594</v>
+        <v>0.311644</v>
       </c>
       <c r="C58" t="n">
-        <v>0.244123</v>
+        <v>0.244112</v>
       </c>
       <c r="D58" t="n">
-        <v>0.208734</v>
+        <v>0.208823</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.303118</v>
+        <v>0.303597</v>
       </c>
       <c r="C59" t="n">
-        <v>0.242608</v>
+        <v>0.242922</v>
       </c>
       <c r="D59" t="n">
-        <v>0.207648</v>
+        <v>0.207666</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294123</v>
+        <v>0.294442</v>
       </c>
       <c r="C60" t="n">
-        <v>0.242034</v>
+        <v>0.242354</v>
       </c>
       <c r="D60" t="n">
-        <v>0.207676</v>
+        <v>0.207634</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284777</v>
+        <v>0.285378</v>
       </c>
       <c r="C61" t="n">
-        <v>0.241768</v>
+        <v>0.241917</v>
       </c>
       <c r="D61" t="n">
-        <v>0.20695</v>
+        <v>0.207121</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.274546</v>
+        <v>0.274925</v>
       </c>
       <c r="C62" t="n">
-        <v>0.240525</v>
+        <v>0.240601</v>
       </c>
       <c r="D62" t="n">
-        <v>0.206069</v>
+        <v>0.206072</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263516</v>
+        <v>0.263802</v>
       </c>
       <c r="C63" t="n">
-        <v>0.239467</v>
+        <v>0.23985</v>
       </c>
       <c r="D63" t="n">
-        <v>0.205569</v>
+        <v>0.205401</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.251543</v>
+        <v>0.251719</v>
       </c>
       <c r="C64" t="n">
-        <v>0.239078</v>
+        <v>0.239402</v>
       </c>
       <c r="D64" t="n">
-        <v>0.204878</v>
+        <v>0.204953</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.238515</v>
+        <v>0.238325</v>
       </c>
       <c r="C65" t="n">
-        <v>0.238267</v>
+        <v>0.238653</v>
       </c>
       <c r="D65" t="n">
-        <v>0.204416</v>
+        <v>0.204356</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.224679</v>
+        <v>0.224776</v>
       </c>
       <c r="C66" t="n">
-        <v>0.237187</v>
+        <v>0.237374</v>
       </c>
       <c r="D66" t="n">
-        <v>0.214944</v>
+        <v>0.214876</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.346792</v>
+        <v>0.346895</v>
       </c>
       <c r="C67" t="n">
-        <v>0.249389</v>
+        <v>0.249574</v>
       </c>
       <c r="D67" t="n">
-        <v>0.213598</v>
+        <v>0.213665</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.341538</v>
+        <v>0.341618</v>
       </c>
       <c r="C68" t="n">
-        <v>0.247926</v>
+        <v>0.248155</v>
       </c>
       <c r="D68" t="n">
-        <v>0.212411</v>
+        <v>0.212555</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.335328</v>
+        <v>0.335206</v>
       </c>
       <c r="C69" t="n">
-        <v>0.247159</v>
+        <v>0.247557</v>
       </c>
       <c r="D69" t="n">
-        <v>0.211431</v>
+        <v>0.211646</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.328624</v>
+        <v>0.32839</v>
       </c>
       <c r="C70" t="n">
-        <v>0.245905</v>
+        <v>0.246108</v>
       </c>
       <c r="D70" t="n">
-        <v>0.210454</v>
+        <v>0.210547</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.321066</v>
+        <v>0.321068</v>
       </c>
       <c r="C71" t="n">
-        <v>0.244491</v>
+        <v>0.244769</v>
       </c>
       <c r="D71" t="n">
-        <v>0.209408</v>
+        <v>0.209511</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.313227</v>
+        <v>0.313364</v>
       </c>
       <c r="C72" t="n">
-        <v>0.243508</v>
+        <v>0.243721</v>
       </c>
       <c r="D72" t="n">
-        <v>0.208541</v>
+        <v>0.208786</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.304981</v>
+        <v>0.304954</v>
       </c>
       <c r="C73" t="n">
-        <v>0.242614</v>
+        <v>0.242827</v>
       </c>
       <c r="D73" t="n">
-        <v>0.207617</v>
+        <v>0.207877</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.296251</v>
+        <v>0.295824</v>
       </c>
       <c r="C74" t="n">
-        <v>0.242199</v>
+        <v>0.242113</v>
       </c>
       <c r="D74" t="n">
-        <v>0.207117</v>
+        <v>0.207192</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286203</v>
+        <v>0.286453</v>
       </c>
       <c r="C75" t="n">
-        <v>0.241438</v>
+        <v>0.2415</v>
       </c>
       <c r="D75" t="n">
-        <v>0.206269</v>
+        <v>0.206439</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.27662</v>
+        <v>0.276634</v>
       </c>
       <c r="C76" t="n">
-        <v>0.240273</v>
+        <v>0.240744</v>
       </c>
       <c r="D76" t="n">
-        <v>0.205859</v>
+        <v>0.205802</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.265488</v>
+        <v>0.265318</v>
       </c>
       <c r="C77" t="n">
-        <v>0.239233</v>
+        <v>0.239735</v>
       </c>
       <c r="D77" t="n">
-        <v>0.205165</v>
+        <v>0.205272</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.254847</v>
+        <v>0.254949</v>
       </c>
       <c r="C78" t="n">
-        <v>0.238604</v>
+        <v>0.238809</v>
       </c>
       <c r="D78" t="n">
-        <v>0.204612</v>
+        <v>0.204665</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.24189</v>
+        <v>0.241776</v>
       </c>
       <c r="C79" t="n">
-        <v>0.237633</v>
+        <v>0.237877</v>
       </c>
       <c r="D79" t="n">
-        <v>0.204281</v>
+        <v>0.204276</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.228248</v>
+        <v>0.227924</v>
       </c>
       <c r="C80" t="n">
-        <v>0.237104</v>
+        <v>0.237209</v>
       </c>
       <c r="D80" t="n">
-        <v>0.215132</v>
+        <v>0.215216</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.349148</v>
+        <v>0.348868</v>
       </c>
       <c r="C81" t="n">
-        <v>0.250649</v>
+        <v>0.2506</v>
       </c>
       <c r="D81" t="n">
-        <v>0.213838</v>
+        <v>0.213924</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.34365</v>
+        <v>0.343495</v>
       </c>
       <c r="C82" t="n">
-        <v>0.249255</v>
+        <v>0.249199</v>
       </c>
       <c r="D82" t="n">
-        <v>0.21284</v>
+        <v>0.212868</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.337359</v>
+        <v>0.33748</v>
       </c>
       <c r="C83" t="n">
-        <v>0.247435</v>
+        <v>0.247622</v>
       </c>
       <c r="D83" t="n">
-        <v>0.211726</v>
+        <v>0.21182</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.330846</v>
+        <v>0.330434</v>
       </c>
       <c r="C84" t="n">
-        <v>0.24603</v>
+        <v>0.246558</v>
       </c>
       <c r="D84" t="n">
-        <v>0.21047</v>
+        <v>0.210648</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.323718</v>
+        <v>0.323247</v>
       </c>
       <c r="C85" t="n">
-        <v>0.244875</v>
+        <v>0.245349</v>
       </c>
       <c r="D85" t="n">
-        <v>0.209745</v>
+        <v>0.209941</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.316074</v>
+        <v>0.315774</v>
       </c>
       <c r="C86" t="n">
-        <v>0.243853</v>
+        <v>0.244563</v>
       </c>
       <c r="D86" t="n">
-        <v>0.208894</v>
+        <v>0.209146</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.307507</v>
+        <v>0.30755</v>
       </c>
       <c r="C87" t="n">
-        <v>0.243342</v>
+        <v>0.243485</v>
       </c>
       <c r="D87" t="n">
-        <v>0.208172</v>
+        <v>0.208269</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.298978</v>
+        <v>0.298938</v>
       </c>
       <c r="C88" t="n">
-        <v>0.242194</v>
+        <v>0.24239</v>
       </c>
       <c r="D88" t="n">
-        <v>0.207384</v>
+        <v>0.20738</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.288969</v>
+        <v>0.28956</v>
       </c>
       <c r="C89" t="n">
-        <v>0.241286</v>
+        <v>0.241452</v>
       </c>
       <c r="D89" t="n">
-        <v>0.206495</v>
+        <v>0.206514</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.279959</v>
+        <v>0.279914</v>
       </c>
       <c r="C90" t="n">
-        <v>0.240348</v>
+        <v>0.240566</v>
       </c>
       <c r="D90" t="n">
-        <v>0.205995</v>
+        <v>0.206151</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.268838</v>
+        <v>0.269032</v>
       </c>
       <c r="C91" t="n">
-        <v>0.23958</v>
+        <v>0.239785</v>
       </c>
       <c r="D91" t="n">
-        <v>0.205397</v>
+        <v>0.205438</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.257593</v>
+        <v>0.257298</v>
       </c>
       <c r="C92" t="n">
-        <v>0.238634</v>
+        <v>0.238727</v>
       </c>
       <c r="D92" t="n">
-        <v>0.204663</v>
+        <v>0.204632</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.245143</v>
+        <v>0.245202</v>
       </c>
       <c r="C93" t="n">
-        <v>0.237732</v>
+        <v>0.237886</v>
       </c>
       <c r="D93" t="n">
-        <v>0.204262</v>
+        <v>0.204146</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.230929</v>
+        <v>0.231039</v>
       </c>
       <c r="C94" t="n">
-        <v>0.236839</v>
+        <v>0.23731</v>
       </c>
       <c r="D94" t="n">
-        <v>0.215284</v>
+        <v>0.215145</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.349834</v>
+        <v>0.349503</v>
       </c>
       <c r="C95" t="n">
-        <v>0.249982</v>
+        <v>0.250045</v>
       </c>
       <c r="D95" t="n">
-        <v>0.214032</v>
+        <v>0.213912</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.344311</v>
+        <v>0.344017</v>
       </c>
       <c r="C96" t="n">
-        <v>0.248914</v>
+        <v>0.248877</v>
       </c>
       <c r="D96" t="n">
-        <v>0.212781</v>
+        <v>0.21271</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.338447</v>
+        <v>0.337962</v>
       </c>
       <c r="C97" t="n">
-        <v>0.247693</v>
+        <v>0.247567</v>
       </c>
       <c r="D97" t="n">
-        <v>0.211651</v>
+        <v>0.211682</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.331686</v>
+        <v>0.331292</v>
       </c>
       <c r="C98" t="n">
-        <v>0.24639</v>
+        <v>0.246242</v>
       </c>
       <c r="D98" t="n">
-        <v>0.210637</v>
+        <v>0.210633</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.324521</v>
+        <v>0.324431</v>
       </c>
       <c r="C99" t="n">
-        <v>0.245688</v>
+        <v>0.245493</v>
       </c>
       <c r="D99" t="n">
-        <v>0.209688</v>
+        <v>0.209691</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.316939</v>
+        <v>0.316906</v>
       </c>
       <c r="C100" t="n">
-        <v>0.244221</v>
+        <v>0.243908</v>
       </c>
       <c r="D100" t="n">
-        <v>0.20875</v>
+        <v>0.208674</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.309222</v>
+        <v>0.308908</v>
       </c>
       <c r="C101" t="n">
-        <v>0.24314</v>
+        <v>0.242983</v>
       </c>
       <c r="D101" t="n">
-        <v>0.207829</v>
+        <v>0.207707</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.300477</v>
+        <v>0.300092</v>
       </c>
       <c r="C102" t="n">
-        <v>0.241964</v>
+        <v>0.242048</v>
       </c>
       <c r="D102" t="n">
-        <v>0.207107</v>
+        <v>0.20706</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.291039</v>
+        <v>0.290876</v>
       </c>
       <c r="C103" t="n">
-        <v>0.241264</v>
+        <v>0.241405</v>
       </c>
       <c r="D103" t="n">
-        <v>0.206269</v>
+        <v>0.206136</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.28153</v>
+        <v>0.281699</v>
       </c>
       <c r="C104" t="n">
-        <v>0.240149</v>
+        <v>0.240233</v>
       </c>
       <c r="D104" t="n">
-        <v>0.205555</v>
+        <v>0.20552</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.271118</v>
+        <v>0.270851</v>
       </c>
       <c r="C105" t="n">
-        <v>0.239355</v>
+        <v>0.239363</v>
       </c>
       <c r="D105" t="n">
-        <v>0.205294</v>
+        <v>0.205113</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.259733</v>
+        <v>0.25931</v>
       </c>
       <c r="C106" t="n">
-        <v>0.238061</v>
+        <v>0.238906</v>
       </c>
       <c r="D106" t="n">
-        <v>0.204789</v>
+        <v>0.204601</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247503</v>
+        <v>0.246953</v>
       </c>
       <c r="C107" t="n">
-        <v>0.237706</v>
+        <v>0.238013</v>
       </c>
       <c r="D107" t="n">
-        <v>0.204399</v>
+        <v>0.204207</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.233858</v>
+        <v>0.233575</v>
       </c>
       <c r="C108" t="n">
-        <v>0.236775</v>
+        <v>0.237102</v>
       </c>
       <c r="D108" t="n">
-        <v>0.215433</v>
+        <v>0.215513</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.219889</v>
+        <v>0.219166</v>
       </c>
       <c r="C109" t="n">
-        <v>0.236246</v>
+        <v>0.236295</v>
       </c>
       <c r="D109" t="n">
-        <v>0.214098</v>
+        <v>0.214101</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.345812</v>
+        <v>0.345495</v>
       </c>
       <c r="C110" t="n">
-        <v>0.249507</v>
+        <v>0.249712</v>
       </c>
       <c r="D110" t="n">
-        <v>0.213086</v>
+        <v>0.213034</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.339576</v>
+        <v>0.339434</v>
       </c>
       <c r="C111" t="n">
-        <v>0.248166</v>
+        <v>0.247625</v>
       </c>
       <c r="D111" t="n">
-        <v>0.211862</v>
+        <v>0.211763</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.332783</v>
+        <v>0.33296</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2468</v>
+        <v>0.246719</v>
       </c>
       <c r="D112" t="n">
-        <v>0.210903</v>
+        <v>0.210767</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.325961</v>
+        <v>0.32609</v>
       </c>
       <c r="C113" t="n">
-        <v>0.245191</v>
+        <v>0.24544</v>
       </c>
       <c r="D113" t="n">
-        <v>0.209792</v>
+        <v>0.209786</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.318285</v>
+        <v>0.318582</v>
       </c>
       <c r="C114" t="n">
-        <v>0.244296</v>
+        <v>0.244978</v>
       </c>
       <c r="D114" t="n">
-        <v>0.208871</v>
+        <v>0.208704</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.310856</v>
+        <v>0.310746</v>
       </c>
       <c r="C115" t="n">
-        <v>0.243706</v>
+        <v>0.243538</v>
       </c>
       <c r="D115" t="n">
-        <v>0.207814</v>
+        <v>0.207905</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.3022</v>
+        <v>0.302312</v>
       </c>
       <c r="C116" t="n">
-        <v>0.242402</v>
+        <v>0.242472</v>
       </c>
       <c r="D116" t="n">
-        <v>0.207137</v>
+        <v>0.207141</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293054</v>
+        <v>0.293277</v>
       </c>
       <c r="C117" t="n">
-        <v>0.240693</v>
+        <v>0.24147</v>
       </c>
       <c r="D117" t="n">
-        <v>0.206212</v>
+        <v>0.206434</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.283857</v>
+        <v>0.284045</v>
       </c>
       <c r="C118" t="n">
-        <v>0.240545</v>
+        <v>0.240595</v>
       </c>
       <c r="D118" t="n">
-        <v>0.205804</v>
+        <v>0.205696</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.273449</v>
+        <v>0.273525</v>
       </c>
       <c r="C119" t="n">
-        <v>0.240024</v>
+        <v>0.239841</v>
       </c>
       <c r="D119" t="n">
-        <v>0.205273</v>
+        <v>0.205262</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.262136</v>
+        <v>0.262087</v>
       </c>
       <c r="C120" t="n">
-        <v>0.238067</v>
+        <v>0.238837</v>
       </c>
       <c r="D120" t="n">
-        <v>0.204509</v>
+        <v>0.204426</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.249976</v>
+        <v>0.249638</v>
       </c>
       <c r="C121" t="n">
-        <v>0.238024</v>
+        <v>0.238002</v>
       </c>
       <c r="D121" t="n">
-        <v>0.204233</v>
+        <v>0.204263</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.236745</v>
+        <v>0.236682</v>
       </c>
       <c r="C122" t="n">
-        <v>0.23719</v>
+        <v>0.237261</v>
       </c>
       <c r="D122" t="n">
-        <v>0.203738</v>
+        <v>0.203773</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.22292</v>
+        <v>0.222527</v>
       </c>
       <c r="C123" t="n">
         <v>0.236383</v>
       </c>
       <c r="D123" t="n">
-        <v>0.214646</v>
+        <v>0.21461</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.346844</v>
+        <v>0.346711</v>
       </c>
       <c r="C124" t="n">
-        <v>0.250137</v>
+        <v>0.251259</v>
       </c>
       <c r="D124" t="n">
-        <v>0.213336</v>
+        <v>0.213436</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.340927</v>
+        <v>0.340704</v>
       </c>
       <c r="C125" t="n">
-        <v>0.248433</v>
+        <v>0.250649</v>
       </c>
       <c r="D125" t="n">
-        <v>0.212177</v>
+        <v>0.21224</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.334276</v>
+        <v>0.334496</v>
       </c>
       <c r="C126" t="n">
-        <v>0.247823</v>
+        <v>0.248075</v>
       </c>
       <c r="D126" t="n">
-        <v>0.211014</v>
+        <v>0.211048</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.327319</v>
+        <v>0.32771</v>
       </c>
       <c r="C127" t="n">
-        <v>0.245928</v>
+        <v>0.246854</v>
       </c>
       <c r="D127" t="n">
-        <v>0.209865</v>
+        <v>0.21019</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.319632</v>
+        <v>0.319932</v>
       </c>
       <c r="C128" t="n">
-        <v>0.245268</v>
+        <v>0.24554</v>
       </c>
       <c r="D128" t="n">
-        <v>0.208734</v>
+        <v>0.209011</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.311942</v>
+        <v>0.31254</v>
       </c>
       <c r="C129" t="n">
-        <v>0.244061</v>
+        <v>0.245816</v>
       </c>
       <c r="D129" t="n">
-        <v>0.208072</v>
+        <v>0.207826</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.303587</v>
+        <v>0.30434</v>
       </c>
       <c r="C130" t="n">
-        <v>0.243757</v>
+        <v>0.243685</v>
       </c>
       <c r="D130" t="n">
-        <v>0.207335</v>
+        <v>0.207045</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.29524</v>
+        <v>0.295172</v>
       </c>
       <c r="C131" t="n">
-        <v>0.241549</v>
+        <v>0.242594</v>
       </c>
       <c r="D131" t="n">
-        <v>0.206328</v>
+        <v>0.206379</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.285607</v>
+        <v>0.285606</v>
       </c>
       <c r="C132" t="n">
-        <v>0.240557</v>
+        <v>0.24049</v>
       </c>
       <c r="D132" t="n">
-        <v>0.205604</v>
+        <v>0.205627</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275658</v>
+        <v>0.275651</v>
       </c>
       <c r="C133" t="n">
-        <v>0.239914</v>
+        <v>0.239749</v>
       </c>
       <c r="D133" t="n">
-        <v>0.205302</v>
+        <v>0.205202</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.264986</v>
+        <v>0.264941</v>
       </c>
       <c r="C134" t="n">
-        <v>0.239234</v>
+        <v>0.239412</v>
       </c>
       <c r="D134" t="n">
-        <v>0.204629</v>
+        <v>0.204492</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.25267</v>
+        <v>0.253139</v>
       </c>
       <c r="C135" t="n">
-        <v>0.238968</v>
+        <v>0.238454</v>
       </c>
       <c r="D135" t="n">
-        <v>0.204019</v>
+        <v>0.204211</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.240008</v>
+        <v>0.239816</v>
       </c>
       <c r="C136" t="n">
-        <v>0.237574</v>
+        <v>0.237536</v>
       </c>
       <c r="D136" t="n">
-        <v>0.203851</v>
+        <v>0.203687</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.225745</v>
+        <v>0.225797</v>
       </c>
       <c r="C137" t="n">
-        <v>0.236508</v>
+        <v>0.237109</v>
       </c>
       <c r="D137" t="n">
-        <v>0.215158</v>
+        <v>0.215208</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.347798</v>
+        <v>0.348545</v>
       </c>
       <c r="C138" t="n">
-        <v>0.253928</v>
+        <v>0.253552</v>
       </c>
       <c r="D138" t="n">
-        <v>0.213768</v>
+        <v>0.214123</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.341691</v>
+        <v>0.342231</v>
       </c>
       <c r="C139" t="n">
-        <v>0.254985</v>
+        <v>0.251039</v>
       </c>
       <c r="D139" t="n">
-        <v>0.212922</v>
+        <v>0.212634</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.335813</v>
+        <v>0.335811</v>
       </c>
       <c r="C140" t="n">
-        <v>0.24859</v>
+        <v>0.251001</v>
       </c>
       <c r="D140" t="n">
-        <v>0.21137</v>
+        <v>0.21149</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.328817</v>
+        <v>0.329063</v>
       </c>
       <c r="C141" t="n">
-        <v>0.249672</v>
+        <v>0.248314</v>
       </c>
       <c r="D141" t="n">
-        <v>0.210365</v>
+        <v>0.210533</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.321533</v>
+        <v>0.321393</v>
       </c>
       <c r="C142" t="n">
-        <v>0.249319</v>
+        <v>0.250697</v>
       </c>
       <c r="D142" t="n">
-        <v>0.209688</v>
+        <v>0.209638</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.314196</v>
+        <v>0.314046</v>
       </c>
       <c r="C143" t="n">
-        <v>0.247357</v>
+        <v>0.247482</v>
       </c>
       <c r="D143" t="n">
-        <v>0.208463</v>
+        <v>0.208744</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.29778</v>
+        <v>0.296823</v>
       </c>
       <c r="C2" t="n">
-        <v>0.223309</v>
+        <v>0.22389</v>
       </c>
       <c r="D2" t="n">
-        <v>0.191657</v>
+        <v>0.192102</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.288326</v>
+        <v>0.288132</v>
       </c>
       <c r="C3" t="n">
-        <v>0.22427</v>
+        <v>0.225499</v>
       </c>
       <c r="D3" t="n">
-        <v>0.191558</v>
+        <v>0.192569</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.278827</v>
+        <v>0.278524</v>
       </c>
       <c r="C4" t="n">
-        <v>0.223408</v>
+        <v>0.224541</v>
       </c>
       <c r="D4" t="n">
-        <v>0.192171</v>
+        <v>0.193122</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.268263</v>
+        <v>0.269064</v>
       </c>
       <c r="C5" t="n">
-        <v>0.223418</v>
+        <v>0.2234</v>
       </c>
       <c r="D5" t="n">
-        <v>0.192371</v>
+        <v>0.192604</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.25834</v>
+        <v>0.258552</v>
       </c>
       <c r="C6" t="n">
-        <v>0.22418</v>
+        <v>0.224999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.192808</v>
+        <v>0.192811</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.244949</v>
+        <v>0.245976</v>
       </c>
       <c r="C7" t="n">
-        <v>0.225192</v>
+        <v>0.224838</v>
       </c>
       <c r="D7" t="n">
-        <v>0.192421</v>
+        <v>0.192715</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.232359</v>
+        <v>0.232756</v>
       </c>
       <c r="C8" t="n">
-        <v>0.225151</v>
+        <v>0.225569</v>
       </c>
       <c r="D8" t="n">
-        <v>0.193813</v>
+        <v>0.193588</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.217459</v>
+        <v>0.217326</v>
       </c>
       <c r="C9" t="n">
-        <v>0.226001</v>
+        <v>0.225894</v>
       </c>
       <c r="D9" t="n">
-        <v>0.20848</v>
+        <v>0.208937</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.34252</v>
+        <v>0.3428</v>
       </c>
       <c r="C10" t="n">
-        <v>0.243481</v>
+        <v>0.243322</v>
       </c>
       <c r="D10" t="n">
-        <v>0.208209</v>
+        <v>0.208799</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.337173</v>
+        <v>0.336505</v>
       </c>
       <c r="C11" t="n">
-        <v>0.242246</v>
+        <v>0.255618</v>
       </c>
       <c r="D11" t="n">
-        <v>0.207151</v>
+        <v>0.207257</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.329302</v>
+        <v>0.331719</v>
       </c>
       <c r="C12" t="n">
-        <v>0.242078</v>
+        <v>0.242236</v>
       </c>
       <c r="D12" t="n">
-        <v>0.20768</v>
+        <v>0.208219</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.322772</v>
+        <v>0.322968</v>
       </c>
       <c r="C13" t="n">
-        <v>0.240523</v>
+        <v>0.240494</v>
       </c>
       <c r="D13" t="n">
-        <v>0.206171</v>
+        <v>0.206355</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.31557</v>
+        <v>0.316471</v>
       </c>
       <c r="C14" t="n">
-        <v>0.23942</v>
+        <v>0.239293</v>
       </c>
       <c r="D14" t="n">
-        <v>0.204005</v>
+        <v>0.204011</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.310246</v>
+        <v>0.308366</v>
       </c>
       <c r="C15" t="n">
-        <v>0.239261</v>
+        <v>0.239277</v>
       </c>
       <c r="D15" t="n">
-        <v>0.204405</v>
+        <v>0.203895</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.300132</v>
+        <v>0.30018</v>
       </c>
       <c r="C16" t="n">
-        <v>0.238384</v>
+        <v>0.238246</v>
       </c>
       <c r="D16" t="n">
-        <v>0.203586</v>
+        <v>0.203408</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.29158</v>
+        <v>0.294529</v>
       </c>
       <c r="C17" t="n">
-        <v>0.237344</v>
+        <v>0.237194</v>
       </c>
       <c r="D17" t="n">
-        <v>0.202738</v>
+        <v>0.202157</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.28498</v>
+        <v>0.28403</v>
       </c>
       <c r="C18" t="n">
-        <v>0.236332</v>
+        <v>0.235812</v>
       </c>
       <c r="D18" t="n">
-        <v>0.202028</v>
+        <v>0.201592</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.276111</v>
+        <v>0.274515</v>
       </c>
       <c r="C19" t="n">
-        <v>0.24891</v>
+        <v>0.235407</v>
       </c>
       <c r="D19" t="n">
-        <v>0.201606</v>
+        <v>0.201893</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.263476</v>
+        <v>0.263853</v>
       </c>
       <c r="C20" t="n">
-        <v>0.238715</v>
+        <v>0.235168</v>
       </c>
       <c r="D20" t="n">
-        <v>0.201658</v>
+        <v>0.201272</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.252152</v>
+        <v>0.250905</v>
       </c>
       <c r="C21" t="n">
-        <v>0.235177</v>
+        <v>0.234926</v>
       </c>
       <c r="D21" t="n">
-        <v>0.201068</v>
+        <v>0.201104</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.23776</v>
+        <v>0.238187</v>
       </c>
       <c r="C22" t="n">
-        <v>0.234243</v>
+        <v>0.233621</v>
       </c>
       <c r="D22" t="n">
-        <v>0.201</v>
+        <v>0.201125</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.224345</v>
+        <v>0.224748</v>
       </c>
       <c r="C23" t="n">
-        <v>0.233914</v>
+        <v>0.233375</v>
       </c>
       <c r="D23" t="n">
-        <v>0.212672</v>
+        <v>0.213352</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.345968</v>
+        <v>0.347993</v>
       </c>
       <c r="C24" t="n">
-        <v>0.251829</v>
+        <v>0.259157</v>
       </c>
       <c r="D24" t="n">
-        <v>0.211482</v>
+        <v>0.211958</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.341508</v>
+        <v>0.340084</v>
       </c>
       <c r="C25" t="n">
-        <v>0.263298</v>
+        <v>0.256966</v>
       </c>
       <c r="D25" t="n">
-        <v>0.211664</v>
+        <v>0.210657</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.336035</v>
+        <v>0.336002</v>
       </c>
       <c r="C26" t="n">
-        <v>0.260391</v>
+        <v>0.261764</v>
       </c>
       <c r="D26" t="n">
-        <v>0.209077</v>
+        <v>0.209393</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.327793</v>
+        <v>0.327269</v>
       </c>
       <c r="C27" t="n">
-        <v>0.243435</v>
+        <v>0.260329</v>
       </c>
       <c r="D27" t="n">
-        <v>0.208419</v>
+        <v>0.208246</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.320336</v>
+        <v>0.322296</v>
       </c>
       <c r="C28" t="n">
-        <v>0.242945</v>
+        <v>0.258717</v>
       </c>
       <c r="D28" t="n">
-        <v>0.206604</v>
+        <v>0.206695</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.315653</v>
+        <v>0.313034</v>
       </c>
       <c r="C29" t="n">
-        <v>0.258884</v>
+        <v>0.247822</v>
       </c>
       <c r="D29" t="n">
-        <v>0.205474</v>
+        <v>0.205993</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.307702</v>
+        <v>0.306784</v>
       </c>
       <c r="C30" t="n">
-        <v>0.23969</v>
+        <v>0.255665</v>
       </c>
       <c r="D30" t="n">
-        <v>0.204654</v>
+        <v>0.204605</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.298888</v>
+        <v>0.297032</v>
       </c>
       <c r="C31" t="n">
-        <v>0.238658</v>
+        <v>0.248595</v>
       </c>
       <c r="D31" t="n">
-        <v>0.204014</v>
+        <v>0.203249</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.290542</v>
+        <v>0.287457</v>
       </c>
       <c r="C32" t="n">
-        <v>0.255622</v>
+        <v>0.2382</v>
       </c>
       <c r="D32" t="n">
-        <v>0.204178</v>
+        <v>0.204124</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.278406</v>
+        <v>0.278021</v>
       </c>
       <c r="C33" t="n">
-        <v>0.253415</v>
+        <v>0.237055</v>
       </c>
       <c r="D33" t="n">
-        <v>0.203265</v>
+        <v>0.203247</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.268149</v>
+        <v>0.270638</v>
       </c>
       <c r="C34" t="n">
-        <v>0.236924</v>
+        <v>0.25386</v>
       </c>
       <c r="D34" t="n">
-        <v>0.203205</v>
+        <v>0.203246</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.257295</v>
+        <v>0.256595</v>
       </c>
       <c r="C35" t="n">
-        <v>0.236529</v>
+        <v>0.23651</v>
       </c>
       <c r="D35" t="n">
-        <v>0.203261</v>
+        <v>0.203514</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.243811</v>
+        <v>0.243846</v>
       </c>
       <c r="C36" t="n">
-        <v>0.254955</v>
+        <v>0.235369</v>
       </c>
       <c r="D36" t="n">
-        <v>0.202068</v>
+        <v>0.201772</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.230871</v>
+        <v>0.230857</v>
       </c>
       <c r="C37" t="n">
-        <v>0.241177</v>
+        <v>0.240926</v>
       </c>
       <c r="D37" t="n">
-        <v>0.21349</v>
+        <v>0.21356</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.348277</v>
+        <v>0.34814</v>
       </c>
       <c r="C38" t="n">
-        <v>0.248271</v>
+        <v>0.247989</v>
       </c>
       <c r="D38" t="n">
-        <v>0.212231</v>
+        <v>0.212266</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.342345</v>
+        <v>0.342197</v>
       </c>
       <c r="C39" t="n">
-        <v>0.246377</v>
+        <v>0.246373</v>
       </c>
       <c r="D39" t="n">
-        <v>0.211111</v>
+        <v>0.211077</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.336703</v>
+        <v>0.336446</v>
       </c>
       <c r="C40" t="n">
-        <v>0.245379</v>
+        <v>0.245092</v>
       </c>
       <c r="D40" t="n">
-        <v>0.209953</v>
+        <v>0.209619</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.33014</v>
+        <v>0.330103</v>
       </c>
       <c r="C41" t="n">
-        <v>0.243905</v>
+        <v>0.243864</v>
       </c>
       <c r="D41" t="n">
-        <v>0.209266</v>
+        <v>0.209016</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.323431</v>
+        <v>0.323545</v>
       </c>
       <c r="C42" t="n">
-        <v>0.243268</v>
+        <v>0.243395</v>
       </c>
       <c r="D42" t="n">
-        <v>0.208649</v>
+        <v>0.208474</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.316506</v>
+        <v>0.316343</v>
       </c>
       <c r="C43" t="n">
-        <v>0.242018</v>
+        <v>0.241986</v>
       </c>
       <c r="D43" t="n">
-        <v>0.208594</v>
+        <v>0.208733</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.309091</v>
+        <v>0.308608</v>
       </c>
       <c r="C44" t="n">
-        <v>0.241435</v>
+        <v>0.241432</v>
       </c>
       <c r="D44" t="n">
-        <v>0.208296</v>
+        <v>0.20846</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300442</v>
+        <v>0.300507</v>
       </c>
       <c r="C45" t="n">
-        <v>0.240429</v>
+        <v>0.240663</v>
       </c>
       <c r="D45" t="n">
-        <v>0.206708</v>
+        <v>0.207363</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.29109</v>
+        <v>0.291297</v>
       </c>
       <c r="C46" t="n">
-        <v>0.239805</v>
+        <v>0.239699</v>
       </c>
       <c r="D46" t="n">
-        <v>0.206181</v>
+        <v>0.206409</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.281516</v>
+        <v>0.281834</v>
       </c>
       <c r="C47" t="n">
-        <v>0.239352</v>
+        <v>0.239243</v>
       </c>
       <c r="D47" t="n">
-        <v>0.205869</v>
+        <v>0.206147</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.271556</v>
+        <v>0.271329</v>
       </c>
       <c r="C48" t="n">
-        <v>0.238342</v>
+        <v>0.238143</v>
       </c>
       <c r="D48" t="n">
-        <v>0.205892</v>
+        <v>0.205849</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.260068</v>
+        <v>0.259543</v>
       </c>
       <c r="C49" t="n">
-        <v>0.238533</v>
+        <v>0.239166</v>
       </c>
       <c r="D49" t="n">
-        <v>0.20426</v>
+        <v>0.204627</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.247487</v>
+        <v>0.247621</v>
       </c>
       <c r="C50" t="n">
-        <v>0.239745</v>
+        <v>0.239764</v>
       </c>
       <c r="D50" t="n">
-        <v>0.20421</v>
+        <v>0.204428</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.234295</v>
+        <v>0.234072</v>
       </c>
       <c r="C51" t="n">
-        <v>0.237786</v>
+        <v>0.238213</v>
       </c>
       <c r="D51" t="n">
-        <v>0.21631</v>
+        <v>0.216445</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.220298</v>
+        <v>0.220998</v>
       </c>
       <c r="C52" t="n">
-        <v>0.236576</v>
+        <v>0.235844</v>
       </c>
       <c r="D52" t="n">
-        <v>0.214635</v>
+        <v>0.21491</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.345128</v>
+        <v>0.34515</v>
       </c>
       <c r="C53" t="n">
-        <v>0.248497</v>
+        <v>0.248622</v>
       </c>
       <c r="D53" t="n">
-        <v>0.213255</v>
+        <v>0.213518</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.339754</v>
+        <v>0.339482</v>
       </c>
       <c r="C54" t="n">
-        <v>0.247686</v>
+        <v>0.247506</v>
       </c>
       <c r="D54" t="n">
-        <v>0.212248</v>
+        <v>0.212292</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.333657</v>
+        <v>0.333535</v>
       </c>
       <c r="C55" t="n">
-        <v>0.246294</v>
+        <v>0.246529</v>
       </c>
       <c r="D55" t="n">
-        <v>0.211702</v>
+        <v>0.211371</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.32669</v>
+        <v>0.326691</v>
       </c>
       <c r="C56" t="n">
-        <v>0.245711</v>
+        <v>0.245803</v>
       </c>
       <c r="D56" t="n">
-        <v>0.210285</v>
+        <v>0.210138</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.319416</v>
+        <v>0.31939</v>
       </c>
       <c r="C57" t="n">
-        <v>0.244143</v>
+        <v>0.244401</v>
       </c>
       <c r="D57" t="n">
-        <v>0.209105</v>
+        <v>0.208999</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.311644</v>
+        <v>0.31155</v>
       </c>
       <c r="C58" t="n">
-        <v>0.244112</v>
+        <v>0.243831</v>
       </c>
       <c r="D58" t="n">
-        <v>0.208823</v>
+        <v>0.208843</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.303597</v>
+        <v>0.302914</v>
       </c>
       <c r="C59" t="n">
-        <v>0.242922</v>
+        <v>0.242189</v>
       </c>
       <c r="D59" t="n">
-        <v>0.207666</v>
+        <v>0.207713</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294442</v>
+        <v>0.293947</v>
       </c>
       <c r="C60" t="n">
-        <v>0.242354</v>
+        <v>0.242281</v>
       </c>
       <c r="D60" t="n">
-        <v>0.207634</v>
+        <v>0.207585</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.285378</v>
+        <v>0.284929</v>
       </c>
       <c r="C61" t="n">
-        <v>0.241917</v>
+        <v>0.24177</v>
       </c>
       <c r="D61" t="n">
-        <v>0.207121</v>
+        <v>0.20745</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.274925</v>
+        <v>0.274576</v>
       </c>
       <c r="C62" t="n">
-        <v>0.240601</v>
+        <v>0.240298</v>
       </c>
       <c r="D62" t="n">
-        <v>0.206072</v>
+        <v>0.206047</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263802</v>
+        <v>0.263586</v>
       </c>
       <c r="C63" t="n">
-        <v>0.23985</v>
+        <v>0.239733</v>
       </c>
       <c r="D63" t="n">
-        <v>0.205401</v>
+        <v>0.205665</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.251719</v>
+        <v>0.251771</v>
       </c>
       <c r="C64" t="n">
-        <v>0.239402</v>
+        <v>0.239265</v>
       </c>
       <c r="D64" t="n">
-        <v>0.204953</v>
+        <v>0.205132</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.238325</v>
+        <v>0.238401</v>
       </c>
       <c r="C65" t="n">
-        <v>0.238653</v>
+        <v>0.238245</v>
       </c>
       <c r="D65" t="n">
-        <v>0.204356</v>
+        <v>0.204572</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.224776</v>
+        <v>0.22459</v>
       </c>
       <c r="C66" t="n">
-        <v>0.237374</v>
+        <v>0.237358</v>
       </c>
       <c r="D66" t="n">
-        <v>0.214876</v>
+        <v>0.215176</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.346895</v>
+        <v>0.346747</v>
       </c>
       <c r="C67" t="n">
-        <v>0.249574</v>
+        <v>0.249547</v>
       </c>
       <c r="D67" t="n">
-        <v>0.213665</v>
+        <v>0.213769</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.341618</v>
+        <v>0.341759</v>
       </c>
       <c r="C68" t="n">
-        <v>0.248155</v>
+        <v>0.248146</v>
       </c>
       <c r="D68" t="n">
-        <v>0.212555</v>
+        <v>0.212564</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.335206</v>
+        <v>0.335274</v>
       </c>
       <c r="C69" t="n">
-        <v>0.247557</v>
+        <v>0.247533</v>
       </c>
       <c r="D69" t="n">
-        <v>0.211646</v>
+        <v>0.211545</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.32839</v>
+        <v>0.328642</v>
       </c>
       <c r="C70" t="n">
-        <v>0.246108</v>
+        <v>0.246252</v>
       </c>
       <c r="D70" t="n">
-        <v>0.210547</v>
+        <v>0.210557</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.321068</v>
+        <v>0.321464</v>
       </c>
       <c r="C71" t="n">
-        <v>0.244769</v>
+        <v>0.244479</v>
       </c>
       <c r="D71" t="n">
-        <v>0.209511</v>
+        <v>0.20965</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.313364</v>
+        <v>0.313461</v>
       </c>
       <c r="C72" t="n">
-        <v>0.243721</v>
+        <v>0.243593</v>
       </c>
       <c r="D72" t="n">
-        <v>0.208786</v>
+        <v>0.208838</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.304954</v>
+        <v>0.305103</v>
       </c>
       <c r="C73" t="n">
-        <v>0.242827</v>
+        <v>0.242858</v>
       </c>
       <c r="D73" t="n">
-        <v>0.207877</v>
+        <v>0.207764</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.295824</v>
+        <v>0.29622</v>
       </c>
       <c r="C74" t="n">
-        <v>0.242113</v>
+        <v>0.241862</v>
       </c>
       <c r="D74" t="n">
-        <v>0.207192</v>
+        <v>0.207304</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286453</v>
+        <v>0.286766</v>
       </c>
       <c r="C75" t="n">
-        <v>0.2415</v>
+        <v>0.241003</v>
       </c>
       <c r="D75" t="n">
-        <v>0.206439</v>
+        <v>0.206389</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.276634</v>
+        <v>0.277081</v>
       </c>
       <c r="C76" t="n">
-        <v>0.240744</v>
+        <v>0.240512</v>
       </c>
       <c r="D76" t="n">
-        <v>0.205802</v>
+        <v>0.205896</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.265318</v>
+        <v>0.26612</v>
       </c>
       <c r="C77" t="n">
-        <v>0.239735</v>
+        <v>0.239359</v>
       </c>
       <c r="D77" t="n">
-        <v>0.205272</v>
+        <v>0.205155</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.254949</v>
+        <v>0.255071</v>
       </c>
       <c r="C78" t="n">
-        <v>0.238809</v>
+        <v>0.238978</v>
       </c>
       <c r="D78" t="n">
-        <v>0.204665</v>
+        <v>0.20473</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.241776</v>
+        <v>0.241751</v>
       </c>
       <c r="C79" t="n">
-        <v>0.237877</v>
+        <v>0.237989</v>
       </c>
       <c r="D79" t="n">
-        <v>0.204276</v>
+        <v>0.204313</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227924</v>
+        <v>0.227729</v>
       </c>
       <c r="C80" t="n">
-        <v>0.237209</v>
+        <v>0.237306</v>
       </c>
       <c r="D80" t="n">
-        <v>0.215216</v>
+        <v>0.215308</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.348868</v>
+        <v>0.349265</v>
       </c>
       <c r="C81" t="n">
-        <v>0.2506</v>
+        <v>0.250646</v>
       </c>
       <c r="D81" t="n">
-        <v>0.213924</v>
+        <v>0.213935</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.343495</v>
+        <v>0.343367</v>
       </c>
       <c r="C82" t="n">
-        <v>0.249199</v>
+        <v>0.249381</v>
       </c>
       <c r="D82" t="n">
-        <v>0.212868</v>
+        <v>0.213001</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.33748</v>
+        <v>0.337491</v>
       </c>
       <c r="C83" t="n">
-        <v>0.247622</v>
+        <v>0.247663</v>
       </c>
       <c r="D83" t="n">
-        <v>0.21182</v>
+        <v>0.211837</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.330434</v>
+        <v>0.330633</v>
       </c>
       <c r="C84" t="n">
-        <v>0.246558</v>
+        <v>0.246609</v>
       </c>
       <c r="D84" t="n">
-        <v>0.210648</v>
+        <v>0.210771</v>
       </c>
     </row>
     <row r="85">
@@ -4411,10 +4411,10 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.323247</v>
+        <v>0.323233</v>
       </c>
       <c r="C85" t="n">
-        <v>0.245349</v>
+        <v>0.245639</v>
       </c>
       <c r="D85" t="n">
         <v>0.209941</v>
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.315774</v>
+        <v>0.316034</v>
       </c>
       <c r="C86" t="n">
-        <v>0.244563</v>
+        <v>0.244474</v>
       </c>
       <c r="D86" t="n">
-        <v>0.209146</v>
+        <v>0.209142</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.30755</v>
+        <v>0.307544</v>
       </c>
       <c r="C87" t="n">
-        <v>0.243485</v>
+        <v>0.243442</v>
       </c>
       <c r="D87" t="n">
-        <v>0.208269</v>
+        <v>0.208276</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.298938</v>
+        <v>0.299121</v>
       </c>
       <c r="C88" t="n">
-        <v>0.24239</v>
+        <v>0.242259</v>
       </c>
       <c r="D88" t="n">
-        <v>0.20738</v>
+        <v>0.207405</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.28956</v>
+        <v>0.289669</v>
       </c>
       <c r="C89" t="n">
-        <v>0.241452</v>
+        <v>0.241465</v>
       </c>
       <c r="D89" t="n">
-        <v>0.206514</v>
+        <v>0.206589</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.279914</v>
+        <v>0.279948</v>
       </c>
       <c r="C90" t="n">
-        <v>0.240566</v>
+        <v>0.240533</v>
       </c>
       <c r="D90" t="n">
-        <v>0.206151</v>
+        <v>0.206182</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.269032</v>
+        <v>0.268733</v>
       </c>
       <c r="C91" t="n">
-        <v>0.239785</v>
+        <v>0.239988</v>
       </c>
       <c r="D91" t="n">
-        <v>0.205438</v>
+        <v>0.20539</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.257298</v>
+        <v>0.25756</v>
       </c>
       <c r="C92" t="n">
-        <v>0.238727</v>
+        <v>0.238679</v>
       </c>
       <c r="D92" t="n">
-        <v>0.204632</v>
+        <v>0.204799</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.245202</v>
+        <v>0.244942</v>
       </c>
       <c r="C93" t="n">
-        <v>0.237886</v>
+        <v>0.238053</v>
       </c>
       <c r="D93" t="n">
-        <v>0.204146</v>
+        <v>0.204243</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.231039</v>
+        <v>0.23109</v>
       </c>
       <c r="C94" t="n">
-        <v>0.23731</v>
+        <v>0.237336</v>
       </c>
       <c r="D94" t="n">
-        <v>0.215145</v>
+        <v>0.215303</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.349503</v>
+        <v>0.34953</v>
       </c>
       <c r="C95" t="n">
-        <v>0.250045</v>
+        <v>0.250065</v>
       </c>
       <c r="D95" t="n">
-        <v>0.213912</v>
+        <v>0.214039</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.344017</v>
+        <v>0.343986</v>
       </c>
       <c r="C96" t="n">
-        <v>0.248877</v>
+        <v>0.249032</v>
       </c>
       <c r="D96" t="n">
-        <v>0.21271</v>
+        <v>0.21278</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.337962</v>
+        <v>0.338171</v>
       </c>
       <c r="C97" t="n">
-        <v>0.247567</v>
+        <v>0.247734</v>
       </c>
       <c r="D97" t="n">
-        <v>0.211682</v>
+        <v>0.211675</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.331292</v>
+        <v>0.331321</v>
       </c>
       <c r="C98" t="n">
-        <v>0.246242</v>
+        <v>0.246413</v>
       </c>
       <c r="D98" t="n">
-        <v>0.210633</v>
+        <v>0.210681</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.324431</v>
+        <v>0.32451</v>
       </c>
       <c r="C99" t="n">
-        <v>0.245493</v>
+        <v>0.245599</v>
       </c>
       <c r="D99" t="n">
-        <v>0.209691</v>
+        <v>0.209776</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.316906</v>
+        <v>0.316998</v>
       </c>
       <c r="C100" t="n">
-        <v>0.243908</v>
+        <v>0.243977</v>
       </c>
       <c r="D100" t="n">
-        <v>0.208674</v>
+        <v>0.208742</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.308908</v>
+        <v>0.308729</v>
       </c>
       <c r="C101" t="n">
-        <v>0.242983</v>
+        <v>0.243094</v>
       </c>
       <c r="D101" t="n">
-        <v>0.207707</v>
+        <v>0.20781</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.300092</v>
+        <v>0.300258</v>
       </c>
       <c r="C102" t="n">
-        <v>0.242048</v>
+        <v>0.242258</v>
       </c>
       <c r="D102" t="n">
-        <v>0.20706</v>
+        <v>0.206944</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.290876</v>
+        <v>0.291103</v>
       </c>
       <c r="C103" t="n">
-        <v>0.241405</v>
+        <v>0.241341</v>
       </c>
       <c r="D103" t="n">
-        <v>0.206136</v>
+        <v>0.206173</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.281699</v>
+        <v>0.281332</v>
       </c>
       <c r="C104" t="n">
-        <v>0.240233</v>
+        <v>0.240291</v>
       </c>
       <c r="D104" t="n">
-        <v>0.20552</v>
+        <v>0.205575</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.270851</v>
+        <v>0.270925</v>
       </c>
       <c r="C105" t="n">
-        <v>0.239363</v>
+        <v>0.239456</v>
       </c>
       <c r="D105" t="n">
-        <v>0.205113</v>
+        <v>0.205264</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.25931</v>
+        <v>0.259424</v>
       </c>
       <c r="C106" t="n">
-        <v>0.238906</v>
+        <v>0.238874</v>
       </c>
       <c r="D106" t="n">
-        <v>0.204601</v>
+        <v>0.204689</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.246953</v>
+        <v>0.246901</v>
       </c>
       <c r="C107" t="n">
-        <v>0.238013</v>
+        <v>0.238127</v>
       </c>
       <c r="D107" t="n">
-        <v>0.204207</v>
+        <v>0.204252</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.233575</v>
+        <v>0.233414</v>
       </c>
       <c r="C108" t="n">
-        <v>0.237102</v>
+        <v>0.237164</v>
       </c>
       <c r="D108" t="n">
-        <v>0.215513</v>
+        <v>0.215547</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.219166</v>
+        <v>0.21907</v>
       </c>
       <c r="C109" t="n">
-        <v>0.236295</v>
+        <v>0.236334</v>
       </c>
       <c r="D109" t="n">
-        <v>0.214101</v>
+        <v>0.214269</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.345495</v>
+        <v>0.34572</v>
       </c>
       <c r="C110" t="n">
-        <v>0.249712</v>
+        <v>0.248936</v>
       </c>
       <c r="D110" t="n">
-        <v>0.213034</v>
+        <v>0.213154</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.339434</v>
+        <v>0.339722</v>
       </c>
       <c r="C111" t="n">
-        <v>0.247625</v>
+        <v>0.248027</v>
       </c>
       <c r="D111" t="n">
-        <v>0.211763</v>
+        <v>0.211878</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.33296</v>
+        <v>0.332974</v>
       </c>
       <c r="C112" t="n">
-        <v>0.246719</v>
+        <v>0.246652</v>
       </c>
       <c r="D112" t="n">
-        <v>0.210767</v>
+        <v>0.210826</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.32609</v>
+        <v>0.326448</v>
       </c>
       <c r="C113" t="n">
-        <v>0.24544</v>
+        <v>0.245404</v>
       </c>
       <c r="D113" t="n">
-        <v>0.209786</v>
+        <v>0.209881</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.318582</v>
+        <v>0.31881</v>
       </c>
       <c r="C114" t="n">
-        <v>0.244978</v>
+        <v>0.244391</v>
       </c>
       <c r="D114" t="n">
-        <v>0.208704</v>
+        <v>0.20876</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.310746</v>
+        <v>0.311506</v>
       </c>
       <c r="C115" t="n">
-        <v>0.243538</v>
+        <v>0.243442</v>
       </c>
       <c r="D115" t="n">
-        <v>0.207905</v>
+        <v>0.207966</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.302312</v>
+        <v>0.302577</v>
       </c>
       <c r="C116" t="n">
-        <v>0.242472</v>
+        <v>0.242372</v>
       </c>
       <c r="D116" t="n">
-        <v>0.207141</v>
+        <v>0.207172</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293277</v>
+        <v>0.293084</v>
       </c>
       <c r="C117" t="n">
-        <v>0.24147</v>
+        <v>0.241581</v>
       </c>
       <c r="D117" t="n">
-        <v>0.206434</v>
+        <v>0.206365</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.284045</v>
+        <v>0.283754</v>
       </c>
       <c r="C118" t="n">
-        <v>0.240595</v>
+        <v>0.240514</v>
       </c>
       <c r="D118" t="n">
-        <v>0.205696</v>
+        <v>0.205877</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.273525</v>
+        <v>0.273574</v>
       </c>
       <c r="C119" t="n">
-        <v>0.239841</v>
+        <v>0.239555</v>
       </c>
       <c r="D119" t="n">
-        <v>0.205262</v>
+        <v>0.205277</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.262087</v>
+        <v>0.262061</v>
       </c>
       <c r="C120" t="n">
-        <v>0.238837</v>
+        <v>0.238771</v>
       </c>
       <c r="D120" t="n">
-        <v>0.204426</v>
+        <v>0.204511</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.249638</v>
+        <v>0.249705</v>
       </c>
       <c r="C121" t="n">
-        <v>0.238002</v>
+        <v>0.238289</v>
       </c>
       <c r="D121" t="n">
-        <v>0.204263</v>
+        <v>0.204199</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.236682</v>
+        <v>0.236672</v>
       </c>
       <c r="C122" t="n">
-        <v>0.237261</v>
+        <v>0.237147</v>
       </c>
       <c r="D122" t="n">
-        <v>0.203773</v>
+        <v>0.203736</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.222527</v>
+        <v>0.222619</v>
       </c>
       <c r="C123" t="n">
-        <v>0.236383</v>
+        <v>0.236389</v>
       </c>
       <c r="D123" t="n">
-        <v>0.21461</v>
+        <v>0.21481</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.346711</v>
+        <v>0.347217</v>
       </c>
       <c r="C124" t="n">
-        <v>0.251259</v>
+        <v>0.251196</v>
       </c>
       <c r="D124" t="n">
-        <v>0.213436</v>
+        <v>0.213426</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.340704</v>
+        <v>0.340932</v>
       </c>
       <c r="C125" t="n">
-        <v>0.250649</v>
+        <v>0.249055</v>
       </c>
       <c r="D125" t="n">
-        <v>0.21224</v>
+        <v>0.212283</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.334496</v>
+        <v>0.334443</v>
       </c>
       <c r="C126" t="n">
-        <v>0.248075</v>
+        <v>0.247043</v>
       </c>
       <c r="D126" t="n">
-        <v>0.211048</v>
+        <v>0.211117</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.32771</v>
+        <v>0.327561</v>
       </c>
       <c r="C127" t="n">
-        <v>0.246854</v>
+        <v>0.246703</v>
       </c>
       <c r="D127" t="n">
-        <v>0.21019</v>
+        <v>0.210017</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.319932</v>
+        <v>0.320056</v>
       </c>
       <c r="C128" t="n">
-        <v>0.24554</v>
+        <v>0.24532</v>
       </c>
       <c r="D128" t="n">
-        <v>0.209011</v>
+        <v>0.209018</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.31254</v>
+        <v>0.312544</v>
       </c>
       <c r="C129" t="n">
-        <v>0.245816</v>
+        <v>0.24365</v>
       </c>
       <c r="D129" t="n">
-        <v>0.207826</v>
+        <v>0.208168</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.30434</v>
+        <v>0.30438</v>
       </c>
       <c r="C130" t="n">
-        <v>0.243685</v>
+        <v>0.244079</v>
       </c>
       <c r="D130" t="n">
-        <v>0.207045</v>
+        <v>0.207039</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.295172</v>
+        <v>0.295162</v>
       </c>
       <c r="C131" t="n">
-        <v>0.242594</v>
+        <v>0.242296</v>
       </c>
       <c r="D131" t="n">
-        <v>0.206379</v>
+        <v>0.206777</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.285606</v>
+        <v>0.285641</v>
       </c>
       <c r="C132" t="n">
-        <v>0.24049</v>
+        <v>0.241677</v>
       </c>
       <c r="D132" t="n">
-        <v>0.205627</v>
+        <v>0.205688</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275651</v>
+        <v>0.275515</v>
       </c>
       <c r="C133" t="n">
-        <v>0.239749</v>
+        <v>0.241007</v>
       </c>
       <c r="D133" t="n">
-        <v>0.205202</v>
+        <v>0.204982</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.264941</v>
+        <v>0.264633</v>
       </c>
       <c r="C134" t="n">
-        <v>0.239412</v>
+        <v>0.239007</v>
       </c>
       <c r="D134" t="n">
-        <v>0.204492</v>
+        <v>0.204421</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.253139</v>
+        <v>0.252952</v>
       </c>
       <c r="C135" t="n">
-        <v>0.238454</v>
+        <v>0.237959</v>
       </c>
       <c r="D135" t="n">
-        <v>0.204211</v>
+        <v>0.204018</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.239816</v>
+        <v>0.239762</v>
       </c>
       <c r="C136" t="n">
-        <v>0.237536</v>
+        <v>0.238159</v>
       </c>
       <c r="D136" t="n">
-        <v>0.203687</v>
+        <v>0.203588</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.225797</v>
+        <v>0.225785</v>
       </c>
       <c r="C137" t="n">
-        <v>0.237109</v>
+        <v>0.23754</v>
       </c>
       <c r="D137" t="n">
-        <v>0.215208</v>
+        <v>0.215091</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.348545</v>
+        <v>0.347912</v>
       </c>
       <c r="C138" t="n">
-        <v>0.253552</v>
+        <v>0.253801</v>
       </c>
       <c r="D138" t="n">
-        <v>0.214123</v>
+        <v>0.213833</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.342231</v>
+        <v>0.342229</v>
       </c>
       <c r="C139" t="n">
-        <v>0.251039</v>
+        <v>0.250774</v>
       </c>
       <c r="D139" t="n">
-        <v>0.212634</v>
+        <v>0.212339</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.335811</v>
+        <v>0.336132</v>
       </c>
       <c r="C140" t="n">
-        <v>0.251001</v>
+        <v>0.252702</v>
       </c>
       <c r="D140" t="n">
-        <v>0.21149</v>
+        <v>0.211624</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.329063</v>
+        <v>0.329256</v>
       </c>
       <c r="C141" t="n">
-        <v>0.248314</v>
+        <v>0.250936</v>
       </c>
       <c r="D141" t="n">
-        <v>0.210533</v>
+        <v>0.210999</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.321393</v>
+        <v>0.321951</v>
       </c>
       <c r="C142" t="n">
-        <v>0.250697</v>
+        <v>0.248511</v>
       </c>
       <c r="D142" t="n">
-        <v>0.209638</v>
+        <v>0.20985</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.314046</v>
+        <v>0.314032</v>
       </c>
       <c r="C143" t="n">
-        <v>0.247482</v>
+        <v>0.247832</v>
       </c>
       <c r="D143" t="n">
-        <v>0.208744</v>
+        <v>0.20886</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.296823</v>
+        <v>0.298149</v>
       </c>
       <c r="C2" t="n">
-        <v>0.22389</v>
+        <v>0.224474</v>
       </c>
       <c r="D2" t="n">
-        <v>0.192102</v>
+        <v>0.191148</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.288132</v>
+        <v>0.287113</v>
       </c>
       <c r="C3" t="n">
-        <v>0.225499</v>
+        <v>0.224823</v>
       </c>
       <c r="D3" t="n">
-        <v>0.192569</v>
+        <v>0.192573</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.278524</v>
+        <v>0.277419</v>
       </c>
       <c r="C4" t="n">
-        <v>0.224541</v>
+        <v>0.224145</v>
       </c>
       <c r="D4" t="n">
-        <v>0.193122</v>
+        <v>0.192583</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.269064</v>
+        <v>0.267904</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2234</v>
+        <v>0.222698</v>
       </c>
       <c r="D5" t="n">
-        <v>0.192604</v>
+        <v>0.192394</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.258552</v>
+        <v>0.257636</v>
       </c>
       <c r="C6" t="n">
-        <v>0.224999</v>
+        <v>0.224578</v>
       </c>
       <c r="D6" t="n">
-        <v>0.192811</v>
+        <v>0.191614</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.245976</v>
+        <v>0.245117</v>
       </c>
       <c r="C7" t="n">
-        <v>0.224838</v>
+        <v>0.22504</v>
       </c>
       <c r="D7" t="n">
-        <v>0.192715</v>
+        <v>0.193428</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.232756</v>
+        <v>0.233348</v>
       </c>
       <c r="C8" t="n">
-        <v>0.225569</v>
+        <v>0.225341</v>
       </c>
       <c r="D8" t="n">
-        <v>0.193588</v>
+        <v>0.193426</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.217326</v>
+        <v>0.218491</v>
       </c>
       <c r="C9" t="n">
-        <v>0.225894</v>
+        <v>0.225711</v>
       </c>
       <c r="D9" t="n">
-        <v>0.208937</v>
+        <v>0.208193</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3428</v>
+        <v>0.342102</v>
       </c>
       <c r="C10" t="n">
-        <v>0.243322</v>
+        <v>0.24335</v>
       </c>
       <c r="D10" t="n">
-        <v>0.208799</v>
+        <v>0.208335</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.336505</v>
+        <v>0.336339</v>
       </c>
       <c r="C11" t="n">
-        <v>0.255618</v>
+        <v>0.242141</v>
       </c>
       <c r="D11" t="n">
-        <v>0.207257</v>
+        <v>0.206854</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.331719</v>
+        <v>0.329061</v>
       </c>
       <c r="C12" t="n">
-        <v>0.242236</v>
+        <v>0.241698</v>
       </c>
       <c r="D12" t="n">
-        <v>0.208219</v>
+        <v>0.207916</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.322968</v>
+        <v>0.322389</v>
       </c>
       <c r="C13" t="n">
-        <v>0.240494</v>
+        <v>0.240401</v>
       </c>
       <c r="D13" t="n">
-        <v>0.206355</v>
+        <v>0.205652</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.316471</v>
+        <v>0.31588</v>
       </c>
       <c r="C14" t="n">
-        <v>0.239293</v>
+        <v>0.239457</v>
       </c>
       <c r="D14" t="n">
-        <v>0.204011</v>
+        <v>0.204738</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.308366</v>
+        <v>0.307945</v>
       </c>
       <c r="C15" t="n">
-        <v>0.239277</v>
+        <v>0.239184</v>
       </c>
       <c r="D15" t="n">
-        <v>0.203895</v>
+        <v>0.203574</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.30018</v>
+        <v>0.300007</v>
       </c>
       <c r="C16" t="n">
-        <v>0.238246</v>
+        <v>0.238332</v>
       </c>
       <c r="D16" t="n">
-        <v>0.203408</v>
+        <v>0.203085</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.294529</v>
+        <v>0.291984</v>
       </c>
       <c r="C17" t="n">
-        <v>0.237194</v>
+        <v>0.237259</v>
       </c>
       <c r="D17" t="n">
-        <v>0.202157</v>
+        <v>0.2024</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.28403</v>
+        <v>0.283952</v>
       </c>
       <c r="C18" t="n">
-        <v>0.235812</v>
+        <v>0.235693</v>
       </c>
       <c r="D18" t="n">
-        <v>0.201592</v>
+        <v>0.202163</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.274515</v>
+        <v>0.275429</v>
       </c>
       <c r="C19" t="n">
-        <v>0.235407</v>
+        <v>0.235736</v>
       </c>
       <c r="D19" t="n">
-        <v>0.201893</v>
+        <v>0.201748</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.263853</v>
+        <v>0.263624</v>
       </c>
       <c r="C20" t="n">
-        <v>0.235168</v>
+        <v>0.234667</v>
       </c>
       <c r="D20" t="n">
-        <v>0.201272</v>
+        <v>0.201082</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.250905</v>
+        <v>0.25109</v>
       </c>
       <c r="C21" t="n">
-        <v>0.234926</v>
+        <v>0.235164</v>
       </c>
       <c r="D21" t="n">
-        <v>0.201104</v>
+        <v>0.200733</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.238187</v>
+        <v>0.237598</v>
       </c>
       <c r="C22" t="n">
-        <v>0.233621</v>
+        <v>0.234101</v>
       </c>
       <c r="D22" t="n">
-        <v>0.201125</v>
+        <v>0.201001</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.224748</v>
+        <v>0.224391</v>
       </c>
       <c r="C23" t="n">
-        <v>0.233375</v>
+        <v>0.233408</v>
       </c>
       <c r="D23" t="n">
-        <v>0.213352</v>
+        <v>0.212501</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.347993</v>
+        <v>0.346476</v>
       </c>
       <c r="C24" t="n">
-        <v>0.259157</v>
+        <v>0.264793</v>
       </c>
       <c r="D24" t="n">
-        <v>0.211958</v>
+        <v>0.211458</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.340084</v>
+        <v>0.340138</v>
       </c>
       <c r="C25" t="n">
-        <v>0.256966</v>
+        <v>0.246402</v>
       </c>
       <c r="D25" t="n">
-        <v>0.210657</v>
+        <v>0.210415</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.336002</v>
+        <v>0.334075</v>
       </c>
       <c r="C26" t="n">
-        <v>0.261764</v>
+        <v>0.244681</v>
       </c>
       <c r="D26" t="n">
-        <v>0.209393</v>
+        <v>0.208772</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.327269</v>
+        <v>0.32713</v>
       </c>
       <c r="C27" t="n">
-        <v>0.260329</v>
+        <v>0.249825</v>
       </c>
       <c r="D27" t="n">
-        <v>0.208246</v>
+        <v>0.208044</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.322296</v>
+        <v>0.323123</v>
       </c>
       <c r="C28" t="n">
-        <v>0.258717</v>
+        <v>0.259791</v>
       </c>
       <c r="D28" t="n">
-        <v>0.206695</v>
+        <v>0.206563</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.313034</v>
+        <v>0.322411</v>
       </c>
       <c r="C29" t="n">
-        <v>0.247822</v>
+        <v>0.262216</v>
       </c>
       <c r="D29" t="n">
-        <v>0.205993</v>
+        <v>0.205662</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.306784</v>
+        <v>0.307742</v>
       </c>
       <c r="C30" t="n">
-        <v>0.255665</v>
+        <v>0.254967</v>
       </c>
       <c r="D30" t="n">
-        <v>0.204605</v>
+        <v>0.205103</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.297032</v>
+        <v>0.29704</v>
       </c>
       <c r="C31" t="n">
-        <v>0.248595</v>
+        <v>0.253843</v>
       </c>
       <c r="D31" t="n">
-        <v>0.203249</v>
+        <v>0.203482</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.287457</v>
+        <v>0.289564</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2382</v>
+        <v>0.255071</v>
       </c>
       <c r="D32" t="n">
-        <v>0.204124</v>
+        <v>0.20412</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.278021</v>
+        <v>0.278646</v>
       </c>
       <c r="C33" t="n">
-        <v>0.237055</v>
+        <v>0.237368</v>
       </c>
       <c r="D33" t="n">
-        <v>0.203247</v>
+        <v>0.203297</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.270638</v>
+        <v>0.269965</v>
       </c>
       <c r="C34" t="n">
-        <v>0.25386</v>
+        <v>0.236859</v>
       </c>
       <c r="D34" t="n">
-        <v>0.203246</v>
+        <v>0.203372</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.256595</v>
+        <v>0.257574</v>
       </c>
       <c r="C35" t="n">
-        <v>0.23651</v>
+        <v>0.241454</v>
       </c>
       <c r="D35" t="n">
-        <v>0.203514</v>
+        <v>0.203179</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.243846</v>
+        <v>0.248419</v>
       </c>
       <c r="C36" t="n">
-        <v>0.235369</v>
+        <v>0.255512</v>
       </c>
       <c r="D36" t="n">
-        <v>0.201772</v>
+        <v>0.20199</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.230857</v>
+        <v>0.231655</v>
       </c>
       <c r="C37" t="n">
-        <v>0.240926</v>
+        <v>0.249795</v>
       </c>
       <c r="D37" t="n">
-        <v>0.21356</v>
+        <v>0.213529</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.34814</v>
+        <v>0.348295</v>
       </c>
       <c r="C38" t="n">
-        <v>0.247989</v>
+        <v>0.247886</v>
       </c>
       <c r="D38" t="n">
-        <v>0.212266</v>
+        <v>0.2124</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.342197</v>
+        <v>0.342371</v>
       </c>
       <c r="C39" t="n">
-        <v>0.246373</v>
+        <v>0.246158</v>
       </c>
       <c r="D39" t="n">
-        <v>0.211077</v>
+        <v>0.211173</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.336446</v>
+        <v>0.336582</v>
       </c>
       <c r="C40" t="n">
-        <v>0.245092</v>
+        <v>0.244951</v>
       </c>
       <c r="D40" t="n">
-        <v>0.209619</v>
+        <v>0.209672</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.330103</v>
+        <v>0.329828</v>
       </c>
       <c r="C41" t="n">
-        <v>0.243864</v>
+        <v>0.243672</v>
       </c>
       <c r="D41" t="n">
-        <v>0.209016</v>
+        <v>0.208925</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.323545</v>
+        <v>0.323356</v>
       </c>
       <c r="C42" t="n">
-        <v>0.243395</v>
+        <v>0.243755</v>
       </c>
       <c r="D42" t="n">
-        <v>0.208474</v>
+        <v>0.208839</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.316343</v>
+        <v>0.316451</v>
       </c>
       <c r="C43" t="n">
-        <v>0.241986</v>
+        <v>0.242554</v>
       </c>
       <c r="D43" t="n">
-        <v>0.208733</v>
+        <v>0.208544</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.308608</v>
+        <v>0.308688</v>
       </c>
       <c r="C44" t="n">
-        <v>0.241432</v>
+        <v>0.241389</v>
       </c>
       <c r="D44" t="n">
-        <v>0.20846</v>
+        <v>0.208108</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300507</v>
+        <v>0.300541</v>
       </c>
       <c r="C45" t="n">
-        <v>0.240663</v>
+        <v>0.240488</v>
       </c>
       <c r="D45" t="n">
-        <v>0.207363</v>
+        <v>0.207183</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291297</v>
+        <v>0.291341</v>
       </c>
       <c r="C46" t="n">
-        <v>0.239699</v>
+        <v>0.239902</v>
       </c>
       <c r="D46" t="n">
-        <v>0.206409</v>
+        <v>0.206273</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.281834</v>
+        <v>0.281724</v>
       </c>
       <c r="C47" t="n">
-        <v>0.239243</v>
+        <v>0.239054</v>
       </c>
       <c r="D47" t="n">
-        <v>0.206147</v>
+        <v>0.206059</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.271329</v>
+        <v>0.271153</v>
       </c>
       <c r="C48" t="n">
-        <v>0.238143</v>
+        <v>0.238625</v>
       </c>
       <c r="D48" t="n">
-        <v>0.205849</v>
+        <v>0.205801</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.259543</v>
+        <v>0.259828</v>
       </c>
       <c r="C49" t="n">
-        <v>0.239166</v>
+        <v>0.239211</v>
       </c>
       <c r="D49" t="n">
-        <v>0.204627</v>
+        <v>0.204436</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.247621</v>
+        <v>0.247679</v>
       </c>
       <c r="C50" t="n">
-        <v>0.239764</v>
+        <v>0.240215</v>
       </c>
       <c r="D50" t="n">
-        <v>0.204428</v>
+        <v>0.204369</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.234072</v>
+        <v>0.233728</v>
       </c>
       <c r="C51" t="n">
-        <v>0.238213</v>
+        <v>0.237943</v>
       </c>
       <c r="D51" t="n">
-        <v>0.216445</v>
+        <v>0.216316</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.220998</v>
+        <v>0.220182</v>
       </c>
       <c r="C52" t="n">
-        <v>0.235844</v>
+        <v>0.236214</v>
       </c>
       <c r="D52" t="n">
-        <v>0.21491</v>
+        <v>0.214606</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.34515</v>
+        <v>0.34486</v>
       </c>
       <c r="C53" t="n">
-        <v>0.248622</v>
+        <v>0.248457</v>
       </c>
       <c r="D53" t="n">
-        <v>0.213518</v>
+        <v>0.213149</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.339482</v>
+        <v>0.339652</v>
       </c>
       <c r="C54" t="n">
-        <v>0.247506</v>
+        <v>0.247388</v>
       </c>
       <c r="D54" t="n">
-        <v>0.212292</v>
+        <v>0.212291</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.333535</v>
+        <v>0.332996</v>
       </c>
       <c r="C55" t="n">
-        <v>0.246529</v>
+        <v>0.246232</v>
       </c>
       <c r="D55" t="n">
-        <v>0.211371</v>
+        <v>0.211219</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.326691</v>
+        <v>0.326614</v>
       </c>
       <c r="C56" t="n">
-        <v>0.245803</v>
+        <v>0.245754</v>
       </c>
       <c r="D56" t="n">
-        <v>0.210138</v>
+        <v>0.210008</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.31939</v>
+        <v>0.319318</v>
       </c>
       <c r="C57" t="n">
-        <v>0.244401</v>
+        <v>0.24451</v>
       </c>
       <c r="D57" t="n">
-        <v>0.208999</v>
+        <v>0.209145</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.31155</v>
+        <v>0.311565</v>
       </c>
       <c r="C58" t="n">
-        <v>0.243831</v>
+        <v>0.244166</v>
       </c>
       <c r="D58" t="n">
-        <v>0.208843</v>
+        <v>0.208757</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.302914</v>
+        <v>0.303208</v>
       </c>
       <c r="C59" t="n">
-        <v>0.242189</v>
+        <v>0.242893</v>
       </c>
       <c r="D59" t="n">
-        <v>0.207713</v>
+        <v>0.207642</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.293947</v>
+        <v>0.294093</v>
       </c>
       <c r="C60" t="n">
-        <v>0.242281</v>
+        <v>0.242168</v>
       </c>
       <c r="D60" t="n">
-        <v>0.207585</v>
+        <v>0.207553</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284929</v>
+        <v>0.284828</v>
       </c>
       <c r="C61" t="n">
-        <v>0.24177</v>
+        <v>0.241825</v>
       </c>
       <c r="D61" t="n">
-        <v>0.20745</v>
+        <v>0.20713</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.274576</v>
+        <v>0.274764</v>
       </c>
       <c r="C62" t="n">
-        <v>0.240298</v>
+        <v>0.240707</v>
       </c>
       <c r="D62" t="n">
-        <v>0.206047</v>
+        <v>0.206077</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263586</v>
+        <v>0.263515</v>
       </c>
       <c r="C63" t="n">
-        <v>0.239733</v>
+        <v>0.240248</v>
       </c>
       <c r="D63" t="n">
-        <v>0.205665</v>
+        <v>0.205431</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.251771</v>
+        <v>0.251641</v>
       </c>
       <c r="C64" t="n">
-        <v>0.239265</v>
+        <v>0.23936</v>
       </c>
       <c r="D64" t="n">
-        <v>0.205132</v>
+        <v>0.204887</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.238401</v>
+        <v>0.238058</v>
       </c>
       <c r="C65" t="n">
-        <v>0.238245</v>
+        <v>0.238351</v>
       </c>
       <c r="D65" t="n">
-        <v>0.204572</v>
+        <v>0.204405</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.22459</v>
+        <v>0.224617</v>
       </c>
       <c r="C66" t="n">
-        <v>0.237358</v>
+        <v>0.237088</v>
       </c>
       <c r="D66" t="n">
-        <v>0.215176</v>
+        <v>0.214787</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.346747</v>
+        <v>0.346702</v>
       </c>
       <c r="C67" t="n">
-        <v>0.249547</v>
+        <v>0.249524</v>
       </c>
       <c r="D67" t="n">
-        <v>0.213769</v>
+        <v>0.213574</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.341759</v>
+        <v>0.341445</v>
       </c>
       <c r="C68" t="n">
-        <v>0.248146</v>
+        <v>0.248009</v>
       </c>
       <c r="D68" t="n">
-        <v>0.212564</v>
+        <v>0.212422</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.335274</v>
+        <v>0.334977</v>
       </c>
       <c r="C69" t="n">
-        <v>0.247533</v>
+        <v>0.247192</v>
       </c>
       <c r="D69" t="n">
-        <v>0.211545</v>
+        <v>0.211488</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.328642</v>
+        <v>0.328553</v>
       </c>
       <c r="C70" t="n">
-        <v>0.246252</v>
+        <v>0.246184</v>
       </c>
       <c r="D70" t="n">
-        <v>0.210557</v>
+        <v>0.210361</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.321464</v>
+        <v>0.321144</v>
       </c>
       <c r="C71" t="n">
-        <v>0.244479</v>
+        <v>0.244482</v>
       </c>
       <c r="D71" t="n">
-        <v>0.20965</v>
+        <v>0.20944</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.313461</v>
+        <v>0.313423</v>
       </c>
       <c r="C72" t="n">
-        <v>0.243593</v>
+        <v>0.243911</v>
       </c>
       <c r="D72" t="n">
-        <v>0.208838</v>
+        <v>0.208459</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.305103</v>
+        <v>0.304604</v>
       </c>
       <c r="C73" t="n">
-        <v>0.242858</v>
+        <v>0.243136</v>
       </c>
       <c r="D73" t="n">
-        <v>0.207764</v>
+        <v>0.207554</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.29622</v>
+        <v>0.295822</v>
       </c>
       <c r="C74" t="n">
-        <v>0.241862</v>
+        <v>0.242476</v>
       </c>
       <c r="D74" t="n">
-        <v>0.207304</v>
+        <v>0.207118</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286766</v>
+        <v>0.28603</v>
       </c>
       <c r="C75" t="n">
-        <v>0.241003</v>
+        <v>0.241168</v>
       </c>
       <c r="D75" t="n">
-        <v>0.206389</v>
+        <v>0.206163</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.277081</v>
+        <v>0.276278</v>
       </c>
       <c r="C76" t="n">
-        <v>0.240512</v>
+        <v>0.240773</v>
       </c>
       <c r="D76" t="n">
-        <v>0.205896</v>
+        <v>0.205719</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.26612</v>
+        <v>0.266429</v>
       </c>
       <c r="C77" t="n">
-        <v>0.239359</v>
+        <v>0.239841</v>
       </c>
       <c r="D77" t="n">
-        <v>0.205155</v>
+        <v>0.20501</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.255071</v>
+        <v>0.254884</v>
       </c>
       <c r="C78" t="n">
-        <v>0.238978</v>
+        <v>0.239125</v>
       </c>
       <c r="D78" t="n">
-        <v>0.20473</v>
+        <v>0.204542</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.241751</v>
+        <v>0.241208</v>
       </c>
       <c r="C79" t="n">
-        <v>0.237989</v>
+        <v>0.237861</v>
       </c>
       <c r="D79" t="n">
-        <v>0.204313</v>
+        <v>0.204185</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227729</v>
+        <v>0.227992</v>
       </c>
       <c r="C80" t="n">
-        <v>0.237306</v>
+        <v>0.237112</v>
       </c>
       <c r="D80" t="n">
-        <v>0.215308</v>
+        <v>0.215256</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.349265</v>
+        <v>0.348797</v>
       </c>
       <c r="C81" t="n">
-        <v>0.250646</v>
+        <v>0.25073</v>
       </c>
       <c r="D81" t="n">
-        <v>0.213935</v>
+        <v>0.213836</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.343367</v>
+        <v>0.343208</v>
       </c>
       <c r="C82" t="n">
-        <v>0.249381</v>
+        <v>0.249113</v>
       </c>
       <c r="D82" t="n">
-        <v>0.213001</v>
+        <v>0.212811</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.337491</v>
+        <v>0.336801</v>
       </c>
       <c r="C83" t="n">
-        <v>0.247663</v>
+        <v>0.247581</v>
       </c>
       <c r="D83" t="n">
-        <v>0.211837</v>
+        <v>0.21168</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.330633</v>
+        <v>0.330108</v>
       </c>
       <c r="C84" t="n">
-        <v>0.246609</v>
+        <v>0.246519</v>
       </c>
       <c r="D84" t="n">
-        <v>0.210771</v>
+        <v>0.210572</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.323233</v>
+        <v>0.323334</v>
       </c>
       <c r="C85" t="n">
-        <v>0.245639</v>
+        <v>0.245603</v>
       </c>
       <c r="D85" t="n">
-        <v>0.209941</v>
+        <v>0.209809</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.316034</v>
+        <v>0.315544</v>
       </c>
       <c r="C86" t="n">
-        <v>0.244474</v>
+        <v>0.24432</v>
       </c>
       <c r="D86" t="n">
-        <v>0.209142</v>
+        <v>0.208909</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.307544</v>
+        <v>0.307142</v>
       </c>
       <c r="C87" t="n">
-        <v>0.243442</v>
+        <v>0.243392</v>
       </c>
       <c r="D87" t="n">
-        <v>0.208276</v>
+        <v>0.208097</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.299121</v>
+        <v>0.299049</v>
       </c>
       <c r="C88" t="n">
-        <v>0.242259</v>
+        <v>0.242343</v>
       </c>
       <c r="D88" t="n">
-        <v>0.207405</v>
+        <v>0.207338</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.289669</v>
+        <v>0.289595</v>
       </c>
       <c r="C89" t="n">
-        <v>0.241465</v>
+        <v>0.241512</v>
       </c>
       <c r="D89" t="n">
-        <v>0.206589</v>
+        <v>0.20655</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.279948</v>
+        <v>0.280182</v>
       </c>
       <c r="C90" t="n">
-        <v>0.240533</v>
+        <v>0.240243</v>
       </c>
       <c r="D90" t="n">
-        <v>0.206182</v>
+        <v>0.205981</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.268733</v>
+        <v>0.268977</v>
       </c>
       <c r="C91" t="n">
-        <v>0.239988</v>
+        <v>0.239819</v>
       </c>
       <c r="D91" t="n">
-        <v>0.20539</v>
+        <v>0.205294</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.25756</v>
+        <v>0.256845</v>
       </c>
       <c r="C92" t="n">
-        <v>0.238679</v>
+        <v>0.238708</v>
       </c>
       <c r="D92" t="n">
-        <v>0.204799</v>
+        <v>0.204745</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.244942</v>
+        <v>0.244865</v>
       </c>
       <c r="C93" t="n">
-        <v>0.238053</v>
+        <v>0.237874</v>
       </c>
       <c r="D93" t="n">
-        <v>0.204243</v>
+        <v>0.204251</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.23109</v>
+        <v>0.230957</v>
       </c>
       <c r="C94" t="n">
-        <v>0.237336</v>
+        <v>0.237119</v>
       </c>
       <c r="D94" t="n">
-        <v>0.215303</v>
+        <v>0.215128</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.34953</v>
+        <v>0.349346</v>
       </c>
       <c r="C95" t="n">
-        <v>0.250065</v>
+        <v>0.25002</v>
       </c>
       <c r="D95" t="n">
-        <v>0.214039</v>
+        <v>0.213901</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.343986</v>
+        <v>0.344193</v>
       </c>
       <c r="C96" t="n">
-        <v>0.249032</v>
+        <v>0.248735</v>
       </c>
       <c r="D96" t="n">
-        <v>0.21278</v>
+        <v>0.212667</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.338171</v>
+        <v>0.337985</v>
       </c>
       <c r="C97" t="n">
-        <v>0.247734</v>
+        <v>0.247605</v>
       </c>
       <c r="D97" t="n">
-        <v>0.211675</v>
+        <v>0.211616</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.331321</v>
+        <v>0.33122</v>
       </c>
       <c r="C98" t="n">
-        <v>0.246413</v>
+        <v>0.246262</v>
       </c>
       <c r="D98" t="n">
-        <v>0.210681</v>
+        <v>0.210504</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.32451</v>
+        <v>0.324359</v>
       </c>
       <c r="C99" t="n">
-        <v>0.245599</v>
+        <v>0.245357</v>
       </c>
       <c r="D99" t="n">
-        <v>0.209776</v>
+        <v>0.209583</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.316998</v>
+        <v>0.316544</v>
       </c>
       <c r="C100" t="n">
-        <v>0.243977</v>
+        <v>0.244015</v>
       </c>
       <c r="D100" t="n">
-        <v>0.208742</v>
+        <v>0.208578</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.308729</v>
+        <v>0.308584</v>
       </c>
       <c r="C101" t="n">
-        <v>0.243094</v>
+        <v>0.242957</v>
       </c>
       <c r="D101" t="n">
-        <v>0.20781</v>
+        <v>0.20771</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.300258</v>
+        <v>0.299956</v>
       </c>
       <c r="C102" t="n">
-        <v>0.242258</v>
+        <v>0.242274</v>
       </c>
       <c r="D102" t="n">
-        <v>0.206944</v>
+        <v>0.206897</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.291103</v>
+        <v>0.290973</v>
       </c>
       <c r="C103" t="n">
-        <v>0.241341</v>
+        <v>0.241269</v>
       </c>
       <c r="D103" t="n">
-        <v>0.206173</v>
+        <v>0.206111</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.281332</v>
+        <v>0.281239</v>
       </c>
       <c r="C104" t="n">
-        <v>0.240291</v>
+        <v>0.240055</v>
       </c>
       <c r="D104" t="n">
-        <v>0.205575</v>
+        <v>0.205475</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.270925</v>
+        <v>0.270965</v>
       </c>
       <c r="C105" t="n">
-        <v>0.239456</v>
+        <v>0.239341</v>
       </c>
       <c r="D105" t="n">
-        <v>0.205264</v>
+        <v>0.205156</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.259424</v>
+        <v>0.259261</v>
       </c>
       <c r="C106" t="n">
-        <v>0.238874</v>
+        <v>0.238932</v>
       </c>
       <c r="D106" t="n">
-        <v>0.204689</v>
+        <v>0.204598</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.246901</v>
+        <v>0.246772</v>
       </c>
       <c r="C107" t="n">
-        <v>0.238127</v>
+        <v>0.238062</v>
       </c>
       <c r="D107" t="n">
-        <v>0.204252</v>
+        <v>0.204147</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.233414</v>
+        <v>0.233439</v>
       </c>
       <c r="C108" t="n">
-        <v>0.237164</v>
+        <v>0.237091</v>
       </c>
       <c r="D108" t="n">
-        <v>0.215547</v>
+        <v>0.215387</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.21907</v>
+        <v>0.219269</v>
       </c>
       <c r="C109" t="n">
-        <v>0.236334</v>
+        <v>0.236198</v>
       </c>
       <c r="D109" t="n">
-        <v>0.214269</v>
+        <v>0.214013</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.34572</v>
+        <v>0.34551</v>
       </c>
       <c r="C110" t="n">
-        <v>0.248936</v>
+        <v>0.249379</v>
       </c>
       <c r="D110" t="n">
-        <v>0.213154</v>
+        <v>0.212878</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.339722</v>
+        <v>0.339584</v>
       </c>
       <c r="C111" t="n">
-        <v>0.248027</v>
+        <v>0.247468</v>
       </c>
       <c r="D111" t="n">
-        <v>0.211878</v>
+        <v>0.211701</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.332974</v>
+        <v>0.333032</v>
       </c>
       <c r="C112" t="n">
-        <v>0.246652</v>
+        <v>0.246402</v>
       </c>
       <c r="D112" t="n">
-        <v>0.210826</v>
+        <v>0.210657</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.326448</v>
+        <v>0.326007</v>
       </c>
       <c r="C113" t="n">
-        <v>0.245404</v>
+        <v>0.245706</v>
       </c>
       <c r="D113" t="n">
-        <v>0.209881</v>
+        <v>0.209658</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.31881</v>
+        <v>0.318269</v>
       </c>
       <c r="C114" t="n">
-        <v>0.244391</v>
+        <v>0.244858</v>
       </c>
       <c r="D114" t="n">
-        <v>0.20876</v>
+        <v>0.208701</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.311506</v>
+        <v>0.310668</v>
       </c>
       <c r="C115" t="n">
-        <v>0.243442</v>
+        <v>0.243438</v>
       </c>
       <c r="D115" t="n">
-        <v>0.207966</v>
+        <v>0.207878</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.302577</v>
+        <v>0.302276</v>
       </c>
       <c r="C116" t="n">
-        <v>0.242372</v>
+        <v>0.242325</v>
       </c>
       <c r="D116" t="n">
-        <v>0.207172</v>
+        <v>0.207071</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293084</v>
+        <v>0.293217</v>
       </c>
       <c r="C117" t="n">
-        <v>0.241581</v>
+        <v>0.241637</v>
       </c>
       <c r="D117" t="n">
-        <v>0.206365</v>
+        <v>0.206331</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.283754</v>
+        <v>0.283534</v>
       </c>
       <c r="C118" t="n">
-        <v>0.240514</v>
+        <v>0.240642</v>
       </c>
       <c r="D118" t="n">
-        <v>0.205877</v>
+        <v>0.205571</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.273574</v>
+        <v>0.273447</v>
       </c>
       <c r="C119" t="n">
-        <v>0.239555</v>
+        <v>0.239592</v>
       </c>
       <c r="D119" t="n">
-        <v>0.205277</v>
+        <v>0.205212</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.262061</v>
+        <v>0.262065</v>
       </c>
       <c r="C120" t="n">
-        <v>0.238771</v>
+        <v>0.238661</v>
       </c>
       <c r="D120" t="n">
-        <v>0.204511</v>
+        <v>0.204429</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.249705</v>
+        <v>0.249853</v>
       </c>
       <c r="C121" t="n">
-        <v>0.238289</v>
+        <v>0.238046</v>
       </c>
       <c r="D121" t="n">
-        <v>0.204199</v>
+        <v>0.20415</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.236672</v>
+        <v>0.236598</v>
       </c>
       <c r="C122" t="n">
-        <v>0.237147</v>
+        <v>0.237134</v>
       </c>
       <c r="D122" t="n">
-        <v>0.203736</v>
+        <v>0.203684</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.222619</v>
+        <v>0.222311</v>
       </c>
       <c r="C123" t="n">
-        <v>0.236389</v>
+        <v>0.236329</v>
       </c>
       <c r="D123" t="n">
-        <v>0.21481</v>
+        <v>0.214605</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.347217</v>
+        <v>0.346793</v>
       </c>
       <c r="C124" t="n">
-        <v>0.251196</v>
+        <v>0.249999</v>
       </c>
       <c r="D124" t="n">
-        <v>0.213426</v>
+        <v>0.213516</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.340932</v>
+        <v>0.340589</v>
       </c>
       <c r="C125" t="n">
-        <v>0.249055</v>
+        <v>0.249796</v>
       </c>
       <c r="D125" t="n">
-        <v>0.212283</v>
+        <v>0.212379</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.334443</v>
+        <v>0.334131</v>
       </c>
       <c r="C126" t="n">
-        <v>0.247043</v>
+        <v>0.247307</v>
       </c>
       <c r="D126" t="n">
-        <v>0.211117</v>
+        <v>0.211063</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.327561</v>
+        <v>0.327418</v>
       </c>
       <c r="C127" t="n">
-        <v>0.246703</v>
+        <v>0.247053</v>
       </c>
       <c r="D127" t="n">
-        <v>0.210017</v>
+        <v>0.210181</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.320056</v>
+        <v>0.319972</v>
       </c>
       <c r="C128" t="n">
-        <v>0.24532</v>
+        <v>0.245368</v>
       </c>
       <c r="D128" t="n">
-        <v>0.209018</v>
+        <v>0.209172</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.312544</v>
+        <v>0.312365</v>
       </c>
       <c r="C129" t="n">
-        <v>0.24365</v>
+        <v>0.245478</v>
       </c>
       <c r="D129" t="n">
-        <v>0.208168</v>
+        <v>0.207824</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.30438</v>
+        <v>0.30392</v>
       </c>
       <c r="C130" t="n">
-        <v>0.244079</v>
+        <v>0.243771</v>
       </c>
       <c r="D130" t="n">
-        <v>0.207039</v>
+        <v>0.207105</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.295162</v>
+        <v>0.295302</v>
       </c>
       <c r="C131" t="n">
-        <v>0.242296</v>
+        <v>0.2426</v>
       </c>
       <c r="D131" t="n">
-        <v>0.206777</v>
+        <v>0.206364</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.285641</v>
+        <v>0.285862</v>
       </c>
       <c r="C132" t="n">
-        <v>0.241677</v>
+        <v>0.241346</v>
       </c>
       <c r="D132" t="n">
-        <v>0.205688</v>
+        <v>0.205652</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275515</v>
+        <v>0.275637</v>
       </c>
       <c r="C133" t="n">
-        <v>0.241007</v>
+        <v>0.239912</v>
       </c>
       <c r="D133" t="n">
-        <v>0.204982</v>
+        <v>0.20507</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.264633</v>
+        <v>0.264653</v>
       </c>
       <c r="C134" t="n">
-        <v>0.239007</v>
+        <v>0.239385</v>
       </c>
       <c r="D134" t="n">
-        <v>0.204421</v>
+        <v>0.204594</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.252952</v>
+        <v>0.252671</v>
       </c>
       <c r="C135" t="n">
-        <v>0.237959</v>
+        <v>0.239724</v>
       </c>
       <c r="D135" t="n">
-        <v>0.204018</v>
+        <v>0.204061</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.239762</v>
+        <v>0.239657</v>
       </c>
       <c r="C136" t="n">
-        <v>0.238159</v>
+        <v>0.238047</v>
       </c>
       <c r="D136" t="n">
-        <v>0.203588</v>
+        <v>0.203727</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.225785</v>
+        <v>0.226019</v>
       </c>
       <c r="C137" t="n">
-        <v>0.23754</v>
+        <v>0.236645</v>
       </c>
       <c r="D137" t="n">
-        <v>0.215091</v>
+        <v>0.215792</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.347912</v>
+        <v>0.348235</v>
       </c>
       <c r="C138" t="n">
-        <v>0.253801</v>
+        <v>0.253061</v>
       </c>
       <c r="D138" t="n">
-        <v>0.213833</v>
+        <v>0.213716</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.342229</v>
+        <v>0.342286</v>
       </c>
       <c r="C139" t="n">
-        <v>0.250774</v>
+        <v>0.251411</v>
       </c>
       <c r="D139" t="n">
-        <v>0.212339</v>
+        <v>0.212661</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.336132</v>
+        <v>0.336163</v>
       </c>
       <c r="C140" t="n">
-        <v>0.252702</v>
+        <v>0.249642</v>
       </c>
       <c r="D140" t="n">
-        <v>0.211624</v>
+        <v>0.211681</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.329256</v>
+        <v>0.329367</v>
       </c>
       <c r="C141" t="n">
-        <v>0.250936</v>
+        <v>0.249179</v>
       </c>
       <c r="D141" t="n">
-        <v>0.210999</v>
+        <v>0.210737</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.321951</v>
+        <v>0.32192</v>
       </c>
       <c r="C142" t="n">
-        <v>0.248511</v>
+        <v>0.247653</v>
       </c>
       <c r="D142" t="n">
-        <v>0.20985</v>
+        <v>0.209792</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.314032</v>
+        <v>0.314072</v>
       </c>
       <c r="C143" t="n">
-        <v>0.247832</v>
+        <v>0.247881</v>
       </c>
       <c r="D143" t="n">
-        <v>0.20886</v>
+        <v>0.208704</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.298149</v>
+        <v>0.299493</v>
       </c>
       <c r="C2" t="n">
-        <v>0.224474</v>
+        <v>0.220723</v>
       </c>
       <c r="D2" t="n">
-        <v>0.191148</v>
+        <v>0.197184</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.287113</v>
+        <v>0.290151</v>
       </c>
       <c r="C3" t="n">
-        <v>0.224823</v>
+        <v>0.222479</v>
       </c>
       <c r="D3" t="n">
-        <v>0.192573</v>
+        <v>0.19998</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.277419</v>
+        <v>0.28152</v>
       </c>
       <c r="C4" t="n">
-        <v>0.224145</v>
+        <v>0.220508</v>
       </c>
       <c r="D4" t="n">
-        <v>0.192583</v>
+        <v>0.199809</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.267904</v>
+        <v>0.271307</v>
       </c>
       <c r="C5" t="n">
-        <v>0.222698</v>
+        <v>0.220355</v>
       </c>
       <c r="D5" t="n">
-        <v>0.192394</v>
+        <v>0.1997</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.257636</v>
+        <v>0.259678</v>
       </c>
       <c r="C6" t="n">
-        <v>0.224578</v>
+        <v>0.220936</v>
       </c>
       <c r="D6" t="n">
-        <v>0.191614</v>
+        <v>0.200541</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.245117</v>
+        <v>0.247533</v>
       </c>
       <c r="C7" t="n">
-        <v>0.22504</v>
+        <v>0.220372</v>
       </c>
       <c r="D7" t="n">
-        <v>0.193428</v>
+        <v>0.200237</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.233348</v>
+        <v>0.235455</v>
       </c>
       <c r="C8" t="n">
-        <v>0.225341</v>
+        <v>0.219209</v>
       </c>
       <c r="D8" t="n">
-        <v>0.193426</v>
+        <v>0.200564</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.218491</v>
+        <v>0.219733</v>
       </c>
       <c r="C9" t="n">
-        <v>0.225711</v>
+        <v>0.221178</v>
       </c>
       <c r="D9" t="n">
-        <v>0.208193</v>
+        <v>0.214956</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.342102</v>
+        <v>0.344897</v>
       </c>
       <c r="C10" t="n">
-        <v>0.24335</v>
+        <v>0.23881</v>
       </c>
       <c r="D10" t="n">
-        <v>0.208335</v>
+        <v>0.214924</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.336339</v>
+        <v>0.337792</v>
       </c>
       <c r="C11" t="n">
-        <v>0.242141</v>
+        <v>0.247496</v>
       </c>
       <c r="D11" t="n">
-        <v>0.206854</v>
+        <v>0.213593</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.329061</v>
+        <v>0.330575</v>
       </c>
       <c r="C12" t="n">
-        <v>0.241698</v>
+        <v>0.252686</v>
       </c>
       <c r="D12" t="n">
-        <v>0.207916</v>
+        <v>0.213964</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.322389</v>
+        <v>0.324199</v>
       </c>
       <c r="C13" t="n">
-        <v>0.240401</v>
+        <v>0.237286</v>
       </c>
       <c r="D13" t="n">
-        <v>0.205652</v>
+        <v>0.212615</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.31588</v>
+        <v>0.317813</v>
       </c>
       <c r="C14" t="n">
-        <v>0.239457</v>
+        <v>0.237857</v>
       </c>
       <c r="D14" t="n">
-        <v>0.204738</v>
+        <v>0.211689</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.307945</v>
+        <v>0.309475</v>
       </c>
       <c r="C15" t="n">
-        <v>0.239184</v>
+        <v>0.233159</v>
       </c>
       <c r="D15" t="n">
-        <v>0.203574</v>
+        <v>0.211489</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.300007</v>
+        <v>0.300616</v>
       </c>
       <c r="C16" t="n">
-        <v>0.238332</v>
+        <v>0.235758</v>
       </c>
       <c r="D16" t="n">
-        <v>0.203085</v>
+        <v>0.210632</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.291984</v>
+        <v>0.293073</v>
       </c>
       <c r="C17" t="n">
-        <v>0.237259</v>
+        <v>0.234433</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2024</v>
+        <v>0.209171</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.283952</v>
+        <v>0.284455</v>
       </c>
       <c r="C18" t="n">
-        <v>0.235693</v>
+        <v>0.232418</v>
       </c>
       <c r="D18" t="n">
-        <v>0.202163</v>
+        <v>0.210322</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.275429</v>
+        <v>0.275676</v>
       </c>
       <c r="C19" t="n">
-        <v>0.235736</v>
+        <v>0.230437</v>
       </c>
       <c r="D19" t="n">
-        <v>0.201748</v>
+        <v>0.209163</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.263624</v>
+        <v>0.264873</v>
       </c>
       <c r="C20" t="n">
-        <v>0.234667</v>
+        <v>0.229976</v>
       </c>
       <c r="D20" t="n">
-        <v>0.201082</v>
+        <v>0.208206</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.25109</v>
+        <v>0.252042</v>
       </c>
       <c r="C21" t="n">
-        <v>0.235164</v>
+        <v>0.244911</v>
       </c>
       <c r="D21" t="n">
-        <v>0.200733</v>
+        <v>0.209123</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.237598</v>
+        <v>0.2388</v>
       </c>
       <c r="C22" t="n">
-        <v>0.234101</v>
+        <v>0.235233</v>
       </c>
       <c r="D22" t="n">
-        <v>0.201001</v>
+        <v>0.208547</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.224391</v>
+        <v>0.225714</v>
       </c>
       <c r="C23" t="n">
-        <v>0.233408</v>
+        <v>0.234786</v>
       </c>
       <c r="D23" t="n">
-        <v>0.212501</v>
+        <v>0.219702</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.346476</v>
+        <v>0.346871</v>
       </c>
       <c r="C24" t="n">
-        <v>0.264793</v>
+        <v>0.253818</v>
       </c>
       <c r="D24" t="n">
-        <v>0.211458</v>
+        <v>0.218455</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.340138</v>
+        <v>0.342184</v>
       </c>
       <c r="C25" t="n">
-        <v>0.246402</v>
+        <v>0.244866</v>
       </c>
       <c r="D25" t="n">
-        <v>0.210415</v>
+        <v>0.217232</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.334075</v>
+        <v>0.333917</v>
       </c>
       <c r="C26" t="n">
-        <v>0.244681</v>
+        <v>0.239689</v>
       </c>
       <c r="D26" t="n">
-        <v>0.208772</v>
+        <v>0.215226</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.32713</v>
+        <v>0.327352</v>
       </c>
       <c r="C27" t="n">
-        <v>0.249825</v>
+        <v>0.240485</v>
       </c>
       <c r="D27" t="n">
-        <v>0.208044</v>
+        <v>0.214703</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.323123</v>
+        <v>0.320692</v>
       </c>
       <c r="C28" t="n">
-        <v>0.259791</v>
+        <v>0.239757</v>
       </c>
       <c r="D28" t="n">
-        <v>0.206563</v>
+        <v>0.213304</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.322411</v>
+        <v>0.313166</v>
       </c>
       <c r="C29" t="n">
-        <v>0.262216</v>
+        <v>0.236036</v>
       </c>
       <c r="D29" t="n">
-        <v>0.205662</v>
+        <v>0.212393</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.307742</v>
+        <v>0.305525</v>
       </c>
       <c r="C30" t="n">
-        <v>0.254967</v>
+        <v>0.241657</v>
       </c>
       <c r="D30" t="n">
-        <v>0.205103</v>
+        <v>0.211625</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.29704</v>
+        <v>0.297586</v>
       </c>
       <c r="C31" t="n">
-        <v>0.253843</v>
+        <v>0.238582</v>
       </c>
       <c r="D31" t="n">
-        <v>0.203482</v>
+        <v>0.210972</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.289564</v>
+        <v>0.288274</v>
       </c>
       <c r="C32" t="n">
-        <v>0.255071</v>
+        <v>0.233376</v>
       </c>
       <c r="D32" t="n">
-        <v>0.20412</v>
+        <v>0.210619</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.278646</v>
+        <v>0.279158</v>
       </c>
       <c r="C33" t="n">
-        <v>0.237368</v>
+        <v>0.235712</v>
       </c>
       <c r="D33" t="n">
-        <v>0.203297</v>
+        <v>0.210686</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.269965</v>
+        <v>0.268491</v>
       </c>
       <c r="C34" t="n">
-        <v>0.236859</v>
+        <v>0.235583</v>
       </c>
       <c r="D34" t="n">
-        <v>0.203372</v>
+        <v>0.210505</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.257574</v>
+        <v>0.257681</v>
       </c>
       <c r="C35" t="n">
-        <v>0.241454</v>
+        <v>0.235202</v>
       </c>
       <c r="D35" t="n">
-        <v>0.203179</v>
+        <v>0.210496</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.248419</v>
+        <v>0.244295</v>
       </c>
       <c r="C36" t="n">
-        <v>0.255512</v>
+        <v>0.242901</v>
       </c>
       <c r="D36" t="n">
-        <v>0.20199</v>
+        <v>0.209185</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.231655</v>
+        <v>0.231299</v>
       </c>
       <c r="C37" t="n">
-        <v>0.249795</v>
+        <v>0.243941</v>
       </c>
       <c r="D37" t="n">
-        <v>0.213529</v>
+        <v>0.220101</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.348295</v>
+        <v>0.348877</v>
       </c>
       <c r="C38" t="n">
-        <v>0.247886</v>
+        <v>0.243674</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2124</v>
+        <v>0.21901</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.342371</v>
+        <v>0.343336</v>
       </c>
       <c r="C39" t="n">
-        <v>0.246158</v>
+        <v>0.242395</v>
       </c>
       <c r="D39" t="n">
-        <v>0.211173</v>
+        <v>0.217665</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.336582</v>
+        <v>0.337622</v>
       </c>
       <c r="C40" t="n">
-        <v>0.244951</v>
+        <v>0.239952</v>
       </c>
       <c r="D40" t="n">
-        <v>0.209672</v>
+        <v>0.216775</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.329828</v>
+        <v>0.330643</v>
       </c>
       <c r="C41" t="n">
-        <v>0.243672</v>
+        <v>0.239597</v>
       </c>
       <c r="D41" t="n">
-        <v>0.208925</v>
+        <v>0.216072</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.323356</v>
+        <v>0.323734</v>
       </c>
       <c r="C42" t="n">
-        <v>0.243755</v>
+        <v>0.238546</v>
       </c>
       <c r="D42" t="n">
-        <v>0.208839</v>
+        <v>0.215116</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.316451</v>
+        <v>0.317058</v>
       </c>
       <c r="C43" t="n">
-        <v>0.242554</v>
+        <v>0.237697</v>
       </c>
       <c r="D43" t="n">
-        <v>0.208544</v>
+        <v>0.21567</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.308688</v>
+        <v>0.309403</v>
       </c>
       <c r="C44" t="n">
-        <v>0.241389</v>
+        <v>0.237304</v>
       </c>
       <c r="D44" t="n">
-        <v>0.208108</v>
+        <v>0.215272</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300541</v>
+        <v>0.300776</v>
       </c>
       <c r="C45" t="n">
-        <v>0.240488</v>
+        <v>0.23636</v>
       </c>
       <c r="D45" t="n">
-        <v>0.207183</v>
+        <v>0.21408</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291341</v>
+        <v>0.291779</v>
       </c>
       <c r="C46" t="n">
-        <v>0.239902</v>
+        <v>0.235559</v>
       </c>
       <c r="D46" t="n">
-        <v>0.206273</v>
+        <v>0.213165</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.281724</v>
+        <v>0.282143</v>
       </c>
       <c r="C47" t="n">
-        <v>0.239054</v>
+        <v>0.23524</v>
       </c>
       <c r="D47" t="n">
-        <v>0.206059</v>
+        <v>0.213486</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.271153</v>
+        <v>0.271634</v>
       </c>
       <c r="C48" t="n">
-        <v>0.238625</v>
+        <v>0.234545</v>
       </c>
       <c r="D48" t="n">
-        <v>0.205801</v>
+        <v>0.212995</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.259828</v>
+        <v>0.260165</v>
       </c>
       <c r="C49" t="n">
-        <v>0.239211</v>
+        <v>0.233489</v>
       </c>
       <c r="D49" t="n">
-        <v>0.204436</v>
+        <v>0.211649</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.247679</v>
+        <v>0.247918</v>
       </c>
       <c r="C50" t="n">
-        <v>0.240215</v>
+        <v>0.232842</v>
       </c>
       <c r="D50" t="n">
-        <v>0.204369</v>
+        <v>0.210989</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.233728</v>
+        <v>0.234514</v>
       </c>
       <c r="C51" t="n">
-        <v>0.237943</v>
+        <v>0.232741</v>
       </c>
       <c r="D51" t="n">
-        <v>0.216316</v>
+        <v>0.224231</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.220182</v>
+        <v>0.2207</v>
       </c>
       <c r="C52" t="n">
-        <v>0.236214</v>
+        <v>0.23188</v>
       </c>
       <c r="D52" t="n">
-        <v>0.214606</v>
+        <v>0.221757</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.34486</v>
+        <v>0.345829</v>
       </c>
       <c r="C53" t="n">
-        <v>0.248457</v>
+        <v>0.243822</v>
       </c>
       <c r="D53" t="n">
-        <v>0.213149</v>
+        <v>0.220817</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.339652</v>
+        <v>0.3403</v>
       </c>
       <c r="C54" t="n">
-        <v>0.247388</v>
+        <v>0.242683</v>
       </c>
       <c r="D54" t="n">
-        <v>0.212291</v>
+        <v>0.219307</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.332996</v>
+        <v>0.333962</v>
       </c>
       <c r="C55" t="n">
-        <v>0.246232</v>
+        <v>0.241436</v>
       </c>
       <c r="D55" t="n">
-        <v>0.211219</v>
+        <v>0.218865</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.326614</v>
+        <v>0.327441</v>
       </c>
       <c r="C56" t="n">
-        <v>0.245754</v>
+        <v>0.241237</v>
       </c>
       <c r="D56" t="n">
-        <v>0.210008</v>
+        <v>0.217546</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.319318</v>
+        <v>0.319841</v>
       </c>
       <c r="C57" t="n">
-        <v>0.24451</v>
+        <v>0.240677</v>
       </c>
       <c r="D57" t="n">
-        <v>0.209145</v>
+        <v>0.216578</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.311565</v>
+        <v>0.312034</v>
       </c>
       <c r="C58" t="n">
-        <v>0.244166</v>
+        <v>0.23925</v>
       </c>
       <c r="D58" t="n">
-        <v>0.208757</v>
+        <v>0.216246</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.303208</v>
+        <v>0.303491</v>
       </c>
       <c r="C59" t="n">
-        <v>0.242893</v>
+        <v>0.237754</v>
       </c>
       <c r="D59" t="n">
-        <v>0.207642</v>
+        <v>0.215755</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294093</v>
+        <v>0.294571</v>
       </c>
       <c r="C60" t="n">
-        <v>0.242168</v>
+        <v>0.237557</v>
       </c>
       <c r="D60" t="n">
-        <v>0.207553</v>
+        <v>0.215372</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284828</v>
+        <v>0.285192</v>
       </c>
       <c r="C61" t="n">
-        <v>0.241825</v>
+        <v>0.236715</v>
       </c>
       <c r="D61" t="n">
-        <v>0.20713</v>
+        <v>0.214365</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.274764</v>
+        <v>0.27507</v>
       </c>
       <c r="C62" t="n">
-        <v>0.240707</v>
+        <v>0.235956</v>
       </c>
       <c r="D62" t="n">
-        <v>0.206077</v>
+        <v>0.213576</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263515</v>
+        <v>0.263775</v>
       </c>
       <c r="C63" t="n">
-        <v>0.240248</v>
+        <v>0.234775</v>
       </c>
       <c r="D63" t="n">
-        <v>0.205431</v>
+        <v>0.212964</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.251641</v>
+        <v>0.252007</v>
       </c>
       <c r="C64" t="n">
-        <v>0.23936</v>
+        <v>0.234802</v>
       </c>
       <c r="D64" t="n">
-        <v>0.204887</v>
+        <v>0.211929</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.238058</v>
+        <v>0.239053</v>
       </c>
       <c r="C65" t="n">
-        <v>0.238351</v>
+        <v>0.233899</v>
       </c>
       <c r="D65" t="n">
-        <v>0.204405</v>
+        <v>0.211484</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.224617</v>
+        <v>0.224721</v>
       </c>
       <c r="C66" t="n">
-        <v>0.237088</v>
+        <v>0.232968</v>
       </c>
       <c r="D66" t="n">
-        <v>0.214787</v>
+        <v>0.221588</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.346702</v>
+        <v>0.347567</v>
       </c>
       <c r="C67" t="n">
-        <v>0.249524</v>
+        <v>0.24446</v>
       </c>
       <c r="D67" t="n">
-        <v>0.213574</v>
+        <v>0.220258</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.341445</v>
+        <v>0.342204</v>
       </c>
       <c r="C68" t="n">
-        <v>0.248009</v>
+        <v>0.242906</v>
       </c>
       <c r="D68" t="n">
-        <v>0.212422</v>
+        <v>0.219316</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.334977</v>
+        <v>0.335895</v>
       </c>
       <c r="C69" t="n">
-        <v>0.247192</v>
+        <v>0.24217</v>
       </c>
       <c r="D69" t="n">
-        <v>0.211488</v>
+        <v>0.218243</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.328553</v>
+        <v>0.329142</v>
       </c>
       <c r="C70" t="n">
-        <v>0.246184</v>
+        <v>0.241625</v>
       </c>
       <c r="D70" t="n">
-        <v>0.210361</v>
+        <v>0.217229</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.321144</v>
+        <v>0.321608</v>
       </c>
       <c r="C71" t="n">
-        <v>0.244482</v>
+        <v>0.240519</v>
       </c>
       <c r="D71" t="n">
-        <v>0.20944</v>
+        <v>0.216405</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.313423</v>
+        <v>0.313764</v>
       </c>
       <c r="C72" t="n">
-        <v>0.243911</v>
+        <v>0.240172</v>
       </c>
       <c r="D72" t="n">
-        <v>0.208459</v>
+        <v>0.21552</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.304604</v>
+        <v>0.305043</v>
       </c>
       <c r="C73" t="n">
-        <v>0.243136</v>
+        <v>0.238405</v>
       </c>
       <c r="D73" t="n">
-        <v>0.207554</v>
+        <v>0.214526</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.295822</v>
+        <v>0.29637</v>
       </c>
       <c r="C74" t="n">
-        <v>0.242476</v>
+        <v>0.237989</v>
       </c>
       <c r="D74" t="n">
-        <v>0.207118</v>
+        <v>0.213299</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.28603</v>
+        <v>0.286752</v>
       </c>
       <c r="C75" t="n">
-        <v>0.241168</v>
+        <v>0.236866</v>
       </c>
       <c r="D75" t="n">
-        <v>0.206163</v>
+        <v>0.213222</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.276278</v>
+        <v>0.276949</v>
       </c>
       <c r="C76" t="n">
-        <v>0.240773</v>
+        <v>0.236386</v>
       </c>
       <c r="D76" t="n">
-        <v>0.205719</v>
+        <v>0.212416</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.266429</v>
+        <v>0.266133</v>
       </c>
       <c r="C77" t="n">
-        <v>0.239841</v>
+        <v>0.234971</v>
       </c>
       <c r="D77" t="n">
-        <v>0.20501</v>
+        <v>0.211931</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.254884</v>
+        <v>0.25492</v>
       </c>
       <c r="C78" t="n">
-        <v>0.239125</v>
+        <v>0.234231</v>
       </c>
       <c r="D78" t="n">
-        <v>0.204542</v>
+        <v>0.211868</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.241208</v>
+        <v>0.241896</v>
       </c>
       <c r="C79" t="n">
-        <v>0.237861</v>
+        <v>0.234171</v>
       </c>
       <c r="D79" t="n">
-        <v>0.204185</v>
+        <v>0.211373</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227992</v>
+        <v>0.228013</v>
       </c>
       <c r="C80" t="n">
-        <v>0.237112</v>
+        <v>0.233632</v>
       </c>
       <c r="D80" t="n">
-        <v>0.215256</v>
+        <v>0.222032</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.348797</v>
+        <v>0.349202</v>
       </c>
       <c r="C81" t="n">
-        <v>0.25073</v>
+        <v>0.24524</v>
       </c>
       <c r="D81" t="n">
-        <v>0.213836</v>
+        <v>0.220943</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.343208</v>
+        <v>0.343815</v>
       </c>
       <c r="C82" t="n">
-        <v>0.249113</v>
+        <v>0.243692</v>
       </c>
       <c r="D82" t="n">
-        <v>0.212811</v>
+        <v>0.220203</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.336801</v>
+        <v>0.337513</v>
       </c>
       <c r="C83" t="n">
-        <v>0.247581</v>
+        <v>0.242764</v>
       </c>
       <c r="D83" t="n">
-        <v>0.21168</v>
+        <v>0.218602</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.330108</v>
+        <v>0.331031</v>
       </c>
       <c r="C84" t="n">
-        <v>0.246519</v>
+        <v>0.241763</v>
       </c>
       <c r="D84" t="n">
-        <v>0.210572</v>
+        <v>0.217456</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.323334</v>
+        <v>0.323837</v>
       </c>
       <c r="C85" t="n">
-        <v>0.245603</v>
+        <v>0.240738</v>
       </c>
       <c r="D85" t="n">
-        <v>0.209809</v>
+        <v>0.216749</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.315544</v>
+        <v>0.315868</v>
       </c>
       <c r="C86" t="n">
-        <v>0.24432</v>
+        <v>0.239927</v>
       </c>
       <c r="D86" t="n">
-        <v>0.208909</v>
+        <v>0.215868</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.307142</v>
+        <v>0.307536</v>
       </c>
       <c r="C87" t="n">
-        <v>0.243392</v>
+        <v>0.239144</v>
       </c>
       <c r="D87" t="n">
-        <v>0.208097</v>
+        <v>0.215074</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.299049</v>
+        <v>0.298951</v>
       </c>
       <c r="C88" t="n">
-        <v>0.242343</v>
+        <v>0.238164</v>
       </c>
       <c r="D88" t="n">
-        <v>0.207338</v>
+        <v>0.214445</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.289595</v>
+        <v>0.28957</v>
       </c>
       <c r="C89" t="n">
-        <v>0.241512</v>
+        <v>0.236858</v>
       </c>
       <c r="D89" t="n">
-        <v>0.20655</v>
+        <v>0.213919</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.280182</v>
+        <v>0.279869</v>
       </c>
       <c r="C90" t="n">
-        <v>0.240243</v>
+        <v>0.235802</v>
       </c>
       <c r="D90" t="n">
-        <v>0.205981</v>
+        <v>0.212887</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.268977</v>
+        <v>0.269302</v>
       </c>
       <c r="C91" t="n">
-        <v>0.239819</v>
+        <v>0.234808</v>
       </c>
       <c r="D91" t="n">
-        <v>0.205294</v>
+        <v>0.21249</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.256845</v>
+        <v>0.257372</v>
       </c>
       <c r="C92" t="n">
-        <v>0.238708</v>
+        <v>0.234192</v>
       </c>
       <c r="D92" t="n">
-        <v>0.204745</v>
+        <v>0.211811</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.244865</v>
+        <v>0.244846</v>
       </c>
       <c r="C93" t="n">
-        <v>0.237874</v>
+        <v>0.233618</v>
       </c>
       <c r="D93" t="n">
-        <v>0.204251</v>
+        <v>0.211028</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.230957</v>
+        <v>0.231096</v>
       </c>
       <c r="C94" t="n">
-        <v>0.237119</v>
+        <v>0.233179</v>
       </c>
       <c r="D94" t="n">
-        <v>0.215128</v>
+        <v>0.222504</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.349346</v>
+        <v>0.350259</v>
       </c>
       <c r="C95" t="n">
-        <v>0.25002</v>
+        <v>0.244854</v>
       </c>
       <c r="D95" t="n">
-        <v>0.213901</v>
+        <v>0.221115</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.344193</v>
+        <v>0.345169</v>
       </c>
       <c r="C96" t="n">
-        <v>0.248735</v>
+        <v>0.243795</v>
       </c>
       <c r="D96" t="n">
-        <v>0.212667</v>
+        <v>0.220419</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.337985</v>
+        <v>0.338805</v>
       </c>
       <c r="C97" t="n">
-        <v>0.247605</v>
+        <v>0.242608</v>
       </c>
       <c r="D97" t="n">
-        <v>0.211616</v>
+        <v>0.218876</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.33122</v>
+        <v>0.332334</v>
       </c>
       <c r="C98" t="n">
-        <v>0.246262</v>
+        <v>0.241858</v>
       </c>
       <c r="D98" t="n">
-        <v>0.210504</v>
+        <v>0.218078</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.324359</v>
+        <v>0.325192</v>
       </c>
       <c r="C99" t="n">
-        <v>0.245357</v>
+        <v>0.240793</v>
       </c>
       <c r="D99" t="n">
-        <v>0.209583</v>
+        <v>0.21742</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.316544</v>
+        <v>0.317458</v>
       </c>
       <c r="C100" t="n">
-        <v>0.244015</v>
+        <v>0.239677</v>
       </c>
       <c r="D100" t="n">
-        <v>0.208578</v>
+        <v>0.216261</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.308584</v>
+        <v>0.309367</v>
       </c>
       <c r="C101" t="n">
-        <v>0.242957</v>
+        <v>0.238816</v>
       </c>
       <c r="D101" t="n">
-        <v>0.20771</v>
+        <v>0.215037</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.299956</v>
+        <v>0.300508</v>
       </c>
       <c r="C102" t="n">
-        <v>0.242274</v>
+        <v>0.237851</v>
       </c>
       <c r="D102" t="n">
-        <v>0.206897</v>
+        <v>0.214467</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.290973</v>
+        <v>0.291522</v>
       </c>
       <c r="C103" t="n">
-        <v>0.241269</v>
+        <v>0.237144</v>
       </c>
       <c r="D103" t="n">
-        <v>0.206111</v>
+        <v>0.21375</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.281239</v>
+        <v>0.281867</v>
       </c>
       <c r="C104" t="n">
-        <v>0.240055</v>
+        <v>0.235708</v>
       </c>
       <c r="D104" t="n">
-        <v>0.205475</v>
+        <v>0.213244</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.270965</v>
+        <v>0.271452</v>
       </c>
       <c r="C105" t="n">
-        <v>0.239341</v>
+        <v>0.235377</v>
       </c>
       <c r="D105" t="n">
-        <v>0.205156</v>
+        <v>0.212681</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.259261</v>
+        <v>0.259773</v>
       </c>
       <c r="C106" t="n">
-        <v>0.238932</v>
+        <v>0.234284</v>
       </c>
       <c r="D106" t="n">
-        <v>0.204598</v>
+        <v>0.21213</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.246772</v>
+        <v>0.247253</v>
       </c>
       <c r="C107" t="n">
-        <v>0.238062</v>
+        <v>0.233574</v>
       </c>
       <c r="D107" t="n">
-        <v>0.204147</v>
+        <v>0.211385</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.233439</v>
+        <v>0.233879</v>
       </c>
       <c r="C108" t="n">
-        <v>0.237091</v>
+        <v>0.233086</v>
       </c>
       <c r="D108" t="n">
-        <v>0.215387</v>
+        <v>0.223105</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.219269</v>
+        <v>0.219681</v>
       </c>
       <c r="C109" t="n">
-        <v>0.236198</v>
+        <v>0.232438</v>
       </c>
       <c r="D109" t="n">
-        <v>0.214013</v>
+        <v>0.221626</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.34551</v>
+        <v>0.346242</v>
       </c>
       <c r="C110" t="n">
-        <v>0.249379</v>
+        <v>0.244016</v>
       </c>
       <c r="D110" t="n">
-        <v>0.212878</v>
+        <v>0.220635</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.339584</v>
+        <v>0.339954</v>
       </c>
       <c r="C111" t="n">
-        <v>0.247468</v>
+        <v>0.242983</v>
       </c>
       <c r="D111" t="n">
-        <v>0.211701</v>
+        <v>0.21949</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.333032</v>
+        <v>0.333667</v>
       </c>
       <c r="C112" t="n">
-        <v>0.246402</v>
+        <v>0.242393</v>
       </c>
       <c r="D112" t="n">
-        <v>0.210657</v>
+        <v>0.218211</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.326007</v>
+        <v>0.326465</v>
       </c>
       <c r="C113" t="n">
-        <v>0.245706</v>
+        <v>0.240991</v>
       </c>
       <c r="D113" t="n">
-        <v>0.209658</v>
+        <v>0.217484</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.318269</v>
+        <v>0.319005</v>
       </c>
       <c r="C114" t="n">
-        <v>0.244858</v>
+        <v>0.2402</v>
       </c>
       <c r="D114" t="n">
-        <v>0.208701</v>
+        <v>0.216535</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.310668</v>
+        <v>0.311405</v>
       </c>
       <c r="C115" t="n">
-        <v>0.243438</v>
+        <v>0.239081</v>
       </c>
       <c r="D115" t="n">
-        <v>0.207878</v>
+        <v>0.215651</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.302276</v>
+        <v>0.30266</v>
       </c>
       <c r="C116" t="n">
-        <v>0.242325</v>
+        <v>0.238387</v>
       </c>
       <c r="D116" t="n">
-        <v>0.207071</v>
+        <v>0.214712</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293217</v>
+        <v>0.293747</v>
       </c>
       <c r="C117" t="n">
-        <v>0.241637</v>
+        <v>0.237615</v>
       </c>
       <c r="D117" t="n">
-        <v>0.206331</v>
+        <v>0.214197</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.283534</v>
+        <v>0.284132</v>
       </c>
       <c r="C118" t="n">
-        <v>0.240642</v>
+        <v>0.236951</v>
       </c>
       <c r="D118" t="n">
-        <v>0.205571</v>
+        <v>0.21331</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.273447</v>
+        <v>0.273753</v>
       </c>
       <c r="C119" t="n">
-        <v>0.239592</v>
+        <v>0.236222</v>
       </c>
       <c r="D119" t="n">
-        <v>0.205212</v>
+        <v>0.21261</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.262065</v>
+        <v>0.262602</v>
       </c>
       <c r="C120" t="n">
-        <v>0.238661</v>
+        <v>0.23441</v>
       </c>
       <c r="D120" t="n">
-        <v>0.204429</v>
+        <v>0.211943</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.249853</v>
+        <v>0.250252</v>
       </c>
       <c r="C121" t="n">
-        <v>0.238046</v>
+        <v>0.234951</v>
       </c>
       <c r="D121" t="n">
-        <v>0.20415</v>
+        <v>0.211508</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.236598</v>
+        <v>0.237172</v>
       </c>
       <c r="C122" t="n">
-        <v>0.237134</v>
+        <v>0.233216</v>
       </c>
       <c r="D122" t="n">
-        <v>0.203684</v>
+        <v>0.210893</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.222311</v>
+        <v>0.223036</v>
       </c>
       <c r="C123" t="n">
-        <v>0.236329</v>
+        <v>0.232454</v>
       </c>
       <c r="D123" t="n">
-        <v>0.214605</v>
+        <v>0.222464</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.346793</v>
+        <v>0.347227</v>
       </c>
       <c r="C124" t="n">
-        <v>0.249999</v>
+        <v>0.245061</v>
       </c>
       <c r="D124" t="n">
-        <v>0.213516</v>
+        <v>0.221294</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.340589</v>
+        <v>0.341631</v>
       </c>
       <c r="C125" t="n">
-        <v>0.249796</v>
+        <v>0.243877</v>
       </c>
       <c r="D125" t="n">
-        <v>0.212379</v>
+        <v>0.220161</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.334131</v>
+        <v>0.335067</v>
       </c>
       <c r="C126" t="n">
-        <v>0.247307</v>
+        <v>0.242809</v>
       </c>
       <c r="D126" t="n">
-        <v>0.211063</v>
+        <v>0.218772</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.327418</v>
+        <v>0.328268</v>
       </c>
       <c r="C127" t="n">
-        <v>0.247053</v>
+        <v>0.241594</v>
       </c>
       <c r="D127" t="n">
-        <v>0.210181</v>
+        <v>0.217586</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.319972</v>
+        <v>0.320848</v>
       </c>
       <c r="C128" t="n">
-        <v>0.245368</v>
+        <v>0.240006</v>
       </c>
       <c r="D128" t="n">
-        <v>0.209172</v>
+        <v>0.216771</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.312365</v>
+        <v>0.313587</v>
       </c>
       <c r="C129" t="n">
-        <v>0.245478</v>
+        <v>0.239899</v>
       </c>
       <c r="D129" t="n">
-        <v>0.207824</v>
+        <v>0.215712</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.30392</v>
+        <v>0.305423</v>
       </c>
       <c r="C130" t="n">
-        <v>0.243771</v>
+        <v>0.238844</v>
       </c>
       <c r="D130" t="n">
-        <v>0.207105</v>
+        <v>0.214943</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.295302</v>
+        <v>0.296326</v>
       </c>
       <c r="C131" t="n">
-        <v>0.2426</v>
+        <v>0.238135</v>
       </c>
       <c r="D131" t="n">
-        <v>0.206364</v>
+        <v>0.214063</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.285862</v>
+        <v>0.286989</v>
       </c>
       <c r="C132" t="n">
-        <v>0.241346</v>
+        <v>0.236627</v>
       </c>
       <c r="D132" t="n">
-        <v>0.205652</v>
+        <v>0.213393</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275637</v>
+        <v>0.276374</v>
       </c>
       <c r="C133" t="n">
-        <v>0.239912</v>
+        <v>0.236107</v>
       </c>
       <c r="D133" t="n">
-        <v>0.20507</v>
+        <v>0.21278</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.264653</v>
+        <v>0.265962</v>
       </c>
       <c r="C134" t="n">
-        <v>0.239385</v>
+        <v>0.235051</v>
       </c>
       <c r="D134" t="n">
-        <v>0.204594</v>
+        <v>0.212116</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.252671</v>
+        <v>0.253745</v>
       </c>
       <c r="C135" t="n">
-        <v>0.239724</v>
+        <v>0.23491</v>
       </c>
       <c r="D135" t="n">
-        <v>0.204061</v>
+        <v>0.211598</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.239657</v>
+        <v>0.240503</v>
       </c>
       <c r="C136" t="n">
-        <v>0.238047</v>
+        <v>0.233489</v>
       </c>
       <c r="D136" t="n">
-        <v>0.203727</v>
+        <v>0.211108</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.226019</v>
+        <v>0.226565</v>
       </c>
       <c r="C137" t="n">
-        <v>0.236645</v>
+        <v>0.233211</v>
       </c>
       <c r="D137" t="n">
-        <v>0.215792</v>
+        <v>0.223089</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.348235</v>
+        <v>0.349329</v>
       </c>
       <c r="C138" t="n">
-        <v>0.253061</v>
+        <v>0.246341</v>
       </c>
       <c r="D138" t="n">
-        <v>0.213716</v>
+        <v>0.221808</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.342286</v>
+        <v>0.343484</v>
       </c>
       <c r="C139" t="n">
-        <v>0.251411</v>
+        <v>0.245</v>
       </c>
       <c r="D139" t="n">
-        <v>0.212661</v>
+        <v>0.220421</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.336163</v>
+        <v>0.33687</v>
       </c>
       <c r="C140" t="n">
-        <v>0.249642</v>
+        <v>0.244267</v>
       </c>
       <c r="D140" t="n">
-        <v>0.211681</v>
+        <v>0.219172</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.329367</v>
+        <v>0.330062</v>
       </c>
       <c r="C141" t="n">
-        <v>0.249179</v>
+        <v>0.242555</v>
       </c>
       <c r="D141" t="n">
-        <v>0.210737</v>
+        <v>0.218022</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.32192</v>
+        <v>0.322816</v>
       </c>
       <c r="C142" t="n">
-        <v>0.247653</v>
+        <v>0.241544</v>
       </c>
       <c r="D142" t="n">
-        <v>0.209792</v>
+        <v>0.217181</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.314072</v>
+        <v>0.315712</v>
       </c>
       <c r="C143" t="n">
-        <v>0.247881</v>
+        <v>0.24069</v>
       </c>
       <c r="D143" t="n">
-        <v>0.208704</v>
+        <v>0.216382</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.299493</v>
+        <v>0.30182</v>
       </c>
       <c r="C2" t="n">
-        <v>0.220723</v>
+        <v>0.223106</v>
       </c>
       <c r="D2" t="n">
-        <v>0.197184</v>
+        <v>0.19748</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.290151</v>
+        <v>0.28883</v>
       </c>
       <c r="C3" t="n">
-        <v>0.222479</v>
+        <v>0.221023</v>
       </c>
       <c r="D3" t="n">
-        <v>0.19998</v>
+        <v>0.198741</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.28152</v>
+        <v>0.280692</v>
       </c>
       <c r="C4" t="n">
-        <v>0.220508</v>
+        <v>0.222037</v>
       </c>
       <c r="D4" t="n">
-        <v>0.199809</v>
+        <v>0.199644</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.271307</v>
+        <v>0.271311</v>
       </c>
       <c r="C5" t="n">
-        <v>0.220355</v>
+        <v>0.222095</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1997</v>
+        <v>0.199731</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.259678</v>
+        <v>0.260556</v>
       </c>
       <c r="C6" t="n">
-        <v>0.220936</v>
+        <v>0.223721</v>
       </c>
       <c r="D6" t="n">
-        <v>0.200541</v>
+        <v>0.201736</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.247533</v>
+        <v>0.247101</v>
       </c>
       <c r="C7" t="n">
-        <v>0.220372</v>
+        <v>0.223208</v>
       </c>
       <c r="D7" t="n">
-        <v>0.200237</v>
+        <v>0.202003</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.235455</v>
+        <v>0.235052</v>
       </c>
       <c r="C8" t="n">
-        <v>0.219209</v>
+        <v>0.223168</v>
       </c>
       <c r="D8" t="n">
-        <v>0.200564</v>
+        <v>0.201505</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.219733</v>
+        <v>0.220323</v>
       </c>
       <c r="C9" t="n">
-        <v>0.221178</v>
+        <v>0.223823</v>
       </c>
       <c r="D9" t="n">
-        <v>0.214956</v>
+        <v>0.214963</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.344897</v>
+        <v>0.342282</v>
       </c>
       <c r="C10" t="n">
-        <v>0.23881</v>
+        <v>0.242542</v>
       </c>
       <c r="D10" t="n">
-        <v>0.214924</v>
+        <v>0.214477</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.337792</v>
+        <v>0.336067</v>
       </c>
       <c r="C11" t="n">
-        <v>0.247496</v>
+        <v>0.239889</v>
       </c>
       <c r="D11" t="n">
-        <v>0.213593</v>
+        <v>0.216676</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.330575</v>
+        <v>0.329829</v>
       </c>
       <c r="C12" t="n">
-        <v>0.252686</v>
+        <v>0.240025</v>
       </c>
       <c r="D12" t="n">
-        <v>0.213964</v>
+        <v>0.213041</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.324199</v>
+        <v>0.323876</v>
       </c>
       <c r="C13" t="n">
-        <v>0.237286</v>
+        <v>0.238133</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212615</v>
+        <v>0.211665</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.317813</v>
+        <v>0.316409</v>
       </c>
       <c r="C14" t="n">
-        <v>0.237857</v>
+        <v>0.236604</v>
       </c>
       <c r="D14" t="n">
-        <v>0.211689</v>
+        <v>0.210369</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.309475</v>
+        <v>0.309819</v>
       </c>
       <c r="C15" t="n">
-        <v>0.233159</v>
+        <v>0.235459</v>
       </c>
       <c r="D15" t="n">
-        <v>0.211489</v>
+        <v>0.210627</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.300616</v>
+        <v>0.309921</v>
       </c>
       <c r="C16" t="n">
-        <v>0.235758</v>
+        <v>0.235469</v>
       </c>
       <c r="D16" t="n">
-        <v>0.210632</v>
+        <v>0.209314</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.293073</v>
+        <v>0.293702</v>
       </c>
       <c r="C17" t="n">
-        <v>0.234433</v>
+        <v>0.236011</v>
       </c>
       <c r="D17" t="n">
-        <v>0.209171</v>
+        <v>0.2091</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.284455</v>
+        <v>0.284162</v>
       </c>
       <c r="C18" t="n">
-        <v>0.232418</v>
+        <v>0.234792</v>
       </c>
       <c r="D18" t="n">
-        <v>0.210322</v>
+        <v>0.208364</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.275676</v>
+        <v>0.274986</v>
       </c>
       <c r="C19" t="n">
-        <v>0.230437</v>
+        <v>0.233713</v>
       </c>
       <c r="D19" t="n">
-        <v>0.209163</v>
+        <v>0.207519</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.264873</v>
+        <v>0.264412</v>
       </c>
       <c r="C20" t="n">
-        <v>0.229976</v>
+        <v>0.231274</v>
       </c>
       <c r="D20" t="n">
-        <v>0.208206</v>
+        <v>0.207232</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.252042</v>
+        <v>0.256334</v>
       </c>
       <c r="C21" t="n">
-        <v>0.244911</v>
+        <v>0.234808</v>
       </c>
       <c r="D21" t="n">
-        <v>0.209123</v>
+        <v>0.208848</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2388</v>
+        <v>0.238699</v>
       </c>
       <c r="C22" t="n">
-        <v>0.235233</v>
+        <v>0.231725</v>
       </c>
       <c r="D22" t="n">
-        <v>0.208547</v>
+        <v>0.20824</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.225714</v>
+        <v>0.225538</v>
       </c>
       <c r="C23" t="n">
-        <v>0.234786</v>
+        <v>0.233283</v>
       </c>
       <c r="D23" t="n">
-        <v>0.219702</v>
+        <v>0.218871</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.346871</v>
+        <v>0.348278</v>
       </c>
       <c r="C24" t="n">
-        <v>0.253818</v>
+        <v>0.251512</v>
       </c>
       <c r="D24" t="n">
-        <v>0.218455</v>
+        <v>0.218304</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342184</v>
+        <v>0.342201</v>
       </c>
       <c r="C25" t="n">
-        <v>0.244866</v>
+        <v>0.252086</v>
       </c>
       <c r="D25" t="n">
-        <v>0.217232</v>
+        <v>0.216215</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.333917</v>
+        <v>0.335081</v>
       </c>
       <c r="C26" t="n">
-        <v>0.239689</v>
+        <v>0.243619</v>
       </c>
       <c r="D26" t="n">
-        <v>0.215226</v>
+        <v>0.215289</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.327352</v>
+        <v>0.328908</v>
       </c>
       <c r="C27" t="n">
-        <v>0.240485</v>
+        <v>0.241839</v>
       </c>
       <c r="D27" t="n">
-        <v>0.214703</v>
+        <v>0.214322</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.320692</v>
+        <v>0.321822</v>
       </c>
       <c r="C28" t="n">
-        <v>0.239757</v>
+        <v>0.240839</v>
       </c>
       <c r="D28" t="n">
-        <v>0.213304</v>
+        <v>0.213498</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.313166</v>
+        <v>0.31439</v>
       </c>
       <c r="C29" t="n">
-        <v>0.236036</v>
+        <v>0.238067</v>
       </c>
       <c r="D29" t="n">
-        <v>0.212393</v>
+        <v>0.212352</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.305525</v>
+        <v>0.306435</v>
       </c>
       <c r="C30" t="n">
-        <v>0.241657</v>
+        <v>0.238719</v>
       </c>
       <c r="D30" t="n">
-        <v>0.211625</v>
+        <v>0.21164</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.297586</v>
+        <v>0.299423</v>
       </c>
       <c r="C31" t="n">
-        <v>0.238582</v>
+        <v>0.237761</v>
       </c>
       <c r="D31" t="n">
-        <v>0.210972</v>
+        <v>0.210796</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.288274</v>
+        <v>0.289375</v>
       </c>
       <c r="C32" t="n">
-        <v>0.233376</v>
+        <v>0.244464</v>
       </c>
       <c r="D32" t="n">
-        <v>0.210619</v>
+        <v>0.211099</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.279158</v>
+        <v>0.279932</v>
       </c>
       <c r="C33" t="n">
-        <v>0.235712</v>
+        <v>0.237453</v>
       </c>
       <c r="D33" t="n">
-        <v>0.210686</v>
+        <v>0.210669</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.268491</v>
+        <v>0.269725</v>
       </c>
       <c r="C34" t="n">
-        <v>0.235583</v>
+        <v>0.236306</v>
       </c>
       <c r="D34" t="n">
-        <v>0.210505</v>
+        <v>0.210643</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.257681</v>
+        <v>0.257398</v>
       </c>
       <c r="C35" t="n">
-        <v>0.235202</v>
+        <v>0.236147</v>
       </c>
       <c r="D35" t="n">
-        <v>0.210496</v>
+        <v>0.210249</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244295</v>
+        <v>0.244616</v>
       </c>
       <c r="C36" t="n">
-        <v>0.242901</v>
+        <v>0.235655</v>
       </c>
       <c r="D36" t="n">
-        <v>0.209185</v>
+        <v>0.209089</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.231299</v>
+        <v>0.231358</v>
       </c>
       <c r="C37" t="n">
-        <v>0.243941</v>
+        <v>0.234453</v>
       </c>
       <c r="D37" t="n">
-        <v>0.220101</v>
+        <v>0.220048</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.348877</v>
+        <v>0.348732</v>
       </c>
       <c r="C38" t="n">
-        <v>0.243674</v>
+        <v>0.247681</v>
       </c>
       <c r="D38" t="n">
-        <v>0.21901</v>
+        <v>0.219111</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.343336</v>
+        <v>0.342671</v>
       </c>
       <c r="C39" t="n">
-        <v>0.242395</v>
+        <v>0.246582</v>
       </c>
       <c r="D39" t="n">
-        <v>0.217665</v>
+        <v>0.217719</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.337622</v>
+        <v>0.336676</v>
       </c>
       <c r="C40" t="n">
-        <v>0.239952</v>
+        <v>0.245415</v>
       </c>
       <c r="D40" t="n">
-        <v>0.216775</v>
+        <v>0.216578</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.330643</v>
+        <v>0.330284</v>
       </c>
       <c r="C41" t="n">
-        <v>0.239597</v>
+        <v>0.244315</v>
       </c>
       <c r="D41" t="n">
-        <v>0.216072</v>
+        <v>0.215642</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.323734</v>
+        <v>0.323845</v>
       </c>
       <c r="C42" t="n">
-        <v>0.238546</v>
+        <v>0.243058</v>
       </c>
       <c r="D42" t="n">
-        <v>0.215116</v>
+        <v>0.215419</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.317058</v>
+        <v>0.317719</v>
       </c>
       <c r="C43" t="n">
-        <v>0.237697</v>
+        <v>0.242272</v>
       </c>
       <c r="D43" t="n">
-        <v>0.21567</v>
+        <v>0.21474</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.309403</v>
+        <v>0.309707</v>
       </c>
       <c r="C44" t="n">
-        <v>0.237304</v>
+        <v>0.242215</v>
       </c>
       <c r="D44" t="n">
-        <v>0.215272</v>
+        <v>0.214317</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300776</v>
+        <v>0.30164</v>
       </c>
       <c r="C45" t="n">
-        <v>0.23636</v>
+        <v>0.240497</v>
       </c>
       <c r="D45" t="n">
-        <v>0.21408</v>
+        <v>0.213146</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291779</v>
+        <v>0.292604</v>
       </c>
       <c r="C46" t="n">
-        <v>0.235559</v>
+        <v>0.240494</v>
       </c>
       <c r="D46" t="n">
-        <v>0.213165</v>
+        <v>0.212364</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.282143</v>
+        <v>0.283199</v>
       </c>
       <c r="C47" t="n">
-        <v>0.23524</v>
+        <v>0.240161</v>
       </c>
       <c r="D47" t="n">
-        <v>0.213486</v>
+        <v>0.212065</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.271634</v>
+        <v>0.272084</v>
       </c>
       <c r="C48" t="n">
-        <v>0.234545</v>
+        <v>0.239001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.212995</v>
+        <v>0.21137</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.260165</v>
+        <v>0.26071</v>
       </c>
       <c r="C49" t="n">
-        <v>0.233489</v>
+        <v>0.240821</v>
       </c>
       <c r="D49" t="n">
-        <v>0.211649</v>
+        <v>0.210302</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.247918</v>
+        <v>0.248162</v>
       </c>
       <c r="C50" t="n">
-        <v>0.232842</v>
+        <v>0.240164</v>
       </c>
       <c r="D50" t="n">
-        <v>0.210989</v>
+        <v>0.210107</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.234514</v>
+        <v>0.234697</v>
       </c>
       <c r="C51" t="n">
-        <v>0.232741</v>
+        <v>0.238799</v>
       </c>
       <c r="D51" t="n">
-        <v>0.224231</v>
+        <v>0.222301</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2207</v>
+        <v>0.221115</v>
       </c>
       <c r="C52" t="n">
-        <v>0.23188</v>
+        <v>0.238356</v>
       </c>
       <c r="D52" t="n">
-        <v>0.221757</v>
+        <v>0.220764</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.345829</v>
+        <v>0.345905</v>
       </c>
       <c r="C53" t="n">
-        <v>0.243822</v>
+        <v>0.249055</v>
       </c>
       <c r="D53" t="n">
-        <v>0.220817</v>
+        <v>0.219199</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.3403</v>
+        <v>0.340374</v>
       </c>
       <c r="C54" t="n">
-        <v>0.242683</v>
+        <v>0.247736</v>
       </c>
       <c r="D54" t="n">
-        <v>0.219307</v>
+        <v>0.218083</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.333962</v>
+        <v>0.334637</v>
       </c>
       <c r="C55" t="n">
-        <v>0.241436</v>
+        <v>0.247007</v>
       </c>
       <c r="D55" t="n">
-        <v>0.218865</v>
+        <v>0.217317</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.327441</v>
+        <v>0.328177</v>
       </c>
       <c r="C56" t="n">
-        <v>0.241237</v>
+        <v>0.245727</v>
       </c>
       <c r="D56" t="n">
-        <v>0.217546</v>
+        <v>0.216345</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.319841</v>
+        <v>0.320983</v>
       </c>
       <c r="C57" t="n">
-        <v>0.240677</v>
+        <v>0.245114</v>
       </c>
       <c r="D57" t="n">
-        <v>0.216578</v>
+        <v>0.215442</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.312034</v>
+        <v>0.312694</v>
       </c>
       <c r="C58" t="n">
-        <v>0.23925</v>
+        <v>0.244222</v>
       </c>
       <c r="D58" t="n">
-        <v>0.216246</v>
+        <v>0.214796</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.303491</v>
+        <v>0.304382</v>
       </c>
       <c r="C59" t="n">
-        <v>0.237754</v>
+        <v>0.243271</v>
       </c>
       <c r="D59" t="n">
-        <v>0.215755</v>
+        <v>0.213922</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294571</v>
+        <v>0.295666</v>
       </c>
       <c r="C60" t="n">
-        <v>0.237557</v>
+        <v>0.242224</v>
       </c>
       <c r="D60" t="n">
-        <v>0.215372</v>
+        <v>0.213682</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.285192</v>
+        <v>0.286042</v>
       </c>
       <c r="C61" t="n">
-        <v>0.236715</v>
+        <v>0.242149</v>
       </c>
       <c r="D61" t="n">
-        <v>0.214365</v>
+        <v>0.213104</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.27507</v>
+        <v>0.275734</v>
       </c>
       <c r="C62" t="n">
-        <v>0.235956</v>
+        <v>0.241445</v>
       </c>
       <c r="D62" t="n">
-        <v>0.213576</v>
+        <v>0.212552</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263775</v>
+        <v>0.264865</v>
       </c>
       <c r="C63" t="n">
-        <v>0.234775</v>
+        <v>0.24055</v>
       </c>
       <c r="D63" t="n">
-        <v>0.212964</v>
+        <v>0.211551</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.252007</v>
+        <v>0.25254</v>
       </c>
       <c r="C64" t="n">
-        <v>0.234802</v>
+        <v>0.239423</v>
       </c>
       <c r="D64" t="n">
-        <v>0.211929</v>
+        <v>0.211207</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.239053</v>
+        <v>0.239309</v>
       </c>
       <c r="C65" t="n">
-        <v>0.233899</v>
+        <v>0.238991</v>
       </c>
       <c r="D65" t="n">
-        <v>0.211484</v>
+        <v>0.210618</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.224721</v>
+        <v>0.225043</v>
       </c>
       <c r="C66" t="n">
-        <v>0.232968</v>
+        <v>0.238252</v>
       </c>
       <c r="D66" t="n">
-        <v>0.221588</v>
+        <v>0.22101</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.347567</v>
+        <v>0.347521</v>
       </c>
       <c r="C67" t="n">
-        <v>0.24446</v>
+        <v>0.25035</v>
       </c>
       <c r="D67" t="n">
-        <v>0.220258</v>
+        <v>0.220014</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.342204</v>
+        <v>0.342651</v>
       </c>
       <c r="C68" t="n">
-        <v>0.242906</v>
+        <v>0.248815</v>
       </c>
       <c r="D68" t="n">
-        <v>0.219316</v>
+        <v>0.218826</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.335895</v>
+        <v>0.335915</v>
       </c>
       <c r="C69" t="n">
-        <v>0.24217</v>
+        <v>0.247843</v>
       </c>
       <c r="D69" t="n">
-        <v>0.218243</v>
+        <v>0.217809</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.329142</v>
+        <v>0.329222</v>
       </c>
       <c r="C70" t="n">
-        <v>0.241625</v>
+        <v>0.246994</v>
       </c>
       <c r="D70" t="n">
-        <v>0.217229</v>
+        <v>0.216855</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.321608</v>
+        <v>0.322109</v>
       </c>
       <c r="C71" t="n">
-        <v>0.240519</v>
+        <v>0.245531</v>
       </c>
       <c r="D71" t="n">
-        <v>0.216405</v>
+        <v>0.21568</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.313764</v>
+        <v>0.314436</v>
       </c>
       <c r="C72" t="n">
-        <v>0.240172</v>
+        <v>0.244892</v>
       </c>
       <c r="D72" t="n">
-        <v>0.21552</v>
+        <v>0.214812</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.305043</v>
+        <v>0.305394</v>
       </c>
       <c r="C73" t="n">
-        <v>0.238405</v>
+        <v>0.243774</v>
       </c>
       <c r="D73" t="n">
-        <v>0.214526</v>
+        <v>0.213902</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.29637</v>
+        <v>0.296941</v>
       </c>
       <c r="C74" t="n">
-        <v>0.237989</v>
+        <v>0.243183</v>
       </c>
       <c r="D74" t="n">
-        <v>0.213299</v>
+        <v>0.213217</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.286752</v>
+        <v>0.287232</v>
       </c>
       <c r="C75" t="n">
-        <v>0.236866</v>
+        <v>0.242394</v>
       </c>
       <c r="D75" t="n">
-        <v>0.213222</v>
+        <v>0.212615</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.276949</v>
+        <v>0.277653</v>
       </c>
       <c r="C76" t="n">
-        <v>0.236386</v>
+        <v>0.241429</v>
       </c>
       <c r="D76" t="n">
-        <v>0.212416</v>
+        <v>0.211948</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.266133</v>
+        <v>0.267068</v>
       </c>
       <c r="C77" t="n">
-        <v>0.234971</v>
+        <v>0.240578</v>
       </c>
       <c r="D77" t="n">
-        <v>0.211931</v>
+        <v>0.211485</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.25492</v>
+        <v>0.255448</v>
       </c>
       <c r="C78" t="n">
-        <v>0.234231</v>
+        <v>0.239719</v>
       </c>
       <c r="D78" t="n">
-        <v>0.211868</v>
+        <v>0.210968</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.241896</v>
+        <v>0.242547</v>
       </c>
       <c r="C79" t="n">
-        <v>0.234171</v>
+        <v>0.238978</v>
       </c>
       <c r="D79" t="n">
-        <v>0.211373</v>
+        <v>0.210526</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.228013</v>
+        <v>0.228512</v>
       </c>
       <c r="C80" t="n">
-        <v>0.233632</v>
+        <v>0.23799</v>
       </c>
       <c r="D80" t="n">
-        <v>0.222032</v>
+        <v>0.221749</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.349202</v>
+        <v>0.350515</v>
       </c>
       <c r="C81" t="n">
-        <v>0.24524</v>
+        <v>0.250521</v>
       </c>
       <c r="D81" t="n">
-        <v>0.220943</v>
+        <v>0.220462</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.343815</v>
+        <v>0.344801</v>
       </c>
       <c r="C82" t="n">
-        <v>0.243692</v>
+        <v>0.249076</v>
       </c>
       <c r="D82" t="n">
-        <v>0.220203</v>
+        <v>0.219411</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.337513</v>
+        <v>0.338872</v>
       </c>
       <c r="C83" t="n">
-        <v>0.242764</v>
+        <v>0.248325</v>
       </c>
       <c r="D83" t="n">
-        <v>0.218602</v>
+        <v>0.218195</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.331031</v>
+        <v>0.33185</v>
       </c>
       <c r="C84" t="n">
-        <v>0.241763</v>
+        <v>0.246791</v>
       </c>
       <c r="D84" t="n">
-        <v>0.217456</v>
+        <v>0.216985</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.323837</v>
+        <v>0.32537</v>
       </c>
       <c r="C85" t="n">
-        <v>0.240738</v>
+        <v>0.245965</v>
       </c>
       <c r="D85" t="n">
-        <v>0.216749</v>
+        <v>0.216151</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.315868</v>
+        <v>0.317563</v>
       </c>
       <c r="C86" t="n">
-        <v>0.239927</v>
+        <v>0.24506</v>
       </c>
       <c r="D86" t="n">
-        <v>0.215868</v>
+        <v>0.215352</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.307536</v>
+        <v>0.309069</v>
       </c>
       <c r="C87" t="n">
-        <v>0.239144</v>
+        <v>0.244032</v>
       </c>
       <c r="D87" t="n">
-        <v>0.215074</v>
+        <v>0.214443</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.298951</v>
+        <v>0.300443</v>
       </c>
       <c r="C88" t="n">
-        <v>0.238164</v>
+        <v>0.243223</v>
       </c>
       <c r="D88" t="n">
-        <v>0.214445</v>
+        <v>0.213663</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.28957</v>
+        <v>0.29128</v>
       </c>
       <c r="C89" t="n">
-        <v>0.236858</v>
+        <v>0.241942</v>
       </c>
       <c r="D89" t="n">
-        <v>0.213919</v>
+        <v>0.212786</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.279869</v>
+        <v>0.281022</v>
       </c>
       <c r="C90" t="n">
-        <v>0.235802</v>
+        <v>0.241178</v>
       </c>
       <c r="D90" t="n">
-        <v>0.212887</v>
+        <v>0.212308</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.269302</v>
+        <v>0.270135</v>
       </c>
       <c r="C91" t="n">
-        <v>0.234808</v>
+        <v>0.240446</v>
       </c>
       <c r="D91" t="n">
-        <v>0.21249</v>
+        <v>0.211573</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.257372</v>
+        <v>0.258619</v>
       </c>
       <c r="C92" t="n">
-        <v>0.234192</v>
+        <v>0.239622</v>
       </c>
       <c r="D92" t="n">
-        <v>0.211811</v>
+        <v>0.211187</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.244846</v>
+        <v>0.245647</v>
       </c>
       <c r="C93" t="n">
-        <v>0.233618</v>
+        <v>0.238784</v>
       </c>
       <c r="D93" t="n">
-        <v>0.211028</v>
+        <v>0.210671</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.231096</v>
+        <v>0.231524</v>
       </c>
       <c r="C94" t="n">
-        <v>0.233179</v>
+        <v>0.237916</v>
       </c>
       <c r="D94" t="n">
-        <v>0.222504</v>
+        <v>0.221666</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.350259</v>
+        <v>0.351258</v>
       </c>
       <c r="C95" t="n">
-        <v>0.244854</v>
+        <v>0.250384</v>
       </c>
       <c r="D95" t="n">
-        <v>0.221115</v>
+        <v>0.220457</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.345169</v>
+        <v>0.346095</v>
       </c>
       <c r="C96" t="n">
-        <v>0.243795</v>
+        <v>0.249425</v>
       </c>
       <c r="D96" t="n">
-        <v>0.220419</v>
+        <v>0.21923</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.338805</v>
+        <v>0.340204</v>
       </c>
       <c r="C97" t="n">
-        <v>0.242608</v>
+        <v>0.248071</v>
       </c>
       <c r="D97" t="n">
-        <v>0.218876</v>
+        <v>0.218193</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.332334</v>
+        <v>0.333723</v>
       </c>
       <c r="C98" t="n">
-        <v>0.241858</v>
+        <v>0.246938</v>
       </c>
       <c r="D98" t="n">
-        <v>0.218078</v>
+        <v>0.217092</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.325192</v>
+        <v>0.326042</v>
       </c>
       <c r="C99" t="n">
-        <v>0.240793</v>
+        <v>0.245995</v>
       </c>
       <c r="D99" t="n">
-        <v>0.21742</v>
+        <v>0.216032</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.317458</v>
+        <v>0.318811</v>
       </c>
       <c r="C100" t="n">
-        <v>0.239677</v>
+        <v>0.244969</v>
       </c>
       <c r="D100" t="n">
-        <v>0.216261</v>
+        <v>0.214959</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.309367</v>
+        <v>0.310616</v>
       </c>
       <c r="C101" t="n">
-        <v>0.238816</v>
+        <v>0.243722</v>
       </c>
       <c r="D101" t="n">
-        <v>0.215037</v>
+        <v>0.214155</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.300508</v>
+        <v>0.302305</v>
       </c>
       <c r="C102" t="n">
-        <v>0.237851</v>
+        <v>0.243278</v>
       </c>
       <c r="D102" t="n">
-        <v>0.214467</v>
+        <v>0.213435</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.291522</v>
+        <v>0.293202</v>
       </c>
       <c r="C103" t="n">
-        <v>0.237144</v>
+        <v>0.242219</v>
       </c>
       <c r="D103" t="n">
-        <v>0.21375</v>
+        <v>0.212634</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.281867</v>
+        <v>0.283014</v>
       </c>
       <c r="C104" t="n">
-        <v>0.235708</v>
+        <v>0.241329</v>
       </c>
       <c r="D104" t="n">
-        <v>0.213244</v>
+        <v>0.212015</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.271452</v>
+        <v>0.272722</v>
       </c>
       <c r="C105" t="n">
-        <v>0.235377</v>
+        <v>0.240358</v>
       </c>
       <c r="D105" t="n">
-        <v>0.212681</v>
+        <v>0.211485</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.259773</v>
+        <v>0.260757</v>
       </c>
       <c r="C106" t="n">
-        <v>0.234284</v>
+        <v>0.239807</v>
       </c>
       <c r="D106" t="n">
-        <v>0.21213</v>
+        <v>0.211017</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247253</v>
+        <v>0.248409</v>
       </c>
       <c r="C107" t="n">
-        <v>0.233574</v>
+        <v>0.239089</v>
       </c>
       <c r="D107" t="n">
-        <v>0.211385</v>
+        <v>0.210968</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.233879</v>
+        <v>0.234507</v>
       </c>
       <c r="C108" t="n">
-        <v>0.233086</v>
+        <v>0.238163</v>
       </c>
       <c r="D108" t="n">
-        <v>0.223105</v>
+        <v>0.221984</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.219681</v>
+        <v>0.219954</v>
       </c>
       <c r="C109" t="n">
-        <v>0.232438</v>
+        <v>0.237265</v>
       </c>
       <c r="D109" t="n">
-        <v>0.221626</v>
+        <v>0.220593</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.346242</v>
+        <v>0.347591</v>
       </c>
       <c r="C110" t="n">
-        <v>0.244016</v>
+        <v>0.249131</v>
       </c>
       <c r="D110" t="n">
-        <v>0.220635</v>
+        <v>0.219425</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.339954</v>
+        <v>0.341379</v>
       </c>
       <c r="C111" t="n">
-        <v>0.242983</v>
+        <v>0.248271</v>
       </c>
       <c r="D111" t="n">
-        <v>0.21949</v>
+        <v>0.218255</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.333667</v>
+        <v>0.335183</v>
       </c>
       <c r="C112" t="n">
-        <v>0.242393</v>
+        <v>0.24696</v>
       </c>
       <c r="D112" t="n">
-        <v>0.218211</v>
+        <v>0.21725</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.326465</v>
+        <v>0.328186</v>
       </c>
       <c r="C113" t="n">
-        <v>0.240991</v>
+        <v>0.245926</v>
       </c>
       <c r="D113" t="n">
-        <v>0.217484</v>
+        <v>0.216223</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.319005</v>
+        <v>0.321005</v>
       </c>
       <c r="C114" t="n">
-        <v>0.2402</v>
+        <v>0.244931</v>
       </c>
       <c r="D114" t="n">
-        <v>0.216535</v>
+        <v>0.21527</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.311405</v>
+        <v>0.313142</v>
       </c>
       <c r="C115" t="n">
-        <v>0.239081</v>
+        <v>0.244191</v>
       </c>
       <c r="D115" t="n">
-        <v>0.215651</v>
+        <v>0.214465</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.30266</v>
+        <v>0.304437</v>
       </c>
       <c r="C116" t="n">
-        <v>0.238387</v>
+        <v>0.243275</v>
       </c>
       <c r="D116" t="n">
-        <v>0.214712</v>
+        <v>0.213674</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293747</v>
+        <v>0.295737</v>
       </c>
       <c r="C117" t="n">
-        <v>0.237615</v>
+        <v>0.242271</v>
       </c>
       <c r="D117" t="n">
-        <v>0.214197</v>
+        <v>0.212911</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.284132</v>
+        <v>0.286135</v>
       </c>
       <c r="C118" t="n">
-        <v>0.236951</v>
+        <v>0.241314</v>
       </c>
       <c r="D118" t="n">
-        <v>0.21331</v>
+        <v>0.212253</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.273753</v>
+        <v>0.275545</v>
       </c>
       <c r="C119" t="n">
-        <v>0.236222</v>
+        <v>0.240453</v>
       </c>
       <c r="D119" t="n">
-        <v>0.21261</v>
+        <v>0.211614</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.262602</v>
+        <v>0.263825</v>
       </c>
       <c r="C120" t="n">
-        <v>0.23441</v>
+        <v>0.239575</v>
       </c>
       <c r="D120" t="n">
-        <v>0.211943</v>
+        <v>0.211019</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.250252</v>
+        <v>0.251481</v>
       </c>
       <c r="C121" t="n">
-        <v>0.234951</v>
+        <v>0.238737</v>
       </c>
       <c r="D121" t="n">
-        <v>0.211508</v>
+        <v>0.210533</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.237172</v>
+        <v>0.238236</v>
       </c>
       <c r="C122" t="n">
-        <v>0.233216</v>
+        <v>0.237821</v>
       </c>
       <c r="D122" t="n">
-        <v>0.210893</v>
+        <v>0.210143</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.223036</v>
+        <v>0.223811</v>
       </c>
       <c r="C123" t="n">
-        <v>0.232454</v>
+        <v>0.236961</v>
       </c>
       <c r="D123" t="n">
-        <v>0.222464</v>
+        <v>0.221104</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.347227</v>
+        <v>0.348923</v>
       </c>
       <c r="C124" t="n">
-        <v>0.245061</v>
+        <v>0.249377</v>
       </c>
       <c r="D124" t="n">
-        <v>0.221294</v>
+        <v>0.219834</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.341631</v>
+        <v>0.343008</v>
       </c>
       <c r="C125" t="n">
-        <v>0.243877</v>
+        <v>0.248327</v>
       </c>
       <c r="D125" t="n">
-        <v>0.220161</v>
+        <v>0.218646</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.335067</v>
+        <v>0.336307</v>
       </c>
       <c r="C126" t="n">
-        <v>0.242809</v>
+        <v>0.246722</v>
       </c>
       <c r="D126" t="n">
-        <v>0.218772</v>
+        <v>0.217533</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.328268</v>
+        <v>0.330109</v>
       </c>
       <c r="C127" t="n">
-        <v>0.241594</v>
+        <v>0.245632</v>
       </c>
       <c r="D127" t="n">
-        <v>0.217586</v>
+        <v>0.216524</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.320848</v>
+        <v>0.322504</v>
       </c>
       <c r="C128" t="n">
-        <v>0.240006</v>
+        <v>0.245027</v>
       </c>
       <c r="D128" t="n">
-        <v>0.216771</v>
+        <v>0.215472</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.313587</v>
+        <v>0.315228</v>
       </c>
       <c r="C129" t="n">
-        <v>0.239899</v>
+        <v>0.243937</v>
       </c>
       <c r="D129" t="n">
-        <v>0.215712</v>
+        <v>0.214785</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.305423</v>
+        <v>0.306396</v>
       </c>
       <c r="C130" t="n">
-        <v>0.238844</v>
+        <v>0.242764</v>
       </c>
       <c r="D130" t="n">
-        <v>0.214943</v>
+        <v>0.213565</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.296326</v>
+        <v>0.297913</v>
       </c>
       <c r="C131" t="n">
-        <v>0.238135</v>
+        <v>0.24208</v>
       </c>
       <c r="D131" t="n">
-        <v>0.214063</v>
+        <v>0.212967</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.286989</v>
+        <v>0.288612</v>
       </c>
       <c r="C132" t="n">
-        <v>0.236627</v>
+        <v>0.241193</v>
       </c>
       <c r="D132" t="n">
-        <v>0.213393</v>
+        <v>0.212259</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.276374</v>
+        <v>0.278369</v>
       </c>
       <c r="C133" t="n">
-        <v>0.236107</v>
+        <v>0.240372</v>
       </c>
       <c r="D133" t="n">
-        <v>0.21278</v>
+        <v>0.211701</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.265962</v>
+        <v>0.266918</v>
       </c>
       <c r="C134" t="n">
-        <v>0.235051</v>
+        <v>0.239531</v>
       </c>
       <c r="D134" t="n">
-        <v>0.212116</v>
+        <v>0.211121</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.253745</v>
+        <v>0.254804</v>
       </c>
       <c r="C135" t="n">
-        <v>0.23491</v>
+        <v>0.239046</v>
       </c>
       <c r="D135" t="n">
-        <v>0.211598</v>
+        <v>0.210553</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.240503</v>
+        <v>0.241782</v>
       </c>
       <c r="C136" t="n">
-        <v>0.233489</v>
+        <v>0.238018</v>
       </c>
       <c r="D136" t="n">
-        <v>0.211108</v>
+        <v>0.210177</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.226565</v>
+        <v>0.227073</v>
       </c>
       <c r="C137" t="n">
-        <v>0.233211</v>
+        <v>0.237158</v>
       </c>
       <c r="D137" t="n">
-        <v>0.223089</v>
+        <v>0.22164</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.349329</v>
+        <v>0.349917</v>
       </c>
       <c r="C138" t="n">
-        <v>0.246341</v>
+        <v>0.250142</v>
       </c>
       <c r="D138" t="n">
-        <v>0.221808</v>
+        <v>0.220139</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.343484</v>
+        <v>0.344508</v>
       </c>
       <c r="C139" t="n">
-        <v>0.245</v>
+        <v>0.248472</v>
       </c>
       <c r="D139" t="n">
-        <v>0.220421</v>
+        <v>0.219047</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.33687</v>
+        <v>0.338195</v>
       </c>
       <c r="C140" t="n">
-        <v>0.244267</v>
+        <v>0.247522</v>
       </c>
       <c r="D140" t="n">
-        <v>0.219172</v>
+        <v>0.217929</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.330062</v>
+        <v>0.331641</v>
       </c>
       <c r="C141" t="n">
-        <v>0.242555</v>
+        <v>0.246434</v>
       </c>
       <c r="D141" t="n">
-        <v>0.218022</v>
+        <v>0.217203</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.322816</v>
+        <v>0.324563</v>
       </c>
       <c r="C142" t="n">
-        <v>0.241544</v>
+        <v>0.245742</v>
       </c>
       <c r="D142" t="n">
-        <v>0.217181</v>
+        <v>0.215852</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.315712</v>
+        <v>0.316863</v>
       </c>
       <c r="C143" t="n">
-        <v>0.24069</v>
+        <v>0.244735</v>
       </c>
       <c r="D143" t="n">
-        <v>0.216382</v>
+        <v>0.215582</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.30182</v>
+        <v>0.294883</v>
       </c>
       <c r="C2" t="n">
-        <v>0.223106</v>
+        <v>0.22185</v>
       </c>
       <c r="D2" t="n">
-        <v>0.19748</v>
+        <v>0.197826</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.28883</v>
+        <v>0.287324</v>
       </c>
       <c r="C3" t="n">
-        <v>0.221023</v>
+        <v>0.223563</v>
       </c>
       <c r="D3" t="n">
-        <v>0.198741</v>
+        <v>0.196985</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.280692</v>
+        <v>0.280095</v>
       </c>
       <c r="C4" t="n">
-        <v>0.222037</v>
+        <v>0.222781</v>
       </c>
       <c r="D4" t="n">
-        <v>0.199644</v>
+        <v>0.199131</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.271311</v>
+        <v>0.268736</v>
       </c>
       <c r="C5" t="n">
-        <v>0.222095</v>
+        <v>0.222339</v>
       </c>
       <c r="D5" t="n">
-        <v>0.199731</v>
+        <v>0.199218</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.260556</v>
+        <v>0.25707</v>
       </c>
       <c r="C6" t="n">
-        <v>0.223721</v>
+        <v>0.222693</v>
       </c>
       <c r="D6" t="n">
-        <v>0.201736</v>
+        <v>0.199451</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.247101</v>
+        <v>0.242056</v>
       </c>
       <c r="C7" t="n">
-        <v>0.223208</v>
+        <v>0.223947</v>
       </c>
       <c r="D7" t="n">
-        <v>0.202003</v>
+        <v>0.200487</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.235052</v>
+        <v>0.229932</v>
       </c>
       <c r="C8" t="n">
-        <v>0.223168</v>
+        <v>0.223231</v>
       </c>
       <c r="D8" t="n">
-        <v>0.201505</v>
+        <v>0.201237</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.220323</v>
+        <v>0.216749</v>
       </c>
       <c r="C9" t="n">
-        <v>0.223823</v>
+        <v>0.22414</v>
       </c>
       <c r="D9" t="n">
-        <v>0.214963</v>
+        <v>0.215532</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.342282</v>
+        <v>0.341242</v>
       </c>
       <c r="C10" t="n">
-        <v>0.242542</v>
+        <v>0.240629</v>
       </c>
       <c r="D10" t="n">
-        <v>0.214477</v>
+        <v>0.2139</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.336067</v>
+        <v>0.335751</v>
       </c>
       <c r="C11" t="n">
-        <v>0.239889</v>
+        <v>0.241139</v>
       </c>
       <c r="D11" t="n">
-        <v>0.216676</v>
+        <v>0.212706</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.329829</v>
+        <v>0.331794</v>
       </c>
       <c r="C12" t="n">
-        <v>0.240025</v>
+        <v>0.239131</v>
       </c>
       <c r="D12" t="n">
-        <v>0.213041</v>
+        <v>0.212657</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.323876</v>
+        <v>0.324581</v>
       </c>
       <c r="C13" t="n">
-        <v>0.238133</v>
+        <v>0.238665</v>
       </c>
       <c r="D13" t="n">
-        <v>0.211665</v>
+        <v>0.212009</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.316409</v>
+        <v>0.316926</v>
       </c>
       <c r="C14" t="n">
-        <v>0.236604</v>
+        <v>0.237828</v>
       </c>
       <c r="D14" t="n">
-        <v>0.210369</v>
+        <v>0.21135</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.309819</v>
+        <v>0.309048</v>
       </c>
       <c r="C15" t="n">
-        <v>0.235459</v>
+        <v>0.238182</v>
       </c>
       <c r="D15" t="n">
-        <v>0.210627</v>
+        <v>0.210664</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.309921</v>
+        <v>0.302247</v>
       </c>
       <c r="C16" t="n">
-        <v>0.235469</v>
+        <v>0.235965</v>
       </c>
       <c r="D16" t="n">
-        <v>0.209314</v>
+        <v>0.209576</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.293702</v>
+        <v>0.294515</v>
       </c>
       <c r="C17" t="n">
-        <v>0.236011</v>
+        <v>0.235967</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2091</v>
+        <v>0.208553</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.284162</v>
+        <v>0.284871</v>
       </c>
       <c r="C18" t="n">
-        <v>0.234792</v>
+        <v>0.235158</v>
       </c>
       <c r="D18" t="n">
-        <v>0.208364</v>
+        <v>0.207957</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.274986</v>
+        <v>0.276721</v>
       </c>
       <c r="C19" t="n">
-        <v>0.233713</v>
+        <v>0.233593</v>
       </c>
       <c r="D19" t="n">
-        <v>0.207519</v>
+        <v>0.207791</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.264412</v>
+        <v>0.264395</v>
       </c>
       <c r="C20" t="n">
-        <v>0.231274</v>
+        <v>0.234549</v>
       </c>
       <c r="D20" t="n">
-        <v>0.207232</v>
+        <v>0.208232</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.256334</v>
+        <v>0.252592</v>
       </c>
       <c r="C21" t="n">
-        <v>0.234808</v>
+        <v>0.233979</v>
       </c>
       <c r="D21" t="n">
-        <v>0.208848</v>
+        <v>0.209072</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.238699</v>
+        <v>0.239884</v>
       </c>
       <c r="C22" t="n">
-        <v>0.231725</v>
+        <v>0.232625</v>
       </c>
       <c r="D22" t="n">
-        <v>0.20824</v>
+        <v>0.207754</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.225538</v>
+        <v>0.226334</v>
       </c>
       <c r="C23" t="n">
-        <v>0.233283</v>
+        <v>0.231116</v>
       </c>
       <c r="D23" t="n">
-        <v>0.218871</v>
+        <v>0.220266</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348278</v>
+        <v>0.350489</v>
       </c>
       <c r="C24" t="n">
-        <v>0.251512</v>
+        <v>0.255458</v>
       </c>
       <c r="D24" t="n">
-        <v>0.218304</v>
+        <v>0.218662</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342201</v>
+        <v>0.34275</v>
       </c>
       <c r="C25" t="n">
-        <v>0.252086</v>
+        <v>0.244371</v>
       </c>
       <c r="D25" t="n">
-        <v>0.216215</v>
+        <v>0.217409</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.335081</v>
+        <v>0.33336</v>
       </c>
       <c r="C26" t="n">
-        <v>0.243619</v>
+        <v>0.24499</v>
       </c>
       <c r="D26" t="n">
-        <v>0.215289</v>
+        <v>0.215517</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328908</v>
+        <v>0.329391</v>
       </c>
       <c r="C27" t="n">
-        <v>0.241839</v>
+        <v>0.242206</v>
       </c>
       <c r="D27" t="n">
-        <v>0.214322</v>
+        <v>0.214915</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.321822</v>
+        <v>0.322741</v>
       </c>
       <c r="C28" t="n">
-        <v>0.240839</v>
+        <v>0.241991</v>
       </c>
       <c r="D28" t="n">
-        <v>0.213498</v>
+        <v>0.214395</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.31439</v>
+        <v>0.3153</v>
       </c>
       <c r="C29" t="n">
-        <v>0.238067</v>
+        <v>0.240137</v>
       </c>
       <c r="D29" t="n">
-        <v>0.212352</v>
+        <v>0.213234</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.306435</v>
+        <v>0.306949</v>
       </c>
       <c r="C30" t="n">
-        <v>0.238719</v>
+        <v>0.236659</v>
       </c>
       <c r="D30" t="n">
-        <v>0.21164</v>
+        <v>0.211723</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.299423</v>
+        <v>0.297436</v>
       </c>
       <c r="C31" t="n">
-        <v>0.237761</v>
+        <v>0.243843</v>
       </c>
       <c r="D31" t="n">
-        <v>0.210796</v>
+        <v>0.211314</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.289375</v>
+        <v>0.289208</v>
       </c>
       <c r="C32" t="n">
-        <v>0.244464</v>
+        <v>0.238019</v>
       </c>
       <c r="D32" t="n">
-        <v>0.211099</v>
+        <v>0.211175</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.279932</v>
+        <v>0.279877</v>
       </c>
       <c r="C33" t="n">
-        <v>0.237453</v>
+        <v>0.239734</v>
       </c>
       <c r="D33" t="n">
-        <v>0.210669</v>
+        <v>0.2106</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.269725</v>
+        <v>0.26892</v>
       </c>
       <c r="C34" t="n">
-        <v>0.236306</v>
+        <v>0.236485</v>
       </c>
       <c r="D34" t="n">
-        <v>0.210643</v>
+        <v>0.21037</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.257398</v>
+        <v>0.261192</v>
       </c>
       <c r="C35" t="n">
-        <v>0.236147</v>
+        <v>0.237496</v>
       </c>
       <c r="D35" t="n">
-        <v>0.210249</v>
+        <v>0.209855</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244616</v>
+        <v>0.245157</v>
       </c>
       <c r="C36" t="n">
-        <v>0.235655</v>
+        <v>0.243049</v>
       </c>
       <c r="D36" t="n">
-        <v>0.209089</v>
+        <v>0.209869</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.231358</v>
+        <v>0.232959</v>
       </c>
       <c r="C37" t="n">
-        <v>0.234453</v>
+        <v>0.234255</v>
       </c>
       <c r="D37" t="n">
-        <v>0.220048</v>
+        <v>0.220618</v>
       </c>
     </row>
     <row r="38">
@@ -3756,10 +3756,10 @@
         <v>0.348732</v>
       </c>
       <c r="C38" t="n">
-        <v>0.247681</v>
+        <v>0.249458</v>
       </c>
       <c r="D38" t="n">
-        <v>0.219111</v>
+        <v>0.219681</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.342671</v>
+        <v>0.342531</v>
       </c>
       <c r="C39" t="n">
-        <v>0.246582</v>
+        <v>0.247677</v>
       </c>
       <c r="D39" t="n">
-        <v>0.217719</v>
+        <v>0.218204</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.336676</v>
+        <v>0.335952</v>
       </c>
       <c r="C40" t="n">
-        <v>0.245415</v>
+        <v>0.246553</v>
       </c>
       <c r="D40" t="n">
-        <v>0.216578</v>
+        <v>0.216869</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.330284</v>
+        <v>0.329714</v>
       </c>
       <c r="C41" t="n">
-        <v>0.244315</v>
+        <v>0.245555</v>
       </c>
       <c r="D41" t="n">
-        <v>0.215642</v>
+        <v>0.215839</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.323845</v>
+        <v>0.322538</v>
       </c>
       <c r="C42" t="n">
-        <v>0.243058</v>
+        <v>0.244393</v>
       </c>
       <c r="D42" t="n">
-        <v>0.215419</v>
+        <v>0.214823</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.317719</v>
+        <v>0.315004</v>
       </c>
       <c r="C43" t="n">
-        <v>0.242272</v>
+        <v>0.242747</v>
       </c>
       <c r="D43" t="n">
-        <v>0.21474</v>
+        <v>0.213563</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.309707</v>
+        <v>0.30781</v>
       </c>
       <c r="C44" t="n">
-        <v>0.242215</v>
+        <v>0.24299</v>
       </c>
       <c r="D44" t="n">
-        <v>0.214317</v>
+        <v>0.213709</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.30164</v>
+        <v>0.299739</v>
       </c>
       <c r="C45" t="n">
-        <v>0.240497</v>
+        <v>0.242555</v>
       </c>
       <c r="D45" t="n">
-        <v>0.213146</v>
+        <v>0.212815</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.292604</v>
+        <v>0.290852</v>
       </c>
       <c r="C46" t="n">
-        <v>0.240494</v>
+        <v>0.240792</v>
       </c>
       <c r="D46" t="n">
-        <v>0.212364</v>
+        <v>0.211894</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.283199</v>
+        <v>0.281083</v>
       </c>
       <c r="C47" t="n">
-        <v>0.240161</v>
+        <v>0.241512</v>
       </c>
       <c r="D47" t="n">
-        <v>0.212065</v>
+        <v>0.210815</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.272084</v>
+        <v>0.270877</v>
       </c>
       <c r="C48" t="n">
-        <v>0.239001</v>
+        <v>0.239722</v>
       </c>
       <c r="D48" t="n">
-        <v>0.21137</v>
+        <v>0.210367</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.26071</v>
+        <v>0.259675</v>
       </c>
       <c r="C49" t="n">
-        <v>0.240821</v>
+        <v>0.238627</v>
       </c>
       <c r="D49" t="n">
-        <v>0.210302</v>
+        <v>0.209888</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.248162</v>
+        <v>0.247192</v>
       </c>
       <c r="C50" t="n">
-        <v>0.240164</v>
+        <v>0.237961</v>
       </c>
       <c r="D50" t="n">
-        <v>0.210107</v>
+        <v>0.209217</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.234697</v>
+        <v>0.233924</v>
       </c>
       <c r="C51" t="n">
-        <v>0.238799</v>
+        <v>0.237953</v>
       </c>
       <c r="D51" t="n">
-        <v>0.222301</v>
+        <v>0.221738</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.221115</v>
+        <v>0.219797</v>
       </c>
       <c r="C52" t="n">
-        <v>0.238356</v>
+        <v>0.236764</v>
       </c>
       <c r="D52" t="n">
-        <v>0.220764</v>
+        <v>0.22051</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.345905</v>
+        <v>0.345326</v>
       </c>
       <c r="C53" t="n">
-        <v>0.249055</v>
+        <v>0.249785</v>
       </c>
       <c r="D53" t="n">
-        <v>0.219199</v>
+        <v>0.219405</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.340374</v>
+        <v>0.339445</v>
       </c>
       <c r="C54" t="n">
-        <v>0.247736</v>
+        <v>0.248367</v>
       </c>
       <c r="D54" t="n">
-        <v>0.218083</v>
+        <v>0.218346</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.334637</v>
+        <v>0.332749</v>
       </c>
       <c r="C55" t="n">
-        <v>0.247007</v>
+        <v>0.2474</v>
       </c>
       <c r="D55" t="n">
-        <v>0.217317</v>
+        <v>0.217213</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.328177</v>
+        <v>0.326398</v>
       </c>
       <c r="C56" t="n">
-        <v>0.245727</v>
+        <v>0.246142</v>
       </c>
       <c r="D56" t="n">
-        <v>0.216345</v>
+        <v>0.216222</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.320983</v>
+        <v>0.319002</v>
       </c>
       <c r="C57" t="n">
-        <v>0.245114</v>
+        <v>0.245468</v>
       </c>
       <c r="D57" t="n">
-        <v>0.215442</v>
+        <v>0.215202</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.312694</v>
+        <v>0.310974</v>
       </c>
       <c r="C58" t="n">
-        <v>0.244222</v>
+        <v>0.243674</v>
       </c>
       <c r="D58" t="n">
-        <v>0.214796</v>
+        <v>0.213931</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304382</v>
+        <v>0.303081</v>
       </c>
       <c r="C59" t="n">
-        <v>0.243271</v>
+        <v>0.243148</v>
       </c>
       <c r="D59" t="n">
-        <v>0.213922</v>
+        <v>0.213369</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.295666</v>
+        <v>0.294196</v>
       </c>
       <c r="C60" t="n">
-        <v>0.242224</v>
+        <v>0.242534</v>
       </c>
       <c r="D60" t="n">
-        <v>0.213682</v>
+        <v>0.212754</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.286042</v>
+        <v>0.284952</v>
       </c>
       <c r="C61" t="n">
-        <v>0.242149</v>
+        <v>0.24137</v>
       </c>
       <c r="D61" t="n">
-        <v>0.213104</v>
+        <v>0.212399</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.275734</v>
+        <v>0.274959</v>
       </c>
       <c r="C62" t="n">
-        <v>0.241445</v>
+        <v>0.242045</v>
       </c>
       <c r="D62" t="n">
-        <v>0.212552</v>
+        <v>0.211797</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.264865</v>
+        <v>0.263852</v>
       </c>
       <c r="C63" t="n">
-        <v>0.24055</v>
+        <v>0.241008</v>
       </c>
       <c r="D63" t="n">
-        <v>0.211551</v>
+        <v>0.210874</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.25254</v>
+        <v>0.251652</v>
       </c>
       <c r="C64" t="n">
-        <v>0.239423</v>
+        <v>0.240104</v>
       </c>
       <c r="D64" t="n">
-        <v>0.211207</v>
+        <v>0.210521</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.239309</v>
+        <v>0.238577</v>
       </c>
       <c r="C65" t="n">
-        <v>0.238991</v>
+        <v>0.239329</v>
       </c>
       <c r="D65" t="n">
-        <v>0.210618</v>
+        <v>0.209967</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.225043</v>
+        <v>0.224545</v>
       </c>
       <c r="C66" t="n">
-        <v>0.238252</v>
+        <v>0.238199</v>
       </c>
       <c r="D66" t="n">
-        <v>0.22101</v>
+        <v>0.221295</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.347521</v>
+        <v>0.347343</v>
       </c>
       <c r="C67" t="n">
-        <v>0.25035</v>
+        <v>0.250119</v>
       </c>
       <c r="D67" t="n">
-        <v>0.220014</v>
+        <v>0.220225</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.342651</v>
+        <v>0.341339</v>
       </c>
       <c r="C68" t="n">
-        <v>0.248815</v>
+        <v>0.249048</v>
       </c>
       <c r="D68" t="n">
-        <v>0.218826</v>
+        <v>0.219056</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.335915</v>
+        <v>0.335491</v>
       </c>
       <c r="C69" t="n">
-        <v>0.247843</v>
+        <v>0.247857</v>
       </c>
       <c r="D69" t="n">
-        <v>0.217809</v>
+        <v>0.217772</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.329222</v>
+        <v>0.328565</v>
       </c>
       <c r="C70" t="n">
-        <v>0.246994</v>
+        <v>0.247064</v>
       </c>
       <c r="D70" t="n">
-        <v>0.216855</v>
+        <v>0.216751</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.322109</v>
+        <v>0.32125</v>
       </c>
       <c r="C71" t="n">
-        <v>0.245531</v>
+        <v>0.245969</v>
       </c>
       <c r="D71" t="n">
-        <v>0.21568</v>
+        <v>0.215875</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.314436</v>
+        <v>0.314162</v>
       </c>
       <c r="C72" t="n">
-        <v>0.244892</v>
+        <v>0.245343</v>
       </c>
       <c r="D72" t="n">
-        <v>0.214812</v>
+        <v>0.215037</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.305394</v>
+        <v>0.305591</v>
       </c>
       <c r="C73" t="n">
-        <v>0.243774</v>
+        <v>0.244465</v>
       </c>
       <c r="D73" t="n">
-        <v>0.213902</v>
+        <v>0.214291</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.296941</v>
+        <v>0.296664</v>
       </c>
       <c r="C74" t="n">
-        <v>0.243183</v>
+        <v>0.243324</v>
       </c>
       <c r="D74" t="n">
-        <v>0.213217</v>
+        <v>0.213501</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.287232</v>
+        <v>0.287575</v>
       </c>
       <c r="C75" t="n">
-        <v>0.242394</v>
+        <v>0.24282</v>
       </c>
       <c r="D75" t="n">
-        <v>0.212615</v>
+        <v>0.212932</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.277653</v>
+        <v>0.277977</v>
       </c>
       <c r="C76" t="n">
-        <v>0.241429</v>
+        <v>0.241995</v>
       </c>
       <c r="D76" t="n">
-        <v>0.211948</v>
+        <v>0.212218</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.267068</v>
+        <v>0.266705</v>
       </c>
       <c r="C77" t="n">
-        <v>0.240578</v>
+        <v>0.241142</v>
       </c>
       <c r="D77" t="n">
-        <v>0.211485</v>
+        <v>0.211588</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.255448</v>
+        <v>0.254973</v>
       </c>
       <c r="C78" t="n">
-        <v>0.239719</v>
+        <v>0.23995</v>
       </c>
       <c r="D78" t="n">
-        <v>0.210968</v>
+        <v>0.210828</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.242547</v>
+        <v>0.241973</v>
       </c>
       <c r="C79" t="n">
-        <v>0.238978</v>
+        <v>0.239577</v>
       </c>
       <c r="D79" t="n">
-        <v>0.210526</v>
+        <v>0.210214</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.228512</v>
+        <v>0.228184</v>
       </c>
       <c r="C80" t="n">
-        <v>0.23799</v>
+        <v>0.238421</v>
       </c>
       <c r="D80" t="n">
-        <v>0.221749</v>
+        <v>0.221896</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.350515</v>
+        <v>0.349027</v>
       </c>
       <c r="C81" t="n">
-        <v>0.250521</v>
+        <v>0.250658</v>
       </c>
       <c r="D81" t="n">
-        <v>0.220462</v>
+        <v>0.220955</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.344801</v>
+        <v>0.343392</v>
       </c>
       <c r="C82" t="n">
-        <v>0.249076</v>
+        <v>0.249772</v>
       </c>
       <c r="D82" t="n">
-        <v>0.219411</v>
+        <v>0.219692</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.338872</v>
+        <v>0.337291</v>
       </c>
       <c r="C83" t="n">
-        <v>0.248325</v>
+        <v>0.248644</v>
       </c>
       <c r="D83" t="n">
-        <v>0.218195</v>
+        <v>0.218508</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.33185</v>
+        <v>0.330461</v>
       </c>
       <c r="C84" t="n">
-        <v>0.246791</v>
+        <v>0.247342</v>
       </c>
       <c r="D84" t="n">
-        <v>0.216985</v>
+        <v>0.217394</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.32537</v>
+        <v>0.323246</v>
       </c>
       <c r="C85" t="n">
-        <v>0.245965</v>
+        <v>0.246523</v>
       </c>
       <c r="D85" t="n">
-        <v>0.216151</v>
+        <v>0.216539</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.317563</v>
+        <v>0.315568</v>
       </c>
       <c r="C86" t="n">
-        <v>0.24506</v>
+        <v>0.245423</v>
       </c>
       <c r="D86" t="n">
-        <v>0.215352</v>
+        <v>0.21552</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.309069</v>
+        <v>0.307443</v>
       </c>
       <c r="C87" t="n">
-        <v>0.244032</v>
+        <v>0.244742</v>
       </c>
       <c r="D87" t="n">
-        <v>0.214443</v>
+        <v>0.214795</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300443</v>
+        <v>0.298883</v>
       </c>
       <c r="C88" t="n">
-        <v>0.243223</v>
+        <v>0.243526</v>
       </c>
       <c r="D88" t="n">
-        <v>0.213663</v>
+        <v>0.213943</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.29128</v>
+        <v>0.28985</v>
       </c>
       <c r="C89" t="n">
-        <v>0.241942</v>
+        <v>0.242527</v>
       </c>
       <c r="D89" t="n">
-        <v>0.212786</v>
+        <v>0.213026</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.281022</v>
+        <v>0.279899</v>
       </c>
       <c r="C90" t="n">
-        <v>0.241178</v>
+        <v>0.242158</v>
       </c>
       <c r="D90" t="n">
-        <v>0.212308</v>
+        <v>0.212522</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.270135</v>
+        <v>0.269018</v>
       </c>
       <c r="C91" t="n">
-        <v>0.240446</v>
+        <v>0.241121</v>
       </c>
       <c r="D91" t="n">
-        <v>0.211573</v>
+        <v>0.211761</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.258619</v>
+        <v>0.257581</v>
       </c>
       <c r="C92" t="n">
-        <v>0.239622</v>
+        <v>0.240047</v>
       </c>
       <c r="D92" t="n">
-        <v>0.211187</v>
+        <v>0.211101</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.245647</v>
+        <v>0.244903</v>
       </c>
       <c r="C93" t="n">
-        <v>0.238784</v>
+        <v>0.239321</v>
       </c>
       <c r="D93" t="n">
-        <v>0.210671</v>
+        <v>0.210488</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.231524</v>
+        <v>0.231305</v>
       </c>
       <c r="C94" t="n">
-        <v>0.237916</v>
+        <v>0.23844</v>
       </c>
       <c r="D94" t="n">
-        <v>0.221666</v>
+        <v>0.221952</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.351258</v>
+        <v>0.350138</v>
       </c>
       <c r="C95" t="n">
-        <v>0.250384</v>
+        <v>0.250545</v>
       </c>
       <c r="D95" t="n">
-        <v>0.220457</v>
+        <v>0.22066</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.346095</v>
+        <v>0.344626</v>
       </c>
       <c r="C96" t="n">
-        <v>0.249425</v>
+        <v>0.249321</v>
       </c>
       <c r="D96" t="n">
-        <v>0.21923</v>
+        <v>0.219533</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.340204</v>
+        <v>0.33844</v>
       </c>
       <c r="C97" t="n">
-        <v>0.248071</v>
+        <v>0.248377</v>
       </c>
       <c r="D97" t="n">
-        <v>0.218193</v>
+        <v>0.218346</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.333723</v>
+        <v>0.331624</v>
       </c>
       <c r="C98" t="n">
-        <v>0.246938</v>
+        <v>0.247136</v>
       </c>
       <c r="D98" t="n">
-        <v>0.217092</v>
+        <v>0.217367</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.326042</v>
+        <v>0.324545</v>
       </c>
       <c r="C99" t="n">
-        <v>0.245995</v>
+        <v>0.246101</v>
       </c>
       <c r="D99" t="n">
-        <v>0.216032</v>
+        <v>0.216369</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.318811</v>
+        <v>0.316984</v>
       </c>
       <c r="C100" t="n">
-        <v>0.244969</v>
+        <v>0.245251</v>
       </c>
       <c r="D100" t="n">
-        <v>0.214959</v>
+        <v>0.215559</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.310616</v>
+        <v>0.308833</v>
       </c>
       <c r="C101" t="n">
-        <v>0.243722</v>
+        <v>0.244001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.214155</v>
+        <v>0.214484</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302305</v>
+        <v>0.302194</v>
       </c>
       <c r="C102" t="n">
-        <v>0.243278</v>
+        <v>0.243352</v>
       </c>
       <c r="D102" t="n">
-        <v>0.213435</v>
+        <v>0.213612</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.293202</v>
+        <v>0.292226</v>
       </c>
       <c r="C103" t="n">
-        <v>0.242219</v>
+        <v>0.242433</v>
       </c>
       <c r="D103" t="n">
-        <v>0.212634</v>
+        <v>0.213132</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.283014</v>
+        <v>0.282871</v>
       </c>
       <c r="C104" t="n">
-        <v>0.241329</v>
+        <v>0.241878</v>
       </c>
       <c r="D104" t="n">
-        <v>0.212015</v>
+        <v>0.212299</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.272722</v>
+        <v>0.272134</v>
       </c>
       <c r="C105" t="n">
-        <v>0.240358</v>
+        <v>0.241</v>
       </c>
       <c r="D105" t="n">
-        <v>0.211485</v>
+        <v>0.21156</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.260757</v>
+        <v>0.260425</v>
       </c>
       <c r="C106" t="n">
-        <v>0.239807</v>
+        <v>0.240099</v>
       </c>
       <c r="D106" t="n">
-        <v>0.211017</v>
+        <v>0.210759</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.248409</v>
+        <v>0.247709</v>
       </c>
       <c r="C107" t="n">
-        <v>0.239089</v>
+        <v>0.238958</v>
       </c>
       <c r="D107" t="n">
-        <v>0.210968</v>
+        <v>0.210211</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.234507</v>
+        <v>0.234115</v>
       </c>
       <c r="C108" t="n">
-        <v>0.238163</v>
+        <v>0.238179</v>
       </c>
       <c r="D108" t="n">
-        <v>0.221984</v>
+        <v>0.222186</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.219954</v>
+        <v>0.219713</v>
       </c>
       <c r="C109" t="n">
-        <v>0.237265</v>
+        <v>0.237385</v>
       </c>
       <c r="D109" t="n">
-        <v>0.220593</v>
+        <v>0.221006</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.347591</v>
+        <v>0.345474</v>
       </c>
       <c r="C110" t="n">
-        <v>0.249131</v>
+        <v>0.249624</v>
       </c>
       <c r="D110" t="n">
-        <v>0.219425</v>
+        <v>0.21981</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.341379</v>
+        <v>0.339054</v>
       </c>
       <c r="C111" t="n">
-        <v>0.248271</v>
+        <v>0.248487</v>
       </c>
       <c r="D111" t="n">
-        <v>0.218255</v>
+        <v>0.218618</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.335183</v>
+        <v>0.332555</v>
       </c>
       <c r="C112" t="n">
-        <v>0.24696</v>
+        <v>0.247212</v>
       </c>
       <c r="D112" t="n">
-        <v>0.21725</v>
+        <v>0.217467</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.328186</v>
+        <v>0.325864</v>
       </c>
       <c r="C113" t="n">
-        <v>0.245926</v>
+        <v>0.246106</v>
       </c>
       <c r="D113" t="n">
-        <v>0.216223</v>
+        <v>0.21655</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.321005</v>
+        <v>0.31854</v>
       </c>
       <c r="C114" t="n">
-        <v>0.244931</v>
+        <v>0.244984</v>
       </c>
       <c r="D114" t="n">
-        <v>0.21527</v>
+        <v>0.215562</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313142</v>
+        <v>0.310603</v>
       </c>
       <c r="C115" t="n">
-        <v>0.244191</v>
+        <v>0.244212</v>
       </c>
       <c r="D115" t="n">
-        <v>0.214465</v>
+        <v>0.214709</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304437</v>
+        <v>0.302242</v>
       </c>
       <c r="C116" t="n">
-        <v>0.243275</v>
+        <v>0.243256</v>
       </c>
       <c r="D116" t="n">
-        <v>0.213674</v>
+        <v>0.214026</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.295737</v>
+        <v>0.293195</v>
       </c>
       <c r="C117" t="n">
-        <v>0.242271</v>
+        <v>0.242341</v>
       </c>
       <c r="D117" t="n">
-        <v>0.212911</v>
+        <v>0.213274</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.286135</v>
+        <v>0.284104</v>
       </c>
       <c r="C118" t="n">
-        <v>0.241314</v>
+        <v>0.241629</v>
       </c>
       <c r="D118" t="n">
-        <v>0.212253</v>
+        <v>0.21255</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.275545</v>
+        <v>0.273603</v>
       </c>
       <c r="C119" t="n">
-        <v>0.240453</v>
+        <v>0.240792</v>
       </c>
       <c r="D119" t="n">
-        <v>0.211614</v>
+        <v>0.211847</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.263825</v>
+        <v>0.262192</v>
       </c>
       <c r="C120" t="n">
-        <v>0.239575</v>
+        <v>0.239856</v>
       </c>
       <c r="D120" t="n">
-        <v>0.211019</v>
+        <v>0.210963</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.251481</v>
+        <v>0.250367</v>
       </c>
       <c r="C121" t="n">
-        <v>0.238737</v>
+        <v>0.239064</v>
       </c>
       <c r="D121" t="n">
-        <v>0.210533</v>
+        <v>0.210406</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.238236</v>
+        <v>0.236929</v>
       </c>
       <c r="C122" t="n">
-        <v>0.237821</v>
+        <v>0.238255</v>
       </c>
       <c r="D122" t="n">
-        <v>0.210143</v>
+        <v>0.210024</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.223811</v>
+        <v>0.222879</v>
       </c>
       <c r="C123" t="n">
-        <v>0.236961</v>
+        <v>0.237295</v>
       </c>
       <c r="D123" t="n">
-        <v>0.221104</v>
+        <v>0.221569</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.348923</v>
+        <v>0.346384</v>
       </c>
       <c r="C124" t="n">
-        <v>0.249377</v>
+        <v>0.249965</v>
       </c>
       <c r="D124" t="n">
-        <v>0.219834</v>
+        <v>0.220537</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.343008</v>
+        <v>0.340923</v>
       </c>
       <c r="C125" t="n">
-        <v>0.248327</v>
+        <v>0.248711</v>
       </c>
       <c r="D125" t="n">
-        <v>0.218646</v>
+        <v>0.219279</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.336307</v>
+        <v>0.334506</v>
       </c>
       <c r="C126" t="n">
-        <v>0.246722</v>
+        <v>0.24779</v>
       </c>
       <c r="D126" t="n">
-        <v>0.217533</v>
+        <v>0.217977</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.330109</v>
+        <v>0.327648</v>
       </c>
       <c r="C127" t="n">
-        <v>0.245632</v>
+        <v>0.246485</v>
       </c>
       <c r="D127" t="n">
-        <v>0.216524</v>
+        <v>0.217001</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.322504</v>
+        <v>0.320115</v>
       </c>
       <c r="C128" t="n">
-        <v>0.245027</v>
+        <v>0.245761</v>
       </c>
       <c r="D128" t="n">
-        <v>0.215472</v>
+        <v>0.216044</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315228</v>
+        <v>0.312255</v>
       </c>
       <c r="C129" t="n">
-        <v>0.243937</v>
+        <v>0.244299</v>
       </c>
       <c r="D129" t="n">
-        <v>0.214785</v>
+        <v>0.215028</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.306396</v>
+        <v>0.304556</v>
       </c>
       <c r="C130" t="n">
-        <v>0.242764</v>
+        <v>0.243655</v>
       </c>
       <c r="D130" t="n">
-        <v>0.213565</v>
+        <v>0.21402</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.297913</v>
+        <v>0.295883</v>
       </c>
       <c r="C131" t="n">
-        <v>0.24208</v>
+        <v>0.242896</v>
       </c>
       <c r="D131" t="n">
-        <v>0.212967</v>
+        <v>0.213262</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.288612</v>
+        <v>0.286607</v>
       </c>
       <c r="C132" t="n">
-        <v>0.241193</v>
+        <v>0.242048</v>
       </c>
       <c r="D132" t="n">
-        <v>0.212259</v>
+        <v>0.21267</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.278369</v>
+        <v>0.276136</v>
       </c>
       <c r="C133" t="n">
-        <v>0.240372</v>
+        <v>0.241218</v>
       </c>
       <c r="D133" t="n">
-        <v>0.211701</v>
+        <v>0.212016</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.266918</v>
+        <v>0.265129</v>
       </c>
       <c r="C134" t="n">
-        <v>0.239531</v>
+        <v>0.239993</v>
       </c>
       <c r="D134" t="n">
-        <v>0.211121</v>
+        <v>0.211088</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.254804</v>
+        <v>0.253303</v>
       </c>
       <c r="C135" t="n">
-        <v>0.239046</v>
+        <v>0.239314</v>
       </c>
       <c r="D135" t="n">
-        <v>0.210553</v>
+        <v>0.210487</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.241782</v>
+        <v>0.240643</v>
       </c>
       <c r="C136" t="n">
-        <v>0.238018</v>
+        <v>0.238428</v>
       </c>
       <c r="D136" t="n">
-        <v>0.210177</v>
+        <v>0.209956</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.227073</v>
+        <v>0.226527</v>
       </c>
       <c r="C137" t="n">
-        <v>0.237158</v>
+        <v>0.237718</v>
       </c>
       <c r="D137" t="n">
-        <v>0.22164</v>
+        <v>0.222635</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.349917</v>
+        <v>0.348087</v>
       </c>
       <c r="C138" t="n">
-        <v>0.250142</v>
+        <v>0.250322</v>
       </c>
       <c r="D138" t="n">
-        <v>0.220139</v>
+        <v>0.22055</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.344508</v>
+        <v>0.342473</v>
       </c>
       <c r="C139" t="n">
-        <v>0.248472</v>
+        <v>0.248821</v>
       </c>
       <c r="D139" t="n">
-        <v>0.219047</v>
+        <v>0.219579</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338195</v>
+        <v>0.335975</v>
       </c>
       <c r="C140" t="n">
-        <v>0.247522</v>
+        <v>0.248185</v>
       </c>
       <c r="D140" t="n">
-        <v>0.217929</v>
+        <v>0.218463</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331641</v>
+        <v>0.329153</v>
       </c>
       <c r="C141" t="n">
-        <v>0.246434</v>
+        <v>0.247175</v>
       </c>
       <c r="D141" t="n">
-        <v>0.217203</v>
+        <v>0.217296</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.324563</v>
+        <v>0.322158</v>
       </c>
       <c r="C142" t="n">
-        <v>0.245742</v>
+        <v>0.245642</v>
       </c>
       <c r="D142" t="n">
-        <v>0.215852</v>
+        <v>0.216185</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.316863</v>
+        <v>0.314325</v>
       </c>
       <c r="C143" t="n">
-        <v>0.244735</v>
+        <v>0.244665</v>
       </c>
       <c r="D143" t="n">
-        <v>0.215582</v>
+        <v>0.21526</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.294883</v>
+        <v>0.295846</v>
       </c>
       <c r="C2" t="n">
-        <v>0.22185</v>
+        <v>0.222748</v>
       </c>
       <c r="D2" t="n">
-        <v>0.197826</v>
+        <v>0.197291</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.287324</v>
+        <v>0.28726</v>
       </c>
       <c r="C3" t="n">
-        <v>0.223563</v>
+        <v>0.22326</v>
       </c>
       <c r="D3" t="n">
-        <v>0.196985</v>
+        <v>0.197004</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.280095</v>
+        <v>0.278497</v>
       </c>
       <c r="C4" t="n">
-        <v>0.222781</v>
+        <v>0.223646</v>
       </c>
       <c r="D4" t="n">
-        <v>0.199131</v>
+        <v>0.19869</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.268736</v>
+        <v>0.268609</v>
       </c>
       <c r="C5" t="n">
-        <v>0.222339</v>
+        <v>0.223303</v>
       </c>
       <c r="D5" t="n">
-        <v>0.199218</v>
+        <v>0.199226</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.25707</v>
+        <v>0.25786</v>
       </c>
       <c r="C6" t="n">
-        <v>0.222693</v>
+        <v>0.222165</v>
       </c>
       <c r="D6" t="n">
-        <v>0.199451</v>
+        <v>0.198888</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.242056</v>
+        <v>0.243256</v>
       </c>
       <c r="C7" t="n">
-        <v>0.223947</v>
+        <v>0.223702</v>
       </c>
       <c r="D7" t="n">
-        <v>0.200487</v>
+        <v>0.200024</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.229932</v>
+        <v>0.230507</v>
       </c>
       <c r="C8" t="n">
-        <v>0.223231</v>
+        <v>0.222734</v>
       </c>
       <c r="D8" t="n">
-        <v>0.201237</v>
+        <v>0.201052</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.216749</v>
+        <v>0.21677</v>
       </c>
       <c r="C9" t="n">
-        <v>0.22414</v>
+        <v>0.224085</v>
       </c>
       <c r="D9" t="n">
-        <v>0.215532</v>
+        <v>0.214485</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.341242</v>
+        <v>0.341818</v>
       </c>
       <c r="C10" t="n">
-        <v>0.240629</v>
+        <v>0.240209</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2139</v>
+        <v>0.213798</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.335751</v>
+        <v>0.336017</v>
       </c>
       <c r="C11" t="n">
-        <v>0.241139</v>
+        <v>0.239732</v>
       </c>
       <c r="D11" t="n">
-        <v>0.212706</v>
+        <v>0.212708</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.331794</v>
+        <v>0.33136</v>
       </c>
       <c r="C12" t="n">
-        <v>0.239131</v>
+        <v>0.239085</v>
       </c>
       <c r="D12" t="n">
-        <v>0.212657</v>
+        <v>0.212957</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.324581</v>
+        <v>0.324723</v>
       </c>
       <c r="C13" t="n">
-        <v>0.238665</v>
+        <v>0.239269</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212009</v>
+        <v>0.211479</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.316926</v>
+        <v>0.317861</v>
       </c>
       <c r="C14" t="n">
-        <v>0.237828</v>
+        <v>0.237072</v>
       </c>
       <c r="D14" t="n">
-        <v>0.21135</v>
+        <v>0.211164</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.309048</v>
+        <v>0.30978</v>
       </c>
       <c r="C15" t="n">
-        <v>0.238182</v>
+        <v>0.235644</v>
       </c>
       <c r="D15" t="n">
-        <v>0.210664</v>
+        <v>0.21082</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.302247</v>
+        <v>0.301936</v>
       </c>
       <c r="C16" t="n">
-        <v>0.235965</v>
+        <v>0.235112</v>
       </c>
       <c r="D16" t="n">
-        <v>0.209576</v>
+        <v>0.209933</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.294515</v>
+        <v>0.294454</v>
       </c>
       <c r="C17" t="n">
-        <v>0.235967</v>
+        <v>0.236253</v>
       </c>
       <c r="D17" t="n">
-        <v>0.208553</v>
+        <v>0.208062</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.284871</v>
+        <v>0.286742</v>
       </c>
       <c r="C18" t="n">
-        <v>0.235158</v>
+        <v>0.236072</v>
       </c>
       <c r="D18" t="n">
-        <v>0.207957</v>
+        <v>0.208666</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.276721</v>
+        <v>0.275302</v>
       </c>
       <c r="C19" t="n">
-        <v>0.233593</v>
+        <v>0.232637</v>
       </c>
       <c r="D19" t="n">
-        <v>0.207791</v>
+        <v>0.208152</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.264395</v>
+        <v>0.264551</v>
       </c>
       <c r="C20" t="n">
-        <v>0.234549</v>
+        <v>0.23295</v>
       </c>
       <c r="D20" t="n">
-        <v>0.208232</v>
+        <v>0.207461</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.252592</v>
+        <v>0.252869</v>
       </c>
       <c r="C21" t="n">
-        <v>0.233979</v>
+        <v>0.233966</v>
       </c>
       <c r="D21" t="n">
-        <v>0.209072</v>
+        <v>0.207978</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.239884</v>
+        <v>0.24004</v>
       </c>
       <c r="C22" t="n">
-        <v>0.232625</v>
+        <v>0.233378</v>
       </c>
       <c r="D22" t="n">
-        <v>0.207754</v>
+        <v>0.207232</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.226334</v>
+        <v>0.225966</v>
       </c>
       <c r="C23" t="n">
-        <v>0.231116</v>
+        <v>0.231017</v>
       </c>
       <c r="D23" t="n">
-        <v>0.220266</v>
+        <v>0.21991</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.350489</v>
+        <v>0.347087</v>
       </c>
       <c r="C24" t="n">
-        <v>0.255458</v>
+        <v>0.246106</v>
       </c>
       <c r="D24" t="n">
-        <v>0.218662</v>
+        <v>0.218534</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.34275</v>
+        <v>0.340999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.244371</v>
+        <v>0.245404</v>
       </c>
       <c r="D25" t="n">
-        <v>0.217409</v>
+        <v>0.217711</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.33336</v>
+        <v>0.334607</v>
       </c>
       <c r="C26" t="n">
-        <v>0.24499</v>
+        <v>0.242981</v>
       </c>
       <c r="D26" t="n">
-        <v>0.215517</v>
+        <v>0.215619</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.329391</v>
+        <v>0.329578</v>
       </c>
       <c r="C27" t="n">
-        <v>0.242206</v>
+        <v>0.241688</v>
       </c>
       <c r="D27" t="n">
-        <v>0.214915</v>
+        <v>0.215214</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.322741</v>
+        <v>0.323359</v>
       </c>
       <c r="C28" t="n">
-        <v>0.241991</v>
+        <v>0.24228</v>
       </c>
       <c r="D28" t="n">
-        <v>0.214395</v>
+        <v>0.213996</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3153</v>
+        <v>0.312259</v>
       </c>
       <c r="C29" t="n">
-        <v>0.240137</v>
+        <v>0.245803</v>
       </c>
       <c r="D29" t="n">
-        <v>0.213234</v>
+        <v>0.213331</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.306949</v>
+        <v>0.312739</v>
       </c>
       <c r="C30" t="n">
-        <v>0.236659</v>
+        <v>0.238192</v>
       </c>
       <c r="D30" t="n">
-        <v>0.211723</v>
+        <v>0.211918</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.297436</v>
+        <v>0.304632</v>
       </c>
       <c r="C31" t="n">
-        <v>0.243843</v>
+        <v>0.238898</v>
       </c>
       <c r="D31" t="n">
-        <v>0.211314</v>
+        <v>0.211275</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.289208</v>
+        <v>0.289558</v>
       </c>
       <c r="C32" t="n">
-        <v>0.238019</v>
+        <v>0.238698</v>
       </c>
       <c r="D32" t="n">
-        <v>0.211175</v>
+        <v>0.21119</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.279877</v>
+        <v>0.279598</v>
       </c>
       <c r="C33" t="n">
-        <v>0.239734</v>
+        <v>0.237618</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2106</v>
+        <v>0.210818</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.26892</v>
+        <v>0.268852</v>
       </c>
       <c r="C34" t="n">
-        <v>0.236485</v>
+        <v>0.236112</v>
       </c>
       <c r="D34" t="n">
-        <v>0.21037</v>
+        <v>0.210443</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.261192</v>
+        <v>0.256787</v>
       </c>
       <c r="C35" t="n">
-        <v>0.237496</v>
+        <v>0.236208</v>
       </c>
       <c r="D35" t="n">
-        <v>0.209855</v>
+        <v>0.209513</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.245157</v>
+        <v>0.244589</v>
       </c>
       <c r="C36" t="n">
-        <v>0.243049</v>
+        <v>0.235981</v>
       </c>
       <c r="D36" t="n">
-        <v>0.209869</v>
+        <v>0.209591</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.232959</v>
+        <v>0.231566</v>
       </c>
       <c r="C37" t="n">
-        <v>0.234255</v>
+        <v>0.235263</v>
       </c>
       <c r="D37" t="n">
-        <v>0.220618</v>
+        <v>0.22089</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.348732</v>
+        <v>0.348196</v>
       </c>
       <c r="C38" t="n">
-        <v>0.249458</v>
+        <v>0.249612</v>
       </c>
       <c r="D38" t="n">
-        <v>0.219681</v>
+        <v>0.21957</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.342531</v>
+        <v>0.342125</v>
       </c>
       <c r="C39" t="n">
-        <v>0.247677</v>
+        <v>0.247791</v>
       </c>
       <c r="D39" t="n">
-        <v>0.218204</v>
+        <v>0.218205</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.335952</v>
+        <v>0.335555</v>
       </c>
       <c r="C40" t="n">
-        <v>0.246553</v>
+        <v>0.246363</v>
       </c>
       <c r="D40" t="n">
-        <v>0.216869</v>
+        <v>0.216901</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.329714</v>
+        <v>0.329522</v>
       </c>
       <c r="C41" t="n">
-        <v>0.245555</v>
+        <v>0.245431</v>
       </c>
       <c r="D41" t="n">
-        <v>0.215839</v>
+        <v>0.215659</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.322538</v>
+        <v>0.322839</v>
       </c>
       <c r="C42" t="n">
-        <v>0.244393</v>
+        <v>0.243947</v>
       </c>
       <c r="D42" t="n">
-        <v>0.214823</v>
+        <v>0.214247</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.315004</v>
+        <v>0.315594</v>
       </c>
       <c r="C43" t="n">
-        <v>0.242747</v>
+        <v>0.242636</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213563</v>
+        <v>0.213472</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.30781</v>
+        <v>0.307869</v>
       </c>
       <c r="C44" t="n">
-        <v>0.24299</v>
+        <v>0.24279</v>
       </c>
       <c r="D44" t="n">
-        <v>0.213709</v>
+        <v>0.213097</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.299739</v>
+        <v>0.300174</v>
       </c>
       <c r="C45" t="n">
-        <v>0.242555</v>
+        <v>0.242621</v>
       </c>
       <c r="D45" t="n">
-        <v>0.212815</v>
+        <v>0.212736</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.290852</v>
+        <v>0.291199</v>
       </c>
       <c r="C46" t="n">
-        <v>0.240792</v>
+        <v>0.241294</v>
       </c>
       <c r="D46" t="n">
-        <v>0.211894</v>
+        <v>0.211641</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.281083</v>
+        <v>0.281086</v>
       </c>
       <c r="C47" t="n">
-        <v>0.241512</v>
+        <v>0.241268</v>
       </c>
       <c r="D47" t="n">
-        <v>0.210815</v>
+        <v>0.210708</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.270877</v>
+        <v>0.270992</v>
       </c>
       <c r="C48" t="n">
-        <v>0.239722</v>
+        <v>0.239318</v>
       </c>
       <c r="D48" t="n">
-        <v>0.210367</v>
+        <v>0.210221</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.259675</v>
+        <v>0.259716</v>
       </c>
       <c r="C49" t="n">
-        <v>0.238627</v>
+        <v>0.238589</v>
       </c>
       <c r="D49" t="n">
-        <v>0.209888</v>
+        <v>0.209653</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.247192</v>
+        <v>0.247386</v>
       </c>
       <c r="C50" t="n">
-        <v>0.237961</v>
+        <v>0.23804</v>
       </c>
       <c r="D50" t="n">
-        <v>0.209217</v>
+        <v>0.209159</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.233924</v>
+        <v>0.233964</v>
       </c>
       <c r="C51" t="n">
-        <v>0.237953</v>
+        <v>0.237822</v>
       </c>
       <c r="D51" t="n">
-        <v>0.221738</v>
+        <v>0.221614</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.219797</v>
+        <v>0.219415</v>
       </c>
       <c r="C52" t="n">
-        <v>0.236764</v>
+        <v>0.236525</v>
       </c>
       <c r="D52" t="n">
-        <v>0.22051</v>
+        <v>0.220242</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.345326</v>
+        <v>0.345186</v>
       </c>
       <c r="C53" t="n">
-        <v>0.249785</v>
+        <v>0.249862</v>
       </c>
       <c r="D53" t="n">
-        <v>0.219405</v>
+        <v>0.219309</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.339445</v>
+        <v>0.339323</v>
       </c>
       <c r="C54" t="n">
-        <v>0.248367</v>
+        <v>0.248378</v>
       </c>
       <c r="D54" t="n">
-        <v>0.218346</v>
+        <v>0.218138</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.332749</v>
+        <v>0.332882</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2474</v>
+        <v>0.247228</v>
       </c>
       <c r="D55" t="n">
-        <v>0.217213</v>
+        <v>0.217026</v>
       </c>
     </row>
     <row r="56">
@@ -4008,10 +4008,10 @@
         <v>0.326398</v>
       </c>
       <c r="C56" t="n">
-        <v>0.246142</v>
+        <v>0.246049</v>
       </c>
       <c r="D56" t="n">
-        <v>0.216222</v>
+        <v>0.216224</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.319002</v>
+        <v>0.31879</v>
       </c>
       <c r="C57" t="n">
-        <v>0.245468</v>
+        <v>0.24516</v>
       </c>
       <c r="D57" t="n">
-        <v>0.215202</v>
+        <v>0.215003</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.310974</v>
+        <v>0.311071</v>
       </c>
       <c r="C58" t="n">
-        <v>0.243674</v>
+        <v>0.243557</v>
       </c>
       <c r="D58" t="n">
-        <v>0.213931</v>
+        <v>0.213841</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.303081</v>
+        <v>0.302773</v>
       </c>
       <c r="C59" t="n">
-        <v>0.243148</v>
+        <v>0.242769</v>
       </c>
       <c r="D59" t="n">
-        <v>0.213369</v>
+        <v>0.213202</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294196</v>
+        <v>0.294204</v>
       </c>
       <c r="C60" t="n">
-        <v>0.242534</v>
+        <v>0.241955</v>
       </c>
       <c r="D60" t="n">
-        <v>0.212754</v>
+        <v>0.212685</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284952</v>
+        <v>0.285288</v>
       </c>
       <c r="C61" t="n">
-        <v>0.24137</v>
+        <v>0.241268</v>
       </c>
       <c r="D61" t="n">
-        <v>0.212399</v>
+        <v>0.212173</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.274959</v>
+        <v>0.275122</v>
       </c>
       <c r="C62" t="n">
-        <v>0.242045</v>
+        <v>0.24146</v>
       </c>
       <c r="D62" t="n">
-        <v>0.211797</v>
+        <v>0.211644</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263852</v>
+        <v>0.264042</v>
       </c>
       <c r="C63" t="n">
-        <v>0.241008</v>
+        <v>0.24054</v>
       </c>
       <c r="D63" t="n">
-        <v>0.210874</v>
+        <v>0.210736</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.251652</v>
+        <v>0.251518</v>
       </c>
       <c r="C64" t="n">
-        <v>0.240104</v>
+        <v>0.239934</v>
       </c>
       <c r="D64" t="n">
-        <v>0.210521</v>
+        <v>0.210292</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.238577</v>
+        <v>0.238617</v>
       </c>
       <c r="C65" t="n">
-        <v>0.239329</v>
+        <v>0.238786</v>
       </c>
       <c r="D65" t="n">
-        <v>0.209967</v>
+        <v>0.209868</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.224545</v>
+        <v>0.224603</v>
       </c>
       <c r="C66" t="n">
-        <v>0.238199</v>
+        <v>0.237524</v>
       </c>
       <c r="D66" t="n">
-        <v>0.221295</v>
+        <v>0.221266</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.347343</v>
+        <v>0.347516</v>
       </c>
       <c r="C67" t="n">
         <v>0.250119</v>
       </c>
       <c r="D67" t="n">
-        <v>0.220225</v>
+        <v>0.220174</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.341339</v>
+        <v>0.341433</v>
       </c>
       <c r="C68" t="n">
-        <v>0.249048</v>
+        <v>0.249162</v>
       </c>
       <c r="D68" t="n">
-        <v>0.219056</v>
+        <v>0.219066</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.335491</v>
+        <v>0.335391</v>
       </c>
       <c r="C69" t="n">
-        <v>0.247857</v>
+        <v>0.247821</v>
       </c>
       <c r="D69" t="n">
-        <v>0.217772</v>
+        <v>0.217489</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.328565</v>
+        <v>0.328576</v>
       </c>
       <c r="C70" t="n">
-        <v>0.247064</v>
+        <v>0.247026</v>
       </c>
       <c r="D70" t="n">
-        <v>0.216751</v>
+        <v>0.216436</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.32125</v>
+        <v>0.321168</v>
       </c>
       <c r="C71" t="n">
-        <v>0.245969</v>
+        <v>0.245911</v>
       </c>
       <c r="D71" t="n">
-        <v>0.215875</v>
+        <v>0.215702</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.314162</v>
+        <v>0.313734</v>
       </c>
       <c r="C72" t="n">
-        <v>0.245343</v>
+        <v>0.245269</v>
       </c>
       <c r="D72" t="n">
-        <v>0.215037</v>
+        <v>0.214894</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.305591</v>
+        <v>0.305607</v>
       </c>
       <c r="C73" t="n">
-        <v>0.244465</v>
+        <v>0.244173</v>
       </c>
       <c r="D73" t="n">
-        <v>0.214291</v>
+        <v>0.214079</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.296664</v>
+        <v>0.296886</v>
       </c>
       <c r="C74" t="n">
-        <v>0.243324</v>
+        <v>0.24324</v>
       </c>
       <c r="D74" t="n">
-        <v>0.213501</v>
+        <v>0.213249</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.287575</v>
+        <v>0.28786</v>
       </c>
       <c r="C75" t="n">
-        <v>0.24282</v>
+        <v>0.242668</v>
       </c>
       <c r="D75" t="n">
-        <v>0.212932</v>
+        <v>0.212678</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.277977</v>
+        <v>0.278098</v>
       </c>
       <c r="C76" t="n">
-        <v>0.241995</v>
+        <v>0.241732</v>
       </c>
       <c r="D76" t="n">
-        <v>0.212218</v>
+        <v>0.211947</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.266705</v>
+        <v>0.267158</v>
       </c>
       <c r="C77" t="n">
-        <v>0.241142</v>
+        <v>0.240849</v>
       </c>
       <c r="D77" t="n">
-        <v>0.211588</v>
+        <v>0.211416</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.254973</v>
+        <v>0.254869</v>
       </c>
       <c r="C78" t="n">
-        <v>0.23995</v>
+        <v>0.239924</v>
       </c>
       <c r="D78" t="n">
-        <v>0.210828</v>
+        <v>0.21049</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.241973</v>
+        <v>0.242007</v>
       </c>
       <c r="C79" t="n">
-        <v>0.239577</v>
+        <v>0.239229</v>
       </c>
       <c r="D79" t="n">
-        <v>0.210214</v>
+        <v>0.209948</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.228184</v>
+        <v>0.228283</v>
       </c>
       <c r="C80" t="n">
-        <v>0.238421</v>
+        <v>0.238118</v>
       </c>
       <c r="D80" t="n">
-        <v>0.221896</v>
+        <v>0.221748</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.349027</v>
+        <v>0.349111</v>
       </c>
       <c r="C81" t="n">
-        <v>0.250658</v>
+        <v>0.250429</v>
       </c>
       <c r="D81" t="n">
-        <v>0.220955</v>
+        <v>0.220679</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.343392</v>
+        <v>0.343393</v>
       </c>
       <c r="C82" t="n">
-        <v>0.249772</v>
+        <v>0.2495</v>
       </c>
       <c r="D82" t="n">
-        <v>0.219692</v>
+        <v>0.219505</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.337291</v>
+        <v>0.337252</v>
       </c>
       <c r="C83" t="n">
-        <v>0.248644</v>
+        <v>0.248501</v>
       </c>
       <c r="D83" t="n">
-        <v>0.218508</v>
+        <v>0.21831</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.330461</v>
+        <v>0.330423</v>
       </c>
       <c r="C84" t="n">
-        <v>0.247342</v>
+        <v>0.247105</v>
       </c>
       <c r="D84" t="n">
-        <v>0.217394</v>
+        <v>0.217233</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.323246</v>
+        <v>0.323296</v>
       </c>
       <c r="C85" t="n">
-        <v>0.246523</v>
+        <v>0.246168</v>
       </c>
       <c r="D85" t="n">
-        <v>0.216539</v>
+        <v>0.216447</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.315568</v>
+        <v>0.315873</v>
       </c>
       <c r="C86" t="n">
-        <v>0.245423</v>
+        <v>0.245283</v>
       </c>
       <c r="D86" t="n">
-        <v>0.21552</v>
+        <v>0.215382</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.307443</v>
+        <v>0.307963</v>
       </c>
       <c r="C87" t="n">
-        <v>0.244742</v>
+        <v>0.244165</v>
       </c>
       <c r="D87" t="n">
-        <v>0.214795</v>
+        <v>0.21468</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.298883</v>
+        <v>0.299315</v>
       </c>
       <c r="C88" t="n">
-        <v>0.243526</v>
+        <v>0.243258</v>
       </c>
       <c r="D88" t="n">
-        <v>0.213943</v>
+        <v>0.213766</v>
       </c>
     </row>
     <row r="89">
@@ -4467,10 +4467,10 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.28985</v>
+        <v>0.290385</v>
       </c>
       <c r="C89" t="n">
-        <v>0.242527</v>
+        <v>0.242259</v>
       </c>
       <c r="D89" t="n">
         <v>0.213026</v>
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.279899</v>
+        <v>0.280086</v>
       </c>
       <c r="C90" t="n">
-        <v>0.242158</v>
+        <v>0.241979</v>
       </c>
       <c r="D90" t="n">
-        <v>0.212522</v>
+        <v>0.212278</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.269018</v>
+        <v>0.269012</v>
       </c>
       <c r="C91" t="n">
-        <v>0.241121</v>
+        <v>0.240875</v>
       </c>
       <c r="D91" t="n">
-        <v>0.211761</v>
+        <v>0.211753</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.257581</v>
+        <v>0.257299</v>
       </c>
       <c r="C92" t="n">
-        <v>0.240047</v>
+        <v>0.239827</v>
       </c>
       <c r="D92" t="n">
-        <v>0.211101</v>
+        <v>0.21086</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.244903</v>
+        <v>0.244811</v>
       </c>
       <c r="C93" t="n">
-        <v>0.239321</v>
+        <v>0.238924</v>
       </c>
       <c r="D93" t="n">
-        <v>0.210488</v>
+        <v>0.210264</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.231305</v>
+        <v>0.231131</v>
       </c>
       <c r="C94" t="n">
-        <v>0.23844</v>
+        <v>0.238294</v>
       </c>
       <c r="D94" t="n">
-        <v>0.221952</v>
+        <v>0.221882</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.350138</v>
+        <v>0.350053</v>
       </c>
       <c r="C95" t="n">
-        <v>0.250545</v>
+        <v>0.250375</v>
       </c>
       <c r="D95" t="n">
-        <v>0.22066</v>
+        <v>0.220721</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.344626</v>
+        <v>0.344599</v>
       </c>
       <c r="C96" t="n">
-        <v>0.249321</v>
+        <v>0.249209</v>
       </c>
       <c r="D96" t="n">
-        <v>0.219533</v>
+        <v>0.219473</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.33844</v>
+        <v>0.338267</v>
       </c>
       <c r="C97" t="n">
-        <v>0.248377</v>
+        <v>0.248164</v>
       </c>
       <c r="D97" t="n">
-        <v>0.218346</v>
+        <v>0.218162</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.331624</v>
+        <v>0.331824</v>
       </c>
       <c r="C98" t="n">
-        <v>0.247136</v>
+        <v>0.247022</v>
       </c>
       <c r="D98" t="n">
-        <v>0.217367</v>
+        <v>0.217271</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.324545</v>
+        <v>0.324594</v>
       </c>
       <c r="C99" t="n">
-        <v>0.246101</v>
+        <v>0.246063</v>
       </c>
       <c r="D99" t="n">
-        <v>0.216369</v>
+        <v>0.21614</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.316984</v>
+        <v>0.317042</v>
       </c>
       <c r="C100" t="n">
-        <v>0.245251</v>
+        <v>0.245077</v>
       </c>
       <c r="D100" t="n">
-        <v>0.215559</v>
+        <v>0.215361</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.308833</v>
+        <v>0.308991</v>
       </c>
       <c r="C101" t="n">
-        <v>0.244001</v>
+        <v>0.244112</v>
       </c>
       <c r="D101" t="n">
-        <v>0.214484</v>
+        <v>0.214557</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302194</v>
+        <v>0.300662</v>
       </c>
       <c r="C102" t="n">
-        <v>0.243352</v>
+        <v>0.243278</v>
       </c>
       <c r="D102" t="n">
-        <v>0.213612</v>
+        <v>0.213666</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.292226</v>
+        <v>0.291705</v>
       </c>
       <c r="C103" t="n">
-        <v>0.242433</v>
+        <v>0.242341</v>
       </c>
       <c r="D103" t="n">
-        <v>0.213132</v>
+        <v>0.213016</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.282871</v>
+        <v>0.281845</v>
       </c>
       <c r="C104" t="n">
-        <v>0.241878</v>
+        <v>0.241371</v>
       </c>
       <c r="D104" t="n">
-        <v>0.212299</v>
+        <v>0.2122</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.272134</v>
+        <v>0.271433</v>
       </c>
       <c r="C105" t="n">
-        <v>0.241</v>
+        <v>0.240436</v>
       </c>
       <c r="D105" t="n">
-        <v>0.21156</v>
+        <v>0.211423</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.260425</v>
+        <v>0.260296</v>
       </c>
       <c r="C106" t="n">
-        <v>0.240099</v>
+        <v>0.239669</v>
       </c>
       <c r="D106" t="n">
-        <v>0.210759</v>
+        <v>0.210849</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247709</v>
+        <v>0.247595</v>
       </c>
       <c r="C107" t="n">
-        <v>0.238958</v>
+        <v>0.238927</v>
       </c>
       <c r="D107" t="n">
-        <v>0.210211</v>
+        <v>0.210156</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.234115</v>
+        <v>0.233962</v>
       </c>
       <c r="C108" t="n">
-        <v>0.238179</v>
+        <v>0.237978</v>
       </c>
       <c r="D108" t="n">
-        <v>0.222186</v>
+        <v>0.222222</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.219713</v>
+        <v>0.219685</v>
       </c>
       <c r="C109" t="n">
-        <v>0.237385</v>
+        <v>0.237233</v>
       </c>
       <c r="D109" t="n">
-        <v>0.221006</v>
+        <v>0.220954</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.345474</v>
+        <v>0.345483</v>
       </c>
       <c r="C110" t="n">
-        <v>0.249624</v>
+        <v>0.249451</v>
       </c>
       <c r="D110" t="n">
-        <v>0.21981</v>
+        <v>0.219753</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.339054</v>
+        <v>0.339482</v>
       </c>
       <c r="C111" t="n">
-        <v>0.248487</v>
+        <v>0.248349</v>
       </c>
       <c r="D111" t="n">
-        <v>0.218618</v>
+        <v>0.218627</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.332555</v>
+        <v>0.332764</v>
       </c>
       <c r="C112" t="n">
-        <v>0.247212</v>
+        <v>0.247096</v>
       </c>
       <c r="D112" t="n">
-        <v>0.217467</v>
+        <v>0.217443</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.325864</v>
+        <v>0.326227</v>
       </c>
       <c r="C113" t="n">
-        <v>0.246106</v>
+        <v>0.246095</v>
       </c>
       <c r="D113" t="n">
-        <v>0.21655</v>
+        <v>0.216617</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.31854</v>
+        <v>0.318426</v>
       </c>
       <c r="C114" t="n">
-        <v>0.244984</v>
+        <v>0.244964</v>
       </c>
       <c r="D114" t="n">
-        <v>0.215562</v>
+        <v>0.215517</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.310603</v>
+        <v>0.310605</v>
       </c>
       <c r="C115" t="n">
-        <v>0.244212</v>
+        <v>0.24407</v>
       </c>
       <c r="D115" t="n">
-        <v>0.214709</v>
+        <v>0.214613</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.302242</v>
+        <v>0.302607</v>
       </c>
       <c r="C116" t="n">
-        <v>0.243256</v>
+        <v>0.243141</v>
       </c>
       <c r="D116" t="n">
-        <v>0.214026</v>
+        <v>0.213969</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293195</v>
+        <v>0.293493</v>
       </c>
       <c r="C117" t="n">
-        <v>0.242341</v>
+        <v>0.242312</v>
       </c>
       <c r="D117" t="n">
-        <v>0.213274</v>
+        <v>0.213185</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.284104</v>
+        <v>0.284105</v>
       </c>
       <c r="C118" t="n">
-        <v>0.241629</v>
+        <v>0.241538</v>
       </c>
       <c r="D118" t="n">
-        <v>0.21255</v>
+        <v>0.21248</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.273603</v>
+        <v>0.273779</v>
       </c>
       <c r="C119" t="n">
-        <v>0.240792</v>
+        <v>0.240618</v>
       </c>
       <c r="D119" t="n">
-        <v>0.211847</v>
+        <v>0.211717</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.262192</v>
+        <v>0.262476</v>
       </c>
       <c r="C120" t="n">
-        <v>0.239856</v>
+        <v>0.239709</v>
       </c>
       <c r="D120" t="n">
-        <v>0.210963</v>
+        <v>0.210887</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.250367</v>
+        <v>0.250286</v>
       </c>
       <c r="C121" t="n">
-        <v>0.239064</v>
+        <v>0.239029</v>
       </c>
       <c r="D121" t="n">
-        <v>0.210406</v>
+        <v>0.210346</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.236929</v>
+        <v>0.237066</v>
       </c>
       <c r="C122" t="n">
-        <v>0.238255</v>
+        <v>0.238174</v>
       </c>
       <c r="D122" t="n">
-        <v>0.210024</v>
+        <v>0.210293</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.222879</v>
+        <v>0.222867</v>
       </c>
       <c r="C123" t="n">
-        <v>0.237295</v>
+        <v>0.237125</v>
       </c>
       <c r="D123" t="n">
-        <v>0.221569</v>
+        <v>0.221445</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.346384</v>
+        <v>0.346928</v>
       </c>
       <c r="C124" t="n">
-        <v>0.249965</v>
+        <v>0.249883</v>
       </c>
       <c r="D124" t="n">
-        <v>0.220537</v>
+        <v>0.220334</v>
       </c>
     </row>
     <row r="125">
@@ -4971,10 +4971,10 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.340923</v>
+        <v>0.340886</v>
       </c>
       <c r="C125" t="n">
-        <v>0.248711</v>
+        <v>0.24871</v>
       </c>
       <c r="D125" t="n">
         <v>0.219279</v>
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.334506</v>
+        <v>0.334395</v>
       </c>
       <c r="C126" t="n">
-        <v>0.24779</v>
+        <v>0.247805</v>
       </c>
       <c r="D126" t="n">
-        <v>0.217977</v>
+        <v>0.218252</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.327648</v>
+        <v>0.327999</v>
       </c>
       <c r="C127" t="n">
-        <v>0.246485</v>
+        <v>0.246409</v>
       </c>
       <c r="D127" t="n">
-        <v>0.217001</v>
+        <v>0.217206</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.320115</v>
+        <v>0.320739</v>
       </c>
       <c r="C128" t="n">
-        <v>0.245761</v>
+        <v>0.245368</v>
       </c>
       <c r="D128" t="n">
-        <v>0.216044</v>
+        <v>0.216073</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.312255</v>
+        <v>0.312793</v>
       </c>
       <c r="C129" t="n">
-        <v>0.244299</v>
+        <v>0.244471</v>
       </c>
       <c r="D129" t="n">
-        <v>0.215028</v>
+        <v>0.215177</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.304556</v>
+        <v>0.304944</v>
       </c>
       <c r="C130" t="n">
-        <v>0.243655</v>
+        <v>0.243671</v>
       </c>
       <c r="D130" t="n">
-        <v>0.21402</v>
+        <v>0.214246</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.295883</v>
+        <v>0.29626</v>
       </c>
       <c r="C131" t="n">
-        <v>0.242896</v>
+        <v>0.242963</v>
       </c>
       <c r="D131" t="n">
-        <v>0.213262</v>
+        <v>0.213427</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.286607</v>
+        <v>0.286511</v>
       </c>
       <c r="C132" t="n">
-        <v>0.242048</v>
+        <v>0.241959</v>
       </c>
       <c r="D132" t="n">
-        <v>0.21267</v>
+        <v>0.212696</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.276136</v>
+        <v>0.276584</v>
       </c>
       <c r="C133" t="n">
         <v>0.241218</v>
       </c>
       <c r="D133" t="n">
-        <v>0.212016</v>
+        <v>0.211995</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.265129</v>
+        <v>0.265652</v>
       </c>
       <c r="C134" t="n">
-        <v>0.239993</v>
+        <v>0.240108</v>
       </c>
       <c r="D134" t="n">
-        <v>0.211088</v>
+        <v>0.211245</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.253303</v>
+        <v>0.253748</v>
       </c>
       <c r="C135" t="n">
-        <v>0.239314</v>
+        <v>0.239294</v>
       </c>
       <c r="D135" t="n">
-        <v>0.210487</v>
+        <v>0.210577</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.240643</v>
+        <v>0.24055</v>
       </c>
       <c r="C136" t="n">
-        <v>0.238428</v>
+        <v>0.238484</v>
       </c>
       <c r="D136" t="n">
-        <v>0.209956</v>
+        <v>0.210265</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.226527</v>
+        <v>0.226618</v>
       </c>
       <c r="C137" t="n">
-        <v>0.237718</v>
+        <v>0.23776</v>
       </c>
       <c r="D137" t="n">
-        <v>0.222635</v>
+        <v>0.221944</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.348087</v>
+        <v>0.348341</v>
       </c>
       <c r="C138" t="n">
-        <v>0.250322</v>
+        <v>0.250516</v>
       </c>
       <c r="D138" t="n">
-        <v>0.22055</v>
+        <v>0.220579</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.342473</v>
+        <v>0.342397</v>
       </c>
       <c r="C139" t="n">
-        <v>0.248821</v>
+        <v>0.249268</v>
       </c>
       <c r="D139" t="n">
-        <v>0.219579</v>
+        <v>0.220495</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.335975</v>
+        <v>0.335943</v>
       </c>
       <c r="C140" t="n">
-        <v>0.248185</v>
+        <v>0.248018</v>
       </c>
       <c r="D140" t="n">
-        <v>0.218463</v>
+        <v>0.21827</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.329153</v>
+        <v>0.329394</v>
       </c>
       <c r="C141" t="n">
-        <v>0.247175</v>
+        <v>0.247027</v>
       </c>
       <c r="D141" t="n">
-        <v>0.217296</v>
+        <v>0.21782</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.322158</v>
+        <v>0.321607</v>
       </c>
       <c r="C142" t="n">
-        <v>0.245642</v>
+        <v>0.245736</v>
       </c>
       <c r="D142" t="n">
-        <v>0.216185</v>
+        <v>0.217078</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.314325</v>
+        <v>0.314104</v>
       </c>
       <c r="C143" t="n">
-        <v>0.244665</v>
+        <v>0.245099</v>
       </c>
       <c r="D143" t="n">
-        <v>0.21526</v>
+        <v>0.215645</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.295846</v>
+        <v>0.2994</v>
       </c>
       <c r="C2" t="n">
-        <v>0.222748</v>
+        <v>0.217805</v>
       </c>
       <c r="D2" t="n">
-        <v>0.197291</v>
+        <v>0.197228</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.28726</v>
+        <v>0.290994</v>
       </c>
       <c r="C3" t="n">
-        <v>0.22326</v>
+        <v>0.21925</v>
       </c>
       <c r="D3" t="n">
-        <v>0.197004</v>
+        <v>0.198349</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.278497</v>
+        <v>0.278397</v>
       </c>
       <c r="C4" t="n">
-        <v>0.223646</v>
+        <v>0.221305</v>
       </c>
       <c r="D4" t="n">
-        <v>0.19869</v>
+        <v>0.200449</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.268609</v>
+        <v>0.270095</v>
       </c>
       <c r="C5" t="n">
-        <v>0.223303</v>
+        <v>0.221338</v>
       </c>
       <c r="D5" t="n">
-        <v>0.199226</v>
+        <v>0.1987</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.25786</v>
+        <v>0.257423</v>
       </c>
       <c r="C6" t="n">
-        <v>0.222165</v>
+        <v>0.22105</v>
       </c>
       <c r="D6" t="n">
-        <v>0.198888</v>
+        <v>0.199925</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.243256</v>
+        <v>0.24421</v>
       </c>
       <c r="C7" t="n">
-        <v>0.223702</v>
+        <v>0.221496</v>
       </c>
       <c r="D7" t="n">
-        <v>0.200024</v>
+        <v>0.200923</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.230507</v>
+        <v>0.231746</v>
       </c>
       <c r="C8" t="n">
-        <v>0.222734</v>
+        <v>0.221522</v>
       </c>
       <c r="D8" t="n">
-        <v>0.201052</v>
+        <v>0.201359</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.21677</v>
+        <v>0.215673</v>
       </c>
       <c r="C9" t="n">
-        <v>0.224085</v>
+        <v>0.224568</v>
       </c>
       <c r="D9" t="n">
-        <v>0.214485</v>
+        <v>0.215603</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.341818</v>
+        <v>0.339973</v>
       </c>
       <c r="C10" t="n">
-        <v>0.240209</v>
+        <v>0.236761</v>
       </c>
       <c r="D10" t="n">
-        <v>0.213798</v>
+        <v>0.21396</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.336017</v>
+        <v>0.335785</v>
       </c>
       <c r="C11" t="n">
-        <v>0.239732</v>
+        <v>0.238197</v>
       </c>
       <c r="D11" t="n">
-        <v>0.212708</v>
+        <v>0.213237</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.33136</v>
+        <v>0.331843</v>
       </c>
       <c r="C12" t="n">
-        <v>0.239085</v>
+        <v>0.236152</v>
       </c>
       <c r="D12" t="n">
-        <v>0.212957</v>
+        <v>0.21308</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.324723</v>
+        <v>0.324808</v>
       </c>
       <c r="C13" t="n">
-        <v>0.239269</v>
+        <v>0.235294</v>
       </c>
       <c r="D13" t="n">
-        <v>0.211479</v>
+        <v>0.21256</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.317861</v>
+        <v>0.319496</v>
       </c>
       <c r="C14" t="n">
-        <v>0.237072</v>
+        <v>0.235797</v>
       </c>
       <c r="D14" t="n">
-        <v>0.211164</v>
+        <v>0.211267</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.30978</v>
+        <v>0.312776</v>
       </c>
       <c r="C15" t="n">
-        <v>0.235644</v>
+        <v>0.234045</v>
       </c>
       <c r="D15" t="n">
-        <v>0.21082</v>
+        <v>0.211204</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.301936</v>
+        <v>0.304982</v>
       </c>
       <c r="C16" t="n">
-        <v>0.235112</v>
+        <v>0.235453</v>
       </c>
       <c r="D16" t="n">
-        <v>0.209933</v>
+        <v>0.210727</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.294454</v>
+        <v>0.297634</v>
       </c>
       <c r="C17" t="n">
-        <v>0.236253</v>
+        <v>0.234252</v>
       </c>
       <c r="D17" t="n">
-        <v>0.208062</v>
+        <v>0.209243</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.286742</v>
+        <v>0.286461</v>
       </c>
       <c r="C18" t="n">
-        <v>0.236072</v>
+        <v>0.233246</v>
       </c>
       <c r="D18" t="n">
-        <v>0.208666</v>
+        <v>0.209544</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.275302</v>
+        <v>0.276859</v>
       </c>
       <c r="C19" t="n">
-        <v>0.232637</v>
+        <v>0.235105</v>
       </c>
       <c r="D19" t="n">
-        <v>0.208152</v>
+        <v>0.208758</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.264551</v>
+        <v>0.265887</v>
       </c>
       <c r="C20" t="n">
-        <v>0.23295</v>
+        <v>0.232985</v>
       </c>
       <c r="D20" t="n">
-        <v>0.207461</v>
+        <v>0.209062</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.252869</v>
+        <v>0.254189</v>
       </c>
       <c r="C21" t="n">
-        <v>0.233966</v>
+        <v>0.233072</v>
       </c>
       <c r="D21" t="n">
-        <v>0.207978</v>
+        <v>0.209459</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.24004</v>
+        <v>0.238408</v>
       </c>
       <c r="C22" t="n">
-        <v>0.233378</v>
+        <v>0.232406</v>
       </c>
       <c r="D22" t="n">
-        <v>0.207232</v>
+        <v>0.208582</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.225966</v>
+        <v>0.225196</v>
       </c>
       <c r="C23" t="n">
-        <v>0.231017</v>
+        <v>0.23151</v>
       </c>
       <c r="D23" t="n">
-        <v>0.21991</v>
+        <v>0.221233</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.347087</v>
+        <v>0.346696</v>
       </c>
       <c r="C24" t="n">
-        <v>0.246106</v>
+        <v>0.245185</v>
       </c>
       <c r="D24" t="n">
-        <v>0.218534</v>
+        <v>0.219988</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.340999</v>
+        <v>0.342115</v>
       </c>
       <c r="C25" t="n">
-        <v>0.245404</v>
+        <v>0.243084</v>
       </c>
       <c r="D25" t="n">
-        <v>0.217711</v>
+        <v>0.218635</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.334607</v>
+        <v>0.334097</v>
       </c>
       <c r="C26" t="n">
-        <v>0.242981</v>
+        <v>0.24131</v>
       </c>
       <c r="D26" t="n">
-        <v>0.215619</v>
+        <v>0.216761</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.329578</v>
+        <v>0.32735</v>
       </c>
       <c r="C27" t="n">
-        <v>0.241688</v>
+        <v>0.240533</v>
       </c>
       <c r="D27" t="n">
-        <v>0.215214</v>
+        <v>0.216025</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.323359</v>
+        <v>0.323465</v>
       </c>
       <c r="C28" t="n">
-        <v>0.24228</v>
+        <v>0.239233</v>
       </c>
       <c r="D28" t="n">
-        <v>0.213996</v>
+        <v>0.215668</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.312259</v>
+        <v>0.315184</v>
       </c>
       <c r="C29" t="n">
-        <v>0.245803</v>
+        <v>0.238335</v>
       </c>
       <c r="D29" t="n">
-        <v>0.213331</v>
+        <v>0.218272</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.312739</v>
+        <v>0.305466</v>
       </c>
       <c r="C30" t="n">
-        <v>0.238192</v>
+        <v>0.237612</v>
       </c>
       <c r="D30" t="n">
-        <v>0.211918</v>
+        <v>0.212714</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.304632</v>
+        <v>0.29931</v>
       </c>
       <c r="C31" t="n">
-        <v>0.238898</v>
+        <v>0.236793</v>
       </c>
       <c r="D31" t="n">
-        <v>0.211275</v>
+        <v>0.224549</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.289558</v>
+        <v>0.290356</v>
       </c>
       <c r="C32" t="n">
-        <v>0.238698</v>
+        <v>0.236809</v>
       </c>
       <c r="D32" t="n">
-        <v>0.21119</v>
+        <v>0.212723</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.279598</v>
+        <v>0.281854</v>
       </c>
       <c r="C33" t="n">
-        <v>0.237618</v>
+        <v>0.235941</v>
       </c>
       <c r="D33" t="n">
-        <v>0.210818</v>
+        <v>0.212315</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.268852</v>
+        <v>0.271759</v>
       </c>
       <c r="C34" t="n">
-        <v>0.236112</v>
+        <v>0.235327</v>
       </c>
       <c r="D34" t="n">
-        <v>0.210443</v>
+        <v>0.211986</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.256787</v>
+        <v>0.256865</v>
       </c>
       <c r="C35" t="n">
-        <v>0.236208</v>
+        <v>0.23525</v>
       </c>
       <c r="D35" t="n">
-        <v>0.209513</v>
+        <v>0.21092</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244589</v>
+        <v>0.245307</v>
       </c>
       <c r="C36" t="n">
-        <v>0.235981</v>
+        <v>0.233959</v>
       </c>
       <c r="D36" t="n">
-        <v>0.209591</v>
+        <v>0.211289</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.231566</v>
+        <v>0.232356</v>
       </c>
       <c r="C37" t="n">
-        <v>0.235263</v>
+        <v>0.233384</v>
       </c>
       <c r="D37" t="n">
-        <v>0.22089</v>
+        <v>0.222779</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.348196</v>
+        <v>0.3485</v>
       </c>
       <c r="C38" t="n">
-        <v>0.249612</v>
+        <v>0.246518</v>
       </c>
       <c r="D38" t="n">
-        <v>0.21957</v>
+        <v>0.221354</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.342125</v>
+        <v>0.342924</v>
       </c>
       <c r="C39" t="n">
-        <v>0.247791</v>
+        <v>0.24498</v>
       </c>
       <c r="D39" t="n">
-        <v>0.218205</v>
+        <v>0.219886</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.335555</v>
+        <v>0.337274</v>
       </c>
       <c r="C40" t="n">
-        <v>0.246363</v>
+        <v>0.244113</v>
       </c>
       <c r="D40" t="n">
-        <v>0.216901</v>
+        <v>0.218636</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.329522</v>
+        <v>0.331093</v>
       </c>
       <c r="C41" t="n">
-        <v>0.245431</v>
+        <v>0.242732</v>
       </c>
       <c r="D41" t="n">
-        <v>0.215659</v>
+        <v>0.217385</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.322839</v>
+        <v>0.324001</v>
       </c>
       <c r="C42" t="n">
-        <v>0.243947</v>
+        <v>0.241527</v>
       </c>
       <c r="D42" t="n">
-        <v>0.214247</v>
+        <v>0.216199</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.315594</v>
+        <v>0.316261</v>
       </c>
       <c r="C43" t="n">
-        <v>0.242636</v>
+        <v>0.240448</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213472</v>
+        <v>0.215228</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.307869</v>
+        <v>0.309123</v>
       </c>
       <c r="C44" t="n">
-        <v>0.24279</v>
+        <v>0.240231</v>
       </c>
       <c r="D44" t="n">
-        <v>0.213097</v>
+        <v>0.214957</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300174</v>
+        <v>0.301789</v>
       </c>
       <c r="C45" t="n">
-        <v>0.242621</v>
+        <v>0.239328</v>
       </c>
       <c r="D45" t="n">
-        <v>0.212736</v>
+        <v>0.214352</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291199</v>
+        <v>0.293052</v>
       </c>
       <c r="C46" t="n">
-        <v>0.241294</v>
+        <v>0.238519</v>
       </c>
       <c r="D46" t="n">
-        <v>0.211641</v>
+        <v>0.213567</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.281086</v>
+        <v>0.282989</v>
       </c>
       <c r="C47" t="n">
-        <v>0.241268</v>
+        <v>0.237464</v>
       </c>
       <c r="D47" t="n">
-        <v>0.210708</v>
+        <v>0.212602</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.270992</v>
+        <v>0.272798</v>
       </c>
       <c r="C48" t="n">
-        <v>0.239318</v>
+        <v>0.236887</v>
       </c>
       <c r="D48" t="n">
-        <v>0.210221</v>
+        <v>0.212127</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.259716</v>
+        <v>0.261724</v>
       </c>
       <c r="C49" t="n">
-        <v>0.238589</v>
+        <v>0.235815</v>
       </c>
       <c r="D49" t="n">
-        <v>0.209653</v>
+        <v>0.21179</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.247386</v>
+        <v>0.248676</v>
       </c>
       <c r="C50" t="n">
-        <v>0.23804</v>
+        <v>0.235719</v>
       </c>
       <c r="D50" t="n">
-        <v>0.209159</v>
+        <v>0.211303</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.233964</v>
+        <v>0.234311</v>
       </c>
       <c r="C51" t="n">
-        <v>0.237822</v>
+        <v>0.234957</v>
       </c>
       <c r="D51" t="n">
-        <v>0.221614</v>
+        <v>0.223328</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.219415</v>
+        <v>0.219999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.236525</v>
+        <v>0.234442</v>
       </c>
       <c r="D52" t="n">
-        <v>0.220242</v>
+        <v>0.222264</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.345186</v>
+        <v>0.345876</v>
       </c>
       <c r="C53" t="n">
-        <v>0.249862</v>
+        <v>0.246586</v>
       </c>
       <c r="D53" t="n">
-        <v>0.219309</v>
+        <v>0.221453</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.339323</v>
+        <v>0.340275</v>
       </c>
       <c r="C54" t="n">
-        <v>0.248378</v>
+        <v>0.245205</v>
       </c>
       <c r="D54" t="n">
-        <v>0.218138</v>
+        <v>0.220165</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.332882</v>
+        <v>0.334585</v>
       </c>
       <c r="C55" t="n">
-        <v>0.247228</v>
+        <v>0.243824</v>
       </c>
       <c r="D55" t="n">
-        <v>0.217026</v>
+        <v>0.218897</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.326398</v>
+        <v>0.328022</v>
       </c>
       <c r="C56" t="n">
-        <v>0.246049</v>
+        <v>0.242751</v>
       </c>
       <c r="D56" t="n">
-        <v>0.216224</v>
+        <v>0.218136</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.31879</v>
+        <v>0.320728</v>
       </c>
       <c r="C57" t="n">
-        <v>0.24516</v>
+        <v>0.242156</v>
       </c>
       <c r="D57" t="n">
-        <v>0.215003</v>
+        <v>0.217141</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.311071</v>
+        <v>0.312844</v>
       </c>
       <c r="C58" t="n">
-        <v>0.243557</v>
+        <v>0.241084</v>
       </c>
       <c r="D58" t="n">
-        <v>0.213841</v>
+        <v>0.216084</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.302773</v>
+        <v>0.304939</v>
       </c>
       <c r="C59" t="n">
-        <v>0.242769</v>
+        <v>0.23996</v>
       </c>
       <c r="D59" t="n">
-        <v>0.213202</v>
+        <v>0.215261</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294204</v>
+        <v>0.295825</v>
       </c>
       <c r="C60" t="n">
-        <v>0.241955</v>
+        <v>0.239984</v>
       </c>
       <c r="D60" t="n">
-        <v>0.212685</v>
+        <v>0.214703</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.285288</v>
+        <v>0.286805</v>
       </c>
       <c r="C61" t="n">
-        <v>0.241268</v>
+        <v>0.239196</v>
       </c>
       <c r="D61" t="n">
-        <v>0.212173</v>
+        <v>0.214246</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.275122</v>
+        <v>0.276813</v>
       </c>
       <c r="C62" t="n">
-        <v>0.24146</v>
+        <v>0.237875</v>
       </c>
       <c r="D62" t="n">
-        <v>0.211644</v>
+        <v>0.213508</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.264042</v>
+        <v>0.265011</v>
       </c>
       <c r="C63" t="n">
-        <v>0.24054</v>
+        <v>0.237229</v>
       </c>
       <c r="D63" t="n">
-        <v>0.210736</v>
+        <v>0.212849</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.251518</v>
+        <v>0.252752</v>
       </c>
       <c r="C64" t="n">
-        <v>0.239934</v>
+        <v>0.236712</v>
       </c>
       <c r="D64" t="n">
-        <v>0.210292</v>
+        <v>0.212458</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.238617</v>
+        <v>0.240193</v>
       </c>
       <c r="C65" t="n">
-        <v>0.238786</v>
+        <v>0.236057</v>
       </c>
       <c r="D65" t="n">
-        <v>0.209868</v>
+        <v>0.212197</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.224603</v>
+        <v>0.22601</v>
       </c>
       <c r="C66" t="n">
-        <v>0.237524</v>
+        <v>0.235518</v>
       </c>
       <c r="D66" t="n">
-        <v>0.221266</v>
+        <v>0.223076</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.347516</v>
+        <v>0.347702</v>
       </c>
       <c r="C67" t="n">
-        <v>0.250119</v>
+        <v>0.2477</v>
       </c>
       <c r="D67" t="n">
-        <v>0.220174</v>
+        <v>0.222169</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.341433</v>
+        <v>0.342421</v>
       </c>
       <c r="C68" t="n">
-        <v>0.249162</v>
+        <v>0.246334</v>
       </c>
       <c r="D68" t="n">
-        <v>0.219066</v>
+        <v>0.220771</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.335391</v>
+        <v>0.33635</v>
       </c>
       <c r="C69" t="n">
-        <v>0.247821</v>
+        <v>0.244867</v>
       </c>
       <c r="D69" t="n">
-        <v>0.217489</v>
+        <v>0.219431</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.328576</v>
+        <v>0.329566</v>
       </c>
       <c r="C70" t="n">
-        <v>0.247026</v>
+        <v>0.243913</v>
       </c>
       <c r="D70" t="n">
-        <v>0.216436</v>
+        <v>0.218376</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.321168</v>
+        <v>0.322733</v>
       </c>
       <c r="C71" t="n">
-        <v>0.245911</v>
+        <v>0.242856</v>
       </c>
       <c r="D71" t="n">
-        <v>0.215702</v>
+        <v>0.217695</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.313734</v>
+        <v>0.315138</v>
       </c>
       <c r="C72" t="n">
-        <v>0.245269</v>
+        <v>0.242308</v>
       </c>
       <c r="D72" t="n">
-        <v>0.214894</v>
+        <v>0.216939</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.305607</v>
+        <v>0.30724</v>
       </c>
       <c r="C73" t="n">
-        <v>0.244173</v>
+        <v>0.241366</v>
       </c>
       <c r="D73" t="n">
-        <v>0.214079</v>
+        <v>0.216003</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.296886</v>
+        <v>0.298388</v>
       </c>
       <c r="C74" t="n">
-        <v>0.24324</v>
+        <v>0.240818</v>
       </c>
       <c r="D74" t="n">
-        <v>0.213249</v>
+        <v>0.215255</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.28786</v>
+        <v>0.28938</v>
       </c>
       <c r="C75" t="n">
-        <v>0.242668</v>
+        <v>0.239892</v>
       </c>
       <c r="D75" t="n">
-        <v>0.212678</v>
+        <v>0.214617</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.278098</v>
+        <v>0.27928</v>
       </c>
       <c r="C76" t="n">
-        <v>0.241732</v>
+        <v>0.239109</v>
       </c>
       <c r="D76" t="n">
-        <v>0.211947</v>
+        <v>0.213845</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.267158</v>
+        <v>0.268486</v>
       </c>
       <c r="C77" t="n">
-        <v>0.240849</v>
+        <v>0.23833</v>
       </c>
       <c r="D77" t="n">
-        <v>0.211416</v>
+        <v>0.213149</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.254869</v>
+        <v>0.2564</v>
       </c>
       <c r="C78" t="n">
-        <v>0.239924</v>
+        <v>0.237455</v>
       </c>
       <c r="D78" t="n">
-        <v>0.21049</v>
+        <v>0.212639</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.242007</v>
+        <v>0.243441</v>
       </c>
       <c r="C79" t="n">
-        <v>0.239229</v>
+        <v>0.236786</v>
       </c>
       <c r="D79" t="n">
-        <v>0.209948</v>
+        <v>0.212096</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.228283</v>
+        <v>0.229356</v>
       </c>
       <c r="C80" t="n">
-        <v>0.238118</v>
+        <v>0.235864</v>
       </c>
       <c r="D80" t="n">
-        <v>0.221748</v>
+        <v>0.223574</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.349111</v>
+        <v>0.350732</v>
       </c>
       <c r="C81" t="n">
-        <v>0.250429</v>
+        <v>0.247882</v>
       </c>
       <c r="D81" t="n">
-        <v>0.220679</v>
+        <v>0.22242</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.343393</v>
+        <v>0.344165</v>
       </c>
       <c r="C82" t="n">
-        <v>0.2495</v>
+        <v>0.24673</v>
       </c>
       <c r="D82" t="n">
-        <v>0.219505</v>
+        <v>0.221183</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.337252</v>
+        <v>0.338599</v>
       </c>
       <c r="C83" t="n">
-        <v>0.248501</v>
+        <v>0.245599</v>
       </c>
       <c r="D83" t="n">
-        <v>0.21831</v>
+        <v>0.220073</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.330423</v>
+        <v>0.332135</v>
       </c>
       <c r="C84" t="n">
-        <v>0.247105</v>
+        <v>0.244264</v>
       </c>
       <c r="D84" t="n">
-        <v>0.217233</v>
+        <v>0.219062</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.323296</v>
+        <v>0.325385</v>
       </c>
       <c r="C85" t="n">
-        <v>0.246168</v>
+        <v>0.243244</v>
       </c>
       <c r="D85" t="n">
-        <v>0.216447</v>
+        <v>0.218091</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.315873</v>
+        <v>0.317573</v>
       </c>
       <c r="C86" t="n">
-        <v>0.245283</v>
+        <v>0.242289</v>
       </c>
       <c r="D86" t="n">
-        <v>0.215382</v>
+        <v>0.217089</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.307963</v>
+        <v>0.309812</v>
       </c>
       <c r="C87" t="n">
-        <v>0.244165</v>
+        <v>0.241549</v>
       </c>
       <c r="D87" t="n">
-        <v>0.21468</v>
+        <v>0.216353</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.299315</v>
+        <v>0.301246</v>
       </c>
       <c r="C88" t="n">
-        <v>0.243258</v>
+        <v>0.240742</v>
       </c>
       <c r="D88" t="n">
-        <v>0.213766</v>
+        <v>0.215599</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.290385</v>
+        <v>0.291962</v>
       </c>
       <c r="C89" t="n">
-        <v>0.242259</v>
+        <v>0.239695</v>
       </c>
       <c r="D89" t="n">
-        <v>0.213026</v>
+        <v>0.214744</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.280086</v>
+        <v>0.282267</v>
       </c>
       <c r="C90" t="n">
-        <v>0.241979</v>
+        <v>0.238926</v>
       </c>
       <c r="D90" t="n">
-        <v>0.212278</v>
+        <v>0.214078</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.269012</v>
+        <v>0.271066</v>
       </c>
       <c r="C91" t="n">
-        <v>0.240875</v>
+        <v>0.238158</v>
       </c>
       <c r="D91" t="n">
-        <v>0.211753</v>
+        <v>0.213368</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.257299</v>
+        <v>0.258885</v>
       </c>
       <c r="C92" t="n">
-        <v>0.239827</v>
+        <v>0.237483</v>
       </c>
       <c r="D92" t="n">
-        <v>0.21086</v>
+        <v>0.212798</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.244811</v>
+        <v>0.24591</v>
       </c>
       <c r="C93" t="n">
-        <v>0.238924</v>
+        <v>0.23635</v>
       </c>
       <c r="D93" t="n">
-        <v>0.210264</v>
+        <v>0.212253</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.231131</v>
+        <v>0.232147</v>
       </c>
       <c r="C94" t="n">
-        <v>0.238294</v>
+        <v>0.23606</v>
       </c>
       <c r="D94" t="n">
-        <v>0.221882</v>
+        <v>0.223568</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.350053</v>
+        <v>0.351586</v>
       </c>
       <c r="C95" t="n">
-        <v>0.250375</v>
+        <v>0.247893</v>
       </c>
       <c r="D95" t="n">
-        <v>0.220721</v>
+        <v>0.222275</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.344599</v>
+        <v>0.345536</v>
       </c>
       <c r="C96" t="n">
-        <v>0.249209</v>
+        <v>0.246681</v>
       </c>
       <c r="D96" t="n">
-        <v>0.219473</v>
+        <v>0.221212</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.338267</v>
+        <v>0.340316</v>
       </c>
       <c r="C97" t="n">
-        <v>0.248164</v>
+        <v>0.245579</v>
       </c>
       <c r="D97" t="n">
-        <v>0.218162</v>
+        <v>0.220045</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.331824</v>
+        <v>0.333673</v>
       </c>
       <c r="C98" t="n">
-        <v>0.247022</v>
+        <v>0.2446</v>
       </c>
       <c r="D98" t="n">
-        <v>0.217271</v>
+        <v>0.219085</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.324594</v>
+        <v>0.326767</v>
       </c>
       <c r="C99" t="n">
-        <v>0.246063</v>
+        <v>0.243462</v>
       </c>
       <c r="D99" t="n">
-        <v>0.21614</v>
+        <v>0.218014</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.317042</v>
+        <v>0.31889</v>
       </c>
       <c r="C100" t="n">
-        <v>0.245077</v>
+        <v>0.242563</v>
       </c>
       <c r="D100" t="n">
-        <v>0.215361</v>
+        <v>0.21729</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.308991</v>
+        <v>0.311414</v>
       </c>
       <c r="C101" t="n">
-        <v>0.244112</v>
+        <v>0.241646</v>
       </c>
       <c r="D101" t="n">
-        <v>0.214557</v>
+        <v>0.216406</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.300662</v>
+        <v>0.303026</v>
       </c>
       <c r="C102" t="n">
-        <v>0.243278</v>
+        <v>0.240667</v>
       </c>
       <c r="D102" t="n">
-        <v>0.213666</v>
+        <v>0.215503</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.291705</v>
+        <v>0.293676</v>
       </c>
       <c r="C103" t="n">
-        <v>0.242341</v>
+        <v>0.239842</v>
       </c>
       <c r="D103" t="n">
-        <v>0.213016</v>
+        <v>0.214857</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.281845</v>
+        <v>0.284246</v>
       </c>
       <c r="C104" t="n">
-        <v>0.241371</v>
+        <v>0.239077</v>
       </c>
       <c r="D104" t="n">
-        <v>0.2122</v>
+        <v>0.214057</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.271433</v>
+        <v>0.273211</v>
       </c>
       <c r="C105" t="n">
-        <v>0.240436</v>
+        <v>0.238362</v>
       </c>
       <c r="D105" t="n">
-        <v>0.211423</v>
+        <v>0.213446</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.260296</v>
+        <v>0.261553</v>
       </c>
       <c r="C106" t="n">
-        <v>0.239669</v>
+        <v>0.237472</v>
       </c>
       <c r="D106" t="n">
-        <v>0.210849</v>
+        <v>0.212647</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247595</v>
+        <v>0.248624</v>
       </c>
       <c r="C107" t="n">
-        <v>0.238927</v>
+        <v>0.236826</v>
       </c>
       <c r="D107" t="n">
-        <v>0.210156</v>
+        <v>0.212202</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.233962</v>
+        <v>0.235038</v>
       </c>
       <c r="C108" t="n">
-        <v>0.237978</v>
+        <v>0.236164</v>
       </c>
       <c r="D108" t="n">
-        <v>0.222222</v>
+        <v>0.223848</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.219685</v>
+        <v>0.220279</v>
       </c>
       <c r="C109" t="n">
-        <v>0.237233</v>
+        <v>0.235611</v>
       </c>
       <c r="D109" t="n">
-        <v>0.220954</v>
+        <v>0.222522</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.345483</v>
+        <v>0.346692</v>
       </c>
       <c r="C110" t="n">
-        <v>0.249451</v>
+        <v>0.247269</v>
       </c>
       <c r="D110" t="n">
-        <v>0.219753</v>
+        <v>0.221356</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.339482</v>
+        <v>0.341193</v>
       </c>
       <c r="C111" t="n">
-        <v>0.248349</v>
+        <v>0.246125</v>
       </c>
       <c r="D111" t="n">
-        <v>0.218627</v>
+        <v>0.22013</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.332764</v>
+        <v>0.33461</v>
       </c>
       <c r="C112" t="n">
-        <v>0.247096</v>
+        <v>0.244817</v>
       </c>
       <c r="D112" t="n">
-        <v>0.217443</v>
+        <v>0.219079</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.326227</v>
+        <v>0.328069</v>
       </c>
       <c r="C113" t="n">
-        <v>0.246095</v>
+        <v>0.243722</v>
       </c>
       <c r="D113" t="n">
-        <v>0.216617</v>
+        <v>0.218472</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.318426</v>
+        <v>0.320905</v>
       </c>
       <c r="C114" t="n">
-        <v>0.244964</v>
+        <v>0.24292</v>
       </c>
       <c r="D114" t="n">
-        <v>0.215517</v>
+        <v>0.217256</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.310605</v>
+        <v>0.313321</v>
       </c>
       <c r="C115" t="n">
-        <v>0.24407</v>
+        <v>0.241904</v>
       </c>
       <c r="D115" t="n">
-        <v>0.214613</v>
+        <v>0.216385</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.302607</v>
+        <v>0.305092</v>
       </c>
       <c r="C116" t="n">
-        <v>0.243141</v>
+        <v>0.241371</v>
       </c>
       <c r="D116" t="n">
-        <v>0.213969</v>
+        <v>0.216079</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293493</v>
+        <v>0.296063</v>
       </c>
       <c r="C117" t="n">
-        <v>0.242312</v>
+        <v>0.240458</v>
       </c>
       <c r="D117" t="n">
-        <v>0.213185</v>
+        <v>0.215005</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.284105</v>
+        <v>0.286266</v>
       </c>
       <c r="C118" t="n">
-        <v>0.241538</v>
+        <v>0.239773</v>
       </c>
       <c r="D118" t="n">
-        <v>0.21248</v>
+        <v>0.214325</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.273779</v>
+        <v>0.276155</v>
       </c>
       <c r="C119" t="n">
-        <v>0.240618</v>
+        <v>0.238766</v>
       </c>
       <c r="D119" t="n">
-        <v>0.211717</v>
+        <v>0.213617</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.262476</v>
+        <v>0.264221</v>
       </c>
       <c r="C120" t="n">
-        <v>0.239709</v>
+        <v>0.237863</v>
       </c>
       <c r="D120" t="n">
-        <v>0.210887</v>
+        <v>0.213032</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.250286</v>
+        <v>0.251803</v>
       </c>
       <c r="C121" t="n">
-        <v>0.239029</v>
+        <v>0.237205</v>
       </c>
       <c r="D121" t="n">
-        <v>0.210346</v>
+        <v>0.212503</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.237066</v>
+        <v>0.238397</v>
       </c>
       <c r="C122" t="n">
-        <v>0.238174</v>
+        <v>0.236637</v>
       </c>
       <c r="D122" t="n">
-        <v>0.210293</v>
+        <v>0.212085</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.222867</v>
+        <v>0.223428</v>
       </c>
       <c r="C123" t="n">
-        <v>0.237125</v>
+        <v>0.235955</v>
       </c>
       <c r="D123" t="n">
-        <v>0.221445</v>
+        <v>0.223031</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.346928</v>
+        <v>0.348226</v>
       </c>
       <c r="C124" t="n">
-        <v>0.249883</v>
+        <v>0.248347</v>
       </c>
       <c r="D124" t="n">
-        <v>0.220334</v>
+        <v>0.222147</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.340886</v>
+        <v>0.342587</v>
       </c>
       <c r="C125" t="n">
-        <v>0.24871</v>
+        <v>0.247232</v>
       </c>
       <c r="D125" t="n">
-        <v>0.219279</v>
+        <v>0.220781</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.334395</v>
+        <v>0.336385</v>
       </c>
       <c r="C126" t="n">
-        <v>0.247805</v>
+        <v>0.245888</v>
       </c>
       <c r="D126" t="n">
-        <v>0.218252</v>
+        <v>0.219917</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.327999</v>
+        <v>0.330268</v>
       </c>
       <c r="C127" t="n">
-        <v>0.246409</v>
+        <v>0.244936</v>
       </c>
       <c r="D127" t="n">
-        <v>0.217206</v>
+        <v>0.218669</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.320739</v>
+        <v>0.322945</v>
       </c>
       <c r="C128" t="n">
-        <v>0.245368</v>
+        <v>0.244486</v>
       </c>
       <c r="D128" t="n">
-        <v>0.216073</v>
+        <v>0.217752</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.312793</v>
+        <v>0.31542</v>
       </c>
       <c r="C129" t="n">
-        <v>0.244471</v>
+        <v>0.243091</v>
       </c>
       <c r="D129" t="n">
-        <v>0.215177</v>
+        <v>0.216694</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.304944</v>
+        <v>0.307385</v>
       </c>
       <c r="C130" t="n">
-        <v>0.243671</v>
+        <v>0.24199</v>
       </c>
       <c r="D130" t="n">
-        <v>0.214246</v>
+        <v>0.216514</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.29626</v>
+        <v>0.2987</v>
       </c>
       <c r="C131" t="n">
-        <v>0.242963</v>
+        <v>0.241431</v>
       </c>
       <c r="D131" t="n">
-        <v>0.213427</v>
+        <v>0.215236</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.286511</v>
+        <v>0.28911</v>
       </c>
       <c r="C132" t="n">
-        <v>0.241959</v>
+        <v>0.240272</v>
       </c>
       <c r="D132" t="n">
-        <v>0.212696</v>
+        <v>0.214368</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.276584</v>
+        <v>0.278617</v>
       </c>
       <c r="C133" t="n">
-        <v>0.241218</v>
+        <v>0.239476</v>
       </c>
       <c r="D133" t="n">
-        <v>0.211995</v>
+        <v>0.213771</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.265652</v>
+        <v>0.267258</v>
       </c>
       <c r="C134" t="n">
-        <v>0.240108</v>
+        <v>0.23883</v>
       </c>
       <c r="D134" t="n">
-        <v>0.211245</v>
+        <v>0.213426</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.253748</v>
+        <v>0.254604</v>
       </c>
       <c r="C135" t="n">
-        <v>0.239294</v>
+        <v>0.238011</v>
       </c>
       <c r="D135" t="n">
-        <v>0.210577</v>
+        <v>0.212628</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.24055</v>
+        <v>0.242137</v>
       </c>
       <c r="C136" t="n">
-        <v>0.238484</v>
+        <v>0.237455</v>
       </c>
       <c r="D136" t="n">
-        <v>0.210265</v>
+        <v>0.212124</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.226618</v>
+        <v>0.227274</v>
       </c>
       <c r="C137" t="n">
-        <v>0.23776</v>
+        <v>0.237312</v>
       </c>
       <c r="D137" t="n">
-        <v>0.221944</v>
+        <v>0.224031</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.348341</v>
+        <v>0.349711</v>
       </c>
       <c r="C138" t="n">
-        <v>0.250516</v>
+        <v>0.250117</v>
       </c>
       <c r="D138" t="n">
-        <v>0.220579</v>
+        <v>0.222489</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.342397</v>
+        <v>0.344083</v>
       </c>
       <c r="C139" t="n">
-        <v>0.249268</v>
+        <v>0.248963</v>
       </c>
       <c r="D139" t="n">
-        <v>0.220495</v>
+        <v>0.221371</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.335943</v>
+        <v>0.338136</v>
       </c>
       <c r="C140" t="n">
-        <v>0.248018</v>
+        <v>0.248472</v>
       </c>
       <c r="D140" t="n">
-        <v>0.21827</v>
+        <v>0.221166</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.329394</v>
+        <v>0.331891</v>
       </c>
       <c r="C141" t="n">
-        <v>0.247027</v>
+        <v>0.247042</v>
       </c>
       <c r="D141" t="n">
-        <v>0.21782</v>
+        <v>0.21901</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.321607</v>
+        <v>0.324656</v>
       </c>
       <c r="C142" t="n">
-        <v>0.245736</v>
+        <v>0.245749</v>
       </c>
       <c r="D142" t="n">
-        <v>0.217078</v>
+        <v>0.21862</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.314104</v>
+        <v>0.317229</v>
       </c>
       <c r="C143" t="n">
-        <v>0.245099</v>
+        <v>0.244896</v>
       </c>
       <c r="D143" t="n">
-        <v>0.215645</v>
+        <v>0.217215</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2994</v>
+        <v>0.29717</v>
       </c>
       <c r="C2" t="n">
-        <v>0.217805</v>
+        <v>0.22389</v>
       </c>
       <c r="D2" t="n">
-        <v>0.197228</v>
+        <v>0.198691</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.290994</v>
+        <v>0.289634</v>
       </c>
       <c r="C3" t="n">
-        <v>0.21925</v>
+        <v>0.22301</v>
       </c>
       <c r="D3" t="n">
-        <v>0.198349</v>
+        <v>0.198179</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.278397</v>
+        <v>0.278628</v>
       </c>
       <c r="C4" t="n">
-        <v>0.221305</v>
+        <v>0.224866</v>
       </c>
       <c r="D4" t="n">
-        <v>0.200449</v>
+        <v>0.201353</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.270095</v>
+        <v>0.270812</v>
       </c>
       <c r="C5" t="n">
-        <v>0.221338</v>
+        <v>0.223818</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1987</v>
+        <v>0.20057</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.257423</v>
+        <v>0.258036</v>
       </c>
       <c r="C6" t="n">
-        <v>0.22105</v>
+        <v>0.224723</v>
       </c>
       <c r="D6" t="n">
-        <v>0.199925</v>
+        <v>0.201972</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.24421</v>
+        <v>0.243633</v>
       </c>
       <c r="C7" t="n">
-        <v>0.221496</v>
+        <v>0.225066</v>
       </c>
       <c r="D7" t="n">
-        <v>0.200923</v>
+        <v>0.201365</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.231746</v>
+        <v>0.233231</v>
       </c>
       <c r="C8" t="n">
-        <v>0.221522</v>
+        <v>0.225832</v>
       </c>
       <c r="D8" t="n">
-        <v>0.201359</v>
+        <v>0.202524</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.215673</v>
+        <v>0.218114</v>
       </c>
       <c r="C9" t="n">
-        <v>0.224568</v>
+        <v>0.226812</v>
       </c>
       <c r="D9" t="n">
-        <v>0.215603</v>
+        <v>0.218345</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.339973</v>
+        <v>0.344714</v>
       </c>
       <c r="C10" t="n">
-        <v>0.236761</v>
+        <v>0.247061</v>
       </c>
       <c r="D10" t="n">
-        <v>0.21396</v>
+        <v>0.216147</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.335785</v>
+        <v>0.338404</v>
       </c>
       <c r="C11" t="n">
-        <v>0.238197</v>
+        <v>0.244894</v>
       </c>
       <c r="D11" t="n">
-        <v>0.213237</v>
+        <v>0.215449</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.331843</v>
+        <v>0.3328</v>
       </c>
       <c r="C12" t="n">
-        <v>0.236152</v>
+        <v>0.243485</v>
       </c>
       <c r="D12" t="n">
-        <v>0.21308</v>
+        <v>0.21452</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.324808</v>
+        <v>0.326605</v>
       </c>
       <c r="C13" t="n">
-        <v>0.235294</v>
+        <v>0.241353</v>
       </c>
       <c r="D13" t="n">
-        <v>0.21256</v>
+        <v>0.213151</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.319496</v>
+        <v>0.320813</v>
       </c>
       <c r="C14" t="n">
-        <v>0.235797</v>
+        <v>0.238986</v>
       </c>
       <c r="D14" t="n">
-        <v>0.211267</v>
+        <v>0.21256</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.312776</v>
+        <v>0.311928</v>
       </c>
       <c r="C15" t="n">
-        <v>0.234045</v>
+        <v>0.238683</v>
       </c>
       <c r="D15" t="n">
-        <v>0.211204</v>
+        <v>0.210913</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.304982</v>
+        <v>0.305421</v>
       </c>
       <c r="C16" t="n">
-        <v>0.235453</v>
+        <v>0.238939</v>
       </c>
       <c r="D16" t="n">
-        <v>0.210727</v>
+        <v>0.210097</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.297634</v>
+        <v>0.297891</v>
       </c>
       <c r="C17" t="n">
-        <v>0.234252</v>
+        <v>0.239025</v>
       </c>
       <c r="D17" t="n">
-        <v>0.209243</v>
+        <v>0.210079</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.286461</v>
+        <v>0.2875</v>
       </c>
       <c r="C18" t="n">
-        <v>0.233246</v>
+        <v>0.239203</v>
       </c>
       <c r="D18" t="n">
-        <v>0.209544</v>
+        <v>0.209552</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.276859</v>
+        <v>0.275427</v>
       </c>
       <c r="C19" t="n">
-        <v>0.235105</v>
+        <v>0.237833</v>
       </c>
       <c r="D19" t="n">
-        <v>0.208758</v>
+        <v>0.209081</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.265887</v>
+        <v>0.264937</v>
       </c>
       <c r="C20" t="n">
-        <v>0.232985</v>
+        <v>0.237367</v>
       </c>
       <c r="D20" t="n">
-        <v>0.209062</v>
+        <v>0.209804</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.254189</v>
+        <v>0.253689</v>
       </c>
       <c r="C21" t="n">
-        <v>0.233072</v>
+        <v>0.237164</v>
       </c>
       <c r="D21" t="n">
-        <v>0.209459</v>
+        <v>0.209823</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.238408</v>
+        <v>0.240111</v>
       </c>
       <c r="C22" t="n">
-        <v>0.232406</v>
+        <v>0.237735</v>
       </c>
       <c r="D22" t="n">
-        <v>0.208582</v>
+        <v>0.209291</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.225196</v>
+        <v>0.227129</v>
       </c>
       <c r="C23" t="n">
-        <v>0.23151</v>
+        <v>0.237351</v>
       </c>
       <c r="D23" t="n">
-        <v>0.221233</v>
+        <v>0.224666</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.346696</v>
+        <v>0.348612</v>
       </c>
       <c r="C24" t="n">
-        <v>0.245185</v>
+        <v>0.254466</v>
       </c>
       <c r="D24" t="n">
-        <v>0.219988</v>
+        <v>0.221973</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342115</v>
+        <v>0.342082</v>
       </c>
       <c r="C25" t="n">
-        <v>0.243084</v>
+        <v>0.252924</v>
       </c>
       <c r="D25" t="n">
-        <v>0.218635</v>
+        <v>0.220688</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.334097</v>
+        <v>0.335978</v>
       </c>
       <c r="C26" t="n">
-        <v>0.24131</v>
+        <v>0.250891</v>
       </c>
       <c r="D26" t="n">
-        <v>0.216761</v>
+        <v>0.220107</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.32735</v>
+        <v>0.328756</v>
       </c>
       <c r="C27" t="n">
-        <v>0.240533</v>
+        <v>0.24955</v>
       </c>
       <c r="D27" t="n">
-        <v>0.216025</v>
+        <v>0.217975</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.323465</v>
+        <v>0.321614</v>
       </c>
       <c r="C28" t="n">
-        <v>0.239233</v>
+        <v>0.247138</v>
       </c>
       <c r="D28" t="n">
-        <v>0.215668</v>
+        <v>0.216943</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.315184</v>
+        <v>0.314292</v>
       </c>
       <c r="C29" t="n">
-        <v>0.238335</v>
+        <v>0.246601</v>
       </c>
       <c r="D29" t="n">
-        <v>0.218272</v>
+        <v>0.216031</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.305466</v>
+        <v>0.306346</v>
       </c>
       <c r="C30" t="n">
-        <v>0.237612</v>
+        <v>0.245083</v>
       </c>
       <c r="D30" t="n">
-        <v>0.212714</v>
+        <v>0.214538</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.29931</v>
+        <v>0.297981</v>
       </c>
       <c r="C31" t="n">
-        <v>0.236793</v>
+        <v>0.243708</v>
       </c>
       <c r="D31" t="n">
-        <v>0.224549</v>
+        <v>0.214238</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.290356</v>
+        <v>0.288773</v>
       </c>
       <c r="C32" t="n">
-        <v>0.236809</v>
+        <v>0.243406</v>
       </c>
       <c r="D32" t="n">
-        <v>0.212723</v>
+        <v>0.213623</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.281854</v>
+        <v>0.279633</v>
       </c>
       <c r="C33" t="n">
-        <v>0.235941</v>
+        <v>0.242488</v>
       </c>
       <c r="D33" t="n">
-        <v>0.212315</v>
+        <v>0.213316</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.271759</v>
+        <v>0.269393</v>
       </c>
       <c r="C34" t="n">
-        <v>0.235327</v>
+        <v>0.241831</v>
       </c>
       <c r="D34" t="n">
-        <v>0.211986</v>
+        <v>0.212726</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.256865</v>
+        <v>0.25842</v>
       </c>
       <c r="C35" t="n">
-        <v>0.23525</v>
+        <v>0.242154</v>
       </c>
       <c r="D35" t="n">
-        <v>0.21092</v>
+        <v>0.212326</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.245307</v>
+        <v>0.244912</v>
       </c>
       <c r="C36" t="n">
-        <v>0.233959</v>
+        <v>0.241673</v>
       </c>
       <c r="D36" t="n">
-        <v>0.211289</v>
+        <v>0.211922</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.232356</v>
+        <v>0.230974</v>
       </c>
       <c r="C37" t="n">
-        <v>0.233384</v>
+        <v>0.241319</v>
       </c>
       <c r="D37" t="n">
-        <v>0.222779</v>
+        <v>0.226591</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3485</v>
+        <v>0.349424</v>
       </c>
       <c r="C38" t="n">
-        <v>0.246518</v>
+        <v>0.261211</v>
       </c>
       <c r="D38" t="n">
-        <v>0.221354</v>
+        <v>0.223903</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.342924</v>
+        <v>0.344345</v>
       </c>
       <c r="C39" t="n">
-        <v>0.24498</v>
+        <v>0.257428</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219886</v>
+        <v>0.222044</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.337274</v>
+        <v>0.338157</v>
       </c>
       <c r="C40" t="n">
-        <v>0.244113</v>
+        <v>0.25438</v>
       </c>
       <c r="D40" t="n">
-        <v>0.218636</v>
+        <v>0.22045</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.331093</v>
+        <v>0.331307</v>
       </c>
       <c r="C41" t="n">
-        <v>0.242732</v>
+        <v>0.251417</v>
       </c>
       <c r="D41" t="n">
-        <v>0.217385</v>
+        <v>0.218886</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.324001</v>
+        <v>0.324314</v>
       </c>
       <c r="C42" t="n">
-        <v>0.241527</v>
+        <v>0.25048</v>
       </c>
       <c r="D42" t="n">
-        <v>0.216199</v>
+        <v>0.21775</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.316261</v>
+        <v>0.316341</v>
       </c>
       <c r="C43" t="n">
-        <v>0.240448</v>
+        <v>0.249154</v>
       </c>
       <c r="D43" t="n">
-        <v>0.215228</v>
+        <v>0.216666</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.309123</v>
+        <v>0.309315</v>
       </c>
       <c r="C44" t="n">
-        <v>0.240231</v>
+        <v>0.247615</v>
       </c>
       <c r="D44" t="n">
-        <v>0.214957</v>
+        <v>0.215499</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.301789</v>
+        <v>0.300539</v>
       </c>
       <c r="C45" t="n">
-        <v>0.239328</v>
+        <v>0.246801</v>
       </c>
       <c r="D45" t="n">
-        <v>0.214352</v>
+        <v>0.214467</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.293052</v>
+        <v>0.291817</v>
       </c>
       <c r="C46" t="n">
-        <v>0.238519</v>
+        <v>0.245558</v>
       </c>
       <c r="D46" t="n">
-        <v>0.213567</v>
+        <v>0.214217</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.282989</v>
+        <v>0.282922</v>
       </c>
       <c r="C47" t="n">
-        <v>0.237464</v>
+        <v>0.244824</v>
       </c>
       <c r="D47" t="n">
-        <v>0.212602</v>
+        <v>0.213968</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.272798</v>
+        <v>0.271631</v>
       </c>
       <c r="C48" t="n">
-        <v>0.236887</v>
+        <v>0.243491</v>
       </c>
       <c r="D48" t="n">
-        <v>0.212127</v>
+        <v>0.213117</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.261724</v>
+        <v>0.260896</v>
       </c>
       <c r="C49" t="n">
-        <v>0.235815</v>
+        <v>0.243012</v>
       </c>
       <c r="D49" t="n">
-        <v>0.21179</v>
+        <v>0.213251</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.248676</v>
+        <v>0.249109</v>
       </c>
       <c r="C50" t="n">
-        <v>0.235719</v>
+        <v>0.242578</v>
       </c>
       <c r="D50" t="n">
-        <v>0.211303</v>
+        <v>0.213717</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.234311</v>
+        <v>0.235015</v>
       </c>
       <c r="C51" t="n">
-        <v>0.234957</v>
+        <v>0.242191</v>
       </c>
       <c r="D51" t="n">
-        <v>0.223328</v>
+        <v>0.225935</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.219999</v>
+        <v>0.219804</v>
       </c>
       <c r="C52" t="n">
-        <v>0.234442</v>
+        <v>0.241381</v>
       </c>
       <c r="D52" t="n">
-        <v>0.222264</v>
+        <v>0.22381</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.345876</v>
+        <v>0.346935</v>
       </c>
       <c r="C53" t="n">
-        <v>0.246586</v>
+        <v>0.257491</v>
       </c>
       <c r="D53" t="n">
-        <v>0.221453</v>
+        <v>0.222112</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.340275</v>
+        <v>0.340942</v>
       </c>
       <c r="C54" t="n">
-        <v>0.245205</v>
+        <v>0.254718</v>
       </c>
       <c r="D54" t="n">
-        <v>0.220165</v>
+        <v>0.220696</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.334585</v>
+        <v>0.334808</v>
       </c>
       <c r="C55" t="n">
-        <v>0.243824</v>
+        <v>0.251885</v>
       </c>
       <c r="D55" t="n">
-        <v>0.218897</v>
+        <v>0.219636</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.328022</v>
+        <v>0.327519</v>
       </c>
       <c r="C56" t="n">
-        <v>0.242751</v>
+        <v>0.250188</v>
       </c>
       <c r="D56" t="n">
-        <v>0.218136</v>
+        <v>0.218212</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.320728</v>
+        <v>0.320467</v>
       </c>
       <c r="C57" t="n">
-        <v>0.242156</v>
+        <v>0.249021</v>
       </c>
       <c r="D57" t="n">
-        <v>0.217141</v>
+        <v>0.217148</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.312844</v>
+        <v>0.313009</v>
       </c>
       <c r="C58" t="n">
-        <v>0.241084</v>
+        <v>0.247766</v>
       </c>
       <c r="D58" t="n">
-        <v>0.216084</v>
+        <v>0.216451</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304939</v>
+        <v>0.304474</v>
       </c>
       <c r="C59" t="n">
-        <v>0.23996</v>
+        <v>0.246601</v>
       </c>
       <c r="D59" t="n">
-        <v>0.215261</v>
+        <v>0.215436</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.295825</v>
+        <v>0.294652</v>
       </c>
       <c r="C60" t="n">
-        <v>0.239984</v>
+        <v>0.245585</v>
       </c>
       <c r="D60" t="n">
-        <v>0.214703</v>
+        <v>0.214575</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.286805</v>
+        <v>0.285017</v>
       </c>
       <c r="C61" t="n">
-        <v>0.239196</v>
+        <v>0.244968</v>
       </c>
       <c r="D61" t="n">
-        <v>0.214246</v>
+        <v>0.214298</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.276813</v>
+        <v>0.274545</v>
       </c>
       <c r="C62" t="n">
-        <v>0.237875</v>
+        <v>0.243985</v>
       </c>
       <c r="D62" t="n">
-        <v>0.213508</v>
+        <v>0.213475</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.265011</v>
+        <v>0.263277</v>
       </c>
       <c r="C63" t="n">
-        <v>0.237229</v>
+        <v>0.243042</v>
       </c>
       <c r="D63" t="n">
-        <v>0.212849</v>
+        <v>0.213156</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.252752</v>
+        <v>0.250732</v>
       </c>
       <c r="C64" t="n">
-        <v>0.236712</v>
+        <v>0.242854</v>
       </c>
       <c r="D64" t="n">
-        <v>0.212458</v>
+        <v>0.212456</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.240193</v>
+        <v>0.237731</v>
       </c>
       <c r="C65" t="n">
-        <v>0.236057</v>
+        <v>0.241995</v>
       </c>
       <c r="D65" t="n">
-        <v>0.212197</v>
+        <v>0.212457</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.22601</v>
+        <v>0.223362</v>
       </c>
       <c r="C66" t="n">
-        <v>0.235518</v>
+        <v>0.241379</v>
       </c>
       <c r="D66" t="n">
-        <v>0.223076</v>
+        <v>0.2249</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.347702</v>
+        <v>0.349022</v>
       </c>
       <c r="C67" t="n">
-        <v>0.2477</v>
+        <v>0.259458</v>
       </c>
       <c r="D67" t="n">
-        <v>0.222169</v>
+        <v>0.2229</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.342421</v>
+        <v>0.342651</v>
       </c>
       <c r="C68" t="n">
-        <v>0.246334</v>
+        <v>0.255605</v>
       </c>
       <c r="D68" t="n">
-        <v>0.220771</v>
+        <v>0.221128</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.33635</v>
+        <v>0.336627</v>
       </c>
       <c r="C69" t="n">
-        <v>0.244867</v>
+        <v>0.252743</v>
       </c>
       <c r="D69" t="n">
-        <v>0.219431</v>
+        <v>0.219621</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.329566</v>
+        <v>0.329807</v>
       </c>
       <c r="C70" t="n">
-        <v>0.243913</v>
+        <v>0.250863</v>
       </c>
       <c r="D70" t="n">
-        <v>0.218376</v>
+        <v>0.218621</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.322733</v>
+        <v>0.322679</v>
       </c>
       <c r="C71" t="n">
-        <v>0.242856</v>
+        <v>0.249547</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217695</v>
+        <v>0.217433</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.315138</v>
+        <v>0.315589</v>
       </c>
       <c r="C72" t="n">
-        <v>0.242308</v>
+        <v>0.248058</v>
       </c>
       <c r="D72" t="n">
-        <v>0.216939</v>
+        <v>0.21661</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.30724</v>
+        <v>0.306756</v>
       </c>
       <c r="C73" t="n">
-        <v>0.241366</v>
+        <v>0.246859</v>
       </c>
       <c r="D73" t="n">
-        <v>0.216003</v>
+        <v>0.215445</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.298388</v>
+        <v>0.298424</v>
       </c>
       <c r="C74" t="n">
-        <v>0.240818</v>
+        <v>0.245826</v>
       </c>
       <c r="D74" t="n">
-        <v>0.215255</v>
+        <v>0.21461</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.28938</v>
+        <v>0.288804</v>
       </c>
       <c r="C75" t="n">
-        <v>0.239892</v>
+        <v>0.245053</v>
       </c>
       <c r="D75" t="n">
-        <v>0.214617</v>
+        <v>0.214003</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.27928</v>
+        <v>0.278589</v>
       </c>
       <c r="C76" t="n">
-        <v>0.239109</v>
+        <v>0.244183</v>
       </c>
       <c r="D76" t="n">
-        <v>0.213845</v>
+        <v>0.213409</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.268486</v>
+        <v>0.267438</v>
       </c>
       <c r="C77" t="n">
-        <v>0.23833</v>
+        <v>0.243174</v>
       </c>
       <c r="D77" t="n">
-        <v>0.213149</v>
+        <v>0.212981</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.2564</v>
+        <v>0.254903</v>
       </c>
       <c r="C78" t="n">
-        <v>0.237455</v>
+        <v>0.242325</v>
       </c>
       <c r="D78" t="n">
-        <v>0.212639</v>
+        <v>0.212636</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.243441</v>
+        <v>0.241705</v>
       </c>
       <c r="C79" t="n">
-        <v>0.236786</v>
+        <v>0.241958</v>
       </c>
       <c r="D79" t="n">
-        <v>0.212096</v>
+        <v>0.212432</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.229356</v>
+        <v>0.227251</v>
       </c>
       <c r="C80" t="n">
-        <v>0.235864</v>
+        <v>0.241621</v>
       </c>
       <c r="D80" t="n">
-        <v>0.223574</v>
+        <v>0.225314</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.350732</v>
+        <v>0.350457</v>
       </c>
       <c r="C81" t="n">
-        <v>0.247882</v>
+        <v>0.258816</v>
       </c>
       <c r="D81" t="n">
-        <v>0.22242</v>
+        <v>0.223337</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.344165</v>
+        <v>0.344463</v>
       </c>
       <c r="C82" t="n">
-        <v>0.24673</v>
+        <v>0.255253</v>
       </c>
       <c r="D82" t="n">
-        <v>0.221183</v>
+        <v>0.221668</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.338599</v>
+        <v>0.339028</v>
       </c>
       <c r="C83" t="n">
-        <v>0.245599</v>
+        <v>0.252675</v>
       </c>
       <c r="D83" t="n">
-        <v>0.220073</v>
+        <v>0.2201</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.332135</v>
+        <v>0.331637</v>
       </c>
       <c r="C84" t="n">
-        <v>0.244264</v>
+        <v>0.250677</v>
       </c>
       <c r="D84" t="n">
-        <v>0.219062</v>
+        <v>0.218816</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.325385</v>
+        <v>0.324364</v>
       </c>
       <c r="C85" t="n">
-        <v>0.243244</v>
+        <v>0.249413</v>
       </c>
       <c r="D85" t="n">
-        <v>0.218091</v>
+        <v>0.217716</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.317573</v>
+        <v>0.316706</v>
       </c>
       <c r="C86" t="n">
-        <v>0.242289</v>
+        <v>0.248211</v>
       </c>
       <c r="D86" t="n">
-        <v>0.217089</v>
+        <v>0.216614</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.309812</v>
+        <v>0.30862</v>
       </c>
       <c r="C87" t="n">
-        <v>0.241549</v>
+        <v>0.247038</v>
       </c>
       <c r="D87" t="n">
-        <v>0.216353</v>
+        <v>0.215746</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.301246</v>
+        <v>0.300078</v>
       </c>
       <c r="C88" t="n">
-        <v>0.240742</v>
+        <v>0.246209</v>
       </c>
       <c r="D88" t="n">
-        <v>0.215599</v>
+        <v>0.214976</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.291962</v>
+        <v>0.290807</v>
       </c>
       <c r="C89" t="n">
-        <v>0.239695</v>
+        <v>0.245225</v>
       </c>
       <c r="D89" t="n">
-        <v>0.214744</v>
+        <v>0.21429</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.282267</v>
+        <v>0.280339</v>
       </c>
       <c r="C90" t="n">
-        <v>0.238926</v>
+        <v>0.244525</v>
       </c>
       <c r="D90" t="n">
-        <v>0.214078</v>
+        <v>0.213693</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.271066</v>
+        <v>0.269649</v>
       </c>
       <c r="C91" t="n">
-        <v>0.238158</v>
+        <v>0.243645</v>
       </c>
       <c r="D91" t="n">
-        <v>0.213368</v>
+        <v>0.213101</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.258885</v>
+        <v>0.257946</v>
       </c>
       <c r="C92" t="n">
-        <v>0.237483</v>
+        <v>0.242974</v>
       </c>
       <c r="D92" t="n">
-        <v>0.212798</v>
+        <v>0.212801</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.24591</v>
+        <v>0.244831</v>
       </c>
       <c r="C93" t="n">
-        <v>0.23635</v>
+        <v>0.242352</v>
       </c>
       <c r="D93" t="n">
-        <v>0.212253</v>
+        <v>0.212723</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.232147</v>
+        <v>0.230791</v>
       </c>
       <c r="C94" t="n">
-        <v>0.23606</v>
+        <v>0.241934</v>
       </c>
       <c r="D94" t="n">
-        <v>0.223568</v>
+        <v>0.225784</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.351586</v>
+        <v>0.351905</v>
       </c>
       <c r="C95" t="n">
-        <v>0.247893</v>
+        <v>0.259491</v>
       </c>
       <c r="D95" t="n">
-        <v>0.222275</v>
+        <v>0.223663</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.345536</v>
+        <v>0.345902</v>
       </c>
       <c r="C96" t="n">
-        <v>0.246681</v>
+        <v>0.256108</v>
       </c>
       <c r="D96" t="n">
-        <v>0.221212</v>
+        <v>0.221845</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.340316</v>
+        <v>0.340122</v>
       </c>
       <c r="C97" t="n">
-        <v>0.245579</v>
+        <v>0.253523</v>
       </c>
       <c r="D97" t="n">
-        <v>0.220045</v>
+        <v>0.220341</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.333673</v>
+        <v>0.333407</v>
       </c>
       <c r="C98" t="n">
-        <v>0.2446</v>
+        <v>0.251395</v>
       </c>
       <c r="D98" t="n">
-        <v>0.219085</v>
+        <v>0.219037</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.326767</v>
+        <v>0.325975</v>
       </c>
       <c r="C99" t="n">
-        <v>0.243462</v>
+        <v>0.250002</v>
       </c>
       <c r="D99" t="n">
-        <v>0.218014</v>
+        <v>0.217835</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.31889</v>
+        <v>0.318595</v>
       </c>
       <c r="C100" t="n">
-        <v>0.242563</v>
+        <v>0.248675</v>
       </c>
       <c r="D100" t="n">
-        <v>0.21729</v>
+        <v>0.216836</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.311414</v>
+        <v>0.310772</v>
       </c>
       <c r="C101" t="n">
-        <v>0.241646</v>
+        <v>0.247387</v>
       </c>
       <c r="D101" t="n">
-        <v>0.216406</v>
+        <v>0.215922</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.303026</v>
+        <v>0.301883</v>
       </c>
       <c r="C102" t="n">
-        <v>0.240667</v>
+        <v>0.246616</v>
       </c>
       <c r="D102" t="n">
-        <v>0.215503</v>
+        <v>0.21513</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.293676</v>
+        <v>0.292893</v>
       </c>
       <c r="C103" t="n">
-        <v>0.239842</v>
+        <v>0.24571</v>
       </c>
       <c r="D103" t="n">
-        <v>0.214857</v>
+        <v>0.214366</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.284246</v>
+        <v>0.282985</v>
       </c>
       <c r="C104" t="n">
-        <v>0.239077</v>
+        <v>0.244685</v>
       </c>
       <c r="D104" t="n">
-        <v>0.214057</v>
+        <v>0.213787</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.273211</v>
+        <v>0.272184</v>
       </c>
       <c r="C105" t="n">
-        <v>0.238362</v>
+        <v>0.243855</v>
       </c>
       <c r="D105" t="n">
-        <v>0.213446</v>
+        <v>0.213246</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.261553</v>
+        <v>0.260396</v>
       </c>
       <c r="C106" t="n">
-        <v>0.237472</v>
+        <v>0.24313</v>
       </c>
       <c r="D106" t="n">
-        <v>0.212647</v>
+        <v>0.212597</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.248624</v>
+        <v>0.247489</v>
       </c>
       <c r="C107" t="n">
-        <v>0.236826</v>
+        <v>0.242472</v>
       </c>
       <c r="D107" t="n">
-        <v>0.212202</v>
+        <v>0.212424</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.235038</v>
+        <v>0.233739</v>
       </c>
       <c r="C108" t="n">
-        <v>0.236164</v>
+        <v>0.241959</v>
       </c>
       <c r="D108" t="n">
-        <v>0.223848</v>
+        <v>0.22639</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.220279</v>
+        <v>0.219088</v>
       </c>
       <c r="C109" t="n">
-        <v>0.235611</v>
+        <v>0.241479</v>
       </c>
       <c r="D109" t="n">
-        <v>0.222522</v>
+        <v>0.223974</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.346692</v>
+        <v>0.347073</v>
       </c>
       <c r="C110" t="n">
-        <v>0.247269</v>
+        <v>0.25645</v>
       </c>
       <c r="D110" t="n">
-        <v>0.221356</v>
+        <v>0.22248</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.341193</v>
+        <v>0.34122</v>
       </c>
       <c r="C111" t="n">
-        <v>0.246125</v>
+        <v>0.253852</v>
       </c>
       <c r="D111" t="n">
-        <v>0.22013</v>
+        <v>0.220636</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.33461</v>
+        <v>0.33505</v>
       </c>
       <c r="C112" t="n">
-        <v>0.244817</v>
+        <v>0.25156</v>
       </c>
       <c r="D112" t="n">
-        <v>0.219079</v>
+        <v>0.219241</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.328069</v>
+        <v>0.32749</v>
       </c>
       <c r="C113" t="n">
-        <v>0.243722</v>
+        <v>0.250292</v>
       </c>
       <c r="D113" t="n">
-        <v>0.218472</v>
+        <v>0.218425</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.320905</v>
+        <v>0.320264</v>
       </c>
       <c r="C114" t="n">
-        <v>0.24292</v>
+        <v>0.248913</v>
       </c>
       <c r="D114" t="n">
-        <v>0.217256</v>
+        <v>0.217405</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313321</v>
+        <v>0.312264</v>
       </c>
       <c r="C115" t="n">
-        <v>0.241904</v>
+        <v>0.247942</v>
       </c>
       <c r="D115" t="n">
-        <v>0.216385</v>
+        <v>0.216711</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.305092</v>
+        <v>0.304031</v>
       </c>
       <c r="C116" t="n">
-        <v>0.241371</v>
+        <v>0.246965</v>
       </c>
       <c r="D116" t="n">
-        <v>0.216079</v>
+        <v>0.215368</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.296063</v>
+        <v>0.295035</v>
       </c>
       <c r="C117" t="n">
-        <v>0.240458</v>
+        <v>0.24579</v>
       </c>
       <c r="D117" t="n">
-        <v>0.215005</v>
+        <v>0.214713</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.286266</v>
+        <v>0.285887</v>
       </c>
       <c r="C118" t="n">
-        <v>0.239773</v>
+        <v>0.245094</v>
       </c>
       <c r="D118" t="n">
-        <v>0.214325</v>
+        <v>0.214381</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.276155</v>
+        <v>0.275142</v>
       </c>
       <c r="C119" t="n">
-        <v>0.238766</v>
+        <v>0.244377</v>
       </c>
       <c r="D119" t="n">
-        <v>0.213617</v>
+        <v>0.21369</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.264221</v>
+        <v>0.263975</v>
       </c>
       <c r="C120" t="n">
-        <v>0.237863</v>
+        <v>0.243419</v>
       </c>
       <c r="D120" t="n">
-        <v>0.213032</v>
+        <v>0.213093</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.251803</v>
+        <v>0.25119</v>
       </c>
       <c r="C121" t="n">
-        <v>0.237205</v>
+        <v>0.24276</v>
       </c>
       <c r="D121" t="n">
-        <v>0.212503</v>
+        <v>0.213414</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.238397</v>
+        <v>0.237571</v>
       </c>
       <c r="C122" t="n">
-        <v>0.236637</v>
+        <v>0.242578</v>
       </c>
       <c r="D122" t="n">
-        <v>0.212085</v>
+        <v>0.212711</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.223428</v>
+        <v>0.222927</v>
       </c>
       <c r="C123" t="n">
-        <v>0.235955</v>
+        <v>0.241717</v>
       </c>
       <c r="D123" t="n">
-        <v>0.223031</v>
+        <v>0.226222</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.348226</v>
+        <v>0.349192</v>
       </c>
       <c r="C124" t="n">
-        <v>0.248347</v>
+        <v>0.257311</v>
       </c>
       <c r="D124" t="n">
-        <v>0.222147</v>
+        <v>0.223395</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.342587</v>
+        <v>0.343095</v>
       </c>
       <c r="C125" t="n">
-        <v>0.247232</v>
+        <v>0.254342</v>
       </c>
       <c r="D125" t="n">
-        <v>0.220781</v>
+        <v>0.222924</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.336385</v>
+        <v>0.336859</v>
       </c>
       <c r="C126" t="n">
-        <v>0.245888</v>
+        <v>0.251988</v>
       </c>
       <c r="D126" t="n">
-        <v>0.219917</v>
+        <v>0.220361</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.330268</v>
+        <v>0.329405</v>
       </c>
       <c r="C127" t="n">
-        <v>0.244936</v>
+        <v>0.250588</v>
       </c>
       <c r="D127" t="n">
-        <v>0.218669</v>
+        <v>0.220068</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.322945</v>
+        <v>0.322325</v>
       </c>
       <c r="C128" t="n">
-        <v>0.244486</v>
+        <v>0.248495</v>
       </c>
       <c r="D128" t="n">
-        <v>0.217752</v>
+        <v>0.218923</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.31542</v>
+        <v>0.314764</v>
       </c>
       <c r="C129" t="n">
-        <v>0.243091</v>
+        <v>0.247413</v>
       </c>
       <c r="D129" t="n">
-        <v>0.216694</v>
+        <v>0.217771</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.307385</v>
+        <v>0.306268</v>
       </c>
       <c r="C130" t="n">
-        <v>0.24199</v>
+        <v>0.246646</v>
       </c>
       <c r="D130" t="n">
-        <v>0.216514</v>
+        <v>0.216087</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.2987</v>
+        <v>0.297266</v>
       </c>
       <c r="C131" t="n">
-        <v>0.241431</v>
+        <v>0.245408</v>
       </c>
       <c r="D131" t="n">
-        <v>0.215236</v>
+        <v>0.215737</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.28911</v>
+        <v>0.28823</v>
       </c>
       <c r="C132" t="n">
-        <v>0.240272</v>
+        <v>0.244981</v>
       </c>
       <c r="D132" t="n">
-        <v>0.214368</v>
+        <v>0.215643</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.278617</v>
+        <v>0.277275</v>
       </c>
       <c r="C133" t="n">
-        <v>0.239476</v>
+        <v>0.244061</v>
       </c>
       <c r="D133" t="n">
-        <v>0.213771</v>
+        <v>0.214472</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.267258</v>
+        <v>0.265724</v>
       </c>
       <c r="C134" t="n">
-        <v>0.23883</v>
+        <v>0.24345</v>
       </c>
       <c r="D134" t="n">
-        <v>0.213426</v>
+        <v>0.21402</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.254604</v>
+        <v>0.254019</v>
       </c>
       <c r="C135" t="n">
-        <v>0.238011</v>
+        <v>0.242525</v>
       </c>
       <c r="D135" t="n">
-        <v>0.212628</v>
+        <v>0.214868</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.242137</v>
+        <v>0.239862</v>
       </c>
       <c r="C136" t="n">
-        <v>0.237455</v>
+        <v>0.241991</v>
       </c>
       <c r="D136" t="n">
-        <v>0.212124</v>
+        <v>0.212899</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.227274</v>
+        <v>0.226121</v>
       </c>
       <c r="C137" t="n">
-        <v>0.237312</v>
+        <v>0.241855</v>
       </c>
       <c r="D137" t="n">
-        <v>0.224031</v>
+        <v>0.228061</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.349711</v>
+        <v>0.350759</v>
       </c>
       <c r="C138" t="n">
-        <v>0.250117</v>
+        <v>0.258554</v>
       </c>
       <c r="D138" t="n">
-        <v>0.222489</v>
+        <v>0.225777</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.344083</v>
+        <v>0.344709</v>
       </c>
       <c r="C139" t="n">
-        <v>0.248963</v>
+        <v>0.255495</v>
       </c>
       <c r="D139" t="n">
-        <v>0.221371</v>
+        <v>0.223465</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338136</v>
+        <v>0.338982</v>
       </c>
       <c r="C140" t="n">
-        <v>0.248472</v>
+        <v>0.25286</v>
       </c>
       <c r="D140" t="n">
-        <v>0.221166</v>
+        <v>0.221861</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331891</v>
+        <v>0.331577</v>
       </c>
       <c r="C141" t="n">
-        <v>0.247042</v>
+        <v>0.250738</v>
       </c>
       <c r="D141" t="n">
-        <v>0.21901</v>
+        <v>0.22182</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.324656</v>
+        <v>0.323953</v>
       </c>
       <c r="C142" t="n">
-        <v>0.245749</v>
+        <v>0.24891</v>
       </c>
       <c r="D142" t="n">
-        <v>0.21862</v>
+        <v>0.220735</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.317229</v>
+        <v>0.316515</v>
       </c>
       <c r="C143" t="n">
-        <v>0.244896</v>
+        <v>0.248301</v>
       </c>
       <c r="D143" t="n">
-        <v>0.217215</v>
+        <v>0.218821</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -93,7 +93,7 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_set</v>
+            <v>absl::flat_hash_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +553,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.299949</v>
+                  <v>0.28096</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.287121</v>
+                  <v>0.275285</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.276605</v>
+                  <v>0.260227</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.267628</v>
+                  <v>0.249344</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.256472</v>
+                  <v>0.236975</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.24504</v>
+                  <v>0.225674</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.233163</v>
+                  <v>0.210202</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.218159</v>
+                  <v>0.194356</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.341848</v>
+                  <v>0.334027</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.33683</v>
+                  <v>0.329254</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.32914</v>
+                  <v>0.323249</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.323291</v>
+                  <v>0.318197</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.31628</v>
+                  <v>0.311484</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.30976</v>
+                  <v>0.301987</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.300991</v>
+                  <v>0.293769</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.293743</v>
+                  <v>0.283186</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.284792</v>
+                  <v>0.274789</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.275362</v>
+                  <v>0.264307</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.265254</v>
+                  <v>0.253335</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.251157</v>
+                  <v>0.240375</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.23875</v>
+                  <v>0.225843</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.224983</v>
+                  <v>0.209111</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.349144</v>
+                  <v>0.347854</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.342727</v>
+                  <v>0.342351</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.334127</v>
+                  <v>0.335171</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.328853</v>
+                  <v>0.3287</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.322139</v>
+                  <v>0.321793</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.316201</v>
+                  <v>0.313509</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.310719</v>
+                  <v>0.304099</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.299521</v>
+                  <v>0.294429</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.292527</v>
+                  <v>0.283902</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.280738</v>
+                  <v>0.273734</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.268983</v>
+                  <v>0.261908</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.258928</v>
+                  <v>0.247935</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.248514</v>
+                  <v>0.234331</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.231067</v>
+                  <v>0.21972</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.348487</v>
+                  <v>0.351019</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.342996</v>
+                  <v>0.347109</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.337131</v>
+                  <v>0.341148</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.330766</v>
+                  <v>0.334155</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.323655</v>
+                  <v>0.326696</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.31677</v>
+                  <v>0.319361</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.309786</v>
+                  <v>0.310476</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.301265</v>
+                  <v>0.301515</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.291955</v>
+                  <v>0.290456</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.282602</v>
+                  <v>0.279872</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.271642</v>
+                  <v>0.268143</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.259986</v>
+                  <v>0.255679</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.247571</v>
+                  <v>0.241931</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.234175</v>
+                  <v>0.2267</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.220899</v>
+                  <v>0.209666</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.345661</v>
+                  <v>0.349707</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.340052</v>
+                  <v>0.344393</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.333789</v>
+                  <v>0.338195</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.327238</v>
+                  <v>0.330917</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.319794</v>
+                  <v>0.3224</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.312256</v>
+                  <v>0.313751</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.303728</v>
+                  <v>0.304247</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.294609</v>
+                  <v>0.294116</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.285147</v>
+                  <v>0.283229</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.275168</v>
+                  <v>0.27188</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.264106</v>
+                  <v>0.259034</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.252473</v>
+                  <v>0.245623</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.238801</v>
+                  <v>0.230273</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.225136</v>
+                  <v>0.213342</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.347264</v>
+                  <v>0.352417</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.341956</v>
+                  <v>0.346913</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.335628</v>
+                  <v>0.34069</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.32867</v>
+                  <v>0.33338</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.321519</v>
+                  <v>0.325287</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.313847</v>
+                  <v>0.316404</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.304901</v>
+                  <v>0.30706</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.296281</v>
+                  <v>0.297067</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.286915</v>
+                  <v>0.286289</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.276889</v>
+                  <v>0.275097</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.266398</v>
+                  <v>0.262689</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.254564</v>
+                  <v>0.248989</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.241835</v>
+                  <v>0.234185</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.227844</v>
+                  <v>0.218351</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.350006</v>
+                  <v>0.353918</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.344331</v>
+                  <v>0.348163</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.338426</v>
+                  <v>0.341876</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.331637</v>
+                  <v>0.334423</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.324611</v>
+                  <v>0.326677</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.316646</v>
+                  <v>0.318483</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.308415</v>
+                  <v>0.309192</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.299852</v>
+                  <v>0.299657</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.290469</v>
+                  <v>0.289052</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.280611</v>
+                  <v>0.277682</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.269566</v>
+                  <v>0.265329</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.257965</v>
+                  <v>0.251956</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.245446</v>
+                  <v>0.237928</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.231696</v>
+                  <v>0.221988</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.351141</v>
+                  <v>0.355226</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.34605</v>
+                  <v>0.349632</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.340123</v>
+                  <v>0.343221</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.333482</v>
+                  <v>0.336572</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.32637</v>
+                  <v>0.32902</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.318856</v>
+                  <v>0.320108</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.310478</v>
+                  <v>0.311141</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.301954</v>
+                  <v>0.30161</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.292679</v>
+                  <v>0.29136</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.282964</v>
+                  <v>0.280099</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.272133</v>
+                  <v>0.267905</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.261023</v>
+                  <v>0.254834</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.248331</v>
+                  <v>0.241048</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.234229</v>
+                  <v>0.225455</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.220121</v>
+                  <v>0.209024</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.347401</v>
+                  <v>0.350837</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.341691</v>
+                  <v>0.344389</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.335029</v>
+                  <v>0.33797</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.328343</v>
+                  <v>0.330553</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.320742</v>
+                  <v>0.322178</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.312829</v>
+                  <v>0.313349</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.304263</v>
+                  <v>0.303814</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.295448</v>
+                  <v>0.293692</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.285869</v>
+                  <v>0.282839</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.275217</v>
+                  <v>0.270756</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.264204</v>
+                  <v>0.258147</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.251532</v>
+                  <v>0.244214</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.238596</v>
+                  <v>0.229059</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.223777</v>
+                  <v>0.212331</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.34861</v>
+                  <v>0.352099</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.342652</v>
+                  <v>0.346249</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.336407</v>
+                  <v>0.339646</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.329477</v>
+                  <v>0.332407</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.322466</v>
+                  <v>0.324287</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.314629</v>
+                  <v>0.315583</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.305939</v>
+                  <v>0.305883</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.297194</v>
+                  <v>0.295897</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.287604</v>
+                  <v>0.285083</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.27728</v>
+                  <v>0.273328</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.266552</v>
+                  <v>0.260703</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.254412</v>
+                  <v>0.246882</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.241015</v>
+                  <v>0.232078</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.226701</v>
+                  <v>0.215942</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.349805</v>
+                  <v>0.352911</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.344041</v>
+                  <v>0.347437</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.338138</v>
+                  <v>0.340815</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.331133</v>
+                  <v>0.333681</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.323772</v>
+                  <v>0.325639</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.316269</v>
+                  <v>0.317122</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +987,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_set</v>
+            <v>foa_unordered_rc16_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1447,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.2258</v>
+                  <v>0.195912</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.224459</v>
+                  <v>0.19706</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.225393</v>
+                  <v>0.196006</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.2244</v>
+                  <v>0.196838</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.226924</v>
+                  <v>0.197821</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.226065</v>
+                  <v>0.198401</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.225953</v>
+                  <v>0.198864</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.226748</v>
+                  <v>0.198849</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.248024</v>
+                  <v>0.216994</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.247182</v>
+                  <v>0.216483</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.24655</v>
+                  <v>0.215332</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.245634</v>
+                  <v>0.213636</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.244415</v>
+                  <v>0.212433</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.243493</v>
+                  <v>0.212771</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.243126</v>
+                  <v>0.212356</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.241082</v>
+                  <v>0.21158</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.240901</v>
+                  <v>0.211342</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.240178</v>
+                  <v>0.211014</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.239302</v>
+                  <v>0.21131</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.238751</v>
+                  <v>0.211178</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.238491</v>
+                  <v>0.210535</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.238289</v>
+                  <v>0.211058</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.260113</v>
+                  <v>0.225388</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.261841</v>
+                  <v>0.222286</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.253551</v>
+                  <v>0.221108</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.255139</v>
+                  <v>0.218269</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.246089</v>
+                  <v>0.216629</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.245273</v>
+                  <v>0.216104</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.258949</v>
+                  <v>0.215542</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.242286</v>
+                  <v>0.214565</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.248465</v>
+                  <v>0.214083</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.262686</v>
+                  <v>0.213151</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.241111</v>
+                  <v>0.212756</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.246167</v>
+                  <v>0.212244</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.252809</v>
+                  <v>0.212313</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.241128</v>
+                  <v>0.212479</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.253164</v>
+                  <v>0.231716</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.251465</v>
+                  <v>0.228089</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.250173</v>
+                  <v>0.225541</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.248828</v>
+                  <v>0.221715</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.247451</v>
+                  <v>0.219716</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.246539</v>
+                  <v>0.217608</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.245315</v>
+                  <v>0.216079</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.244571</v>
+                  <v>0.215361</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.243575</v>
+                  <v>0.214512</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.243024</v>
+                  <v>0.213976</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.241938</v>
+                  <v>0.213395</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.244428</v>
+                  <v>0.213081</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.24347</v>
+                  <v>0.212729</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.242826</v>
+                  <v>0.212137</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.241548</v>
+                  <v>0.211929</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.255253</v>
+                  <v>0.226985</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.254488</v>
+                  <v>0.224765</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.253756</v>
+                  <v>0.221165</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.251095</v>
+                  <v>0.219252</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.24945</v>
+                  <v>0.217853</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.248883</v>
+                  <v>0.216655</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.247526</v>
+                  <v>0.215205</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.247336</v>
+                  <v>0.21459</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.246347</v>
+                  <v>0.213892</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.24544</v>
+                  <v>0.213172</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.243998</v>
+                  <v>0.212503</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.243852</v>
+                  <v>0.212304</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.242968</v>
+                  <v>0.211984</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.2415</v>
+                  <v>0.211979</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.256836</v>
+                  <v>0.230208</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.25472</v>
+                  <v>0.224883</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.252306</v>
+                  <v>0.221567</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.250828</v>
+                  <v>0.219015</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.250034</v>
+                  <v>0.217904</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.248296</v>
+                  <v>0.216587</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.246977</v>
+                  <v>0.215397</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.246389</v>
+                  <v>0.214854</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.246238</v>
+                  <v>0.21402</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.24534</v>
+                  <v>0.21366</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.24473</v>
+                  <v>0.212863</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.243844</v>
+                  <v>0.212404</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.242615</v>
+                  <v>0.212223</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.241593</v>
+                  <v>0.211854</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.257587</v>
+                  <v>0.229933</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.255667</v>
+                  <v>0.224301</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.255027</v>
+                  <v>0.221634</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.252959</v>
+                  <v>0.219343</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.251614</v>
+                  <v>0.218126</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.250375</v>
+                  <v>0.217137</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.248611</v>
+                  <v>0.21601</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.247439</v>
+                  <v>0.214977</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.246153</v>
+                  <v>0.214757</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.244547</v>
+                  <v>0.213529</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.24421</v>
+                  <v>0.212993</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.243638</v>
+                  <v>0.212489</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.242331</v>
+                  <v>0.212003</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.241552</v>
+                  <v>0.21166</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.256787</v>
+                  <v>0.229306</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.256303</v>
+                  <v>0.225598</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.253748</v>
+                  <v>0.222495</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.253337</v>
+                  <v>0.219992</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.250958</v>
+                  <v>0.21844</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.249347</v>
+                  <v>0.217086</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.247985</v>
+                  <v>0.21603</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.246379</v>
+                  <v>0.215118</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.24535</v>
+                  <v>0.214407</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.24459</v>
+                  <v>0.213596</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.243665</v>
+                  <v>0.213057</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.243668</v>
+                  <v>0.212665</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.242665</v>
+                  <v>0.212</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.241684</v>
+                  <v>0.211712</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.240453</v>
+                  <v>0.211438</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.257123</v>
+                  <v>0.225697</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.254833</v>
+                  <v>0.222578</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.253951</v>
+                  <v>0.220709</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.252073</v>
+                  <v>0.21886</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.25011</v>
+                  <v>0.217834</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.248357</v>
+                  <v>0.21669</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.24795</v>
+                  <v>0.215701</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.246069</v>
+                  <v>0.214744</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.244996</v>
+                  <v>0.214672</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.244297</v>
+                  <v>0.213705</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.243469</v>
+                  <v>0.213054</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.242728</v>
+                  <v>0.212576</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.241769</v>
+                  <v>0.211978</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.240877</v>
+                  <v>0.211931</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.257936</v>
+                  <v>0.226236</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.255371</v>
+                  <v>0.222892</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.254859</v>
+                  <v>0.220768</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.252724</v>
+                  <v>0.219005</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.249733</v>
+                  <v>0.21759</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.249298</v>
+                  <v>0.216422</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.247332</v>
+                  <v>0.215617</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.24666</v>
+                  <v>0.214832</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.245592</v>
+                  <v>0.214082</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.243678</v>
+                  <v>0.213471</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.243529</v>
+                  <v>0.212914</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.240796</v>
+                  <v>0.212385</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.241136</v>
+                  <v>0.212004</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.241069</v>
+                  <v>0.212133</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.261531</v>
+                  <v>0.227952</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.259078</v>
+                  <v>0.224209</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.256431</v>
+                  <v>0.221617</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.25263</v>
+                  <v>0.21951</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.252447</v>
+                  <v>0.21815</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.249685</v>
+                  <v>0.217027</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1881,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_set</v>
+            <v>foa_unordered_rc15_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2341,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.198383</v>
+                  <v>0.231268</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.199267</v>
+                  <v>0.232151</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.199525</v>
+                  <v>0.233511</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.197334</v>
+                  <v>0.233102</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.198565</v>
+                  <v>0.233692</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.198936</v>
+                  <v>0.234047</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.198452</v>
+                  <v>0.236592</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.215961</v>
+                  <v>0.265773</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.215244</v>
+                  <v>0.256745</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.21435</v>
+                  <v>0.256613</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.213437</v>
+                  <v>0.277037</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.212581</v>
+                  <v>0.253983</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.211106</v>
+                  <v>0.253043</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.210784</v>
+                  <v>0.252393</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.209604</v>
+                  <v>0.274053</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.208939</v>
+                  <v>0.276569</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.208416</v>
+                  <v>0.249118</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.207743</v>
+                  <v>0.246154</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.206777</v>
+                  <v>0.247092</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.207094</v>
+                  <v>0.248933</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.206913</v>
+                  <v>0.247076</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.220136</v>
+                  <v>0.264081</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.218569</v>
+                  <v>0.263005</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.216868</v>
+                  <v>0.262406</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.215292</v>
+                  <v>0.261724</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.213881</v>
+                  <v>0.258214</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.212185</v>
+                  <v>0.256235</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.211346</v>
+                  <v>0.25501</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.210599</v>
+                  <v>0.253997</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.20971</v>
+                  <v>0.253212</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.209475</v>
+                  <v>0.252973</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.209037</v>
+                  <v>0.251955</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.209003</v>
+                  <v>0.250418</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.208022</v>
+                  <v>0.249931</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.206809</v>
+                  <v>0.25125</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.220464</v>
+                  <v>0.267948</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.219379</v>
+                  <v>0.265477</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.217829</v>
+                  <v>0.263563</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.216953</v>
+                  <v>0.261508</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.215165</v>
+                  <v>0.259424</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.214284</v>
+                  <v>0.258308</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.213826</v>
+                  <v>0.257397</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.212967</v>
+                  <v>0.255033</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.211858</v>
+                  <v>0.254953</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.211401</v>
+                  <v>0.252743</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.210809</v>
+                  <v>0.252257</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.209892</v>
+                  <v>0.251358</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.208877</v>
+                  <v>0.250701</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.208406</v>
+                  <v>0.252639</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.222068</v>
+                  <v>0.267618</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.220497</v>
+                  <v>0.26451</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.218915</v>
+                  <v>0.262485</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.217481</v>
+                  <v>0.261372</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.216657</v>
+                  <v>0.259083</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.215296</v>
+                  <v>0.258255</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.214206</v>
+                  <v>0.256473</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.2135</v>
+                  <v>0.254751</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.212592</v>
+                  <v>0.253478</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.212097</v>
+                  <v>0.252454</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.211276</v>
+                  <v>0.251959</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.210485</v>
+                  <v>0.251108</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.209692</v>
+                  <v>0.250374</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.208984</v>
+                  <v>0.249696</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.208562</v>
+                  <v>0.249233</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.220973</v>
+                  <v>0.267199</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.219742</v>
+                  <v>0.264368</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.218299</v>
+                  <v>0.261476</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.21703</v>
+                  <v>0.259992</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.215892</v>
+                  <v>0.258824</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.214778</v>
+                  <v>0.257234</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.213747</v>
+                  <v>0.255778</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.212701</v>
+                  <v>0.254864</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.21184</v>
+                  <v>0.25281</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.211061</v>
+                  <v>0.252056</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.21027</v>
+                  <v>0.251157</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.209689</v>
+                  <v>0.25035</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.209147</v>
+                  <v>0.249625</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.208611</v>
+                  <v>0.249799</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.221458</v>
+                  <v>0.267725</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.220098</v>
+                  <v>0.264639</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.218877</v>
+                  <v>0.26212</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.217635</v>
+                  <v>0.260398</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.216434</v>
+                  <v>0.258807</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.215332</v>
+                  <v>0.257237</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.214335</v>
+                  <v>0.256192</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.213364</v>
+                  <v>0.254682</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.212489</v>
+                  <v>0.253834</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.211502</v>
+                  <v>0.252277</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.210796</v>
+                  <v>0.251467</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.209966</v>
+                  <v>0.25073</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.209322</v>
+                  <v>0.250208</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.208741</v>
+                  <v>0.249795</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.221534</v>
+                  <v>0.268728</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.220068</v>
+                  <v>0.265368</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.218683</v>
+                  <v>0.263136</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.21743</v>
+                  <v>0.261588</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.21615</v>
+                  <v>0.259708</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.215041</v>
+                  <v>0.258439</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.21389</v>
+                  <v>0.257048</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.212888</v>
+                  <v>0.255861</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.211961</v>
+                  <v>0.25506</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.211154</v>
+                  <v>0.253643</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.210321</v>
+                  <v>0.252447</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.209764</v>
+                  <v>0.251631</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.209162</v>
+                  <v>0.25027</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.2085</v>
+                  <v>0.249676</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.221781</v>
+                  <v>0.267902</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.220286</v>
+                  <v>0.265381</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.21896</v>
+                  <v>0.263476</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.217658</v>
+                  <v>0.261695</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.216372</v>
+                  <v>0.259699</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.21525</v>
+                  <v>0.258738</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.214091</v>
+                  <v>0.257442</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.213104</v>
+                  <v>0.255897</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.212132</v>
+                  <v>0.254296</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.211337</v>
+                  <v>0.253976</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.210563</v>
+                  <v>0.253858</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.209814</v>
+                  <v>0.252652</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.209056</v>
+                  <v>0.251436</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.208578</v>
+                  <v>0.251373</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.207967</v>
+                  <v>0.249863</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.220829</v>
+                  <v>0.266506</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.219414</v>
+                  <v>0.26438</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.218059</v>
+                  <v>0.261884</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.216713</v>
+                  <v>0.260327</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.215534</v>
+                  <v>0.25828</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.214163</v>
+                  <v>0.257292</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.213147</v>
+                  <v>0.256414</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.212243</v>
+                  <v>0.255015</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.211488</v>
+                  <v>0.253526</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.210531</v>
+                  <v>0.252946</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.209823</v>
+                  <v>0.252272</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.209147</v>
+                  <v>0.251202</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.208532</v>
+                  <v>0.251597</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.20807</v>
+                  <v>0.251317</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.221166</v>
+                  <v>0.267088</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.21972</v>
+                  <v>0.264928</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.218344</v>
+                  <v>0.263676</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.217066</v>
+                  <v>0.26094</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.215858</v>
+                  <v>0.259854</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.214734</v>
+                  <v>0.258275</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.213715</v>
+                  <v>0.256589</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3217,30 +3217,30 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="4" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="5" style="1" width="11.42578125"/>
+    <col customWidth="1" max="7" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="8" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>absl::flat_hash_set</t>
+          <t>absl::flat_hash_map</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_set</t>
+          <t>foa_unordered_rc16_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_set</t>
+          <t>foa_unordered_rc15_map</t>
         </is>
       </c>
     </row>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.29717</v>
+        <v>0.296987</v>
       </c>
       <c r="C2" t="n">
-        <v>0.22389</v>
+        <v>0.224202</v>
       </c>
       <c r="D2" t="n">
-        <v>0.198691</v>
+        <v>0.198653</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.289634</v>
+        <v>0.288338</v>
       </c>
       <c r="C3" t="n">
-        <v>0.22301</v>
+        <v>0.225644</v>
       </c>
       <c r="D3" t="n">
-        <v>0.198179</v>
+        <v>0.199186</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.278628</v>
+        <v>0.282226</v>
       </c>
       <c r="C4" t="n">
-        <v>0.224866</v>
+        <v>0.226108</v>
       </c>
       <c r="D4" t="n">
-        <v>0.201353</v>
+        <v>0.201502</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.270812</v>
+        <v>0.269681</v>
       </c>
       <c r="C5" t="n">
-        <v>0.223818</v>
+        <v>0.224485</v>
       </c>
       <c r="D5" t="n">
-        <v>0.20057</v>
+        <v>0.201342</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.258036</v>
+        <v>0.259055</v>
       </c>
       <c r="C6" t="n">
-        <v>0.224723</v>
+        <v>0.226438</v>
       </c>
       <c r="D6" t="n">
-        <v>0.201972</v>
+        <v>0.201333</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.243633</v>
+        <v>0.246643</v>
       </c>
       <c r="C7" t="n">
-        <v>0.225066</v>
+        <v>0.225237</v>
       </c>
       <c r="D7" t="n">
-        <v>0.201365</v>
+        <v>0.201526</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.233231</v>
+        <v>0.233811</v>
       </c>
       <c r="C8" t="n">
-        <v>0.225832</v>
+        <v>0.227075</v>
       </c>
       <c r="D8" t="n">
-        <v>0.202524</v>
+        <v>0.203054</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.218114</v>
+        <v>0.218339</v>
       </c>
       <c r="C9" t="n">
-        <v>0.226812</v>
+        <v>0.226296</v>
       </c>
       <c r="D9" t="n">
-        <v>0.218345</v>
+        <v>0.220733</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.344714</v>
+        <v>0.34453</v>
       </c>
       <c r="C10" t="n">
-        <v>0.247061</v>
+        <v>0.246699</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216147</v>
+        <v>0.216733</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.338404</v>
+        <v>0.339461</v>
       </c>
       <c r="C11" t="n">
-        <v>0.244894</v>
+        <v>0.244586</v>
       </c>
       <c r="D11" t="n">
-        <v>0.215449</v>
+        <v>0.215546</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3328</v>
+        <v>0.33268</v>
       </c>
       <c r="C12" t="n">
-        <v>0.243485</v>
+        <v>0.24271</v>
       </c>
       <c r="D12" t="n">
-        <v>0.21452</v>
+        <v>0.214791</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.326605</v>
+        <v>0.327139</v>
       </c>
       <c r="C13" t="n">
-        <v>0.241353</v>
+        <v>0.241953</v>
       </c>
       <c r="D13" t="n">
-        <v>0.213151</v>
+        <v>0.213107</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.320813</v>
+        <v>0.319651</v>
       </c>
       <c r="C14" t="n">
-        <v>0.238986</v>
+        <v>0.239559</v>
       </c>
       <c r="D14" t="n">
-        <v>0.21256</v>
+        <v>0.21266</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.311928</v>
+        <v>0.313788</v>
       </c>
       <c r="C15" t="n">
-        <v>0.238683</v>
+        <v>0.238309</v>
       </c>
       <c r="D15" t="n">
-        <v>0.210913</v>
+        <v>0.211615</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.305421</v>
+        <v>0.303736</v>
       </c>
       <c r="C16" t="n">
-        <v>0.238939</v>
+        <v>0.23918</v>
       </c>
       <c r="D16" t="n">
-        <v>0.210097</v>
+        <v>0.210303</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.297891</v>
+        <v>0.294974</v>
       </c>
       <c r="C17" t="n">
-        <v>0.239025</v>
+        <v>0.238837</v>
       </c>
       <c r="D17" t="n">
-        <v>0.210079</v>
+        <v>0.211082</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2875</v>
+        <v>0.286314</v>
       </c>
       <c r="C18" t="n">
-        <v>0.239203</v>
+        <v>0.239518</v>
       </c>
       <c r="D18" t="n">
-        <v>0.209552</v>
+        <v>0.209905</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.275427</v>
+        <v>0.278798</v>
       </c>
       <c r="C19" t="n">
-        <v>0.237833</v>
+        <v>0.238019</v>
       </c>
       <c r="D19" t="n">
-        <v>0.209081</v>
+        <v>0.209659</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.264937</v>
+        <v>0.265421</v>
       </c>
       <c r="C20" t="n">
-        <v>0.237367</v>
+        <v>0.237632</v>
       </c>
       <c r="D20" t="n">
-        <v>0.209804</v>
+        <v>0.210257</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.253689</v>
+        <v>0.26001</v>
       </c>
       <c r="C21" t="n">
-        <v>0.237164</v>
+        <v>0.237431</v>
       </c>
       <c r="D21" t="n">
-        <v>0.209823</v>
+        <v>0.209858</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.240111</v>
+        <v>0.241576</v>
       </c>
       <c r="C22" t="n">
-        <v>0.237735</v>
+        <v>0.237454</v>
       </c>
       <c r="D22" t="n">
-        <v>0.209291</v>
+        <v>0.209347</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.227129</v>
+        <v>0.228045</v>
       </c>
       <c r="C23" t="n">
-        <v>0.237351</v>
+        <v>0.237593</v>
       </c>
       <c r="D23" t="n">
-        <v>0.224666</v>
+        <v>0.224283</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348612</v>
+        <v>0.348398</v>
       </c>
       <c r="C24" t="n">
-        <v>0.254466</v>
+        <v>0.254654</v>
       </c>
       <c r="D24" t="n">
-        <v>0.221973</v>
+        <v>0.22258</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342082</v>
+        <v>0.341904</v>
       </c>
       <c r="C25" t="n">
-        <v>0.252924</v>
+        <v>0.252926</v>
       </c>
       <c r="D25" t="n">
-        <v>0.220688</v>
+        <v>0.221513</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.335978</v>
+        <v>0.33604</v>
       </c>
       <c r="C26" t="n">
-        <v>0.250891</v>
+        <v>0.250113</v>
       </c>
       <c r="D26" t="n">
-        <v>0.220107</v>
+        <v>0.22034</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328756</v>
+        <v>0.329101</v>
       </c>
       <c r="C27" t="n">
-        <v>0.24955</v>
+        <v>0.249251</v>
       </c>
       <c r="D27" t="n">
-        <v>0.217975</v>
+        <v>0.218336</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.321614</v>
+        <v>0.321831</v>
       </c>
       <c r="C28" t="n">
-        <v>0.247138</v>
+        <v>0.247492</v>
       </c>
       <c r="D28" t="n">
-        <v>0.216943</v>
+        <v>0.216917</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.314292</v>
+        <v>0.314878</v>
       </c>
       <c r="C29" t="n">
-        <v>0.246601</v>
+        <v>0.246297</v>
       </c>
       <c r="D29" t="n">
-        <v>0.216031</v>
+        <v>0.216012</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.306346</v>
+        <v>0.30664</v>
       </c>
       <c r="C30" t="n">
-        <v>0.245083</v>
+        <v>0.245018</v>
       </c>
       <c r="D30" t="n">
-        <v>0.214538</v>
+        <v>0.215061</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.297981</v>
+        <v>0.298046</v>
       </c>
       <c r="C31" t="n">
-        <v>0.243708</v>
+        <v>0.243805</v>
       </c>
       <c r="D31" t="n">
-        <v>0.214238</v>
+        <v>0.214297</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.288773</v>
+        <v>0.288794</v>
       </c>
       <c r="C32" t="n">
-        <v>0.243406</v>
+        <v>0.243983</v>
       </c>
       <c r="D32" t="n">
-        <v>0.213623</v>
+        <v>0.213647</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.279633</v>
+        <v>0.279684</v>
       </c>
       <c r="C33" t="n">
-        <v>0.242488</v>
+        <v>0.242673</v>
       </c>
       <c r="D33" t="n">
-        <v>0.213316</v>
+        <v>0.213449</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.269393</v>
+        <v>0.268739</v>
       </c>
       <c r="C34" t="n">
-        <v>0.241831</v>
+        <v>0.241791</v>
       </c>
       <c r="D34" t="n">
-        <v>0.212726</v>
+        <v>0.213079</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.25842</v>
+        <v>0.258109</v>
       </c>
       <c r="C35" t="n">
-        <v>0.242154</v>
+        <v>0.242252</v>
       </c>
       <c r="D35" t="n">
-        <v>0.212326</v>
+        <v>0.212617</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244912</v>
+        <v>0.244903</v>
       </c>
       <c r="C36" t="n">
-        <v>0.241673</v>
+        <v>0.241416</v>
       </c>
       <c r="D36" t="n">
-        <v>0.211922</v>
+        <v>0.212528</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.230974</v>
+        <v>0.231006</v>
       </c>
       <c r="C37" t="n">
-        <v>0.241319</v>
+        <v>0.241194</v>
       </c>
       <c r="D37" t="n">
-        <v>0.226591</v>
+        <v>0.226898</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.349424</v>
+        <v>0.349834</v>
       </c>
       <c r="C38" t="n">
-        <v>0.261211</v>
+        <v>0.260929</v>
       </c>
       <c r="D38" t="n">
-        <v>0.223903</v>
+        <v>0.224237</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.344345</v>
+        <v>0.344607</v>
       </c>
       <c r="C39" t="n">
-        <v>0.257428</v>
+        <v>0.257417</v>
       </c>
       <c r="D39" t="n">
-        <v>0.222044</v>
+        <v>0.222186</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.338157</v>
+        <v>0.338487</v>
       </c>
       <c r="C40" t="n">
-        <v>0.25438</v>
+        <v>0.254573</v>
       </c>
       <c r="D40" t="n">
-        <v>0.22045</v>
+        <v>0.220565</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.331307</v>
+        <v>0.331962</v>
       </c>
       <c r="C41" t="n">
-        <v>0.251417</v>
+        <v>0.251433</v>
       </c>
       <c r="D41" t="n">
-        <v>0.218886</v>
+        <v>0.218679</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.324314</v>
+        <v>0.32463</v>
       </c>
       <c r="C42" t="n">
-        <v>0.25048</v>
+        <v>0.250432</v>
       </c>
       <c r="D42" t="n">
-        <v>0.21775</v>
+        <v>0.217584</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.316341</v>
+        <v>0.316771</v>
       </c>
       <c r="C43" t="n">
-        <v>0.249154</v>
+        <v>0.248877</v>
       </c>
       <c r="D43" t="n">
-        <v>0.216666</v>
+        <v>0.216604</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.309315</v>
+        <v>0.309269</v>
       </c>
       <c r="C44" t="n">
-        <v>0.247615</v>
+        <v>0.247402</v>
       </c>
       <c r="D44" t="n">
-        <v>0.215499</v>
+        <v>0.215785</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300539</v>
+        <v>0.300431</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246801</v>
+        <v>0.246096</v>
       </c>
       <c r="D45" t="n">
-        <v>0.214467</v>
+        <v>0.214572</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291817</v>
+        <v>0.291939</v>
       </c>
       <c r="C46" t="n">
-        <v>0.245558</v>
+        <v>0.245445</v>
       </c>
       <c r="D46" t="n">
-        <v>0.214217</v>
+        <v>0.214246</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.282922</v>
+        <v>0.282493</v>
       </c>
       <c r="C47" t="n">
-        <v>0.244824</v>
+        <v>0.244474</v>
       </c>
       <c r="D47" t="n">
-        <v>0.213968</v>
+        <v>0.213927</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.271631</v>
+        <v>0.272029</v>
       </c>
       <c r="C48" t="n">
-        <v>0.243491</v>
+        <v>0.243609</v>
       </c>
       <c r="D48" t="n">
-        <v>0.213117</v>
+        <v>0.213656</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.260896</v>
+        <v>0.260812</v>
       </c>
       <c r="C49" t="n">
-        <v>0.243012</v>
+        <v>0.243083</v>
       </c>
       <c r="D49" t="n">
-        <v>0.213251</v>
+        <v>0.21333</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.249109</v>
+        <v>0.248891</v>
       </c>
       <c r="C50" t="n">
-        <v>0.242578</v>
+        <v>0.242825</v>
       </c>
       <c r="D50" t="n">
-        <v>0.213717</v>
+        <v>0.214168</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.235015</v>
+        <v>0.235037</v>
       </c>
       <c r="C51" t="n">
-        <v>0.242191</v>
+        <v>0.242216</v>
       </c>
       <c r="D51" t="n">
-        <v>0.225935</v>
+        <v>0.225701</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.219804</v>
+        <v>0.21999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.241381</v>
+        <v>0.241501</v>
       </c>
       <c r="D52" t="n">
-        <v>0.22381</v>
+        <v>0.223593</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.346935</v>
+        <v>0.346933</v>
       </c>
       <c r="C53" t="n">
-        <v>0.257491</v>
+        <v>0.257673</v>
       </c>
       <c r="D53" t="n">
-        <v>0.222112</v>
+        <v>0.221994</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.340942</v>
+        <v>0.341032</v>
       </c>
       <c r="C54" t="n">
-        <v>0.254718</v>
+        <v>0.254829</v>
       </c>
       <c r="D54" t="n">
-        <v>0.220696</v>
+        <v>0.220594</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.334808</v>
+        <v>0.335048</v>
       </c>
       <c r="C55" t="n">
-        <v>0.251885</v>
+        <v>0.25199</v>
       </c>
       <c r="D55" t="n">
-        <v>0.219636</v>
+        <v>0.219448</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.327519</v>
+        <v>0.32778</v>
       </c>
       <c r="C56" t="n">
-        <v>0.250188</v>
+        <v>0.250516</v>
       </c>
       <c r="D56" t="n">
-        <v>0.218212</v>
+        <v>0.218015</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.320467</v>
+        <v>0.320189</v>
       </c>
       <c r="C57" t="n">
-        <v>0.249021</v>
+        <v>0.249098</v>
       </c>
       <c r="D57" t="n">
-        <v>0.217148</v>
+        <v>0.217202</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.313009</v>
+        <v>0.31296</v>
       </c>
       <c r="C58" t="n">
-        <v>0.247766</v>
+        <v>0.247653</v>
       </c>
       <c r="D58" t="n">
-        <v>0.216451</v>
+        <v>0.216481</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304474</v>
+        <v>0.304325</v>
       </c>
       <c r="C59" t="n">
-        <v>0.246601</v>
+        <v>0.246497</v>
       </c>
       <c r="D59" t="n">
-        <v>0.215436</v>
+        <v>0.215522</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294652</v>
+        <v>0.294566</v>
       </c>
       <c r="C60" t="n">
-        <v>0.245585</v>
+        <v>0.245641</v>
       </c>
       <c r="D60" t="n">
-        <v>0.214575</v>
+        <v>0.214616</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.285017</v>
+        <v>0.285095</v>
       </c>
       <c r="C61" t="n">
-        <v>0.244968</v>
+        <v>0.245041</v>
       </c>
       <c r="D61" t="n">
-        <v>0.214298</v>
+        <v>0.214053</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.274545</v>
+        <v>0.274637</v>
       </c>
       <c r="C62" t="n">
-        <v>0.243985</v>
+        <v>0.244038</v>
       </c>
       <c r="D62" t="n">
-        <v>0.213475</v>
+        <v>0.213507</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263277</v>
+        <v>0.263439</v>
       </c>
       <c r="C63" t="n">
-        <v>0.243042</v>
+        <v>0.24327</v>
       </c>
       <c r="D63" t="n">
-        <v>0.213156</v>
+        <v>0.213221</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.250732</v>
+        <v>0.251015</v>
       </c>
       <c r="C64" t="n">
-        <v>0.242854</v>
+        <v>0.242862</v>
       </c>
       <c r="D64" t="n">
-        <v>0.212456</v>
+        <v>0.212377</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.237731</v>
+        <v>0.237985</v>
       </c>
       <c r="C65" t="n">
-        <v>0.241995</v>
+        <v>0.241967</v>
       </c>
       <c r="D65" t="n">
-        <v>0.212457</v>
+        <v>0.212227</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.223362</v>
+        <v>0.223564</v>
       </c>
       <c r="C66" t="n">
-        <v>0.241379</v>
+        <v>0.241301</v>
       </c>
       <c r="D66" t="n">
-        <v>0.2249</v>
+        <v>0.224897</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.349022</v>
+        <v>0.349093</v>
       </c>
       <c r="C67" t="n">
-        <v>0.259458</v>
+        <v>0.259386</v>
       </c>
       <c r="D67" t="n">
-        <v>0.2229</v>
+        <v>0.222901</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.342651</v>
+        <v>0.342755</v>
       </c>
       <c r="C68" t="n">
-        <v>0.255605</v>
+        <v>0.255401</v>
       </c>
       <c r="D68" t="n">
-        <v>0.221128</v>
+        <v>0.221105</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.336627</v>
+        <v>0.337056</v>
       </c>
       <c r="C69" t="n">
-        <v>0.252743</v>
+        <v>0.252663</v>
       </c>
       <c r="D69" t="n">
-        <v>0.219621</v>
+        <v>0.219696</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.329807</v>
+        <v>0.330062</v>
       </c>
       <c r="C70" t="n">
-        <v>0.250863</v>
+        <v>0.250897</v>
       </c>
       <c r="D70" t="n">
-        <v>0.218621</v>
+        <v>0.218641</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.322679</v>
+        <v>0.322705</v>
       </c>
       <c r="C71" t="n">
-        <v>0.249547</v>
+        <v>0.24946</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217433</v>
+        <v>0.217673</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.315589</v>
+        <v>0.315595</v>
       </c>
       <c r="C72" t="n">
-        <v>0.248058</v>
+        <v>0.248132</v>
       </c>
       <c r="D72" t="n">
-        <v>0.21661</v>
+        <v>0.21649</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.306756</v>
+        <v>0.306934</v>
       </c>
       <c r="C73" t="n">
-        <v>0.246859</v>
+        <v>0.246871</v>
       </c>
       <c r="D73" t="n">
-        <v>0.215445</v>
+        <v>0.215553</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.298424</v>
+        <v>0.298407</v>
       </c>
       <c r="C74" t="n">
-        <v>0.245826</v>
+        <v>0.245891</v>
       </c>
       <c r="D74" t="n">
-        <v>0.21461</v>
+        <v>0.214694</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.288804</v>
+        <v>0.289038</v>
       </c>
       <c r="C75" t="n">
-        <v>0.245053</v>
+        <v>0.245083</v>
       </c>
       <c r="D75" t="n">
-        <v>0.214003</v>
+        <v>0.214168</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.278589</v>
+        <v>0.278633</v>
       </c>
       <c r="C76" t="n">
-        <v>0.244183</v>
+        <v>0.244363</v>
       </c>
       <c r="D76" t="n">
-        <v>0.213409</v>
+        <v>0.213654</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.267438</v>
+        <v>0.267799</v>
       </c>
       <c r="C77" t="n">
-        <v>0.243174</v>
+        <v>0.243205</v>
       </c>
       <c r="D77" t="n">
-        <v>0.212981</v>
+        <v>0.21309</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.254903</v>
+        <v>0.255207</v>
       </c>
       <c r="C78" t="n">
-        <v>0.242325</v>
+        <v>0.242367</v>
       </c>
       <c r="D78" t="n">
-        <v>0.212636</v>
+        <v>0.212758</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.241705</v>
+        <v>0.242187</v>
       </c>
       <c r="C79" t="n">
-        <v>0.241958</v>
+        <v>0.241967</v>
       </c>
       <c r="D79" t="n">
-        <v>0.212432</v>
+        <v>0.212525</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227251</v>
+        <v>0.227523</v>
       </c>
       <c r="C80" t="n">
-        <v>0.241621</v>
+        <v>0.241797</v>
       </c>
       <c r="D80" t="n">
-        <v>0.225314</v>
+        <v>0.225407</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.350457</v>
+        <v>0.350223</v>
       </c>
       <c r="C81" t="n">
-        <v>0.258816</v>
+        <v>0.25879</v>
       </c>
       <c r="D81" t="n">
-        <v>0.223337</v>
+        <v>0.223425</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.344463</v>
+        <v>0.344552</v>
       </c>
       <c r="C82" t="n">
-        <v>0.255253</v>
+        <v>0.255215</v>
       </c>
       <c r="D82" t="n">
-        <v>0.221668</v>
+        <v>0.221731</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.339028</v>
+        <v>0.338076</v>
       </c>
       <c r="C83" t="n">
-        <v>0.252675</v>
+        <v>0.252659</v>
       </c>
       <c r="D83" t="n">
-        <v>0.2201</v>
+        <v>0.220048</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.331637</v>
+        <v>0.331655</v>
       </c>
       <c r="C84" t="n">
-        <v>0.250677</v>
+        <v>0.250686</v>
       </c>
       <c r="D84" t="n">
-        <v>0.218816</v>
+        <v>0.218907</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.324364</v>
+        <v>0.324579</v>
       </c>
       <c r="C85" t="n">
-        <v>0.249413</v>
+        <v>0.249481</v>
       </c>
       <c r="D85" t="n">
-        <v>0.217716</v>
+        <v>0.217641</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.316706</v>
+        <v>0.316717</v>
       </c>
       <c r="C86" t="n">
-        <v>0.248211</v>
+        <v>0.248151</v>
       </c>
       <c r="D86" t="n">
-        <v>0.216614</v>
+        <v>0.216796</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.30862</v>
+        <v>0.308641</v>
       </c>
       <c r="C87" t="n">
-        <v>0.247038</v>
+        <v>0.246983</v>
       </c>
       <c r="D87" t="n">
-        <v>0.215746</v>
+        <v>0.215912</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300078</v>
+        <v>0.300119</v>
       </c>
       <c r="C88" t="n">
-        <v>0.246209</v>
+        <v>0.246315</v>
       </c>
       <c r="D88" t="n">
-        <v>0.214976</v>
+        <v>0.215054</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.290807</v>
+        <v>0.29095</v>
       </c>
       <c r="C89" t="n">
-        <v>0.245225</v>
+        <v>0.245313</v>
       </c>
       <c r="D89" t="n">
-        <v>0.21429</v>
+        <v>0.214266</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.280339</v>
+        <v>0.28097</v>
       </c>
       <c r="C90" t="n">
-        <v>0.244525</v>
+        <v>0.244544</v>
       </c>
       <c r="D90" t="n">
-        <v>0.213693</v>
+        <v>0.213636</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.269649</v>
+        <v>0.2699</v>
       </c>
       <c r="C91" t="n">
-        <v>0.243645</v>
+        <v>0.243619</v>
       </c>
       <c r="D91" t="n">
-        <v>0.213101</v>
+        <v>0.213075</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.257946</v>
+        <v>0.258</v>
       </c>
       <c r="C92" t="n">
-        <v>0.242974</v>
+        <v>0.242943</v>
       </c>
       <c r="D92" t="n">
-        <v>0.212801</v>
+        <v>0.212756</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.244831</v>
+        <v>0.244909</v>
       </c>
       <c r="C93" t="n">
-        <v>0.242352</v>
+        <v>0.242361</v>
       </c>
       <c r="D93" t="n">
-        <v>0.212723</v>
+        <v>0.212718</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.230791</v>
+        <v>0.23099</v>
       </c>
       <c r="C94" t="n">
-        <v>0.241934</v>
+        <v>0.241915</v>
       </c>
       <c r="D94" t="n">
-        <v>0.225784</v>
+        <v>0.225841</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.351905</v>
+        <v>0.351696</v>
       </c>
       <c r="C95" t="n">
-        <v>0.259491</v>
+        <v>0.259397</v>
       </c>
       <c r="D95" t="n">
-        <v>0.223663</v>
+        <v>0.223643</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.345902</v>
+        <v>0.345787</v>
       </c>
       <c r="C96" t="n">
-        <v>0.256108</v>
+        <v>0.25597</v>
       </c>
       <c r="D96" t="n">
-        <v>0.221845</v>
+        <v>0.221869</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.340122</v>
+        <v>0.339841</v>
       </c>
       <c r="C97" t="n">
-        <v>0.253523</v>
+        <v>0.253457</v>
       </c>
       <c r="D97" t="n">
-        <v>0.220341</v>
+        <v>0.220375</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.333407</v>
+        <v>0.333433</v>
       </c>
       <c r="C98" t="n">
-        <v>0.251395</v>
+        <v>0.25139</v>
       </c>
       <c r="D98" t="n">
-        <v>0.219037</v>
+        <v>0.219091</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.325975</v>
+        <v>0.326103</v>
       </c>
       <c r="C99" t="n">
-        <v>0.250002</v>
+        <v>0.249971</v>
       </c>
       <c r="D99" t="n">
-        <v>0.217835</v>
+        <v>0.217872</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.318595</v>
+        <v>0.318722</v>
       </c>
       <c r="C100" t="n">
-        <v>0.248675</v>
+        <v>0.248639</v>
       </c>
       <c r="D100" t="n">
-        <v>0.216836</v>
+        <v>0.216883</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.310772</v>
+        <v>0.310786</v>
       </c>
       <c r="C101" t="n">
-        <v>0.247387</v>
+        <v>0.247568</v>
       </c>
       <c r="D101" t="n">
-        <v>0.215922</v>
+        <v>0.215964</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.301883</v>
+        <v>0.301927</v>
       </c>
       <c r="C102" t="n">
-        <v>0.246616</v>
+        <v>0.246645</v>
       </c>
       <c r="D102" t="n">
-        <v>0.21513</v>
+        <v>0.215258</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.292893</v>
+        <v>0.292872</v>
       </c>
       <c r="C103" t="n">
-        <v>0.24571</v>
+        <v>0.245629</v>
       </c>
       <c r="D103" t="n">
-        <v>0.214366</v>
+        <v>0.214462</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.282985</v>
+        <v>0.283117</v>
       </c>
       <c r="C104" t="n">
-        <v>0.244685</v>
+        <v>0.244976</v>
       </c>
       <c r="D104" t="n">
-        <v>0.213787</v>
+        <v>0.213793</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.272184</v>
+        <v>0.27222</v>
       </c>
       <c r="C105" t="n">
-        <v>0.243855</v>
+        <v>0.243973</v>
       </c>
       <c r="D105" t="n">
-        <v>0.213246</v>
+        <v>0.213267</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.260396</v>
+        <v>0.260726</v>
       </c>
       <c r="C106" t="n">
-        <v>0.24313</v>
+        <v>0.243315</v>
       </c>
       <c r="D106" t="n">
-        <v>0.212597</v>
+        <v>0.212703</v>
       </c>
     </row>
     <row r="107">
@@ -4719,10 +4719,10 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247489</v>
+        <v>0.247821</v>
       </c>
       <c r="C107" t="n">
-        <v>0.242472</v>
+        <v>0.24261</v>
       </c>
       <c r="D107" t="n">
         <v>0.212424</v>
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.233739</v>
+        <v>0.233838</v>
       </c>
       <c r="C108" t="n">
-        <v>0.241959</v>
+        <v>0.241813</v>
       </c>
       <c r="D108" t="n">
-        <v>0.22639</v>
+        <v>0.226329</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.219088</v>
+        <v>0.219086</v>
       </c>
       <c r="C109" t="n">
-        <v>0.241479</v>
+        <v>0.241488</v>
       </c>
       <c r="D109" t="n">
-        <v>0.223974</v>
+        <v>0.224103</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.347073</v>
+        <v>0.347327</v>
       </c>
       <c r="C110" t="n">
-        <v>0.25645</v>
+        <v>0.256391</v>
       </c>
       <c r="D110" t="n">
-        <v>0.22248</v>
+        <v>0.222305</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.34122</v>
+        <v>0.341478</v>
       </c>
       <c r="C111" t="n">
-        <v>0.253852</v>
+        <v>0.253768</v>
       </c>
       <c r="D111" t="n">
-        <v>0.220636</v>
+        <v>0.220862</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.33505</v>
+        <v>0.334973</v>
       </c>
       <c r="C112" t="n">
-        <v>0.25156</v>
+        <v>0.251656</v>
       </c>
       <c r="D112" t="n">
-        <v>0.219241</v>
+        <v>0.219343</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.32749</v>
+        <v>0.327734</v>
       </c>
       <c r="C113" t="n">
-        <v>0.250292</v>
+        <v>0.25023</v>
       </c>
       <c r="D113" t="n">
-        <v>0.218425</v>
+        <v>0.218289</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.320264</v>
+        <v>0.320762</v>
       </c>
       <c r="C114" t="n">
-        <v>0.248913</v>
+        <v>0.249016</v>
       </c>
       <c r="D114" t="n">
-        <v>0.217405</v>
+        <v>0.217214</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.312264</v>
+        <v>0.3128</v>
       </c>
       <c r="C115" t="n">
-        <v>0.247942</v>
+        <v>0.24819</v>
       </c>
       <c r="D115" t="n">
-        <v>0.216711</v>
+        <v>0.216357</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304031</v>
+        <v>0.304657</v>
       </c>
       <c r="C116" t="n">
-        <v>0.246965</v>
+        <v>0.247059</v>
       </c>
       <c r="D116" t="n">
-        <v>0.215368</v>
+        <v>0.21544</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.295035</v>
+        <v>0.295774</v>
       </c>
       <c r="C117" t="n">
-        <v>0.24579</v>
+        <v>0.245939</v>
       </c>
       <c r="D117" t="n">
-        <v>0.214713</v>
+        <v>0.21469</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.285887</v>
+        <v>0.285398</v>
       </c>
       <c r="C118" t="n">
-        <v>0.245094</v>
+        <v>0.24517</v>
       </c>
       <c r="D118" t="n">
-        <v>0.214381</v>
+        <v>0.214667</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.275142</v>
+        <v>0.275344</v>
       </c>
       <c r="C119" t="n">
-        <v>0.244377</v>
+        <v>0.244642</v>
       </c>
       <c r="D119" t="n">
-        <v>0.21369</v>
+        <v>0.213962</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.263975</v>
+        <v>0.263719</v>
       </c>
       <c r="C120" t="n">
-        <v>0.243419</v>
+        <v>0.243637</v>
       </c>
       <c r="D120" t="n">
-        <v>0.213093</v>
+        <v>0.213864</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.25119</v>
+        <v>0.251446</v>
       </c>
       <c r="C121" t="n">
-        <v>0.24276</v>
+        <v>0.242777</v>
       </c>
       <c r="D121" t="n">
-        <v>0.213414</v>
+        <v>0.212994</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.237571</v>
+        <v>0.238363</v>
       </c>
       <c r="C122" t="n">
-        <v>0.242578</v>
+        <v>0.242464</v>
       </c>
       <c r="D122" t="n">
-        <v>0.212711</v>
+        <v>0.213292</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.222927</v>
+        <v>0.223069</v>
       </c>
       <c r="C123" t="n">
-        <v>0.241717</v>
+        <v>0.241984</v>
       </c>
       <c r="D123" t="n">
-        <v>0.226222</v>
+        <v>0.225847</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.349192</v>
+        <v>0.349147</v>
       </c>
       <c r="C124" t="n">
-        <v>0.257311</v>
+        <v>0.257435</v>
       </c>
       <c r="D124" t="n">
-        <v>0.223395</v>
+        <v>0.223368</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.343095</v>
+        <v>0.343206</v>
       </c>
       <c r="C125" t="n">
-        <v>0.254342</v>
+        <v>0.254205</v>
       </c>
       <c r="D125" t="n">
-        <v>0.222924</v>
+        <v>0.222261</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.336859</v>
+        <v>0.336781</v>
       </c>
       <c r="C126" t="n">
-        <v>0.251988</v>
+        <v>0.25198</v>
       </c>
       <c r="D126" t="n">
-        <v>0.220361</v>
+        <v>0.220436</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.329405</v>
+        <v>0.329922</v>
       </c>
       <c r="C127" t="n">
-        <v>0.250588</v>
+        <v>0.250095</v>
       </c>
       <c r="D127" t="n">
-        <v>0.220068</v>
+        <v>0.220024</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.322325</v>
+        <v>0.322341</v>
       </c>
       <c r="C128" t="n">
-        <v>0.248495</v>
+        <v>0.24888</v>
       </c>
       <c r="D128" t="n">
-        <v>0.218923</v>
+        <v>0.218737</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.314764</v>
+        <v>0.314638</v>
       </c>
       <c r="C129" t="n">
-        <v>0.247413</v>
+        <v>0.247768</v>
       </c>
       <c r="D129" t="n">
-        <v>0.217771</v>
+        <v>0.218124</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.306268</v>
+        <v>0.306155</v>
       </c>
       <c r="C130" t="n">
-        <v>0.246646</v>
+        <v>0.246275</v>
       </c>
       <c r="D130" t="n">
-        <v>0.216087</v>
+        <v>0.216828</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.297266</v>
+        <v>0.297633</v>
       </c>
       <c r="C131" t="n">
-        <v>0.245408</v>
+        <v>0.245739</v>
       </c>
       <c r="D131" t="n">
-        <v>0.215737</v>
+        <v>0.216077</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.28823</v>
+        <v>0.288088</v>
       </c>
       <c r="C132" t="n">
-        <v>0.244981</v>
+        <v>0.244765</v>
       </c>
       <c r="D132" t="n">
-        <v>0.215643</v>
+        <v>0.215536</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.277275</v>
+        <v>0.277441</v>
       </c>
       <c r="C133" t="n">
-        <v>0.244061</v>
+        <v>0.244512</v>
       </c>
       <c r="D133" t="n">
-        <v>0.214472</v>
+        <v>0.214877</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.265724</v>
+        <v>0.266596</v>
       </c>
       <c r="C134" t="n">
-        <v>0.24345</v>
+        <v>0.243379</v>
       </c>
       <c r="D134" t="n">
-        <v>0.21402</v>
+        <v>0.21453</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.254019</v>
+        <v>0.254002</v>
       </c>
       <c r="C135" t="n">
-        <v>0.242525</v>
+        <v>0.242951</v>
       </c>
       <c r="D135" t="n">
-        <v>0.214868</v>
+        <v>0.213318</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.239862</v>
+        <v>0.240653</v>
       </c>
       <c r="C136" t="n">
-        <v>0.241991</v>
+        <v>0.241975</v>
       </c>
       <c r="D136" t="n">
-        <v>0.212899</v>
+        <v>0.214667</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.226121</v>
+        <v>0.226305</v>
       </c>
       <c r="C137" t="n">
-        <v>0.241855</v>
+        <v>0.241792</v>
       </c>
       <c r="D137" t="n">
-        <v>0.228061</v>
+        <v>0.229408</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.350759</v>
+        <v>0.350712</v>
       </c>
       <c r="C138" t="n">
-        <v>0.258554</v>
+        <v>0.259091</v>
       </c>
       <c r="D138" t="n">
-        <v>0.225777</v>
+        <v>0.227184</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.344709</v>
+        <v>0.34507</v>
       </c>
       <c r="C139" t="n">
-        <v>0.255495</v>
+        <v>0.255387</v>
       </c>
       <c r="D139" t="n">
-        <v>0.223465</v>
+        <v>0.224019</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338982</v>
+        <v>0.338447</v>
       </c>
       <c r="C140" t="n">
-        <v>0.25286</v>
+        <v>0.254082</v>
       </c>
       <c r="D140" t="n">
-        <v>0.221861</v>
+        <v>0.223268</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331577</v>
+        <v>0.33127</v>
       </c>
       <c r="C141" t="n">
-        <v>0.250738</v>
+        <v>0.251717</v>
       </c>
       <c r="D141" t="n">
-        <v>0.22182</v>
+        <v>0.222361</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.323953</v>
+        <v>0.324702</v>
       </c>
       <c r="C142" t="n">
-        <v>0.24891</v>
+        <v>0.24941</v>
       </c>
       <c r="D142" t="n">
-        <v>0.220735</v>
+        <v>0.220234</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.316515</v>
+        <v>0.316555</v>
       </c>
       <c r="C143" t="n">
-        <v>0.248301</v>
+        <v>0.248649</v>
       </c>
       <c r="D143" t="n">
-        <v>0.218821</v>
+        <v>0.219274</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.296987</v>
+        <v>0.30121</v>
       </c>
       <c r="C2" t="n">
-        <v>0.224202</v>
+        <v>0.224063</v>
       </c>
       <c r="D2" t="n">
-        <v>0.198653</v>
+        <v>0.198309</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.288338</v>
+        <v>0.290382</v>
       </c>
       <c r="C3" t="n">
-        <v>0.225644</v>
+        <v>0.223744</v>
       </c>
       <c r="D3" t="n">
-        <v>0.199186</v>
+        <v>0.198876</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.282226</v>
+        <v>0.279605</v>
       </c>
       <c r="C4" t="n">
-        <v>0.226108</v>
+        <v>0.224807</v>
       </c>
       <c r="D4" t="n">
-        <v>0.201502</v>
+        <v>0.201456</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.269681</v>
+        <v>0.271161</v>
       </c>
       <c r="C5" t="n">
-        <v>0.224485</v>
+        <v>0.223372</v>
       </c>
       <c r="D5" t="n">
-        <v>0.201342</v>
+        <v>0.200293</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.259055</v>
+        <v>0.258896</v>
       </c>
       <c r="C6" t="n">
-        <v>0.226438</v>
+        <v>0.22493</v>
       </c>
       <c r="D6" t="n">
-        <v>0.201333</v>
+        <v>0.201211</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.246643</v>
+        <v>0.245243</v>
       </c>
       <c r="C7" t="n">
-        <v>0.225237</v>
+        <v>0.226245</v>
       </c>
       <c r="D7" t="n">
-        <v>0.201526</v>
+        <v>0.201714</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.233811</v>
+        <v>0.23462</v>
       </c>
       <c r="C8" t="n">
-        <v>0.227075</v>
+        <v>0.225775</v>
       </c>
       <c r="D8" t="n">
-        <v>0.203054</v>
+        <v>0.202613</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.218339</v>
+        <v>0.219089</v>
       </c>
       <c r="C9" t="n">
-        <v>0.226296</v>
+        <v>0.226379</v>
       </c>
       <c r="D9" t="n">
-        <v>0.220733</v>
+        <v>0.217953</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.34453</v>
+        <v>0.345075</v>
       </c>
       <c r="C10" t="n">
-        <v>0.246699</v>
+        <v>0.246665</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216733</v>
+        <v>0.216007</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.339461</v>
+        <v>0.351732</v>
       </c>
       <c r="C11" t="n">
-        <v>0.244586</v>
+        <v>0.243987</v>
       </c>
       <c r="D11" t="n">
-        <v>0.215546</v>
+        <v>0.21529</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.33268</v>
+        <v>0.332958</v>
       </c>
       <c r="C12" t="n">
-        <v>0.24271</v>
+        <v>0.243007</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214791</v>
+        <v>0.214446</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.327139</v>
+        <v>0.327464</v>
       </c>
       <c r="C13" t="n">
-        <v>0.241953</v>
+        <v>0.241382</v>
       </c>
       <c r="D13" t="n">
-        <v>0.213107</v>
+        <v>0.221339</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.319651</v>
+        <v>0.321429</v>
       </c>
       <c r="C14" t="n">
-        <v>0.239559</v>
+        <v>0.239499</v>
       </c>
       <c r="D14" t="n">
-        <v>0.21266</v>
+        <v>0.211619</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.313788</v>
+        <v>0.315258</v>
       </c>
       <c r="C15" t="n">
-        <v>0.238309</v>
+        <v>0.239274</v>
       </c>
       <c r="D15" t="n">
-        <v>0.211615</v>
+        <v>0.210335</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.303736</v>
+        <v>0.306878</v>
       </c>
       <c r="C16" t="n">
-        <v>0.23918</v>
+        <v>0.238743</v>
       </c>
       <c r="D16" t="n">
-        <v>0.210303</v>
+        <v>0.209813</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.294974</v>
+        <v>0.296792</v>
       </c>
       <c r="C17" t="n">
-        <v>0.238837</v>
+        <v>0.238525</v>
       </c>
       <c r="D17" t="n">
-        <v>0.211082</v>
+        <v>0.209937</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.286314</v>
+        <v>0.286703</v>
       </c>
       <c r="C18" t="n">
-        <v>0.239518</v>
+        <v>0.238169</v>
       </c>
       <c r="D18" t="n">
-        <v>0.209905</v>
+        <v>0.209166</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.278798</v>
+        <v>0.283993</v>
       </c>
       <c r="C19" t="n">
-        <v>0.238019</v>
+        <v>0.237024</v>
       </c>
       <c r="D19" t="n">
-        <v>0.209659</v>
+        <v>0.209372</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.265421</v>
+        <v>0.27069</v>
       </c>
       <c r="C20" t="n">
-        <v>0.237632</v>
+        <v>0.237707</v>
       </c>
       <c r="D20" t="n">
-        <v>0.210257</v>
+        <v>0.215591</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.26001</v>
+        <v>0.254758</v>
       </c>
       <c r="C21" t="n">
-        <v>0.237431</v>
+        <v>0.236655</v>
       </c>
       <c r="D21" t="n">
-        <v>0.209858</v>
+        <v>0.209609</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.241576</v>
+        <v>0.241752</v>
       </c>
       <c r="C22" t="n">
-        <v>0.237454</v>
+        <v>0.236765</v>
       </c>
       <c r="D22" t="n">
-        <v>0.209347</v>
+        <v>0.208806</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.228045</v>
+        <v>0.226255</v>
       </c>
       <c r="C23" t="n">
-        <v>0.237593</v>
+        <v>0.237273</v>
       </c>
       <c r="D23" t="n">
-        <v>0.224283</v>
+        <v>0.224583</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348398</v>
+        <v>0.348892</v>
       </c>
       <c r="C24" t="n">
-        <v>0.254654</v>
+        <v>0.255476</v>
       </c>
       <c r="D24" t="n">
-        <v>0.22258</v>
+        <v>0.222537</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.341904</v>
+        <v>0.342197</v>
       </c>
       <c r="C25" t="n">
-        <v>0.252926</v>
+        <v>0.253138</v>
       </c>
       <c r="D25" t="n">
-        <v>0.221513</v>
+        <v>0.221486</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.33604</v>
+        <v>0.336373</v>
       </c>
       <c r="C26" t="n">
-        <v>0.250113</v>
+        <v>0.250953</v>
       </c>
       <c r="D26" t="n">
-        <v>0.22034</v>
+        <v>0.220493</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.329101</v>
+        <v>0.328777</v>
       </c>
       <c r="C27" t="n">
-        <v>0.249251</v>
+        <v>0.249479</v>
       </c>
       <c r="D27" t="n">
-        <v>0.218336</v>
+        <v>0.2184</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.321831</v>
+        <v>0.321903</v>
       </c>
       <c r="C28" t="n">
-        <v>0.247492</v>
+        <v>0.247787</v>
       </c>
       <c r="D28" t="n">
-        <v>0.216917</v>
+        <v>0.217225</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.314878</v>
+        <v>0.315073</v>
       </c>
       <c r="C29" t="n">
-        <v>0.246297</v>
+        <v>0.24678</v>
       </c>
       <c r="D29" t="n">
-        <v>0.216012</v>
+        <v>0.216158</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.30664</v>
+        <v>0.306896</v>
       </c>
       <c r="C30" t="n">
-        <v>0.245018</v>
+        <v>0.244695</v>
       </c>
       <c r="D30" t="n">
-        <v>0.215061</v>
+        <v>0.214847</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.298046</v>
+        <v>0.298014</v>
       </c>
       <c r="C31" t="n">
-        <v>0.243805</v>
+        <v>0.244095</v>
       </c>
       <c r="D31" t="n">
-        <v>0.214297</v>
+        <v>0.214283</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.288794</v>
+        <v>0.288831</v>
       </c>
       <c r="C32" t="n">
-        <v>0.243983</v>
+        <v>0.243873</v>
       </c>
       <c r="D32" t="n">
-        <v>0.213647</v>
+        <v>0.213456</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.279684</v>
+        <v>0.279541</v>
       </c>
       <c r="C33" t="n">
-        <v>0.242673</v>
+        <v>0.242983</v>
       </c>
       <c r="D33" t="n">
-        <v>0.213449</v>
+        <v>0.213789</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.268739</v>
+        <v>0.269053</v>
       </c>
       <c r="C34" t="n">
-        <v>0.241791</v>
+        <v>0.241882</v>
       </c>
       <c r="D34" t="n">
-        <v>0.213079</v>
+        <v>0.212645</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.258109</v>
+        <v>0.258045</v>
       </c>
       <c r="C35" t="n">
-        <v>0.242252</v>
+        <v>0.24228</v>
       </c>
       <c r="D35" t="n">
-        <v>0.212617</v>
+        <v>0.212775</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244903</v>
+        <v>0.244822</v>
       </c>
       <c r="C36" t="n">
-        <v>0.241416</v>
+        <v>0.241398</v>
       </c>
       <c r="D36" t="n">
-        <v>0.212528</v>
+        <v>0.212185</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.231006</v>
+        <v>0.231273</v>
       </c>
       <c r="C37" t="n">
-        <v>0.241194</v>
+        <v>0.241211</v>
       </c>
       <c r="D37" t="n">
-        <v>0.226898</v>
+        <v>0.226806</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.349834</v>
+        <v>0.349959</v>
       </c>
       <c r="C38" t="n">
-        <v>0.260929</v>
+        <v>0.2609</v>
       </c>
       <c r="D38" t="n">
-        <v>0.224237</v>
+        <v>0.224175</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.344607</v>
+        <v>0.344755</v>
       </c>
       <c r="C39" t="n">
-        <v>0.257417</v>
+        <v>0.257723</v>
       </c>
       <c r="D39" t="n">
-        <v>0.222186</v>
+        <v>0.222382</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.338487</v>
+        <v>0.338464</v>
       </c>
       <c r="C40" t="n">
-        <v>0.254573</v>
+        <v>0.254854</v>
       </c>
       <c r="D40" t="n">
-        <v>0.220565</v>
+        <v>0.220764</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.331962</v>
+        <v>0.331881</v>
       </c>
       <c r="C41" t="n">
-        <v>0.251433</v>
+        <v>0.251324</v>
       </c>
       <c r="D41" t="n">
-        <v>0.218679</v>
+        <v>0.218982</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.32463</v>
+        <v>0.324562</v>
       </c>
       <c r="C42" t="n">
-        <v>0.250432</v>
+        <v>0.250566</v>
       </c>
       <c r="D42" t="n">
-        <v>0.217584</v>
+        <v>0.217499</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.316771</v>
+        <v>0.316837</v>
       </c>
       <c r="C43" t="n">
-        <v>0.248877</v>
+        <v>0.249043</v>
       </c>
       <c r="D43" t="n">
-        <v>0.216604</v>
+        <v>0.216646</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.309269</v>
+        <v>0.309489</v>
       </c>
       <c r="C44" t="n">
-        <v>0.247402</v>
+        <v>0.247712</v>
       </c>
       <c r="D44" t="n">
-        <v>0.215785</v>
+        <v>0.215701</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300431</v>
+        <v>0.300539</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246096</v>
+        <v>0.246624</v>
       </c>
       <c r="D45" t="n">
-        <v>0.214572</v>
+        <v>0.214584</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291939</v>
+        <v>0.291913</v>
       </c>
       <c r="C46" t="n">
-        <v>0.245445</v>
+        <v>0.245618</v>
       </c>
       <c r="D46" t="n">
-        <v>0.214246</v>
+        <v>0.214056</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.282493</v>
+        <v>0.282366</v>
       </c>
       <c r="C47" t="n">
-        <v>0.244474</v>
+        <v>0.244896</v>
       </c>
       <c r="D47" t="n">
-        <v>0.213927</v>
+        <v>0.213982</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.272029</v>
+        <v>0.27185</v>
       </c>
       <c r="C48" t="n">
-        <v>0.243609</v>
+        <v>0.24341</v>
       </c>
       <c r="D48" t="n">
-        <v>0.213656</v>
+        <v>0.213053</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.260812</v>
+        <v>0.260993</v>
       </c>
       <c r="C49" t="n">
-        <v>0.243083</v>
+        <v>0.242973</v>
       </c>
       <c r="D49" t="n">
-        <v>0.21333</v>
+        <v>0.2133</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.248891</v>
+        <v>0.249141</v>
       </c>
       <c r="C50" t="n">
-        <v>0.242825</v>
+        <v>0.242743</v>
       </c>
       <c r="D50" t="n">
-        <v>0.214168</v>
+        <v>0.213737</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.235037</v>
+        <v>0.235265</v>
       </c>
       <c r="C51" t="n">
-        <v>0.242216</v>
+        <v>0.242128</v>
       </c>
       <c r="D51" t="n">
-        <v>0.225701</v>
+        <v>0.225762</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.21999</v>
+        <v>0.220155</v>
       </c>
       <c r="C52" t="n">
-        <v>0.241501</v>
+        <v>0.241374</v>
       </c>
       <c r="D52" t="n">
-        <v>0.223593</v>
+        <v>0.223529</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.346933</v>
+        <v>0.347522</v>
       </c>
       <c r="C53" t="n">
-        <v>0.257673</v>
+        <v>0.257078</v>
       </c>
       <c r="D53" t="n">
-        <v>0.221994</v>
+        <v>0.221949</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.341032</v>
+        <v>0.341087</v>
       </c>
       <c r="C54" t="n">
-        <v>0.254829</v>
+        <v>0.254217</v>
       </c>
       <c r="D54" t="n">
-        <v>0.220594</v>
+        <v>0.220648</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.335048</v>
+        <v>0.335331</v>
       </c>
       <c r="C55" t="n">
-        <v>0.25199</v>
+        <v>0.251784</v>
       </c>
       <c r="D55" t="n">
-        <v>0.219448</v>
+        <v>0.219504</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.32778</v>
+        <v>0.327762</v>
       </c>
       <c r="C56" t="n">
-        <v>0.250516</v>
+        <v>0.250492</v>
       </c>
       <c r="D56" t="n">
-        <v>0.218015</v>
+        <v>0.218238</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.320189</v>
+        <v>0.320281</v>
       </c>
       <c r="C57" t="n">
         <v>0.249098</v>
       </c>
       <c r="D57" t="n">
-        <v>0.217202</v>
+        <v>0.217051</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.31296</v>
+        <v>0.312977</v>
       </c>
       <c r="C58" t="n">
-        <v>0.247653</v>
+        <v>0.247788</v>
       </c>
       <c r="D58" t="n">
-        <v>0.216481</v>
+        <v>0.216574</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304325</v>
+        <v>0.304501</v>
       </c>
       <c r="C59" t="n">
-        <v>0.246497</v>
+        <v>0.246729</v>
       </c>
       <c r="D59" t="n">
-        <v>0.215522</v>
+        <v>0.21549</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294566</v>
+        <v>0.295018</v>
       </c>
       <c r="C60" t="n">
-        <v>0.245641</v>
+        <v>0.245648</v>
       </c>
       <c r="D60" t="n">
-        <v>0.214616</v>
+        <v>0.214698</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.285095</v>
+        <v>0.28516</v>
       </c>
       <c r="C61" t="n">
-        <v>0.245041</v>
+        <v>0.245124</v>
       </c>
       <c r="D61" t="n">
-        <v>0.214053</v>
+        <v>0.214198</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.274637</v>
+        <v>0.27469</v>
       </c>
       <c r="C62" t="n">
-        <v>0.244038</v>
+        <v>0.244031</v>
       </c>
       <c r="D62" t="n">
-        <v>0.213507</v>
+        <v>0.213717</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263439</v>
+        <v>0.263409</v>
       </c>
       <c r="C63" t="n">
-        <v>0.24327</v>
+        <v>0.243169</v>
       </c>
       <c r="D63" t="n">
-        <v>0.213221</v>
+        <v>0.213302</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.251015</v>
+        <v>0.250854</v>
       </c>
       <c r="C64" t="n">
-        <v>0.242862</v>
+        <v>0.242853</v>
       </c>
       <c r="D64" t="n">
-        <v>0.212377</v>
+        <v>0.212679</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.237985</v>
+        <v>0.238048</v>
       </c>
       <c r="C65" t="n">
-        <v>0.241967</v>
+        <v>0.241902</v>
       </c>
       <c r="D65" t="n">
-        <v>0.212227</v>
+        <v>0.2122</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.223564</v>
+        <v>0.223466</v>
       </c>
       <c r="C66" t="n">
-        <v>0.241301</v>
+        <v>0.241459</v>
       </c>
       <c r="D66" t="n">
-        <v>0.224897</v>
+        <v>0.224982</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.349093</v>
+        <v>0.348862</v>
       </c>
       <c r="C67" t="n">
-        <v>0.259386</v>
+        <v>0.259325</v>
       </c>
       <c r="D67" t="n">
-        <v>0.222901</v>
+        <v>0.222952</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.342755</v>
+        <v>0.342626</v>
       </c>
       <c r="C68" t="n">
-        <v>0.255401</v>
+        <v>0.255651</v>
       </c>
       <c r="D68" t="n">
-        <v>0.221105</v>
+        <v>0.221335</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.337056</v>
+        <v>0.336728</v>
       </c>
       <c r="C69" t="n">
-        <v>0.252663</v>
+        <v>0.252709</v>
       </c>
       <c r="D69" t="n">
-        <v>0.219696</v>
+        <v>0.219887</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.330062</v>
+        <v>0.330156</v>
       </c>
       <c r="C70" t="n">
-        <v>0.250897</v>
+        <v>0.251077</v>
       </c>
       <c r="D70" t="n">
-        <v>0.218641</v>
+        <v>0.218957</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.322705</v>
+        <v>0.323129</v>
       </c>
       <c r="C71" t="n">
-        <v>0.24946</v>
+        <v>0.249665</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217673</v>
+        <v>0.217959</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.315595</v>
+        <v>0.315349</v>
       </c>
       <c r="C72" t="n">
-        <v>0.248132</v>
+        <v>0.248439</v>
       </c>
       <c r="D72" t="n">
-        <v>0.21649</v>
+        <v>0.21679</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.306934</v>
+        <v>0.306926</v>
       </c>
       <c r="C73" t="n">
-        <v>0.246871</v>
+        <v>0.247214</v>
       </c>
       <c r="D73" t="n">
-        <v>0.215553</v>
+        <v>0.215829</v>
       </c>
     </row>
     <row r="74">
@@ -4260,10 +4260,10 @@
         <v>0.298407</v>
       </c>
       <c r="C74" t="n">
-        <v>0.245891</v>
+        <v>0.246107</v>
       </c>
       <c r="D74" t="n">
-        <v>0.214694</v>
+        <v>0.214894</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.289038</v>
+        <v>0.288731</v>
       </c>
       <c r="C75" t="n">
-        <v>0.245083</v>
+        <v>0.245302</v>
       </c>
       <c r="D75" t="n">
-        <v>0.214168</v>
+        <v>0.214343</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.278633</v>
+        <v>0.278789</v>
       </c>
       <c r="C76" t="n">
-        <v>0.244363</v>
+        <v>0.244477</v>
       </c>
       <c r="D76" t="n">
-        <v>0.213654</v>
+        <v>0.213801</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.267799</v>
+        <v>0.267614</v>
       </c>
       <c r="C77" t="n">
-        <v>0.243205</v>
+        <v>0.243397</v>
       </c>
       <c r="D77" t="n">
-        <v>0.21309</v>
+        <v>0.213255</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.255207</v>
+        <v>0.255187</v>
       </c>
       <c r="C78" t="n">
-        <v>0.242367</v>
+        <v>0.242524</v>
       </c>
       <c r="D78" t="n">
-        <v>0.212758</v>
+        <v>0.212841</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.242187</v>
+        <v>0.241904</v>
       </c>
       <c r="C79" t="n">
-        <v>0.241967</v>
+        <v>0.242022</v>
       </c>
       <c r="D79" t="n">
-        <v>0.212525</v>
+        <v>0.212635</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227523</v>
+        <v>0.227619</v>
       </c>
       <c r="C80" t="n">
-        <v>0.241797</v>
+        <v>0.241846</v>
       </c>
       <c r="D80" t="n">
-        <v>0.225407</v>
+        <v>0.225483</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.350223</v>
+        <v>0.350211</v>
       </c>
       <c r="C81" t="n">
-        <v>0.25879</v>
+        <v>0.258925</v>
       </c>
       <c r="D81" t="n">
-        <v>0.223425</v>
+        <v>0.223457</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.344552</v>
+        <v>0.34441</v>
       </c>
       <c r="C82" t="n">
-        <v>0.255215</v>
+        <v>0.255407</v>
       </c>
       <c r="D82" t="n">
-        <v>0.221731</v>
+        <v>0.221834</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.338076</v>
+        <v>0.338176</v>
       </c>
       <c r="C83" t="n">
-        <v>0.252659</v>
+        <v>0.252786</v>
       </c>
       <c r="D83" t="n">
-        <v>0.220048</v>
+        <v>0.220266</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.331655</v>
+        <v>0.331627</v>
       </c>
       <c r="C84" t="n">
-        <v>0.250686</v>
+        <v>0.250878</v>
       </c>
       <c r="D84" t="n">
-        <v>0.218907</v>
+        <v>0.218957</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.324579</v>
+        <v>0.324396</v>
       </c>
       <c r="C85" t="n">
-        <v>0.249481</v>
+        <v>0.249652</v>
       </c>
       <c r="D85" t="n">
-        <v>0.217641</v>
+        <v>0.217819</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.316717</v>
+        <v>0.316731</v>
       </c>
       <c r="C86" t="n">
-        <v>0.248151</v>
+        <v>0.248351</v>
       </c>
       <c r="D86" t="n">
-        <v>0.216796</v>
+        <v>0.216748</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.308641</v>
+        <v>0.308476</v>
       </c>
       <c r="C87" t="n">
-        <v>0.246983</v>
+        <v>0.247192</v>
       </c>
       <c r="D87" t="n">
-        <v>0.215912</v>
+        <v>0.215966</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300119</v>
+        <v>0.299775</v>
       </c>
       <c r="C88" t="n">
-        <v>0.246315</v>
+        <v>0.246393</v>
       </c>
       <c r="D88" t="n">
-        <v>0.215054</v>
+        <v>0.215176</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.29095</v>
+        <v>0.290734</v>
       </c>
       <c r="C89" t="n">
-        <v>0.245313</v>
+        <v>0.2454</v>
       </c>
       <c r="D89" t="n">
-        <v>0.214266</v>
+        <v>0.21439</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.28097</v>
+        <v>0.280808</v>
       </c>
       <c r="C90" t="n">
-        <v>0.244544</v>
+        <v>0.244678</v>
       </c>
       <c r="D90" t="n">
-        <v>0.213636</v>
+        <v>0.213789</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.2699</v>
+        <v>0.269582</v>
       </c>
       <c r="C91" t="n">
-        <v>0.243619</v>
+        <v>0.243718</v>
       </c>
       <c r="D91" t="n">
-        <v>0.213075</v>
+        <v>0.2132</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.258</v>
+        <v>0.25799</v>
       </c>
       <c r="C92" t="n">
-        <v>0.242943</v>
+        <v>0.242993</v>
       </c>
       <c r="D92" t="n">
-        <v>0.212756</v>
+        <v>0.212779</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.244909</v>
+        <v>0.244674</v>
       </c>
       <c r="C93" t="n">
-        <v>0.242361</v>
+        <v>0.242337</v>
       </c>
       <c r="D93" t="n">
-        <v>0.212718</v>
+        <v>0.212743</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.23099</v>
+        <v>0.230815</v>
       </c>
       <c r="C94" t="n">
-        <v>0.241915</v>
+        <v>0.241964</v>
       </c>
       <c r="D94" t="n">
-        <v>0.225841</v>
+        <v>0.225831</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.351696</v>
+        <v>0.351698</v>
       </c>
       <c r="C95" t="n">
-        <v>0.259397</v>
+        <v>0.25941</v>
       </c>
       <c r="D95" t="n">
-        <v>0.223643</v>
+        <v>0.223697</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.345787</v>
+        <v>0.345744</v>
       </c>
       <c r="C96" t="n">
-        <v>0.25597</v>
+        <v>0.255911</v>
       </c>
       <c r="D96" t="n">
-        <v>0.221869</v>
+        <v>0.221864</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.339841</v>
+        <v>0.339883</v>
       </c>
       <c r="C97" t="n">
-        <v>0.253457</v>
+        <v>0.253411</v>
       </c>
       <c r="D97" t="n">
-        <v>0.220375</v>
+        <v>0.220404</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.333433</v>
+        <v>0.333477</v>
       </c>
       <c r="C98" t="n">
-        <v>0.25139</v>
+        <v>0.251379</v>
       </c>
       <c r="D98" t="n">
-        <v>0.219091</v>
+        <v>0.219161</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.326103</v>
+        <v>0.32596</v>
       </c>
       <c r="C99" t="n">
-        <v>0.249971</v>
+        <v>0.250152</v>
       </c>
       <c r="D99" t="n">
-        <v>0.217872</v>
+        <v>0.218007</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.318722</v>
+        <v>0.318577</v>
       </c>
       <c r="C100" t="n">
-        <v>0.248639</v>
+        <v>0.248794</v>
       </c>
       <c r="D100" t="n">
-        <v>0.216883</v>
+        <v>0.216899</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.310786</v>
+        <v>0.310601</v>
       </c>
       <c r="C101" t="n">
-        <v>0.247568</v>
+        <v>0.247497</v>
       </c>
       <c r="D101" t="n">
-        <v>0.215964</v>
+        <v>0.216068</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.301927</v>
+        <v>0.302051</v>
       </c>
       <c r="C102" t="n">
-        <v>0.246645</v>
+        <v>0.246573</v>
       </c>
       <c r="D102" t="n">
-        <v>0.215258</v>
+        <v>0.215216</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.292872</v>
+        <v>0.292858</v>
       </c>
       <c r="C103" t="n">
-        <v>0.245629</v>
+        <v>0.245821</v>
       </c>
       <c r="D103" t="n">
-        <v>0.214462</v>
+        <v>0.21446</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.283117</v>
+        <v>0.283167</v>
       </c>
       <c r="C104" t="n">
-        <v>0.244976</v>
+        <v>0.244869</v>
       </c>
       <c r="D104" t="n">
-        <v>0.213793</v>
+        <v>0.213908</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.27222</v>
+        <v>0.272271</v>
       </c>
       <c r="C105" t="n">
-        <v>0.243973</v>
+        <v>0.243939</v>
       </c>
       <c r="D105" t="n">
-        <v>0.213267</v>
+        <v>0.213245</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.260726</v>
+        <v>0.260464</v>
       </c>
       <c r="C106" t="n">
-        <v>0.243315</v>
+        <v>0.243168</v>
       </c>
       <c r="D106" t="n">
-        <v>0.212703</v>
+        <v>0.212838</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247821</v>
+        <v>0.247524</v>
       </c>
       <c r="C107" t="n">
-        <v>0.24261</v>
+        <v>0.242495</v>
       </c>
       <c r="D107" t="n">
-        <v>0.212424</v>
+        <v>0.212416</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.233838</v>
+        <v>0.233931</v>
       </c>
       <c r="C108" t="n">
-        <v>0.241813</v>
+        <v>0.241924</v>
       </c>
       <c r="D108" t="n">
-        <v>0.226329</v>
+        <v>0.2262</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.219086</v>
+        <v>0.219198</v>
       </c>
       <c r="C109" t="n">
-        <v>0.241488</v>
+        <v>0.241501</v>
       </c>
       <c r="D109" t="n">
-        <v>0.224103</v>
+        <v>0.224116</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.347327</v>
+        <v>0.346863</v>
       </c>
       <c r="C110" t="n">
-        <v>0.256391</v>
+        <v>0.256159</v>
       </c>
       <c r="D110" t="n">
-        <v>0.222305</v>
+        <v>0.222108</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.341478</v>
+        <v>0.341282</v>
       </c>
       <c r="C111" t="n">
-        <v>0.253768</v>
+        <v>0.253625</v>
       </c>
       <c r="D111" t="n">
-        <v>0.220862</v>
+        <v>0.220557</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.334973</v>
+        <v>0.334718</v>
       </c>
       <c r="C112" t="n">
-        <v>0.251656</v>
+        <v>0.251832</v>
       </c>
       <c r="D112" t="n">
-        <v>0.219343</v>
+        <v>0.219234</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.327734</v>
+        <v>0.327812</v>
       </c>
       <c r="C113" t="n">
-        <v>0.25023</v>
+        <v>0.250304</v>
       </c>
       <c r="D113" t="n">
-        <v>0.218289</v>
+        <v>0.218221</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.320762</v>
+        <v>0.320203</v>
       </c>
       <c r="C114" t="n">
-        <v>0.249016</v>
+        <v>0.249103</v>
       </c>
       <c r="D114" t="n">
-        <v>0.217214</v>
+        <v>0.21703</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.3128</v>
+        <v>0.312571</v>
       </c>
       <c r="C115" t="n">
-        <v>0.24819</v>
+        <v>0.247854</v>
       </c>
       <c r="D115" t="n">
-        <v>0.216357</v>
+        <v>0.216142</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304657</v>
+        <v>0.304382</v>
       </c>
       <c r="C116" t="n">
-        <v>0.247059</v>
+        <v>0.24702</v>
       </c>
       <c r="D116" t="n">
-        <v>0.21544</v>
+        <v>0.215399</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.295774</v>
+        <v>0.295442</v>
       </c>
       <c r="C117" t="n">
-        <v>0.245939</v>
+        <v>0.245964</v>
       </c>
       <c r="D117" t="n">
-        <v>0.21469</v>
+        <v>0.214645</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.285398</v>
+        <v>0.285401</v>
       </c>
       <c r="C118" t="n">
-        <v>0.24517</v>
+        <v>0.245177</v>
       </c>
       <c r="D118" t="n">
-        <v>0.214667</v>
+        <v>0.214189</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.275344</v>
+        <v>0.275005</v>
       </c>
       <c r="C119" t="n">
-        <v>0.244642</v>
+        <v>0.24438</v>
       </c>
       <c r="D119" t="n">
-        <v>0.213962</v>
+        <v>0.213723</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.263719</v>
+        <v>0.263362</v>
       </c>
       <c r="C120" t="n">
-        <v>0.243637</v>
+        <v>0.243558</v>
       </c>
       <c r="D120" t="n">
-        <v>0.213864</v>
+        <v>0.21315</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.251446</v>
+        <v>0.251369</v>
       </c>
       <c r="C121" t="n">
-        <v>0.242777</v>
+        <v>0.242802</v>
       </c>
       <c r="D121" t="n">
-        <v>0.212994</v>
+        <v>0.213208</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.238363</v>
+        <v>0.237575</v>
       </c>
       <c r="C122" t="n">
-        <v>0.242464</v>
+        <v>0.242399</v>
       </c>
       <c r="D122" t="n">
-        <v>0.213292</v>
+        <v>0.212844</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.223069</v>
+        <v>0.222933</v>
       </c>
       <c r="C123" t="n">
-        <v>0.241984</v>
+        <v>0.241707</v>
       </c>
       <c r="D123" t="n">
-        <v>0.225847</v>
+        <v>0.225707</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.349147</v>
+        <v>0.348843</v>
       </c>
       <c r="C124" t="n">
-        <v>0.257435</v>
+        <v>0.257424</v>
       </c>
       <c r="D124" t="n">
-        <v>0.223368</v>
+        <v>0.223034</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.343206</v>
+        <v>0.342601</v>
       </c>
       <c r="C125" t="n">
-        <v>0.254205</v>
+        <v>0.254292</v>
       </c>
       <c r="D125" t="n">
-        <v>0.222261</v>
+        <v>0.221431</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.336781</v>
+        <v>0.336257</v>
       </c>
       <c r="C126" t="n">
-        <v>0.25198</v>
+        <v>0.251618</v>
       </c>
       <c r="D126" t="n">
-        <v>0.220436</v>
+        <v>0.22142</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.329922</v>
+        <v>0.329788</v>
       </c>
       <c r="C127" t="n">
-        <v>0.250095</v>
+        <v>0.250203</v>
       </c>
       <c r="D127" t="n">
-        <v>0.220024</v>
+        <v>0.219511</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.322341</v>
+        <v>0.321945</v>
       </c>
       <c r="C128" t="n">
-        <v>0.24888</v>
+        <v>0.249032</v>
       </c>
       <c r="D128" t="n">
-        <v>0.218737</v>
+        <v>0.218776</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.314638</v>
+        <v>0.314701</v>
       </c>
       <c r="C129" t="n">
-        <v>0.247768</v>
+        <v>0.247415</v>
       </c>
       <c r="D129" t="n">
-        <v>0.218124</v>
+        <v>0.218245</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.306155</v>
+        <v>0.305868</v>
       </c>
       <c r="C130" t="n">
-        <v>0.246275</v>
+        <v>0.246471</v>
       </c>
       <c r="D130" t="n">
-        <v>0.216828</v>
+        <v>0.215617</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.297633</v>
+        <v>0.297176</v>
       </c>
       <c r="C131" t="n">
-        <v>0.245739</v>
+        <v>0.245453</v>
       </c>
       <c r="D131" t="n">
-        <v>0.216077</v>
+        <v>0.215973</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.288088</v>
+        <v>0.287496</v>
       </c>
       <c r="C132" t="n">
-        <v>0.244765</v>
+        <v>0.244604</v>
       </c>
       <c r="D132" t="n">
-        <v>0.215536</v>
+        <v>0.215138</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.277441</v>
+        <v>0.277239</v>
       </c>
       <c r="C133" t="n">
-        <v>0.244512</v>
+        <v>0.244064</v>
       </c>
       <c r="D133" t="n">
-        <v>0.214877</v>
+        <v>0.215629</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.266596</v>
+        <v>0.266013</v>
       </c>
       <c r="C134" t="n">
-        <v>0.243379</v>
+        <v>0.243535</v>
       </c>
       <c r="D134" t="n">
-        <v>0.21453</v>
+        <v>0.214256</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.254002</v>
+        <v>0.254383</v>
       </c>
       <c r="C135" t="n">
-        <v>0.242951</v>
+        <v>0.242713</v>
       </c>
       <c r="D135" t="n">
-        <v>0.213318</v>
+        <v>0.212697</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.240653</v>
+        <v>0.24044</v>
       </c>
       <c r="C136" t="n">
-        <v>0.241975</v>
+        <v>0.242072</v>
       </c>
       <c r="D136" t="n">
-        <v>0.214667</v>
+        <v>0.213346</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.226305</v>
+        <v>0.225722</v>
       </c>
       <c r="C137" t="n">
-        <v>0.241792</v>
+        <v>0.241389</v>
       </c>
       <c r="D137" t="n">
-        <v>0.229408</v>
+        <v>0.227625</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.350712</v>
+        <v>0.350351</v>
       </c>
       <c r="C138" t="n">
-        <v>0.259091</v>
+        <v>0.258732</v>
       </c>
       <c r="D138" t="n">
-        <v>0.227184</v>
+        <v>0.227256</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.34507</v>
+        <v>0.344182</v>
       </c>
       <c r="C139" t="n">
-        <v>0.255387</v>
+        <v>0.256192</v>
       </c>
       <c r="D139" t="n">
-        <v>0.224019</v>
+        <v>0.225122</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338447</v>
+        <v>0.338429</v>
       </c>
       <c r="C140" t="n">
-        <v>0.254082</v>
+        <v>0.253648</v>
       </c>
       <c r="D140" t="n">
-        <v>0.223268</v>
+        <v>0.223591</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.33127</v>
+        <v>0.331418</v>
       </c>
       <c r="C141" t="n">
-        <v>0.251717</v>
+        <v>0.250788</v>
       </c>
       <c r="D141" t="n">
-        <v>0.222361</v>
+        <v>0.221038</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.324702</v>
+        <v>0.324437</v>
       </c>
       <c r="C142" t="n">
-        <v>0.24941</v>
+        <v>0.249188</v>
       </c>
       <c r="D142" t="n">
-        <v>0.220234</v>
+        <v>0.220517</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.316555</v>
+        <v>0.316499</v>
       </c>
       <c r="C143" t="n">
-        <v>0.248649</v>
+        <v>0.248418</v>
       </c>
       <c r="D143" t="n">
-        <v>0.219274</v>
+        <v>0.219076</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.30121</v>
+        <v>0.300058</v>
       </c>
       <c r="C2" t="n">
-        <v>0.224063</v>
+        <v>0.224619</v>
       </c>
       <c r="D2" t="n">
-        <v>0.198309</v>
+        <v>0.198769</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.290382</v>
+        <v>0.290635</v>
       </c>
       <c r="C3" t="n">
-        <v>0.223744</v>
+        <v>0.223938</v>
       </c>
       <c r="D3" t="n">
-        <v>0.198876</v>
+        <v>0.199255</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279605</v>
+        <v>0.279713</v>
       </c>
       <c r="C4" t="n">
-        <v>0.224807</v>
+        <v>0.225461</v>
       </c>
       <c r="D4" t="n">
-        <v>0.201456</v>
+        <v>0.201618</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.271161</v>
+        <v>0.272361</v>
       </c>
       <c r="C5" t="n">
-        <v>0.223372</v>
+        <v>0.223515</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200293</v>
+        <v>0.201444</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.258896</v>
+        <v>0.258508</v>
       </c>
       <c r="C6" t="n">
-        <v>0.22493</v>
+        <v>0.224631</v>
       </c>
       <c r="D6" t="n">
-        <v>0.201211</v>
+        <v>0.201518</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.245243</v>
+        <v>0.243601</v>
       </c>
       <c r="C7" t="n">
-        <v>0.226245</v>
+        <v>0.225394</v>
       </c>
       <c r="D7" t="n">
-        <v>0.201714</v>
+        <v>0.201858</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.23462</v>
+        <v>0.232086</v>
       </c>
       <c r="C8" t="n">
-        <v>0.225775</v>
+        <v>0.226179</v>
       </c>
       <c r="D8" t="n">
-        <v>0.202613</v>
+        <v>0.202213</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.219089</v>
+        <v>0.22364</v>
       </c>
       <c r="C9" t="n">
-        <v>0.226379</v>
+        <v>0.226502</v>
       </c>
       <c r="D9" t="n">
-        <v>0.217953</v>
+        <v>0.217986</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.345075</v>
+        <v>0.346054</v>
       </c>
       <c r="C10" t="n">
-        <v>0.246665</v>
+        <v>0.246673</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216007</v>
+        <v>0.216591</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.351732</v>
+        <v>0.341671</v>
       </c>
       <c r="C11" t="n">
-        <v>0.243987</v>
+        <v>0.244642</v>
       </c>
       <c r="D11" t="n">
-        <v>0.21529</v>
+        <v>0.215608</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.332958</v>
+        <v>0.332853</v>
       </c>
       <c r="C12" t="n">
-        <v>0.243007</v>
+        <v>0.243409</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214446</v>
+        <v>0.214055</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.327464</v>
+        <v>0.326227</v>
       </c>
       <c r="C13" t="n">
-        <v>0.241382</v>
+        <v>0.241497</v>
       </c>
       <c r="D13" t="n">
-        <v>0.221339</v>
+        <v>0.212368</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.321429</v>
+        <v>0.321414</v>
       </c>
       <c r="C14" t="n">
-        <v>0.239499</v>
+        <v>0.239777</v>
       </c>
       <c r="D14" t="n">
-        <v>0.211619</v>
+        <v>0.212003</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.315258</v>
+        <v>0.313581</v>
       </c>
       <c r="C15" t="n">
-        <v>0.239274</v>
+        <v>0.238452</v>
       </c>
       <c r="D15" t="n">
-        <v>0.210335</v>
+        <v>0.210527</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.306878</v>
+        <v>0.305863</v>
       </c>
       <c r="C16" t="n">
-        <v>0.238743</v>
+        <v>0.239176</v>
       </c>
       <c r="D16" t="n">
-        <v>0.209813</v>
+        <v>0.210079</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.296792</v>
+        <v>0.297003</v>
       </c>
       <c r="C17" t="n">
-        <v>0.238525</v>
+        <v>0.238528</v>
       </c>
       <c r="D17" t="n">
-        <v>0.209937</v>
+        <v>0.210138</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.286703</v>
+        <v>0.288297</v>
       </c>
       <c r="C18" t="n">
-        <v>0.238169</v>
+        <v>0.23833</v>
       </c>
       <c r="D18" t="n">
-        <v>0.209166</v>
+        <v>0.20938</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.283993</v>
+        <v>0.276481</v>
       </c>
       <c r="C19" t="n">
-        <v>0.237024</v>
+        <v>0.237686</v>
       </c>
       <c r="D19" t="n">
-        <v>0.209372</v>
+        <v>0.209162</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.27069</v>
+        <v>0.269391</v>
       </c>
       <c r="C20" t="n">
-        <v>0.237707</v>
+        <v>0.237465</v>
       </c>
       <c r="D20" t="n">
-        <v>0.215591</v>
+        <v>0.209726</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.254758</v>
+        <v>0.25715</v>
       </c>
       <c r="C21" t="n">
-        <v>0.236655</v>
+        <v>0.237507</v>
       </c>
       <c r="D21" t="n">
-        <v>0.209609</v>
+        <v>0.209537</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.241752</v>
+        <v>0.241464</v>
       </c>
       <c r="C22" t="n">
-        <v>0.236765</v>
+        <v>0.237015</v>
       </c>
       <c r="D22" t="n">
-        <v>0.208806</v>
+        <v>0.20898</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.226255</v>
+        <v>0.228485</v>
       </c>
       <c r="C23" t="n">
-        <v>0.237273</v>
+        <v>0.237327</v>
       </c>
       <c r="D23" t="n">
-        <v>0.224583</v>
+        <v>0.224156</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348892</v>
+        <v>0.34896</v>
       </c>
       <c r="C24" t="n">
-        <v>0.255476</v>
+        <v>0.254615</v>
       </c>
       <c r="D24" t="n">
-        <v>0.222537</v>
+        <v>0.222357</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342197</v>
+        <v>0.342029</v>
       </c>
       <c r="C25" t="n">
-        <v>0.253138</v>
+        <v>0.253258</v>
       </c>
       <c r="D25" t="n">
-        <v>0.221486</v>
+        <v>0.220907</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.336373</v>
+        <v>0.336453</v>
       </c>
       <c r="C26" t="n">
-        <v>0.250953</v>
+        <v>0.251206</v>
       </c>
       <c r="D26" t="n">
-        <v>0.220493</v>
+        <v>0.220181</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328777</v>
+        <v>0.328914</v>
       </c>
       <c r="C27" t="n">
-        <v>0.249479</v>
+        <v>0.249952</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2184</v>
+        <v>0.218383</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.321903</v>
+        <v>0.322281</v>
       </c>
       <c r="C28" t="n">
-        <v>0.247787</v>
+        <v>0.24723</v>
       </c>
       <c r="D28" t="n">
-        <v>0.217225</v>
+        <v>0.217064</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.315073</v>
+        <v>0.314892</v>
       </c>
       <c r="C29" t="n">
-        <v>0.24678</v>
+        <v>0.246159</v>
       </c>
       <c r="D29" t="n">
-        <v>0.216158</v>
+        <v>0.216119</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.306896</v>
+        <v>0.306643</v>
       </c>
       <c r="C30" t="n">
-        <v>0.244695</v>
+        <v>0.245032</v>
       </c>
       <c r="D30" t="n">
-        <v>0.214847</v>
+        <v>0.214939</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.298014</v>
+        <v>0.297952</v>
       </c>
       <c r="C31" t="n">
-        <v>0.244095</v>
+        <v>0.243976</v>
       </c>
       <c r="D31" t="n">
-        <v>0.214283</v>
+        <v>0.214282</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.288831</v>
+        <v>0.288986</v>
       </c>
       <c r="C32" t="n">
-        <v>0.243873</v>
+        <v>0.243644</v>
       </c>
       <c r="D32" t="n">
-        <v>0.213456</v>
+        <v>0.213381</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.279541</v>
+        <v>0.279604</v>
       </c>
       <c r="C33" t="n">
-        <v>0.242983</v>
+        <v>0.242834</v>
       </c>
       <c r="D33" t="n">
-        <v>0.213789</v>
+        <v>0.213414</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.269053</v>
+        <v>0.269021</v>
       </c>
       <c r="C34" t="n">
-        <v>0.241882</v>
+        <v>0.241936</v>
       </c>
       <c r="D34" t="n">
-        <v>0.212645</v>
+        <v>0.212562</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.258045</v>
+        <v>0.257822</v>
       </c>
       <c r="C35" t="n">
-        <v>0.24228</v>
+        <v>0.242289</v>
       </c>
       <c r="D35" t="n">
-        <v>0.212775</v>
+        <v>0.212331</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244822</v>
+        <v>0.244736</v>
       </c>
       <c r="C36" t="n">
-        <v>0.241398</v>
+        <v>0.241579</v>
       </c>
       <c r="D36" t="n">
-        <v>0.212185</v>
+        <v>0.212038</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.231273</v>
+        <v>0.23099</v>
       </c>
       <c r="C37" t="n">
-        <v>0.241211</v>
+        <v>0.241551</v>
       </c>
       <c r="D37" t="n">
-        <v>0.226806</v>
+        <v>0.227035</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.349959</v>
+        <v>0.349926</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2609</v>
+        <v>0.261</v>
       </c>
       <c r="D38" t="n">
-        <v>0.224175</v>
+        <v>0.224456</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.344755</v>
+        <v>0.344681</v>
       </c>
       <c r="C39" t="n">
-        <v>0.257723</v>
+        <v>0.258103</v>
       </c>
       <c r="D39" t="n">
-        <v>0.222382</v>
+        <v>0.222367</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.338464</v>
+        <v>0.338492</v>
       </c>
       <c r="C40" t="n">
-        <v>0.254854</v>
+        <v>0.254767</v>
       </c>
       <c r="D40" t="n">
-        <v>0.220764</v>
+        <v>0.220719</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.331881</v>
+        <v>0.33211</v>
       </c>
       <c r="C41" t="n">
-        <v>0.251324</v>
+        <v>0.251645</v>
       </c>
       <c r="D41" t="n">
-        <v>0.218982</v>
+        <v>0.218923</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.324562</v>
+        <v>0.324651</v>
       </c>
       <c r="C42" t="n">
-        <v>0.250566</v>
+        <v>0.250647</v>
       </c>
       <c r="D42" t="n">
-        <v>0.217499</v>
+        <v>0.217928</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.316837</v>
+        <v>0.316753</v>
       </c>
       <c r="C43" t="n">
-        <v>0.249043</v>
+        <v>0.249197</v>
       </c>
       <c r="D43" t="n">
-        <v>0.216646</v>
+        <v>0.21684</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.309489</v>
+        <v>0.3094</v>
       </c>
       <c r="C44" t="n">
-        <v>0.247712</v>
+        <v>0.247803</v>
       </c>
       <c r="D44" t="n">
-        <v>0.215701</v>
+        <v>0.215613</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300539</v>
+        <v>0.300505</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246624</v>
+        <v>0.246919</v>
       </c>
       <c r="D45" t="n">
-        <v>0.214584</v>
+        <v>0.214597</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291913</v>
+        <v>0.291942</v>
       </c>
       <c r="C46" t="n">
-        <v>0.245618</v>
+        <v>0.246103</v>
       </c>
       <c r="D46" t="n">
-        <v>0.214056</v>
+        <v>0.214092</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.282366</v>
+        <v>0.282719</v>
       </c>
       <c r="C47" t="n">
-        <v>0.244896</v>
+        <v>0.244899</v>
       </c>
       <c r="D47" t="n">
-        <v>0.213982</v>
+        <v>0.213813</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.27185</v>
+        <v>0.271852</v>
       </c>
       <c r="C48" t="n">
-        <v>0.24341</v>
+        <v>0.243671</v>
       </c>
       <c r="D48" t="n">
-        <v>0.213053</v>
+        <v>0.21303</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.260993</v>
+        <v>0.260931</v>
       </c>
       <c r="C49" t="n">
-        <v>0.242973</v>
+        <v>0.243277</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2133</v>
+        <v>0.213276</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.249141</v>
+        <v>0.248826</v>
       </c>
       <c r="C50" t="n">
-        <v>0.242743</v>
+        <v>0.24277</v>
       </c>
       <c r="D50" t="n">
-        <v>0.213737</v>
+        <v>0.213459</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.235265</v>
+        <v>0.235035</v>
       </c>
       <c r="C51" t="n">
-        <v>0.242128</v>
+        <v>0.242196</v>
       </c>
       <c r="D51" t="n">
-        <v>0.225762</v>
+        <v>0.225935</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.220155</v>
+        <v>0.220016</v>
       </c>
       <c r="C52" t="n">
-        <v>0.241374</v>
+        <v>0.241673</v>
       </c>
       <c r="D52" t="n">
-        <v>0.223529</v>
+        <v>0.223628</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.347522</v>
+        <v>0.347075</v>
       </c>
       <c r="C53" t="n">
-        <v>0.257078</v>
+        <v>0.257496</v>
       </c>
       <c r="D53" t="n">
-        <v>0.221949</v>
+        <v>0.221921</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.341087</v>
+        <v>0.340944</v>
       </c>
       <c r="C54" t="n">
-        <v>0.254217</v>
+        <v>0.254457</v>
       </c>
       <c r="D54" t="n">
-        <v>0.220648</v>
+        <v>0.220342</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.335331</v>
+        <v>0.335024</v>
       </c>
       <c r="C55" t="n">
-        <v>0.251784</v>
+        <v>0.251883</v>
       </c>
       <c r="D55" t="n">
-        <v>0.219504</v>
+        <v>0.219282</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.327762</v>
+        <v>0.327734</v>
       </c>
       <c r="C56" t="n">
-        <v>0.250492</v>
+        <v>0.25039</v>
       </c>
       <c r="D56" t="n">
-        <v>0.218238</v>
+        <v>0.218141</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.320281</v>
+        <v>0.320608</v>
       </c>
       <c r="C57" t="n">
-        <v>0.249098</v>
+        <v>0.249096</v>
       </c>
       <c r="D57" t="n">
-        <v>0.217051</v>
+        <v>0.217005</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.312977</v>
+        <v>0.312972</v>
       </c>
       <c r="C58" t="n">
-        <v>0.247788</v>
+        <v>0.247718</v>
       </c>
       <c r="D58" t="n">
-        <v>0.216574</v>
+        <v>0.216278</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304501</v>
+        <v>0.30458</v>
       </c>
       <c r="C59" t="n">
-        <v>0.246729</v>
+        <v>0.246538</v>
       </c>
       <c r="D59" t="n">
-        <v>0.21549</v>
+        <v>0.215302</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.295018</v>
+        <v>0.294829</v>
       </c>
       <c r="C60" t="n">
-        <v>0.245648</v>
+        <v>0.245698</v>
       </c>
       <c r="D60" t="n">
-        <v>0.214698</v>
+        <v>0.21462</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.28516</v>
+        <v>0.285151</v>
       </c>
       <c r="C61" t="n">
-        <v>0.245124</v>
+        <v>0.24498</v>
       </c>
       <c r="D61" t="n">
-        <v>0.214198</v>
+        <v>0.214027</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.27469</v>
+        <v>0.274601</v>
       </c>
       <c r="C62" t="n">
-        <v>0.244031</v>
+        <v>0.24412</v>
       </c>
       <c r="D62" t="n">
-        <v>0.213717</v>
+        <v>0.213572</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263409</v>
+        <v>0.263204</v>
       </c>
       <c r="C63" t="n">
-        <v>0.243169</v>
+        <v>0.243228</v>
       </c>
       <c r="D63" t="n">
-        <v>0.213302</v>
+        <v>0.213078</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.250854</v>
+        <v>0.25064</v>
       </c>
       <c r="C64" t="n">
-        <v>0.242853</v>
+        <v>0.2428</v>
       </c>
       <c r="D64" t="n">
-        <v>0.212679</v>
+        <v>0.212565</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.238048</v>
+        <v>0.237739</v>
       </c>
       <c r="C65" t="n">
-        <v>0.241902</v>
+        <v>0.242061</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2122</v>
+        <v>0.212318</v>
       </c>
     </row>
     <row r="66">
@@ -4145,10 +4145,10 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.223466</v>
+        <v>0.223139</v>
       </c>
       <c r="C66" t="n">
-        <v>0.241459</v>
+        <v>0.241398</v>
       </c>
       <c r="D66" t="n">
         <v>0.224982</v>
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.348862</v>
+        <v>0.34923</v>
       </c>
       <c r="C67" t="n">
-        <v>0.259325</v>
+        <v>0.259472</v>
       </c>
       <c r="D67" t="n">
-        <v>0.222952</v>
+        <v>0.222942</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.342626</v>
+        <v>0.342941</v>
       </c>
       <c r="C68" t="n">
-        <v>0.255651</v>
+        <v>0.255662</v>
       </c>
       <c r="D68" t="n">
-        <v>0.221335</v>
+        <v>0.221154</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.336728</v>
+        <v>0.336875</v>
       </c>
       <c r="C69" t="n">
-        <v>0.252709</v>
+        <v>0.252644</v>
       </c>
       <c r="D69" t="n">
-        <v>0.219887</v>
+        <v>0.219643</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.330156</v>
+        <v>0.33048</v>
       </c>
       <c r="C70" t="n">
-        <v>0.251077</v>
+        <v>0.251018</v>
       </c>
       <c r="D70" t="n">
-        <v>0.218957</v>
+        <v>0.218524</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.323129</v>
+        <v>0.322774</v>
       </c>
       <c r="C71" t="n">
-        <v>0.249665</v>
+        <v>0.2496</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217959</v>
+        <v>0.217695</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.315349</v>
+        <v>0.315367</v>
       </c>
       <c r="C72" t="n">
-        <v>0.248439</v>
+        <v>0.248192</v>
       </c>
       <c r="D72" t="n">
-        <v>0.21679</v>
+        <v>0.216609</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.306926</v>
+        <v>0.306983</v>
       </c>
       <c r="C73" t="n">
-        <v>0.247214</v>
+        <v>0.247</v>
       </c>
       <c r="D73" t="n">
-        <v>0.215829</v>
+        <v>0.215586</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.298407</v>
+        <v>0.298357</v>
       </c>
       <c r="C74" t="n">
-        <v>0.246107</v>
+        <v>0.245991</v>
       </c>
       <c r="D74" t="n">
-        <v>0.214894</v>
+        <v>0.214642</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.288731</v>
+        <v>0.288895</v>
       </c>
       <c r="C75" t="n">
-        <v>0.245302</v>
+        <v>0.245229</v>
       </c>
       <c r="D75" t="n">
-        <v>0.214343</v>
+        <v>0.214165</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.278789</v>
+        <v>0.278719</v>
       </c>
       <c r="C76" t="n">
-        <v>0.244477</v>
+        <v>0.244398</v>
       </c>
       <c r="D76" t="n">
-        <v>0.213801</v>
+        <v>0.213582</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.267614</v>
+        <v>0.267355</v>
       </c>
       <c r="C77" t="n">
-        <v>0.243397</v>
+        <v>0.243328</v>
       </c>
       <c r="D77" t="n">
-        <v>0.213255</v>
+        <v>0.21311</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.255187</v>
+        <v>0.255081</v>
       </c>
       <c r="C78" t="n">
-        <v>0.242524</v>
+        <v>0.242467</v>
       </c>
       <c r="D78" t="n">
-        <v>0.212841</v>
+        <v>0.212867</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.241904</v>
+        <v>0.241761</v>
       </c>
       <c r="C79" t="n">
-        <v>0.242022</v>
+        <v>0.242235</v>
       </c>
       <c r="D79" t="n">
-        <v>0.212635</v>
+        <v>0.2127</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227619</v>
+        <v>0.227652</v>
       </c>
       <c r="C80" t="n">
-        <v>0.241846</v>
+        <v>0.242054</v>
       </c>
       <c r="D80" t="n">
-        <v>0.225483</v>
+        <v>0.225405</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.350211</v>
+        <v>0.350608</v>
       </c>
       <c r="C81" t="n">
-        <v>0.258925</v>
+        <v>0.258765</v>
       </c>
       <c r="D81" t="n">
-        <v>0.223457</v>
+        <v>0.223344</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.34441</v>
+        <v>0.344848</v>
       </c>
       <c r="C82" t="n">
-        <v>0.255407</v>
+        <v>0.255222</v>
       </c>
       <c r="D82" t="n">
-        <v>0.221834</v>
+        <v>0.221628</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.338176</v>
+        <v>0.338358</v>
       </c>
       <c r="C83" t="n">
-        <v>0.252786</v>
+        <v>0.252684</v>
       </c>
       <c r="D83" t="n">
-        <v>0.220266</v>
+        <v>0.220001</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.331627</v>
+        <v>0.331812</v>
       </c>
       <c r="C84" t="n">
-        <v>0.250878</v>
+        <v>0.250641</v>
       </c>
       <c r="D84" t="n">
-        <v>0.218957</v>
+        <v>0.218784</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.324396</v>
+        <v>0.324666</v>
       </c>
       <c r="C85" t="n">
-        <v>0.249652</v>
+        <v>0.249478</v>
       </c>
       <c r="D85" t="n">
-        <v>0.217819</v>
+        <v>0.217629</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.316731</v>
+        <v>0.316853</v>
       </c>
       <c r="C86" t="n">
-        <v>0.248351</v>
+        <v>0.248271</v>
       </c>
       <c r="D86" t="n">
-        <v>0.216748</v>
+        <v>0.216642</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.308476</v>
+        <v>0.308808</v>
       </c>
       <c r="C87" t="n">
-        <v>0.247192</v>
+        <v>0.247036</v>
       </c>
       <c r="D87" t="n">
-        <v>0.215966</v>
+        <v>0.215862</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.299775</v>
+        <v>0.300215</v>
       </c>
       <c r="C88" t="n">
-        <v>0.246393</v>
+        <v>0.246257</v>
       </c>
       <c r="D88" t="n">
-        <v>0.215176</v>
+        <v>0.215001</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.290734</v>
+        <v>0.290844</v>
       </c>
       <c r="C89" t="n">
-        <v>0.2454</v>
+        <v>0.245429</v>
       </c>
       <c r="D89" t="n">
-        <v>0.21439</v>
+        <v>0.214323</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.280808</v>
+        <v>0.280892</v>
       </c>
       <c r="C90" t="n">
-        <v>0.244678</v>
+        <v>0.244701</v>
       </c>
       <c r="D90" t="n">
-        <v>0.213789</v>
+        <v>0.213775</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.269582</v>
+        <v>0.270006</v>
       </c>
       <c r="C91" t="n">
-        <v>0.243718</v>
+        <v>0.243743</v>
       </c>
       <c r="D91" t="n">
-        <v>0.2132</v>
+        <v>0.213105</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.25799</v>
+        <v>0.258013</v>
       </c>
       <c r="C92" t="n">
-        <v>0.242993</v>
+        <v>0.243024</v>
       </c>
       <c r="D92" t="n">
-        <v>0.212779</v>
+        <v>0.212678</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.244674</v>
+        <v>0.24484</v>
       </c>
       <c r="C93" t="n">
-        <v>0.242337</v>
+        <v>0.24245</v>
       </c>
       <c r="D93" t="n">
-        <v>0.212743</v>
+        <v>0.212587</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.230815</v>
+        <v>0.231069</v>
       </c>
       <c r="C94" t="n">
-        <v>0.241964</v>
+        <v>0.24204</v>
       </c>
       <c r="D94" t="n">
-        <v>0.225831</v>
+        <v>0.225816</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.351698</v>
+        <v>0.352103</v>
       </c>
       <c r="C95" t="n">
-        <v>0.25941</v>
+        <v>0.259327</v>
       </c>
       <c r="D95" t="n">
-        <v>0.223697</v>
+        <v>0.2236</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.345744</v>
+        <v>0.345996</v>
       </c>
       <c r="C96" t="n">
-        <v>0.255911</v>
+        <v>0.256028</v>
       </c>
       <c r="D96" t="n">
-        <v>0.221864</v>
+        <v>0.22186</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.339883</v>
+        <v>0.340213</v>
       </c>
       <c r="C97" t="n">
-        <v>0.253411</v>
+        <v>0.253452</v>
       </c>
       <c r="D97" t="n">
-        <v>0.220404</v>
+        <v>0.220378</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.333477</v>
+        <v>0.333729</v>
       </c>
       <c r="C98" t="n">
-        <v>0.251379</v>
+        <v>0.25141</v>
       </c>
       <c r="D98" t="n">
-        <v>0.219161</v>
+        <v>0.219153</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.32596</v>
+        <v>0.326582</v>
       </c>
       <c r="C99" t="n">
-        <v>0.250152</v>
+        <v>0.250123</v>
       </c>
       <c r="D99" t="n">
-        <v>0.218007</v>
+        <v>0.217885</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.318577</v>
+        <v>0.318958</v>
       </c>
       <c r="C100" t="n">
-        <v>0.248794</v>
+        <v>0.248812</v>
       </c>
       <c r="D100" t="n">
-        <v>0.216899</v>
+        <v>0.216978</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.310601</v>
+        <v>0.310679</v>
       </c>
       <c r="C101" t="n">
-        <v>0.247497</v>
+        <v>0.247615</v>
       </c>
       <c r="D101" t="n">
-        <v>0.216068</v>
+        <v>0.216126</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302051</v>
+        <v>0.302457</v>
       </c>
       <c r="C102" t="n">
-        <v>0.246573</v>
+        <v>0.246661</v>
       </c>
       <c r="D102" t="n">
-        <v>0.215216</v>
+        <v>0.215396</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.292858</v>
+        <v>0.293162</v>
       </c>
       <c r="C103" t="n">
-        <v>0.245821</v>
+        <v>0.245785</v>
       </c>
       <c r="D103" t="n">
-        <v>0.21446</v>
+        <v>0.214591</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.283167</v>
+        <v>0.283243</v>
       </c>
       <c r="C104" t="n">
-        <v>0.244869</v>
+        <v>0.244962</v>
       </c>
       <c r="D104" t="n">
-        <v>0.213908</v>
+        <v>0.21391</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.272271</v>
+        <v>0.272269</v>
       </c>
       <c r="C105" t="n">
-        <v>0.243939</v>
+        <v>0.244027</v>
       </c>
       <c r="D105" t="n">
-        <v>0.213245</v>
+        <v>0.213278</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.260464</v>
+        <v>0.260763</v>
       </c>
       <c r="C106" t="n">
-        <v>0.243168</v>
+        <v>0.243206</v>
       </c>
       <c r="D106" t="n">
-        <v>0.212838</v>
+        <v>0.21274</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247524</v>
+        <v>0.247597</v>
       </c>
       <c r="C107" t="n">
-        <v>0.242495</v>
+        <v>0.242631</v>
       </c>
       <c r="D107" t="n">
-        <v>0.212416</v>
+        <v>0.212454</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.233931</v>
+        <v>0.234234</v>
       </c>
       <c r="C108" t="n">
-        <v>0.241924</v>
+        <v>0.24212</v>
       </c>
       <c r="D108" t="n">
-        <v>0.2262</v>
+        <v>0.226369</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.219198</v>
+        <v>0.21899</v>
       </c>
       <c r="C109" t="n">
-        <v>0.241501</v>
+        <v>0.241661</v>
       </c>
       <c r="D109" t="n">
-        <v>0.224116</v>
+        <v>0.224264</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.346863</v>
+        <v>0.347327</v>
       </c>
       <c r="C110" t="n">
-        <v>0.256159</v>
+        <v>0.256251</v>
       </c>
       <c r="D110" t="n">
-        <v>0.222108</v>
+        <v>0.222195</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.341282</v>
+        <v>0.34146</v>
       </c>
       <c r="C111" t="n">
-        <v>0.253625</v>
+        <v>0.25372</v>
       </c>
       <c r="D111" t="n">
-        <v>0.220557</v>
+        <v>0.220782</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.334718</v>
+        <v>0.334959</v>
       </c>
       <c r="C112" t="n">
-        <v>0.251832</v>
+        <v>0.25167</v>
       </c>
       <c r="D112" t="n">
-        <v>0.219234</v>
+        <v>0.219361</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.327812</v>
+        <v>0.327839</v>
       </c>
       <c r="C113" t="n">
-        <v>0.250304</v>
+        <v>0.250186</v>
       </c>
       <c r="D113" t="n">
-        <v>0.218221</v>
+        <v>0.218312</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.320203</v>
+        <v>0.320278</v>
       </c>
       <c r="C114" t="n">
-        <v>0.249103</v>
+        <v>0.249138</v>
       </c>
       <c r="D114" t="n">
-        <v>0.21703</v>
+        <v>0.217079</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.312571</v>
+        <v>0.31233</v>
       </c>
       <c r="C115" t="n">
-        <v>0.247854</v>
+        <v>0.247585</v>
       </c>
       <c r="D115" t="n">
-        <v>0.216142</v>
+        <v>0.216184</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304382</v>
+        <v>0.304402</v>
       </c>
       <c r="C116" t="n">
-        <v>0.24702</v>
+        <v>0.247042</v>
       </c>
       <c r="D116" t="n">
-        <v>0.215399</v>
+        <v>0.21541</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.295442</v>
+        <v>0.295459</v>
       </c>
       <c r="C117" t="n">
-        <v>0.245964</v>
+        <v>0.245792</v>
       </c>
       <c r="D117" t="n">
-        <v>0.214645</v>
+        <v>0.214872</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.285401</v>
+        <v>0.285545</v>
       </c>
       <c r="C118" t="n">
-        <v>0.245177</v>
+        <v>0.245189</v>
       </c>
       <c r="D118" t="n">
-        <v>0.214189</v>
+        <v>0.214595</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.275005</v>
+        <v>0.275231</v>
       </c>
       <c r="C119" t="n">
-        <v>0.24438</v>
+        <v>0.244345</v>
       </c>
       <c r="D119" t="n">
-        <v>0.213723</v>
+        <v>0.213889</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.263362</v>
+        <v>0.263252</v>
       </c>
       <c r="C120" t="n">
-        <v>0.243558</v>
+        <v>0.243379</v>
       </c>
       <c r="D120" t="n">
-        <v>0.21315</v>
+        <v>0.213704</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.251369</v>
+        <v>0.250837</v>
       </c>
       <c r="C121" t="n">
-        <v>0.242802</v>
+        <v>0.242828</v>
       </c>
       <c r="D121" t="n">
-        <v>0.213208</v>
+        <v>0.213398</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.237575</v>
+        <v>0.237809</v>
       </c>
       <c r="C122" t="n">
-        <v>0.242399</v>
+        <v>0.242271</v>
       </c>
       <c r="D122" t="n">
-        <v>0.212844</v>
+        <v>0.21334</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.222933</v>
+        <v>0.223057</v>
       </c>
       <c r="C123" t="n">
-        <v>0.241707</v>
+        <v>0.241845</v>
       </c>
       <c r="D123" t="n">
-        <v>0.225707</v>
+        <v>0.225449</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.348843</v>
+        <v>0.348939</v>
       </c>
       <c r="C124" t="n">
-        <v>0.257424</v>
+        <v>0.257492</v>
       </c>
       <c r="D124" t="n">
-        <v>0.223034</v>
+        <v>0.223688</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.342601</v>
+        <v>0.342797</v>
       </c>
       <c r="C125" t="n">
-        <v>0.254292</v>
+        <v>0.254294</v>
       </c>
       <c r="D125" t="n">
-        <v>0.221431</v>
+        <v>0.221402</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.336257</v>
+        <v>0.33651</v>
       </c>
       <c r="C126" t="n">
-        <v>0.251618</v>
+        <v>0.252033</v>
       </c>
       <c r="D126" t="n">
-        <v>0.22142</v>
+        <v>0.220397</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.329788</v>
+        <v>0.329706</v>
       </c>
       <c r="C127" t="n">
-        <v>0.250203</v>
+        <v>0.250378</v>
       </c>
       <c r="D127" t="n">
-        <v>0.219511</v>
+        <v>0.218797</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.321945</v>
+        <v>0.322203</v>
       </c>
       <c r="C128" t="n">
-        <v>0.249032</v>
+        <v>0.248582</v>
       </c>
       <c r="D128" t="n">
-        <v>0.218776</v>
+        <v>0.218211</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.314701</v>
+        <v>0.314336</v>
       </c>
       <c r="C129" t="n">
-        <v>0.247415</v>
+        <v>0.247447</v>
       </c>
       <c r="D129" t="n">
-        <v>0.218245</v>
+        <v>0.217734</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.305868</v>
+        <v>0.306132</v>
       </c>
       <c r="C130" t="n">
-        <v>0.246471</v>
+        <v>0.246264</v>
       </c>
       <c r="D130" t="n">
-        <v>0.215617</v>
+        <v>0.216608</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.297176</v>
+        <v>0.297256</v>
       </c>
       <c r="C131" t="n">
-        <v>0.245453</v>
+        <v>0.24527</v>
       </c>
       <c r="D131" t="n">
-        <v>0.215973</v>
+        <v>0.215278</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.287496</v>
+        <v>0.288246</v>
       </c>
       <c r="C132" t="n">
-        <v>0.244604</v>
+        <v>0.244502</v>
       </c>
       <c r="D132" t="n">
-        <v>0.215138</v>
+        <v>0.214654</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.277239</v>
+        <v>0.277067</v>
       </c>
       <c r="C133" t="n">
-        <v>0.244064</v>
+        <v>0.244077</v>
       </c>
       <c r="D133" t="n">
-        <v>0.215629</v>
+        <v>0.213584</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.266013</v>
+        <v>0.265795</v>
       </c>
       <c r="C134" t="n">
-        <v>0.243535</v>
+        <v>0.243465</v>
       </c>
       <c r="D134" t="n">
-        <v>0.214256</v>
+        <v>0.214164</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.254383</v>
+        <v>0.253757</v>
       </c>
       <c r="C135" t="n">
-        <v>0.242713</v>
+        <v>0.242539</v>
       </c>
       <c r="D135" t="n">
-        <v>0.212697</v>
+        <v>0.214402</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.24044</v>
+        <v>0.240589</v>
       </c>
       <c r="C136" t="n">
-        <v>0.242072</v>
+        <v>0.242116</v>
       </c>
       <c r="D136" t="n">
-        <v>0.213346</v>
+        <v>0.214837</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.225722</v>
+        <v>0.226238</v>
       </c>
       <c r="C137" t="n">
-        <v>0.241389</v>
+        <v>0.241708</v>
       </c>
       <c r="D137" t="n">
-        <v>0.227625</v>
+        <v>0.228891</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.350351</v>
+        <v>0.350416</v>
       </c>
       <c r="C138" t="n">
-        <v>0.258732</v>
+        <v>0.25909</v>
       </c>
       <c r="D138" t="n">
-        <v>0.227256</v>
+        <v>0.226158</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.344182</v>
+        <v>0.344835</v>
       </c>
       <c r="C139" t="n">
-        <v>0.256192</v>
+        <v>0.255521</v>
       </c>
       <c r="D139" t="n">
-        <v>0.225122</v>
+        <v>0.223965</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338429</v>
+        <v>0.338253</v>
       </c>
       <c r="C140" t="n">
-        <v>0.253648</v>
+        <v>0.25308</v>
       </c>
       <c r="D140" t="n">
-        <v>0.223591</v>
+        <v>0.223625</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331418</v>
+        <v>0.331459</v>
       </c>
       <c r="C141" t="n">
-        <v>0.250788</v>
+        <v>0.251083</v>
       </c>
       <c r="D141" t="n">
-        <v>0.221038</v>
+        <v>0.222231</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.324437</v>
+        <v>0.324569</v>
       </c>
       <c r="C142" t="n">
-        <v>0.249188</v>
+        <v>0.248962</v>
       </c>
       <c r="D142" t="n">
-        <v>0.220517</v>
+        <v>0.222125</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.316499</v>
+        <v>0.316908</v>
       </c>
       <c r="C143" t="n">
-        <v>0.248418</v>
+        <v>0.248881</v>
       </c>
       <c r="D143" t="n">
-        <v>0.219076</v>
+        <v>0.219223</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.300058</v>
+        <v>0.300205</v>
       </c>
       <c r="C2" t="n">
-        <v>0.224619</v>
+        <v>0.22211</v>
       </c>
       <c r="D2" t="n">
-        <v>0.198769</v>
+        <v>0.199448</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.290635</v>
+        <v>0.29154</v>
       </c>
       <c r="C3" t="n">
-        <v>0.223938</v>
+        <v>0.223283</v>
       </c>
       <c r="D3" t="n">
-        <v>0.199255</v>
+        <v>0.200506</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279713</v>
+        <v>0.283038</v>
       </c>
       <c r="C4" t="n">
-        <v>0.225461</v>
+        <v>0.225218</v>
       </c>
       <c r="D4" t="n">
-        <v>0.201618</v>
+        <v>0.201089</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.272361</v>
+        <v>0.271783</v>
       </c>
       <c r="C5" t="n">
-        <v>0.223515</v>
+        <v>0.225488</v>
       </c>
       <c r="D5" t="n">
-        <v>0.201444</v>
+        <v>0.200231</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.258508</v>
+        <v>0.259259</v>
       </c>
       <c r="C6" t="n">
-        <v>0.224631</v>
+        <v>0.225708</v>
       </c>
       <c r="D6" t="n">
-        <v>0.201518</v>
+        <v>0.199933</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.243601</v>
+        <v>0.244074</v>
       </c>
       <c r="C7" t="n">
-        <v>0.225394</v>
+        <v>0.225786</v>
       </c>
       <c r="D7" t="n">
-        <v>0.201858</v>
+        <v>0.202072</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.232086</v>
+        <v>0.23154</v>
       </c>
       <c r="C8" t="n">
-        <v>0.226179</v>
+        <v>0.225539</v>
       </c>
       <c r="D8" t="n">
-        <v>0.202213</v>
+        <v>0.202263</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.22364</v>
+        <v>0.219638</v>
       </c>
       <c r="C9" t="n">
-        <v>0.226502</v>
+        <v>0.226838</v>
       </c>
       <c r="D9" t="n">
-        <v>0.217986</v>
+        <v>0.219019</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.346054</v>
+        <v>0.347225</v>
       </c>
       <c r="C10" t="n">
-        <v>0.246673</v>
+        <v>0.246927</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216591</v>
+        <v>0.218108</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.341671</v>
+        <v>0.339058</v>
       </c>
       <c r="C11" t="n">
-        <v>0.244642</v>
+        <v>0.244128</v>
       </c>
       <c r="D11" t="n">
-        <v>0.215608</v>
+        <v>0.215618</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.332853</v>
+        <v>0.334507</v>
       </c>
       <c r="C12" t="n">
-        <v>0.243409</v>
+        <v>0.24349</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214055</v>
+        <v>0.214839</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.326227</v>
+        <v>0.325906</v>
       </c>
       <c r="C13" t="n">
-        <v>0.241497</v>
+        <v>0.241653</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212368</v>
+        <v>0.212937</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.321414</v>
+        <v>0.320337</v>
       </c>
       <c r="C14" t="n">
-        <v>0.239777</v>
+        <v>0.239321</v>
       </c>
       <c r="D14" t="n">
-        <v>0.212003</v>
+        <v>0.212522</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.313581</v>
+        <v>0.313298</v>
       </c>
       <c r="C15" t="n">
-        <v>0.238452</v>
+        <v>0.239132</v>
       </c>
       <c r="D15" t="n">
-        <v>0.210527</v>
+        <v>0.210878</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.305863</v>
+        <v>0.304897</v>
       </c>
       <c r="C16" t="n">
-        <v>0.239176</v>
+        <v>0.239388</v>
       </c>
       <c r="D16" t="n">
-        <v>0.210079</v>
+        <v>0.210561</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.297003</v>
+        <v>0.2963</v>
       </c>
       <c r="C17" t="n">
-        <v>0.238528</v>
+        <v>0.239218</v>
       </c>
       <c r="D17" t="n">
-        <v>0.210138</v>
+        <v>0.210307</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.288297</v>
+        <v>0.289285</v>
       </c>
       <c r="C18" t="n">
-        <v>0.23833</v>
+        <v>0.240407</v>
       </c>
       <c r="D18" t="n">
-        <v>0.20938</v>
+        <v>0.209879</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.276481</v>
+        <v>0.282488</v>
       </c>
       <c r="C19" t="n">
-        <v>0.237686</v>
+        <v>0.237657</v>
       </c>
       <c r="D19" t="n">
-        <v>0.209162</v>
+        <v>0.211023</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.269391</v>
+        <v>0.270005</v>
       </c>
       <c r="C20" t="n">
-        <v>0.237465</v>
+        <v>0.23756</v>
       </c>
       <c r="D20" t="n">
-        <v>0.209726</v>
+        <v>0.222201</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.25715</v>
+        <v>0.256641</v>
       </c>
       <c r="C21" t="n">
-        <v>0.237507</v>
+        <v>0.237326</v>
       </c>
       <c r="D21" t="n">
-        <v>0.209537</v>
+        <v>0.209451</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.241464</v>
+        <v>0.243047</v>
       </c>
       <c r="C22" t="n">
-        <v>0.237015</v>
+        <v>0.237124</v>
       </c>
       <c r="D22" t="n">
-        <v>0.20898</v>
+        <v>0.212137</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.228485</v>
+        <v>0.228316</v>
       </c>
       <c r="C23" t="n">
-        <v>0.237327</v>
+        <v>0.237374</v>
       </c>
       <c r="D23" t="n">
-        <v>0.224156</v>
+        <v>0.223801</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.34896</v>
+        <v>0.348529</v>
       </c>
       <c r="C24" t="n">
-        <v>0.254615</v>
+        <v>0.254905</v>
       </c>
       <c r="D24" t="n">
-        <v>0.222357</v>
+        <v>0.222317</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342029</v>
+        <v>0.341814</v>
       </c>
       <c r="C25" t="n">
-        <v>0.253258</v>
+        <v>0.253084</v>
       </c>
       <c r="D25" t="n">
-        <v>0.220907</v>
+        <v>0.221313</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.336453</v>
+        <v>0.336402</v>
       </c>
       <c r="C26" t="n">
-        <v>0.251206</v>
+        <v>0.251216</v>
       </c>
       <c r="D26" t="n">
-        <v>0.220181</v>
+        <v>0.220345</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328914</v>
+        <v>0.329089</v>
       </c>
       <c r="C27" t="n">
-        <v>0.249952</v>
+        <v>0.249738</v>
       </c>
       <c r="D27" t="n">
-        <v>0.218383</v>
+        <v>0.218588</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.322281</v>
+        <v>0.322347</v>
       </c>
       <c r="C28" t="n">
-        <v>0.24723</v>
+        <v>0.248011</v>
       </c>
       <c r="D28" t="n">
-        <v>0.217064</v>
+        <v>0.217004</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.314892</v>
+        <v>0.314953</v>
       </c>
       <c r="C29" t="n">
-        <v>0.246159</v>
+        <v>0.246226</v>
       </c>
       <c r="D29" t="n">
-        <v>0.216119</v>
+        <v>0.216338</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.306643</v>
+        <v>0.306988</v>
       </c>
       <c r="C30" t="n">
-        <v>0.245032</v>
+        <v>0.245249</v>
       </c>
       <c r="D30" t="n">
-        <v>0.214939</v>
+        <v>0.21508</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.297952</v>
+        <v>0.298651</v>
       </c>
       <c r="C31" t="n">
-        <v>0.243976</v>
+        <v>0.243825</v>
       </c>
       <c r="D31" t="n">
-        <v>0.214282</v>
+        <v>0.214484</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.288986</v>
+        <v>0.28926</v>
       </c>
       <c r="C32" t="n">
-        <v>0.243644</v>
+        <v>0.243806</v>
       </c>
       <c r="D32" t="n">
-        <v>0.213381</v>
+        <v>0.213693</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.279604</v>
+        <v>0.279557</v>
       </c>
       <c r="C33" t="n">
-        <v>0.242834</v>
+        <v>0.243321</v>
       </c>
       <c r="D33" t="n">
-        <v>0.213414</v>
+        <v>0.213562</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.269021</v>
+        <v>0.26916</v>
       </c>
       <c r="C34" t="n">
-        <v>0.241936</v>
+        <v>0.241784</v>
       </c>
       <c r="D34" t="n">
-        <v>0.212562</v>
+        <v>0.212697</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.257822</v>
+        <v>0.258337</v>
       </c>
       <c r="C35" t="n">
-        <v>0.242289</v>
+        <v>0.242339</v>
       </c>
       <c r="D35" t="n">
-        <v>0.212331</v>
+        <v>0.212771</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244736</v>
+        <v>0.245257</v>
       </c>
       <c r="C36" t="n">
-        <v>0.241579</v>
+        <v>0.242324</v>
       </c>
       <c r="D36" t="n">
-        <v>0.212038</v>
+        <v>0.212089</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.23099</v>
+        <v>0.231051</v>
       </c>
       <c r="C37" t="n">
-        <v>0.241551</v>
+        <v>0.241138</v>
       </c>
       <c r="D37" t="n">
-        <v>0.227035</v>
+        <v>0.227073</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.349926</v>
+        <v>0.349775</v>
       </c>
       <c r="C38" t="n">
-        <v>0.261</v>
+        <v>0.260772</v>
       </c>
       <c r="D38" t="n">
-        <v>0.224456</v>
+        <v>0.224274</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.344681</v>
+        <v>0.3444</v>
       </c>
       <c r="C39" t="n">
-        <v>0.258103</v>
+        <v>0.257822</v>
       </c>
       <c r="D39" t="n">
-        <v>0.222367</v>
+        <v>0.22256</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.338492</v>
+        <v>0.338308</v>
       </c>
       <c r="C40" t="n">
-        <v>0.254767</v>
+        <v>0.254725</v>
       </c>
       <c r="D40" t="n">
-        <v>0.220719</v>
+        <v>0.220594</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.33211</v>
+        <v>0.331962</v>
       </c>
       <c r="C41" t="n">
-        <v>0.251645</v>
+        <v>0.251683</v>
       </c>
       <c r="D41" t="n">
-        <v>0.218923</v>
+        <v>0.219307</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.324651</v>
+        <v>0.32469</v>
       </c>
       <c r="C42" t="n">
-        <v>0.250647</v>
+        <v>0.250633</v>
       </c>
       <c r="D42" t="n">
-        <v>0.217928</v>
+        <v>0.217894</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.316753</v>
+        <v>0.316812</v>
       </c>
       <c r="C43" t="n">
-        <v>0.249197</v>
+        <v>0.249297</v>
       </c>
       <c r="D43" t="n">
-        <v>0.21684</v>
+        <v>0.216811</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.3094</v>
+        <v>0.309407</v>
       </c>
       <c r="C44" t="n">
-        <v>0.247803</v>
+        <v>0.247878</v>
       </c>
       <c r="D44" t="n">
-        <v>0.215613</v>
+        <v>0.215621</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300505</v>
+        <v>0.300599</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246919</v>
+        <v>0.246672</v>
       </c>
       <c r="D45" t="n">
-        <v>0.214597</v>
+        <v>0.214686</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291942</v>
+        <v>0.292059</v>
       </c>
       <c r="C46" t="n">
-        <v>0.246103</v>
+        <v>0.245872</v>
       </c>
       <c r="D46" t="n">
-        <v>0.214092</v>
+        <v>0.2143</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.282719</v>
+        <v>0.282916</v>
       </c>
       <c r="C47" t="n">
-        <v>0.244899</v>
+        <v>0.244757</v>
       </c>
       <c r="D47" t="n">
-        <v>0.213813</v>
+        <v>0.213975</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.271852</v>
+        <v>0.271889</v>
       </c>
       <c r="C48" t="n">
-        <v>0.243671</v>
+        <v>0.243835</v>
       </c>
       <c r="D48" t="n">
-        <v>0.21303</v>
+        <v>0.213598</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.260931</v>
+        <v>0.260964</v>
       </c>
       <c r="C49" t="n">
-        <v>0.243277</v>
+        <v>0.243175</v>
       </c>
       <c r="D49" t="n">
-        <v>0.213276</v>
+        <v>0.213252</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.248826</v>
+        <v>0.248733</v>
       </c>
       <c r="C50" t="n">
-        <v>0.24277</v>
+        <v>0.242945</v>
       </c>
       <c r="D50" t="n">
-        <v>0.213459</v>
+        <v>0.214192</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.235035</v>
+        <v>0.235289</v>
       </c>
       <c r="C51" t="n">
-        <v>0.242196</v>
+        <v>0.242207</v>
       </c>
       <c r="D51" t="n">
-        <v>0.225935</v>
+        <v>0.225953</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.220016</v>
+        <v>0.220208</v>
       </c>
       <c r="C52" t="n">
-        <v>0.241673</v>
+        <v>0.241329</v>
       </c>
       <c r="D52" t="n">
-        <v>0.223628</v>
+        <v>0.223578</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.347075</v>
+        <v>0.347174</v>
       </c>
       <c r="C53" t="n">
-        <v>0.257496</v>
+        <v>0.257286</v>
       </c>
       <c r="D53" t="n">
-        <v>0.221921</v>
+        <v>0.221879</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.340944</v>
+        <v>0.34102</v>
       </c>
       <c r="C54" t="n">
-        <v>0.254457</v>
+        <v>0.254202</v>
       </c>
       <c r="D54" t="n">
-        <v>0.220342</v>
+        <v>0.220662</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.335024</v>
+        <v>0.335424</v>
       </c>
       <c r="C55" t="n">
-        <v>0.251883</v>
+        <v>0.251966</v>
       </c>
       <c r="D55" t="n">
-        <v>0.219282</v>
+        <v>0.219512</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.327734</v>
+        <v>0.327516</v>
       </c>
       <c r="C56" t="n">
-        <v>0.25039</v>
+        <v>0.250584</v>
       </c>
       <c r="D56" t="n">
-        <v>0.218141</v>
+        <v>0.218097</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.320608</v>
+        <v>0.320685</v>
       </c>
       <c r="C57" t="n">
-        <v>0.249096</v>
+        <v>0.249187</v>
       </c>
       <c r="D57" t="n">
-        <v>0.217005</v>
+        <v>0.217123</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.312972</v>
+        <v>0.31292</v>
       </c>
       <c r="C58" t="n">
-        <v>0.247718</v>
+        <v>0.247818</v>
       </c>
       <c r="D58" t="n">
-        <v>0.216278</v>
+        <v>0.216477</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.30458</v>
+        <v>0.304452</v>
       </c>
       <c r="C59" t="n">
-        <v>0.246538</v>
+        <v>0.246819</v>
       </c>
       <c r="D59" t="n">
-        <v>0.215302</v>
+        <v>0.215308</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294829</v>
+        <v>0.29451</v>
       </c>
       <c r="C60" t="n">
-        <v>0.245698</v>
+        <v>0.24572</v>
       </c>
       <c r="D60" t="n">
-        <v>0.21462</v>
+        <v>0.214708</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.285151</v>
+        <v>0.284976</v>
       </c>
       <c r="C61" t="n">
-        <v>0.24498</v>
+        <v>0.245209</v>
       </c>
       <c r="D61" t="n">
-        <v>0.214027</v>
+        <v>0.214234</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.274601</v>
+        <v>0.274729</v>
       </c>
       <c r="C62" t="n">
-        <v>0.24412</v>
+        <v>0.244119</v>
       </c>
       <c r="D62" t="n">
-        <v>0.213572</v>
+        <v>0.213535</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263204</v>
+        <v>0.263553</v>
       </c>
       <c r="C63" t="n">
-        <v>0.243228</v>
+        <v>0.243341</v>
       </c>
       <c r="D63" t="n">
-        <v>0.213078</v>
+        <v>0.213214</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.25064</v>
+        <v>0.251143</v>
       </c>
       <c r="C64" t="n">
-        <v>0.2428</v>
+        <v>0.243069</v>
       </c>
       <c r="D64" t="n">
-        <v>0.212565</v>
+        <v>0.21265</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.237739</v>
+        <v>0.23792</v>
       </c>
       <c r="C65" t="n">
-        <v>0.242061</v>
+        <v>0.241981</v>
       </c>
       <c r="D65" t="n">
-        <v>0.212318</v>
+        <v>0.212563</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.223139</v>
+        <v>0.223427</v>
       </c>
       <c r="C66" t="n">
-        <v>0.241398</v>
+        <v>0.241402</v>
       </c>
       <c r="D66" t="n">
-        <v>0.224982</v>
+        <v>0.225189</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.34923</v>
+        <v>0.348956</v>
       </c>
       <c r="C67" t="n">
-        <v>0.259472</v>
+        <v>0.259596</v>
       </c>
       <c r="D67" t="n">
-        <v>0.222942</v>
+        <v>0.223106</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.342941</v>
+        <v>0.342804</v>
       </c>
       <c r="C68" t="n">
-        <v>0.255662</v>
+        <v>0.255731</v>
       </c>
       <c r="D68" t="n">
-        <v>0.221154</v>
+        <v>0.221254</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.336875</v>
+        <v>0.336923</v>
       </c>
       <c r="C69" t="n">
-        <v>0.252644</v>
+        <v>0.252818</v>
       </c>
       <c r="D69" t="n">
-        <v>0.219643</v>
+        <v>0.219912</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.33048</v>
+        <v>0.329849</v>
       </c>
       <c r="C70" t="n">
-        <v>0.251018</v>
+        <v>0.251154</v>
       </c>
       <c r="D70" t="n">
-        <v>0.218524</v>
+        <v>0.21893</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.322774</v>
+        <v>0.322737</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2496</v>
+        <v>0.249762</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217695</v>
+        <v>0.217762</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.315367</v>
+        <v>0.315297</v>
       </c>
       <c r="C72" t="n">
-        <v>0.248192</v>
+        <v>0.248468</v>
       </c>
       <c r="D72" t="n">
-        <v>0.216609</v>
+        <v>0.216838</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.306983</v>
+        <v>0.306725</v>
       </c>
       <c r="C73" t="n">
-        <v>0.247</v>
+        <v>0.247068</v>
       </c>
       <c r="D73" t="n">
-        <v>0.215586</v>
+        <v>0.21575</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.298357</v>
+        <v>0.298329</v>
       </c>
       <c r="C74" t="n">
-        <v>0.245991</v>
+        <v>0.246157</v>
       </c>
       <c r="D74" t="n">
-        <v>0.214642</v>
+        <v>0.214686</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.288895</v>
+        <v>0.289037</v>
       </c>
       <c r="C75" t="n">
-        <v>0.245229</v>
+        <v>0.24533</v>
       </c>
       <c r="D75" t="n">
-        <v>0.214165</v>
+        <v>0.214362</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.278719</v>
+        <v>0.27876</v>
       </c>
       <c r="C76" t="n">
-        <v>0.244398</v>
+        <v>0.24447</v>
       </c>
       <c r="D76" t="n">
-        <v>0.213582</v>
+        <v>0.21377</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.267355</v>
+        <v>0.267329</v>
       </c>
       <c r="C77" t="n">
-        <v>0.243328</v>
+        <v>0.243522</v>
       </c>
       <c r="D77" t="n">
-        <v>0.21311</v>
+        <v>0.213387</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.255081</v>
+        <v>0.255084</v>
       </c>
       <c r="C78" t="n">
-        <v>0.242467</v>
+        <v>0.242559</v>
       </c>
       <c r="D78" t="n">
-        <v>0.212867</v>
+        <v>0.212892</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.241761</v>
+        <v>0.242116</v>
       </c>
       <c r="C79" t="n">
-        <v>0.242235</v>
+        <v>0.242132</v>
       </c>
       <c r="D79" t="n">
-        <v>0.2127</v>
+        <v>0.212674</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227652</v>
+        <v>0.227486</v>
       </c>
       <c r="C80" t="n">
-        <v>0.242054</v>
+        <v>0.241969</v>
       </c>
       <c r="D80" t="n">
-        <v>0.225405</v>
+        <v>0.225473</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.350608</v>
+        <v>0.350485</v>
       </c>
       <c r="C81" t="n">
-        <v>0.258765</v>
+        <v>0.258895</v>
       </c>
       <c r="D81" t="n">
-        <v>0.223344</v>
+        <v>0.223343</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.344848</v>
+        <v>0.344631</v>
       </c>
       <c r="C82" t="n">
-        <v>0.255222</v>
+        <v>0.255347</v>
       </c>
       <c r="D82" t="n">
-        <v>0.221628</v>
+        <v>0.221773</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.338358</v>
+        <v>0.338246</v>
       </c>
       <c r="C83" t="n">
-        <v>0.252684</v>
+        <v>0.252771</v>
       </c>
       <c r="D83" t="n">
-        <v>0.220001</v>
+        <v>0.220186</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.331812</v>
+        <v>0.331652</v>
       </c>
       <c r="C84" t="n">
-        <v>0.250641</v>
+        <v>0.250808</v>
       </c>
       <c r="D84" t="n">
-        <v>0.218784</v>
+        <v>0.218914</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.324666</v>
+        <v>0.324701</v>
       </c>
       <c r="C85" t="n">
-        <v>0.249478</v>
+        <v>0.249576</v>
       </c>
       <c r="D85" t="n">
-        <v>0.217629</v>
+        <v>0.217749</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.316853</v>
+        <v>0.316659</v>
       </c>
       <c r="C86" t="n">
-        <v>0.248271</v>
+        <v>0.248435</v>
       </c>
       <c r="D86" t="n">
-        <v>0.216642</v>
+        <v>0.216743</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.308808</v>
+        <v>0.308569</v>
       </c>
       <c r="C87" t="n">
-        <v>0.247036</v>
+        <v>0.247092</v>
       </c>
       <c r="D87" t="n">
-        <v>0.215862</v>
+        <v>0.215886</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300215</v>
+        <v>0.299993</v>
       </c>
       <c r="C88" t="n">
-        <v>0.246257</v>
+        <v>0.246375</v>
       </c>
       <c r="D88" t="n">
-        <v>0.215001</v>
+        <v>0.215113</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.290844</v>
+        <v>0.290538</v>
       </c>
       <c r="C89" t="n">
-        <v>0.245429</v>
+        <v>0.245374</v>
       </c>
       <c r="D89" t="n">
-        <v>0.214323</v>
+        <v>0.21435</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.280892</v>
+        <v>0.28062</v>
       </c>
       <c r="C90" t="n">
-        <v>0.244701</v>
+        <v>0.244612</v>
       </c>
       <c r="D90" t="n">
-        <v>0.213775</v>
+        <v>0.213777</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.270006</v>
+        <v>0.269704</v>
       </c>
       <c r="C91" t="n">
-        <v>0.243743</v>
+        <v>0.243793</v>
       </c>
       <c r="D91" t="n">
-        <v>0.213105</v>
+        <v>0.213203</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.258013</v>
+        <v>0.25808</v>
       </c>
       <c r="C92" t="n">
-        <v>0.243024</v>
+        <v>0.24304</v>
       </c>
       <c r="D92" t="n">
-        <v>0.212678</v>
+        <v>0.212812</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.24484</v>
+        <v>0.244897</v>
       </c>
       <c r="C93" t="n">
-        <v>0.24245</v>
+        <v>0.242364</v>
       </c>
       <c r="D93" t="n">
-        <v>0.212587</v>
+        <v>0.212652</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.231069</v>
+        <v>0.230812</v>
       </c>
       <c r="C94" t="n">
-        <v>0.24204</v>
+        <v>0.241992</v>
       </c>
       <c r="D94" t="n">
-        <v>0.225816</v>
+        <v>0.226121</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.352103</v>
+        <v>0.351975</v>
       </c>
       <c r="C95" t="n">
-        <v>0.259327</v>
+        <v>0.260239</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2236</v>
+        <v>0.223888</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.345996</v>
+        <v>0.346043</v>
       </c>
       <c r="C96" t="n">
-        <v>0.256028</v>
+        <v>0.256149</v>
       </c>
       <c r="D96" t="n">
-        <v>0.22186</v>
+        <v>0.22203</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.340213</v>
+        <v>0.340063</v>
       </c>
       <c r="C97" t="n">
-        <v>0.253452</v>
+        <v>0.253534</v>
       </c>
       <c r="D97" t="n">
-        <v>0.220378</v>
+        <v>0.220565</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.333729</v>
+        <v>0.333759</v>
       </c>
       <c r="C98" t="n">
-        <v>0.25141</v>
+        <v>0.251535</v>
       </c>
       <c r="D98" t="n">
-        <v>0.219153</v>
+        <v>0.219176</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.326582</v>
+        <v>0.326277</v>
       </c>
       <c r="C99" t="n">
-        <v>0.250123</v>
+        <v>0.250107</v>
       </c>
       <c r="D99" t="n">
-        <v>0.217885</v>
+        <v>0.218006</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.318958</v>
+        <v>0.318782</v>
       </c>
       <c r="C100" t="n">
-        <v>0.248812</v>
+        <v>0.248743</v>
       </c>
       <c r="D100" t="n">
-        <v>0.216978</v>
+        <v>0.216923</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.310679</v>
+        <v>0.310606</v>
       </c>
       <c r="C101" t="n">
-        <v>0.247615</v>
+        <v>0.24759</v>
       </c>
       <c r="D101" t="n">
-        <v>0.216126</v>
+        <v>0.216065</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302457</v>
+        <v>0.302166</v>
       </c>
       <c r="C102" t="n">
-        <v>0.246661</v>
+        <v>0.24675</v>
       </c>
       <c r="D102" t="n">
-        <v>0.215396</v>
+        <v>0.215316</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.293162</v>
+        <v>0.292796</v>
       </c>
       <c r="C103" t="n">
-        <v>0.245785</v>
+        <v>0.245697</v>
       </c>
       <c r="D103" t="n">
-        <v>0.214591</v>
+        <v>0.21456</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.283243</v>
+        <v>0.282895</v>
       </c>
       <c r="C104" t="n">
-        <v>0.244962</v>
+        <v>0.244823</v>
       </c>
       <c r="D104" t="n">
-        <v>0.21391</v>
+        <v>0.213931</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.272269</v>
+        <v>0.27198</v>
       </c>
       <c r="C105" t="n">
-        <v>0.244027</v>
+        <v>0.24394</v>
       </c>
       <c r="D105" t="n">
-        <v>0.213278</v>
+        <v>0.213236</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.260763</v>
+        <v>0.260319</v>
       </c>
       <c r="C106" t="n">
-        <v>0.243206</v>
+        <v>0.243302</v>
       </c>
       <c r="D106" t="n">
-        <v>0.21274</v>
+        <v>0.212795</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247597</v>
+        <v>0.247791</v>
       </c>
       <c r="C107" t="n">
-        <v>0.242631</v>
+        <v>0.242392</v>
       </c>
       <c r="D107" t="n">
-        <v>0.212454</v>
+        <v>0.212624</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.234234</v>
+        <v>0.233817</v>
       </c>
       <c r="C108" t="n">
-        <v>0.24212</v>
+        <v>0.241851</v>
       </c>
       <c r="D108" t="n">
-        <v>0.226369</v>
+        <v>0.226438</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.21899</v>
+        <v>0.219031</v>
       </c>
       <c r="C109" t="n">
-        <v>0.241661</v>
+        <v>0.241604</v>
       </c>
       <c r="D109" t="n">
-        <v>0.224264</v>
+        <v>0.224065</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.347327</v>
+        <v>0.347223</v>
       </c>
       <c r="C110" t="n">
-        <v>0.256251</v>
+        <v>0.256442</v>
       </c>
       <c r="D110" t="n">
-        <v>0.222195</v>
+        <v>0.222726</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.34146</v>
+        <v>0.341358</v>
       </c>
       <c r="C111" t="n">
-        <v>0.25372</v>
+        <v>0.253637</v>
       </c>
       <c r="D111" t="n">
-        <v>0.220782</v>
+        <v>0.220832</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.334959</v>
+        <v>0.334981</v>
       </c>
       <c r="C112" t="n">
-        <v>0.25167</v>
+        <v>0.251585</v>
       </c>
       <c r="D112" t="n">
-        <v>0.219361</v>
+        <v>0.219517</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.327839</v>
+        <v>0.327737</v>
       </c>
       <c r="C113" t="n">
-        <v>0.250186</v>
+        <v>0.250192</v>
       </c>
       <c r="D113" t="n">
-        <v>0.218312</v>
+        <v>0.218522</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.320278</v>
+        <v>0.320276</v>
       </c>
       <c r="C114" t="n">
-        <v>0.249138</v>
+        <v>0.249272</v>
       </c>
       <c r="D114" t="n">
-        <v>0.217079</v>
+        <v>0.217227</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.31233</v>
+        <v>0.312374</v>
       </c>
       <c r="C115" t="n">
-        <v>0.247585</v>
+        <v>0.247892</v>
       </c>
       <c r="D115" t="n">
-        <v>0.216184</v>
+        <v>0.216383</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304402</v>
+        <v>0.304233</v>
       </c>
       <c r="C116" t="n">
-        <v>0.247042</v>
+        <v>0.247097</v>
       </c>
       <c r="D116" t="n">
-        <v>0.21541</v>
+        <v>0.215345</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.295459</v>
+        <v>0.295297</v>
       </c>
       <c r="C117" t="n">
-        <v>0.245792</v>
+        <v>0.246053</v>
       </c>
       <c r="D117" t="n">
-        <v>0.214872</v>
+        <v>0.214521</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.285545</v>
+        <v>0.285456</v>
       </c>
       <c r="C118" t="n">
-        <v>0.245189</v>
+        <v>0.244919</v>
       </c>
       <c r="D118" t="n">
-        <v>0.214595</v>
+        <v>0.214707</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.275231</v>
+        <v>0.27508</v>
       </c>
       <c r="C119" t="n">
-        <v>0.244345</v>
+        <v>0.244108</v>
       </c>
       <c r="D119" t="n">
-        <v>0.213889</v>
+        <v>0.214054</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.263252</v>
+        <v>0.263855</v>
       </c>
       <c r="C120" t="n">
-        <v>0.243379</v>
+        <v>0.243518</v>
       </c>
       <c r="D120" t="n">
-        <v>0.213704</v>
+        <v>0.21314</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.250837</v>
+        <v>0.250725</v>
       </c>
       <c r="C121" t="n">
-        <v>0.242828</v>
+        <v>0.242875</v>
       </c>
       <c r="D121" t="n">
-        <v>0.213398</v>
+        <v>0.213282</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.237809</v>
+        <v>0.237227</v>
       </c>
       <c r="C122" t="n">
-        <v>0.242271</v>
+        <v>0.242145</v>
       </c>
       <c r="D122" t="n">
-        <v>0.21334</v>
+        <v>0.212703</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.223057</v>
+        <v>0.222666</v>
       </c>
       <c r="C123" t="n">
-        <v>0.241845</v>
+        <v>0.241774</v>
       </c>
       <c r="D123" t="n">
-        <v>0.225449</v>
+        <v>0.225952</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.348939</v>
+        <v>0.349227</v>
       </c>
       <c r="C124" t="n">
-        <v>0.257492</v>
+        <v>0.257412</v>
       </c>
       <c r="D124" t="n">
-        <v>0.223688</v>
+        <v>0.22382</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.342797</v>
+        <v>0.343483</v>
       </c>
       <c r="C125" t="n">
-        <v>0.254294</v>
+        <v>0.254046</v>
       </c>
       <c r="D125" t="n">
-        <v>0.221402</v>
+        <v>0.222552</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.33651</v>
+        <v>0.336321</v>
       </c>
       <c r="C126" t="n">
-        <v>0.252033</v>
+        <v>0.25218</v>
       </c>
       <c r="D126" t="n">
-        <v>0.220397</v>
+        <v>0.220667</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.329706</v>
+        <v>0.329835</v>
       </c>
       <c r="C127" t="n">
-        <v>0.250378</v>
+        <v>0.250156</v>
       </c>
       <c r="D127" t="n">
-        <v>0.218797</v>
+        <v>0.219416</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.322203</v>
+        <v>0.322309</v>
       </c>
       <c r="C128" t="n">
-        <v>0.248582</v>
+        <v>0.248282</v>
       </c>
       <c r="D128" t="n">
-        <v>0.218211</v>
+        <v>0.218619</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.314336</v>
+        <v>0.314572</v>
       </c>
       <c r="C129" t="n">
-        <v>0.247447</v>
+        <v>0.247654</v>
       </c>
       <c r="D129" t="n">
-        <v>0.217734</v>
+        <v>0.217156</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.306132</v>
+        <v>0.306412</v>
       </c>
       <c r="C130" t="n">
-        <v>0.246264</v>
+        <v>0.246341</v>
       </c>
       <c r="D130" t="n">
-        <v>0.216608</v>
+        <v>0.217146</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.297256</v>
+        <v>0.297435</v>
       </c>
       <c r="C131" t="n">
-        <v>0.24527</v>
+        <v>0.245235</v>
       </c>
       <c r="D131" t="n">
-        <v>0.215278</v>
+        <v>0.215384</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.288246</v>
+        <v>0.288016</v>
       </c>
       <c r="C132" t="n">
-        <v>0.244502</v>
+        <v>0.244494</v>
       </c>
       <c r="D132" t="n">
-        <v>0.214654</v>
+        <v>0.214346</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.277067</v>
+        <v>0.277052</v>
       </c>
       <c r="C133" t="n">
-        <v>0.244077</v>
+        <v>0.244147</v>
       </c>
       <c r="D133" t="n">
-        <v>0.213584</v>
+        <v>0.213522</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.265795</v>
+        <v>0.265861</v>
       </c>
       <c r="C134" t="n">
-        <v>0.243465</v>
+        <v>0.243464</v>
       </c>
       <c r="D134" t="n">
-        <v>0.214164</v>
+        <v>0.215252</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.253757</v>
+        <v>0.253316</v>
       </c>
       <c r="C135" t="n">
-        <v>0.242539</v>
+        <v>0.243075</v>
       </c>
       <c r="D135" t="n">
-        <v>0.214402</v>
+        <v>0.214248</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.240589</v>
+        <v>0.24045</v>
       </c>
       <c r="C136" t="n">
-        <v>0.242116</v>
+        <v>0.242046</v>
       </c>
       <c r="D136" t="n">
-        <v>0.214837</v>
+        <v>0.214369</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.226238</v>
+        <v>0.225877</v>
       </c>
       <c r="C137" t="n">
-        <v>0.241708</v>
+        <v>0.24165</v>
       </c>
       <c r="D137" t="n">
-        <v>0.228891</v>
+        <v>0.2284</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.350416</v>
+        <v>0.350459</v>
       </c>
       <c r="C138" t="n">
-        <v>0.25909</v>
+        <v>0.258625</v>
       </c>
       <c r="D138" t="n">
-        <v>0.226158</v>
+        <v>0.227773</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.344835</v>
+        <v>0.344557</v>
       </c>
       <c r="C139" t="n">
-        <v>0.255521</v>
+        <v>0.255615</v>
       </c>
       <c r="D139" t="n">
-        <v>0.223965</v>
+        <v>0.225691</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338253</v>
+        <v>0.338238</v>
       </c>
       <c r="C140" t="n">
-        <v>0.25308</v>
+        <v>0.254138</v>
       </c>
       <c r="D140" t="n">
-        <v>0.223625</v>
+        <v>0.223555</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331459</v>
+        <v>0.331264</v>
       </c>
       <c r="C141" t="n">
-        <v>0.251083</v>
+        <v>0.250925</v>
       </c>
       <c r="D141" t="n">
-        <v>0.222231</v>
+        <v>0.222737</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.324569</v>
+        <v>0.324072</v>
       </c>
       <c r="C142" t="n">
-        <v>0.248962</v>
+        <v>0.249104</v>
       </c>
       <c r="D142" t="n">
-        <v>0.222125</v>
+        <v>0.221246</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.316908</v>
+        <v>0.316394</v>
       </c>
       <c r="C143" t="n">
-        <v>0.248881</v>
+        <v>0.247743</v>
       </c>
       <c r="D143" t="n">
-        <v>0.219223</v>
+        <v>0.22033</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.300205</v>
+        <v>0.297916</v>
       </c>
       <c r="C2" t="n">
-        <v>0.22211</v>
+        <v>0.22548</v>
       </c>
       <c r="D2" t="n">
-        <v>0.199448</v>
+        <v>0.197517</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.29154</v>
+        <v>0.288559</v>
       </c>
       <c r="C3" t="n">
-        <v>0.223283</v>
+        <v>0.224042</v>
       </c>
       <c r="D3" t="n">
-        <v>0.200506</v>
+        <v>0.199326</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.283038</v>
+        <v>0.278971</v>
       </c>
       <c r="C4" t="n">
-        <v>0.225218</v>
+        <v>0.22532</v>
       </c>
       <c r="D4" t="n">
-        <v>0.201089</v>
+        <v>0.201745</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.271783</v>
+        <v>0.271123</v>
       </c>
       <c r="C5" t="n">
-        <v>0.225488</v>
+        <v>0.223088</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200231</v>
+        <v>0.199411</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.259259</v>
+        <v>0.256624</v>
       </c>
       <c r="C6" t="n">
-        <v>0.225708</v>
+        <v>0.226366</v>
       </c>
       <c r="D6" t="n">
-        <v>0.199933</v>
+        <v>0.20159</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.244074</v>
+        <v>0.242406</v>
       </c>
       <c r="C7" t="n">
-        <v>0.225786</v>
+        <v>0.225368</v>
       </c>
       <c r="D7" t="n">
-        <v>0.202072</v>
+        <v>0.201511</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.23154</v>
+        <v>0.231403</v>
       </c>
       <c r="C8" t="n">
-        <v>0.225539</v>
+        <v>0.226231</v>
       </c>
       <c r="D8" t="n">
-        <v>0.202263</v>
+        <v>0.201507</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.219638</v>
+        <v>0.216605</v>
       </c>
       <c r="C9" t="n">
-        <v>0.226838</v>
+        <v>0.22599</v>
       </c>
       <c r="D9" t="n">
-        <v>0.219019</v>
+        <v>0.21992</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.347225</v>
+        <v>0.343442</v>
       </c>
       <c r="C10" t="n">
-        <v>0.246927</v>
+        <v>0.247268</v>
       </c>
       <c r="D10" t="n">
-        <v>0.218108</v>
+        <v>0.217395</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.339058</v>
+        <v>0.337011</v>
       </c>
       <c r="C11" t="n">
-        <v>0.244128</v>
+        <v>0.245184</v>
       </c>
       <c r="D11" t="n">
-        <v>0.215618</v>
+        <v>0.215994</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.334507</v>
+        <v>0.333098</v>
       </c>
       <c r="C12" t="n">
-        <v>0.24349</v>
+        <v>0.243377</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214839</v>
+        <v>0.213908</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.325906</v>
+        <v>0.325327</v>
       </c>
       <c r="C13" t="n">
-        <v>0.241653</v>
+        <v>0.241115</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212937</v>
+        <v>0.212532</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.320337</v>
+        <v>0.320558</v>
       </c>
       <c r="C14" t="n">
-        <v>0.239321</v>
+        <v>0.238915</v>
       </c>
       <c r="D14" t="n">
-        <v>0.212522</v>
+        <v>0.211928</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.313298</v>
+        <v>0.312039</v>
       </c>
       <c r="C15" t="n">
-        <v>0.239132</v>
+        <v>0.238353</v>
       </c>
       <c r="D15" t="n">
-        <v>0.210878</v>
+        <v>0.210976</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.304897</v>
+        <v>0.304643</v>
       </c>
       <c r="C16" t="n">
-        <v>0.239388</v>
+        <v>0.238724</v>
       </c>
       <c r="D16" t="n">
-        <v>0.210561</v>
+        <v>0.210466</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2963</v>
+        <v>0.295914</v>
       </c>
       <c r="C17" t="n">
-        <v>0.239218</v>
+        <v>0.239157</v>
       </c>
       <c r="D17" t="n">
-        <v>0.210307</v>
+        <v>0.209755</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.289285</v>
+        <v>0.286378</v>
       </c>
       <c r="C18" t="n">
-        <v>0.240407</v>
+        <v>0.238913</v>
       </c>
       <c r="D18" t="n">
-        <v>0.209879</v>
+        <v>0.209102</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.282488</v>
+        <v>0.278494</v>
       </c>
       <c r="C19" t="n">
-        <v>0.237657</v>
+        <v>0.238292</v>
       </c>
       <c r="D19" t="n">
-        <v>0.211023</v>
+        <v>0.209253</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.270005</v>
+        <v>0.264908</v>
       </c>
       <c r="C20" t="n">
-        <v>0.23756</v>
+        <v>0.237474</v>
       </c>
       <c r="D20" t="n">
-        <v>0.222201</v>
+        <v>0.209808</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.256641</v>
+        <v>0.253648</v>
       </c>
       <c r="C21" t="n">
-        <v>0.237326</v>
+        <v>0.237103</v>
       </c>
       <c r="D21" t="n">
-        <v>0.209451</v>
+        <v>0.209517</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.243047</v>
+        <v>0.240166</v>
       </c>
       <c r="C22" t="n">
-        <v>0.237124</v>
+        <v>0.237139</v>
       </c>
       <c r="D22" t="n">
-        <v>0.212137</v>
+        <v>0.208951</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.228316</v>
+        <v>0.226003</v>
       </c>
       <c r="C23" t="n">
-        <v>0.237374</v>
+        <v>0.237882</v>
       </c>
       <c r="D23" t="n">
-        <v>0.223801</v>
+        <v>0.225865</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348529</v>
+        <v>0.348073</v>
       </c>
       <c r="C24" t="n">
-        <v>0.254905</v>
+        <v>0.255921</v>
       </c>
       <c r="D24" t="n">
-        <v>0.222317</v>
+        <v>0.224626</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.341814</v>
+        <v>0.342108</v>
       </c>
       <c r="C25" t="n">
-        <v>0.253084</v>
+        <v>0.254085</v>
       </c>
       <c r="D25" t="n">
-        <v>0.221313</v>
+        <v>0.223018</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.336402</v>
+        <v>0.336177</v>
       </c>
       <c r="C26" t="n">
-        <v>0.251216</v>
+        <v>0.251562</v>
       </c>
       <c r="D26" t="n">
-        <v>0.220345</v>
+        <v>0.22197</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.329089</v>
+        <v>0.328802</v>
       </c>
       <c r="C27" t="n">
-        <v>0.249738</v>
+        <v>0.249139</v>
       </c>
       <c r="D27" t="n">
-        <v>0.218588</v>
+        <v>0.219035</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.322347</v>
+        <v>0.321958</v>
       </c>
       <c r="C28" t="n">
-        <v>0.248011</v>
+        <v>0.246707</v>
       </c>
       <c r="D28" t="n">
-        <v>0.217004</v>
+        <v>0.217412</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.314953</v>
+        <v>0.314438</v>
       </c>
       <c r="C29" t="n">
-        <v>0.246226</v>
+        <v>0.246023</v>
       </c>
       <c r="D29" t="n">
-        <v>0.216338</v>
+        <v>0.216949</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.306988</v>
+        <v>0.306815</v>
       </c>
       <c r="C30" t="n">
-        <v>0.245249</v>
+        <v>0.244734</v>
       </c>
       <c r="D30" t="n">
-        <v>0.21508</v>
+        <v>0.215518</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.298651</v>
+        <v>0.29859</v>
       </c>
       <c r="C31" t="n">
-        <v>0.243825</v>
+        <v>0.243667</v>
       </c>
       <c r="D31" t="n">
-        <v>0.214484</v>
+        <v>0.214943</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.28926</v>
+        <v>0.289148</v>
       </c>
       <c r="C32" t="n">
-        <v>0.243806</v>
+        <v>0.24396</v>
       </c>
       <c r="D32" t="n">
-        <v>0.213693</v>
+        <v>0.214582</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.279557</v>
+        <v>0.27949</v>
       </c>
       <c r="C33" t="n">
-        <v>0.243321</v>
+        <v>0.24281</v>
       </c>
       <c r="D33" t="n">
-        <v>0.213562</v>
+        <v>0.214577</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.26916</v>
+        <v>0.269282</v>
       </c>
       <c r="C34" t="n">
-        <v>0.241784</v>
+        <v>0.241385</v>
       </c>
       <c r="D34" t="n">
-        <v>0.212697</v>
+        <v>0.213621</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.258337</v>
+        <v>0.258095</v>
       </c>
       <c r="C35" t="n">
-        <v>0.242339</v>
+        <v>0.241943</v>
       </c>
       <c r="D35" t="n">
-        <v>0.212771</v>
+        <v>0.213091</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.245257</v>
+        <v>0.244553</v>
       </c>
       <c r="C36" t="n">
-        <v>0.242324</v>
+        <v>0.241592</v>
       </c>
       <c r="D36" t="n">
-        <v>0.212089</v>
+        <v>0.213889</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.231051</v>
+        <v>0.230996</v>
       </c>
       <c r="C37" t="n">
-        <v>0.241138</v>
+        <v>0.241341</v>
       </c>
       <c r="D37" t="n">
-        <v>0.227073</v>
+        <v>0.228653</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.349775</v>
+        <v>0.3495</v>
       </c>
       <c r="C38" t="n">
-        <v>0.260772</v>
+        <v>0.262477</v>
       </c>
       <c r="D38" t="n">
-        <v>0.224274</v>
+        <v>0.225279</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3444</v>
+        <v>0.34441</v>
       </c>
       <c r="C39" t="n">
-        <v>0.257822</v>
+        <v>0.2582</v>
       </c>
       <c r="D39" t="n">
-        <v>0.22256</v>
+        <v>0.223572</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.338308</v>
+        <v>0.338542</v>
       </c>
       <c r="C40" t="n">
-        <v>0.254725</v>
+        <v>0.255341</v>
       </c>
       <c r="D40" t="n">
-        <v>0.220594</v>
+        <v>0.221645</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.331962</v>
+        <v>0.331973</v>
       </c>
       <c r="C41" t="n">
-        <v>0.251683</v>
+        <v>0.252021</v>
       </c>
       <c r="D41" t="n">
-        <v>0.219307</v>
+        <v>0.219317</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.32469</v>
+        <v>0.325128</v>
       </c>
       <c r="C42" t="n">
-        <v>0.250633</v>
+        <v>0.250506</v>
       </c>
       <c r="D42" t="n">
-        <v>0.217894</v>
+        <v>0.218811</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.316812</v>
+        <v>0.31756</v>
       </c>
       <c r="C43" t="n">
-        <v>0.249297</v>
+        <v>0.249227</v>
       </c>
       <c r="D43" t="n">
-        <v>0.216811</v>
+        <v>0.217379</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.309407</v>
+        <v>0.310239</v>
       </c>
       <c r="C44" t="n">
-        <v>0.247878</v>
+        <v>0.247689</v>
       </c>
       <c r="D44" t="n">
-        <v>0.215621</v>
+        <v>0.21608</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300599</v>
+        <v>0.30152</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246672</v>
+        <v>0.246242</v>
       </c>
       <c r="D45" t="n">
-        <v>0.214686</v>
+        <v>0.215422</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.292059</v>
+        <v>0.292742</v>
       </c>
       <c r="C46" t="n">
-        <v>0.245872</v>
+        <v>0.245634</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2143</v>
+        <v>0.214665</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.282916</v>
+        <v>0.283277</v>
       </c>
       <c r="C47" t="n">
-        <v>0.244757</v>
+        <v>0.244502</v>
       </c>
       <c r="D47" t="n">
-        <v>0.213975</v>
+        <v>0.214256</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.271889</v>
+        <v>0.272812</v>
       </c>
       <c r="C48" t="n">
-        <v>0.243835</v>
+        <v>0.243384</v>
       </c>
       <c r="D48" t="n">
-        <v>0.213598</v>
+        <v>0.213774</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.260964</v>
+        <v>0.261936</v>
       </c>
       <c r="C49" t="n">
-        <v>0.243175</v>
+        <v>0.242863</v>
       </c>
       <c r="D49" t="n">
-        <v>0.213252</v>
+        <v>0.213127</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.248733</v>
+        <v>0.249468</v>
       </c>
       <c r="C50" t="n">
-        <v>0.242945</v>
+        <v>0.242631</v>
       </c>
       <c r="D50" t="n">
-        <v>0.214192</v>
+        <v>0.212846</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.235289</v>
+        <v>0.235543</v>
       </c>
       <c r="C51" t="n">
-        <v>0.242207</v>
+        <v>0.242302</v>
       </c>
       <c r="D51" t="n">
-        <v>0.225953</v>
+        <v>0.227291</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.220208</v>
+        <v>0.220709</v>
       </c>
       <c r="C52" t="n">
-        <v>0.241329</v>
+        <v>0.241531</v>
       </c>
       <c r="D52" t="n">
-        <v>0.223578</v>
+        <v>0.224712</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.347174</v>
+        <v>0.346978</v>
       </c>
       <c r="C53" t="n">
-        <v>0.257286</v>
+        <v>0.258907</v>
       </c>
       <c r="D53" t="n">
-        <v>0.221879</v>
+        <v>0.222636</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.34102</v>
+        <v>0.341449</v>
       </c>
       <c r="C54" t="n">
-        <v>0.254202</v>
+        <v>0.25523</v>
       </c>
       <c r="D54" t="n">
-        <v>0.220662</v>
+        <v>0.221207</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.335424</v>
+        <v>0.335466</v>
       </c>
       <c r="C55" t="n">
-        <v>0.251966</v>
+        <v>0.252313</v>
       </c>
       <c r="D55" t="n">
-        <v>0.219512</v>
+        <v>0.219848</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.327516</v>
+        <v>0.328183</v>
       </c>
       <c r="C56" t="n">
-        <v>0.250584</v>
+        <v>0.250471</v>
       </c>
       <c r="D56" t="n">
-        <v>0.218097</v>
+        <v>0.218527</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.320685</v>
+        <v>0.321137</v>
       </c>
       <c r="C57" t="n">
-        <v>0.249187</v>
+        <v>0.249189</v>
       </c>
       <c r="D57" t="n">
-        <v>0.217123</v>
+        <v>0.217384</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.31292</v>
+        <v>0.313706</v>
       </c>
       <c r="C58" t="n">
-        <v>0.247818</v>
+        <v>0.247717</v>
       </c>
       <c r="D58" t="n">
-        <v>0.216477</v>
+        <v>0.216795</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304452</v>
+        <v>0.305122</v>
       </c>
       <c r="C59" t="n">
-        <v>0.246819</v>
+        <v>0.246742</v>
       </c>
       <c r="D59" t="n">
-        <v>0.215308</v>
+        <v>0.215938</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.29451</v>
+        <v>0.2957</v>
       </c>
       <c r="C60" t="n">
-        <v>0.24572</v>
+        <v>0.245745</v>
       </c>
       <c r="D60" t="n">
-        <v>0.214708</v>
+        <v>0.214858</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284976</v>
+        <v>0.286013</v>
       </c>
       <c r="C61" t="n">
-        <v>0.245209</v>
+        <v>0.245273</v>
       </c>
       <c r="D61" t="n">
-        <v>0.214234</v>
+        <v>0.214816</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.274729</v>
+        <v>0.275577</v>
       </c>
       <c r="C62" t="n">
-        <v>0.244119</v>
+        <v>0.244052</v>
       </c>
       <c r="D62" t="n">
-        <v>0.213535</v>
+        <v>0.214199</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263553</v>
+        <v>0.263864</v>
       </c>
       <c r="C63" t="n">
-        <v>0.243341</v>
+        <v>0.243107</v>
       </c>
       <c r="D63" t="n">
-        <v>0.213214</v>
+        <v>0.213406</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.251143</v>
+        <v>0.251766</v>
       </c>
       <c r="C64" t="n">
-        <v>0.243069</v>
+        <v>0.242878</v>
       </c>
       <c r="D64" t="n">
-        <v>0.21265</v>
+        <v>0.212939</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.23792</v>
+        <v>0.238487</v>
       </c>
       <c r="C65" t="n">
-        <v>0.241981</v>
+        <v>0.242073</v>
       </c>
       <c r="D65" t="n">
-        <v>0.212563</v>
+        <v>0.2126</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.223427</v>
+        <v>0.223968</v>
       </c>
       <c r="C66" t="n">
-        <v>0.241402</v>
+        <v>0.241589</v>
       </c>
       <c r="D66" t="n">
-        <v>0.225189</v>
+        <v>0.22634</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.348956</v>
+        <v>0.349021</v>
       </c>
       <c r="C67" t="n">
-        <v>0.259596</v>
+        <v>0.261724</v>
       </c>
       <c r="D67" t="n">
-        <v>0.223106</v>
+        <v>0.224176</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.342804</v>
+        <v>0.343029</v>
       </c>
       <c r="C68" t="n">
-        <v>0.255731</v>
+        <v>0.256421</v>
       </c>
       <c r="D68" t="n">
-        <v>0.221254</v>
+        <v>0.222015</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.336923</v>
+        <v>0.33709</v>
       </c>
       <c r="C69" t="n">
-        <v>0.252818</v>
+        <v>0.253419</v>
       </c>
       <c r="D69" t="n">
-        <v>0.219912</v>
+        <v>0.220436</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.329849</v>
+        <v>0.330431</v>
       </c>
       <c r="C70" t="n">
-        <v>0.251154</v>
+        <v>0.251326</v>
       </c>
       <c r="D70" t="n">
-        <v>0.21893</v>
+        <v>0.219285</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.322737</v>
+        <v>0.323269</v>
       </c>
       <c r="C71" t="n">
-        <v>0.249762</v>
+        <v>0.249832</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217762</v>
+        <v>0.218126</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.315297</v>
+        <v>0.315677</v>
       </c>
       <c r="C72" t="n">
-        <v>0.248468</v>
+        <v>0.248109</v>
       </c>
       <c r="D72" t="n">
-        <v>0.216838</v>
+        <v>0.216997</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.306725</v>
+        <v>0.307899</v>
       </c>
       <c r="C73" t="n">
-        <v>0.247068</v>
+        <v>0.247036</v>
       </c>
       <c r="D73" t="n">
-        <v>0.21575</v>
+        <v>0.216038</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.298329</v>
+        <v>0.299031</v>
       </c>
       <c r="C74" t="n">
-        <v>0.246157</v>
+        <v>0.245804</v>
       </c>
       <c r="D74" t="n">
-        <v>0.214686</v>
+        <v>0.214999</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.289037</v>
+        <v>0.289411</v>
       </c>
       <c r="C75" t="n">
-        <v>0.24533</v>
+        <v>0.245002</v>
       </c>
       <c r="D75" t="n">
-        <v>0.214362</v>
+        <v>0.214541</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.27876</v>
+        <v>0.279223</v>
       </c>
       <c r="C76" t="n">
-        <v>0.24447</v>
+        <v>0.244353</v>
       </c>
       <c r="D76" t="n">
-        <v>0.21377</v>
+        <v>0.213705</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.267329</v>
+        <v>0.267907</v>
       </c>
       <c r="C77" t="n">
-        <v>0.243522</v>
+        <v>0.243309</v>
       </c>
       <c r="D77" t="n">
-        <v>0.213387</v>
+        <v>0.213456</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.255084</v>
+        <v>0.255473</v>
       </c>
       <c r="C78" t="n">
-        <v>0.242559</v>
+        <v>0.242406</v>
       </c>
       <c r="D78" t="n">
-        <v>0.212892</v>
+        <v>0.212775</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.242116</v>
+        <v>0.242302</v>
       </c>
       <c r="C79" t="n">
-        <v>0.242132</v>
+        <v>0.242074</v>
       </c>
       <c r="D79" t="n">
-        <v>0.212674</v>
+        <v>0.212465</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227486</v>
+        <v>0.227986</v>
       </c>
       <c r="C80" t="n">
-        <v>0.241969</v>
+        <v>0.241587</v>
       </c>
       <c r="D80" t="n">
-        <v>0.225473</v>
+        <v>0.227302</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.350485</v>
+        <v>0.350357</v>
       </c>
       <c r="C81" t="n">
-        <v>0.258895</v>
+        <v>0.262082</v>
       </c>
       <c r="D81" t="n">
-        <v>0.223343</v>
+        <v>0.22493</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.344631</v>
+        <v>0.34502</v>
       </c>
       <c r="C82" t="n">
-        <v>0.255347</v>
+        <v>0.257098</v>
       </c>
       <c r="D82" t="n">
-        <v>0.221773</v>
+        <v>0.222867</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.338246</v>
+        <v>0.338831</v>
       </c>
       <c r="C83" t="n">
-        <v>0.252771</v>
+        <v>0.253804</v>
       </c>
       <c r="D83" t="n">
-        <v>0.220186</v>
+        <v>0.221109</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.331652</v>
+        <v>0.33256</v>
       </c>
       <c r="C84" t="n">
-        <v>0.250808</v>
+        <v>0.251456</v>
       </c>
       <c r="D84" t="n">
-        <v>0.218914</v>
+        <v>0.219629</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.324701</v>
+        <v>0.325194</v>
       </c>
       <c r="C85" t="n">
-        <v>0.249576</v>
+        <v>0.250048</v>
       </c>
       <c r="D85" t="n">
-        <v>0.217749</v>
+        <v>0.218395</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.316659</v>
+        <v>0.317597</v>
       </c>
       <c r="C86" t="n">
-        <v>0.248435</v>
+        <v>0.248631</v>
       </c>
       <c r="D86" t="n">
-        <v>0.216743</v>
+        <v>0.217134</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.308569</v>
+        <v>0.30984</v>
       </c>
       <c r="C87" t="n">
-        <v>0.247092</v>
+        <v>0.24735</v>
       </c>
       <c r="D87" t="n">
-        <v>0.215886</v>
+        <v>0.216235</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.299993</v>
+        <v>0.300875</v>
       </c>
       <c r="C88" t="n">
-        <v>0.246375</v>
+        <v>0.246544</v>
       </c>
       <c r="D88" t="n">
-        <v>0.215113</v>
+        <v>0.215396</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.290538</v>
+        <v>0.291457</v>
       </c>
       <c r="C89" t="n">
-        <v>0.245374</v>
+        <v>0.245469</v>
       </c>
       <c r="D89" t="n">
-        <v>0.21435</v>
+        <v>0.214535</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.28062</v>
+        <v>0.281592</v>
       </c>
       <c r="C90" t="n">
-        <v>0.244612</v>
+        <v>0.244667</v>
       </c>
       <c r="D90" t="n">
-        <v>0.213777</v>
+        <v>0.214039</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.269704</v>
+        <v>0.270832</v>
       </c>
       <c r="C91" t="n">
-        <v>0.243793</v>
+        <v>0.243809</v>
       </c>
       <c r="D91" t="n">
-        <v>0.213203</v>
+        <v>0.213329</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.25808</v>
+        <v>0.258965</v>
       </c>
       <c r="C92" t="n">
-        <v>0.24304</v>
+        <v>0.24315</v>
       </c>
       <c r="D92" t="n">
-        <v>0.212812</v>
+        <v>0.212847</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.244897</v>
+        <v>0.245442</v>
       </c>
       <c r="C93" t="n">
-        <v>0.242364</v>
+        <v>0.242512</v>
       </c>
       <c r="D93" t="n">
-        <v>0.212652</v>
+        <v>0.212658</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.230812</v>
+        <v>0.231364</v>
       </c>
       <c r="C94" t="n">
-        <v>0.241992</v>
+        <v>0.242153</v>
       </c>
       <c r="D94" t="n">
-        <v>0.226121</v>
+        <v>0.2272</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.351975</v>
+        <v>0.352442</v>
       </c>
       <c r="C95" t="n">
-        <v>0.260239</v>
+        <v>0.261672</v>
       </c>
       <c r="D95" t="n">
-        <v>0.223888</v>
+        <v>0.224546</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.346043</v>
+        <v>0.346338</v>
       </c>
       <c r="C96" t="n">
-        <v>0.256149</v>
+        <v>0.257311</v>
       </c>
       <c r="D96" t="n">
-        <v>0.22203</v>
+        <v>0.222704</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.340063</v>
+        <v>0.340379</v>
       </c>
       <c r="C97" t="n">
-        <v>0.253534</v>
+        <v>0.254216</v>
       </c>
       <c r="D97" t="n">
-        <v>0.220565</v>
+        <v>0.221069</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.333759</v>
+        <v>0.333966</v>
       </c>
       <c r="C98" t="n">
-        <v>0.251535</v>
+        <v>0.251814</v>
       </c>
       <c r="D98" t="n">
-        <v>0.219176</v>
+        <v>0.219773</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.326277</v>
+        <v>0.327012</v>
       </c>
       <c r="C99" t="n">
-        <v>0.250107</v>
+        <v>0.250434</v>
       </c>
       <c r="D99" t="n">
-        <v>0.218006</v>
+        <v>0.21853</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.318782</v>
+        <v>0.319702</v>
       </c>
       <c r="C100" t="n">
-        <v>0.248743</v>
+        <v>0.248958</v>
       </c>
       <c r="D100" t="n">
-        <v>0.216923</v>
+        <v>0.217343</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.310606</v>
+        <v>0.311805</v>
       </c>
       <c r="C101" t="n">
-        <v>0.24759</v>
+        <v>0.247733</v>
       </c>
       <c r="D101" t="n">
-        <v>0.216065</v>
+        <v>0.216437</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302166</v>
+        <v>0.303103</v>
       </c>
       <c r="C102" t="n">
-        <v>0.24675</v>
+        <v>0.24669</v>
       </c>
       <c r="D102" t="n">
-        <v>0.215316</v>
+        <v>0.215582</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.292796</v>
+        <v>0.293848</v>
       </c>
       <c r="C103" t="n">
-        <v>0.245697</v>
+        <v>0.245783</v>
       </c>
       <c r="D103" t="n">
-        <v>0.21456</v>
+        <v>0.214866</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.282895</v>
+        <v>0.284006</v>
       </c>
       <c r="C104" t="n">
-        <v>0.244823</v>
+        <v>0.244884</v>
       </c>
       <c r="D104" t="n">
-        <v>0.213931</v>
+        <v>0.214203</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.27198</v>
+        <v>0.273229</v>
       </c>
       <c r="C105" t="n">
-        <v>0.24394</v>
+        <v>0.244022</v>
       </c>
       <c r="D105" t="n">
-        <v>0.213236</v>
+        <v>0.213545</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.260319</v>
+        <v>0.261137</v>
       </c>
       <c r="C106" t="n">
-        <v>0.243302</v>
+        <v>0.243138</v>
       </c>
       <c r="D106" t="n">
-        <v>0.212795</v>
+        <v>0.212837</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247791</v>
+        <v>0.24865</v>
       </c>
       <c r="C107" t="n">
-        <v>0.242392</v>
+        <v>0.242581</v>
       </c>
       <c r="D107" t="n">
-        <v>0.212624</v>
+        <v>0.212448</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.233817</v>
+        <v>0.234736</v>
       </c>
       <c r="C108" t="n">
-        <v>0.241851</v>
+        <v>0.241985</v>
       </c>
       <c r="D108" t="n">
-        <v>0.226438</v>
+        <v>0.227266</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.219031</v>
+        <v>0.219744</v>
       </c>
       <c r="C109" t="n">
-        <v>0.241604</v>
+        <v>0.241631</v>
       </c>
       <c r="D109" t="n">
-        <v>0.224065</v>
+        <v>0.225092</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.347223</v>
+        <v>0.348066</v>
       </c>
       <c r="C110" t="n">
-        <v>0.256442</v>
+        <v>0.257221</v>
       </c>
       <c r="D110" t="n">
-        <v>0.222726</v>
+        <v>0.223247</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.341358</v>
+        <v>0.342418</v>
       </c>
       <c r="C111" t="n">
-        <v>0.253637</v>
+        <v>0.254272</v>
       </c>
       <c r="D111" t="n">
-        <v>0.220832</v>
+        <v>0.221763</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.334981</v>
+        <v>0.335798</v>
       </c>
       <c r="C112" t="n">
-        <v>0.251585</v>
+        <v>0.251972</v>
       </c>
       <c r="D112" t="n">
-        <v>0.219517</v>
+        <v>0.220197</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.327737</v>
+        <v>0.329095</v>
       </c>
       <c r="C113" t="n">
-        <v>0.250192</v>
+        <v>0.250367</v>
       </c>
       <c r="D113" t="n">
-        <v>0.218522</v>
+        <v>0.219431</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.320276</v>
+        <v>0.321516</v>
       </c>
       <c r="C114" t="n">
-        <v>0.249272</v>
+        <v>0.249291</v>
       </c>
       <c r="D114" t="n">
-        <v>0.217227</v>
+        <v>0.217866</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.312374</v>
+        <v>0.313289</v>
       </c>
       <c r="C115" t="n">
-        <v>0.247892</v>
+        <v>0.247995</v>
       </c>
       <c r="D115" t="n">
-        <v>0.216383</v>
+        <v>0.216972</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304233</v>
+        <v>0.305062</v>
       </c>
       <c r="C116" t="n">
-        <v>0.247097</v>
+        <v>0.247243</v>
       </c>
       <c r="D116" t="n">
-        <v>0.215345</v>
+        <v>0.216247</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.295297</v>
+        <v>0.296156</v>
       </c>
       <c r="C117" t="n">
-        <v>0.246053</v>
+        <v>0.246237</v>
       </c>
       <c r="D117" t="n">
-        <v>0.214521</v>
+        <v>0.215533</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.285456</v>
+        <v>0.286328</v>
       </c>
       <c r="C118" t="n">
-        <v>0.244919</v>
+        <v>0.245231</v>
       </c>
       <c r="D118" t="n">
-        <v>0.214707</v>
+        <v>0.21485</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.27508</v>
+        <v>0.275499</v>
       </c>
       <c r="C119" t="n">
-        <v>0.244108</v>
+        <v>0.244716</v>
       </c>
       <c r="D119" t="n">
-        <v>0.214054</v>
+        <v>0.215212</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.263855</v>
+        <v>0.26417</v>
       </c>
       <c r="C120" t="n">
-        <v>0.243518</v>
+        <v>0.243615</v>
       </c>
       <c r="D120" t="n">
-        <v>0.21314</v>
+        <v>0.214168</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.250725</v>
+        <v>0.251898</v>
       </c>
       <c r="C121" t="n">
-        <v>0.242875</v>
+        <v>0.242909</v>
       </c>
       <c r="D121" t="n">
-        <v>0.213282</v>
+        <v>0.214059</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.237227</v>
+        <v>0.238019</v>
       </c>
       <c r="C122" t="n">
-        <v>0.242145</v>
+        <v>0.24258</v>
       </c>
       <c r="D122" t="n">
-        <v>0.212703</v>
+        <v>0.213537</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.222666</v>
+        <v>0.22444</v>
       </c>
       <c r="C123" t="n">
-        <v>0.241774</v>
+        <v>0.242141</v>
       </c>
       <c r="D123" t="n">
-        <v>0.225952</v>
+        <v>0.226416</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.349227</v>
+        <v>0.349513</v>
       </c>
       <c r="C124" t="n">
-        <v>0.257412</v>
+        <v>0.258545</v>
       </c>
       <c r="D124" t="n">
-        <v>0.22382</v>
+        <v>0.223371</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.343483</v>
+        <v>0.343744</v>
       </c>
       <c r="C125" t="n">
-        <v>0.254046</v>
+        <v>0.254611</v>
       </c>
       <c r="D125" t="n">
-        <v>0.222552</v>
+        <v>0.222205</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.336321</v>
+        <v>0.337593</v>
       </c>
       <c r="C126" t="n">
-        <v>0.25218</v>
+        <v>0.252498</v>
       </c>
       <c r="D126" t="n">
-        <v>0.220667</v>
+        <v>0.221337</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.329835</v>
+        <v>0.330685</v>
       </c>
       <c r="C127" t="n">
-        <v>0.250156</v>
+        <v>0.250608</v>
       </c>
       <c r="D127" t="n">
-        <v>0.219416</v>
+        <v>0.21979</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.322309</v>
+        <v>0.323365</v>
       </c>
       <c r="C128" t="n">
-        <v>0.248282</v>
+        <v>0.248732</v>
       </c>
       <c r="D128" t="n">
-        <v>0.218619</v>
+        <v>0.218418</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.314572</v>
+        <v>0.315457</v>
       </c>
       <c r="C129" t="n">
-        <v>0.247654</v>
+        <v>0.247528</v>
       </c>
       <c r="D129" t="n">
-        <v>0.217156</v>
+        <v>0.218356</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.306412</v>
+        <v>0.307259</v>
       </c>
       <c r="C130" t="n">
-        <v>0.246341</v>
+        <v>0.246659</v>
       </c>
       <c r="D130" t="n">
-        <v>0.217146</v>
+        <v>0.21699</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.297435</v>
+        <v>0.298419</v>
       </c>
       <c r="C131" t="n">
-        <v>0.245235</v>
+        <v>0.245768</v>
       </c>
       <c r="D131" t="n">
-        <v>0.215384</v>
+        <v>0.216037</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.288016</v>
+        <v>0.288528</v>
       </c>
       <c r="C132" t="n">
-        <v>0.244494</v>
+        <v>0.244804</v>
       </c>
       <c r="D132" t="n">
-        <v>0.214346</v>
+        <v>0.214992</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.277052</v>
+        <v>0.27773</v>
       </c>
       <c r="C133" t="n">
-        <v>0.244147</v>
+        <v>0.243512</v>
       </c>
       <c r="D133" t="n">
-        <v>0.213522</v>
+        <v>0.215096</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.265861</v>
+        <v>0.26705</v>
       </c>
       <c r="C134" t="n">
-        <v>0.243464</v>
+        <v>0.243472</v>
       </c>
       <c r="D134" t="n">
-        <v>0.215252</v>
+        <v>0.214678</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.253316</v>
+        <v>0.254931</v>
       </c>
       <c r="C135" t="n">
-        <v>0.243075</v>
+        <v>0.242932</v>
       </c>
       <c r="D135" t="n">
-        <v>0.214248</v>
+        <v>0.214166</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.24045</v>
+        <v>0.241224</v>
       </c>
       <c r="C136" t="n">
-        <v>0.242046</v>
+        <v>0.242204</v>
       </c>
       <c r="D136" t="n">
-        <v>0.214369</v>
+        <v>0.214365</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.225877</v>
+        <v>0.226912</v>
       </c>
       <c r="C137" t="n">
-        <v>0.24165</v>
+        <v>0.242239</v>
       </c>
       <c r="D137" t="n">
-        <v>0.2284</v>
+        <v>0.227932</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.350459</v>
+        <v>0.351048</v>
       </c>
       <c r="C138" t="n">
-        <v>0.258625</v>
+        <v>0.259828</v>
       </c>
       <c r="D138" t="n">
-        <v>0.227773</v>
+        <v>0.227326</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.344557</v>
+        <v>0.345605</v>
       </c>
       <c r="C139" t="n">
-        <v>0.255615</v>
+        <v>0.256059</v>
       </c>
       <c r="D139" t="n">
-        <v>0.225691</v>
+        <v>0.224446</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338238</v>
+        <v>0.339112</v>
       </c>
       <c r="C140" t="n">
-        <v>0.254138</v>
+        <v>0.252895</v>
       </c>
       <c r="D140" t="n">
-        <v>0.223555</v>
+        <v>0.224221</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331264</v>
+        <v>0.332249</v>
       </c>
       <c r="C141" t="n">
-        <v>0.250925</v>
+        <v>0.251628</v>
       </c>
       <c r="D141" t="n">
-        <v>0.222737</v>
+        <v>0.222654</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.324072</v>
+        <v>0.325097</v>
       </c>
       <c r="C142" t="n">
-        <v>0.249104</v>
+        <v>0.250829</v>
       </c>
       <c r="D142" t="n">
-        <v>0.221246</v>
+        <v>0.22125</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.316394</v>
+        <v>0.31725</v>
       </c>
       <c r="C143" t="n">
-        <v>0.247743</v>
+        <v>0.248436</v>
       </c>
       <c r="D143" t="n">
-        <v>0.22033</v>
+        <v>0.221105</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.297916</v>
+        <v>0.299042</v>
       </c>
       <c r="C2" t="n">
-        <v>0.22548</v>
+        <v>0.223932</v>
       </c>
       <c r="D2" t="n">
-        <v>0.197517</v>
+        <v>0.197762</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.288559</v>
+        <v>0.289435</v>
       </c>
       <c r="C3" t="n">
-        <v>0.224042</v>
+        <v>0.224807</v>
       </c>
       <c r="D3" t="n">
-        <v>0.199326</v>
+        <v>0.199162</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.278971</v>
+        <v>0.278701</v>
       </c>
       <c r="C4" t="n">
-        <v>0.22532</v>
+        <v>0.224813</v>
       </c>
       <c r="D4" t="n">
-        <v>0.201745</v>
+        <v>0.20087</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.271123</v>
+        <v>0.270989</v>
       </c>
       <c r="C5" t="n">
-        <v>0.223088</v>
+        <v>0.223968</v>
       </c>
       <c r="D5" t="n">
-        <v>0.199411</v>
+        <v>0.200475</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.256624</v>
+        <v>0.260232</v>
       </c>
       <c r="C6" t="n">
-        <v>0.226366</v>
+        <v>0.225884</v>
       </c>
       <c r="D6" t="n">
-        <v>0.20159</v>
+        <v>0.200898</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.242406</v>
+        <v>0.24394</v>
       </c>
       <c r="C7" t="n">
-        <v>0.225368</v>
+        <v>0.225287</v>
       </c>
       <c r="D7" t="n">
-        <v>0.201511</v>
+        <v>0.202852</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.231403</v>
+        <v>0.231608</v>
       </c>
       <c r="C8" t="n">
-        <v>0.226231</v>
+        <v>0.226677</v>
       </c>
       <c r="D8" t="n">
-        <v>0.201507</v>
+        <v>0.202381</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.216605</v>
+        <v>0.218836</v>
       </c>
       <c r="C9" t="n">
-        <v>0.22599</v>
+        <v>0.226512</v>
       </c>
       <c r="D9" t="n">
-        <v>0.21992</v>
+        <v>0.218241</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.343442</v>
+        <v>0.345091</v>
       </c>
       <c r="C10" t="n">
-        <v>0.247268</v>
+        <v>0.246447</v>
       </c>
       <c r="D10" t="n">
-        <v>0.217395</v>
+        <v>0.217392</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.337011</v>
+        <v>0.342798</v>
       </c>
       <c r="C11" t="n">
-        <v>0.245184</v>
+        <v>0.245036</v>
       </c>
       <c r="D11" t="n">
-        <v>0.215994</v>
+        <v>0.216032</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.333098</v>
+        <v>0.337595</v>
       </c>
       <c r="C12" t="n">
-        <v>0.243377</v>
+        <v>0.243017</v>
       </c>
       <c r="D12" t="n">
-        <v>0.213908</v>
+        <v>0.215258</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.325327</v>
+        <v>0.329201</v>
       </c>
       <c r="C13" t="n">
-        <v>0.241115</v>
+        <v>0.241542</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212532</v>
+        <v>0.212208</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.320558</v>
+        <v>0.321845</v>
       </c>
       <c r="C14" t="n">
-        <v>0.238915</v>
+        <v>0.239312</v>
       </c>
       <c r="D14" t="n">
-        <v>0.211928</v>
+        <v>0.212326</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.312039</v>
+        <v>0.314365</v>
       </c>
       <c r="C15" t="n">
-        <v>0.238353</v>
+        <v>0.238654</v>
       </c>
       <c r="D15" t="n">
-        <v>0.210976</v>
+        <v>0.211021</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.304643</v>
+        <v>0.306707</v>
       </c>
       <c r="C16" t="n">
-        <v>0.238724</v>
+        <v>0.239608</v>
       </c>
       <c r="D16" t="n">
-        <v>0.210466</v>
+        <v>0.210126</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.295914</v>
+        <v>0.297818</v>
       </c>
       <c r="C17" t="n">
-        <v>0.239157</v>
+        <v>0.239382</v>
       </c>
       <c r="D17" t="n">
-        <v>0.209755</v>
+        <v>0.210941</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.286378</v>
+        <v>0.287286</v>
       </c>
       <c r="C18" t="n">
-        <v>0.238913</v>
+        <v>0.239569</v>
       </c>
       <c r="D18" t="n">
-        <v>0.209102</v>
+        <v>0.210215</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.278494</v>
+        <v>0.276818</v>
       </c>
       <c r="C19" t="n">
-        <v>0.238292</v>
+        <v>0.238358</v>
       </c>
       <c r="D19" t="n">
-        <v>0.209253</v>
+        <v>0.209204</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.264908</v>
+        <v>0.265554</v>
       </c>
       <c r="C20" t="n">
-        <v>0.237474</v>
+        <v>0.237757</v>
       </c>
       <c r="D20" t="n">
-        <v>0.209808</v>
+        <v>0.209654</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.253648</v>
+        <v>0.255115</v>
       </c>
       <c r="C21" t="n">
-        <v>0.237103</v>
+        <v>0.237071</v>
       </c>
       <c r="D21" t="n">
-        <v>0.209517</v>
+        <v>0.209221</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.240166</v>
+        <v>0.240965</v>
       </c>
       <c r="C22" t="n">
-        <v>0.237139</v>
+        <v>0.237717</v>
       </c>
       <c r="D22" t="n">
-        <v>0.208951</v>
+        <v>0.20941</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.226003</v>
+        <v>0.22655</v>
       </c>
       <c r="C23" t="n">
-        <v>0.237882</v>
+        <v>0.237592</v>
       </c>
       <c r="D23" t="n">
-        <v>0.225865</v>
+        <v>0.224128</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348073</v>
+        <v>0.349351</v>
       </c>
       <c r="C24" t="n">
-        <v>0.255921</v>
+        <v>0.254626</v>
       </c>
       <c r="D24" t="n">
-        <v>0.224626</v>
+        <v>0.222194</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342108</v>
+        <v>0.342561</v>
       </c>
       <c r="C25" t="n">
-        <v>0.254085</v>
+        <v>0.253173</v>
       </c>
       <c r="D25" t="n">
-        <v>0.223018</v>
+        <v>0.220939</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.336177</v>
+        <v>0.337132</v>
       </c>
       <c r="C26" t="n">
-        <v>0.251562</v>
+        <v>0.250855</v>
       </c>
       <c r="D26" t="n">
-        <v>0.22197</v>
+        <v>0.220101</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328802</v>
+        <v>0.329323</v>
       </c>
       <c r="C27" t="n">
-        <v>0.249139</v>
+        <v>0.249452</v>
       </c>
       <c r="D27" t="n">
-        <v>0.219035</v>
+        <v>0.218473</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.321958</v>
+        <v>0.322558</v>
       </c>
       <c r="C28" t="n">
-        <v>0.246707</v>
+        <v>0.247452</v>
       </c>
       <c r="D28" t="n">
-        <v>0.217412</v>
+        <v>0.217125</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.314438</v>
+        <v>0.315217</v>
       </c>
       <c r="C29" t="n">
-        <v>0.246023</v>
+        <v>0.246715</v>
       </c>
       <c r="D29" t="n">
-        <v>0.216949</v>
+        <v>0.216019</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.306815</v>
+        <v>0.306869</v>
       </c>
       <c r="C30" t="n">
-        <v>0.244734</v>
+        <v>0.245396</v>
       </c>
       <c r="D30" t="n">
-        <v>0.215518</v>
+        <v>0.214992</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.29859</v>
+        <v>0.29809</v>
       </c>
       <c r="C31" t="n">
-        <v>0.243667</v>
+        <v>0.244116</v>
       </c>
       <c r="D31" t="n">
-        <v>0.214943</v>
+        <v>0.214361</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.289148</v>
+        <v>0.290227</v>
       </c>
       <c r="C32" t="n">
-        <v>0.24396</v>
+        <v>0.244073</v>
       </c>
       <c r="D32" t="n">
-        <v>0.214582</v>
+        <v>0.213813</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.27949</v>
+        <v>0.279798</v>
       </c>
       <c r="C33" t="n">
-        <v>0.24281</v>
+        <v>0.242933</v>
       </c>
       <c r="D33" t="n">
-        <v>0.214577</v>
+        <v>0.213518</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.269282</v>
+        <v>0.269375</v>
       </c>
       <c r="C34" t="n">
-        <v>0.241385</v>
+        <v>0.242061</v>
       </c>
       <c r="D34" t="n">
-        <v>0.213621</v>
+        <v>0.212905</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.258095</v>
+        <v>0.258565</v>
       </c>
       <c r="C35" t="n">
-        <v>0.241943</v>
+        <v>0.242355</v>
       </c>
       <c r="D35" t="n">
-        <v>0.213091</v>
+        <v>0.212796</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244553</v>
+        <v>0.24512</v>
       </c>
       <c r="C36" t="n">
-        <v>0.241592</v>
+        <v>0.241815</v>
       </c>
       <c r="D36" t="n">
-        <v>0.213889</v>
+        <v>0.212236</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.230996</v>
+        <v>0.231231</v>
       </c>
       <c r="C37" t="n">
-        <v>0.241341</v>
+        <v>0.241474</v>
       </c>
       <c r="D37" t="n">
-        <v>0.228653</v>
+        <v>0.226785</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3495</v>
+        <v>0.349823</v>
       </c>
       <c r="C38" t="n">
-        <v>0.262477</v>
+        <v>0.261164</v>
       </c>
       <c r="D38" t="n">
-        <v>0.225279</v>
+        <v>0.224109</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.34441</v>
+        <v>0.345031</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2582</v>
+        <v>0.257614</v>
       </c>
       <c r="D39" t="n">
-        <v>0.223572</v>
+        <v>0.222456</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.338542</v>
+        <v>0.338589</v>
       </c>
       <c r="C40" t="n">
-        <v>0.255341</v>
+        <v>0.254711</v>
       </c>
       <c r="D40" t="n">
-        <v>0.221645</v>
+        <v>0.220835</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.331973</v>
+        <v>0.332087</v>
       </c>
       <c r="C41" t="n">
-        <v>0.252021</v>
+        <v>0.251544</v>
       </c>
       <c r="D41" t="n">
-        <v>0.219317</v>
+        <v>0.219079</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.325128</v>
+        <v>0.325223</v>
       </c>
       <c r="C42" t="n">
-        <v>0.250506</v>
+        <v>0.250635</v>
       </c>
       <c r="D42" t="n">
-        <v>0.218811</v>
+        <v>0.218027</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.31756</v>
+        <v>0.317226</v>
       </c>
       <c r="C43" t="n">
-        <v>0.249227</v>
+        <v>0.24913</v>
       </c>
       <c r="D43" t="n">
-        <v>0.217379</v>
+        <v>0.216647</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.310239</v>
+        <v>0.309702</v>
       </c>
       <c r="C44" t="n">
-        <v>0.247689</v>
+        <v>0.247929</v>
       </c>
       <c r="D44" t="n">
-        <v>0.21608</v>
+        <v>0.215639</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.30152</v>
+        <v>0.300578</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246242</v>
+        <v>0.246624</v>
       </c>
       <c r="D45" t="n">
-        <v>0.215422</v>
+        <v>0.214582</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.292742</v>
+        <v>0.292184</v>
       </c>
       <c r="C46" t="n">
-        <v>0.245634</v>
+        <v>0.245693</v>
       </c>
       <c r="D46" t="n">
-        <v>0.214665</v>
+        <v>0.21436</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.283277</v>
+        <v>0.2827</v>
       </c>
       <c r="C47" t="n">
-        <v>0.244502</v>
+        <v>0.244945</v>
       </c>
       <c r="D47" t="n">
-        <v>0.214256</v>
+        <v>0.21374</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.272812</v>
+        <v>0.272384</v>
       </c>
       <c r="C48" t="n">
-        <v>0.243384</v>
+        <v>0.243747</v>
       </c>
       <c r="D48" t="n">
-        <v>0.213774</v>
+        <v>0.21373</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.261936</v>
+        <v>0.261285</v>
       </c>
       <c r="C49" t="n">
-        <v>0.242863</v>
+        <v>0.243434</v>
       </c>
       <c r="D49" t="n">
-        <v>0.213127</v>
+        <v>0.213414</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.249468</v>
+        <v>0.249272</v>
       </c>
       <c r="C50" t="n">
-        <v>0.242631</v>
+        <v>0.243253</v>
       </c>
       <c r="D50" t="n">
-        <v>0.212846</v>
+        <v>0.213941</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.235543</v>
+        <v>0.235278</v>
       </c>
       <c r="C51" t="n">
-        <v>0.242302</v>
+        <v>0.24228</v>
       </c>
       <c r="D51" t="n">
-        <v>0.227291</v>
+        <v>0.225908</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.220709</v>
+        <v>0.220231</v>
       </c>
       <c r="C52" t="n">
-        <v>0.241531</v>
+        <v>0.24131</v>
       </c>
       <c r="D52" t="n">
-        <v>0.224712</v>
+        <v>0.223782</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.346978</v>
+        <v>0.347586</v>
       </c>
       <c r="C53" t="n">
-        <v>0.258907</v>
+        <v>0.25745</v>
       </c>
       <c r="D53" t="n">
-        <v>0.222636</v>
+        <v>0.222193</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.341449</v>
+        <v>0.341367</v>
       </c>
       <c r="C54" t="n">
-        <v>0.25523</v>
+        <v>0.254605</v>
       </c>
       <c r="D54" t="n">
-        <v>0.221207</v>
+        <v>0.220741</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.335466</v>
+        <v>0.335232</v>
       </c>
       <c r="C55" t="n">
-        <v>0.252313</v>
+        <v>0.252016</v>
       </c>
       <c r="D55" t="n">
-        <v>0.219848</v>
+        <v>0.21944</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.328183</v>
+        <v>0.327718</v>
       </c>
       <c r="C56" t="n">
-        <v>0.250471</v>
+        <v>0.250615</v>
       </c>
       <c r="D56" t="n">
-        <v>0.218527</v>
+        <v>0.218317</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.321137</v>
+        <v>0.320621</v>
       </c>
       <c r="C57" t="n">
-        <v>0.249189</v>
+        <v>0.24929</v>
       </c>
       <c r="D57" t="n">
-        <v>0.217384</v>
+        <v>0.21719</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.313706</v>
+        <v>0.313285</v>
       </c>
       <c r="C58" t="n">
-        <v>0.247717</v>
+        <v>0.247836</v>
       </c>
       <c r="D58" t="n">
-        <v>0.216795</v>
+        <v>0.216578</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.305122</v>
+        <v>0.304649</v>
       </c>
       <c r="C59" t="n">
-        <v>0.246742</v>
+        <v>0.246774</v>
       </c>
       <c r="D59" t="n">
-        <v>0.215938</v>
+        <v>0.215556</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.2957</v>
+        <v>0.294853</v>
       </c>
       <c r="C60" t="n">
-        <v>0.245745</v>
+        <v>0.245709</v>
       </c>
       <c r="D60" t="n">
-        <v>0.214858</v>
+        <v>0.214706</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.286013</v>
+        <v>0.285374</v>
       </c>
       <c r="C61" t="n">
-        <v>0.245273</v>
+        <v>0.245179</v>
       </c>
       <c r="D61" t="n">
-        <v>0.214816</v>
+        <v>0.214261</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.275577</v>
+        <v>0.274836</v>
       </c>
       <c r="C62" t="n">
-        <v>0.244052</v>
+        <v>0.244231</v>
       </c>
       <c r="D62" t="n">
-        <v>0.214199</v>
+        <v>0.213616</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263864</v>
+        <v>0.263536</v>
       </c>
       <c r="C63" t="n">
-        <v>0.243107</v>
+        <v>0.243358</v>
       </c>
       <c r="D63" t="n">
-        <v>0.213406</v>
+        <v>0.213233</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.251766</v>
+        <v>0.250965</v>
       </c>
       <c r="C64" t="n">
-        <v>0.242878</v>
+        <v>0.243107</v>
       </c>
       <c r="D64" t="n">
-        <v>0.212939</v>
+        <v>0.212801</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.238487</v>
+        <v>0.237943</v>
       </c>
       <c r="C65" t="n">
-        <v>0.242073</v>
+        <v>0.242256</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2126</v>
+        <v>0.212505</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.223968</v>
+        <v>0.223598</v>
       </c>
       <c r="C66" t="n">
-        <v>0.241589</v>
+        <v>0.241565</v>
       </c>
       <c r="D66" t="n">
-        <v>0.22634</v>
+        <v>0.225008</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.349021</v>
+        <v>0.349275</v>
       </c>
       <c r="C67" t="n">
-        <v>0.261724</v>
+        <v>0.259461</v>
       </c>
       <c r="D67" t="n">
-        <v>0.224176</v>
+        <v>0.222953</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.343029</v>
+        <v>0.343127</v>
       </c>
       <c r="C68" t="n">
-        <v>0.256421</v>
+        <v>0.255608</v>
       </c>
       <c r="D68" t="n">
-        <v>0.222015</v>
+        <v>0.221199</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.33709</v>
+        <v>0.337229</v>
       </c>
       <c r="C69" t="n">
-        <v>0.253419</v>
+        <v>0.252784</v>
       </c>
       <c r="D69" t="n">
-        <v>0.220436</v>
+        <v>0.219822</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.330431</v>
+        <v>0.330166</v>
       </c>
       <c r="C70" t="n">
-        <v>0.251326</v>
+        <v>0.250965</v>
       </c>
       <c r="D70" t="n">
-        <v>0.219285</v>
+        <v>0.218706</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.323269</v>
+        <v>0.322714</v>
       </c>
       <c r="C71" t="n">
-        <v>0.249832</v>
+        <v>0.24958</v>
       </c>
       <c r="D71" t="n">
-        <v>0.218126</v>
+        <v>0.21778</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.315677</v>
+        <v>0.315366</v>
       </c>
       <c r="C72" t="n">
-        <v>0.248109</v>
+        <v>0.24825</v>
       </c>
       <c r="D72" t="n">
-        <v>0.216997</v>
+        <v>0.216665</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.307899</v>
+        <v>0.306977</v>
       </c>
       <c r="C73" t="n">
-        <v>0.247036</v>
+        <v>0.246966</v>
       </c>
       <c r="D73" t="n">
-        <v>0.216038</v>
+        <v>0.215479</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.299031</v>
+        <v>0.298372</v>
       </c>
       <c r="C74" t="n">
-        <v>0.245804</v>
+        <v>0.246007</v>
       </c>
       <c r="D74" t="n">
-        <v>0.214999</v>
+        <v>0.214535</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.289411</v>
+        <v>0.288934</v>
       </c>
       <c r="C75" t="n">
-        <v>0.245002</v>
+        <v>0.245233</v>
       </c>
       <c r="D75" t="n">
-        <v>0.214541</v>
+        <v>0.214204</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.279223</v>
+        <v>0.278778</v>
       </c>
       <c r="C76" t="n">
-        <v>0.244353</v>
+        <v>0.244309</v>
       </c>
       <c r="D76" t="n">
-        <v>0.213705</v>
+        <v>0.213522</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.267907</v>
+        <v>0.267552</v>
       </c>
       <c r="C77" t="n">
-        <v>0.243309</v>
+        <v>0.243304</v>
       </c>
       <c r="D77" t="n">
-        <v>0.213456</v>
+        <v>0.213104</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.255473</v>
+        <v>0.255036</v>
       </c>
       <c r="C78" t="n">
-        <v>0.242406</v>
+        <v>0.242336</v>
       </c>
       <c r="D78" t="n">
-        <v>0.212775</v>
+        <v>0.212727</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.242302</v>
+        <v>0.241949</v>
       </c>
       <c r="C79" t="n">
-        <v>0.242074</v>
+        <v>0.24209</v>
       </c>
       <c r="D79" t="n">
-        <v>0.212465</v>
+        <v>0.212607</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227986</v>
+        <v>0.22741</v>
       </c>
       <c r="C80" t="n">
-        <v>0.241587</v>
+        <v>0.241716</v>
       </c>
       <c r="D80" t="n">
-        <v>0.227302</v>
+        <v>0.225519</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.350357</v>
+        <v>0.350815</v>
       </c>
       <c r="C81" t="n">
-        <v>0.262082</v>
+        <v>0.258879</v>
       </c>
       <c r="D81" t="n">
-        <v>0.22493</v>
+        <v>0.223471</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.34502</v>
+        <v>0.344551</v>
       </c>
       <c r="C82" t="n">
-        <v>0.257098</v>
+        <v>0.2554</v>
       </c>
       <c r="D82" t="n">
-        <v>0.222867</v>
+        <v>0.221804</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.338831</v>
+        <v>0.33819</v>
       </c>
       <c r="C83" t="n">
-        <v>0.253804</v>
+        <v>0.252949</v>
       </c>
       <c r="D83" t="n">
-        <v>0.221109</v>
+        <v>0.220166</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.33256</v>
+        <v>0.331909</v>
       </c>
       <c r="C84" t="n">
-        <v>0.251456</v>
+        <v>0.250898</v>
       </c>
       <c r="D84" t="n">
-        <v>0.219629</v>
+        <v>0.218883</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.325194</v>
+        <v>0.324721</v>
       </c>
       <c r="C85" t="n">
-        <v>0.250048</v>
+        <v>0.249558</v>
       </c>
       <c r="D85" t="n">
-        <v>0.218395</v>
+        <v>0.217737</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.317597</v>
+        <v>0.316763</v>
       </c>
       <c r="C86" t="n">
-        <v>0.248631</v>
+        <v>0.248379</v>
       </c>
       <c r="D86" t="n">
-        <v>0.217134</v>
+        <v>0.216716</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.30984</v>
+        <v>0.308622</v>
       </c>
       <c r="C87" t="n">
-        <v>0.24735</v>
+        <v>0.247189</v>
       </c>
       <c r="D87" t="n">
-        <v>0.216235</v>
+        <v>0.215919</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300875</v>
+        <v>0.299932</v>
       </c>
       <c r="C88" t="n">
-        <v>0.246544</v>
+        <v>0.24651</v>
       </c>
       <c r="D88" t="n">
-        <v>0.215396</v>
+        <v>0.215137</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.291457</v>
+        <v>0.290615</v>
       </c>
       <c r="C89" t="n">
-        <v>0.245469</v>
+        <v>0.245572</v>
       </c>
       <c r="D89" t="n">
-        <v>0.214535</v>
+        <v>0.214406</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.281592</v>
+        <v>0.28053</v>
       </c>
       <c r="C90" t="n">
-        <v>0.244667</v>
+        <v>0.244733</v>
       </c>
       <c r="D90" t="n">
-        <v>0.214039</v>
+        <v>0.213786</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.270832</v>
+        <v>0.269731</v>
       </c>
       <c r="C91" t="n">
-        <v>0.243809</v>
+        <v>0.243887</v>
       </c>
       <c r="D91" t="n">
-        <v>0.213329</v>
+        <v>0.213205</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.258965</v>
+        <v>0.258069</v>
       </c>
       <c r="C92" t="n">
-        <v>0.24315</v>
+        <v>0.243201</v>
       </c>
       <c r="D92" t="n">
-        <v>0.212847</v>
+        <v>0.212875</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.245442</v>
+        <v>0.24491</v>
       </c>
       <c r="C93" t="n">
-        <v>0.242512</v>
+        <v>0.242602</v>
       </c>
       <c r="D93" t="n">
-        <v>0.212658</v>
+        <v>0.212714</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.231364</v>
+        <v>0.231422</v>
       </c>
       <c r="C94" t="n">
-        <v>0.242153</v>
+        <v>0.24215</v>
       </c>
       <c r="D94" t="n">
-        <v>0.2272</v>
+        <v>0.226303</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.352442</v>
+        <v>0.351932</v>
       </c>
       <c r="C95" t="n">
-        <v>0.261672</v>
+        <v>0.259645</v>
       </c>
       <c r="D95" t="n">
-        <v>0.224546</v>
+        <v>0.223865</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.346338</v>
+        <v>0.346023</v>
       </c>
       <c r="C96" t="n">
-        <v>0.257311</v>
+        <v>0.256255</v>
       </c>
       <c r="D96" t="n">
-        <v>0.222704</v>
+        <v>0.222034</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.340379</v>
+        <v>0.340162</v>
       </c>
       <c r="C97" t="n">
-        <v>0.254216</v>
+        <v>0.253624</v>
       </c>
       <c r="D97" t="n">
-        <v>0.221069</v>
+        <v>0.220483</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.333966</v>
+        <v>0.333615</v>
       </c>
       <c r="C98" t="n">
-        <v>0.251814</v>
+        <v>0.251407</v>
       </c>
       <c r="D98" t="n">
-        <v>0.219773</v>
+        <v>0.219321</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.327012</v>
+        <v>0.326246</v>
       </c>
       <c r="C99" t="n">
-        <v>0.250434</v>
+        <v>0.250204</v>
       </c>
       <c r="D99" t="n">
-        <v>0.21853</v>
+        <v>0.217965</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.319702</v>
+        <v>0.318878</v>
       </c>
       <c r="C100" t="n">
-        <v>0.248958</v>
+        <v>0.248712</v>
       </c>
       <c r="D100" t="n">
-        <v>0.217343</v>
+        <v>0.216927</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.311805</v>
+        <v>0.310852</v>
       </c>
       <c r="C101" t="n">
-        <v>0.247733</v>
+        <v>0.247692</v>
       </c>
       <c r="D101" t="n">
-        <v>0.216437</v>
+        <v>0.216021</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.303103</v>
+        <v>0.301992</v>
       </c>
       <c r="C102" t="n">
-        <v>0.24669</v>
+        <v>0.246695</v>
       </c>
       <c r="D102" t="n">
-        <v>0.215582</v>
+        <v>0.215321</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.293848</v>
+        <v>0.293017</v>
       </c>
       <c r="C103" t="n">
-        <v>0.245783</v>
+        <v>0.245887</v>
       </c>
       <c r="D103" t="n">
-        <v>0.214866</v>
+        <v>0.214618</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.284006</v>
+        <v>0.283233</v>
       </c>
       <c r="C104" t="n">
-        <v>0.244884</v>
+        <v>0.24497</v>
       </c>
       <c r="D104" t="n">
-        <v>0.214203</v>
+        <v>0.213949</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.273229</v>
+        <v>0.272776</v>
       </c>
       <c r="C105" t="n">
-        <v>0.244022</v>
+        <v>0.24408</v>
       </c>
       <c r="D105" t="n">
-        <v>0.213545</v>
+        <v>0.213462</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.261137</v>
+        <v>0.260598</v>
       </c>
       <c r="C106" t="n">
-        <v>0.243138</v>
+        <v>0.243305</v>
       </c>
       <c r="D106" t="n">
-        <v>0.212837</v>
+        <v>0.212856</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.24865</v>
+        <v>0.24766</v>
       </c>
       <c r="C107" t="n">
-        <v>0.242581</v>
+        <v>0.24276</v>
       </c>
       <c r="D107" t="n">
-        <v>0.212448</v>
+        <v>0.212654</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.234736</v>
+        <v>0.233907</v>
       </c>
       <c r="C108" t="n">
-        <v>0.241985</v>
+        <v>0.242095</v>
       </c>
       <c r="D108" t="n">
-        <v>0.227266</v>
+        <v>0.226556</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.219744</v>
+        <v>0.219622</v>
       </c>
       <c r="C109" t="n">
-        <v>0.241631</v>
+        <v>0.241661</v>
       </c>
       <c r="D109" t="n">
-        <v>0.225092</v>
+        <v>0.224147</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.348066</v>
+        <v>0.347458</v>
       </c>
       <c r="C110" t="n">
-        <v>0.257221</v>
+        <v>0.256386</v>
       </c>
       <c r="D110" t="n">
-        <v>0.223247</v>
+        <v>0.222294</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.342418</v>
+        <v>0.341457</v>
       </c>
       <c r="C111" t="n">
-        <v>0.254272</v>
+        <v>0.253817</v>
       </c>
       <c r="D111" t="n">
-        <v>0.221763</v>
+        <v>0.220769</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.335798</v>
+        <v>0.334819</v>
       </c>
       <c r="C112" t="n">
-        <v>0.251972</v>
+        <v>0.251723</v>
       </c>
       <c r="D112" t="n">
-        <v>0.220197</v>
+        <v>0.21955</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.329095</v>
+        <v>0.328131</v>
       </c>
       <c r="C113" t="n">
-        <v>0.250367</v>
+        <v>0.249802</v>
       </c>
       <c r="D113" t="n">
-        <v>0.219431</v>
+        <v>0.218143</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.321516</v>
+        <v>0.320449</v>
       </c>
       <c r="C114" t="n">
-        <v>0.249291</v>
+        <v>0.249119</v>
       </c>
       <c r="D114" t="n">
-        <v>0.217866</v>
+        <v>0.217259</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313289</v>
+        <v>0.312541</v>
       </c>
       <c r="C115" t="n">
-        <v>0.247995</v>
+        <v>0.247906</v>
       </c>
       <c r="D115" t="n">
-        <v>0.216972</v>
+        <v>0.216629</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.305062</v>
+        <v>0.304065</v>
       </c>
       <c r="C116" t="n">
-        <v>0.247243</v>
+        <v>0.247071</v>
       </c>
       <c r="D116" t="n">
-        <v>0.216247</v>
+        <v>0.215137</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.296156</v>
+        <v>0.295471</v>
       </c>
       <c r="C117" t="n">
-        <v>0.246237</v>
+        <v>0.245763</v>
       </c>
       <c r="D117" t="n">
-        <v>0.215533</v>
+        <v>0.214726</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.286328</v>
+        <v>0.285564</v>
       </c>
       <c r="C118" t="n">
-        <v>0.245231</v>
+        <v>0.245161</v>
       </c>
       <c r="D118" t="n">
-        <v>0.21485</v>
+        <v>0.214275</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.275499</v>
+        <v>0.2749</v>
       </c>
       <c r="C119" t="n">
-        <v>0.244716</v>
+        <v>0.244075</v>
       </c>
       <c r="D119" t="n">
-        <v>0.215212</v>
+        <v>0.21398</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.26417</v>
+        <v>0.263453</v>
       </c>
       <c r="C120" t="n">
-        <v>0.243615</v>
+        <v>0.243614</v>
       </c>
       <c r="D120" t="n">
-        <v>0.214168</v>
+        <v>0.213207</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.251898</v>
+        <v>0.250937</v>
       </c>
       <c r="C121" t="n">
-        <v>0.242909</v>
+        <v>0.242859</v>
       </c>
       <c r="D121" t="n">
-        <v>0.214059</v>
+        <v>0.213679</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.238019</v>
+        <v>0.237479</v>
       </c>
       <c r="C122" t="n">
-        <v>0.24258</v>
+        <v>0.242503</v>
       </c>
       <c r="D122" t="n">
-        <v>0.213537</v>
+        <v>0.212906</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.22444</v>
+        <v>0.222766</v>
       </c>
       <c r="C123" t="n">
-        <v>0.242141</v>
+        <v>0.241867</v>
       </c>
       <c r="D123" t="n">
-        <v>0.226416</v>
+        <v>0.226283</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.349513</v>
+        <v>0.349291</v>
       </c>
       <c r="C124" t="n">
-        <v>0.258545</v>
+        <v>0.257463</v>
       </c>
       <c r="D124" t="n">
-        <v>0.223371</v>
+        <v>0.22395</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.343744</v>
+        <v>0.342953</v>
       </c>
       <c r="C125" t="n">
-        <v>0.254611</v>
+        <v>0.254201</v>
       </c>
       <c r="D125" t="n">
-        <v>0.222205</v>
+        <v>0.221952</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.337593</v>
+        <v>0.336783</v>
       </c>
       <c r="C126" t="n">
-        <v>0.252498</v>
+        <v>0.251943</v>
       </c>
       <c r="D126" t="n">
-        <v>0.221337</v>
+        <v>0.220425</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.330685</v>
+        <v>0.330131</v>
       </c>
       <c r="C127" t="n">
-        <v>0.250608</v>
+        <v>0.250422</v>
       </c>
       <c r="D127" t="n">
-        <v>0.21979</v>
+        <v>0.219179</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.323365</v>
+        <v>0.322279</v>
       </c>
       <c r="C128" t="n">
-        <v>0.248732</v>
+        <v>0.24897</v>
       </c>
       <c r="D128" t="n">
-        <v>0.218418</v>
+        <v>0.219099</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315457</v>
+        <v>0.314474</v>
       </c>
       <c r="C129" t="n">
-        <v>0.247528</v>
+        <v>0.247451</v>
       </c>
       <c r="D129" t="n">
-        <v>0.218356</v>
+        <v>0.216868</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.307259</v>
+        <v>0.306043</v>
       </c>
       <c r="C130" t="n">
-        <v>0.246659</v>
+        <v>0.24634</v>
       </c>
       <c r="D130" t="n">
-        <v>0.21699</v>
+        <v>0.216435</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.298419</v>
+        <v>0.297053</v>
       </c>
       <c r="C131" t="n">
-        <v>0.245768</v>
+        <v>0.245308</v>
       </c>
       <c r="D131" t="n">
-        <v>0.216037</v>
+        <v>0.215993</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.288528</v>
+        <v>0.28791</v>
       </c>
       <c r="C132" t="n">
-        <v>0.244804</v>
+        <v>0.244669</v>
       </c>
       <c r="D132" t="n">
-        <v>0.214992</v>
+        <v>0.214615</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.27773</v>
+        <v>0.27761</v>
       </c>
       <c r="C133" t="n">
-        <v>0.243512</v>
+        <v>0.243985</v>
       </c>
       <c r="D133" t="n">
-        <v>0.215096</v>
+        <v>0.213786</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.26705</v>
+        <v>0.266135</v>
       </c>
       <c r="C134" t="n">
-        <v>0.243472</v>
+        <v>0.243233</v>
       </c>
       <c r="D134" t="n">
-        <v>0.214678</v>
+        <v>0.213646</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.254931</v>
+        <v>0.253854</v>
       </c>
       <c r="C135" t="n">
-        <v>0.242932</v>
+        <v>0.243141</v>
       </c>
       <c r="D135" t="n">
-        <v>0.214166</v>
+        <v>0.215741</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.241224</v>
+        <v>0.240778</v>
       </c>
       <c r="C136" t="n">
-        <v>0.242204</v>
+        <v>0.242067</v>
       </c>
       <c r="D136" t="n">
-        <v>0.214365</v>
+        <v>0.21366</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.226912</v>
+        <v>0.226075</v>
       </c>
       <c r="C137" t="n">
-        <v>0.242239</v>
+        <v>0.241803</v>
       </c>
       <c r="D137" t="n">
-        <v>0.227932</v>
+        <v>0.228331</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.351048</v>
+        <v>0.350772</v>
       </c>
       <c r="C138" t="n">
-        <v>0.259828</v>
+        <v>0.259077</v>
       </c>
       <c r="D138" t="n">
-        <v>0.227326</v>
+        <v>0.226263</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.345605</v>
+        <v>0.344538</v>
       </c>
       <c r="C139" t="n">
-        <v>0.256059</v>
+        <v>0.255782</v>
       </c>
       <c r="D139" t="n">
-        <v>0.224446</v>
+        <v>0.226256</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.339112</v>
+        <v>0.338348</v>
       </c>
       <c r="C140" t="n">
-        <v>0.252895</v>
+        <v>0.252703</v>
       </c>
       <c r="D140" t="n">
-        <v>0.224221</v>
+        <v>0.22268</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.332249</v>
+        <v>0.331706</v>
       </c>
       <c r="C141" t="n">
-        <v>0.251628</v>
+        <v>0.251832</v>
       </c>
       <c r="D141" t="n">
-        <v>0.222654</v>
+        <v>0.222743</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.325097</v>
+        <v>0.324704</v>
       </c>
       <c r="C142" t="n">
-        <v>0.250829</v>
+        <v>0.25005</v>
       </c>
       <c r="D142" t="n">
-        <v>0.22125</v>
+        <v>0.22168</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.31725</v>
+        <v>0.316412</v>
       </c>
       <c r="C143" t="n">
-        <v>0.248436</v>
+        <v>0.248853</v>
       </c>
       <c r="D143" t="n">
-        <v>0.221105</v>
+        <v>0.219834</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.299042</v>
+        <v>0.298072</v>
       </c>
       <c r="C2" t="n">
-        <v>0.223932</v>
+        <v>0.223512</v>
       </c>
       <c r="D2" t="n">
-        <v>0.197762</v>
+        <v>0.199099</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.289435</v>
+        <v>0.290276</v>
       </c>
       <c r="C3" t="n">
-        <v>0.224807</v>
+        <v>0.224091</v>
       </c>
       <c r="D3" t="n">
-        <v>0.199162</v>
+        <v>0.198786</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.278701</v>
+        <v>0.280945</v>
       </c>
       <c r="C4" t="n">
-        <v>0.224813</v>
+        <v>0.225129</v>
       </c>
       <c r="D4" t="n">
-        <v>0.20087</v>
+        <v>0.201476</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.270989</v>
+        <v>0.270336</v>
       </c>
       <c r="C5" t="n">
-        <v>0.223968</v>
+        <v>0.224765</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200475</v>
+        <v>0.200388</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.260232</v>
+        <v>0.257588</v>
       </c>
       <c r="C6" t="n">
-        <v>0.225884</v>
+        <v>0.226856</v>
       </c>
       <c r="D6" t="n">
-        <v>0.200898</v>
+        <v>0.201485</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.24394</v>
+        <v>0.244273</v>
       </c>
       <c r="C7" t="n">
-        <v>0.225287</v>
+        <v>0.22669</v>
       </c>
       <c r="D7" t="n">
-        <v>0.202852</v>
+        <v>0.201902</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.231608</v>
+        <v>0.230773</v>
       </c>
       <c r="C8" t="n">
-        <v>0.226677</v>
+        <v>0.226292</v>
       </c>
       <c r="D8" t="n">
-        <v>0.202381</v>
+        <v>0.20218</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.218836</v>
+        <v>0.218552</v>
       </c>
       <c r="C9" t="n">
-        <v>0.226512</v>
+        <v>0.226517</v>
       </c>
       <c r="D9" t="n">
-        <v>0.218241</v>
+        <v>0.229948</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.345091</v>
+        <v>0.345</v>
       </c>
       <c r="C10" t="n">
-        <v>0.246447</v>
+        <v>0.245455</v>
       </c>
       <c r="D10" t="n">
-        <v>0.217392</v>
+        <v>0.216757</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.342798</v>
+        <v>0.339712</v>
       </c>
       <c r="C11" t="n">
-        <v>0.245036</v>
+        <v>0.24492</v>
       </c>
       <c r="D11" t="n">
-        <v>0.216032</v>
+        <v>0.214715</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.337595</v>
+        <v>0.332538</v>
       </c>
       <c r="C12" t="n">
-        <v>0.243017</v>
+        <v>0.242569</v>
       </c>
       <c r="D12" t="n">
-        <v>0.215258</v>
+        <v>0.214754</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.329201</v>
+        <v>0.326525</v>
       </c>
       <c r="C13" t="n">
-        <v>0.241542</v>
+        <v>0.241772</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212208</v>
+        <v>0.212601</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.321845</v>
+        <v>0.32001</v>
       </c>
       <c r="C14" t="n">
-        <v>0.239312</v>
+        <v>0.239813</v>
       </c>
       <c r="D14" t="n">
-        <v>0.212326</v>
+        <v>0.21213</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.314365</v>
+        <v>0.312367</v>
       </c>
       <c r="C15" t="n">
-        <v>0.238654</v>
+        <v>0.238598</v>
       </c>
       <c r="D15" t="n">
-        <v>0.211021</v>
+        <v>0.210481</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.306707</v>
+        <v>0.304207</v>
       </c>
       <c r="C16" t="n">
-        <v>0.239608</v>
+        <v>0.238919</v>
       </c>
       <c r="D16" t="n">
-        <v>0.210126</v>
+        <v>0.20979</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.297818</v>
+        <v>0.298133</v>
       </c>
       <c r="C17" t="n">
-        <v>0.239382</v>
+        <v>0.238752</v>
       </c>
       <c r="D17" t="n">
-        <v>0.210941</v>
+        <v>0.209933</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.287286</v>
+        <v>0.287623</v>
       </c>
       <c r="C18" t="n">
-        <v>0.239569</v>
+        <v>0.239062</v>
       </c>
       <c r="D18" t="n">
-        <v>0.210215</v>
+        <v>0.209118</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.276818</v>
+        <v>0.276334</v>
       </c>
       <c r="C19" t="n">
-        <v>0.238358</v>
+        <v>0.237537</v>
       </c>
       <c r="D19" t="n">
-        <v>0.209204</v>
+        <v>0.208835</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.265554</v>
+        <v>0.265963</v>
       </c>
       <c r="C20" t="n">
-        <v>0.237757</v>
+        <v>0.237262</v>
       </c>
       <c r="D20" t="n">
-        <v>0.209654</v>
+        <v>0.217902</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.255115</v>
+        <v>0.254512</v>
       </c>
       <c r="C21" t="n">
-        <v>0.237071</v>
+        <v>0.23703</v>
       </c>
       <c r="D21" t="n">
-        <v>0.209221</v>
+        <v>0.209357</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.240965</v>
+        <v>0.240572</v>
       </c>
       <c r="C22" t="n">
-        <v>0.237717</v>
+        <v>0.236924</v>
       </c>
       <c r="D22" t="n">
-        <v>0.20941</v>
+        <v>0.208562</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.22655</v>
+        <v>0.226363</v>
       </c>
       <c r="C23" t="n">
-        <v>0.237592</v>
+        <v>0.237372</v>
       </c>
       <c r="D23" t="n">
-        <v>0.224128</v>
+        <v>0.224225</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.349351</v>
+        <v>0.348824</v>
       </c>
       <c r="C24" t="n">
-        <v>0.254626</v>
+        <v>0.254729</v>
       </c>
       <c r="D24" t="n">
-        <v>0.222194</v>
+        <v>0.222284</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342561</v>
+        <v>0.342237</v>
       </c>
       <c r="C25" t="n">
-        <v>0.253173</v>
+        <v>0.252219</v>
       </c>
       <c r="D25" t="n">
-        <v>0.220939</v>
+        <v>0.220811</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.337132</v>
+        <v>0.336132</v>
       </c>
       <c r="C26" t="n">
-        <v>0.250855</v>
+        <v>0.250899</v>
       </c>
       <c r="D26" t="n">
-        <v>0.220101</v>
+        <v>0.219956</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.329323</v>
+        <v>0.328981</v>
       </c>
       <c r="C27" t="n">
-        <v>0.249452</v>
+        <v>0.24949</v>
       </c>
       <c r="D27" t="n">
-        <v>0.218473</v>
+        <v>0.218722</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.322558</v>
+        <v>0.32185</v>
       </c>
       <c r="C28" t="n">
-        <v>0.247452</v>
+        <v>0.247207</v>
       </c>
       <c r="D28" t="n">
-        <v>0.217125</v>
+        <v>0.217088</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.315217</v>
+        <v>0.314658</v>
       </c>
       <c r="C29" t="n">
-        <v>0.246715</v>
+        <v>0.246249</v>
       </c>
       <c r="D29" t="n">
-        <v>0.216019</v>
+        <v>0.216057</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.306869</v>
+        <v>0.306593</v>
       </c>
       <c r="C30" t="n">
-        <v>0.245396</v>
+        <v>0.244674</v>
       </c>
       <c r="D30" t="n">
-        <v>0.214992</v>
+        <v>0.214458</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.29809</v>
+        <v>0.297913</v>
       </c>
       <c r="C31" t="n">
-        <v>0.244116</v>
+        <v>0.243443</v>
       </c>
       <c r="D31" t="n">
-        <v>0.214361</v>
+        <v>0.214183</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.290227</v>
+        <v>0.288857</v>
       </c>
       <c r="C32" t="n">
-        <v>0.244073</v>
+        <v>0.243216</v>
       </c>
       <c r="D32" t="n">
-        <v>0.213813</v>
+        <v>0.213503</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.279798</v>
+        <v>0.279174</v>
       </c>
       <c r="C33" t="n">
-        <v>0.242933</v>
+        <v>0.242594</v>
       </c>
       <c r="D33" t="n">
-        <v>0.213518</v>
+        <v>0.212955</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.269375</v>
+        <v>0.268921</v>
       </c>
       <c r="C34" t="n">
-        <v>0.242061</v>
+        <v>0.241885</v>
       </c>
       <c r="D34" t="n">
-        <v>0.212905</v>
+        <v>0.212572</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.258565</v>
+        <v>0.25789</v>
       </c>
       <c r="C35" t="n">
-        <v>0.242355</v>
+        <v>0.242125</v>
       </c>
       <c r="D35" t="n">
-        <v>0.212796</v>
+        <v>0.212227</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.24512</v>
+        <v>0.244888</v>
       </c>
       <c r="C36" t="n">
-        <v>0.241815</v>
+        <v>0.241725</v>
       </c>
       <c r="D36" t="n">
-        <v>0.212236</v>
+        <v>0.211873</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.231231</v>
+        <v>0.230683</v>
       </c>
       <c r="C37" t="n">
-        <v>0.241474</v>
+        <v>0.241249</v>
       </c>
       <c r="D37" t="n">
-        <v>0.226785</v>
+        <v>0.226465</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.349823</v>
+        <v>0.349421</v>
       </c>
       <c r="C38" t="n">
-        <v>0.261164</v>
+        <v>0.260517</v>
       </c>
       <c r="D38" t="n">
-        <v>0.224109</v>
+        <v>0.223896</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.345031</v>
+        <v>0.344665</v>
       </c>
       <c r="C39" t="n">
-        <v>0.257614</v>
+        <v>0.257291</v>
       </c>
       <c r="D39" t="n">
-        <v>0.222456</v>
+        <v>0.221932</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.338589</v>
+        <v>0.33812</v>
       </c>
       <c r="C40" t="n">
-        <v>0.254711</v>
+        <v>0.25435</v>
       </c>
       <c r="D40" t="n">
-        <v>0.220835</v>
+        <v>0.220498</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.332087</v>
+        <v>0.331691</v>
       </c>
       <c r="C41" t="n">
-        <v>0.251544</v>
+        <v>0.251434</v>
       </c>
       <c r="D41" t="n">
-        <v>0.219079</v>
+        <v>0.218758</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.325223</v>
+        <v>0.324425</v>
       </c>
       <c r="C42" t="n">
-        <v>0.250635</v>
+        <v>0.250372</v>
       </c>
       <c r="D42" t="n">
-        <v>0.218027</v>
+        <v>0.217518</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.317226</v>
+        <v>0.316459</v>
       </c>
       <c r="C43" t="n">
-        <v>0.24913</v>
+        <v>0.248992</v>
       </c>
       <c r="D43" t="n">
-        <v>0.216647</v>
+        <v>0.216432</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.309702</v>
+        <v>0.308791</v>
       </c>
       <c r="C44" t="n">
-        <v>0.247929</v>
+        <v>0.247612</v>
       </c>
       <c r="D44" t="n">
-        <v>0.215639</v>
+        <v>0.21539</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300578</v>
+        <v>0.300302</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246624</v>
+        <v>0.246558</v>
       </c>
       <c r="D45" t="n">
-        <v>0.214582</v>
+        <v>0.214468</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.292184</v>
+        <v>0.291754</v>
       </c>
       <c r="C46" t="n">
-        <v>0.245693</v>
+        <v>0.245539</v>
       </c>
       <c r="D46" t="n">
-        <v>0.21436</v>
+        <v>0.214106</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.2827</v>
+        <v>0.282506</v>
       </c>
       <c r="C47" t="n">
-        <v>0.244945</v>
+        <v>0.244693</v>
       </c>
       <c r="D47" t="n">
-        <v>0.21374</v>
+        <v>0.213828</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.272384</v>
+        <v>0.272093</v>
       </c>
       <c r="C48" t="n">
-        <v>0.243747</v>
+        <v>0.243518</v>
       </c>
       <c r="D48" t="n">
-        <v>0.21373</v>
+        <v>0.213074</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.261285</v>
+        <v>0.261234</v>
       </c>
       <c r="C49" t="n">
-        <v>0.243434</v>
+        <v>0.243125</v>
       </c>
       <c r="D49" t="n">
-        <v>0.213414</v>
+        <v>0.212714</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.249272</v>
+        <v>0.248986</v>
       </c>
       <c r="C50" t="n">
-        <v>0.243253</v>
+        <v>0.242634</v>
       </c>
       <c r="D50" t="n">
-        <v>0.213941</v>
+        <v>0.213453</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.235278</v>
+        <v>0.235254</v>
       </c>
       <c r="C51" t="n">
-        <v>0.24228</v>
+        <v>0.241848</v>
       </c>
       <c r="D51" t="n">
-        <v>0.225908</v>
+        <v>0.225602</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.220231</v>
+        <v>0.219985</v>
       </c>
       <c r="C52" t="n">
-        <v>0.24131</v>
+        <v>0.241342</v>
       </c>
       <c r="D52" t="n">
-        <v>0.223782</v>
+        <v>0.223445</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.347586</v>
+        <v>0.346846</v>
       </c>
       <c r="C53" t="n">
-        <v>0.25745</v>
+        <v>0.257324</v>
       </c>
       <c r="D53" t="n">
-        <v>0.222193</v>
+        <v>0.221905</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.341367</v>
+        <v>0.340769</v>
       </c>
       <c r="C54" t="n">
-        <v>0.254605</v>
+        <v>0.254196</v>
       </c>
       <c r="D54" t="n">
-        <v>0.220741</v>
+        <v>0.220606</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.335232</v>
+        <v>0.334729</v>
       </c>
       <c r="C55" t="n">
-        <v>0.252016</v>
+        <v>0.251815</v>
       </c>
       <c r="D55" t="n">
-        <v>0.21944</v>
+        <v>0.219281</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.327718</v>
+        <v>0.327453</v>
       </c>
       <c r="C56" t="n">
-        <v>0.250615</v>
+        <v>0.250357</v>
       </c>
       <c r="D56" t="n">
-        <v>0.218317</v>
+        <v>0.218157</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.320621</v>
+        <v>0.320443</v>
       </c>
       <c r="C57" t="n">
-        <v>0.24929</v>
+        <v>0.24894</v>
       </c>
       <c r="D57" t="n">
-        <v>0.21719</v>
+        <v>0.217014</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.313285</v>
+        <v>0.312914</v>
       </c>
       <c r="C58" t="n">
-        <v>0.247836</v>
+        <v>0.247638</v>
       </c>
       <c r="D58" t="n">
-        <v>0.216578</v>
+        <v>0.216344</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304649</v>
+        <v>0.304111</v>
       </c>
       <c r="C59" t="n">
-        <v>0.246774</v>
+        <v>0.246521</v>
       </c>
       <c r="D59" t="n">
-        <v>0.215556</v>
+        <v>0.215328</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294853</v>
+        <v>0.294354</v>
       </c>
       <c r="C60" t="n">
-        <v>0.245709</v>
+        <v>0.245545</v>
       </c>
       <c r="D60" t="n">
-        <v>0.214706</v>
+        <v>0.214676</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.285374</v>
+        <v>0.284685</v>
       </c>
       <c r="C61" t="n">
-        <v>0.245179</v>
+        <v>0.24494</v>
       </c>
       <c r="D61" t="n">
-        <v>0.214261</v>
+        <v>0.214048</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.274836</v>
+        <v>0.274303</v>
       </c>
       <c r="C62" t="n">
-        <v>0.244231</v>
+        <v>0.244002</v>
       </c>
       <c r="D62" t="n">
-        <v>0.213616</v>
+        <v>0.213516</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263536</v>
+        <v>0.263261</v>
       </c>
       <c r="C63" t="n">
-        <v>0.243358</v>
+        <v>0.243041</v>
       </c>
       <c r="D63" t="n">
-        <v>0.213233</v>
+        <v>0.213059</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.250965</v>
+        <v>0.250803</v>
       </c>
       <c r="C64" t="n">
-        <v>0.243107</v>
+        <v>0.242713</v>
       </c>
       <c r="D64" t="n">
-        <v>0.212801</v>
+        <v>0.212395</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.237943</v>
+        <v>0.237826</v>
       </c>
       <c r="C65" t="n">
-        <v>0.242256</v>
+        <v>0.242028</v>
       </c>
       <c r="D65" t="n">
-        <v>0.212505</v>
+        <v>0.212268</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.223598</v>
+        <v>0.223297</v>
       </c>
       <c r="C66" t="n">
-        <v>0.241565</v>
+        <v>0.241305</v>
       </c>
       <c r="D66" t="n">
-        <v>0.225008</v>
+        <v>0.224759</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.349275</v>
+        <v>0.34896</v>
       </c>
       <c r="C67" t="n">
-        <v>0.259461</v>
+        <v>0.2593</v>
       </c>
       <c r="D67" t="n">
-        <v>0.222953</v>
+        <v>0.222717</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.343127</v>
+        <v>0.342717</v>
       </c>
       <c r="C68" t="n">
-        <v>0.255608</v>
+        <v>0.255401</v>
       </c>
       <c r="D68" t="n">
-        <v>0.221199</v>
+        <v>0.220952</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.337229</v>
+        <v>0.336781</v>
       </c>
       <c r="C69" t="n">
-        <v>0.252784</v>
+        <v>0.252529</v>
       </c>
       <c r="D69" t="n">
-        <v>0.219822</v>
+        <v>0.219613</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.330166</v>
+        <v>0.329852</v>
       </c>
       <c r="C70" t="n">
-        <v>0.250965</v>
+        <v>0.250694</v>
       </c>
       <c r="D70" t="n">
-        <v>0.218706</v>
+        <v>0.218476</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.322714</v>
+        <v>0.322572</v>
       </c>
       <c r="C71" t="n">
-        <v>0.24958</v>
+        <v>0.24954</v>
       </c>
       <c r="D71" t="n">
-        <v>0.21778</v>
+        <v>0.217601</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.315366</v>
+        <v>0.315291</v>
       </c>
       <c r="C72" t="n">
-        <v>0.24825</v>
+        <v>0.248038</v>
       </c>
       <c r="D72" t="n">
-        <v>0.216665</v>
+        <v>0.216448</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.306977</v>
+        <v>0.306717</v>
       </c>
       <c r="C73" t="n">
-        <v>0.246966</v>
+        <v>0.246796</v>
       </c>
       <c r="D73" t="n">
-        <v>0.215479</v>
+        <v>0.215365</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.298372</v>
+        <v>0.298339</v>
       </c>
       <c r="C74" t="n">
-        <v>0.246007</v>
+        <v>0.245662</v>
       </c>
       <c r="D74" t="n">
-        <v>0.214535</v>
+        <v>0.214573</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.288934</v>
+        <v>0.288874</v>
       </c>
       <c r="C75" t="n">
-        <v>0.245233</v>
+        <v>0.244879</v>
       </c>
       <c r="D75" t="n">
-        <v>0.214204</v>
+        <v>0.213991</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.278778</v>
+        <v>0.27857</v>
       </c>
       <c r="C76" t="n">
-        <v>0.244309</v>
+        <v>0.244387</v>
       </c>
       <c r="D76" t="n">
-        <v>0.213522</v>
+        <v>0.213421</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.267552</v>
+        <v>0.267628</v>
       </c>
       <c r="C77" t="n">
-        <v>0.243304</v>
+        <v>0.243116</v>
       </c>
       <c r="D77" t="n">
-        <v>0.213104</v>
+        <v>0.212917</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.255036</v>
+        <v>0.254923</v>
       </c>
       <c r="C78" t="n">
-        <v>0.242336</v>
+        <v>0.242162</v>
       </c>
       <c r="D78" t="n">
-        <v>0.212727</v>
+        <v>0.212569</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.241949</v>
+        <v>0.242112</v>
       </c>
       <c r="C79" t="n">
-        <v>0.24209</v>
+        <v>0.241852</v>
       </c>
       <c r="D79" t="n">
-        <v>0.212607</v>
+        <v>0.212449</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.22741</v>
+        <v>0.227453</v>
       </c>
       <c r="C80" t="n">
-        <v>0.241716</v>
+        <v>0.241633</v>
       </c>
       <c r="D80" t="n">
-        <v>0.225519</v>
+        <v>0.225349</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.350815</v>
+        <v>0.350592</v>
       </c>
       <c r="C81" t="n">
-        <v>0.258879</v>
+        <v>0.258766</v>
       </c>
       <c r="D81" t="n">
-        <v>0.223471</v>
+        <v>0.223306</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.344551</v>
+        <v>0.344902</v>
       </c>
       <c r="C82" t="n">
-        <v>0.2554</v>
+        <v>0.255089</v>
       </c>
       <c r="D82" t="n">
-        <v>0.221804</v>
+        <v>0.221593</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.33819</v>
+        <v>0.338279</v>
       </c>
       <c r="C83" t="n">
-        <v>0.252949</v>
+        <v>0.252644</v>
       </c>
       <c r="D83" t="n">
-        <v>0.220166</v>
+        <v>0.220059</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.331909</v>
+        <v>0.331926</v>
       </c>
       <c r="C84" t="n">
-        <v>0.250898</v>
+        <v>0.250756</v>
       </c>
       <c r="D84" t="n">
-        <v>0.218883</v>
+        <v>0.218735</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.324721</v>
+        <v>0.324496</v>
       </c>
       <c r="C85" t="n">
-        <v>0.249558</v>
+        <v>0.249454</v>
       </c>
       <c r="D85" t="n">
-        <v>0.217737</v>
+        <v>0.21761</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.316763</v>
+        <v>0.316843</v>
       </c>
       <c r="C86" t="n">
-        <v>0.248379</v>
+        <v>0.248186</v>
       </c>
       <c r="D86" t="n">
-        <v>0.216716</v>
+        <v>0.216575</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.308622</v>
+        <v>0.308789</v>
       </c>
       <c r="C87" t="n">
-        <v>0.247189</v>
+        <v>0.246979</v>
       </c>
       <c r="D87" t="n">
-        <v>0.215919</v>
+        <v>0.215727</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.299932</v>
+        <v>0.30025</v>
       </c>
       <c r="C88" t="n">
-        <v>0.24651</v>
+        <v>0.246193</v>
       </c>
       <c r="D88" t="n">
-        <v>0.215137</v>
+        <v>0.214932</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.290615</v>
+        <v>0.290832</v>
       </c>
       <c r="C89" t="n">
-        <v>0.245572</v>
+        <v>0.24521</v>
       </c>
       <c r="D89" t="n">
-        <v>0.214406</v>
+        <v>0.214177</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.28053</v>
+        <v>0.280699</v>
       </c>
       <c r="C90" t="n">
-        <v>0.244733</v>
+        <v>0.244582</v>
       </c>
       <c r="D90" t="n">
-        <v>0.213786</v>
+        <v>0.213591</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.269731</v>
+        <v>0.269756</v>
       </c>
       <c r="C91" t="n">
-        <v>0.243887</v>
+        <v>0.243525</v>
       </c>
       <c r="D91" t="n">
-        <v>0.213205</v>
+        <v>0.212983</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.258069</v>
+        <v>0.258118</v>
       </c>
       <c r="C92" t="n">
-        <v>0.243201</v>
+        <v>0.242855</v>
       </c>
       <c r="D92" t="n">
-        <v>0.212875</v>
+        <v>0.212597</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.24491</v>
+        <v>0.24486</v>
       </c>
       <c r="C93" t="n">
-        <v>0.242602</v>
+        <v>0.242231</v>
       </c>
       <c r="D93" t="n">
-        <v>0.212714</v>
+        <v>0.212587</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.231422</v>
+        <v>0.230721</v>
       </c>
       <c r="C94" t="n">
-        <v>0.24215</v>
+        <v>0.241599</v>
       </c>
       <c r="D94" t="n">
-        <v>0.226303</v>
+        <v>0.225969</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.351932</v>
+        <v>0.351865</v>
       </c>
       <c r="C95" t="n">
-        <v>0.259645</v>
+        <v>0.260072</v>
       </c>
       <c r="D95" t="n">
-        <v>0.223865</v>
+        <v>0.223719</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.346023</v>
+        <v>0.345969</v>
       </c>
       <c r="C96" t="n">
-        <v>0.256255</v>
+        <v>0.256357</v>
       </c>
       <c r="D96" t="n">
-        <v>0.222034</v>
+        <v>0.221942</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.340162</v>
+        <v>0.340214</v>
       </c>
       <c r="C97" t="n">
-        <v>0.253624</v>
+        <v>0.253483</v>
       </c>
       <c r="D97" t="n">
-        <v>0.220483</v>
+        <v>0.220293</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.333615</v>
+        <v>0.333494</v>
       </c>
       <c r="C98" t="n">
-        <v>0.251407</v>
+        <v>0.251493</v>
       </c>
       <c r="D98" t="n">
-        <v>0.219321</v>
+        <v>0.219055</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.326246</v>
+        <v>0.326157</v>
       </c>
       <c r="C99" t="n">
-        <v>0.250204</v>
+        <v>0.250022</v>
       </c>
       <c r="D99" t="n">
-        <v>0.217965</v>
+        <v>0.217783</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.318878</v>
+        <v>0.318973</v>
       </c>
       <c r="C100" t="n">
-        <v>0.248712</v>
+        <v>0.248828</v>
       </c>
       <c r="D100" t="n">
-        <v>0.216927</v>
+        <v>0.216829</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.310852</v>
+        <v>0.310728</v>
       </c>
       <c r="C101" t="n">
-        <v>0.247692</v>
+        <v>0.247535</v>
       </c>
       <c r="D101" t="n">
-        <v>0.216021</v>
+        <v>0.215956</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.301992</v>
+        <v>0.302023</v>
       </c>
       <c r="C102" t="n">
-        <v>0.246695</v>
+        <v>0.24672</v>
       </c>
       <c r="D102" t="n">
-        <v>0.215321</v>
+        <v>0.215173</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.293017</v>
+        <v>0.293002</v>
       </c>
       <c r="C103" t="n">
-        <v>0.245887</v>
+        <v>0.245717</v>
       </c>
       <c r="D103" t="n">
-        <v>0.214618</v>
+        <v>0.214379</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.283233</v>
+        <v>0.282985</v>
       </c>
       <c r="C104" t="n">
-        <v>0.24497</v>
+        <v>0.244914</v>
       </c>
       <c r="D104" t="n">
-        <v>0.213949</v>
+        <v>0.213896</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.272776</v>
+        <v>0.272153</v>
       </c>
       <c r="C105" t="n">
-        <v>0.24408</v>
+        <v>0.243935</v>
       </c>
       <c r="D105" t="n">
-        <v>0.213462</v>
+        <v>0.213112</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.260598</v>
+        <v>0.260515</v>
       </c>
       <c r="C106" t="n">
-        <v>0.243305</v>
+        <v>0.243087</v>
       </c>
       <c r="D106" t="n">
-        <v>0.212856</v>
+        <v>0.212569</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.24766</v>
+        <v>0.247692</v>
       </c>
       <c r="C107" t="n">
-        <v>0.24276</v>
+        <v>0.242431</v>
       </c>
       <c r="D107" t="n">
-        <v>0.212654</v>
+        <v>0.212316</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.233907</v>
+        <v>0.233784</v>
       </c>
       <c r="C108" t="n">
-        <v>0.242095</v>
+        <v>0.241879</v>
       </c>
       <c r="D108" t="n">
-        <v>0.226556</v>
+        <v>0.226219</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.219622</v>
+        <v>0.218866</v>
       </c>
       <c r="C109" t="n">
-        <v>0.241661</v>
+        <v>0.241543</v>
       </c>
       <c r="D109" t="n">
-        <v>0.224147</v>
+        <v>0.224161</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.347458</v>
+        <v>0.347364</v>
       </c>
       <c r="C110" t="n">
-        <v>0.256386</v>
+        <v>0.256522</v>
       </c>
       <c r="D110" t="n">
-        <v>0.222294</v>
+        <v>0.222203</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.341457</v>
+        <v>0.341274</v>
       </c>
       <c r="C111" t="n">
-        <v>0.253817</v>
+        <v>0.253582</v>
       </c>
       <c r="D111" t="n">
-        <v>0.220769</v>
+        <v>0.22077</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.334819</v>
+        <v>0.335133</v>
       </c>
       <c r="C112" t="n">
-        <v>0.251723</v>
+        <v>0.251631</v>
       </c>
       <c r="D112" t="n">
-        <v>0.21955</v>
+        <v>0.219203</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.328131</v>
+        <v>0.327985</v>
       </c>
       <c r="C113" t="n">
-        <v>0.249802</v>
+        <v>0.250186</v>
       </c>
       <c r="D113" t="n">
-        <v>0.218143</v>
+        <v>0.2182</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.320449</v>
+        <v>0.320339</v>
       </c>
       <c r="C114" t="n">
-        <v>0.249119</v>
+        <v>0.249227</v>
       </c>
       <c r="D114" t="n">
-        <v>0.217259</v>
+        <v>0.217098</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.312541</v>
+        <v>0.312455</v>
       </c>
       <c r="C115" t="n">
-        <v>0.247906</v>
+        <v>0.247757</v>
       </c>
       <c r="D115" t="n">
-        <v>0.216629</v>
+        <v>0.216033</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304065</v>
+        <v>0.304239</v>
       </c>
       <c r="C116" t="n">
-        <v>0.247071</v>
+        <v>0.246983</v>
       </c>
       <c r="D116" t="n">
-        <v>0.215137</v>
+        <v>0.215358</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.295471</v>
+        <v>0.295247</v>
       </c>
       <c r="C117" t="n">
-        <v>0.245763</v>
+        <v>0.24621</v>
       </c>
       <c r="D117" t="n">
-        <v>0.214726</v>
+        <v>0.21462</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.285564</v>
+        <v>0.285626</v>
       </c>
       <c r="C118" t="n">
-        <v>0.245161</v>
+        <v>0.245345</v>
       </c>
       <c r="D118" t="n">
-        <v>0.214275</v>
+        <v>0.214625</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.2749</v>
+        <v>0.275169</v>
       </c>
       <c r="C119" t="n">
-        <v>0.244075</v>
+        <v>0.244429</v>
       </c>
       <c r="D119" t="n">
-        <v>0.21398</v>
+        <v>0.213616</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.263453</v>
+        <v>0.263176</v>
       </c>
       <c r="C120" t="n">
-        <v>0.243614</v>
+        <v>0.243498</v>
       </c>
       <c r="D120" t="n">
-        <v>0.213207</v>
+        <v>0.213122</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.250937</v>
+        <v>0.251099</v>
       </c>
       <c r="C121" t="n">
-        <v>0.242859</v>
+        <v>0.242922</v>
       </c>
       <c r="D121" t="n">
-        <v>0.213679</v>
+        <v>0.213099</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.237479</v>
+        <v>0.237496</v>
       </c>
       <c r="C122" t="n">
-        <v>0.242503</v>
+        <v>0.242357</v>
       </c>
       <c r="D122" t="n">
-        <v>0.212906</v>
+        <v>0.212459</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.222766</v>
+        <v>0.22306</v>
       </c>
       <c r="C123" t="n">
-        <v>0.241867</v>
+        <v>0.24195</v>
       </c>
       <c r="D123" t="n">
-        <v>0.226283</v>
+        <v>0.225276</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.349291</v>
+        <v>0.349316</v>
       </c>
       <c r="C124" t="n">
-        <v>0.257463</v>
+        <v>0.257502</v>
       </c>
       <c r="D124" t="n">
-        <v>0.22395</v>
+        <v>0.223913</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.342953</v>
+        <v>0.343325</v>
       </c>
       <c r="C125" t="n">
-        <v>0.254201</v>
+        <v>0.25459</v>
       </c>
       <c r="D125" t="n">
-        <v>0.221952</v>
+        <v>0.221447</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.336783</v>
+        <v>0.336767</v>
       </c>
       <c r="C126" t="n">
-        <v>0.251943</v>
+        <v>0.252</v>
       </c>
       <c r="D126" t="n">
-        <v>0.220425</v>
+        <v>0.220079</v>
       </c>
     </row>
     <row r="127">
@@ -4999,10 +4999,10 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.330131</v>
+        <v>0.329747</v>
       </c>
       <c r="C127" t="n">
-        <v>0.250422</v>
+        <v>0.250381</v>
       </c>
       <c r="D127" t="n">
         <v>0.219179</v>
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.322279</v>
+        <v>0.322428</v>
       </c>
       <c r="C128" t="n">
-        <v>0.24897</v>
+        <v>0.248818</v>
       </c>
       <c r="D128" t="n">
-        <v>0.219099</v>
+        <v>0.2187</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.314474</v>
+        <v>0.315102</v>
       </c>
       <c r="C129" t="n">
-        <v>0.247451</v>
+        <v>0.247488</v>
       </c>
       <c r="D129" t="n">
-        <v>0.216868</v>
+        <v>0.21732</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.306043</v>
+        <v>0.306505</v>
       </c>
       <c r="C130" t="n">
-        <v>0.24634</v>
+        <v>0.246608</v>
       </c>
       <c r="D130" t="n">
-        <v>0.216435</v>
+        <v>0.217327</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.297053</v>
+        <v>0.297635</v>
       </c>
       <c r="C131" t="n">
-        <v>0.245308</v>
+        <v>0.245307</v>
       </c>
       <c r="D131" t="n">
-        <v>0.215993</v>
+        <v>0.214966</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.28791</v>
+        <v>0.2879</v>
       </c>
       <c r="C132" t="n">
-        <v>0.244669</v>
+        <v>0.244192</v>
       </c>
       <c r="D132" t="n">
-        <v>0.214615</v>
+        <v>0.21473</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.27761</v>
+        <v>0.277082</v>
       </c>
       <c r="C133" t="n">
-        <v>0.243985</v>
+        <v>0.244376</v>
       </c>
       <c r="D133" t="n">
-        <v>0.213786</v>
+        <v>0.214282</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.266135</v>
+        <v>0.265797</v>
       </c>
       <c r="C134" t="n">
-        <v>0.243233</v>
+        <v>0.24379</v>
       </c>
       <c r="D134" t="n">
-        <v>0.213646</v>
+        <v>0.214328</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.253854</v>
+        <v>0.253827</v>
       </c>
       <c r="C135" t="n">
-        <v>0.243141</v>
+        <v>0.242908</v>
       </c>
       <c r="D135" t="n">
-        <v>0.215741</v>
+        <v>0.213492</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.240778</v>
+        <v>0.240817</v>
       </c>
       <c r="C136" t="n">
-        <v>0.242067</v>
+        <v>0.242265</v>
       </c>
       <c r="D136" t="n">
-        <v>0.21366</v>
+        <v>0.214068</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.226075</v>
+        <v>0.226031</v>
       </c>
       <c r="C137" t="n">
-        <v>0.241803</v>
+        <v>0.242001</v>
       </c>
       <c r="D137" t="n">
-        <v>0.228331</v>
+        <v>0.227601</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.350772</v>
+        <v>0.350754</v>
       </c>
       <c r="C138" t="n">
-        <v>0.259077</v>
+        <v>0.259645</v>
       </c>
       <c r="D138" t="n">
-        <v>0.226263</v>
+        <v>0.225836</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.344538</v>
+        <v>0.345093</v>
       </c>
       <c r="C139" t="n">
-        <v>0.255782</v>
+        <v>0.256577</v>
       </c>
       <c r="D139" t="n">
-        <v>0.226256</v>
+        <v>0.224273</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338348</v>
+        <v>0.338598</v>
       </c>
       <c r="C140" t="n">
-        <v>0.252703</v>
+        <v>0.252546</v>
       </c>
       <c r="D140" t="n">
-        <v>0.22268</v>
+        <v>0.223764</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331706</v>
+        <v>0.331512</v>
       </c>
       <c r="C141" t="n">
-        <v>0.251832</v>
+        <v>0.251081</v>
       </c>
       <c r="D141" t="n">
-        <v>0.222743</v>
+        <v>0.220386</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.324704</v>
+        <v>0.324235</v>
       </c>
       <c r="C142" t="n">
-        <v>0.25005</v>
+        <v>0.249862</v>
       </c>
       <c r="D142" t="n">
-        <v>0.22168</v>
+        <v>0.221371</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.316412</v>
+        <v>0.316343</v>
       </c>
       <c r="C143" t="n">
-        <v>0.248853</v>
+        <v>0.247766</v>
       </c>
       <c r="D143" t="n">
-        <v>0.219834</v>
+        <v>0.220013</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.298072</v>
+        <v>0.297077</v>
       </c>
       <c r="C2" t="n">
-        <v>0.223512</v>
+        <v>0.224884</v>
       </c>
       <c r="D2" t="n">
-        <v>0.199099</v>
+        <v>0.19891</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.290276</v>
+        <v>0.288975</v>
       </c>
       <c r="C3" t="n">
-        <v>0.224091</v>
+        <v>0.225635</v>
       </c>
       <c r="D3" t="n">
-        <v>0.198786</v>
+        <v>0.198728</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.280945</v>
+        <v>0.27805</v>
       </c>
       <c r="C4" t="n">
-        <v>0.225129</v>
+        <v>0.226046</v>
       </c>
       <c r="D4" t="n">
-        <v>0.201476</v>
+        <v>0.200512</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.270336</v>
+        <v>0.269193</v>
       </c>
       <c r="C5" t="n">
-        <v>0.224765</v>
+        <v>0.22431</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200388</v>
+        <v>0.200142</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.257588</v>
+        <v>0.25684</v>
       </c>
       <c r="C6" t="n">
-        <v>0.226856</v>
+        <v>0.224686</v>
       </c>
       <c r="D6" t="n">
-        <v>0.201485</v>
+        <v>0.20076</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.244273</v>
+        <v>0.243636</v>
       </c>
       <c r="C7" t="n">
-        <v>0.22669</v>
+        <v>0.22646</v>
       </c>
       <c r="D7" t="n">
-        <v>0.201902</v>
+        <v>0.202369</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.230773</v>
+        <v>0.23144</v>
       </c>
       <c r="C8" t="n">
-        <v>0.226292</v>
+        <v>0.227782</v>
       </c>
       <c r="D8" t="n">
-        <v>0.20218</v>
+        <v>0.201991</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.218552</v>
+        <v>0.217734</v>
       </c>
       <c r="C9" t="n">
-        <v>0.226517</v>
+        <v>0.227476</v>
       </c>
       <c r="D9" t="n">
-        <v>0.229948</v>
+        <v>0.219432</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.345</v>
+        <v>0.345471</v>
       </c>
       <c r="C10" t="n">
-        <v>0.245455</v>
+        <v>0.246496</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216757</v>
+        <v>0.230437</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.339712</v>
+        <v>0.337836</v>
       </c>
       <c r="C11" t="n">
-        <v>0.24492</v>
+        <v>0.244058</v>
       </c>
       <c r="D11" t="n">
-        <v>0.214715</v>
+        <v>0.220834</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.332538</v>
+        <v>0.332112</v>
       </c>
       <c r="C12" t="n">
-        <v>0.242569</v>
+        <v>0.242643</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214754</v>
+        <v>0.214661</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.326525</v>
+        <v>0.32575</v>
       </c>
       <c r="C13" t="n">
-        <v>0.241772</v>
+        <v>0.24654</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212601</v>
+        <v>0.221711</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.32001</v>
+        <v>0.319002</v>
       </c>
       <c r="C14" t="n">
-        <v>0.239813</v>
+        <v>0.253315</v>
       </c>
       <c r="D14" t="n">
-        <v>0.21213</v>
+        <v>0.211523</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.312367</v>
+        <v>0.31352</v>
       </c>
       <c r="C15" t="n">
-        <v>0.238598</v>
+        <v>0.23811</v>
       </c>
       <c r="D15" t="n">
-        <v>0.210481</v>
+        <v>0.215734</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.304207</v>
+        <v>0.304119</v>
       </c>
       <c r="C16" t="n">
-        <v>0.238919</v>
+        <v>0.238671</v>
       </c>
       <c r="D16" t="n">
-        <v>0.20979</v>
+        <v>0.225259</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.298133</v>
+        <v>0.295226</v>
       </c>
       <c r="C17" t="n">
-        <v>0.238752</v>
+        <v>0.237593</v>
       </c>
       <c r="D17" t="n">
-        <v>0.209933</v>
+        <v>0.225289</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.287623</v>
+        <v>0.286979</v>
       </c>
       <c r="C18" t="n">
-        <v>0.239062</v>
+        <v>0.239874</v>
       </c>
       <c r="D18" t="n">
-        <v>0.209118</v>
+        <v>0.221485</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.276334</v>
+        <v>0.276297</v>
       </c>
       <c r="C19" t="n">
-        <v>0.237537</v>
+        <v>0.237098</v>
       </c>
       <c r="D19" t="n">
-        <v>0.208835</v>
+        <v>0.222673</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.265963</v>
+        <v>0.264201</v>
       </c>
       <c r="C20" t="n">
-        <v>0.237262</v>
+        <v>0.236091</v>
       </c>
       <c r="D20" t="n">
-        <v>0.217902</v>
+        <v>0.217982</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.254512</v>
+        <v>0.25362</v>
       </c>
       <c r="C21" t="n">
-        <v>0.23703</v>
+        <v>0.236117</v>
       </c>
       <c r="D21" t="n">
-        <v>0.209357</v>
+        <v>0.221452</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.240572</v>
+        <v>0.239736</v>
       </c>
       <c r="C22" t="n">
-        <v>0.236924</v>
+        <v>0.239008</v>
       </c>
       <c r="D22" t="n">
-        <v>0.208562</v>
+        <v>0.219172</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.226363</v>
+        <v>0.226411</v>
       </c>
       <c r="C23" t="n">
-        <v>0.237372</v>
+        <v>0.238011</v>
       </c>
       <c r="D23" t="n">
-        <v>0.224225</v>
+        <v>0.225348</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348824</v>
+        <v>0.347952</v>
       </c>
       <c r="C24" t="n">
-        <v>0.254729</v>
+        <v>0.255853</v>
       </c>
       <c r="D24" t="n">
-        <v>0.222284</v>
+        <v>0.222834</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342237</v>
+        <v>0.341708</v>
       </c>
       <c r="C25" t="n">
-        <v>0.252219</v>
+        <v>0.254212</v>
       </c>
       <c r="D25" t="n">
-        <v>0.220811</v>
+        <v>0.221805</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.336132</v>
+        <v>0.335919</v>
       </c>
       <c r="C26" t="n">
-        <v>0.250899</v>
+        <v>0.251646</v>
       </c>
       <c r="D26" t="n">
-        <v>0.219956</v>
+        <v>0.220524</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328981</v>
+        <v>0.328609</v>
       </c>
       <c r="C27" t="n">
-        <v>0.24949</v>
+        <v>0.249391</v>
       </c>
       <c r="D27" t="n">
-        <v>0.218722</v>
+        <v>0.218462</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.32185</v>
+        <v>0.321687</v>
       </c>
       <c r="C28" t="n">
-        <v>0.247207</v>
+        <v>0.248054</v>
       </c>
       <c r="D28" t="n">
-        <v>0.217088</v>
+        <v>0.216989</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.314658</v>
+        <v>0.314744</v>
       </c>
       <c r="C29" t="n">
-        <v>0.246249</v>
+        <v>0.246501</v>
       </c>
       <c r="D29" t="n">
-        <v>0.216057</v>
+        <v>0.216291</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.306593</v>
+        <v>0.306456</v>
       </c>
       <c r="C30" t="n">
-        <v>0.244674</v>
+        <v>0.244924</v>
       </c>
       <c r="D30" t="n">
-        <v>0.214458</v>
+        <v>0.214892</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.297913</v>
+        <v>0.297808</v>
       </c>
       <c r="C31" t="n">
-        <v>0.243443</v>
+        <v>0.24422</v>
       </c>
       <c r="D31" t="n">
-        <v>0.214183</v>
+        <v>0.214371</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.288857</v>
+        <v>0.288508</v>
       </c>
       <c r="C32" t="n">
-        <v>0.243216</v>
+        <v>0.243528</v>
       </c>
       <c r="D32" t="n">
-        <v>0.213503</v>
+        <v>0.213568</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.279174</v>
+        <v>0.279038</v>
       </c>
       <c r="C33" t="n">
-        <v>0.242594</v>
+        <v>0.243041</v>
       </c>
       <c r="D33" t="n">
-        <v>0.212955</v>
+        <v>0.213572</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.268921</v>
+        <v>0.268925</v>
       </c>
       <c r="C34" t="n">
-        <v>0.241885</v>
+        <v>0.24218</v>
       </c>
       <c r="D34" t="n">
-        <v>0.212572</v>
+        <v>0.213007</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.25789</v>
+        <v>0.257787</v>
       </c>
       <c r="C35" t="n">
-        <v>0.242125</v>
+        <v>0.242482</v>
       </c>
       <c r="D35" t="n">
-        <v>0.212227</v>
+        <v>0.212639</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244888</v>
+        <v>0.24479</v>
       </c>
       <c r="C36" t="n">
-        <v>0.241725</v>
+        <v>0.242117</v>
       </c>
       <c r="D36" t="n">
-        <v>0.211873</v>
+        <v>0.212103</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.230683</v>
+        <v>0.231025</v>
       </c>
       <c r="C37" t="n">
-        <v>0.241249</v>
+        <v>0.24136</v>
       </c>
       <c r="D37" t="n">
-        <v>0.226465</v>
+        <v>0.228471</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.349421</v>
+        <v>0.349237</v>
       </c>
       <c r="C38" t="n">
-        <v>0.260517</v>
+        <v>0.262809</v>
       </c>
       <c r="D38" t="n">
-        <v>0.223896</v>
+        <v>0.224855</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.344665</v>
+        <v>0.344366</v>
       </c>
       <c r="C39" t="n">
-        <v>0.257291</v>
+        <v>0.258633</v>
       </c>
       <c r="D39" t="n">
-        <v>0.221932</v>
+        <v>0.22299</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.33812</v>
+        <v>0.338352</v>
       </c>
       <c r="C40" t="n">
-        <v>0.25435</v>
+        <v>0.255726</v>
       </c>
       <c r="D40" t="n">
-        <v>0.220498</v>
+        <v>0.221274</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.331691</v>
+        <v>0.331729</v>
       </c>
       <c r="C41" t="n">
-        <v>0.251434</v>
+        <v>0.251834</v>
       </c>
       <c r="D41" t="n">
-        <v>0.218758</v>
+        <v>0.219031</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.324425</v>
+        <v>0.324482</v>
       </c>
       <c r="C42" t="n">
-        <v>0.250372</v>
+        <v>0.250953</v>
       </c>
       <c r="D42" t="n">
-        <v>0.217518</v>
+        <v>0.21813</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.316459</v>
+        <v>0.316504</v>
       </c>
       <c r="C43" t="n">
-        <v>0.248992</v>
+        <v>0.24952</v>
       </c>
       <c r="D43" t="n">
-        <v>0.216432</v>
+        <v>0.217046</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.308791</v>
+        <v>0.309203</v>
       </c>
       <c r="C44" t="n">
-        <v>0.247612</v>
+        <v>0.248004</v>
       </c>
       <c r="D44" t="n">
-        <v>0.21539</v>
+        <v>0.215731</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300302</v>
+        <v>0.300111</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246558</v>
+        <v>0.2469</v>
       </c>
       <c r="D45" t="n">
-        <v>0.214468</v>
+        <v>0.214777</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291754</v>
+        <v>0.291848</v>
       </c>
       <c r="C46" t="n">
-        <v>0.245539</v>
+        <v>0.245998</v>
       </c>
       <c r="D46" t="n">
-        <v>0.214106</v>
+        <v>0.214558</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.282506</v>
+        <v>0.282675</v>
       </c>
       <c r="C47" t="n">
-        <v>0.244693</v>
+        <v>0.244973</v>
       </c>
       <c r="D47" t="n">
-        <v>0.213828</v>
+        <v>0.214351</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.272093</v>
+        <v>0.271985</v>
       </c>
       <c r="C48" t="n">
-        <v>0.243518</v>
+        <v>0.243647</v>
       </c>
       <c r="D48" t="n">
-        <v>0.213074</v>
+        <v>0.213507</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.261234</v>
+        <v>0.260876</v>
       </c>
       <c r="C49" t="n">
-        <v>0.243125</v>
+        <v>0.243044</v>
       </c>
       <c r="D49" t="n">
-        <v>0.212714</v>
+        <v>0.21336</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.248986</v>
+        <v>0.248787</v>
       </c>
       <c r="C50" t="n">
-        <v>0.242634</v>
+        <v>0.242793</v>
       </c>
       <c r="D50" t="n">
-        <v>0.213453</v>
+        <v>0.21358</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.235254</v>
+        <v>0.235166</v>
       </c>
       <c r="C51" t="n">
-        <v>0.241848</v>
+        <v>0.242209</v>
       </c>
       <c r="D51" t="n">
-        <v>0.225602</v>
+        <v>0.22661</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.219985</v>
+        <v>0.220061</v>
       </c>
       <c r="C52" t="n">
-        <v>0.241342</v>
+        <v>0.241444</v>
       </c>
       <c r="D52" t="n">
-        <v>0.223445</v>
+        <v>0.224007</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.346846</v>
+        <v>0.347007</v>
       </c>
       <c r="C53" t="n">
-        <v>0.257324</v>
+        <v>0.258813</v>
       </c>
       <c r="D53" t="n">
-        <v>0.221905</v>
+        <v>0.222193</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.340769</v>
+        <v>0.340967</v>
       </c>
       <c r="C54" t="n">
-        <v>0.254196</v>
+        <v>0.255417</v>
       </c>
       <c r="D54" t="n">
-        <v>0.220606</v>
+        <v>0.220957</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.334729</v>
+        <v>0.334874</v>
       </c>
       <c r="C55" t="n">
-        <v>0.251815</v>
+        <v>0.25237</v>
       </c>
       <c r="D55" t="n">
-        <v>0.219281</v>
+        <v>0.219668</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.327453</v>
+        <v>0.327306</v>
       </c>
       <c r="C56" t="n">
-        <v>0.250357</v>
+        <v>0.250876</v>
       </c>
       <c r="D56" t="n">
-        <v>0.218157</v>
+        <v>0.21842</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.320443</v>
+        <v>0.320348</v>
       </c>
       <c r="C57" t="n">
-        <v>0.24894</v>
+        <v>0.249327</v>
       </c>
       <c r="D57" t="n">
-        <v>0.217014</v>
+        <v>0.217137</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.312914</v>
+        <v>0.312655</v>
       </c>
       <c r="C58" t="n">
-        <v>0.247638</v>
+        <v>0.247906</v>
       </c>
       <c r="D58" t="n">
-        <v>0.216344</v>
+        <v>0.216512</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304111</v>
+        <v>0.304115</v>
       </c>
       <c r="C59" t="n">
-        <v>0.246521</v>
+        <v>0.246781</v>
       </c>
       <c r="D59" t="n">
-        <v>0.215328</v>
+        <v>0.215506</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294354</v>
+        <v>0.294527</v>
       </c>
       <c r="C60" t="n">
-        <v>0.245545</v>
+        <v>0.245904</v>
       </c>
       <c r="D60" t="n">
-        <v>0.214676</v>
+        <v>0.214763</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284685</v>
+        <v>0.284746</v>
       </c>
       <c r="C61" t="n">
-        <v>0.24494</v>
+        <v>0.24524</v>
       </c>
       <c r="D61" t="n">
-        <v>0.214048</v>
+        <v>0.214383</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.274303</v>
+        <v>0.274442</v>
       </c>
       <c r="C62" t="n">
-        <v>0.244002</v>
+        <v>0.244278</v>
       </c>
       <c r="D62" t="n">
-        <v>0.213516</v>
+        <v>0.213704</v>
       </c>
     </row>
     <row r="63">
@@ -4106,10 +4106,10 @@
         <v>0.263261</v>
       </c>
       <c r="C63" t="n">
-        <v>0.243041</v>
+        <v>0.243389</v>
       </c>
       <c r="D63" t="n">
-        <v>0.213059</v>
+        <v>0.213494</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.250803</v>
+        <v>0.250688</v>
       </c>
       <c r="C64" t="n">
-        <v>0.242713</v>
+        <v>0.243221</v>
       </c>
       <c r="D64" t="n">
-        <v>0.212395</v>
+        <v>0.21269</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.237826</v>
+        <v>0.237774</v>
       </c>
       <c r="C65" t="n">
-        <v>0.242028</v>
+        <v>0.242272</v>
       </c>
       <c r="D65" t="n">
-        <v>0.212268</v>
+        <v>0.212613</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.223297</v>
+        <v>0.223417</v>
       </c>
       <c r="C66" t="n">
-        <v>0.241305</v>
+        <v>0.241871</v>
       </c>
       <c r="D66" t="n">
-        <v>0.224759</v>
+        <v>0.227401</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.34896</v>
+        <v>0.348868</v>
       </c>
       <c r="C67" t="n">
-        <v>0.2593</v>
+        <v>0.261778</v>
       </c>
       <c r="D67" t="n">
-        <v>0.222717</v>
+        <v>0.223688</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.342717</v>
+        <v>0.342551</v>
       </c>
       <c r="C68" t="n">
-        <v>0.255401</v>
+        <v>0.256875</v>
       </c>
       <c r="D68" t="n">
-        <v>0.220952</v>
+        <v>0.221772</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.336781</v>
+        <v>0.336374</v>
       </c>
       <c r="C69" t="n">
-        <v>0.252529</v>
+        <v>0.253534</v>
       </c>
       <c r="D69" t="n">
-        <v>0.219613</v>
+        <v>0.220253</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.329852</v>
+        <v>0.329925</v>
       </c>
       <c r="C70" t="n">
-        <v>0.250694</v>
+        <v>0.25172</v>
       </c>
       <c r="D70" t="n">
-        <v>0.218476</v>
+        <v>0.219121</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.322572</v>
+        <v>0.322715</v>
       </c>
       <c r="C71" t="n">
-        <v>0.24954</v>
+        <v>0.250239</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217601</v>
+        <v>0.218072</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.315291</v>
+        <v>0.31526</v>
       </c>
       <c r="C72" t="n">
-        <v>0.248038</v>
+        <v>0.248786</v>
       </c>
       <c r="D72" t="n">
-        <v>0.216448</v>
+        <v>0.216942</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.306717</v>
+        <v>0.306675</v>
       </c>
       <c r="C73" t="n">
-        <v>0.246796</v>
+        <v>0.247367</v>
       </c>
       <c r="D73" t="n">
-        <v>0.215365</v>
+        <v>0.215891</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.298339</v>
+        <v>0.29823</v>
       </c>
       <c r="C74" t="n">
-        <v>0.245662</v>
+        <v>0.246416</v>
       </c>
       <c r="D74" t="n">
-        <v>0.214573</v>
+        <v>0.215001</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.288874</v>
+        <v>0.288669</v>
       </c>
       <c r="C75" t="n">
-        <v>0.244879</v>
+        <v>0.245406</v>
       </c>
       <c r="D75" t="n">
-        <v>0.213991</v>
+        <v>0.214456</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.27857</v>
+        <v>0.278441</v>
       </c>
       <c r="C76" t="n">
-        <v>0.244387</v>
+        <v>0.244788</v>
       </c>
       <c r="D76" t="n">
-        <v>0.213421</v>
+        <v>0.213883</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.267628</v>
+        <v>0.26723</v>
       </c>
       <c r="C77" t="n">
-        <v>0.243116</v>
+        <v>0.243642</v>
       </c>
       <c r="D77" t="n">
-        <v>0.212917</v>
+        <v>0.213361</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.254923</v>
+        <v>0.254696</v>
       </c>
       <c r="C78" t="n">
-        <v>0.242162</v>
+        <v>0.242725</v>
       </c>
       <c r="D78" t="n">
-        <v>0.212569</v>
+        <v>0.213146</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.242112</v>
+        <v>0.241527</v>
       </c>
       <c r="C79" t="n">
-        <v>0.241852</v>
+        <v>0.242449</v>
       </c>
       <c r="D79" t="n">
-        <v>0.212449</v>
+        <v>0.212824</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227453</v>
+        <v>0.227633</v>
       </c>
       <c r="C80" t="n">
-        <v>0.241633</v>
+        <v>0.242261</v>
       </c>
       <c r="D80" t="n">
-        <v>0.225349</v>
+        <v>0.227107</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.350592</v>
+        <v>0.350507</v>
       </c>
       <c r="C81" t="n">
-        <v>0.258766</v>
+        <v>0.261911</v>
       </c>
       <c r="D81" t="n">
-        <v>0.223306</v>
+        <v>0.22465</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.344902</v>
+        <v>0.344807</v>
       </c>
       <c r="C82" t="n">
-        <v>0.255089</v>
+        <v>0.257098</v>
       </c>
       <c r="D82" t="n">
-        <v>0.221593</v>
+        <v>0.222705</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.338279</v>
+        <v>0.33822</v>
       </c>
       <c r="C83" t="n">
-        <v>0.252644</v>
+        <v>0.254328</v>
       </c>
       <c r="D83" t="n">
-        <v>0.220059</v>
+        <v>0.220913</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.331926</v>
+        <v>0.331662</v>
       </c>
       <c r="C84" t="n">
-        <v>0.250756</v>
+        <v>0.251691</v>
       </c>
       <c r="D84" t="n">
-        <v>0.218735</v>
+        <v>0.219445</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.324496</v>
+        <v>0.324277</v>
       </c>
       <c r="C85" t="n">
-        <v>0.249454</v>
+        <v>0.250347</v>
       </c>
       <c r="D85" t="n">
-        <v>0.21761</v>
+        <v>0.218194</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.316843</v>
+        <v>0.316662</v>
       </c>
       <c r="C86" t="n">
-        <v>0.248186</v>
+        <v>0.248858</v>
       </c>
       <c r="D86" t="n">
-        <v>0.216575</v>
+        <v>0.217042</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.308789</v>
+        <v>0.308868</v>
       </c>
       <c r="C87" t="n">
-        <v>0.246979</v>
+        <v>0.247534</v>
       </c>
       <c r="D87" t="n">
-        <v>0.215727</v>
+        <v>0.216094</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.30025</v>
+        <v>0.299867</v>
       </c>
       <c r="C88" t="n">
-        <v>0.246193</v>
+        <v>0.246691</v>
       </c>
       <c r="D88" t="n">
-        <v>0.214932</v>
+        <v>0.215241</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.290832</v>
+        <v>0.29068</v>
       </c>
       <c r="C89" t="n">
-        <v>0.24521</v>
+        <v>0.245542</v>
       </c>
       <c r="D89" t="n">
-        <v>0.214177</v>
+        <v>0.214454</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.280699</v>
+        <v>0.280681</v>
       </c>
       <c r="C90" t="n">
-        <v>0.244582</v>
+        <v>0.244764</v>
       </c>
       <c r="D90" t="n">
-        <v>0.213591</v>
+        <v>0.213831</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.269756</v>
+        <v>0.26954</v>
       </c>
       <c r="C91" t="n">
-        <v>0.243525</v>
+        <v>0.243855</v>
       </c>
       <c r="D91" t="n">
-        <v>0.212983</v>
+        <v>0.213231</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.258118</v>
+        <v>0.258171</v>
       </c>
       <c r="C92" t="n">
-        <v>0.242855</v>
+        <v>0.243202</v>
       </c>
       <c r="D92" t="n">
-        <v>0.212597</v>
+        <v>0.212846</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.24486</v>
+        <v>0.245446</v>
       </c>
       <c r="C93" t="n">
-        <v>0.242231</v>
+        <v>0.242416</v>
       </c>
       <c r="D93" t="n">
-        <v>0.212587</v>
+        <v>0.212843</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.230721</v>
+        <v>0.230795</v>
       </c>
       <c r="C94" t="n">
-        <v>0.241599</v>
+        <v>0.242128</v>
       </c>
       <c r="D94" t="n">
-        <v>0.225969</v>
+        <v>0.22704</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.351865</v>
+        <v>0.35194</v>
       </c>
       <c r="C95" t="n">
-        <v>0.260072</v>
+        <v>0.261807</v>
       </c>
       <c r="D95" t="n">
-        <v>0.223719</v>
+        <v>0.224516</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.345969</v>
+        <v>0.345916</v>
       </c>
       <c r="C96" t="n">
-        <v>0.256357</v>
+        <v>0.257463</v>
       </c>
       <c r="D96" t="n">
-        <v>0.221942</v>
+        <v>0.222396</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.340214</v>
+        <v>0.339976</v>
       </c>
       <c r="C97" t="n">
-        <v>0.253483</v>
+        <v>0.254516</v>
       </c>
       <c r="D97" t="n">
-        <v>0.220293</v>
+        <v>0.220891</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.333494</v>
+        <v>0.33353</v>
       </c>
       <c r="C98" t="n">
-        <v>0.251493</v>
+        <v>0.252096</v>
       </c>
       <c r="D98" t="n">
-        <v>0.219055</v>
+        <v>0.21953</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.326157</v>
+        <v>0.32638</v>
       </c>
       <c r="C99" t="n">
-        <v>0.250022</v>
+        <v>0.250683</v>
       </c>
       <c r="D99" t="n">
-        <v>0.217783</v>
+        <v>0.218294</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.318973</v>
+        <v>0.318635</v>
       </c>
       <c r="C100" t="n">
-        <v>0.248828</v>
+        <v>0.249088</v>
       </c>
       <c r="D100" t="n">
-        <v>0.216829</v>
+        <v>0.217038</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.310728</v>
+        <v>0.31082</v>
       </c>
       <c r="C101" t="n">
-        <v>0.247535</v>
+        <v>0.247994</v>
       </c>
       <c r="D101" t="n">
-        <v>0.215956</v>
+        <v>0.216172</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302023</v>
+        <v>0.30221</v>
       </c>
       <c r="C102" t="n">
-        <v>0.24672</v>
+        <v>0.247013</v>
       </c>
       <c r="D102" t="n">
-        <v>0.215173</v>
+        <v>0.215333</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.293002</v>
+        <v>0.293165</v>
       </c>
       <c r="C103" t="n">
-        <v>0.245717</v>
+        <v>0.245992</v>
       </c>
       <c r="D103" t="n">
-        <v>0.214379</v>
+        <v>0.21444</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.282985</v>
+        <v>0.283264</v>
       </c>
       <c r="C104" t="n">
-        <v>0.244914</v>
+        <v>0.245082</v>
       </c>
       <c r="D104" t="n">
-        <v>0.213896</v>
+        <v>0.213984</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.272153</v>
+        <v>0.272143</v>
       </c>
       <c r="C105" t="n">
-        <v>0.243935</v>
+        <v>0.244109</v>
       </c>
       <c r="D105" t="n">
-        <v>0.213112</v>
+        <v>0.213386</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.260515</v>
+        <v>0.260279</v>
       </c>
       <c r="C106" t="n">
-        <v>0.243087</v>
+        <v>0.243369</v>
       </c>
       <c r="D106" t="n">
-        <v>0.212569</v>
+        <v>0.212701</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247692</v>
+        <v>0.247866</v>
       </c>
       <c r="C107" t="n">
-        <v>0.242431</v>
+        <v>0.242665</v>
       </c>
       <c r="D107" t="n">
-        <v>0.212316</v>
+        <v>0.212481</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.233784</v>
+        <v>0.233761</v>
       </c>
       <c r="C108" t="n">
-        <v>0.241879</v>
+        <v>0.242143</v>
       </c>
       <c r="D108" t="n">
-        <v>0.226219</v>
+        <v>0.227395</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.218866</v>
+        <v>0.219436</v>
       </c>
       <c r="C109" t="n">
-        <v>0.241543</v>
+        <v>0.241759</v>
       </c>
       <c r="D109" t="n">
-        <v>0.224161</v>
+        <v>0.224776</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.347364</v>
+        <v>0.347423</v>
       </c>
       <c r="C110" t="n">
-        <v>0.256522</v>
+        <v>0.257204</v>
       </c>
       <c r="D110" t="n">
-        <v>0.222203</v>
+        <v>0.223198</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.341274</v>
+        <v>0.341184</v>
       </c>
       <c r="C111" t="n">
-        <v>0.253582</v>
+        <v>0.254287</v>
       </c>
       <c r="D111" t="n">
-        <v>0.22077</v>
+        <v>0.221326</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.335133</v>
+        <v>0.334804</v>
       </c>
       <c r="C112" t="n">
-        <v>0.251631</v>
+        <v>0.252008</v>
       </c>
       <c r="D112" t="n">
-        <v>0.219203</v>
+        <v>0.219851</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.327985</v>
+        <v>0.328241</v>
       </c>
       <c r="C113" t="n">
-        <v>0.250186</v>
+        <v>0.25037</v>
       </c>
       <c r="D113" t="n">
-        <v>0.2182</v>
+        <v>0.218829</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.320339</v>
+        <v>0.320278</v>
       </c>
       <c r="C114" t="n">
-        <v>0.249227</v>
+        <v>0.249142</v>
       </c>
       <c r="D114" t="n">
-        <v>0.217098</v>
+        <v>0.217526</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.312455</v>
+        <v>0.312792</v>
       </c>
       <c r="C115" t="n">
-        <v>0.247757</v>
+        <v>0.248254</v>
       </c>
       <c r="D115" t="n">
-        <v>0.216033</v>
+        <v>0.216516</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304239</v>
+        <v>0.304334</v>
       </c>
       <c r="C116" t="n">
-        <v>0.246983</v>
+        <v>0.24721</v>
       </c>
       <c r="D116" t="n">
-        <v>0.215358</v>
+        <v>0.215786</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.295247</v>
+        <v>0.294999</v>
       </c>
       <c r="C117" t="n">
-        <v>0.24621</v>
+        <v>0.2463</v>
       </c>
       <c r="D117" t="n">
-        <v>0.21462</v>
+        <v>0.21487</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.285626</v>
+        <v>0.285523</v>
       </c>
       <c r="C118" t="n">
-        <v>0.245345</v>
+        <v>0.245394</v>
       </c>
       <c r="D118" t="n">
-        <v>0.214625</v>
+        <v>0.213936</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.275169</v>
+        <v>0.275121</v>
       </c>
       <c r="C119" t="n">
-        <v>0.244429</v>
+        <v>0.244398</v>
       </c>
       <c r="D119" t="n">
-        <v>0.213616</v>
+        <v>0.213775</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.263176</v>
+        <v>0.263428</v>
       </c>
       <c r="C120" t="n">
-        <v>0.243498</v>
+        <v>0.243637</v>
       </c>
       <c r="D120" t="n">
-        <v>0.213122</v>
+        <v>0.213016</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.251099</v>
+        <v>0.251116</v>
       </c>
       <c r="C121" t="n">
-        <v>0.242922</v>
+        <v>0.242944</v>
       </c>
       <c r="D121" t="n">
-        <v>0.213099</v>
+        <v>0.212774</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.237496</v>
+        <v>0.237218</v>
       </c>
       <c r="C122" t="n">
-        <v>0.242357</v>
+        <v>0.242429</v>
       </c>
       <c r="D122" t="n">
-        <v>0.212459</v>
+        <v>0.212612</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.22306</v>
+        <v>0.22278</v>
       </c>
       <c r="C123" t="n">
-        <v>0.24195</v>
+        <v>0.241712</v>
       </c>
       <c r="D123" t="n">
-        <v>0.225276</v>
+        <v>0.22575</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.349316</v>
+        <v>0.349111</v>
       </c>
       <c r="C124" t="n">
-        <v>0.257502</v>
+        <v>0.258458</v>
       </c>
       <c r="D124" t="n">
-        <v>0.223913</v>
+        <v>0.223201</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.343325</v>
+        <v>0.343051</v>
       </c>
       <c r="C125" t="n">
-        <v>0.25459</v>
+        <v>0.254855</v>
       </c>
       <c r="D125" t="n">
-        <v>0.221447</v>
+        <v>0.22132</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.336767</v>
+        <v>0.336731</v>
       </c>
       <c r="C126" t="n">
-        <v>0.252</v>
+        <v>0.252326</v>
       </c>
       <c r="D126" t="n">
-        <v>0.220079</v>
+        <v>0.21985</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.329747</v>
+        <v>0.330039</v>
       </c>
       <c r="C127" t="n">
-        <v>0.250381</v>
+        <v>0.250391</v>
       </c>
       <c r="D127" t="n">
-        <v>0.219179</v>
+        <v>0.219218</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.322428</v>
+        <v>0.322188</v>
       </c>
       <c r="C128" t="n">
-        <v>0.248818</v>
+        <v>0.249054</v>
       </c>
       <c r="D128" t="n">
-        <v>0.2187</v>
+        <v>0.21834</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315102</v>
+        <v>0.314313</v>
       </c>
       <c r="C129" t="n">
-        <v>0.247488</v>
+        <v>0.247606</v>
       </c>
       <c r="D129" t="n">
-        <v>0.21732</v>
+        <v>0.216862</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.306505</v>
+        <v>0.305912</v>
       </c>
       <c r="C130" t="n">
-        <v>0.246608</v>
+        <v>0.24677</v>
       </c>
       <c r="D130" t="n">
-        <v>0.217327</v>
+        <v>0.215936</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.297635</v>
+        <v>0.297014</v>
       </c>
       <c r="C131" t="n">
-        <v>0.245307</v>
+        <v>0.245653</v>
       </c>
       <c r="D131" t="n">
-        <v>0.214966</v>
+        <v>0.215458</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.2879</v>
+        <v>0.287762</v>
       </c>
       <c r="C132" t="n">
-        <v>0.244192</v>
+        <v>0.244773</v>
       </c>
       <c r="D132" t="n">
-        <v>0.21473</v>
+        <v>0.214964</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.277082</v>
+        <v>0.276968</v>
       </c>
       <c r="C133" t="n">
-        <v>0.244376</v>
+        <v>0.243905</v>
       </c>
       <c r="D133" t="n">
-        <v>0.214282</v>
+        <v>0.21427</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.265797</v>
+        <v>0.265916</v>
       </c>
       <c r="C134" t="n">
-        <v>0.24379</v>
+        <v>0.243166</v>
       </c>
       <c r="D134" t="n">
-        <v>0.214328</v>
+        <v>0.213039</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.253827</v>
+        <v>0.253525</v>
       </c>
       <c r="C135" t="n">
-        <v>0.242908</v>
+        <v>0.24286</v>
       </c>
       <c r="D135" t="n">
-        <v>0.213492</v>
+        <v>0.212711</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.240817</v>
+        <v>0.240173</v>
       </c>
       <c r="C136" t="n">
-        <v>0.242265</v>
+        <v>0.241909</v>
       </c>
       <c r="D136" t="n">
-        <v>0.214068</v>
+        <v>0.212846</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.226031</v>
+        <v>0.225883</v>
       </c>
       <c r="C137" t="n">
-        <v>0.242001</v>
+        <v>0.241742</v>
       </c>
       <c r="D137" t="n">
-        <v>0.227601</v>
+        <v>0.22749</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.350754</v>
+        <v>0.350728</v>
       </c>
       <c r="C138" t="n">
-        <v>0.259645</v>
+        <v>0.260017</v>
       </c>
       <c r="D138" t="n">
-        <v>0.225836</v>
+        <v>0.226388</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.345093</v>
+        <v>0.345054</v>
       </c>
       <c r="C139" t="n">
-        <v>0.256577</v>
+        <v>0.255719</v>
       </c>
       <c r="D139" t="n">
-        <v>0.224273</v>
+        <v>0.223996</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338598</v>
+        <v>0.3383</v>
       </c>
       <c r="C140" t="n">
-        <v>0.252546</v>
+        <v>0.252937</v>
       </c>
       <c r="D140" t="n">
-        <v>0.223764</v>
+        <v>0.222979</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331512</v>
+        <v>0.331417</v>
       </c>
       <c r="C141" t="n">
-        <v>0.251081</v>
+        <v>0.251069</v>
       </c>
       <c r="D141" t="n">
-        <v>0.220386</v>
+        <v>0.221357</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.324235</v>
+        <v>0.32412</v>
       </c>
       <c r="C142" t="n">
-        <v>0.249862</v>
+        <v>0.249687</v>
       </c>
       <c r="D142" t="n">
-        <v>0.221371</v>
+        <v>0.220372</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.316343</v>
+        <v>0.316094</v>
       </c>
       <c r="C143" t="n">
-        <v>0.247766</v>
+        <v>0.248141</v>
       </c>
       <c r="D143" t="n">
-        <v>0.220013</v>
+        <v>0.21827</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.297077</v>
+        <v>0.296005</v>
       </c>
       <c r="C2" t="n">
-        <v>0.224884</v>
+        <v>0.224079</v>
       </c>
       <c r="D2" t="n">
-        <v>0.19891</v>
+        <v>0.197826</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.288975</v>
+        <v>0.290087</v>
       </c>
       <c r="C3" t="n">
-        <v>0.225635</v>
+        <v>0.223614</v>
       </c>
       <c r="D3" t="n">
-        <v>0.198728</v>
+        <v>0.199236</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.27805</v>
+        <v>0.280167</v>
       </c>
       <c r="C4" t="n">
-        <v>0.226046</v>
+        <v>0.225471</v>
       </c>
       <c r="D4" t="n">
-        <v>0.200512</v>
+        <v>0.200656</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.269193</v>
+        <v>0.270513</v>
       </c>
       <c r="C5" t="n">
-        <v>0.22431</v>
+        <v>0.225529</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200142</v>
+        <v>0.199833</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.25684</v>
+        <v>0.258252</v>
       </c>
       <c r="C6" t="n">
-        <v>0.224686</v>
+        <v>0.225289</v>
       </c>
       <c r="D6" t="n">
-        <v>0.20076</v>
+        <v>0.200573</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.243636</v>
+        <v>0.244358</v>
       </c>
       <c r="C7" t="n">
-        <v>0.22646</v>
+        <v>0.225224</v>
       </c>
       <c r="D7" t="n">
-        <v>0.202369</v>
+        <v>0.20211</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.23144</v>
+        <v>0.231792</v>
       </c>
       <c r="C8" t="n">
-        <v>0.227782</v>
+        <v>0.22645</v>
       </c>
       <c r="D8" t="n">
-        <v>0.201991</v>
+        <v>0.20197</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.217734</v>
+        <v>0.220657</v>
       </c>
       <c r="C9" t="n">
-        <v>0.227476</v>
+        <v>0.226579</v>
       </c>
       <c r="D9" t="n">
-        <v>0.219432</v>
+        <v>0.217758</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.345471</v>
+        <v>0.345714</v>
       </c>
       <c r="C10" t="n">
-        <v>0.246496</v>
+        <v>0.246977</v>
       </c>
       <c r="D10" t="n">
-        <v>0.230437</v>
+        <v>0.216949</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.337836</v>
+        <v>0.339278</v>
       </c>
       <c r="C11" t="n">
-        <v>0.244058</v>
+        <v>0.244225</v>
       </c>
       <c r="D11" t="n">
-        <v>0.220834</v>
+        <v>0.215511</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.332112</v>
+        <v>0.332668</v>
       </c>
       <c r="C12" t="n">
-        <v>0.242643</v>
+        <v>0.242729</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214661</v>
+        <v>0.214148</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.32575</v>
+        <v>0.326103</v>
       </c>
       <c r="C13" t="n">
-        <v>0.24654</v>
+        <v>0.241118</v>
       </c>
       <c r="D13" t="n">
-        <v>0.221711</v>
+        <v>0.212363</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.319002</v>
+        <v>0.318816</v>
       </c>
       <c r="C14" t="n">
-        <v>0.253315</v>
+        <v>0.239591</v>
       </c>
       <c r="D14" t="n">
-        <v>0.211523</v>
+        <v>0.211994</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.31352</v>
+        <v>0.31425</v>
       </c>
       <c r="C15" t="n">
-        <v>0.23811</v>
+        <v>0.239007</v>
       </c>
       <c r="D15" t="n">
-        <v>0.215734</v>
+        <v>0.210028</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.304119</v>
+        <v>0.312782</v>
       </c>
       <c r="C16" t="n">
-        <v>0.238671</v>
+        <v>0.238786</v>
       </c>
       <c r="D16" t="n">
-        <v>0.225259</v>
+        <v>0.209773</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.295226</v>
+        <v>0.296215</v>
       </c>
       <c r="C17" t="n">
-        <v>0.237593</v>
+        <v>0.238534</v>
       </c>
       <c r="D17" t="n">
-        <v>0.225289</v>
+        <v>0.210318</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.286979</v>
+        <v>0.288889</v>
       </c>
       <c r="C18" t="n">
-        <v>0.239874</v>
+        <v>0.239179</v>
       </c>
       <c r="D18" t="n">
-        <v>0.221485</v>
+        <v>0.209173</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.276297</v>
+        <v>0.279351</v>
       </c>
       <c r="C19" t="n">
-        <v>0.237098</v>
+        <v>0.237528</v>
       </c>
       <c r="D19" t="n">
-        <v>0.222673</v>
+        <v>0.209193</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.264201</v>
+        <v>0.268309</v>
       </c>
       <c r="C20" t="n">
-        <v>0.236091</v>
+        <v>0.237399</v>
       </c>
       <c r="D20" t="n">
-        <v>0.217982</v>
+        <v>0.209668</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.25362</v>
+        <v>0.258903</v>
       </c>
       <c r="C21" t="n">
-        <v>0.236117</v>
+        <v>0.237098</v>
       </c>
       <c r="D21" t="n">
-        <v>0.221452</v>
+        <v>0.209148</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.239736</v>
+        <v>0.242796</v>
       </c>
       <c r="C22" t="n">
-        <v>0.239008</v>
+        <v>0.236745</v>
       </c>
       <c r="D22" t="n">
-        <v>0.219172</v>
+        <v>0.209191</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.226411</v>
+        <v>0.228718</v>
       </c>
       <c r="C23" t="n">
-        <v>0.238011</v>
+        <v>0.236935</v>
       </c>
       <c r="D23" t="n">
-        <v>0.225348</v>
+        <v>0.224365</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.347952</v>
+        <v>0.348237</v>
       </c>
       <c r="C24" t="n">
-        <v>0.255853</v>
+        <v>0.254339</v>
       </c>
       <c r="D24" t="n">
-        <v>0.222834</v>
+        <v>0.222441</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.341708</v>
+        <v>0.341827</v>
       </c>
       <c r="C25" t="n">
-        <v>0.254212</v>
+        <v>0.252867</v>
       </c>
       <c r="D25" t="n">
-        <v>0.221805</v>
+        <v>0.221083</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.335919</v>
+        <v>0.335998</v>
       </c>
       <c r="C26" t="n">
-        <v>0.251646</v>
+        <v>0.250793</v>
       </c>
       <c r="D26" t="n">
-        <v>0.220524</v>
+        <v>0.220089</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328609</v>
+        <v>0.328309</v>
       </c>
       <c r="C27" t="n">
-        <v>0.249391</v>
+        <v>0.249455</v>
       </c>
       <c r="D27" t="n">
-        <v>0.218462</v>
+        <v>0.218203</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.321687</v>
+        <v>0.321481</v>
       </c>
       <c r="C28" t="n">
-        <v>0.248054</v>
+        <v>0.24738</v>
       </c>
       <c r="D28" t="n">
-        <v>0.216989</v>
+        <v>0.216624</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.314744</v>
+        <v>0.314734</v>
       </c>
       <c r="C29" t="n">
-        <v>0.246501</v>
+        <v>0.246146</v>
       </c>
       <c r="D29" t="n">
-        <v>0.216291</v>
+        <v>0.216044</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.306456</v>
+        <v>0.306602</v>
       </c>
       <c r="C30" t="n">
-        <v>0.244924</v>
+        <v>0.244923</v>
       </c>
       <c r="D30" t="n">
-        <v>0.214892</v>
+        <v>0.214824</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.297808</v>
+        <v>0.298066</v>
       </c>
       <c r="C31" t="n">
-        <v>0.24422</v>
+        <v>0.243966</v>
       </c>
       <c r="D31" t="n">
-        <v>0.214371</v>
+        <v>0.214155</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.288508</v>
+        <v>0.288561</v>
       </c>
       <c r="C32" t="n">
-        <v>0.243528</v>
+        <v>0.243475</v>
       </c>
       <c r="D32" t="n">
-        <v>0.213568</v>
+        <v>0.213904</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.279038</v>
+        <v>0.279534</v>
       </c>
       <c r="C33" t="n">
-        <v>0.243041</v>
+        <v>0.242521</v>
       </c>
       <c r="D33" t="n">
-        <v>0.213572</v>
+        <v>0.213324</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.268925</v>
+        <v>0.269171</v>
       </c>
       <c r="C34" t="n">
-        <v>0.24218</v>
+        <v>0.241903</v>
       </c>
       <c r="D34" t="n">
-        <v>0.213007</v>
+        <v>0.212868</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.257787</v>
+        <v>0.258004</v>
       </c>
       <c r="C35" t="n">
-        <v>0.242482</v>
+        <v>0.242014</v>
       </c>
       <c r="D35" t="n">
-        <v>0.212639</v>
+        <v>0.212648</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.24479</v>
+        <v>0.244986</v>
       </c>
       <c r="C36" t="n">
-        <v>0.242117</v>
+        <v>0.241841</v>
       </c>
       <c r="D36" t="n">
-        <v>0.212103</v>
+        <v>0.211962</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.231025</v>
+        <v>0.230698</v>
       </c>
       <c r="C37" t="n">
-        <v>0.24136</v>
+        <v>0.241348</v>
       </c>
       <c r="D37" t="n">
-        <v>0.228471</v>
+        <v>0.226988</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.349237</v>
+        <v>0.349648</v>
       </c>
       <c r="C38" t="n">
-        <v>0.262809</v>
+        <v>0.261049</v>
       </c>
       <c r="D38" t="n">
-        <v>0.224855</v>
+        <v>0.224184</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.344366</v>
+        <v>0.3446</v>
       </c>
       <c r="C39" t="n">
-        <v>0.258633</v>
+        <v>0.257528</v>
       </c>
       <c r="D39" t="n">
-        <v>0.22299</v>
+        <v>0.222283</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.338352</v>
+        <v>0.338259</v>
       </c>
       <c r="C40" t="n">
-        <v>0.255726</v>
+        <v>0.25461</v>
       </c>
       <c r="D40" t="n">
-        <v>0.221274</v>
+        <v>0.220497</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.331729</v>
+        <v>0.331679</v>
       </c>
       <c r="C41" t="n">
-        <v>0.251834</v>
+        <v>0.251453</v>
       </c>
       <c r="D41" t="n">
-        <v>0.219031</v>
+        <v>0.218803</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.324482</v>
+        <v>0.324672</v>
       </c>
       <c r="C42" t="n">
-        <v>0.250953</v>
+        <v>0.250697</v>
       </c>
       <c r="D42" t="n">
-        <v>0.21813</v>
+        <v>0.21773</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.316504</v>
+        <v>0.316479</v>
       </c>
       <c r="C43" t="n">
-        <v>0.24952</v>
+        <v>0.249421</v>
       </c>
       <c r="D43" t="n">
-        <v>0.217046</v>
+        <v>0.21685</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.309203</v>
+        <v>0.30956</v>
       </c>
       <c r="C44" t="n">
-        <v>0.248004</v>
+        <v>0.247722</v>
       </c>
       <c r="D44" t="n">
-        <v>0.215731</v>
+        <v>0.215635</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300111</v>
+        <v>0.300799</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2469</v>
+        <v>0.246779</v>
       </c>
       <c r="D45" t="n">
-        <v>0.214777</v>
+        <v>0.214678</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291848</v>
+        <v>0.291823</v>
       </c>
       <c r="C46" t="n">
-        <v>0.245998</v>
+        <v>0.245833</v>
       </c>
       <c r="D46" t="n">
-        <v>0.214558</v>
+        <v>0.213983</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.282675</v>
+        <v>0.282621</v>
       </c>
       <c r="C47" t="n">
-        <v>0.244973</v>
+        <v>0.244777</v>
       </c>
       <c r="D47" t="n">
-        <v>0.214351</v>
+        <v>0.213928</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.271985</v>
+        <v>0.271683</v>
       </c>
       <c r="C48" t="n">
-        <v>0.243647</v>
+        <v>0.243713</v>
       </c>
       <c r="D48" t="n">
-        <v>0.213507</v>
+        <v>0.213808</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.260876</v>
+        <v>0.261366</v>
       </c>
       <c r="C49" t="n">
-        <v>0.243044</v>
+        <v>0.242958</v>
       </c>
       <c r="D49" t="n">
-        <v>0.21336</v>
+        <v>0.213343</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.248787</v>
+        <v>0.249278</v>
       </c>
       <c r="C50" t="n">
-        <v>0.242793</v>
+        <v>0.242566</v>
       </c>
       <c r="D50" t="n">
-        <v>0.21358</v>
+        <v>0.214012</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.235166</v>
+        <v>0.235089</v>
       </c>
       <c r="C51" t="n">
-        <v>0.242209</v>
+        <v>0.242019</v>
       </c>
       <c r="D51" t="n">
-        <v>0.22661</v>
+        <v>0.2259</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.220061</v>
+        <v>0.220181</v>
       </c>
       <c r="C52" t="n">
-        <v>0.241444</v>
+        <v>0.241282</v>
       </c>
       <c r="D52" t="n">
-        <v>0.224007</v>
+        <v>0.223599</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.347007</v>
+        <v>0.347245</v>
       </c>
       <c r="C53" t="n">
-        <v>0.258813</v>
+        <v>0.257483</v>
       </c>
       <c r="D53" t="n">
-        <v>0.222193</v>
+        <v>0.222024</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.340967</v>
+        <v>0.341168</v>
       </c>
       <c r="C54" t="n">
-        <v>0.255417</v>
+        <v>0.254669</v>
       </c>
       <c r="D54" t="n">
-        <v>0.220957</v>
+        <v>0.220525</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.334874</v>
+        <v>0.335071</v>
       </c>
       <c r="C55" t="n">
-        <v>0.25237</v>
+        <v>0.252187</v>
       </c>
       <c r="D55" t="n">
-        <v>0.219668</v>
+        <v>0.21942</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.327306</v>
+        <v>0.327312</v>
       </c>
       <c r="C56" t="n">
-        <v>0.250876</v>
+        <v>0.250616</v>
       </c>
       <c r="D56" t="n">
-        <v>0.21842</v>
+        <v>0.218027</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.320348</v>
+        <v>0.320558</v>
       </c>
       <c r="C57" t="n">
-        <v>0.249327</v>
+        <v>0.249208</v>
       </c>
       <c r="D57" t="n">
-        <v>0.217137</v>
+        <v>0.217024</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.312655</v>
+        <v>0.312989</v>
       </c>
       <c r="C58" t="n">
-        <v>0.247906</v>
+        <v>0.247792</v>
       </c>
       <c r="D58" t="n">
-        <v>0.216512</v>
+        <v>0.216374</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304115</v>
+        <v>0.304452</v>
       </c>
       <c r="C59" t="n">
-        <v>0.246781</v>
+        <v>0.246737</v>
       </c>
       <c r="D59" t="n">
-        <v>0.215506</v>
+        <v>0.215482</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294527</v>
+        <v>0.2946</v>
       </c>
       <c r="C60" t="n">
-        <v>0.245904</v>
+        <v>0.245951</v>
       </c>
       <c r="D60" t="n">
-        <v>0.214763</v>
+        <v>0.21472</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284746</v>
+        <v>0.284938</v>
       </c>
       <c r="C61" t="n">
-        <v>0.24524</v>
+        <v>0.245181</v>
       </c>
       <c r="D61" t="n">
-        <v>0.214383</v>
+        <v>0.214082</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.274442</v>
+        <v>0.274545</v>
       </c>
       <c r="C62" t="n">
-        <v>0.244278</v>
+        <v>0.244249</v>
       </c>
       <c r="D62" t="n">
-        <v>0.213704</v>
+        <v>0.213572</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263261</v>
+        <v>0.263286</v>
       </c>
       <c r="C63" t="n">
-        <v>0.243389</v>
+        <v>0.243186</v>
       </c>
       <c r="D63" t="n">
-        <v>0.213494</v>
+        <v>0.21323</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.250688</v>
+        <v>0.250953</v>
       </c>
       <c r="C64" t="n">
-        <v>0.243221</v>
+        <v>0.243041</v>
       </c>
       <c r="D64" t="n">
-        <v>0.21269</v>
+        <v>0.21262</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.237774</v>
+        <v>0.237819</v>
       </c>
       <c r="C65" t="n">
-        <v>0.242272</v>
+        <v>0.242042</v>
       </c>
       <c r="D65" t="n">
-        <v>0.212613</v>
+        <v>0.212344</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.223417</v>
+        <v>0.223513</v>
       </c>
       <c r="C66" t="n">
-        <v>0.241871</v>
+        <v>0.241527</v>
       </c>
       <c r="D66" t="n">
-        <v>0.227401</v>
+        <v>0.225097</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.348868</v>
+        <v>0.348795</v>
       </c>
       <c r="C67" t="n">
-        <v>0.261778</v>
+        <v>0.259568</v>
       </c>
       <c r="D67" t="n">
-        <v>0.223688</v>
+        <v>0.223173</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.342551</v>
+        <v>0.34292</v>
       </c>
       <c r="C68" t="n">
-        <v>0.256875</v>
+        <v>0.25578</v>
       </c>
       <c r="D68" t="n">
-        <v>0.221772</v>
+        <v>0.221293</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.336374</v>
+        <v>0.336689</v>
       </c>
       <c r="C69" t="n">
-        <v>0.253534</v>
+        <v>0.252916</v>
       </c>
       <c r="D69" t="n">
-        <v>0.220253</v>
+        <v>0.219896</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.329925</v>
+        <v>0.329775</v>
       </c>
       <c r="C70" t="n">
-        <v>0.25172</v>
+        <v>0.251099</v>
       </c>
       <c r="D70" t="n">
-        <v>0.219121</v>
+        <v>0.218846</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.322715</v>
+        <v>0.322606</v>
       </c>
       <c r="C71" t="n">
-        <v>0.250239</v>
+        <v>0.249768</v>
       </c>
       <c r="D71" t="n">
-        <v>0.218072</v>
+        <v>0.21767</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.31526</v>
+        <v>0.3154</v>
       </c>
       <c r="C72" t="n">
-        <v>0.248786</v>
+        <v>0.248496</v>
       </c>
       <c r="D72" t="n">
-        <v>0.216942</v>
+        <v>0.216786</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.306675</v>
+        <v>0.306648</v>
       </c>
       <c r="C73" t="n">
-        <v>0.247367</v>
+        <v>0.247231</v>
       </c>
       <c r="D73" t="n">
-        <v>0.215891</v>
+        <v>0.215775</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.29823</v>
+        <v>0.298206</v>
       </c>
       <c r="C74" t="n">
-        <v>0.246416</v>
+        <v>0.246238</v>
       </c>
       <c r="D74" t="n">
-        <v>0.215001</v>
+        <v>0.214824</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.288669</v>
+        <v>0.288823</v>
       </c>
       <c r="C75" t="n">
-        <v>0.245406</v>
+        <v>0.245398</v>
       </c>
       <c r="D75" t="n">
-        <v>0.214456</v>
+        <v>0.214347</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.278441</v>
+        <v>0.278534</v>
       </c>
       <c r="C76" t="n">
-        <v>0.244788</v>
+        <v>0.24464</v>
       </c>
       <c r="D76" t="n">
-        <v>0.213883</v>
+        <v>0.213721</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.26723</v>
+        <v>0.267324</v>
       </c>
       <c r="C77" t="n">
-        <v>0.243642</v>
+        <v>0.243552</v>
       </c>
       <c r="D77" t="n">
-        <v>0.213361</v>
+        <v>0.213376</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.254696</v>
+        <v>0.254931</v>
       </c>
       <c r="C78" t="n">
-        <v>0.242725</v>
+        <v>0.242702</v>
       </c>
       <c r="D78" t="n">
-        <v>0.213146</v>
+        <v>0.212893</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.241527</v>
+        <v>0.242016</v>
       </c>
       <c r="C79" t="n">
-        <v>0.242449</v>
+        <v>0.242291</v>
       </c>
       <c r="D79" t="n">
-        <v>0.212824</v>
+        <v>0.212751</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227633</v>
+        <v>0.227505</v>
       </c>
       <c r="C80" t="n">
-        <v>0.242261</v>
+        <v>0.242017</v>
       </c>
       <c r="D80" t="n">
-        <v>0.227107</v>
+        <v>0.225585</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.350507</v>
+        <v>0.350484</v>
       </c>
       <c r="C81" t="n">
-        <v>0.261911</v>
+        <v>0.258984</v>
       </c>
       <c r="D81" t="n">
-        <v>0.22465</v>
+        <v>0.223563</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.344807</v>
+        <v>0.344507</v>
       </c>
       <c r="C82" t="n">
-        <v>0.257098</v>
+        <v>0.25536</v>
       </c>
       <c r="D82" t="n">
-        <v>0.222705</v>
+        <v>0.221847</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.33822</v>
+        <v>0.338614</v>
       </c>
       <c r="C83" t="n">
-        <v>0.254328</v>
+        <v>0.25284</v>
       </c>
       <c r="D83" t="n">
-        <v>0.220913</v>
+        <v>0.220267</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.331662</v>
+        <v>0.332229</v>
       </c>
       <c r="C84" t="n">
-        <v>0.251691</v>
+        <v>0.250932</v>
       </c>
       <c r="D84" t="n">
-        <v>0.219445</v>
+        <v>0.218955</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.324277</v>
+        <v>0.324659</v>
       </c>
       <c r="C85" t="n">
-        <v>0.250347</v>
+        <v>0.249602</v>
       </c>
       <c r="D85" t="n">
-        <v>0.218194</v>
+        <v>0.217779</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.316662</v>
+        <v>0.316658</v>
       </c>
       <c r="C86" t="n">
-        <v>0.248858</v>
+        <v>0.248387</v>
       </c>
       <c r="D86" t="n">
-        <v>0.217042</v>
+        <v>0.216936</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.308868</v>
+        <v>0.308645</v>
       </c>
       <c r="C87" t="n">
-        <v>0.247534</v>
+        <v>0.247224</v>
       </c>
       <c r="D87" t="n">
-        <v>0.216094</v>
+        <v>0.215881</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.299867</v>
+        <v>0.300068</v>
       </c>
       <c r="C88" t="n">
-        <v>0.246691</v>
+        <v>0.246486</v>
       </c>
       <c r="D88" t="n">
-        <v>0.215241</v>
+        <v>0.215154</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.29068</v>
+        <v>0.290738</v>
       </c>
       <c r="C89" t="n">
-        <v>0.245542</v>
+        <v>0.245453</v>
       </c>
       <c r="D89" t="n">
-        <v>0.214454</v>
+        <v>0.214519</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.280681</v>
+        <v>0.280734</v>
       </c>
       <c r="C90" t="n">
-        <v>0.244764</v>
+        <v>0.244735</v>
       </c>
       <c r="D90" t="n">
-        <v>0.213831</v>
+        <v>0.213762</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.26954</v>
+        <v>0.269543</v>
       </c>
       <c r="C91" t="n">
-        <v>0.243855</v>
+        <v>0.243778</v>
       </c>
       <c r="D91" t="n">
-        <v>0.213231</v>
+        <v>0.213137</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.258171</v>
+        <v>0.257974</v>
       </c>
       <c r="C92" t="n">
-        <v>0.243202</v>
+        <v>0.243067</v>
       </c>
       <c r="D92" t="n">
-        <v>0.212846</v>
+        <v>0.212823</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.245446</v>
+        <v>0.244859</v>
       </c>
       <c r="C93" t="n">
-        <v>0.242416</v>
+        <v>0.242538</v>
       </c>
       <c r="D93" t="n">
-        <v>0.212843</v>
+        <v>0.212834</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.230795</v>
+        <v>0.230553</v>
       </c>
       <c r="C94" t="n">
-        <v>0.242128</v>
+        <v>0.242098</v>
       </c>
       <c r="D94" t="n">
-        <v>0.22704</v>
+        <v>0.225989</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.35194</v>
+        <v>0.351835</v>
       </c>
       <c r="C95" t="n">
-        <v>0.261807</v>
+        <v>0.259544</v>
       </c>
       <c r="D95" t="n">
-        <v>0.224516</v>
+        <v>0.223682</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.345916</v>
+        <v>0.345705</v>
       </c>
       <c r="C96" t="n">
-        <v>0.257463</v>
+        <v>0.256131</v>
       </c>
       <c r="D96" t="n">
-        <v>0.222396</v>
+        <v>0.222003</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.339976</v>
+        <v>0.339954</v>
       </c>
       <c r="C97" t="n">
-        <v>0.254516</v>
+        <v>0.253513</v>
       </c>
       <c r="D97" t="n">
-        <v>0.220891</v>
+        <v>0.220455</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.33353</v>
+        <v>0.333605</v>
       </c>
       <c r="C98" t="n">
-        <v>0.252096</v>
+        <v>0.251557</v>
       </c>
       <c r="D98" t="n">
-        <v>0.21953</v>
+        <v>0.219169</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.32638</v>
+        <v>0.326227</v>
       </c>
       <c r="C99" t="n">
-        <v>0.250683</v>
+        <v>0.250151</v>
       </c>
       <c r="D99" t="n">
-        <v>0.218294</v>
+        <v>0.21808</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.318635</v>
+        <v>0.318774</v>
       </c>
       <c r="C100" t="n">
-        <v>0.249088</v>
+        <v>0.248707</v>
       </c>
       <c r="D100" t="n">
-        <v>0.217038</v>
+        <v>0.216893</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.31082</v>
+        <v>0.310706</v>
       </c>
       <c r="C101" t="n">
-        <v>0.247994</v>
+        <v>0.24754</v>
       </c>
       <c r="D101" t="n">
-        <v>0.216172</v>
+        <v>0.216089</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.30221</v>
+        <v>0.30227</v>
       </c>
       <c r="C102" t="n">
-        <v>0.247013</v>
+        <v>0.246658</v>
       </c>
       <c r="D102" t="n">
-        <v>0.215333</v>
+        <v>0.215307</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.293165</v>
+        <v>0.292813</v>
       </c>
       <c r="C103" t="n">
-        <v>0.245992</v>
+        <v>0.245693</v>
       </c>
       <c r="D103" t="n">
-        <v>0.21444</v>
+        <v>0.214662</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.283264</v>
+        <v>0.283128</v>
       </c>
       <c r="C104" t="n">
-        <v>0.245082</v>
+        <v>0.245056</v>
       </c>
       <c r="D104" t="n">
-        <v>0.213984</v>
+        <v>0.214012</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.272143</v>
+        <v>0.27174</v>
       </c>
       <c r="C105" t="n">
-        <v>0.244109</v>
+        <v>0.243989</v>
       </c>
       <c r="D105" t="n">
-        <v>0.213386</v>
+        <v>0.213342</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.260279</v>
+        <v>0.260394</v>
       </c>
       <c r="C106" t="n">
-        <v>0.243369</v>
+        <v>0.24328</v>
       </c>
       <c r="D106" t="n">
-        <v>0.212701</v>
+        <v>0.212796</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247866</v>
+        <v>0.247514</v>
       </c>
       <c r="C107" t="n">
-        <v>0.242665</v>
+        <v>0.242542</v>
       </c>
       <c r="D107" t="n">
-        <v>0.212481</v>
+        <v>0.212332</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.233761</v>
+        <v>0.233989</v>
       </c>
       <c r="C108" t="n">
-        <v>0.242143</v>
+        <v>0.241932</v>
       </c>
       <c r="D108" t="n">
-        <v>0.227395</v>
+        <v>0.226407</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.219436</v>
+        <v>0.219446</v>
       </c>
       <c r="C109" t="n">
-        <v>0.241759</v>
+        <v>0.241645</v>
       </c>
       <c r="D109" t="n">
-        <v>0.224776</v>
+        <v>0.22435</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.347423</v>
+        <v>0.347243</v>
       </c>
       <c r="C110" t="n">
-        <v>0.257204</v>
+        <v>0.256414</v>
       </c>
       <c r="D110" t="n">
-        <v>0.223198</v>
+        <v>0.222396</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.341184</v>
+        <v>0.34116</v>
       </c>
       <c r="C111" t="n">
-        <v>0.254287</v>
+        <v>0.253837</v>
       </c>
       <c r="D111" t="n">
-        <v>0.221326</v>
+        <v>0.220888</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.334804</v>
+        <v>0.33481</v>
       </c>
       <c r="C112" t="n">
-        <v>0.252008</v>
+        <v>0.251714</v>
       </c>
       <c r="D112" t="n">
-        <v>0.219851</v>
+        <v>0.219405</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.328241</v>
+        <v>0.327857</v>
       </c>
       <c r="C113" t="n">
-        <v>0.25037</v>
+        <v>0.25048</v>
       </c>
       <c r="D113" t="n">
-        <v>0.218829</v>
+        <v>0.218567</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.320278</v>
+        <v>0.320584</v>
       </c>
       <c r="C114" t="n">
-        <v>0.249142</v>
+        <v>0.249054</v>
       </c>
       <c r="D114" t="n">
-        <v>0.217526</v>
+        <v>0.217525</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.312792</v>
+        <v>0.312224</v>
       </c>
       <c r="C115" t="n">
-        <v>0.248254</v>
+        <v>0.247892</v>
       </c>
       <c r="D115" t="n">
-        <v>0.216516</v>
+        <v>0.216373</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304334</v>
+        <v>0.303969</v>
       </c>
       <c r="C116" t="n">
-        <v>0.24721</v>
+        <v>0.24699</v>
       </c>
       <c r="D116" t="n">
-        <v>0.215786</v>
+        <v>0.215202</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.294999</v>
+        <v>0.295186</v>
       </c>
       <c r="C117" t="n">
-        <v>0.2463</v>
+        <v>0.246018</v>
       </c>
       <c r="D117" t="n">
-        <v>0.21487</v>
+        <v>0.214957</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.285523</v>
+        <v>0.285653</v>
       </c>
       <c r="C118" t="n">
-        <v>0.245394</v>
+        <v>0.245098</v>
       </c>
       <c r="D118" t="n">
-        <v>0.213936</v>
+        <v>0.214469</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.275121</v>
+        <v>0.274983</v>
       </c>
       <c r="C119" t="n">
-        <v>0.244398</v>
+        <v>0.24442</v>
       </c>
       <c r="D119" t="n">
-        <v>0.213775</v>
+        <v>0.214057</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.263428</v>
+        <v>0.263312</v>
       </c>
       <c r="C120" t="n">
-        <v>0.243637</v>
+        <v>0.24355</v>
       </c>
       <c r="D120" t="n">
-        <v>0.213016</v>
+        <v>0.213422</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.251116</v>
+        <v>0.25117</v>
       </c>
       <c r="C121" t="n">
-        <v>0.242944</v>
+        <v>0.242904</v>
       </c>
       <c r="D121" t="n">
-        <v>0.212774</v>
+        <v>0.213655</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.237218</v>
+        <v>0.237382</v>
       </c>
       <c r="C122" t="n">
-        <v>0.242429</v>
+        <v>0.242419</v>
       </c>
       <c r="D122" t="n">
-        <v>0.212612</v>
+        <v>0.213227</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.22278</v>
+        <v>0.222747</v>
       </c>
       <c r="C123" t="n">
-        <v>0.241712</v>
+        <v>0.241743</v>
       </c>
       <c r="D123" t="n">
-        <v>0.22575</v>
+        <v>0.225052</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.349111</v>
+        <v>0.348614</v>
       </c>
       <c r="C124" t="n">
-        <v>0.258458</v>
+        <v>0.25736</v>
       </c>
       <c r="D124" t="n">
-        <v>0.223201</v>
+        <v>0.223479</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.343051</v>
+        <v>0.34292</v>
       </c>
       <c r="C125" t="n">
-        <v>0.254855</v>
+        <v>0.254297</v>
       </c>
       <c r="D125" t="n">
-        <v>0.22132</v>
+        <v>0.222175</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.336731</v>
+        <v>0.33643</v>
       </c>
       <c r="C126" t="n">
-        <v>0.252326</v>
+        <v>0.251978</v>
       </c>
       <c r="D126" t="n">
-        <v>0.21985</v>
+        <v>0.2202</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.330039</v>
+        <v>0.330011</v>
       </c>
       <c r="C127" t="n">
-        <v>0.250391</v>
+        <v>0.250221</v>
       </c>
       <c r="D127" t="n">
-        <v>0.219218</v>
+        <v>0.219081</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.322188</v>
+        <v>0.322273</v>
       </c>
       <c r="C128" t="n">
-        <v>0.249054</v>
+        <v>0.248538</v>
       </c>
       <c r="D128" t="n">
-        <v>0.21834</v>
+        <v>0.219115</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.314313</v>
+        <v>0.314516</v>
       </c>
       <c r="C129" t="n">
         <v>0.247606</v>
       </c>
       <c r="D129" t="n">
-        <v>0.216862</v>
+        <v>0.217519</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.305912</v>
+        <v>0.306292</v>
       </c>
       <c r="C130" t="n">
-        <v>0.24677</v>
+        <v>0.246401</v>
       </c>
       <c r="D130" t="n">
-        <v>0.215936</v>
+        <v>0.216369</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.297014</v>
+        <v>0.297668</v>
       </c>
       <c r="C131" t="n">
-        <v>0.245653</v>
+        <v>0.245436</v>
       </c>
       <c r="D131" t="n">
-        <v>0.215458</v>
+        <v>0.215974</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.287762</v>
+        <v>0.288465</v>
       </c>
       <c r="C132" t="n">
-        <v>0.244773</v>
+        <v>0.244661</v>
       </c>
       <c r="D132" t="n">
-        <v>0.214964</v>
+        <v>0.214874</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.276968</v>
+        <v>0.276996</v>
       </c>
       <c r="C133" t="n">
-        <v>0.243905</v>
+        <v>0.244308</v>
       </c>
       <c r="D133" t="n">
-        <v>0.21427</v>
+        <v>0.215303</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.265916</v>
+        <v>0.266248</v>
       </c>
       <c r="C134" t="n">
-        <v>0.243166</v>
+        <v>0.243188</v>
       </c>
       <c r="D134" t="n">
-        <v>0.213039</v>
+        <v>0.214317</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.253525</v>
+        <v>0.253826</v>
       </c>
       <c r="C135" t="n">
-        <v>0.24286</v>
+        <v>0.242879</v>
       </c>
       <c r="D135" t="n">
-        <v>0.212711</v>
+        <v>0.213582</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.240173</v>
+        <v>0.240193</v>
       </c>
       <c r="C136" t="n">
-        <v>0.241909</v>
+        <v>0.241617</v>
       </c>
       <c r="D136" t="n">
-        <v>0.212846</v>
+        <v>0.214879</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.225883</v>
+        <v>0.22555</v>
       </c>
       <c r="C137" t="n">
-        <v>0.241742</v>
+        <v>0.241731</v>
       </c>
       <c r="D137" t="n">
-        <v>0.22749</v>
+        <v>0.227794</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.350728</v>
+        <v>0.350326</v>
       </c>
       <c r="C138" t="n">
-        <v>0.260017</v>
+        <v>0.259062</v>
       </c>
       <c r="D138" t="n">
-        <v>0.226388</v>
+        <v>0.226272</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.345054</v>
+        <v>0.344585</v>
       </c>
       <c r="C139" t="n">
-        <v>0.255719</v>
+        <v>0.255688</v>
       </c>
       <c r="D139" t="n">
-        <v>0.223996</v>
+        <v>0.22454</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.3383</v>
+        <v>0.338109</v>
       </c>
       <c r="C140" t="n">
-        <v>0.252937</v>
+        <v>0.253106</v>
       </c>
       <c r="D140" t="n">
-        <v>0.222979</v>
+        <v>0.223483</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331417</v>
+        <v>0.331582</v>
       </c>
       <c r="C141" t="n">
-        <v>0.251069</v>
+        <v>0.250477</v>
       </c>
       <c r="D141" t="n">
-        <v>0.221357</v>
+        <v>0.223501</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.32412</v>
+        <v>0.324268</v>
       </c>
       <c r="C142" t="n">
-        <v>0.249687</v>
+        <v>0.249893</v>
       </c>
       <c r="D142" t="n">
-        <v>0.220372</v>
+        <v>0.22162</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.316094</v>
+        <v>0.31722</v>
       </c>
       <c r="C143" t="n">
-        <v>0.248141</v>
+        <v>0.247813</v>
       </c>
       <c r="D143" t="n">
-        <v>0.21827</v>
+        <v>0.220795</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.296005</v>
+        <v>0.297298</v>
       </c>
       <c r="C2" t="n">
-        <v>0.224079</v>
+        <v>0.321452</v>
       </c>
       <c r="D2" t="n">
-        <v>0.197826</v>
+        <v>0.200265</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.290087</v>
+        <v>0.289765</v>
       </c>
       <c r="C3" t="n">
-        <v>0.223614</v>
+        <v>0.3468</v>
       </c>
       <c r="D3" t="n">
-        <v>0.199236</v>
+        <v>0.203911</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.280167</v>
+        <v>0.279361</v>
       </c>
       <c r="C4" t="n">
-        <v>0.225471</v>
+        <v>0.36828</v>
       </c>
       <c r="D4" t="n">
-        <v>0.200656</v>
+        <v>0.204389</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.270513</v>
+        <v>0.268396</v>
       </c>
       <c r="C5" t="n">
-        <v>0.225529</v>
+        <v>0.391394</v>
       </c>
       <c r="D5" t="n">
-        <v>0.199833</v>
+        <v>0.202945</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.258252</v>
+        <v>0.256694</v>
       </c>
       <c r="C6" t="n">
-        <v>0.225289</v>
+        <v>0.419879</v>
       </c>
       <c r="D6" t="n">
-        <v>0.200573</v>
+        <v>0.20527</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.244358</v>
+        <v>0.245932</v>
       </c>
       <c r="C7" t="n">
-        <v>0.225224</v>
+        <v>0.449497</v>
       </c>
       <c r="D7" t="n">
-        <v>0.20211</v>
+        <v>0.202949</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.231792</v>
+        <v>0.231608</v>
       </c>
       <c r="C8" t="n">
-        <v>0.22645</v>
+        <v>0.253427</v>
       </c>
       <c r="D8" t="n">
-        <v>0.20197</v>
+        <v>0.205219</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.220657</v>
+        <v>0.216736</v>
       </c>
       <c r="C9" t="n">
-        <v>0.226579</v>
+        <v>0.266235</v>
       </c>
       <c r="D9" t="n">
-        <v>0.217758</v>
+        <v>0.223719</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.345714</v>
+        <v>0.341793</v>
       </c>
       <c r="C10" t="n">
-        <v>0.246977</v>
+        <v>0.278775</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216949</v>
+        <v>0.223105</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.339278</v>
+        <v>0.337472</v>
       </c>
       <c r="C11" t="n">
-        <v>0.244225</v>
+        <v>0.291248</v>
       </c>
       <c r="D11" t="n">
-        <v>0.215511</v>
+        <v>0.221739</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.332668</v>
+        <v>0.332727</v>
       </c>
       <c r="C12" t="n">
-        <v>0.242729</v>
+        <v>0.303592</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214148</v>
+        <v>0.221198</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.326103</v>
+        <v>0.326384</v>
       </c>
       <c r="C13" t="n">
-        <v>0.241118</v>
+        <v>0.315215</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212363</v>
+        <v>0.21999</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.318816</v>
+        <v>0.318546</v>
       </c>
       <c r="C14" t="n">
-        <v>0.239591</v>
+        <v>0.331224</v>
       </c>
       <c r="D14" t="n">
-        <v>0.211994</v>
+        <v>0.218254</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.31425</v>
+        <v>0.31091</v>
       </c>
       <c r="C15" t="n">
-        <v>0.239007</v>
+        <v>0.343072</v>
       </c>
       <c r="D15" t="n">
-        <v>0.210028</v>
+        <v>0.218772</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.312782</v>
+        <v>0.303324</v>
       </c>
       <c r="C16" t="n">
-        <v>0.238786</v>
+        <v>0.357364</v>
       </c>
       <c r="D16" t="n">
-        <v>0.209773</v>
+        <v>0.216913</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.296215</v>
+        <v>0.29414</v>
       </c>
       <c r="C17" t="n">
-        <v>0.238534</v>
+        <v>0.372876</v>
       </c>
       <c r="D17" t="n">
-        <v>0.210318</v>
+        <v>0.216175</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.288889</v>
+        <v>0.285013</v>
       </c>
       <c r="C18" t="n">
-        <v>0.239179</v>
+        <v>0.392943</v>
       </c>
       <c r="D18" t="n">
-        <v>0.209173</v>
+        <v>0.215615</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.279351</v>
+        <v>0.273139</v>
       </c>
       <c r="C19" t="n">
-        <v>0.237528</v>
+        <v>0.412204</v>
       </c>
       <c r="D19" t="n">
-        <v>0.209193</v>
+        <v>0.215632</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.268309</v>
+        <v>0.261301</v>
       </c>
       <c r="C20" t="n">
-        <v>0.237399</v>
+        <v>0.432683</v>
       </c>
       <c r="D20" t="n">
-        <v>0.209668</v>
+        <v>0.215101</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.258903</v>
+        <v>0.25087</v>
       </c>
       <c r="C21" t="n">
-        <v>0.237098</v>
+        <v>0.457529</v>
       </c>
       <c r="D21" t="n">
-        <v>0.209148</v>
+        <v>0.214743</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.242796</v>
+        <v>0.237713</v>
       </c>
       <c r="C22" t="n">
-        <v>0.236745</v>
+        <v>0.299068</v>
       </c>
       <c r="D22" t="n">
-        <v>0.209191</v>
+        <v>0.215121</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.228718</v>
+        <v>0.225588</v>
       </c>
       <c r="C23" t="n">
-        <v>0.236935</v>
+        <v>0.306905</v>
       </c>
       <c r="D23" t="n">
-        <v>0.224365</v>
+        <v>0.22798</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348237</v>
+        <v>0.345588</v>
       </c>
       <c r="C24" t="n">
-        <v>0.254339</v>
+        <v>0.313576</v>
       </c>
       <c r="D24" t="n">
-        <v>0.222441</v>
+        <v>0.225756</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.341827</v>
+        <v>0.340798</v>
       </c>
       <c r="C25" t="n">
-        <v>0.252867</v>
+        <v>0.324134</v>
       </c>
       <c r="D25" t="n">
-        <v>0.221083</v>
+        <v>0.224467</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.335998</v>
+        <v>0.334184</v>
       </c>
       <c r="C26" t="n">
-        <v>0.250793</v>
+        <v>0.332206</v>
       </c>
       <c r="D26" t="n">
-        <v>0.220089</v>
+        <v>0.223658</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328309</v>
+        <v>0.328256</v>
       </c>
       <c r="C27" t="n">
-        <v>0.249455</v>
+        <v>0.342148</v>
       </c>
       <c r="D27" t="n">
-        <v>0.218203</v>
+        <v>0.222588</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.321481</v>
+        <v>0.321341</v>
       </c>
       <c r="C28" t="n">
-        <v>0.24738</v>
+        <v>0.353574</v>
       </c>
       <c r="D28" t="n">
-        <v>0.216624</v>
+        <v>0.221706</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.314734</v>
+        <v>0.313758</v>
       </c>
       <c r="C29" t="n">
-        <v>0.246146</v>
+        <v>0.366324</v>
       </c>
       <c r="D29" t="n">
-        <v>0.216044</v>
+        <v>0.221164</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.306602</v>
+        <v>0.305355</v>
       </c>
       <c r="C30" t="n">
-        <v>0.244923</v>
+        <v>0.38039</v>
       </c>
       <c r="D30" t="n">
-        <v>0.214824</v>
+        <v>0.21994</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.298066</v>
+        <v>0.297368</v>
       </c>
       <c r="C31" t="n">
-        <v>0.243966</v>
+        <v>0.398878</v>
       </c>
       <c r="D31" t="n">
-        <v>0.214155</v>
+        <v>0.219398</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.288561</v>
+        <v>0.288539</v>
       </c>
       <c r="C32" t="n">
-        <v>0.243475</v>
+        <v>0.414062</v>
       </c>
       <c r="D32" t="n">
-        <v>0.213904</v>
+        <v>0.218289</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.279534</v>
+        <v>0.279293</v>
       </c>
       <c r="C33" t="n">
-        <v>0.242521</v>
+        <v>0.434205</v>
       </c>
       <c r="D33" t="n">
-        <v>0.213324</v>
+        <v>0.217384</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.269171</v>
+        <v>0.268449</v>
       </c>
       <c r="C34" t="n">
-        <v>0.241903</v>
+        <v>0.457548</v>
       </c>
       <c r="D34" t="n">
-        <v>0.212868</v>
+        <v>0.217166</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.258004</v>
+        <v>0.256913</v>
       </c>
       <c r="C35" t="n">
-        <v>0.242014</v>
+        <v>0.47845</v>
       </c>
       <c r="D35" t="n">
-        <v>0.212648</v>
+        <v>0.215954</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244986</v>
+        <v>0.244468</v>
       </c>
       <c r="C36" t="n">
-        <v>0.241841</v>
+        <v>0.506589</v>
       </c>
       <c r="D36" t="n">
-        <v>0.211962</v>
+        <v>0.215642</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.230698</v>
+        <v>0.230257</v>
       </c>
       <c r="C37" t="n">
-        <v>0.241348</v>
+        <v>0.49046</v>
       </c>
       <c r="D37" t="n">
-        <v>0.226988</v>
+        <v>0.228687</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.349648</v>
+        <v>0.349331</v>
       </c>
       <c r="C38" t="n">
-        <v>0.261049</v>
+        <v>0.489703</v>
       </c>
       <c r="D38" t="n">
-        <v>0.224184</v>
+        <v>0.227003</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3446</v>
+        <v>0.344197</v>
       </c>
       <c r="C39" t="n">
-        <v>0.257528</v>
+        <v>0.489711</v>
       </c>
       <c r="D39" t="n">
-        <v>0.222283</v>
+        <v>0.225277</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.338259</v>
+        <v>0.337652</v>
       </c>
       <c r="C40" t="n">
-        <v>0.25461</v>
+        <v>0.487979</v>
       </c>
       <c r="D40" t="n">
-        <v>0.220497</v>
+        <v>0.224232</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.331679</v>
+        <v>0.331697</v>
       </c>
       <c r="C41" t="n">
-        <v>0.251453</v>
+        <v>0.487404</v>
       </c>
       <c r="D41" t="n">
-        <v>0.218803</v>
+        <v>0.223147</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.324672</v>
+        <v>0.325617</v>
       </c>
       <c r="C42" t="n">
-        <v>0.250697</v>
+        <v>0.488968</v>
       </c>
       <c r="D42" t="n">
-        <v>0.21773</v>
+        <v>0.221565</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.316479</v>
+        <v>0.317862</v>
       </c>
       <c r="C43" t="n">
-        <v>0.249421</v>
+        <v>0.492359</v>
       </c>
       <c r="D43" t="n">
-        <v>0.21685</v>
+        <v>0.220807</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.30956</v>
+        <v>0.309916</v>
       </c>
       <c r="C44" t="n">
-        <v>0.247722</v>
+        <v>0.497151</v>
       </c>
       <c r="D44" t="n">
-        <v>0.215635</v>
+        <v>0.219883</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300799</v>
+        <v>0.301298</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246779</v>
+        <v>0.503219</v>
       </c>
       <c r="D45" t="n">
-        <v>0.214678</v>
+        <v>0.218925</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291823</v>
+        <v>0.29192</v>
       </c>
       <c r="C46" t="n">
-        <v>0.245833</v>
+        <v>0.5097</v>
       </c>
       <c r="D46" t="n">
-        <v>0.213983</v>
+        <v>0.218271</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.282621</v>
+        <v>0.282052</v>
       </c>
       <c r="C47" t="n">
-        <v>0.244777</v>
+        <v>0.514532</v>
       </c>
       <c r="D47" t="n">
-        <v>0.213928</v>
+        <v>0.217552</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.271683</v>
+        <v>0.271312</v>
       </c>
       <c r="C48" t="n">
-        <v>0.243713</v>
+        <v>0.5306110000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.213808</v>
+        <v>0.217151</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.261366</v>
+        <v>0.260381</v>
       </c>
       <c r="C49" t="n">
-        <v>0.242958</v>
+        <v>0.546319</v>
       </c>
       <c r="D49" t="n">
-        <v>0.213343</v>
+        <v>0.216592</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.249278</v>
+        <v>0.247985</v>
       </c>
       <c r="C50" t="n">
-        <v>0.242566</v>
+        <v>0.564522</v>
       </c>
       <c r="D50" t="n">
-        <v>0.214012</v>
+        <v>0.216223</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.235089</v>
+        <v>0.234585</v>
       </c>
       <c r="C51" t="n">
-        <v>0.242019</v>
+        <v>0.498798</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2259</v>
+        <v>0.229188</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.220181</v>
+        <v>0.220195</v>
       </c>
       <c r="C52" t="n">
-        <v>0.241282</v>
+        <v>0.5007470000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.223599</v>
+        <v>0.227381</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.347245</v>
+        <v>0.346752</v>
       </c>
       <c r="C53" t="n">
-        <v>0.257483</v>
+        <v>0.496418</v>
       </c>
       <c r="D53" t="n">
-        <v>0.222024</v>
+        <v>0.226084</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.341168</v>
+        <v>0.341073</v>
       </c>
       <c r="C54" t="n">
-        <v>0.254669</v>
+        <v>0.49916</v>
       </c>
       <c r="D54" t="n">
-        <v>0.220525</v>
+        <v>0.225218</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.335071</v>
+        <v>0.334927</v>
       </c>
       <c r="C55" t="n">
-        <v>0.252187</v>
+        <v>0.500042</v>
       </c>
       <c r="D55" t="n">
-        <v>0.21942</v>
+        <v>0.223979</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.327312</v>
+        <v>0.327885</v>
       </c>
       <c r="C56" t="n">
-        <v>0.250616</v>
+        <v>0.500436</v>
       </c>
       <c r="D56" t="n">
-        <v>0.218027</v>
+        <v>0.222621</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.320558</v>
+        <v>0.32039</v>
       </c>
       <c r="C57" t="n">
-        <v>0.249208</v>
+        <v>0.501484</v>
       </c>
       <c r="D57" t="n">
-        <v>0.217024</v>
+        <v>0.221416</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.312989</v>
+        <v>0.312666</v>
       </c>
       <c r="C58" t="n">
-        <v>0.247792</v>
+        <v>0.504911</v>
       </c>
       <c r="D58" t="n">
-        <v>0.216374</v>
+        <v>0.220736</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304452</v>
+        <v>0.30383</v>
       </c>
       <c r="C59" t="n">
-        <v>0.246737</v>
+        <v>0.5086619999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.215482</v>
+        <v>0.219631</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.2946</v>
+        <v>0.294344</v>
       </c>
       <c r="C60" t="n">
-        <v>0.245951</v>
+        <v>0.518391</v>
       </c>
       <c r="D60" t="n">
-        <v>0.21472</v>
+        <v>0.218667</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284938</v>
+        <v>0.284893</v>
       </c>
       <c r="C61" t="n">
-        <v>0.245181</v>
+        <v>0.5288119999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.214082</v>
+        <v>0.218134</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.274545</v>
+        <v>0.274275</v>
       </c>
       <c r="C62" t="n">
-        <v>0.244249</v>
+        <v>0.535709</v>
       </c>
       <c r="D62" t="n">
-        <v>0.213572</v>
+        <v>0.217567</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263286</v>
+        <v>0.263151</v>
       </c>
       <c r="C63" t="n">
-        <v>0.243186</v>
+        <v>0.557497</v>
       </c>
       <c r="D63" t="n">
-        <v>0.21323</v>
+        <v>0.216697</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.250953</v>
+        <v>0.250899</v>
       </c>
       <c r="C64" t="n">
-        <v>0.243041</v>
+        <v>0.573184</v>
       </c>
       <c r="D64" t="n">
-        <v>0.21262</v>
+        <v>0.216345</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.237819</v>
+        <v>0.238273</v>
       </c>
       <c r="C65" t="n">
-        <v>0.242042</v>
+        <v>0.511906</v>
       </c>
       <c r="D65" t="n">
-        <v>0.212344</v>
+        <v>0.215865</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.223513</v>
+        <v>0.223866</v>
       </c>
       <c r="C66" t="n">
-        <v>0.241527</v>
+        <v>0.508421</v>
       </c>
       <c r="D66" t="n">
-        <v>0.225097</v>
+        <v>0.228635</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.348795</v>
+        <v>0.348753</v>
       </c>
       <c r="C67" t="n">
-        <v>0.259568</v>
+        <v>0.508626</v>
       </c>
       <c r="D67" t="n">
-        <v>0.223173</v>
+        <v>0.227588</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.34292</v>
+        <v>0.342807</v>
       </c>
       <c r="C68" t="n">
-        <v>0.25578</v>
+        <v>0.5057970000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.221293</v>
+        <v>0.225586</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.336689</v>
+        <v>0.33634</v>
       </c>
       <c r="C69" t="n">
-        <v>0.252916</v>
+        <v>0.506918</v>
       </c>
       <c r="D69" t="n">
-        <v>0.219896</v>
+        <v>0.224426</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.329775</v>
+        <v>0.329837</v>
       </c>
       <c r="C70" t="n">
-        <v>0.251099</v>
+        <v>0.5072</v>
       </c>
       <c r="D70" t="n">
-        <v>0.218846</v>
+        <v>0.222981</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.322606</v>
+        <v>0.322615</v>
       </c>
       <c r="C71" t="n">
-        <v>0.249768</v>
+        <v>0.505375</v>
       </c>
       <c r="D71" t="n">
-        <v>0.21767</v>
+        <v>0.221843</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.3154</v>
+        <v>0.314602</v>
       </c>
       <c r="C72" t="n">
-        <v>0.248496</v>
+        <v>0.511469</v>
       </c>
       <c r="D72" t="n">
-        <v>0.216786</v>
+        <v>0.221336</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.306648</v>
+        <v>0.306153</v>
       </c>
       <c r="C73" t="n">
-        <v>0.247231</v>
+        <v>0.5157040000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.215775</v>
+        <v>0.220232</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.298206</v>
+        <v>0.297115</v>
       </c>
       <c r="C74" t="n">
-        <v>0.246238</v>
+        <v>0.52239</v>
       </c>
       <c r="D74" t="n">
-        <v>0.214824</v>
+        <v>0.219385</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.288823</v>
+        <v>0.287671</v>
       </c>
       <c r="C75" t="n">
-        <v>0.245398</v>
+        <v>0.531671</v>
       </c>
       <c r="D75" t="n">
-        <v>0.214347</v>
+        <v>0.218762</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.278534</v>
+        <v>0.277474</v>
       </c>
       <c r="C76" t="n">
-        <v>0.24464</v>
+        <v>0.538691</v>
       </c>
       <c r="D76" t="n">
-        <v>0.213721</v>
+        <v>0.217946</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.267324</v>
+        <v>0.2664</v>
       </c>
       <c r="C77" t="n">
-        <v>0.243552</v>
+        <v>0.558053</v>
       </c>
       <c r="D77" t="n">
-        <v>0.213376</v>
+        <v>0.217459</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.254931</v>
+        <v>0.254345</v>
       </c>
       <c r="C78" t="n">
-        <v>0.242702</v>
+        <v>0.569806</v>
       </c>
       <c r="D78" t="n">
-        <v>0.212893</v>
+        <v>0.216839</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.242016</v>
+        <v>0.241915</v>
       </c>
       <c r="C79" t="n">
-        <v>0.242291</v>
+        <v>0.537568</v>
       </c>
       <c r="D79" t="n">
-        <v>0.212751</v>
+        <v>0.216175</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227505</v>
+        <v>0.227928</v>
       </c>
       <c r="C80" t="n">
-        <v>0.242017</v>
+        <v>0.527582</v>
       </c>
       <c r="D80" t="n">
-        <v>0.225585</v>
+        <v>0.23109</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.350484</v>
+        <v>0.350965</v>
       </c>
       <c r="C81" t="n">
-        <v>0.258984</v>
+        <v>0.529278</v>
       </c>
       <c r="D81" t="n">
-        <v>0.223563</v>
+        <v>0.228728</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.344507</v>
+        <v>0.344758</v>
       </c>
       <c r="C82" t="n">
-        <v>0.25536</v>
+        <v>0.531011</v>
       </c>
       <c r="D82" t="n">
-        <v>0.221847</v>
+        <v>0.226996</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.338614</v>
+        <v>0.338293</v>
       </c>
       <c r="C83" t="n">
-        <v>0.25284</v>
+        <v>0.530684</v>
       </c>
       <c r="D83" t="n">
-        <v>0.220267</v>
+        <v>0.225547</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.332229</v>
+        <v>0.331711</v>
       </c>
       <c r="C84" t="n">
-        <v>0.250932</v>
+        <v>0.52903</v>
       </c>
       <c r="D84" t="n">
-        <v>0.218955</v>
+        <v>0.224112</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.324659</v>
+        <v>0.324204</v>
       </c>
       <c r="C85" t="n">
-        <v>0.249602</v>
+        <v>0.527506</v>
       </c>
       <c r="D85" t="n">
-        <v>0.217779</v>
+        <v>0.222641</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.316658</v>
+        <v>0.316721</v>
       </c>
       <c r="C86" t="n">
-        <v>0.248387</v>
+        <v>0.524257</v>
       </c>
       <c r="D86" t="n">
-        <v>0.216936</v>
+        <v>0.22177</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.308645</v>
+        <v>0.308759</v>
       </c>
       <c r="C87" t="n">
-        <v>0.247224</v>
+        <v>0.5396609999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.215881</v>
+        <v>0.220933</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300068</v>
+        <v>0.299571</v>
       </c>
       <c r="C88" t="n">
-        <v>0.246486</v>
+        <v>0.542259</v>
       </c>
       <c r="D88" t="n">
-        <v>0.215154</v>
+        <v>0.219632</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.290738</v>
+        <v>0.289915</v>
       </c>
       <c r="C89" t="n">
-        <v>0.245453</v>
+        <v>0.549505</v>
       </c>
       <c r="D89" t="n">
-        <v>0.214519</v>
+        <v>0.21882</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.280734</v>
+        <v>0.280028</v>
       </c>
       <c r="C90" t="n">
-        <v>0.244735</v>
+        <v>0.546795</v>
       </c>
       <c r="D90" t="n">
-        <v>0.213762</v>
+        <v>0.218149</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.269543</v>
+        <v>0.269146</v>
       </c>
       <c r="C91" t="n">
-        <v>0.243778</v>
+        <v>0.577292</v>
       </c>
       <c r="D91" t="n">
-        <v>0.213137</v>
+        <v>0.217454</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.257974</v>
+        <v>0.257426</v>
       </c>
       <c r="C92" t="n">
-        <v>0.243067</v>
+        <v>0.579168</v>
       </c>
       <c r="D92" t="n">
-        <v>0.212823</v>
+        <v>0.216909</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.244859</v>
+        <v>0.244428</v>
       </c>
       <c r="C93" t="n">
-        <v>0.242538</v>
+        <v>0.618763</v>
       </c>
       <c r="D93" t="n">
-        <v>0.212834</v>
+        <v>0.216304</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.230553</v>
+        <v>0.230754</v>
       </c>
       <c r="C94" t="n">
-        <v>0.242098</v>
+        <v>0.690717</v>
       </c>
       <c r="D94" t="n">
-        <v>0.225989</v>
+        <v>0.231628</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.351835</v>
+        <v>0.351807</v>
       </c>
       <c r="C95" t="n">
-        <v>0.259544</v>
+        <v>0.688814</v>
       </c>
       <c r="D95" t="n">
-        <v>0.223682</v>
+        <v>0.229291</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.345705</v>
+        <v>0.34664</v>
       </c>
       <c r="C96" t="n">
-        <v>0.256131</v>
+        <v>0.695946</v>
       </c>
       <c r="D96" t="n">
-        <v>0.222003</v>
+        <v>0.227513</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.339954</v>
+        <v>0.339973</v>
       </c>
       <c r="C97" t="n">
-        <v>0.253513</v>
+        <v>0.707338</v>
       </c>
       <c r="D97" t="n">
-        <v>0.220455</v>
+        <v>0.225789</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.333605</v>
+        <v>0.333243</v>
       </c>
       <c r="C98" t="n">
-        <v>0.251557</v>
+        <v>0.674517</v>
       </c>
       <c r="D98" t="n">
-        <v>0.219169</v>
+        <v>0.22485</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.326227</v>
+        <v>0.326375</v>
       </c>
       <c r="C99" t="n">
-        <v>0.250151</v>
+        <v>0.686079</v>
       </c>
       <c r="D99" t="n">
-        <v>0.21808</v>
+        <v>0.223503</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.318774</v>
+        <v>0.318443</v>
       </c>
       <c r="C100" t="n">
-        <v>0.248707</v>
+        <v>0.723633</v>
       </c>
       <c r="D100" t="n">
-        <v>0.216893</v>
+        <v>0.222501</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.310706</v>
+        <v>0.31044</v>
       </c>
       <c r="C101" t="n">
-        <v>0.24754</v>
+        <v>0.730912</v>
       </c>
       <c r="D101" t="n">
-        <v>0.216089</v>
+        <v>0.221197</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.30227</v>
+        <v>0.301596</v>
       </c>
       <c r="C102" t="n">
-        <v>0.246658</v>
+        <v>0.742214</v>
       </c>
       <c r="D102" t="n">
-        <v>0.215307</v>
+        <v>0.220288</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.292813</v>
+        <v>0.292394</v>
       </c>
       <c r="C103" t="n">
-        <v>0.245693</v>
+        <v>0.731097</v>
       </c>
       <c r="D103" t="n">
-        <v>0.214662</v>
+        <v>0.219452</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.283128</v>
+        <v>0.282485</v>
       </c>
       <c r="C104" t="n">
-        <v>0.245056</v>
+        <v>0.778397</v>
       </c>
       <c r="D104" t="n">
-        <v>0.214012</v>
+        <v>0.218843</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.27174</v>
+        <v>0.271944</v>
       </c>
       <c r="C105" t="n">
-        <v>0.243989</v>
+        <v>0.797058</v>
       </c>
       <c r="D105" t="n">
-        <v>0.213342</v>
+        <v>0.217967</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.260394</v>
+        <v>0.259882</v>
       </c>
       <c r="C106" t="n">
-        <v>0.24328</v>
+        <v>0.81989</v>
       </c>
       <c r="D106" t="n">
-        <v>0.212796</v>
+        <v>0.217525</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247514</v>
+        <v>0.24759</v>
       </c>
       <c r="C107" t="n">
-        <v>0.242542</v>
+        <v>0.836525</v>
       </c>
       <c r="D107" t="n">
-        <v>0.212332</v>
+        <v>0.216804</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.233989</v>
+        <v>0.233968</v>
       </c>
       <c r="C108" t="n">
-        <v>0.241932</v>
+        <v>0.841682</v>
       </c>
       <c r="D108" t="n">
-        <v>0.226407</v>
+        <v>0.232323</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.219446</v>
+        <v>0.219639</v>
       </c>
       <c r="C109" t="n">
-        <v>0.241645</v>
+        <v>0.856386</v>
       </c>
       <c r="D109" t="n">
-        <v>0.22435</v>
+        <v>0.230043</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.347243</v>
+        <v>0.347172</v>
       </c>
       <c r="C110" t="n">
-        <v>0.256414</v>
+        <v>0.8546</v>
       </c>
       <c r="D110" t="n">
-        <v>0.222396</v>
+        <v>0.228666</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.34116</v>
+        <v>0.341319</v>
       </c>
       <c r="C111" t="n">
-        <v>0.253837</v>
+        <v>0.865295</v>
       </c>
       <c r="D111" t="n">
-        <v>0.220888</v>
+        <v>0.226071</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.33481</v>
+        <v>0.334614</v>
       </c>
       <c r="C112" t="n">
-        <v>0.251714</v>
+        <v>0.877046</v>
       </c>
       <c r="D112" t="n">
-        <v>0.219405</v>
+        <v>0.225144</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.327857</v>
+        <v>0.327493</v>
       </c>
       <c r="C113" t="n">
-        <v>0.25048</v>
+        <v>0.880643</v>
       </c>
       <c r="D113" t="n">
-        <v>0.218567</v>
+        <v>0.223916</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.320584</v>
+        <v>0.320253</v>
       </c>
       <c r="C114" t="n">
-        <v>0.249054</v>
+        <v>0.908144</v>
       </c>
       <c r="D114" t="n">
-        <v>0.217525</v>
+        <v>0.223136</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.312224</v>
+        <v>0.31241</v>
       </c>
       <c r="C115" t="n">
-        <v>0.247892</v>
+        <v>0.903756</v>
       </c>
       <c r="D115" t="n">
-        <v>0.216373</v>
+        <v>0.222285</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.303969</v>
+        <v>0.303766</v>
       </c>
       <c r="C116" t="n">
-        <v>0.24699</v>
+        <v>0.952711</v>
       </c>
       <c r="D116" t="n">
-        <v>0.215202</v>
+        <v>0.221367</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.295186</v>
+        <v>0.294782</v>
       </c>
       <c r="C117" t="n">
-        <v>0.246018</v>
+        <v>0.979141</v>
       </c>
       <c r="D117" t="n">
-        <v>0.214957</v>
+        <v>0.220038</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.285653</v>
+        <v>0.284829</v>
       </c>
       <c r="C118" t="n">
-        <v>0.245098</v>
+        <v>1.01406</v>
       </c>
       <c r="D118" t="n">
-        <v>0.214469</v>
+        <v>0.219997</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.274983</v>
+        <v>0.274342</v>
       </c>
       <c r="C119" t="n">
-        <v>0.24442</v>
+        <v>1.01479</v>
       </c>
       <c r="D119" t="n">
-        <v>0.214057</v>
+        <v>0.218911</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.263312</v>
+        <v>0.263246</v>
       </c>
       <c r="C120" t="n">
-        <v>0.24355</v>
+        <v>1.05916</v>
       </c>
       <c r="D120" t="n">
-        <v>0.213422</v>
+        <v>0.218312</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.25117</v>
+        <v>0.250498</v>
       </c>
       <c r="C121" t="n">
-        <v>0.242904</v>
+        <v>1.16056</v>
       </c>
       <c r="D121" t="n">
-        <v>0.213655</v>
+        <v>0.217756</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.237382</v>
+        <v>0.237118</v>
       </c>
       <c r="C122" t="n">
-        <v>0.242419</v>
+        <v>0.935465</v>
       </c>
       <c r="D122" t="n">
-        <v>0.213227</v>
+        <v>0.217016</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.222747</v>
+        <v>0.222827</v>
       </c>
       <c r="C123" t="n">
-        <v>0.241743</v>
+        <v>0.9439610000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.225052</v>
+        <v>0.232558</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.348614</v>
+        <v>0.349002</v>
       </c>
       <c r="C124" t="n">
-        <v>0.25736</v>
+        <v>0.951796</v>
       </c>
       <c r="D124" t="n">
-        <v>0.223479</v>
+        <v>0.229424</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.34292</v>
+        <v>0.342957</v>
       </c>
       <c r="C125" t="n">
-        <v>0.254297</v>
+        <v>0.9620069999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>0.222175</v>
+        <v>0.2287</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.33643</v>
+        <v>0.336403</v>
       </c>
       <c r="C126" t="n">
-        <v>0.251978</v>
+        <v>0.977309</v>
       </c>
       <c r="D126" t="n">
-        <v>0.2202</v>
+        <v>0.226646</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.330011</v>
+        <v>0.329397</v>
       </c>
       <c r="C127" t="n">
-        <v>0.250221</v>
+        <v>0.99036</v>
       </c>
       <c r="D127" t="n">
-        <v>0.219081</v>
+        <v>0.227586</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.322273</v>
+        <v>0.321906</v>
       </c>
       <c r="C128" t="n">
-        <v>0.248538</v>
+        <v>1.00934</v>
       </c>
       <c r="D128" t="n">
-        <v>0.219115</v>
+        <v>0.22543</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.314516</v>
+        <v>0.314634</v>
       </c>
       <c r="C129" t="n">
-        <v>0.247606</v>
+        <v>1.01392</v>
       </c>
       <c r="D129" t="n">
-        <v>0.217519</v>
+        <v>0.224623</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.306292</v>
+        <v>0.306096</v>
       </c>
       <c r="C130" t="n">
-        <v>0.246401</v>
+        <v>1.04097</v>
       </c>
       <c r="D130" t="n">
-        <v>0.216369</v>
+        <v>0.222817</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.297668</v>
+        <v>0.297038</v>
       </c>
       <c r="C131" t="n">
-        <v>0.245436</v>
+        <v>1.08701</v>
       </c>
       <c r="D131" t="n">
-        <v>0.215974</v>
+        <v>0.222355</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.288465</v>
+        <v>0.287082</v>
       </c>
       <c r="C132" t="n">
-        <v>0.244661</v>
+        <v>1.12633</v>
       </c>
       <c r="D132" t="n">
-        <v>0.214874</v>
+        <v>0.222554</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.276996</v>
+        <v>0.276726</v>
       </c>
       <c r="C133" t="n">
-        <v>0.244308</v>
+        <v>1.17091</v>
       </c>
       <c r="D133" t="n">
-        <v>0.215303</v>
+        <v>0.221516</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.266248</v>
+        <v>0.265454</v>
       </c>
       <c r="C134" t="n">
-        <v>0.243188</v>
+        <v>1.20963</v>
       </c>
       <c r="D134" t="n">
-        <v>0.214317</v>
+        <v>0.22088</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.253826</v>
+        <v>0.253317</v>
       </c>
       <c r="C135" t="n">
-        <v>0.242879</v>
+        <v>1.31907</v>
       </c>
       <c r="D135" t="n">
-        <v>0.213582</v>
+        <v>0.219746</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.240193</v>
+        <v>0.240278</v>
       </c>
       <c r="C136" t="n">
-        <v>0.241617</v>
+        <v>0.97571</v>
       </c>
       <c r="D136" t="n">
-        <v>0.214879</v>
+        <v>0.217702</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.22555</v>
+        <v>0.22603</v>
       </c>
       <c r="C137" t="n">
-        <v>0.241731</v>
+        <v>0.984197</v>
       </c>
       <c r="D137" t="n">
-        <v>0.227794</v>
+        <v>0.235995</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.350326</v>
+        <v>0.349787</v>
       </c>
       <c r="C138" t="n">
-        <v>0.259062</v>
+        <v>0.984892</v>
       </c>
       <c r="D138" t="n">
-        <v>0.226272</v>
+        <v>0.234496</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.344585</v>
+        <v>0.344645</v>
       </c>
       <c r="C139" t="n">
-        <v>0.255688</v>
+        <v>0.9995849999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>0.22454</v>
+        <v>0.232681</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338109</v>
+        <v>0.338301</v>
       </c>
       <c r="C140" t="n">
-        <v>0.253106</v>
+        <v>1.00786</v>
       </c>
       <c r="D140" t="n">
-        <v>0.223483</v>
+        <v>0.233186</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331582</v>
+        <v>0.331194</v>
       </c>
       <c r="C141" t="n">
-        <v>0.250477</v>
+        <v>1.02034</v>
       </c>
       <c r="D141" t="n">
-        <v>0.223501</v>
+        <v>0.232054</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.324268</v>
+        <v>0.324561</v>
       </c>
       <c r="C142" t="n">
-        <v>0.249893</v>
+        <v>1.04353</v>
       </c>
       <c r="D142" t="n">
-        <v>0.22162</v>
+        <v>0.229002</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.31722</v>
+        <v>0.31584</v>
       </c>
       <c r="C143" t="n">
-        <v>0.247813</v>
+        <v>1.06527</v>
       </c>
       <c r="D143" t="n">
-        <v>0.220795</v>
+        <v>0.226374</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -93,7 +93,15 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +561,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.28096</v>
+                  <v>0.0641531</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.275285</v>
+                  <v>0.0641417</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.260227</v>
+                  <v>0.0639055</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.249344</v>
+                  <v>0.0642133</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.236975</v>
+                  <v>0.06474820000000001</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.225674</v>
+                  <v>0.06536599999999999</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.210202</v>
+                  <v>0.0651717</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.194356</v>
+                  <v>0.06583840000000001</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.334027</v>
+                  <v>0.0890715</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.329254</v>
+                  <v>0.0891439</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.323249</v>
+                  <v>0.088877</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.318197</v>
+                  <v>0.0889416</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.311484</v>
+                  <v>0.0880235</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.301987</v>
+                  <v>0.0873052</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.293769</v>
+                  <v>0.08651929999999999</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.283186</v>
+                  <v>0.08555</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.274789</v>
+                  <v>0.08422979999999999</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.264307</v>
+                  <v>0.08232540000000001</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.253335</v>
+                  <v>0.0812894</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.240375</v>
+                  <v>0.0828969</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.225843</v>
+                  <v>0.08242620000000001</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.209111</v>
+                  <v>0.0803682</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.347854</v>
+                  <v>0.130945</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.342351</v>
+                  <v>0.13039</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.335171</v>
+                  <v>0.128396</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.3287</v>
+                  <v>0.126</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.321793</v>
+                  <v>0.122747</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.313509</v>
+                  <v>0.120164</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.304099</v>
+                  <v>0.117158</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.294429</v>
+                  <v>0.114482</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.283902</v>
+                  <v>0.110654</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.273734</v>
+                  <v>0.106787</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.261908</v>
+                  <v>0.10302</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.247935</v>
+                  <v>0.09905659999999999</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.234331</v>
+                  <v>0.0947708</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.21972</v>
+                  <v>0.0912707</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.351019</v>
+                  <v>0.15299</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.347109</v>
+                  <v>0.149699</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.341148</v>
+                  <v>0.145819</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.334155</v>
+                  <v>0.142408</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.326696</v>
+                  <v>0.138561</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.319361</v>
+                  <v>0.134735</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.310476</v>
+                  <v>0.13049</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.301515</v>
+                  <v>0.126237</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.290456</v>
+                  <v>0.121969</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.279872</v>
+                  <v>0.117384</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.268143</v>
+                  <v>0.112872</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.255679</v>
+                  <v>0.107687</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.241931</v>
+                  <v>0.102518</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.2267</v>
+                  <v>0.097793</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.209666</v>
+                  <v>0.0929044</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.349707</v>
+                  <v>0.156627</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.344393</v>
+                  <v>0.152789</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.338195</v>
+                  <v>0.148886</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.330917</v>
+                  <v>0.14427</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.3224</v>
+                  <v>0.139987</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.313751</v>
+                  <v>0.135316</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.304247</v>
+                  <v>0.130625</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.294116</v>
+                  <v>0.125715</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.283229</v>
+                  <v>0.120655</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.27188</v>
+                  <v>0.115997</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.259034</v>
+                  <v>0.11107</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.245623</v>
+                  <v>0.105984</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.230273</v>
+                  <v>0.101445</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.213342</v>
+                  <v>0.0964059</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.352417</v>
+                  <v>0.160513</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.346913</v>
+                  <v>0.156502</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.34069</v>
+                  <v>0.152045</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.33338</v>
+                  <v>0.147806</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.325287</v>
+                  <v>0.143057</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.316404</v>
+                  <v>0.138315</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.30706</v>
+                  <v>0.133812</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.297067</v>
+                  <v>0.1287</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.286289</v>
+                  <v>0.123811</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.275097</v>
+                  <v>0.118628</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.262689</v>
+                  <v>0.11366</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.248989</v>
+                  <v>0.108714</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.234185</v>
+                  <v>0.1037</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.218351</v>
+                  <v>0.0989589</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.353918</v>
+                  <v>0.16153</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.348163</v>
+                  <v>0.157354</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.341876</v>
+                  <v>0.153056</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.334423</v>
+                  <v>0.148496</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.326677</v>
+                  <v>0.143805</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.318483</v>
+                  <v>0.138941</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.309192</v>
+                  <v>0.134036</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.299657</v>
+                  <v>0.12898</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.289052</v>
+                  <v>0.124047</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.277682</v>
+                  <v>0.119119</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.265329</v>
+                  <v>0.114214</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.251956</v>
+                  <v>0.109355</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.237928</v>
+                  <v>0.104326</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.221988</v>
+                  <v>0.0995196</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.355226</v>
+                  <v>0.162541</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.349632</v>
+                  <v>0.158578</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.343221</v>
+                  <v>0.154191</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.336572</v>
+                  <v>0.149705</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.32902</v>
+                  <v>0.144991</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.320108</v>
+                  <v>0.140036</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.311141</v>
+                  <v>0.135058</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.30161</v>
+                  <v>0.130142</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.29136</v>
+                  <v>0.12503</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.280099</v>
+                  <v>0.120231</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.267905</v>
+                  <v>0.115215</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.254834</v>
+                  <v>0.110352</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.241048</v>
+                  <v>0.105395</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.225455</v>
+                  <v>0.100493</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.209024</v>
+                  <v>0.0955453</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.350837</v>
+                  <v>0.159334</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.344389</v>
+                  <v>0.155161</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.33797</v>
+                  <v>0.150658</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.330553</v>
+                  <v>0.145997</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.322178</v>
+                  <v>0.141009</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.313349</v>
+                  <v>0.136065</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.303814</v>
+                  <v>0.131067</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.293692</v>
+                  <v>0.126055</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.282839</v>
+                  <v>0.121106</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.270756</v>
+                  <v>0.116169</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.258147</v>
+                  <v>0.11124</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.244214</v>
+                  <v>0.106338</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.229059</v>
+                  <v>0.10148</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.212331</v>
+                  <v>0.0966804</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.352099</v>
+                  <v>0.162912</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.346249</v>
+                  <v>0.158517</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.339646</v>
+                  <v>0.1538</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.332407</v>
+                  <v>0.148946</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.324287</v>
+                  <v>0.149784</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.315583</v>
+                  <v>0.144275</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.305883</v>
+                  <v>0.138341</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.295897</v>
+                  <v>0.133876</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.285083</v>
+                  <v>0.127861</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.273328</v>
+                  <v>0.123254</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.260703</v>
+                  <v>0.118096</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.246882</v>
+                  <v>0.112946</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.232078</v>
+                  <v>0.107887</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.215942</v>
+                  <v>0.10276</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.352911</v>
+                  <v>0.170386</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.347437</v>
+                  <v>0.165981</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.340815</v>
+                  <v>0.161275</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.333681</v>
+                  <v>0.1562</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.325639</v>
+                  <v>0.150804</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.317122</v>
+                  <v>0.145563</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +995,15 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>ankerl::unordered_dense::map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1463,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.195912</v>
+                  <v>0.0575077</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.19706</v>
+                  <v>0.0598211</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.196006</v>
+                  <v>0.0649882</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.196838</v>
+                  <v>0.07328460000000001</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.197821</v>
+                  <v>0.09369329999999999</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.198401</v>
+                  <v>0.111546</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.198864</v>
+                  <v>0.06318840000000001</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.198849</v>
+                  <v>0.06369279999999999</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.216994</v>
+                  <v>0.064666</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216483</v>
+                  <v>0.0662118</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.215332</v>
+                  <v>0.0703285</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.213636</v>
+                  <v>0.0767543</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.212433</v>
+                  <v>0.0847386</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.212771</v>
+                  <v>0.0924473</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.212356</v>
+                  <v>0.103137</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.21158</v>
+                  <v>0.117766</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.211342</v>
+                  <v>0.138113</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.211014</v>
+                  <v>0.157701</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.21131</v>
+                  <v>0.183703</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.211178</v>
+                  <v>0.219332</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.210535</v>
+                  <v>0.0967408</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.211058</v>
+                  <v>0.101705</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.225388</v>
+                  <v>0.110323</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.222286</v>
+                  <v>0.118336</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.221108</v>
+                  <v>0.125077</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.218269</v>
+                  <v>0.131743</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.216629</v>
+                  <v>0.136642</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.216104</v>
+                  <v>0.159372</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.215542</v>
+                  <v>0.164708</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.214565</v>
+                  <v>0.180538</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.214083</v>
+                  <v>0.189276</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.213151</v>
+                  <v>0.205969</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.212756</v>
+                  <v>0.226981</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.212244</v>
+                  <v>0.25275</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.212313</v>
+                  <v>0.280765</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.212479</v>
+                  <v>0.125211</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.231716</v>
+                  <v>0.128879</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.228089</v>
+                  <v>0.139033</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.225541</v>
+                  <v>0.143689</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.221715</v>
+                  <v>0.153829</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.219716</v>
+                  <v>0.162005</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.217608</v>
+                  <v>0.17317</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.216079</v>
+                  <v>0.180018</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.215361</v>
+                  <v>0.189111</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.214512</v>
+                  <v>0.20117</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.213976</v>
+                  <v>0.218393</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.213395</v>
+                  <v>0.234699</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.213081</v>
+                  <v>0.256116</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.212729</v>
+                  <v>0.28101</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.212137</v>
+                  <v>0.134014</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.211929</v>
+                  <v>0.138441</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.226985</v>
+                  <v>0.144747</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.224765</v>
+                  <v>0.151243</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.221165</v>
+                  <v>0.158688</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.219252</v>
+                  <v>0.168342</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.217853</v>
+                  <v>0.174264</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.216655</v>
+                  <v>0.18304</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.215205</v>
+                  <v>0.195721</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.21459</v>
+                  <v>0.209809</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.213892</v>
+                  <v>0.221223</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.213172</v>
+                  <v>0.238103</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.212503</v>
+                  <v>0.256781</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.212304</v>
+                  <v>0.278367</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.211984</v>
+                  <v>0.142277</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.211979</v>
+                  <v>0.147209</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.230208</v>
+                  <v>0.153107</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.224883</v>
+                  <v>0.15876</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.221567</v>
+                  <v>0.165429</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.219015</v>
+                  <v>0.172505</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.217904</v>
+                  <v>0.180261</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.216587</v>
+                  <v>0.189204</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.215397</v>
+                  <v>0.200303</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.214854</v>
+                  <v>0.212441</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.21402</v>
+                  <v>0.227473</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.21366</v>
+                  <v>0.24306</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.212863</v>
+                  <v>0.261431</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.212404</v>
+                  <v>0.283264</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.212223</v>
+                  <v>0.170899</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.211854</v>
+                  <v>0.176969</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.229933</v>
+                  <v>0.182018</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.224301</v>
+                  <v>0.187372</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.221634</v>
+                  <v>0.194064</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.219343</v>
+                  <v>0.200521</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.218126</v>
+                  <v>0.208855</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.217137</v>
+                  <v>0.217776</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.21601</v>
+                  <v>0.228866</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.214977</v>
+                  <v>0.241842</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.214757</v>
+                  <v>0.253365</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.213529</v>
+                  <v>0.270187</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.212993</v>
+                  <v>0.291567</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.212489</v>
+                  <v>0.313726</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.212003</v>
+                  <v>0.340231</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.21166</v>
+                  <v>0.247908</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.229306</v>
+                  <v>0.254082</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.225598</v>
+                  <v>0.259408</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.222495</v>
+                  <v>0.265515</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.219992</v>
+                  <v>0.271721</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.21844</v>
+                  <v>0.280084</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.217086</v>
+                  <v>0.290491</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.21603</v>
+                  <v>0.300365</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.215118</v>
+                  <v>0.313845</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.214407</v>
+                  <v>0.32929</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.213596</v>
+                  <v>0.348304</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.213057</v>
+                  <v>0.371064</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.212665</v>
+                  <v>0.399163</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.212</v>
+                  <v>0.429455</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.211712</v>
+                  <v>0.346596</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.211438</v>
+                  <v>0.351235</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.225697</v>
+                  <v>0.354989</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.222578</v>
+                  <v>0.36553</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.220709</v>
+                  <v>0.367381</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.21886</v>
+                  <v>0.377436</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.217834</v>
+                  <v>0.385652</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.21669</v>
+                  <v>0.39901</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.215701</v>
+                  <v>0.414407</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.214744</v>
+                  <v>0.432204</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.214672</v>
+                  <v>0.460297</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.213705</v>
+                  <v>0.491839</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.213054</v>
+                  <v>0.5331669999999999</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.212576</v>
+                  <v>0.583111</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.211978</v>
+                  <v>0.423701</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.211931</v>
+                  <v>0.425895</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.226236</v>
+                  <v>0.42969</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.222892</v>
+                  <v>0.434953</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.220768</v>
+                  <v>0.442049</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.219005</v>
+                  <v>0.449396</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.21759</v>
+                  <v>0.461779</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.216422</v>
+                  <v>0.47465</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.215617</v>
+                  <v>0.495717</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.214832</v>
+                  <v>0.512256</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.214082</v>
+                  <v>0.54552</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.213471</v>
+                  <v>0.582205</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.212914</v>
+                  <v>0.630783</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.212385</v>
+                  <v>0.693116</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.212004</v>
+                  <v>0.478361</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.212133</v>
+                  <v>0.479962</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.227952</v>
+                  <v>0.483763</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.224209</v>
+                  <v>0.488763</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.221617</v>
+                  <v>0.490947</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.21951</v>
+                  <v>0.518307</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.21815</v>
+                  <v>0.52015</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.217027</v>
+                  <v>0.53886</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1897,15 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>foa_unordered_rc15_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2365,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.231268</v>
+                  <v>0.157822</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.232151</v>
+                  <v>0.158856</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.233511</v>
+                  <v>0.159729</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.233102</v>
+                  <v>0.15887</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.233692</v>
+                  <v>0.160271</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.234047</v>
+                  <v>0.159772</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.236592</v>
+                  <v>0.159948</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.265773</v>
+                  <v>0.164801</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.256745</v>
+                  <v>0.165641</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.256613</v>
+                  <v>0.165795</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.277037</v>
+                  <v>0.166284</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.253983</v>
+                  <v>0.166196</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.253043</v>
+                  <v>0.166822</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.252393</v>
+                  <v>0.16633</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.274053</v>
+                  <v>0.166022</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.276569</v>
+                  <v>0.165367</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.249118</v>
+                  <v>0.165413</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.246154</v>
+                  <v>0.165358</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.247092</v>
+                  <v>0.165959</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.248933</v>
+                  <v>0.165915</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.247076</v>
+                  <v>0.167046</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.264081</v>
+                  <v>0.182004</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.263005</v>
+                  <v>0.179886</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.262406</v>
+                  <v>0.176643</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.261724</v>
+                  <v>0.176678</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.258214</v>
+                  <v>0.175759</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.256235</v>
+                  <v>0.175754</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.25501</v>
+                  <v>0.176854</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.253997</v>
+                  <v>0.175894</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.253212</v>
+                  <v>0.172402</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.252973</v>
+                  <v>0.17302</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.251955</v>
+                  <v>0.17105</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.250418</v>
+                  <v>0.170195</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.249931</v>
+                  <v>0.169719</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.25125</v>
+                  <v>0.168159</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.267948</v>
+                  <v>0.184916</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.265477</v>
+                  <v>0.183052</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.263563</v>
+                  <v>0.182508</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.261508</v>
+                  <v>0.181083</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.259424</v>
+                  <v>0.17982</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.258308</v>
+                  <v>0.178386</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.257397</v>
+                  <v>0.178092</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.255033</v>
+                  <v>0.176222</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.254953</v>
+                  <v>0.175981</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.252743</v>
+                  <v>0.174595</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.252257</v>
+                  <v>0.173326</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.251358</v>
+                  <v>0.171569</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.250701</v>
+                  <v>0.171515</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.252639</v>
+                  <v>0.169954</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.267618</v>
+                  <v>0.186997</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.26451</v>
+                  <v>0.185308</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.262485</v>
+                  <v>0.183876</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.261372</v>
+                  <v>0.182684</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.259083</v>
+                  <v>0.181455</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.258255</v>
+                  <v>0.180231</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.256473</v>
+                  <v>0.179365</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.254751</v>
+                  <v>0.177796</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.253478</v>
+                  <v>0.176715</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.252454</v>
+                  <v>0.175502</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.251959</v>
+                  <v>0.174353</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.251108</v>
+                  <v>0.173807</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.250374</v>
+                  <v>0.17214</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.249696</v>
+                  <v>0.170786</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.249233</v>
+                  <v>0.169619</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.267199</v>
+                  <v>0.186654</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.264368</v>
+                  <v>0.185313</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.261476</v>
+                  <v>0.183854</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.259992</v>
+                  <v>0.182476</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.258824</v>
+                  <v>0.181164</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.257234</v>
+                  <v>0.179912</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.255778</v>
+                  <v>0.178749</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.254864</v>
+                  <v>0.177311</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.25281</v>
+                  <v>0.176193</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.252056</v>
+                  <v>0.174878</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.251157</v>
+                  <v>0.173741</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.25035</v>
+                  <v>0.172506</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.249625</v>
+                  <v>0.171313</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.249799</v>
+                  <v>0.170248</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.267725</v>
+                  <v>0.187436</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.264639</v>
+                  <v>0.185778</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.26212</v>
+                  <v>0.184273</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.260398</v>
+                  <v>0.182842</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.258807</v>
+                  <v>0.181428</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.257237</v>
+                  <v>0.180248</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.256192</v>
+                  <v>0.17884</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.254682</v>
+                  <v>0.177651</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.253834</v>
+                  <v>0.176506</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.252277</v>
+                  <v>0.175158</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.251467</v>
+                  <v>0.17393</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.25073</v>
+                  <v>0.172921</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.250208</v>
+                  <v>0.171658</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.249795</v>
+                  <v>0.170365</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.268728</v>
+                  <v>0.187853</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.265368</v>
+                  <v>0.186208</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.263136</v>
+                  <v>0.18493</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.261588</v>
+                  <v>0.183349</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.259708</v>
+                  <v>0.181904</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.258439</v>
+                  <v>0.180677</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.257048</v>
+                  <v>0.17923</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.255861</v>
+                  <v>0.178029</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.25506</v>
+                  <v>0.17673</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.253643</v>
+                  <v>0.175554</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.252447</v>
+                  <v>0.174295</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.251631</v>
+                  <v>0.173194</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.25027</v>
+                  <v>0.17194</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.249676</v>
+                  <v>0.170673</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.267902</v>
+                  <v>0.18821</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.265381</v>
+                  <v>0.18648</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.263476</v>
+                  <v>0.185181</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.261695</v>
+                  <v>0.183927</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.259699</v>
+                  <v>0.18249</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.258738</v>
+                  <v>0.18114</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.257442</v>
+                  <v>0.179757</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.255897</v>
+                  <v>0.178537</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.254296</v>
+                  <v>0.177269</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.253976</v>
+                  <v>0.175893</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.253858</v>
+                  <v>0.174715</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.252652</v>
+                  <v>0.173489</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.251436</v>
+                  <v>0.172158</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.251373</v>
+                  <v>0.170948</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.249863</v>
+                  <v>0.169715</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.266506</v>
+                  <v>0.187153</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.26438</v>
+                  <v>0.185547</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.261884</v>
+                  <v>0.184049</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.260327</v>
+                  <v>0.182769</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.25828</v>
+                  <v>0.181451</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.257292</v>
+                  <v>0.180103</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.256414</v>
+                  <v>0.178785</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.255015</v>
+                  <v>0.177335</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.253526</v>
+                  <v>0.176054</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.252946</v>
+                  <v>0.174854</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.252272</v>
+                  <v>0.173636</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.251202</v>
+                  <v>0.172385</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.251597</v>
+                  <v>0.171224</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.251317</v>
+                  <v>0.170001</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.267088</v>
+                  <v>0.196784</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.264928</v>
+                  <v>0.194704</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.263676</v>
+                  <v>0.192719</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.26094</v>
+                  <v>0.191072</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.259854</v>
+                  <v>0.189256</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.258275</v>
+                  <v>0.187704</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.256589</v>
+                  <v>0.185987</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2825,7 +2849,6 @@
         <axId val="163989376"/>
         <scaling>
           <orientation val="minMax"/>
-          <max val="0.5"/>
         </scaling>
         <delete val="0"/>
         <axPos val="l"/>
@@ -3217,14 +3240,14 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="7" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="8" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="7" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3235,7 +3258,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>ankerl::unordered_dense::map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.296005</v>
+        <v>0.297484</v>
       </c>
       <c r="C2" t="n">
-        <v>0.224079</v>
+        <v>0.227875</v>
       </c>
       <c r="D2" t="n">
-        <v>0.197826</v>
+        <v>0.208681</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.290087</v>
+        <v>0.288864</v>
       </c>
       <c r="C3" t="n">
-        <v>0.223614</v>
+        <v>0.233431</v>
       </c>
       <c r="D3" t="n">
-        <v>0.199236</v>
+        <v>0.209422</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.280167</v>
+        <v>0.279359</v>
       </c>
       <c r="C4" t="n">
-        <v>0.225471</v>
+        <v>0.2288</v>
       </c>
       <c r="D4" t="n">
-        <v>0.200656</v>
+        <v>0.20942</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.270513</v>
+        <v>0.269398</v>
       </c>
       <c r="C5" t="n">
-        <v>0.225529</v>
+        <v>0.233946</v>
       </c>
       <c r="D5" t="n">
-        <v>0.199833</v>
+        <v>0.209893</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.258252</v>
+        <v>0.255925</v>
       </c>
       <c r="C6" t="n">
-        <v>0.225289</v>
+        <v>0.233595</v>
       </c>
       <c r="D6" t="n">
-        <v>0.200573</v>
+        <v>0.208766</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.244358</v>
+        <v>0.244091</v>
       </c>
       <c r="C7" t="n">
-        <v>0.225224</v>
+        <v>0.23658</v>
       </c>
       <c r="D7" t="n">
-        <v>0.20211</v>
+        <v>0.210614</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.231792</v>
+        <v>0.232427</v>
       </c>
       <c r="C8" t="n">
-        <v>0.22645</v>
+        <v>0.234103</v>
       </c>
       <c r="D8" t="n">
-        <v>0.20197</v>
+        <v>0.210878</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.220657</v>
+        <v>0.216883</v>
       </c>
       <c r="C9" t="n">
-        <v>0.226579</v>
+        <v>0.234169</v>
       </c>
       <c r="D9" t="n">
-        <v>0.217758</v>
+        <v>0.241511</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.345714</v>
+        <v>0.344013</v>
       </c>
       <c r="C10" t="n">
-        <v>0.246977</v>
+        <v>0.253565</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216949</v>
+        <v>0.230224</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.339278</v>
+        <v>0.3399</v>
       </c>
       <c r="C11" t="n">
-        <v>0.244225</v>
+        <v>0.252566</v>
       </c>
       <c r="D11" t="n">
-        <v>0.215511</v>
+        <v>0.23862</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.332668</v>
+        <v>0.332875</v>
       </c>
       <c r="C12" t="n">
-        <v>0.242729</v>
+        <v>0.25189</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214148</v>
+        <v>0.227993</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.326103</v>
+        <v>0.326464</v>
       </c>
       <c r="C13" t="n">
-        <v>0.241118</v>
+        <v>0.250007</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212363</v>
+        <v>0.226658</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.318816</v>
+        <v>0.319247</v>
       </c>
       <c r="C14" t="n">
-        <v>0.239591</v>
+        <v>0.248256</v>
       </c>
       <c r="D14" t="n">
-        <v>0.211994</v>
+        <v>0.225197</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.31425</v>
+        <v>0.313111</v>
       </c>
       <c r="C15" t="n">
-        <v>0.239007</v>
+        <v>0.247152</v>
       </c>
       <c r="D15" t="n">
-        <v>0.210028</v>
+        <v>0.224443</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.312782</v>
+        <v>0.303731</v>
       </c>
       <c r="C16" t="n">
-        <v>0.238786</v>
+        <v>0.246577</v>
       </c>
       <c r="D16" t="n">
-        <v>0.209773</v>
+        <v>0.223515</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.296215</v>
+        <v>0.295775</v>
       </c>
       <c r="C17" t="n">
-        <v>0.238534</v>
+        <v>0.243478</v>
       </c>
       <c r="D17" t="n">
-        <v>0.210318</v>
+        <v>0.221039</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.288889</v>
+        <v>0.284744</v>
       </c>
       <c r="C18" t="n">
-        <v>0.239179</v>
+        <v>0.24252</v>
       </c>
       <c r="D18" t="n">
-        <v>0.209173</v>
+        <v>0.221469</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.279351</v>
+        <v>0.276746</v>
       </c>
       <c r="C19" t="n">
-        <v>0.237528</v>
+        <v>0.24264</v>
       </c>
       <c r="D19" t="n">
-        <v>0.209193</v>
+        <v>0.219934</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.268309</v>
+        <v>0.267781</v>
       </c>
       <c r="C20" t="n">
-        <v>0.237399</v>
+        <v>0.24287</v>
       </c>
       <c r="D20" t="n">
-        <v>0.209668</v>
+        <v>0.220686</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.258903</v>
+        <v>0.256585</v>
       </c>
       <c r="C21" t="n">
-        <v>0.237098</v>
+        <v>0.243071</v>
       </c>
       <c r="D21" t="n">
-        <v>0.209148</v>
+        <v>0.220595</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.242796</v>
+        <v>0.240325</v>
       </c>
       <c r="C22" t="n">
-        <v>0.236745</v>
+        <v>0.241785</v>
       </c>
       <c r="D22" t="n">
-        <v>0.209191</v>
+        <v>0.220514</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.228718</v>
+        <v>0.228491</v>
       </c>
       <c r="C23" t="n">
-        <v>0.236935</v>
+        <v>0.263793</v>
       </c>
       <c r="D23" t="n">
-        <v>0.224365</v>
+        <v>0.237186</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348237</v>
+        <v>0.347671</v>
       </c>
       <c r="C24" t="n">
-        <v>0.254339</v>
+        <v>0.259398</v>
       </c>
       <c r="D24" t="n">
-        <v>0.222441</v>
+        <v>0.236318</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.341827</v>
+        <v>0.342181</v>
       </c>
       <c r="C25" t="n">
-        <v>0.252867</v>
+        <v>0.257895</v>
       </c>
       <c r="D25" t="n">
-        <v>0.221083</v>
+        <v>0.234595</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.335998</v>
+        <v>0.335906</v>
       </c>
       <c r="C26" t="n">
-        <v>0.250793</v>
+        <v>0.255238</v>
       </c>
       <c r="D26" t="n">
-        <v>0.220089</v>
+        <v>0.23329</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328309</v>
+        <v>0.328893</v>
       </c>
       <c r="C27" t="n">
-        <v>0.249455</v>
+        <v>0.252257</v>
       </c>
       <c r="D27" t="n">
-        <v>0.218203</v>
+        <v>0.23082</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.321481</v>
+        <v>0.322151</v>
       </c>
       <c r="C28" t="n">
-        <v>0.24738</v>
+        <v>0.250452</v>
       </c>
       <c r="D28" t="n">
-        <v>0.216624</v>
+        <v>0.229335</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.314734</v>
+        <v>0.314704</v>
       </c>
       <c r="C29" t="n">
-        <v>0.246146</v>
+        <v>0.250517</v>
       </c>
       <c r="D29" t="n">
-        <v>0.216044</v>
+        <v>0.227897</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.306602</v>
+        <v>0.306451</v>
       </c>
       <c r="C30" t="n">
-        <v>0.244923</v>
+        <v>0.248798</v>
       </c>
       <c r="D30" t="n">
-        <v>0.214824</v>
+        <v>0.226906</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.298066</v>
+        <v>0.297548</v>
       </c>
       <c r="C31" t="n">
-        <v>0.243966</v>
+        <v>0.247774</v>
       </c>
       <c r="D31" t="n">
-        <v>0.214155</v>
+        <v>0.226317</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.288561</v>
+        <v>0.288721</v>
       </c>
       <c r="C32" t="n">
-        <v>0.243475</v>
+        <v>0.246949</v>
       </c>
       <c r="D32" t="n">
-        <v>0.213904</v>
+        <v>0.2257</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.279534</v>
+        <v>0.279557</v>
       </c>
       <c r="C33" t="n">
-        <v>0.242521</v>
+        <v>0.246124</v>
       </c>
       <c r="D33" t="n">
-        <v>0.213324</v>
+        <v>0.224973</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.269171</v>
+        <v>0.269204</v>
       </c>
       <c r="C34" t="n">
-        <v>0.241903</v>
+        <v>0.245369</v>
       </c>
       <c r="D34" t="n">
-        <v>0.212868</v>
+        <v>0.223599</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.258004</v>
+        <v>0.257884</v>
       </c>
       <c r="C35" t="n">
-        <v>0.242014</v>
+        <v>0.244826</v>
       </c>
       <c r="D35" t="n">
-        <v>0.212648</v>
+        <v>0.223491</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244986</v>
+        <v>0.244937</v>
       </c>
       <c r="C36" t="n">
-        <v>0.241841</v>
+        <v>0.243821</v>
       </c>
       <c r="D36" t="n">
-        <v>0.211962</v>
+        <v>0.222599</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.230698</v>
+        <v>0.230709</v>
       </c>
       <c r="C37" t="n">
-        <v>0.241348</v>
+        <v>0.243101</v>
       </c>
       <c r="D37" t="n">
-        <v>0.226988</v>
+        <v>0.240208</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.349648</v>
+        <v>0.34895</v>
       </c>
       <c r="C38" t="n">
-        <v>0.261049</v>
+        <v>0.26143</v>
       </c>
       <c r="D38" t="n">
-        <v>0.224184</v>
+        <v>0.237385</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3446</v>
+        <v>0.344307</v>
       </c>
       <c r="C39" t="n">
-        <v>0.257528</v>
+        <v>0.257625</v>
       </c>
       <c r="D39" t="n">
-        <v>0.222283</v>
+        <v>0.235061</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.338259</v>
+        <v>0.338002</v>
       </c>
       <c r="C40" t="n">
-        <v>0.25461</v>
+        <v>0.25519</v>
       </c>
       <c r="D40" t="n">
-        <v>0.220497</v>
+        <v>0.233632</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.331679</v>
+        <v>0.331307</v>
       </c>
       <c r="C41" t="n">
-        <v>0.251453</v>
+        <v>0.252178</v>
       </c>
       <c r="D41" t="n">
-        <v>0.218803</v>
+        <v>0.231554</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.324672</v>
+        <v>0.324304</v>
       </c>
       <c r="C42" t="n">
-        <v>0.250697</v>
+        <v>0.250153</v>
       </c>
       <c r="D42" t="n">
-        <v>0.21773</v>
+        <v>0.229946</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.316479</v>
+        <v>0.316652</v>
       </c>
       <c r="C43" t="n">
-        <v>0.249421</v>
+        <v>0.249088</v>
       </c>
       <c r="D43" t="n">
-        <v>0.21685</v>
+        <v>0.228946</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.30956</v>
+        <v>0.308948</v>
       </c>
       <c r="C44" t="n">
-        <v>0.247722</v>
+        <v>0.247906</v>
       </c>
       <c r="D44" t="n">
-        <v>0.215635</v>
+        <v>0.227473</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300799</v>
+        <v>0.300442</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246779</v>
+        <v>0.246243</v>
       </c>
       <c r="D45" t="n">
-        <v>0.214678</v>
+        <v>0.226441</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291823</v>
+        <v>0.292406</v>
       </c>
       <c r="C46" t="n">
-        <v>0.245833</v>
+        <v>0.246041</v>
       </c>
       <c r="D46" t="n">
-        <v>0.213983</v>
+        <v>0.225791</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.282621</v>
+        <v>0.282435</v>
       </c>
       <c r="C47" t="n">
-        <v>0.244777</v>
+        <v>0.244732</v>
       </c>
       <c r="D47" t="n">
-        <v>0.213928</v>
+        <v>0.225504</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.271683</v>
+        <v>0.271886</v>
       </c>
       <c r="C48" t="n">
-        <v>0.243713</v>
+        <v>0.244135</v>
       </c>
       <c r="D48" t="n">
-        <v>0.213808</v>
+        <v>0.22457</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.261366</v>
+        <v>0.260989</v>
       </c>
       <c r="C49" t="n">
-        <v>0.242958</v>
+        <v>0.242957</v>
       </c>
       <c r="D49" t="n">
-        <v>0.213343</v>
+        <v>0.22383</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.249278</v>
+        <v>0.248895</v>
       </c>
       <c r="C50" t="n">
-        <v>0.242566</v>
+        <v>0.2432</v>
       </c>
       <c r="D50" t="n">
-        <v>0.214012</v>
+        <v>0.223369</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.235089</v>
+        <v>0.235341</v>
       </c>
       <c r="C51" t="n">
-        <v>0.242019</v>
+        <v>0.242796</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2259</v>
+        <v>0.239091</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.220181</v>
+        <v>0.220481</v>
       </c>
       <c r="C52" t="n">
-        <v>0.241282</v>
+        <v>0.24232</v>
       </c>
       <c r="D52" t="n">
-        <v>0.223599</v>
+        <v>0.236997</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.347245</v>
+        <v>0.346861</v>
       </c>
       <c r="C53" t="n">
-        <v>0.257483</v>
+        <v>0.25751</v>
       </c>
       <c r="D53" t="n">
-        <v>0.222024</v>
+        <v>0.234965</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.341168</v>
+        <v>0.341038</v>
       </c>
       <c r="C54" t="n">
-        <v>0.254669</v>
+        <v>0.254621</v>
       </c>
       <c r="D54" t="n">
-        <v>0.220525</v>
+        <v>0.232555</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.335071</v>
+        <v>0.335155</v>
       </c>
       <c r="C55" t="n">
-        <v>0.252187</v>
+        <v>0.2525</v>
       </c>
       <c r="D55" t="n">
-        <v>0.21942</v>
+        <v>0.231774</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.327312</v>
+        <v>0.328099</v>
       </c>
       <c r="C56" t="n">
-        <v>0.250616</v>
+        <v>0.251141</v>
       </c>
       <c r="D56" t="n">
-        <v>0.218027</v>
+        <v>0.230223</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.320558</v>
+        <v>0.320405</v>
       </c>
       <c r="C57" t="n">
-        <v>0.249208</v>
+        <v>0.24917</v>
       </c>
       <c r="D57" t="n">
-        <v>0.217024</v>
+        <v>0.228834</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.312989</v>
+        <v>0.312992</v>
       </c>
       <c r="C58" t="n">
-        <v>0.247792</v>
+        <v>0.248148</v>
       </c>
       <c r="D58" t="n">
-        <v>0.216374</v>
+        <v>0.227675</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304452</v>
+        <v>0.304239</v>
       </c>
       <c r="C59" t="n">
-        <v>0.246737</v>
+        <v>0.246946</v>
       </c>
       <c r="D59" t="n">
-        <v>0.215482</v>
+        <v>0.226641</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.2946</v>
+        <v>0.294908</v>
       </c>
       <c r="C60" t="n">
-        <v>0.245951</v>
+        <v>0.245715</v>
       </c>
       <c r="D60" t="n">
-        <v>0.21472</v>
+        <v>0.226063</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284938</v>
+        <v>0.285214</v>
       </c>
       <c r="C61" t="n">
-        <v>0.245181</v>
+        <v>0.245246</v>
       </c>
       <c r="D61" t="n">
-        <v>0.214082</v>
+        <v>0.225733</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.274545</v>
+        <v>0.27452</v>
       </c>
       <c r="C62" t="n">
-        <v>0.244249</v>
+        <v>0.244311</v>
       </c>
       <c r="D62" t="n">
-        <v>0.213572</v>
+        <v>0.224514</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263286</v>
+        <v>0.263461</v>
       </c>
       <c r="C63" t="n">
-        <v>0.243186</v>
+        <v>0.24369</v>
       </c>
       <c r="D63" t="n">
-        <v>0.21323</v>
+        <v>0.224401</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.250953</v>
+        <v>0.251137</v>
       </c>
       <c r="C64" t="n">
-        <v>0.243041</v>
+        <v>0.243215</v>
       </c>
       <c r="D64" t="n">
-        <v>0.21262</v>
+        <v>0.223059</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.237819</v>
+        <v>0.238129</v>
       </c>
       <c r="C65" t="n">
-        <v>0.242042</v>
+        <v>0.242889</v>
       </c>
       <c r="D65" t="n">
-        <v>0.212344</v>
+        <v>0.224137</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.223513</v>
+        <v>0.223561</v>
       </c>
       <c r="C66" t="n">
-        <v>0.241527</v>
+        <v>0.242501</v>
       </c>
       <c r="D66" t="n">
-        <v>0.225097</v>
+        <v>0.238073</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.348795</v>
+        <v>0.348665</v>
       </c>
       <c r="C67" t="n">
-        <v>0.259568</v>
+        <v>0.259632</v>
       </c>
       <c r="D67" t="n">
-        <v>0.223173</v>
+        <v>0.236001</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.34292</v>
+        <v>0.342811</v>
       </c>
       <c r="C68" t="n">
-        <v>0.25578</v>
+        <v>0.255993</v>
       </c>
       <c r="D68" t="n">
-        <v>0.221293</v>
+        <v>0.233801</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.336689</v>
+        <v>0.336711</v>
       </c>
       <c r="C69" t="n">
-        <v>0.252916</v>
+        <v>0.253597</v>
       </c>
       <c r="D69" t="n">
-        <v>0.219896</v>
+        <v>0.232292</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.329775</v>
+        <v>0.329759</v>
       </c>
       <c r="C70" t="n">
-        <v>0.251099</v>
+        <v>0.251018</v>
       </c>
       <c r="D70" t="n">
-        <v>0.218846</v>
+        <v>0.230756</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.322606</v>
+        <v>0.323151</v>
       </c>
       <c r="C71" t="n">
-        <v>0.249768</v>
+        <v>0.250297</v>
       </c>
       <c r="D71" t="n">
-        <v>0.21767</v>
+        <v>0.229611</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.3154</v>
+        <v>0.315005</v>
       </c>
       <c r="C72" t="n">
-        <v>0.248496</v>
+        <v>0.248912</v>
       </c>
       <c r="D72" t="n">
-        <v>0.216786</v>
+        <v>0.228285</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.306648</v>
+        <v>0.306507</v>
       </c>
       <c r="C73" t="n">
-        <v>0.247231</v>
+        <v>0.2475</v>
       </c>
       <c r="D73" t="n">
-        <v>0.215775</v>
+        <v>0.227205</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.298206</v>
+        <v>0.298078</v>
       </c>
       <c r="C74" t="n">
-        <v>0.246238</v>
+        <v>0.246433</v>
       </c>
       <c r="D74" t="n">
-        <v>0.214824</v>
+        <v>0.225973</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.288823</v>
+        <v>0.288778</v>
       </c>
       <c r="C75" t="n">
-        <v>0.245398</v>
+        <v>0.2455</v>
       </c>
       <c r="D75" t="n">
-        <v>0.214347</v>
+        <v>0.225307</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.278534</v>
+        <v>0.278292</v>
       </c>
       <c r="C76" t="n">
-        <v>0.24464</v>
+        <v>0.244629</v>
       </c>
       <c r="D76" t="n">
-        <v>0.213721</v>
+        <v>0.224807</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.267324</v>
+        <v>0.267374</v>
       </c>
       <c r="C77" t="n">
-        <v>0.243552</v>
+        <v>0.243993</v>
       </c>
       <c r="D77" t="n">
-        <v>0.213376</v>
+        <v>0.224373</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.254931</v>
+        <v>0.254946</v>
       </c>
       <c r="C78" t="n">
-        <v>0.242702</v>
+        <v>0.243296</v>
       </c>
       <c r="D78" t="n">
-        <v>0.212893</v>
+        <v>0.224187</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.242016</v>
+        <v>0.241986</v>
       </c>
       <c r="C79" t="n">
-        <v>0.242291</v>
+        <v>0.242995</v>
       </c>
       <c r="D79" t="n">
-        <v>0.212751</v>
+        <v>0.224613</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227505</v>
+        <v>0.227783</v>
       </c>
       <c r="C80" t="n">
-        <v>0.242017</v>
+        <v>0.242722</v>
       </c>
       <c r="D80" t="n">
-        <v>0.225585</v>
+        <v>0.238541</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.350484</v>
+        <v>0.350161</v>
       </c>
       <c r="C81" t="n">
-        <v>0.258984</v>
+        <v>0.261193</v>
       </c>
       <c r="D81" t="n">
-        <v>0.223563</v>
+        <v>0.236226</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.344507</v>
+        <v>0.344618</v>
       </c>
       <c r="C82" t="n">
-        <v>0.25536</v>
+        <v>0.256996</v>
       </c>
       <c r="D82" t="n">
-        <v>0.221847</v>
+        <v>0.234506</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.338614</v>
+        <v>0.337989</v>
       </c>
       <c r="C83" t="n">
-        <v>0.25284</v>
+        <v>0.254424</v>
       </c>
       <c r="D83" t="n">
-        <v>0.220267</v>
+        <v>0.232535</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.332229</v>
+        <v>0.331638</v>
       </c>
       <c r="C84" t="n">
-        <v>0.250932</v>
+        <v>0.251828</v>
       </c>
       <c r="D84" t="n">
-        <v>0.218955</v>
+        <v>0.231027</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.324659</v>
+        <v>0.324593</v>
       </c>
       <c r="C85" t="n">
-        <v>0.249602</v>
+        <v>0.249975</v>
       </c>
       <c r="D85" t="n">
-        <v>0.217779</v>
+        <v>0.23002</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.316658</v>
+        <v>0.31676</v>
       </c>
       <c r="C86" t="n">
-        <v>0.248387</v>
+        <v>0.248801</v>
       </c>
       <c r="D86" t="n">
-        <v>0.216936</v>
+        <v>0.228677</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.308645</v>
+        <v>0.30882</v>
       </c>
       <c r="C87" t="n">
-        <v>0.247224</v>
+        <v>0.247605</v>
       </c>
       <c r="D87" t="n">
-        <v>0.215881</v>
+        <v>0.227608</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300068</v>
+        <v>0.300073</v>
       </c>
       <c r="C88" t="n">
-        <v>0.246486</v>
+        <v>0.246343</v>
       </c>
       <c r="D88" t="n">
-        <v>0.215154</v>
+        <v>0.226451</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.290738</v>
+        <v>0.290616</v>
       </c>
       <c r="C89" t="n">
-        <v>0.245453</v>
+        <v>0.245627</v>
       </c>
       <c r="D89" t="n">
-        <v>0.214519</v>
+        <v>0.225855</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.280734</v>
+        <v>0.280561</v>
       </c>
       <c r="C90" t="n">
-        <v>0.244735</v>
+        <v>0.244734</v>
       </c>
       <c r="D90" t="n">
-        <v>0.213762</v>
+        <v>0.22701</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.269543</v>
+        <v>0.269467</v>
       </c>
       <c r="C91" t="n">
-        <v>0.243778</v>
+        <v>0.243916</v>
       </c>
       <c r="D91" t="n">
-        <v>0.213137</v>
+        <v>0.226252</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.257974</v>
+        <v>0.25784</v>
       </c>
       <c r="C92" t="n">
-        <v>0.243067</v>
+        <v>0.243262</v>
       </c>
       <c r="D92" t="n">
-        <v>0.212823</v>
+        <v>0.225768</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.244859</v>
+        <v>0.244727</v>
       </c>
       <c r="C93" t="n">
-        <v>0.242538</v>
+        <v>0.242904</v>
       </c>
       <c r="D93" t="n">
-        <v>0.212834</v>
+        <v>0.225851</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.230553</v>
+        <v>0.230761</v>
       </c>
       <c r="C94" t="n">
-        <v>0.242098</v>
+        <v>0.242432</v>
       </c>
       <c r="D94" t="n">
-        <v>0.225989</v>
+        <v>0.239888</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.351835</v>
+        <v>0.35167</v>
       </c>
       <c r="C95" t="n">
-        <v>0.259544</v>
+        <v>0.261775</v>
       </c>
       <c r="D95" t="n">
-        <v>0.223682</v>
+        <v>0.238004</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.345705</v>
+        <v>0.346145</v>
       </c>
       <c r="C96" t="n">
-        <v>0.256131</v>
+        <v>0.257809</v>
       </c>
       <c r="D96" t="n">
-        <v>0.222003</v>
+        <v>0.235811</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.339954</v>
+        <v>0.340252</v>
       </c>
       <c r="C97" t="n">
-        <v>0.253513</v>
+        <v>0.254445</v>
       </c>
       <c r="D97" t="n">
-        <v>0.220455</v>
+        <v>0.234073</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.333605</v>
+        <v>0.33344</v>
       </c>
       <c r="C98" t="n">
-        <v>0.251557</v>
+        <v>0.252066</v>
       </c>
       <c r="D98" t="n">
-        <v>0.219169</v>
+        <v>0.232272</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.326227</v>
+        <v>0.326371</v>
       </c>
       <c r="C99" t="n">
-        <v>0.250151</v>
+        <v>0.250536</v>
       </c>
       <c r="D99" t="n">
-        <v>0.21808</v>
+        <v>0.230772</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.318774</v>
+        <v>0.318633</v>
       </c>
       <c r="C100" t="n">
-        <v>0.248707</v>
+        <v>0.248998</v>
       </c>
       <c r="D100" t="n">
-        <v>0.216893</v>
+        <v>0.230371</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.310706</v>
+        <v>0.310654</v>
       </c>
       <c r="C101" t="n">
         <v>0.24754</v>
       </c>
       <c r="D101" t="n">
-        <v>0.216089</v>
+        <v>0.228711</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.30227</v>
+        <v>0.301905</v>
       </c>
       <c r="C102" t="n">
-        <v>0.246658</v>
+        <v>0.246877</v>
       </c>
       <c r="D102" t="n">
-        <v>0.215307</v>
+        <v>0.228612</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.292813</v>
+        <v>0.292819</v>
       </c>
       <c r="C103" t="n">
-        <v>0.245693</v>
+        <v>0.246038</v>
       </c>
       <c r="D103" t="n">
-        <v>0.214662</v>
+        <v>0.228623</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.283128</v>
+        <v>0.282798</v>
       </c>
       <c r="C104" t="n">
-        <v>0.245056</v>
+        <v>0.245221</v>
       </c>
       <c r="D104" t="n">
-        <v>0.214012</v>
+        <v>0.228331</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.27174</v>
+        <v>0.272267</v>
       </c>
       <c r="C105" t="n">
-        <v>0.243989</v>
+        <v>0.244003</v>
       </c>
       <c r="D105" t="n">
-        <v>0.213342</v>
+        <v>0.227475</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.260394</v>
+        <v>0.26043</v>
       </c>
       <c r="C106" t="n">
-        <v>0.24328</v>
+        <v>0.243607</v>
       </c>
       <c r="D106" t="n">
-        <v>0.212796</v>
+        <v>0.227104</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247514</v>
+        <v>0.247579</v>
       </c>
       <c r="C107" t="n">
-        <v>0.242542</v>
+        <v>0.242916</v>
       </c>
       <c r="D107" t="n">
-        <v>0.212332</v>
+        <v>0.226557</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.233989</v>
+        <v>0.234281</v>
       </c>
       <c r="C108" t="n">
-        <v>0.241932</v>
+        <v>0.242603</v>
       </c>
       <c r="D108" t="n">
-        <v>0.226407</v>
+        <v>0.242358</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.219446</v>
+        <v>0.219273</v>
       </c>
       <c r="C109" t="n">
-        <v>0.241645</v>
+        <v>0.242051</v>
       </c>
       <c r="D109" t="n">
-        <v>0.22435</v>
+        <v>0.239525</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.347243</v>
+        <v>0.347635</v>
       </c>
       <c r="C110" t="n">
-        <v>0.256414</v>
+        <v>0.25843</v>
       </c>
       <c r="D110" t="n">
-        <v>0.222396</v>
+        <v>0.237806</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.34116</v>
+        <v>0.341465</v>
       </c>
       <c r="C111" t="n">
-        <v>0.253837</v>
+        <v>0.255125</v>
       </c>
       <c r="D111" t="n">
-        <v>0.220888</v>
+        <v>0.235908</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.33481</v>
+        <v>0.33504</v>
       </c>
       <c r="C112" t="n">
-        <v>0.251714</v>
+        <v>0.252696</v>
       </c>
       <c r="D112" t="n">
-        <v>0.219405</v>
+        <v>0.235541</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.327857</v>
+        <v>0.327564</v>
       </c>
       <c r="C113" t="n">
-        <v>0.25048</v>
+        <v>0.251059</v>
       </c>
       <c r="D113" t="n">
-        <v>0.218567</v>
+        <v>0.233325</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.320584</v>
+        <v>0.32052</v>
       </c>
       <c r="C114" t="n">
-        <v>0.249054</v>
+        <v>0.25017</v>
       </c>
       <c r="D114" t="n">
-        <v>0.217525</v>
+        <v>0.232527</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.312224</v>
+        <v>0.312338</v>
       </c>
       <c r="C115" t="n">
-        <v>0.247892</v>
+        <v>0.24848</v>
       </c>
       <c r="D115" t="n">
-        <v>0.216373</v>
+        <v>0.230899</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.303969</v>
+        <v>0.30419</v>
       </c>
       <c r="C116" t="n">
-        <v>0.24699</v>
+        <v>0.247286</v>
       </c>
       <c r="D116" t="n">
-        <v>0.215202</v>
+        <v>0.229992</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.295186</v>
+        <v>0.295204</v>
       </c>
       <c r="C117" t="n">
-        <v>0.246018</v>
+        <v>0.246615</v>
       </c>
       <c r="D117" t="n">
-        <v>0.214957</v>
+        <v>0.229391</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.285653</v>
+        <v>0.285596</v>
       </c>
       <c r="C118" t="n">
-        <v>0.245098</v>
+        <v>0.245783</v>
       </c>
       <c r="D118" t="n">
-        <v>0.214469</v>
+        <v>0.229397</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.274983</v>
+        <v>0.274402</v>
       </c>
       <c r="C119" t="n">
-        <v>0.24442</v>
+        <v>0.244665</v>
       </c>
       <c r="D119" t="n">
-        <v>0.214057</v>
+        <v>0.227773</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.263312</v>
+        <v>0.263352</v>
       </c>
       <c r="C120" t="n">
-        <v>0.24355</v>
+        <v>0.244286</v>
       </c>
       <c r="D120" t="n">
-        <v>0.213422</v>
+        <v>0.226824</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.25117</v>
+        <v>0.250784</v>
       </c>
       <c r="C121" t="n">
-        <v>0.242904</v>
+        <v>0.24368</v>
       </c>
       <c r="D121" t="n">
-        <v>0.213655</v>
+        <v>0.227901</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.237382</v>
+        <v>0.237762</v>
       </c>
       <c r="C122" t="n">
-        <v>0.242419</v>
+        <v>0.243108</v>
       </c>
       <c r="D122" t="n">
-        <v>0.213227</v>
+        <v>0.226772</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.222747</v>
+        <v>0.223072</v>
       </c>
       <c r="C123" t="n">
-        <v>0.241743</v>
+        <v>0.242745</v>
       </c>
       <c r="D123" t="n">
-        <v>0.225052</v>
+        <v>0.24087</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.348614</v>
+        <v>0.348826</v>
       </c>
       <c r="C124" t="n">
-        <v>0.25736</v>
+        <v>0.259266</v>
       </c>
       <c r="D124" t="n">
-        <v>0.223479</v>
+        <v>0.238942</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.34292</v>
+        <v>0.342949</v>
       </c>
       <c r="C125" t="n">
-        <v>0.254297</v>
+        <v>0.256246</v>
       </c>
       <c r="D125" t="n">
-        <v>0.222175</v>
+        <v>0.237663</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.33643</v>
+        <v>0.336727</v>
       </c>
       <c r="C126" t="n">
-        <v>0.251978</v>
+        <v>0.253514</v>
       </c>
       <c r="D126" t="n">
-        <v>0.2202</v>
+        <v>0.235215</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.330011</v>
+        <v>0.329569</v>
       </c>
       <c r="C127" t="n">
-        <v>0.250221</v>
+        <v>0.251224</v>
       </c>
       <c r="D127" t="n">
-        <v>0.219081</v>
+        <v>0.233559</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.322273</v>
+        <v>0.322248</v>
       </c>
       <c r="C128" t="n">
-        <v>0.248538</v>
+        <v>0.250237</v>
       </c>
       <c r="D128" t="n">
-        <v>0.219115</v>
+        <v>0.233357</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.314516</v>
+        <v>0.314834</v>
       </c>
       <c r="C129" t="n">
-        <v>0.247606</v>
+        <v>0.248104</v>
       </c>
       <c r="D129" t="n">
-        <v>0.217519</v>
+        <v>0.231895</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.306292</v>
+        <v>0.306146</v>
       </c>
       <c r="C130" t="n">
-        <v>0.246401</v>
+        <v>0.247478</v>
       </c>
       <c r="D130" t="n">
-        <v>0.216369</v>
+        <v>0.231539</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.297668</v>
+        <v>0.29755</v>
       </c>
       <c r="C131" t="n">
-        <v>0.245436</v>
+        <v>0.246722</v>
       </c>
       <c r="D131" t="n">
-        <v>0.215974</v>
+        <v>0.229849</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.288465</v>
+        <v>0.287772</v>
       </c>
       <c r="C132" t="n">
-        <v>0.244661</v>
+        <v>0.245452</v>
       </c>
       <c r="D132" t="n">
-        <v>0.214874</v>
+        <v>0.228703</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.276996</v>
+        <v>0.276899</v>
       </c>
       <c r="C133" t="n">
-        <v>0.244308</v>
+        <v>0.244762</v>
       </c>
       <c r="D133" t="n">
-        <v>0.215303</v>
+        <v>0.228322</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.266248</v>
+        <v>0.265999</v>
       </c>
       <c r="C134" t="n">
-        <v>0.243188</v>
+        <v>0.244145</v>
       </c>
       <c r="D134" t="n">
-        <v>0.214317</v>
+        <v>0.22779</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.253826</v>
+        <v>0.253707</v>
       </c>
       <c r="C135" t="n">
-        <v>0.242879</v>
+        <v>0.243364</v>
       </c>
       <c r="D135" t="n">
-        <v>0.213582</v>
+        <v>0.228027</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.240193</v>
+        <v>0.240113</v>
       </c>
       <c r="C136" t="n">
-        <v>0.241617</v>
+        <v>0.243136</v>
       </c>
       <c r="D136" t="n">
-        <v>0.214879</v>
+        <v>0.227961</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.22555</v>
+        <v>0.226183</v>
       </c>
       <c r="C137" t="n">
-        <v>0.241731</v>
+        <v>0.242386</v>
       </c>
       <c r="D137" t="n">
-        <v>0.227794</v>
+        <v>0.243165</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.350326</v>
+        <v>0.350636</v>
       </c>
       <c r="C138" t="n">
-        <v>0.259062</v>
+        <v>0.261126</v>
       </c>
       <c r="D138" t="n">
-        <v>0.226272</v>
+        <v>0.240846</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.344585</v>
+        <v>0.344433</v>
       </c>
       <c r="C139" t="n">
-        <v>0.255688</v>
+        <v>0.256761</v>
       </c>
       <c r="D139" t="n">
-        <v>0.22454</v>
+        <v>0.238342</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338109</v>
+        <v>0.338262</v>
       </c>
       <c r="C140" t="n">
-        <v>0.253106</v>
+        <v>0.254259</v>
       </c>
       <c r="D140" t="n">
-        <v>0.223483</v>
+        <v>0.237643</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331582</v>
+        <v>0.331452</v>
       </c>
       <c r="C141" t="n">
-        <v>0.250477</v>
+        <v>0.252318</v>
       </c>
       <c r="D141" t="n">
-        <v>0.223501</v>
+        <v>0.237025</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.324268</v>
+        <v>0.324173</v>
       </c>
       <c r="C142" t="n">
-        <v>0.249893</v>
+        <v>0.251021</v>
       </c>
       <c r="D142" t="n">
-        <v>0.22162</v>
+        <v>0.234206</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.31722</v>
+        <v>0.316517</v>
       </c>
       <c r="C143" t="n">
-        <v>0.247813</v>
+        <v>0.248984</v>
       </c>
       <c r="D143" t="n">
-        <v>0.220795</v>
+        <v>0.233973</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.297484</v>
+        <v>0.297037</v>
       </c>
       <c r="C2" t="n">
-        <v>0.227875</v>
+        <v>0.222903</v>
       </c>
       <c r="D2" t="n">
-        <v>0.208681</v>
+        <v>0.198308</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.288864</v>
+        <v>0.290077</v>
       </c>
       <c r="C3" t="n">
-        <v>0.233431</v>
+        <v>0.223379</v>
       </c>
       <c r="D3" t="n">
-        <v>0.209422</v>
+        <v>0.198465</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279359</v>
+        <v>0.279975</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2288</v>
+        <v>0.224606</v>
       </c>
       <c r="D4" t="n">
-        <v>0.20942</v>
+        <v>0.200314</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.269398</v>
+        <v>0.271073</v>
       </c>
       <c r="C5" t="n">
-        <v>0.233946</v>
+        <v>0.223949</v>
       </c>
       <c r="D5" t="n">
-        <v>0.209893</v>
+        <v>0.20051</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.255925</v>
+        <v>0.258438</v>
       </c>
       <c r="C6" t="n">
-        <v>0.233595</v>
+        <v>0.224335</v>
       </c>
       <c r="D6" t="n">
-        <v>0.208766</v>
+        <v>0.201789</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.244091</v>
+        <v>0.243169</v>
       </c>
       <c r="C7" t="n">
-        <v>0.23658</v>
+        <v>0.225048</v>
       </c>
       <c r="D7" t="n">
-        <v>0.210614</v>
+        <v>0.201241</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.232427</v>
+        <v>0.232943</v>
       </c>
       <c r="C8" t="n">
-        <v>0.234103</v>
+        <v>0.225862</v>
       </c>
       <c r="D8" t="n">
-        <v>0.210878</v>
+        <v>0.20234</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.216883</v>
+        <v>0.220807</v>
       </c>
       <c r="C9" t="n">
-        <v>0.234169</v>
+        <v>0.226328</v>
       </c>
       <c r="D9" t="n">
-        <v>0.241511</v>
+        <v>0.217478</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.344013</v>
+        <v>0.345163</v>
       </c>
       <c r="C10" t="n">
-        <v>0.253565</v>
+        <v>0.246525</v>
       </c>
       <c r="D10" t="n">
-        <v>0.230224</v>
+        <v>0.216516</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3399</v>
+        <v>0.339373</v>
       </c>
       <c r="C11" t="n">
-        <v>0.252566</v>
+        <v>0.24468</v>
       </c>
       <c r="D11" t="n">
-        <v>0.23862</v>
+        <v>0.215544</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.332875</v>
+        <v>0.332822</v>
       </c>
       <c r="C12" t="n">
-        <v>0.25189</v>
+        <v>0.242644</v>
       </c>
       <c r="D12" t="n">
-        <v>0.227993</v>
+        <v>0.214773</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.326464</v>
+        <v>0.326338</v>
       </c>
       <c r="C13" t="n">
-        <v>0.250007</v>
+        <v>0.240915</v>
       </c>
       <c r="D13" t="n">
-        <v>0.226658</v>
+        <v>0.212702</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.319247</v>
+        <v>0.32084</v>
       </c>
       <c r="C14" t="n">
-        <v>0.248256</v>
+        <v>0.239724</v>
       </c>
       <c r="D14" t="n">
-        <v>0.225197</v>
+        <v>0.211709</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.313111</v>
+        <v>0.313656</v>
       </c>
       <c r="C15" t="n">
-        <v>0.247152</v>
+        <v>0.23908</v>
       </c>
       <c r="D15" t="n">
-        <v>0.224443</v>
+        <v>0.209512</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.303731</v>
+        <v>0.304143</v>
       </c>
       <c r="C16" t="n">
-        <v>0.246577</v>
+        <v>0.239062</v>
       </c>
       <c r="D16" t="n">
-        <v>0.223515</v>
+        <v>0.214189</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.295775</v>
+        <v>0.295418</v>
       </c>
       <c r="C17" t="n">
-        <v>0.243478</v>
+        <v>0.238874</v>
       </c>
       <c r="D17" t="n">
-        <v>0.221039</v>
+        <v>0.209931</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.284744</v>
+        <v>0.287409</v>
       </c>
       <c r="C18" t="n">
-        <v>0.24252</v>
+        <v>0.238554</v>
       </c>
       <c r="D18" t="n">
-        <v>0.221469</v>
+        <v>0.209507</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.276746</v>
+        <v>0.276594</v>
       </c>
       <c r="C19" t="n">
-        <v>0.24264</v>
+        <v>0.237049</v>
       </c>
       <c r="D19" t="n">
-        <v>0.219934</v>
+        <v>0.208895</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.267781</v>
+        <v>0.2653</v>
       </c>
       <c r="C20" t="n">
-        <v>0.24287</v>
+        <v>0.236865</v>
       </c>
       <c r="D20" t="n">
-        <v>0.220686</v>
+        <v>0.210033</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.256585</v>
+        <v>0.254336</v>
       </c>
       <c r="C21" t="n">
-        <v>0.243071</v>
+        <v>0.237279</v>
       </c>
       <c r="D21" t="n">
-        <v>0.220595</v>
+        <v>0.209298</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.240325</v>
+        <v>0.241745</v>
       </c>
       <c r="C22" t="n">
-        <v>0.241785</v>
+        <v>0.23672</v>
       </c>
       <c r="D22" t="n">
-        <v>0.220514</v>
+        <v>0.208857</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.228491</v>
+        <v>0.228658</v>
       </c>
       <c r="C23" t="n">
-        <v>0.263793</v>
+        <v>0.237769</v>
       </c>
       <c r="D23" t="n">
-        <v>0.237186</v>
+        <v>0.223944</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.347671</v>
+        <v>0.348798</v>
       </c>
       <c r="C24" t="n">
-        <v>0.259398</v>
+        <v>0.254739</v>
       </c>
       <c r="D24" t="n">
-        <v>0.236318</v>
+        <v>0.222675</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342181</v>
+        <v>0.341998</v>
       </c>
       <c r="C25" t="n">
-        <v>0.257895</v>
+        <v>0.253376</v>
       </c>
       <c r="D25" t="n">
-        <v>0.234595</v>
+        <v>0.221009</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.335906</v>
+        <v>0.336313</v>
       </c>
       <c r="C26" t="n">
-        <v>0.255238</v>
+        <v>0.251369</v>
       </c>
       <c r="D26" t="n">
-        <v>0.23329</v>
+        <v>0.220381</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328893</v>
+        <v>0.328454</v>
       </c>
       <c r="C27" t="n">
-        <v>0.252257</v>
+        <v>0.249795</v>
       </c>
       <c r="D27" t="n">
-        <v>0.23082</v>
+        <v>0.218751</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.322151</v>
+        <v>0.321619</v>
       </c>
       <c r="C28" t="n">
-        <v>0.250452</v>
+        <v>0.247903</v>
       </c>
       <c r="D28" t="n">
-        <v>0.229335</v>
+        <v>0.216865</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.314704</v>
+        <v>0.31447</v>
       </c>
       <c r="C29" t="n">
-        <v>0.250517</v>
+        <v>0.246609</v>
       </c>
       <c r="D29" t="n">
-        <v>0.227897</v>
+        <v>0.216276</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.306451</v>
+        <v>0.30682</v>
       </c>
       <c r="C30" t="n">
-        <v>0.248798</v>
+        <v>0.245142</v>
       </c>
       <c r="D30" t="n">
-        <v>0.226906</v>
+        <v>0.214692</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.297548</v>
+        <v>0.298173</v>
       </c>
       <c r="C31" t="n">
-        <v>0.247774</v>
+        <v>0.24378</v>
       </c>
       <c r="D31" t="n">
-        <v>0.226317</v>
+        <v>0.214314</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.288721</v>
+        <v>0.28877</v>
       </c>
       <c r="C32" t="n">
-        <v>0.246949</v>
+        <v>0.24336</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2257</v>
+        <v>0.213853</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.279557</v>
+        <v>0.27928</v>
       </c>
       <c r="C33" t="n">
-        <v>0.246124</v>
+        <v>0.242942</v>
       </c>
       <c r="D33" t="n">
-        <v>0.224973</v>
+        <v>0.213602</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.269204</v>
+        <v>0.269052</v>
       </c>
       <c r="C34" t="n">
-        <v>0.245369</v>
+        <v>0.241825</v>
       </c>
       <c r="D34" t="n">
-        <v>0.223599</v>
+        <v>0.212565</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.257884</v>
+        <v>0.258043</v>
       </c>
       <c r="C35" t="n">
-        <v>0.244826</v>
+        <v>0.242059</v>
       </c>
       <c r="D35" t="n">
-        <v>0.223491</v>
+        <v>0.212514</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244937</v>
+        <v>0.245018</v>
       </c>
       <c r="C36" t="n">
-        <v>0.243821</v>
+        <v>0.241654</v>
       </c>
       <c r="D36" t="n">
-        <v>0.222599</v>
+        <v>0.212385</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.230709</v>
+        <v>0.230881</v>
       </c>
       <c r="C37" t="n">
-        <v>0.243101</v>
+        <v>0.241291</v>
       </c>
       <c r="D37" t="n">
-        <v>0.240208</v>
+        <v>0.227151</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.34895</v>
+        <v>0.349492</v>
       </c>
       <c r="C38" t="n">
-        <v>0.26143</v>
+        <v>0.261017</v>
       </c>
       <c r="D38" t="n">
-        <v>0.237385</v>
+        <v>0.224143</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.344307</v>
+        <v>0.344476</v>
       </c>
       <c r="C39" t="n">
-        <v>0.257625</v>
+        <v>0.257712</v>
       </c>
       <c r="D39" t="n">
-        <v>0.235061</v>
+        <v>0.222364</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.338002</v>
+        <v>0.338119</v>
       </c>
       <c r="C40" t="n">
-        <v>0.25519</v>
+        <v>0.25479</v>
       </c>
       <c r="D40" t="n">
-        <v>0.233632</v>
+        <v>0.220517</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.331307</v>
+        <v>0.33174</v>
       </c>
       <c r="C41" t="n">
-        <v>0.252178</v>
+        <v>0.251689</v>
       </c>
       <c r="D41" t="n">
-        <v>0.231554</v>
+        <v>0.219246</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.324304</v>
+        <v>0.32486</v>
       </c>
       <c r="C42" t="n">
-        <v>0.250153</v>
+        <v>0.25076</v>
       </c>
       <c r="D42" t="n">
-        <v>0.229946</v>
+        <v>0.217715</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.316652</v>
+        <v>0.316837</v>
       </c>
       <c r="C43" t="n">
-        <v>0.249088</v>
+        <v>0.249202</v>
       </c>
       <c r="D43" t="n">
-        <v>0.228946</v>
+        <v>0.21698</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.308948</v>
+        <v>0.309191</v>
       </c>
       <c r="C44" t="n">
-        <v>0.247906</v>
+        <v>0.247669</v>
       </c>
       <c r="D44" t="n">
-        <v>0.227473</v>
+        <v>0.215601</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300442</v>
+        <v>0.300184</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246243</v>
+        <v>0.246818</v>
       </c>
       <c r="D45" t="n">
-        <v>0.226441</v>
+        <v>0.214551</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.292406</v>
+        <v>0.292389</v>
       </c>
       <c r="C46" t="n">
-        <v>0.246041</v>
+        <v>0.245752</v>
       </c>
       <c r="D46" t="n">
-        <v>0.225791</v>
+        <v>0.214059</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.282435</v>
+        <v>0.282423</v>
       </c>
       <c r="C47" t="n">
-        <v>0.244732</v>
+        <v>0.244725</v>
       </c>
       <c r="D47" t="n">
-        <v>0.225504</v>
+        <v>0.213695</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.271886</v>
+        <v>0.271948</v>
       </c>
       <c r="C48" t="n">
-        <v>0.244135</v>
+        <v>0.243773</v>
       </c>
       <c r="D48" t="n">
-        <v>0.22457</v>
+        <v>0.213549</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.260989</v>
+        <v>0.261412</v>
       </c>
       <c r="C49" t="n">
-        <v>0.242957</v>
+        <v>0.24319</v>
       </c>
       <c r="D49" t="n">
-        <v>0.22383</v>
+        <v>0.213199</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.248895</v>
+        <v>0.249072</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2432</v>
+        <v>0.242628</v>
       </c>
       <c r="D50" t="n">
-        <v>0.223369</v>
+        <v>0.214183</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.235341</v>
+        <v>0.234969</v>
       </c>
       <c r="C51" t="n">
-        <v>0.242796</v>
+        <v>0.242122</v>
       </c>
       <c r="D51" t="n">
-        <v>0.239091</v>
+        <v>0.225903</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.220481</v>
+        <v>0.219874</v>
       </c>
       <c r="C52" t="n">
-        <v>0.24232</v>
+        <v>0.241544</v>
       </c>
       <c r="D52" t="n">
-        <v>0.236997</v>
+        <v>0.22368</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.346861</v>
+        <v>0.34707</v>
       </c>
       <c r="C53" t="n">
-        <v>0.25751</v>
+        <v>0.257621</v>
       </c>
       <c r="D53" t="n">
-        <v>0.234965</v>
+        <v>0.222027</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.341038</v>
+        <v>0.341192</v>
       </c>
       <c r="C54" t="n">
-        <v>0.254621</v>
+        <v>0.254542</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232555</v>
+        <v>0.22052</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.335155</v>
+        <v>0.335339</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2525</v>
+        <v>0.252242</v>
       </c>
       <c r="D55" t="n">
-        <v>0.231774</v>
+        <v>0.219485</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.328099</v>
+        <v>0.327489</v>
       </c>
       <c r="C56" t="n">
-        <v>0.251141</v>
+        <v>0.25071</v>
       </c>
       <c r="D56" t="n">
-        <v>0.230223</v>
+        <v>0.218222</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.320405</v>
+        <v>0.320274</v>
       </c>
       <c r="C57" t="n">
-        <v>0.24917</v>
+        <v>0.249124</v>
       </c>
       <c r="D57" t="n">
-        <v>0.228834</v>
+        <v>0.217048</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.312992</v>
+        <v>0.312852</v>
       </c>
       <c r="C58" t="n">
-        <v>0.248148</v>
+        <v>0.247926</v>
       </c>
       <c r="D58" t="n">
-        <v>0.227675</v>
+        <v>0.216518</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304239</v>
+        <v>0.304323</v>
       </c>
       <c r="C59" t="n">
-        <v>0.246946</v>
+        <v>0.246811</v>
       </c>
       <c r="D59" t="n">
-        <v>0.226641</v>
+        <v>0.215501</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294908</v>
+        <v>0.294391</v>
       </c>
       <c r="C60" t="n">
-        <v>0.245715</v>
+        <v>0.245925</v>
       </c>
       <c r="D60" t="n">
-        <v>0.226063</v>
+        <v>0.214692</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.285214</v>
+        <v>0.284826</v>
       </c>
       <c r="C61" t="n">
-        <v>0.245246</v>
+        <v>0.245238</v>
       </c>
       <c r="D61" t="n">
-        <v>0.225733</v>
+        <v>0.214124</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.27452</v>
+        <v>0.274336</v>
       </c>
       <c r="C62" t="n">
-        <v>0.244311</v>
+        <v>0.244182</v>
       </c>
       <c r="D62" t="n">
-        <v>0.224514</v>
+        <v>0.213486</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263461</v>
+        <v>0.263115</v>
       </c>
       <c r="C63" t="n">
-        <v>0.24369</v>
+        <v>0.243255</v>
       </c>
       <c r="D63" t="n">
-        <v>0.224401</v>
+        <v>0.213353</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.251137</v>
+        <v>0.250917</v>
       </c>
       <c r="C64" t="n">
-        <v>0.243215</v>
+        <v>0.242816</v>
       </c>
       <c r="D64" t="n">
-        <v>0.223059</v>
+        <v>0.212571</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.238129</v>
+        <v>0.237807</v>
       </c>
       <c r="C65" t="n">
-        <v>0.242889</v>
+        <v>0.242222</v>
       </c>
       <c r="D65" t="n">
-        <v>0.224137</v>
+        <v>0.212448</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.223561</v>
+        <v>0.223633</v>
       </c>
       <c r="C66" t="n">
-        <v>0.242501</v>
+        <v>0.241609</v>
       </c>
       <c r="D66" t="n">
-        <v>0.238073</v>
+        <v>0.225151</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.348665</v>
+        <v>0.349108</v>
       </c>
       <c r="C67" t="n">
-        <v>0.259632</v>
+        <v>0.259601</v>
       </c>
       <c r="D67" t="n">
-        <v>0.236001</v>
+        <v>0.223104</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.342811</v>
+        <v>0.343007</v>
       </c>
       <c r="C68" t="n">
-        <v>0.255993</v>
+        <v>0.255696</v>
       </c>
       <c r="D68" t="n">
-        <v>0.233801</v>
+        <v>0.221351</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.336711</v>
+        <v>0.336564</v>
       </c>
       <c r="C69" t="n">
-        <v>0.253597</v>
+        <v>0.252909</v>
       </c>
       <c r="D69" t="n">
-        <v>0.232292</v>
+        <v>0.219931</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.329759</v>
+        <v>0.329916</v>
       </c>
       <c r="C70" t="n">
-        <v>0.251018</v>
+        <v>0.251206</v>
       </c>
       <c r="D70" t="n">
-        <v>0.230756</v>
+        <v>0.218845</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.323151</v>
+        <v>0.322987</v>
       </c>
       <c r="C71" t="n">
-        <v>0.250297</v>
+        <v>0.24981</v>
       </c>
       <c r="D71" t="n">
-        <v>0.229611</v>
+        <v>0.217782</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.315005</v>
+        <v>0.315099</v>
       </c>
       <c r="C72" t="n">
-        <v>0.248912</v>
+        <v>0.248426</v>
       </c>
       <c r="D72" t="n">
-        <v>0.228285</v>
+        <v>0.216802</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.306507</v>
+        <v>0.306884</v>
       </c>
       <c r="C73" t="n">
-        <v>0.2475</v>
+        <v>0.247187</v>
       </c>
       <c r="D73" t="n">
-        <v>0.227205</v>
+        <v>0.215724</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.298078</v>
+        <v>0.298272</v>
       </c>
       <c r="C74" t="n">
-        <v>0.246433</v>
+        <v>0.24616</v>
       </c>
       <c r="D74" t="n">
-        <v>0.225973</v>
+        <v>0.215063</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.288778</v>
+        <v>0.288837</v>
       </c>
       <c r="C75" t="n">
-        <v>0.2455</v>
+        <v>0.245379</v>
       </c>
       <c r="D75" t="n">
-        <v>0.225307</v>
+        <v>0.214391</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.278292</v>
+        <v>0.278995</v>
       </c>
       <c r="C76" t="n">
-        <v>0.244629</v>
+        <v>0.244567</v>
       </c>
       <c r="D76" t="n">
-        <v>0.224807</v>
+        <v>0.213758</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.267374</v>
+        <v>0.267158</v>
       </c>
       <c r="C77" t="n">
-        <v>0.243993</v>
+        <v>0.243466</v>
       </c>
       <c r="D77" t="n">
-        <v>0.224373</v>
+        <v>0.213278</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.254946</v>
+        <v>0.255172</v>
       </c>
       <c r="C78" t="n">
-        <v>0.243296</v>
+        <v>0.242538</v>
       </c>
       <c r="D78" t="n">
-        <v>0.224187</v>
+        <v>0.212908</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.241986</v>
+        <v>0.242105</v>
       </c>
       <c r="C79" t="n">
-        <v>0.242995</v>
+        <v>0.242274</v>
       </c>
       <c r="D79" t="n">
-        <v>0.224613</v>
+        <v>0.212698</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227783</v>
+        <v>0.22742</v>
       </c>
       <c r="C80" t="n">
-        <v>0.242722</v>
+        <v>0.24206</v>
       </c>
       <c r="D80" t="n">
-        <v>0.238541</v>
+        <v>0.225589</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.350161</v>
+        <v>0.35036</v>
       </c>
       <c r="C81" t="n">
-        <v>0.261193</v>
+        <v>0.258952</v>
       </c>
       <c r="D81" t="n">
-        <v>0.236226</v>
+        <v>0.223497</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.344618</v>
+        <v>0.344608</v>
       </c>
       <c r="C82" t="n">
-        <v>0.256996</v>
+        <v>0.255419</v>
       </c>
       <c r="D82" t="n">
-        <v>0.234506</v>
+        <v>0.221778</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.337989</v>
+        <v>0.338319</v>
       </c>
       <c r="C83" t="n">
-        <v>0.254424</v>
+        <v>0.252867</v>
       </c>
       <c r="D83" t="n">
-        <v>0.232535</v>
+        <v>0.220264</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.331638</v>
+        <v>0.331788</v>
       </c>
       <c r="C84" t="n">
-        <v>0.251828</v>
+        <v>0.250982</v>
       </c>
       <c r="D84" t="n">
-        <v>0.231027</v>
+        <v>0.218934</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.324593</v>
+        <v>0.324632</v>
       </c>
       <c r="C85" t="n">
-        <v>0.249975</v>
+        <v>0.249593</v>
       </c>
       <c r="D85" t="n">
-        <v>0.23002</v>
+        <v>0.21778</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.31676</v>
+        <v>0.316825</v>
       </c>
       <c r="C86" t="n">
-        <v>0.248801</v>
+        <v>0.248303</v>
       </c>
       <c r="D86" t="n">
-        <v>0.228677</v>
+        <v>0.2169</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.30882</v>
+        <v>0.308858</v>
       </c>
       <c r="C87" t="n">
-        <v>0.247605</v>
+        <v>0.247128</v>
       </c>
       <c r="D87" t="n">
-        <v>0.227608</v>
+        <v>0.215904</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300073</v>
+        <v>0.300017</v>
       </c>
       <c r="C88" t="n">
-        <v>0.246343</v>
+        <v>0.246341</v>
       </c>
       <c r="D88" t="n">
-        <v>0.226451</v>
+        <v>0.215099</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.290616</v>
+        <v>0.291009</v>
       </c>
       <c r="C89" t="n">
-        <v>0.245627</v>
+        <v>0.245498</v>
       </c>
       <c r="D89" t="n">
-        <v>0.225855</v>
+        <v>0.21441</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.280561</v>
+        <v>0.280814</v>
       </c>
       <c r="C90" t="n">
-        <v>0.244734</v>
+        <v>0.24466</v>
       </c>
       <c r="D90" t="n">
-        <v>0.22701</v>
+        <v>0.2138</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.269467</v>
+        <v>0.269789</v>
       </c>
       <c r="C91" t="n">
-        <v>0.243916</v>
+        <v>0.243734</v>
       </c>
       <c r="D91" t="n">
-        <v>0.226252</v>
+        <v>0.21323</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.25784</v>
+        <v>0.257831</v>
       </c>
       <c r="C92" t="n">
-        <v>0.243262</v>
+        <v>0.243063</v>
       </c>
       <c r="D92" t="n">
-        <v>0.225768</v>
+        <v>0.212636</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.244727</v>
+        <v>0.244881</v>
       </c>
       <c r="C93" t="n">
-        <v>0.242904</v>
+        <v>0.242508</v>
       </c>
       <c r="D93" t="n">
-        <v>0.225851</v>
+        <v>0.212681</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.230761</v>
+        <v>0.230838</v>
       </c>
       <c r="C94" t="n">
-        <v>0.242432</v>
+        <v>0.241915</v>
       </c>
       <c r="D94" t="n">
-        <v>0.239888</v>
+        <v>0.226036</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.35167</v>
+        <v>0.351911</v>
       </c>
       <c r="C95" t="n">
-        <v>0.261775</v>
+        <v>0.259939</v>
       </c>
       <c r="D95" t="n">
-        <v>0.238004</v>
+        <v>0.223853</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.346145</v>
+        <v>0.345831</v>
       </c>
       <c r="C96" t="n">
-        <v>0.257809</v>
+        <v>0.256357</v>
       </c>
       <c r="D96" t="n">
-        <v>0.235811</v>
+        <v>0.22197</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.340252</v>
+        <v>0.339894</v>
       </c>
       <c r="C97" t="n">
-        <v>0.254445</v>
+        <v>0.253587</v>
       </c>
       <c r="D97" t="n">
-        <v>0.234073</v>
+        <v>0.220421</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.33344</v>
+        <v>0.333604</v>
       </c>
       <c r="C98" t="n">
-        <v>0.252066</v>
+        <v>0.251429</v>
       </c>
       <c r="D98" t="n">
-        <v>0.232272</v>
+        <v>0.21922</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.326371</v>
+        <v>0.326257</v>
       </c>
       <c r="C99" t="n">
-        <v>0.250536</v>
+        <v>0.25006</v>
       </c>
       <c r="D99" t="n">
-        <v>0.230772</v>
+        <v>0.217969</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.318633</v>
+        <v>0.318524</v>
       </c>
       <c r="C100" t="n">
-        <v>0.248998</v>
+        <v>0.248754</v>
       </c>
       <c r="D100" t="n">
-        <v>0.230371</v>
+        <v>0.216961</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.310654</v>
+        <v>0.310711</v>
       </c>
       <c r="C101" t="n">
-        <v>0.24754</v>
+        <v>0.247641</v>
       </c>
       <c r="D101" t="n">
-        <v>0.228711</v>
+        <v>0.216025</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.301905</v>
+        <v>0.301953</v>
       </c>
       <c r="C102" t="n">
-        <v>0.246877</v>
+        <v>0.246553</v>
       </c>
       <c r="D102" t="n">
-        <v>0.228612</v>
+        <v>0.215257</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.292819</v>
+        <v>0.292644</v>
       </c>
       <c r="C103" t="n">
-        <v>0.246038</v>
+        <v>0.245741</v>
       </c>
       <c r="D103" t="n">
-        <v>0.228623</v>
+        <v>0.214506</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.282798</v>
+        <v>0.283103</v>
       </c>
       <c r="C104" t="n">
-        <v>0.245221</v>
+        <v>0.244825</v>
       </c>
       <c r="D104" t="n">
-        <v>0.228331</v>
+        <v>0.213955</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.272267</v>
+        <v>0.271889</v>
       </c>
       <c r="C105" t="n">
-        <v>0.244003</v>
+        <v>0.243945</v>
       </c>
       <c r="D105" t="n">
-        <v>0.227475</v>
+        <v>0.213266</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.26043</v>
+        <v>0.260546</v>
       </c>
       <c r="C106" t="n">
-        <v>0.243607</v>
+        <v>0.243245</v>
       </c>
       <c r="D106" t="n">
-        <v>0.227104</v>
+        <v>0.212726</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247579</v>
+        <v>0.247646</v>
       </c>
       <c r="C107" t="n">
-        <v>0.242916</v>
+        <v>0.242592</v>
       </c>
       <c r="D107" t="n">
-        <v>0.226557</v>
+        <v>0.212289</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.234281</v>
+        <v>0.233648</v>
       </c>
       <c r="C108" t="n">
-        <v>0.242603</v>
+        <v>0.241845</v>
       </c>
       <c r="D108" t="n">
-        <v>0.242358</v>
+        <v>0.226229</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.219273</v>
+        <v>0.219</v>
       </c>
       <c r="C109" t="n">
-        <v>0.242051</v>
+        <v>0.241638</v>
       </c>
       <c r="D109" t="n">
-        <v>0.239525</v>
+        <v>0.224225</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.347635</v>
+        <v>0.347398</v>
       </c>
       <c r="C110" t="n">
-        <v>0.25843</v>
+        <v>0.256376</v>
       </c>
       <c r="D110" t="n">
-        <v>0.237806</v>
+        <v>0.222395</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.341465</v>
+        <v>0.341259</v>
       </c>
       <c r="C111" t="n">
-        <v>0.255125</v>
+        <v>0.253573</v>
       </c>
       <c r="D111" t="n">
-        <v>0.235908</v>
+        <v>0.220656</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.33504</v>
+        <v>0.334846</v>
       </c>
       <c r="C112" t="n">
-        <v>0.252696</v>
+        <v>0.251553</v>
       </c>
       <c r="D112" t="n">
-        <v>0.235541</v>
+        <v>0.219295</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.327564</v>
+        <v>0.327544</v>
       </c>
       <c r="C113" t="n">
-        <v>0.251059</v>
+        <v>0.250109</v>
       </c>
       <c r="D113" t="n">
-        <v>0.233325</v>
+        <v>0.218213</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.32052</v>
+        <v>0.320426</v>
       </c>
       <c r="C114" t="n">
-        <v>0.25017</v>
+        <v>0.249234</v>
       </c>
       <c r="D114" t="n">
-        <v>0.232527</v>
+        <v>0.217185</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.312338</v>
+        <v>0.31251</v>
       </c>
       <c r="C115" t="n">
-        <v>0.24848</v>
+        <v>0.24802</v>
       </c>
       <c r="D115" t="n">
-        <v>0.230899</v>
+        <v>0.216176</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.30419</v>
+        <v>0.304013</v>
       </c>
       <c r="C116" t="n">
-        <v>0.247286</v>
+        <v>0.247116</v>
       </c>
       <c r="D116" t="n">
-        <v>0.229992</v>
+        <v>0.215446</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.295204</v>
+        <v>0.29533</v>
       </c>
       <c r="C117" t="n">
-        <v>0.246615</v>
+        <v>0.246058</v>
       </c>
       <c r="D117" t="n">
-        <v>0.229391</v>
+        <v>0.214556</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.285596</v>
+        <v>0.285943</v>
       </c>
       <c r="C118" t="n">
-        <v>0.245783</v>
+        <v>0.245158</v>
       </c>
       <c r="D118" t="n">
-        <v>0.229397</v>
+        <v>0.21435</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.274402</v>
+        <v>0.27522</v>
       </c>
       <c r="C119" t="n">
-        <v>0.244665</v>
+        <v>0.244423</v>
       </c>
       <c r="D119" t="n">
-        <v>0.227773</v>
+        <v>0.214169</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.263352</v>
+        <v>0.263527</v>
       </c>
       <c r="C120" t="n">
-        <v>0.244286</v>
+        <v>0.243554</v>
       </c>
       <c r="D120" t="n">
-        <v>0.226824</v>
+        <v>0.21355</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.250784</v>
+        <v>0.251205</v>
       </c>
       <c r="C121" t="n">
-        <v>0.24368</v>
+        <v>0.242779</v>
       </c>
       <c r="D121" t="n">
-        <v>0.227901</v>
+        <v>0.213324</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.237762</v>
+        <v>0.237387</v>
       </c>
       <c r="C122" t="n">
-        <v>0.243108</v>
+        <v>0.242341</v>
       </c>
       <c r="D122" t="n">
-        <v>0.226772</v>
+        <v>0.212872</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.223072</v>
+        <v>0.222828</v>
       </c>
       <c r="C123" t="n">
-        <v>0.242745</v>
+        <v>0.241626</v>
       </c>
       <c r="D123" t="n">
-        <v>0.24087</v>
+        <v>0.225354</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.348826</v>
+        <v>0.348726</v>
       </c>
       <c r="C124" t="n">
-        <v>0.259266</v>
+        <v>0.257283</v>
       </c>
       <c r="D124" t="n">
-        <v>0.238942</v>
+        <v>0.223871</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.342949</v>
+        <v>0.342837</v>
       </c>
       <c r="C125" t="n">
-        <v>0.256246</v>
+        <v>0.254253</v>
       </c>
       <c r="D125" t="n">
-        <v>0.237663</v>
+        <v>0.221381</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.336727</v>
+        <v>0.336425</v>
       </c>
       <c r="C126" t="n">
-        <v>0.253514</v>
+        <v>0.251646</v>
       </c>
       <c r="D126" t="n">
-        <v>0.235215</v>
+        <v>0.220643</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.329569</v>
+        <v>0.329486</v>
       </c>
       <c r="C127" t="n">
-        <v>0.251224</v>
+        <v>0.250287</v>
       </c>
       <c r="D127" t="n">
-        <v>0.233559</v>
+        <v>0.218992</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.322248</v>
+        <v>0.322259</v>
       </c>
       <c r="C128" t="n">
-        <v>0.250237</v>
+        <v>0.248439</v>
       </c>
       <c r="D128" t="n">
-        <v>0.233357</v>
+        <v>0.218719</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.314834</v>
+        <v>0.313938</v>
       </c>
       <c r="C129" t="n">
-        <v>0.248104</v>
+        <v>0.247435</v>
       </c>
       <c r="D129" t="n">
-        <v>0.231895</v>
+        <v>0.217263</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.306146</v>
+        <v>0.306117</v>
       </c>
       <c r="C130" t="n">
-        <v>0.247478</v>
+        <v>0.246419</v>
       </c>
       <c r="D130" t="n">
-        <v>0.231539</v>
+        <v>0.216447</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.29755</v>
+        <v>0.297252</v>
       </c>
       <c r="C131" t="n">
-        <v>0.246722</v>
+        <v>0.245172</v>
       </c>
       <c r="D131" t="n">
-        <v>0.229849</v>
+        <v>0.215224</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.287772</v>
+        <v>0.287669</v>
       </c>
       <c r="C132" t="n">
-        <v>0.245452</v>
+        <v>0.244657</v>
       </c>
       <c r="D132" t="n">
-        <v>0.228703</v>
+        <v>0.215026</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.276899</v>
+        <v>0.277071</v>
       </c>
       <c r="C133" t="n">
-        <v>0.244762</v>
+        <v>0.244395</v>
       </c>
       <c r="D133" t="n">
-        <v>0.228322</v>
+        <v>0.215274</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.265999</v>
+        <v>0.265944</v>
       </c>
       <c r="C134" t="n">
-        <v>0.244145</v>
+        <v>0.24324</v>
       </c>
       <c r="D134" t="n">
-        <v>0.22779</v>
+        <v>0.214162</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.253707</v>
+        <v>0.253129</v>
       </c>
       <c r="C135" t="n">
-        <v>0.243364</v>
+        <v>0.24266</v>
       </c>
       <c r="D135" t="n">
-        <v>0.228027</v>
+        <v>0.213842</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.240113</v>
+        <v>0.240469</v>
       </c>
       <c r="C136" t="n">
-        <v>0.243136</v>
+        <v>0.242152</v>
       </c>
       <c r="D136" t="n">
-        <v>0.227961</v>
+        <v>0.213236</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.226183</v>
+        <v>0.225937</v>
       </c>
       <c r="C137" t="n">
-        <v>0.242386</v>
+        <v>0.241665</v>
       </c>
       <c r="D137" t="n">
-        <v>0.243165</v>
+        <v>0.229744</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.350636</v>
+        <v>0.350358</v>
       </c>
       <c r="C138" t="n">
-        <v>0.261126</v>
+        <v>0.25867</v>
       </c>
       <c r="D138" t="n">
-        <v>0.240846</v>
+        <v>0.225764</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.344433</v>
+        <v>0.344793</v>
       </c>
       <c r="C139" t="n">
-        <v>0.256761</v>
+        <v>0.255296</v>
       </c>
       <c r="D139" t="n">
-        <v>0.238342</v>
+        <v>0.224211</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338262</v>
+        <v>0.337851</v>
       </c>
       <c r="C140" t="n">
-        <v>0.254259</v>
+        <v>0.253515</v>
       </c>
       <c r="D140" t="n">
-        <v>0.237643</v>
+        <v>0.222733</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331452</v>
+        <v>0.331433</v>
       </c>
       <c r="C141" t="n">
-        <v>0.252318</v>
+        <v>0.250856</v>
       </c>
       <c r="D141" t="n">
-        <v>0.237025</v>
+        <v>0.221985</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.324173</v>
+        <v>0.32393</v>
       </c>
       <c r="C142" t="n">
-        <v>0.251021</v>
+        <v>0.249337</v>
       </c>
       <c r="D142" t="n">
-        <v>0.234206</v>
+        <v>0.221785</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.316517</v>
+        <v>0.315953</v>
       </c>
       <c r="C143" t="n">
-        <v>0.248984</v>
+        <v>0.248445</v>
       </c>
       <c r="D143" t="n">
-        <v>0.233973</v>
+        <v>0.219785</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.297037</v>
+        <v>0.296982</v>
       </c>
       <c r="C2" t="n">
-        <v>0.222903</v>
+        <v>0.223259</v>
       </c>
       <c r="D2" t="n">
-        <v>0.198308</v>
+        <v>0.199289</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.290077</v>
+        <v>0.290123</v>
       </c>
       <c r="C3" t="n">
-        <v>0.223379</v>
+        <v>0.223646</v>
       </c>
       <c r="D3" t="n">
-        <v>0.198465</v>
+        <v>0.198986</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279975</v>
+        <v>0.279415</v>
       </c>
       <c r="C4" t="n">
-        <v>0.224606</v>
+        <v>0.224003</v>
       </c>
       <c r="D4" t="n">
-        <v>0.200314</v>
+        <v>0.200794</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.271073</v>
+        <v>0.270068</v>
       </c>
       <c r="C5" t="n">
-        <v>0.223949</v>
+        <v>0.224802</v>
       </c>
       <c r="D5" t="n">
-        <v>0.20051</v>
+        <v>0.200675</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.258438</v>
+        <v>0.257825</v>
       </c>
       <c r="C6" t="n">
-        <v>0.224335</v>
+        <v>0.225623</v>
       </c>
       <c r="D6" t="n">
-        <v>0.201789</v>
+        <v>0.201354</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.243169</v>
+        <v>0.244265</v>
       </c>
       <c r="C7" t="n">
-        <v>0.225048</v>
+        <v>0.226117</v>
       </c>
       <c r="D7" t="n">
-        <v>0.201241</v>
+        <v>0.201598</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.232943</v>
+        <v>0.231424</v>
       </c>
       <c r="C8" t="n">
-        <v>0.225862</v>
+        <v>0.22817</v>
       </c>
       <c r="D8" t="n">
-        <v>0.20234</v>
+        <v>0.202965</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.220807</v>
+        <v>0.218759</v>
       </c>
       <c r="C9" t="n">
-        <v>0.226328</v>
+        <v>0.226771</v>
       </c>
       <c r="D9" t="n">
-        <v>0.217478</v>
+        <v>0.218017</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.345163</v>
+        <v>0.346088</v>
       </c>
       <c r="C10" t="n">
-        <v>0.246525</v>
+        <v>0.246754</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216516</v>
+        <v>0.216908</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.339373</v>
+        <v>0.339422</v>
       </c>
       <c r="C11" t="n">
-        <v>0.24468</v>
+        <v>0.244573</v>
       </c>
       <c r="D11" t="n">
-        <v>0.215544</v>
+        <v>0.215297</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.332822</v>
+        <v>0.33499</v>
       </c>
       <c r="C12" t="n">
-        <v>0.242644</v>
+        <v>0.243076</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214773</v>
+        <v>0.214248</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.326338</v>
+        <v>0.327796</v>
       </c>
       <c r="C13" t="n">
-        <v>0.240915</v>
+        <v>0.241303</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212702</v>
+        <v>0.213508</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.32084</v>
+        <v>0.319555</v>
       </c>
       <c r="C14" t="n">
-        <v>0.239724</v>
+        <v>0.239106</v>
       </c>
       <c r="D14" t="n">
-        <v>0.211709</v>
+        <v>0.212666</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.313656</v>
+        <v>0.314542</v>
       </c>
       <c r="C15" t="n">
-        <v>0.23908</v>
+        <v>0.238863</v>
       </c>
       <c r="D15" t="n">
-        <v>0.209512</v>
+        <v>0.210913</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.304143</v>
+        <v>0.305054</v>
       </c>
       <c r="C16" t="n">
-        <v>0.239062</v>
+        <v>0.239793</v>
       </c>
       <c r="D16" t="n">
-        <v>0.214189</v>
+        <v>0.210103</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.295418</v>
+        <v>0.298335</v>
       </c>
       <c r="C17" t="n">
-        <v>0.238874</v>
+        <v>0.2388</v>
       </c>
       <c r="D17" t="n">
-        <v>0.209931</v>
+        <v>0.210139</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.287409</v>
+        <v>0.289158</v>
       </c>
       <c r="C18" t="n">
-        <v>0.238554</v>
+        <v>0.238895</v>
       </c>
       <c r="D18" t="n">
-        <v>0.209507</v>
+        <v>0.210306</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.276594</v>
+        <v>0.27907</v>
       </c>
       <c r="C19" t="n">
-        <v>0.237049</v>
+        <v>0.237735</v>
       </c>
       <c r="D19" t="n">
-        <v>0.208895</v>
+        <v>0.209169</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2653</v>
+        <v>0.26623</v>
       </c>
       <c r="C20" t="n">
-        <v>0.236865</v>
+        <v>0.237928</v>
       </c>
       <c r="D20" t="n">
-        <v>0.210033</v>
+        <v>0.210411</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.254336</v>
+        <v>0.255996</v>
       </c>
       <c r="C21" t="n">
-        <v>0.237279</v>
+        <v>0.236844</v>
       </c>
       <c r="D21" t="n">
-        <v>0.209298</v>
+        <v>0.210044</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.241745</v>
+        <v>0.242252</v>
       </c>
       <c r="C22" t="n">
-        <v>0.23672</v>
+        <v>0.237487</v>
       </c>
       <c r="D22" t="n">
-        <v>0.208857</v>
+        <v>0.209833</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.228658</v>
+        <v>0.229074</v>
       </c>
       <c r="C23" t="n">
-        <v>0.237769</v>
+        <v>0.2378</v>
       </c>
       <c r="D23" t="n">
-        <v>0.223944</v>
+        <v>0.22363</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348798</v>
+        <v>0.348819</v>
       </c>
       <c r="C24" t="n">
-        <v>0.254739</v>
+        <v>0.255045</v>
       </c>
       <c r="D24" t="n">
-        <v>0.222675</v>
+        <v>0.222359</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.341998</v>
+        <v>0.342043</v>
       </c>
       <c r="C25" t="n">
-        <v>0.253376</v>
+        <v>0.253297</v>
       </c>
       <c r="D25" t="n">
-        <v>0.221009</v>
+        <v>0.221193</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.336313</v>
+        <v>0.336147</v>
       </c>
       <c r="C26" t="n">
-        <v>0.251369</v>
+        <v>0.251545</v>
       </c>
       <c r="D26" t="n">
-        <v>0.220381</v>
+        <v>0.219967</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328454</v>
+        <v>0.328694</v>
       </c>
       <c r="C27" t="n">
-        <v>0.249795</v>
+        <v>0.249667</v>
       </c>
       <c r="D27" t="n">
-        <v>0.218751</v>
+        <v>0.218596</v>
       </c>
     </row>
     <row r="28">
@@ -3613,10 +3613,10 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.321619</v>
+        <v>0.321383</v>
       </c>
       <c r="C28" t="n">
-        <v>0.247903</v>
+        <v>0.247594</v>
       </c>
       <c r="D28" t="n">
         <v>0.216865</v>
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.31447</v>
+        <v>0.314769</v>
       </c>
       <c r="C29" t="n">
-        <v>0.246609</v>
+        <v>0.246544</v>
       </c>
       <c r="D29" t="n">
-        <v>0.216276</v>
+        <v>0.216326</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.30682</v>
+        <v>0.306856</v>
       </c>
       <c r="C30" t="n">
-        <v>0.245142</v>
+        <v>0.244892</v>
       </c>
       <c r="D30" t="n">
-        <v>0.214692</v>
+        <v>0.215057</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.298173</v>
+        <v>0.298195</v>
       </c>
       <c r="C31" t="n">
-        <v>0.24378</v>
+        <v>0.243626</v>
       </c>
       <c r="D31" t="n">
-        <v>0.214314</v>
+        <v>0.214123</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.28877</v>
+        <v>0.288701</v>
       </c>
       <c r="C32" t="n">
-        <v>0.24336</v>
+        <v>0.243601</v>
       </c>
       <c r="D32" t="n">
-        <v>0.213853</v>
+        <v>0.213808</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.27928</v>
+        <v>0.279328</v>
       </c>
       <c r="C33" t="n">
-        <v>0.242942</v>
+        <v>0.242353</v>
       </c>
       <c r="D33" t="n">
-        <v>0.213602</v>
+        <v>0.2136</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.269052</v>
+        <v>0.268929</v>
       </c>
       <c r="C34" t="n">
-        <v>0.241825</v>
+        <v>0.241941</v>
       </c>
       <c r="D34" t="n">
-        <v>0.212565</v>
+        <v>0.212735</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.258043</v>
+        <v>0.258072</v>
       </c>
       <c r="C35" t="n">
-        <v>0.242059</v>
+        <v>0.242061</v>
       </c>
       <c r="D35" t="n">
-        <v>0.212514</v>
+        <v>0.212478</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.245018</v>
+        <v>0.244853</v>
       </c>
       <c r="C36" t="n">
-        <v>0.241654</v>
+        <v>0.241876</v>
       </c>
       <c r="D36" t="n">
-        <v>0.212385</v>
+        <v>0.212541</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.230881</v>
+        <v>0.230374</v>
       </c>
       <c r="C37" t="n">
-        <v>0.241291</v>
+        <v>0.241166</v>
       </c>
       <c r="D37" t="n">
-        <v>0.227151</v>
+        <v>0.226815</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.349492</v>
+        <v>0.349791</v>
       </c>
       <c r="C38" t="n">
-        <v>0.261017</v>
+        <v>0.260905</v>
       </c>
       <c r="D38" t="n">
-        <v>0.224143</v>
+        <v>0.223874</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.344476</v>
+        <v>0.344993</v>
       </c>
       <c r="C39" t="n">
-        <v>0.257712</v>
+        <v>0.25727</v>
       </c>
       <c r="D39" t="n">
-        <v>0.222364</v>
+        <v>0.222179</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.338119</v>
+        <v>0.338591</v>
       </c>
       <c r="C40" t="n">
-        <v>0.25479</v>
+        <v>0.254503</v>
       </c>
       <c r="D40" t="n">
-        <v>0.220517</v>
+        <v>0.22047</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.33174</v>
+        <v>0.332186</v>
       </c>
       <c r="C41" t="n">
-        <v>0.251689</v>
+        <v>0.251456</v>
       </c>
       <c r="D41" t="n">
-        <v>0.219246</v>
+        <v>0.219288</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.32486</v>
+        <v>0.324759</v>
       </c>
       <c r="C42" t="n">
-        <v>0.25076</v>
+        <v>0.250592</v>
       </c>
       <c r="D42" t="n">
-        <v>0.217715</v>
+        <v>0.217695</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.316837</v>
+        <v>0.316552</v>
       </c>
       <c r="C43" t="n">
-        <v>0.249202</v>
+        <v>0.249143</v>
       </c>
       <c r="D43" t="n">
-        <v>0.21698</v>
+        <v>0.216669</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.309191</v>
+        <v>0.309046</v>
       </c>
       <c r="C44" t="n">
-        <v>0.247669</v>
+        <v>0.24775</v>
       </c>
       <c r="D44" t="n">
-        <v>0.215601</v>
+        <v>0.215703</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300184</v>
+        <v>0.300468</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246818</v>
+        <v>0.246839</v>
       </c>
       <c r="D45" t="n">
-        <v>0.214551</v>
+        <v>0.214635</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.292389</v>
+        <v>0.292116</v>
       </c>
       <c r="C46" t="n">
-        <v>0.245752</v>
+        <v>0.245964</v>
       </c>
       <c r="D46" t="n">
-        <v>0.214059</v>
+        <v>0.214064</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.282423</v>
+        <v>0.282645</v>
       </c>
       <c r="C47" t="n">
-        <v>0.244725</v>
+        <v>0.244673</v>
       </c>
       <c r="D47" t="n">
-        <v>0.213695</v>
+        <v>0.214046</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.271948</v>
+        <v>0.271672</v>
       </c>
       <c r="C48" t="n">
-        <v>0.243773</v>
+        <v>0.243873</v>
       </c>
       <c r="D48" t="n">
-        <v>0.213549</v>
+        <v>0.213515</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.261412</v>
+        <v>0.260831</v>
       </c>
       <c r="C49" t="n">
-        <v>0.24319</v>
+        <v>0.24325</v>
       </c>
       <c r="D49" t="n">
-        <v>0.213199</v>
+        <v>0.213344</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.249072</v>
+        <v>0.249097</v>
       </c>
       <c r="C50" t="n">
-        <v>0.242628</v>
+        <v>0.24285</v>
       </c>
       <c r="D50" t="n">
-        <v>0.214183</v>
+        <v>0.214211</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.234969</v>
+        <v>0.234946</v>
       </c>
       <c r="C51" t="n">
-        <v>0.242122</v>
+        <v>0.24237</v>
       </c>
       <c r="D51" t="n">
-        <v>0.225903</v>
+        <v>0.225851</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.219874</v>
+        <v>0.220028</v>
       </c>
       <c r="C52" t="n">
-        <v>0.241544</v>
+        <v>0.241653</v>
       </c>
       <c r="D52" t="n">
-        <v>0.22368</v>
+        <v>0.22361</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.34707</v>
+        <v>0.347385</v>
       </c>
       <c r="C53" t="n">
-        <v>0.257621</v>
+        <v>0.257645</v>
       </c>
       <c r="D53" t="n">
-        <v>0.222027</v>
+        <v>0.222006</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.341192</v>
+        <v>0.3414</v>
       </c>
       <c r="C54" t="n">
-        <v>0.254542</v>
+        <v>0.254583</v>
       </c>
       <c r="D54" t="n">
-        <v>0.22052</v>
+        <v>0.220609</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.335339</v>
+        <v>0.335075</v>
       </c>
       <c r="C55" t="n">
-        <v>0.252242</v>
+        <v>0.252037</v>
       </c>
       <c r="D55" t="n">
-        <v>0.219485</v>
+        <v>0.219452</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.327489</v>
+        <v>0.327763</v>
       </c>
       <c r="C56" t="n">
-        <v>0.25071</v>
+        <v>0.25059</v>
       </c>
       <c r="D56" t="n">
-        <v>0.218222</v>
+        <v>0.218076</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.320274</v>
+        <v>0.320613</v>
       </c>
       <c r="C57" t="n">
-        <v>0.249124</v>
+        <v>0.249039</v>
       </c>
       <c r="D57" t="n">
-        <v>0.217048</v>
+        <v>0.216844</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.312852</v>
+        <v>0.313148</v>
       </c>
       <c r="C58" t="n">
-        <v>0.247926</v>
+        <v>0.247681</v>
       </c>
       <c r="D58" t="n">
-        <v>0.216518</v>
+        <v>0.216538</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304323</v>
+        <v>0.305029</v>
       </c>
       <c r="C59" t="n">
-        <v>0.246811</v>
+        <v>0.246578</v>
       </c>
       <c r="D59" t="n">
-        <v>0.215501</v>
+        <v>0.21535</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294391</v>
+        <v>0.294887</v>
       </c>
       <c r="C60" t="n">
-        <v>0.245925</v>
+        <v>0.245772</v>
       </c>
       <c r="D60" t="n">
-        <v>0.214692</v>
+        <v>0.214697</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284826</v>
+        <v>0.285114</v>
       </c>
       <c r="C61" t="n">
-        <v>0.245238</v>
+        <v>0.244979</v>
       </c>
       <c r="D61" t="n">
-        <v>0.214124</v>
+        <v>0.214097</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.274336</v>
+        <v>0.274754</v>
       </c>
       <c r="C62" t="n">
-        <v>0.244182</v>
+        <v>0.244043</v>
       </c>
       <c r="D62" t="n">
-        <v>0.213486</v>
+        <v>0.213636</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263115</v>
+        <v>0.263688</v>
       </c>
       <c r="C63" t="n">
-        <v>0.243255</v>
+        <v>0.24311</v>
       </c>
       <c r="D63" t="n">
-        <v>0.213353</v>
+        <v>0.213201</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.250917</v>
+        <v>0.25104</v>
       </c>
       <c r="C64" t="n">
-        <v>0.242816</v>
+        <v>0.242915</v>
       </c>
       <c r="D64" t="n">
-        <v>0.212571</v>
+        <v>0.212664</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.237807</v>
+        <v>0.238146</v>
       </c>
       <c r="C65" t="n">
-        <v>0.242222</v>
+        <v>0.242077</v>
       </c>
       <c r="D65" t="n">
-        <v>0.212448</v>
+        <v>0.212353</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.223633</v>
+        <v>0.223526</v>
       </c>
       <c r="C66" t="n">
-        <v>0.241609</v>
+        <v>0.241558</v>
       </c>
       <c r="D66" t="n">
-        <v>0.225151</v>
+        <v>0.225004</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.349108</v>
+        <v>0.349785</v>
       </c>
       <c r="C67" t="n">
-        <v>0.259601</v>
+        <v>0.259433</v>
       </c>
       <c r="D67" t="n">
-        <v>0.223104</v>
+        <v>0.223051</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.343007</v>
+        <v>0.343069</v>
       </c>
       <c r="C68" t="n">
-        <v>0.255696</v>
+        <v>0.255528</v>
       </c>
       <c r="D68" t="n">
-        <v>0.221351</v>
+        <v>0.221157</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.336564</v>
+        <v>0.337033</v>
       </c>
       <c r="C69" t="n">
-        <v>0.252909</v>
+        <v>0.252683</v>
       </c>
       <c r="D69" t="n">
-        <v>0.219931</v>
+        <v>0.219808</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.329916</v>
+        <v>0.330346</v>
       </c>
       <c r="C70" t="n">
-        <v>0.251206</v>
+        <v>0.250983</v>
       </c>
       <c r="D70" t="n">
-        <v>0.218845</v>
+        <v>0.218679</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.322987</v>
+        <v>0.32308</v>
       </c>
       <c r="C71" t="n">
-        <v>0.24981</v>
+        <v>0.249624</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217782</v>
+        <v>0.217773</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.315099</v>
+        <v>0.315643</v>
       </c>
       <c r="C72" t="n">
-        <v>0.248426</v>
+        <v>0.248297</v>
       </c>
       <c r="D72" t="n">
-        <v>0.216802</v>
+        <v>0.2166</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.306884</v>
+        <v>0.307053</v>
       </c>
       <c r="C73" t="n">
-        <v>0.247187</v>
+        <v>0.24696</v>
       </c>
       <c r="D73" t="n">
-        <v>0.215724</v>
+        <v>0.215456</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.298272</v>
+        <v>0.298353</v>
       </c>
       <c r="C74" t="n">
-        <v>0.24616</v>
+        <v>0.245967</v>
       </c>
       <c r="D74" t="n">
-        <v>0.215063</v>
+        <v>0.214524</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.288837</v>
+        <v>0.28905</v>
       </c>
       <c r="C75" t="n">
-        <v>0.245379</v>
+        <v>0.245193</v>
       </c>
       <c r="D75" t="n">
-        <v>0.214391</v>
+        <v>0.214285</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.278995</v>
+        <v>0.278699</v>
       </c>
       <c r="C76" t="n">
-        <v>0.244567</v>
+        <v>0.244402</v>
       </c>
       <c r="D76" t="n">
-        <v>0.213758</v>
+        <v>0.213535</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.267158</v>
+        <v>0.267477</v>
       </c>
       <c r="C77" t="n">
-        <v>0.243466</v>
+        <v>0.243329</v>
       </c>
       <c r="D77" t="n">
-        <v>0.213278</v>
+        <v>0.213127</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.255172</v>
+        <v>0.254938</v>
       </c>
       <c r="C78" t="n">
-        <v>0.242538</v>
+        <v>0.242421</v>
       </c>
       <c r="D78" t="n">
-        <v>0.212908</v>
+        <v>0.212672</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.242105</v>
+        <v>0.242231</v>
       </c>
       <c r="C79" t="n">
-        <v>0.242274</v>
+        <v>0.242148</v>
       </c>
       <c r="D79" t="n">
-        <v>0.212698</v>
+        <v>0.212512</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.22742</v>
+        <v>0.227307</v>
       </c>
       <c r="C80" t="n">
-        <v>0.24206</v>
+        <v>0.241947</v>
       </c>
       <c r="D80" t="n">
-        <v>0.225589</v>
+        <v>0.225261</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.35036</v>
+        <v>0.350672</v>
       </c>
       <c r="C81" t="n">
-        <v>0.258952</v>
+        <v>0.259262</v>
       </c>
       <c r="D81" t="n">
-        <v>0.223497</v>
+        <v>0.223426</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.344608</v>
+        <v>0.344933</v>
       </c>
       <c r="C82" t="n">
-        <v>0.255419</v>
+        <v>0.255037</v>
       </c>
       <c r="D82" t="n">
-        <v>0.221778</v>
+        <v>0.221677</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.338319</v>
+        <v>0.338735</v>
       </c>
       <c r="C83" t="n">
-        <v>0.252867</v>
+        <v>0.252589</v>
       </c>
       <c r="D83" t="n">
-        <v>0.220264</v>
+        <v>0.220039</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.331788</v>
+        <v>0.331999</v>
       </c>
       <c r="C84" t="n">
-        <v>0.250982</v>
+        <v>0.250697</v>
       </c>
       <c r="D84" t="n">
-        <v>0.218934</v>
+        <v>0.218769</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.324632</v>
+        <v>0.325033</v>
       </c>
       <c r="C85" t="n">
-        <v>0.249593</v>
+        <v>0.24948</v>
       </c>
       <c r="D85" t="n">
-        <v>0.21778</v>
+        <v>0.217668</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.316825</v>
+        <v>0.317133</v>
       </c>
       <c r="C86" t="n">
-        <v>0.248303</v>
+        <v>0.248176</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2169</v>
+        <v>0.216714</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.308858</v>
+        <v>0.309017</v>
       </c>
       <c r="C87" t="n">
-        <v>0.247128</v>
+        <v>0.247014</v>
       </c>
       <c r="D87" t="n">
-        <v>0.215904</v>
+        <v>0.215823</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300017</v>
+        <v>0.300176</v>
       </c>
       <c r="C88" t="n">
-        <v>0.246341</v>
+        <v>0.24633</v>
       </c>
       <c r="D88" t="n">
-        <v>0.215099</v>
+        <v>0.215008</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.291009</v>
+        <v>0.29097</v>
       </c>
       <c r="C89" t="n">
-        <v>0.245498</v>
+        <v>0.245332</v>
       </c>
       <c r="D89" t="n">
-        <v>0.21441</v>
+        <v>0.214308</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.280814</v>
+        <v>0.280829</v>
       </c>
       <c r="C90" t="n">
-        <v>0.24466</v>
+        <v>0.244548</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2138</v>
+        <v>0.213677</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.269789</v>
+        <v>0.269977</v>
       </c>
       <c r="C91" t="n">
-        <v>0.243734</v>
+        <v>0.243688</v>
       </c>
       <c r="D91" t="n">
-        <v>0.21323</v>
+        <v>0.213097</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.257831</v>
+        <v>0.258182</v>
       </c>
       <c r="C92" t="n">
         <v>0.243063</v>
       </c>
       <c r="D92" t="n">
-        <v>0.212636</v>
+        <v>0.212617</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.244881</v>
+        <v>0.245473</v>
       </c>
       <c r="C93" t="n">
-        <v>0.242508</v>
+        <v>0.242427</v>
       </c>
       <c r="D93" t="n">
-        <v>0.212681</v>
+        <v>0.212602</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.230838</v>
+        <v>0.231002</v>
       </c>
       <c r="C94" t="n">
-        <v>0.241915</v>
+        <v>0.242025</v>
       </c>
       <c r="D94" t="n">
-        <v>0.226036</v>
+        <v>0.225837</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.351911</v>
+        <v>0.352408</v>
       </c>
       <c r="C95" t="n">
-        <v>0.259939</v>
+        <v>0.259507</v>
       </c>
       <c r="D95" t="n">
-        <v>0.223853</v>
+        <v>0.223662</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.345831</v>
+        <v>0.346308</v>
       </c>
       <c r="C96" t="n">
-        <v>0.256357</v>
+        <v>0.256034</v>
       </c>
       <c r="D96" t="n">
-        <v>0.22197</v>
+        <v>0.221856</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.339894</v>
+        <v>0.340503</v>
       </c>
       <c r="C97" t="n">
-        <v>0.253587</v>
+        <v>0.253451</v>
       </c>
       <c r="D97" t="n">
-        <v>0.220421</v>
+        <v>0.220415</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.333604</v>
+        <v>0.333815</v>
       </c>
       <c r="C98" t="n">
-        <v>0.251429</v>
+        <v>0.251362</v>
       </c>
       <c r="D98" t="n">
-        <v>0.21922</v>
+        <v>0.219119</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.326257</v>
+        <v>0.326867</v>
       </c>
       <c r="C99" t="n">
-        <v>0.25006</v>
+        <v>0.25017</v>
       </c>
       <c r="D99" t="n">
-        <v>0.217969</v>
+        <v>0.217979</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.318524</v>
+        <v>0.318928</v>
       </c>
       <c r="C100" t="n">
-        <v>0.248754</v>
+        <v>0.248607</v>
       </c>
       <c r="D100" t="n">
-        <v>0.216961</v>
+        <v>0.216846</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.310711</v>
+        <v>0.311078</v>
       </c>
       <c r="C101" t="n">
-        <v>0.247641</v>
+        <v>0.247543</v>
       </c>
       <c r="D101" t="n">
-        <v>0.216025</v>
+        <v>0.215984</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.301953</v>
+        <v>0.302261</v>
       </c>
       <c r="C102" t="n">
-        <v>0.246553</v>
+        <v>0.246667</v>
       </c>
       <c r="D102" t="n">
-        <v>0.215257</v>
+        <v>0.215243</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.292644</v>
+        <v>0.293176</v>
       </c>
       <c r="C103" t="n">
-        <v>0.245741</v>
+        <v>0.245847</v>
       </c>
       <c r="D103" t="n">
-        <v>0.214506</v>
+        <v>0.214518</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.283103</v>
+        <v>0.283387</v>
       </c>
       <c r="C104" t="n">
-        <v>0.244825</v>
+        <v>0.244922</v>
       </c>
       <c r="D104" t="n">
-        <v>0.213955</v>
+        <v>0.213859</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.271889</v>
+        <v>0.272191</v>
       </c>
       <c r="C105" t="n">
-        <v>0.243945</v>
+        <v>0.243995</v>
       </c>
       <c r="D105" t="n">
-        <v>0.213266</v>
+        <v>0.213376</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.260546</v>
+        <v>0.260873</v>
       </c>
       <c r="C106" t="n">
-        <v>0.243245</v>
+        <v>0.243237</v>
       </c>
       <c r="D106" t="n">
-        <v>0.212726</v>
+        <v>0.212754</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247646</v>
+        <v>0.247783</v>
       </c>
       <c r="C107" t="n">
-        <v>0.242592</v>
+        <v>0.242434</v>
       </c>
       <c r="D107" t="n">
-        <v>0.212289</v>
+        <v>0.212395</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.233648</v>
+        <v>0.234211</v>
       </c>
       <c r="C108" t="n">
-        <v>0.241845</v>
+        <v>0.24197</v>
       </c>
       <c r="D108" t="n">
-        <v>0.226229</v>
+        <v>0.226471</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.219</v>
+        <v>0.219245</v>
       </c>
       <c r="C109" t="n">
-        <v>0.241638</v>
+        <v>0.241646</v>
       </c>
       <c r="D109" t="n">
-        <v>0.224225</v>
+        <v>0.224568</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.347398</v>
+        <v>0.347583</v>
       </c>
       <c r="C110" t="n">
-        <v>0.256376</v>
+        <v>0.256387</v>
       </c>
       <c r="D110" t="n">
-        <v>0.222395</v>
+        <v>0.222251</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.341259</v>
+        <v>0.341392</v>
       </c>
       <c r="C111" t="n">
-        <v>0.253573</v>
+        <v>0.253701</v>
       </c>
       <c r="D111" t="n">
-        <v>0.220656</v>
+        <v>0.220644</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.334846</v>
+        <v>0.335036</v>
       </c>
       <c r="C112" t="n">
-        <v>0.251553</v>
+        <v>0.251621</v>
       </c>
       <c r="D112" t="n">
-        <v>0.219295</v>
+        <v>0.219439</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.327544</v>
+        <v>0.328004</v>
       </c>
       <c r="C113" t="n">
-        <v>0.250109</v>
+        <v>0.249982</v>
       </c>
       <c r="D113" t="n">
-        <v>0.218213</v>
+        <v>0.21833</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.320426</v>
+        <v>0.320403</v>
       </c>
       <c r="C114" t="n">
-        <v>0.249234</v>
+        <v>0.249002</v>
       </c>
       <c r="D114" t="n">
-        <v>0.217185</v>
+        <v>0.217216</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.31251</v>
+        <v>0.31231</v>
       </c>
       <c r="C115" t="n">
-        <v>0.24802</v>
+        <v>0.247837</v>
       </c>
       <c r="D115" t="n">
-        <v>0.216176</v>
+        <v>0.21638</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304013</v>
+        <v>0.304185</v>
       </c>
       <c r="C116" t="n">
-        <v>0.247116</v>
+        <v>0.246922</v>
       </c>
       <c r="D116" t="n">
-        <v>0.215446</v>
+        <v>0.215855</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.29533</v>
+        <v>0.295395</v>
       </c>
       <c r="C117" t="n">
-        <v>0.246058</v>
+        <v>0.245997</v>
       </c>
       <c r="D117" t="n">
-        <v>0.214556</v>
+        <v>0.214539</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.285943</v>
+        <v>0.285926</v>
       </c>
       <c r="C118" t="n">
-        <v>0.245158</v>
+        <v>0.245141</v>
       </c>
       <c r="D118" t="n">
-        <v>0.21435</v>
+        <v>0.2145</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.27522</v>
+        <v>0.274969</v>
       </c>
       <c r="C119" t="n">
-        <v>0.244423</v>
+        <v>0.24434</v>
       </c>
       <c r="D119" t="n">
-        <v>0.214169</v>
+        <v>0.213651</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.263527</v>
+        <v>0.263292</v>
       </c>
       <c r="C120" t="n">
-        <v>0.243554</v>
+        <v>0.243464</v>
       </c>
       <c r="D120" t="n">
-        <v>0.21355</v>
+        <v>0.213168</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.251205</v>
+        <v>0.251201</v>
       </c>
       <c r="C121" t="n">
-        <v>0.242779</v>
+        <v>0.242662</v>
       </c>
       <c r="D121" t="n">
-        <v>0.213324</v>
+        <v>0.212875</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.237387</v>
+        <v>0.23751</v>
       </c>
       <c r="C122" t="n">
-        <v>0.242341</v>
+        <v>0.242283</v>
       </c>
       <c r="D122" t="n">
-        <v>0.212872</v>
+        <v>0.212756</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.222828</v>
+        <v>0.222699</v>
       </c>
       <c r="C123" t="n">
-        <v>0.241626</v>
+        <v>0.241731</v>
       </c>
       <c r="D123" t="n">
-        <v>0.225354</v>
+        <v>0.22545</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.348726</v>
+        <v>0.34914</v>
       </c>
       <c r="C124" t="n">
-        <v>0.257283</v>
+        <v>0.257365</v>
       </c>
       <c r="D124" t="n">
-        <v>0.223871</v>
+        <v>0.223918</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.342837</v>
+        <v>0.34281</v>
       </c>
       <c r="C125" t="n">
-        <v>0.254253</v>
+        <v>0.254239</v>
       </c>
       <c r="D125" t="n">
-        <v>0.221381</v>
+        <v>0.222173</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.336425</v>
+        <v>0.336559</v>
       </c>
       <c r="C126" t="n">
-        <v>0.251646</v>
+        <v>0.25204</v>
       </c>
       <c r="D126" t="n">
-        <v>0.220643</v>
+        <v>0.22071</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.329486</v>
+        <v>0.329787</v>
       </c>
       <c r="C127" t="n">
-        <v>0.250287</v>
+        <v>0.249988</v>
       </c>
       <c r="D127" t="n">
-        <v>0.218992</v>
+        <v>0.218787</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.322259</v>
+        <v>0.32233</v>
       </c>
       <c r="C128" t="n">
-        <v>0.248439</v>
+        <v>0.248531</v>
       </c>
       <c r="D128" t="n">
-        <v>0.218719</v>
+        <v>0.218442</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.313938</v>
+        <v>0.314327</v>
       </c>
       <c r="C129" t="n">
-        <v>0.247435</v>
+        <v>0.247799</v>
       </c>
       <c r="D129" t="n">
-        <v>0.217263</v>
+        <v>0.217797</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.306117</v>
+        <v>0.306349</v>
       </c>
       <c r="C130" t="n">
-        <v>0.246419</v>
+        <v>0.246464</v>
       </c>
       <c r="D130" t="n">
-        <v>0.216447</v>
+        <v>0.216509</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.297252</v>
+        <v>0.297502</v>
       </c>
       <c r="C131" t="n">
-        <v>0.245172</v>
+        <v>0.245135</v>
       </c>
       <c r="D131" t="n">
-        <v>0.215224</v>
+        <v>0.215467</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.287669</v>
+        <v>0.288252</v>
       </c>
       <c r="C132" t="n">
-        <v>0.244657</v>
+        <v>0.244789</v>
       </c>
       <c r="D132" t="n">
-        <v>0.215026</v>
+        <v>0.214853</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.277071</v>
+        <v>0.277293</v>
       </c>
       <c r="C133" t="n">
-        <v>0.244395</v>
+        <v>0.243901</v>
       </c>
       <c r="D133" t="n">
-        <v>0.215274</v>
+        <v>0.214283</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.265944</v>
+        <v>0.266386</v>
       </c>
       <c r="C134" t="n">
-        <v>0.24324</v>
+        <v>0.243784</v>
       </c>
       <c r="D134" t="n">
-        <v>0.214162</v>
+        <v>0.214123</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.253129</v>
+        <v>0.253564</v>
       </c>
       <c r="C135" t="n">
-        <v>0.24266</v>
+        <v>0.242794</v>
       </c>
       <c r="D135" t="n">
-        <v>0.213842</v>
+        <v>0.216128</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.240469</v>
+        <v>0.240459</v>
       </c>
       <c r="C136" t="n">
-        <v>0.242152</v>
+        <v>0.24196</v>
       </c>
       <c r="D136" t="n">
-        <v>0.213236</v>
+        <v>0.214</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.225937</v>
+        <v>0.226255</v>
       </c>
       <c r="C137" t="n">
-        <v>0.241665</v>
+        <v>0.241413</v>
       </c>
       <c r="D137" t="n">
-        <v>0.229744</v>
+        <v>0.228838</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.350358</v>
+        <v>0.350767</v>
       </c>
       <c r="C138" t="n">
-        <v>0.25867</v>
+        <v>0.260176</v>
       </c>
       <c r="D138" t="n">
-        <v>0.225764</v>
+        <v>0.225214</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.344793</v>
+        <v>0.345045</v>
       </c>
       <c r="C139" t="n">
-        <v>0.255296</v>
+        <v>0.255662</v>
       </c>
       <c r="D139" t="n">
-        <v>0.224211</v>
+        <v>0.225217</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.337851</v>
+        <v>0.33802</v>
       </c>
       <c r="C140" t="n">
-        <v>0.253515</v>
+        <v>0.252973</v>
       </c>
       <c r="D140" t="n">
-        <v>0.222733</v>
+        <v>0.222415</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331433</v>
+        <v>0.331833</v>
       </c>
       <c r="C141" t="n">
-        <v>0.250856</v>
+        <v>0.251401</v>
       </c>
       <c r="D141" t="n">
-        <v>0.221985</v>
+        <v>0.222864</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.32393</v>
+        <v>0.32491</v>
       </c>
       <c r="C142" t="n">
-        <v>0.249337</v>
+        <v>0.249477</v>
       </c>
       <c r="D142" t="n">
-        <v>0.221785</v>
+        <v>0.22172</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.315953</v>
+        <v>0.316686</v>
       </c>
       <c r="C143" t="n">
-        <v>0.248445</v>
+        <v>0.248121</v>
       </c>
       <c r="D143" t="n">
-        <v>0.219785</v>
+        <v>0.220137</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.296982</v>
+        <v>0.298079</v>
       </c>
       <c r="C2" t="n">
-        <v>0.223259</v>
+        <v>0.223246</v>
       </c>
       <c r="D2" t="n">
-        <v>0.199289</v>
+        <v>0.198844</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.290123</v>
+        <v>0.290785</v>
       </c>
       <c r="C3" t="n">
-        <v>0.223646</v>
+        <v>0.225701</v>
       </c>
       <c r="D3" t="n">
-        <v>0.198986</v>
+        <v>0.197856</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279415</v>
+        <v>0.279231</v>
       </c>
       <c r="C4" t="n">
-        <v>0.224003</v>
+        <v>0.224185</v>
       </c>
       <c r="D4" t="n">
-        <v>0.200794</v>
+        <v>0.200843</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.270068</v>
+        <v>0.269648</v>
       </c>
       <c r="C5" t="n">
-        <v>0.224802</v>
+        <v>0.224396</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200675</v>
+        <v>0.199979</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.257825</v>
+        <v>0.256956</v>
       </c>
       <c r="C6" t="n">
-        <v>0.225623</v>
+        <v>0.226462</v>
       </c>
       <c r="D6" t="n">
-        <v>0.201354</v>
+        <v>0.201394</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.244265</v>
+        <v>0.243448</v>
       </c>
       <c r="C7" t="n">
-        <v>0.226117</v>
+        <v>0.225029</v>
       </c>
       <c r="D7" t="n">
-        <v>0.201598</v>
+        <v>0.20242</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.231424</v>
+        <v>0.233104</v>
       </c>
       <c r="C8" t="n">
-        <v>0.22817</v>
+        <v>0.225395</v>
       </c>
       <c r="D8" t="n">
-        <v>0.202965</v>
+        <v>0.202973</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.218759</v>
+        <v>0.220456</v>
       </c>
       <c r="C9" t="n">
-        <v>0.226771</v>
+        <v>0.22656</v>
       </c>
       <c r="D9" t="n">
-        <v>0.218017</v>
+        <v>0.217796</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.346088</v>
+        <v>0.345437</v>
       </c>
       <c r="C10" t="n">
-        <v>0.246754</v>
+        <v>0.245876</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216908</v>
+        <v>0.216821</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.339422</v>
+        <v>0.338967</v>
       </c>
       <c r="C11" t="n">
-        <v>0.244573</v>
+        <v>0.244415</v>
       </c>
       <c r="D11" t="n">
-        <v>0.215297</v>
+        <v>0.215408</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.33499</v>
+        <v>0.33262</v>
       </c>
       <c r="C12" t="n">
-        <v>0.243076</v>
+        <v>0.242868</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214248</v>
+        <v>0.214319</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.327796</v>
+        <v>0.326363</v>
       </c>
       <c r="C13" t="n">
-        <v>0.241303</v>
+        <v>0.240997</v>
       </c>
       <c r="D13" t="n">
-        <v>0.213508</v>
+        <v>0.213365</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.319555</v>
+        <v>0.319892</v>
       </c>
       <c r="C14" t="n">
-        <v>0.239106</v>
+        <v>0.239285</v>
       </c>
       <c r="D14" t="n">
-        <v>0.212666</v>
+        <v>0.212266</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.314542</v>
+        <v>0.313277</v>
       </c>
       <c r="C15" t="n">
-        <v>0.238863</v>
+        <v>0.238708</v>
       </c>
       <c r="D15" t="n">
-        <v>0.210913</v>
+        <v>0.220627</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.305054</v>
+        <v>0.304211</v>
       </c>
       <c r="C16" t="n">
-        <v>0.239793</v>
+        <v>0.239147</v>
       </c>
       <c r="D16" t="n">
-        <v>0.210103</v>
+        <v>0.219531</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.298335</v>
+        <v>0.29527</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2388</v>
+        <v>0.238663</v>
       </c>
       <c r="D17" t="n">
-        <v>0.210139</v>
+        <v>0.210202</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.289158</v>
+        <v>0.286242</v>
       </c>
       <c r="C18" t="n">
-        <v>0.238895</v>
+        <v>0.238595</v>
       </c>
       <c r="D18" t="n">
-        <v>0.210306</v>
+        <v>0.209742</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.27907</v>
+        <v>0.276126</v>
       </c>
       <c r="C19" t="n">
-        <v>0.237735</v>
+        <v>0.237364</v>
       </c>
       <c r="D19" t="n">
-        <v>0.209169</v>
+        <v>0.208388</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.26623</v>
+        <v>0.268988</v>
       </c>
       <c r="C20" t="n">
-        <v>0.237928</v>
+        <v>0.237115</v>
       </c>
       <c r="D20" t="n">
-        <v>0.210411</v>
+        <v>0.209605</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.255996</v>
+        <v>0.253811</v>
       </c>
       <c r="C21" t="n">
-        <v>0.236844</v>
+        <v>0.237463</v>
       </c>
       <c r="D21" t="n">
-        <v>0.210044</v>
+        <v>0.209349</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.242252</v>
+        <v>0.242409</v>
       </c>
       <c r="C22" t="n">
-        <v>0.237487</v>
+        <v>0.236893</v>
       </c>
       <c r="D22" t="n">
-        <v>0.209833</v>
+        <v>0.208908</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.229074</v>
+        <v>0.225891</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2378</v>
+        <v>0.237728</v>
       </c>
       <c r="D23" t="n">
-        <v>0.22363</v>
+        <v>0.223881</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348819</v>
+        <v>0.348873</v>
       </c>
       <c r="C24" t="n">
-        <v>0.255045</v>
+        <v>0.254618</v>
       </c>
       <c r="D24" t="n">
-        <v>0.222359</v>
+        <v>0.222439</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342043</v>
+        <v>0.341848</v>
       </c>
       <c r="C25" t="n">
-        <v>0.253297</v>
+        <v>0.253107</v>
       </c>
       <c r="D25" t="n">
-        <v>0.221193</v>
+        <v>0.221303</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.336147</v>
+        <v>0.336205</v>
       </c>
       <c r="C26" t="n">
-        <v>0.251545</v>
+        <v>0.251204</v>
       </c>
       <c r="D26" t="n">
-        <v>0.219967</v>
+        <v>0.220244</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328694</v>
+        <v>0.328857</v>
       </c>
       <c r="C27" t="n">
-        <v>0.249667</v>
+        <v>0.24965</v>
       </c>
       <c r="D27" t="n">
-        <v>0.218596</v>
+        <v>0.218913</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.321383</v>
+        <v>0.321763</v>
       </c>
       <c r="C28" t="n">
-        <v>0.247594</v>
+        <v>0.247582</v>
       </c>
       <c r="D28" t="n">
-        <v>0.216865</v>
+        <v>0.217019</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.314769</v>
+        <v>0.314738</v>
       </c>
       <c r="C29" t="n">
-        <v>0.246544</v>
+        <v>0.246547</v>
       </c>
       <c r="D29" t="n">
-        <v>0.216326</v>
+        <v>0.216181</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.306856</v>
+        <v>0.306989</v>
       </c>
       <c r="C30" t="n">
-        <v>0.244892</v>
+        <v>0.245002</v>
       </c>
       <c r="D30" t="n">
-        <v>0.215057</v>
+        <v>0.214727</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.298195</v>
+        <v>0.297901</v>
       </c>
       <c r="C31" t="n">
-        <v>0.243626</v>
+        <v>0.24391</v>
       </c>
       <c r="D31" t="n">
-        <v>0.214123</v>
+        <v>0.214197</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.288701</v>
+        <v>0.288651</v>
       </c>
       <c r="C32" t="n">
-        <v>0.243601</v>
+        <v>0.2432</v>
       </c>
       <c r="D32" t="n">
-        <v>0.213808</v>
+        <v>0.213779</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.279328</v>
+        <v>0.279357</v>
       </c>
       <c r="C33" t="n">
-        <v>0.242353</v>
+        <v>0.242635</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2136</v>
+        <v>0.213628</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.268929</v>
+        <v>0.269026</v>
       </c>
       <c r="C34" t="n">
-        <v>0.241941</v>
+        <v>0.242127</v>
       </c>
       <c r="D34" t="n">
-        <v>0.212735</v>
+        <v>0.212819</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.258072</v>
+        <v>0.257776</v>
       </c>
       <c r="C35" t="n">
-        <v>0.242061</v>
+        <v>0.24244</v>
       </c>
       <c r="D35" t="n">
-        <v>0.212478</v>
+        <v>0.21242</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244853</v>
+        <v>0.244885</v>
       </c>
       <c r="C36" t="n">
-        <v>0.241876</v>
+        <v>0.241682</v>
       </c>
       <c r="D36" t="n">
-        <v>0.212541</v>
+        <v>0.21211</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.230374</v>
+        <v>0.230587</v>
       </c>
       <c r="C37" t="n">
-        <v>0.241166</v>
+        <v>0.241247</v>
       </c>
       <c r="D37" t="n">
-        <v>0.226815</v>
+        <v>0.226667</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.349791</v>
+        <v>0.349479</v>
       </c>
       <c r="C38" t="n">
-        <v>0.260905</v>
+        <v>0.261451</v>
       </c>
       <c r="D38" t="n">
-        <v>0.223874</v>
+        <v>0.223804</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.344993</v>
+        <v>0.344503</v>
       </c>
       <c r="C39" t="n">
-        <v>0.25727</v>
+        <v>0.258029</v>
       </c>
       <c r="D39" t="n">
-        <v>0.222179</v>
+        <v>0.222169</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.338591</v>
+        <v>0.338354</v>
       </c>
       <c r="C40" t="n">
-        <v>0.254503</v>
+        <v>0.254822</v>
       </c>
       <c r="D40" t="n">
-        <v>0.22047</v>
+        <v>0.220578</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.332186</v>
+        <v>0.332056</v>
       </c>
       <c r="C41" t="n">
-        <v>0.251456</v>
+        <v>0.251637</v>
       </c>
       <c r="D41" t="n">
-        <v>0.219288</v>
+        <v>0.218942</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.324759</v>
+        <v>0.324614</v>
       </c>
       <c r="C42" t="n">
-        <v>0.250592</v>
+        <v>0.250635</v>
       </c>
       <c r="D42" t="n">
-        <v>0.217695</v>
+        <v>0.21774</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.316552</v>
+        <v>0.316616</v>
       </c>
       <c r="C43" t="n">
-        <v>0.249143</v>
+        <v>0.24936</v>
       </c>
       <c r="D43" t="n">
-        <v>0.216669</v>
+        <v>0.216634</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.309046</v>
+        <v>0.309238</v>
       </c>
       <c r="C44" t="n">
-        <v>0.24775</v>
+        <v>0.247632</v>
       </c>
       <c r="D44" t="n">
-        <v>0.215703</v>
+        <v>0.215757</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300468</v>
+        <v>0.30034</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246839</v>
+        <v>0.246974</v>
       </c>
       <c r="D45" t="n">
-        <v>0.214635</v>
+        <v>0.214417</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.292116</v>
+        <v>0.291964</v>
       </c>
       <c r="C46" t="n">
-        <v>0.245964</v>
+        <v>0.246037</v>
       </c>
       <c r="D46" t="n">
-        <v>0.214064</v>
+        <v>0.214083</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.282645</v>
+        <v>0.28271</v>
       </c>
       <c r="C47" t="n">
-        <v>0.244673</v>
+        <v>0.245072</v>
       </c>
       <c r="D47" t="n">
-        <v>0.214046</v>
+        <v>0.213992</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.271672</v>
+        <v>0.27184</v>
       </c>
       <c r="C48" t="n">
-        <v>0.243873</v>
+        <v>0.243893</v>
       </c>
       <c r="D48" t="n">
-        <v>0.213515</v>
+        <v>0.213044</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.260831</v>
+        <v>0.26089</v>
       </c>
       <c r="C49" t="n">
-        <v>0.24325</v>
+        <v>0.243319</v>
       </c>
       <c r="D49" t="n">
-        <v>0.213344</v>
+        <v>0.213173</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.249097</v>
+        <v>0.248889</v>
       </c>
       <c r="C50" t="n">
-        <v>0.24285</v>
+        <v>0.242919</v>
       </c>
       <c r="D50" t="n">
-        <v>0.214211</v>
+        <v>0.213778</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.234946</v>
+        <v>0.235087</v>
       </c>
       <c r="C51" t="n">
-        <v>0.24237</v>
+        <v>0.24236</v>
       </c>
       <c r="D51" t="n">
-        <v>0.225851</v>
+        <v>0.226569</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.220028</v>
+        <v>0.220103</v>
       </c>
       <c r="C52" t="n">
-        <v>0.241653</v>
+        <v>0.241639</v>
       </c>
       <c r="D52" t="n">
-        <v>0.22361</v>
+        <v>0.223956</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.347385</v>
+        <v>0.347492</v>
       </c>
       <c r="C53" t="n">
-        <v>0.257645</v>
+        <v>0.258522</v>
       </c>
       <c r="D53" t="n">
-        <v>0.222006</v>
+        <v>0.222168</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.3414</v>
+        <v>0.341129</v>
       </c>
       <c r="C54" t="n">
-        <v>0.254583</v>
+        <v>0.255166</v>
       </c>
       <c r="D54" t="n">
-        <v>0.220609</v>
+        <v>0.220629</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.335075</v>
+        <v>0.335121</v>
       </c>
       <c r="C55" t="n">
-        <v>0.252037</v>
+        <v>0.252485</v>
       </c>
       <c r="D55" t="n">
-        <v>0.219452</v>
+        <v>0.219459</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.327763</v>
+        <v>0.327468</v>
       </c>
       <c r="C56" t="n">
-        <v>0.25059</v>
+        <v>0.250895</v>
       </c>
       <c r="D56" t="n">
-        <v>0.218076</v>
+        <v>0.218143</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.320613</v>
+        <v>0.320237</v>
       </c>
       <c r="C57" t="n">
-        <v>0.249039</v>
+        <v>0.249299</v>
       </c>
       <c r="D57" t="n">
-        <v>0.216844</v>
+        <v>0.217226</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.313148</v>
+        <v>0.313117</v>
       </c>
       <c r="C58" t="n">
-        <v>0.247681</v>
+        <v>0.247991</v>
       </c>
       <c r="D58" t="n">
-        <v>0.216538</v>
+        <v>0.21628</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.305029</v>
+        <v>0.304464</v>
       </c>
       <c r="C59" t="n">
-        <v>0.246578</v>
+        <v>0.246859</v>
       </c>
       <c r="D59" t="n">
-        <v>0.21535</v>
+        <v>0.215278</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294887</v>
+        <v>0.294592</v>
       </c>
       <c r="C60" t="n">
-        <v>0.245772</v>
+        <v>0.245981</v>
       </c>
       <c r="D60" t="n">
-        <v>0.214697</v>
+        <v>0.214598</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.285114</v>
+        <v>0.284933</v>
       </c>
       <c r="C61" t="n">
-        <v>0.244979</v>
+        <v>0.245334</v>
       </c>
       <c r="D61" t="n">
-        <v>0.214097</v>
+        <v>0.214105</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.274754</v>
+        <v>0.274427</v>
       </c>
       <c r="C62" t="n">
-        <v>0.244043</v>
+        <v>0.244336</v>
       </c>
       <c r="D62" t="n">
-        <v>0.213636</v>
+        <v>0.213683</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263688</v>
+        <v>0.263073</v>
       </c>
       <c r="C63" t="n">
-        <v>0.24311</v>
+        <v>0.243376</v>
       </c>
       <c r="D63" t="n">
-        <v>0.213201</v>
+        <v>0.213129</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.25104</v>
+        <v>0.251186</v>
       </c>
       <c r="C64" t="n">
-        <v>0.242915</v>
+        <v>0.243277</v>
       </c>
       <c r="D64" t="n">
-        <v>0.212664</v>
+        <v>0.212598</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.238146</v>
+        <v>0.237911</v>
       </c>
       <c r="C65" t="n">
-        <v>0.242077</v>
+        <v>0.242415</v>
       </c>
       <c r="D65" t="n">
-        <v>0.212353</v>
+        <v>0.212813</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.223526</v>
+        <v>0.223323</v>
       </c>
       <c r="C66" t="n">
-        <v>0.241558</v>
+        <v>0.24191</v>
       </c>
       <c r="D66" t="n">
-        <v>0.225004</v>
+        <v>0.22506</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.349785</v>
+        <v>0.349127</v>
       </c>
       <c r="C67" t="n">
-        <v>0.259433</v>
+        <v>0.259665</v>
       </c>
       <c r="D67" t="n">
-        <v>0.223051</v>
+        <v>0.22308</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.343069</v>
+        <v>0.342953</v>
       </c>
       <c r="C68" t="n">
-        <v>0.255528</v>
+        <v>0.255795</v>
       </c>
       <c r="D68" t="n">
-        <v>0.221157</v>
+        <v>0.221215</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.337033</v>
+        <v>0.336504</v>
       </c>
       <c r="C69" t="n">
-        <v>0.252683</v>
+        <v>0.252825</v>
       </c>
       <c r="D69" t="n">
-        <v>0.219808</v>
+        <v>0.219753</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.330346</v>
+        <v>0.32991</v>
       </c>
       <c r="C70" t="n">
-        <v>0.250983</v>
+        <v>0.251177</v>
       </c>
       <c r="D70" t="n">
-        <v>0.218679</v>
+        <v>0.218637</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.32308</v>
+        <v>0.322694</v>
       </c>
       <c r="C71" t="n">
-        <v>0.249624</v>
+        <v>0.24977</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217773</v>
+        <v>0.217676</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.315643</v>
+        <v>0.315467</v>
       </c>
       <c r="C72" t="n">
-        <v>0.248297</v>
+        <v>0.248445</v>
       </c>
       <c r="D72" t="n">
-        <v>0.2166</v>
+        <v>0.216611</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.307053</v>
+        <v>0.307224</v>
       </c>
       <c r="C73" t="n">
-        <v>0.24696</v>
+        <v>0.247094</v>
       </c>
       <c r="D73" t="n">
-        <v>0.215456</v>
+        <v>0.21554</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.298353</v>
+        <v>0.298719</v>
       </c>
       <c r="C74" t="n">
-        <v>0.245967</v>
+        <v>0.246204</v>
       </c>
       <c r="D74" t="n">
-        <v>0.214524</v>
+        <v>0.214682</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.28905</v>
+        <v>0.288974</v>
       </c>
       <c r="C75" t="n">
-        <v>0.245193</v>
+        <v>0.245366</v>
       </c>
       <c r="D75" t="n">
-        <v>0.214285</v>
+        <v>0.214241</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.278699</v>
+        <v>0.278671</v>
       </c>
       <c r="C76" t="n">
-        <v>0.244402</v>
+        <v>0.244415</v>
       </c>
       <c r="D76" t="n">
-        <v>0.213535</v>
+        <v>0.213586</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.267477</v>
+        <v>0.2676</v>
       </c>
       <c r="C77" t="n">
-        <v>0.243329</v>
+        <v>0.243501</v>
       </c>
       <c r="D77" t="n">
-        <v>0.213127</v>
+        <v>0.2131</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.254938</v>
+        <v>0.254966</v>
       </c>
       <c r="C78" t="n">
-        <v>0.242421</v>
+        <v>0.242558</v>
       </c>
       <c r="D78" t="n">
-        <v>0.212672</v>
+        <v>0.212831</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.242231</v>
+        <v>0.241998</v>
       </c>
       <c r="C79" t="n">
-        <v>0.242148</v>
+        <v>0.242245</v>
       </c>
       <c r="D79" t="n">
-        <v>0.212512</v>
+        <v>0.212587</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227307</v>
+        <v>0.227861</v>
       </c>
       <c r="C80" t="n">
-        <v>0.241947</v>
+        <v>0.242067</v>
       </c>
       <c r="D80" t="n">
-        <v>0.225261</v>
+        <v>0.225345</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.350672</v>
+        <v>0.350402</v>
       </c>
       <c r="C81" t="n">
-        <v>0.259262</v>
+        <v>0.258844</v>
       </c>
       <c r="D81" t="n">
-        <v>0.223426</v>
+        <v>0.223301</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.344933</v>
+        <v>0.344626</v>
       </c>
       <c r="C82" t="n">
-        <v>0.255037</v>
+        <v>0.255254</v>
       </c>
       <c r="D82" t="n">
-        <v>0.221677</v>
+        <v>0.221617</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.338735</v>
+        <v>0.338319</v>
       </c>
       <c r="C83" t="n">
-        <v>0.252589</v>
+        <v>0.252716</v>
       </c>
       <c r="D83" t="n">
-        <v>0.220039</v>
+        <v>0.220075</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.331999</v>
+        <v>0.331953</v>
       </c>
       <c r="C84" t="n">
-        <v>0.250697</v>
+        <v>0.250827</v>
       </c>
       <c r="D84" t="n">
-        <v>0.218769</v>
+        <v>0.218743</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.325033</v>
+        <v>0.32458</v>
       </c>
       <c r="C85" t="n">
-        <v>0.24948</v>
+        <v>0.24945</v>
       </c>
       <c r="D85" t="n">
-        <v>0.217668</v>
+        <v>0.21759</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.317133</v>
+        <v>0.316862</v>
       </c>
       <c r="C86" t="n">
-        <v>0.248176</v>
+        <v>0.24828</v>
       </c>
       <c r="D86" t="n">
-        <v>0.216714</v>
+        <v>0.216688</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.309017</v>
+        <v>0.308992</v>
       </c>
       <c r="C87" t="n">
-        <v>0.247014</v>
+        <v>0.247101</v>
       </c>
       <c r="D87" t="n">
-        <v>0.215823</v>
+        <v>0.215757</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300176</v>
+        <v>0.300036</v>
       </c>
       <c r="C88" t="n">
-        <v>0.24633</v>
+        <v>0.246414</v>
       </c>
       <c r="D88" t="n">
-        <v>0.215008</v>
+        <v>0.214906</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.29097</v>
+        <v>0.290804</v>
       </c>
       <c r="C89" t="n">
-        <v>0.245332</v>
+        <v>0.245452</v>
       </c>
       <c r="D89" t="n">
-        <v>0.214308</v>
+        <v>0.214268</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.280829</v>
+        <v>0.280921</v>
       </c>
       <c r="C90" t="n">
-        <v>0.244548</v>
+        <v>0.244636</v>
       </c>
       <c r="D90" t="n">
-        <v>0.213677</v>
+        <v>0.213729</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.269977</v>
+        <v>0.269678</v>
       </c>
       <c r="C91" t="n">
-        <v>0.243688</v>
+        <v>0.243762</v>
       </c>
       <c r="D91" t="n">
-        <v>0.213097</v>
+        <v>0.213052</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.258182</v>
+        <v>0.258205</v>
       </c>
       <c r="C92" t="n">
-        <v>0.243063</v>
+        <v>0.243026</v>
       </c>
       <c r="D92" t="n">
-        <v>0.212617</v>
+        <v>0.212662</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.245473</v>
+        <v>0.24508</v>
       </c>
       <c r="C93" t="n">
-        <v>0.242427</v>
+        <v>0.242465</v>
       </c>
       <c r="D93" t="n">
-        <v>0.212602</v>
+        <v>0.212592</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.231002</v>
+        <v>0.230698</v>
       </c>
       <c r="C94" t="n">
-        <v>0.242025</v>
+        <v>0.241997</v>
       </c>
       <c r="D94" t="n">
-        <v>0.225837</v>
+        <v>0.225872</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.352408</v>
+        <v>0.352021</v>
       </c>
       <c r="C95" t="n">
-        <v>0.259507</v>
+        <v>0.259379</v>
       </c>
       <c r="D95" t="n">
-        <v>0.223662</v>
+        <v>0.223698</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.346308</v>
+        <v>0.34606</v>
       </c>
       <c r="C96" t="n">
-        <v>0.256034</v>
+        <v>0.256083</v>
       </c>
       <c r="D96" t="n">
-        <v>0.221856</v>
+        <v>0.22188</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.340503</v>
+        <v>0.340216</v>
       </c>
       <c r="C97" t="n">
-        <v>0.253451</v>
+        <v>0.253494</v>
       </c>
       <c r="D97" t="n">
-        <v>0.220415</v>
+        <v>0.220357</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.333815</v>
+        <v>0.333722</v>
       </c>
       <c r="C98" t="n">
-        <v>0.251362</v>
+        <v>0.251398</v>
       </c>
       <c r="D98" t="n">
-        <v>0.219119</v>
+        <v>0.219063</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.326867</v>
+        <v>0.326386</v>
       </c>
       <c r="C99" t="n">
-        <v>0.25017</v>
+        <v>0.250151</v>
       </c>
       <c r="D99" t="n">
-        <v>0.217979</v>
+        <v>0.217937</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.318928</v>
+        <v>0.318716</v>
       </c>
       <c r="C100" t="n">
-        <v>0.248607</v>
+        <v>0.24874</v>
       </c>
       <c r="D100" t="n">
-        <v>0.216846</v>
+        <v>0.216965</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.311078</v>
+        <v>0.310434</v>
       </c>
       <c r="C101" t="n">
-        <v>0.247543</v>
+        <v>0.247553</v>
       </c>
       <c r="D101" t="n">
-        <v>0.215984</v>
+        <v>0.215975</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302261</v>
+        <v>0.302222</v>
       </c>
       <c r="C102" t="n">
-        <v>0.246667</v>
+        <v>0.246697</v>
       </c>
       <c r="D102" t="n">
-        <v>0.215243</v>
+        <v>0.215216</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.293176</v>
+        <v>0.292785</v>
       </c>
       <c r="C103" t="n">
-        <v>0.245847</v>
+        <v>0.245816</v>
       </c>
       <c r="D103" t="n">
-        <v>0.214518</v>
+        <v>0.214513</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.283387</v>
+        <v>0.283061</v>
       </c>
       <c r="C104" t="n">
-        <v>0.244922</v>
+        <v>0.245008</v>
       </c>
       <c r="D104" t="n">
-        <v>0.213859</v>
+        <v>0.213891</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.272191</v>
+        <v>0.272028</v>
       </c>
       <c r="C105" t="n">
-        <v>0.243995</v>
+        <v>0.244052</v>
       </c>
       <c r="D105" t="n">
-        <v>0.213376</v>
+        <v>0.213242</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.260873</v>
+        <v>0.260655</v>
       </c>
       <c r="C106" t="n">
-        <v>0.243237</v>
+        <v>0.243226</v>
       </c>
       <c r="D106" t="n">
-        <v>0.212754</v>
+        <v>0.212732</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247783</v>
+        <v>0.247694</v>
       </c>
       <c r="C107" t="n">
-        <v>0.242434</v>
+        <v>0.242571</v>
       </c>
       <c r="D107" t="n">
-        <v>0.212395</v>
+        <v>0.212302</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.234211</v>
+        <v>0.233871</v>
       </c>
       <c r="C108" t="n">
-        <v>0.24197</v>
+        <v>0.241938</v>
       </c>
       <c r="D108" t="n">
-        <v>0.226471</v>
+        <v>0.226282</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.219245</v>
+        <v>0.219127</v>
       </c>
       <c r="C109" t="n">
-        <v>0.241646</v>
+        <v>0.241636</v>
       </c>
       <c r="D109" t="n">
-        <v>0.224568</v>
+        <v>0.224035</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.347583</v>
+        <v>0.347326</v>
       </c>
       <c r="C110" t="n">
-        <v>0.256387</v>
+        <v>0.256307</v>
       </c>
       <c r="D110" t="n">
-        <v>0.222251</v>
+        <v>0.222178</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.341392</v>
+        <v>0.341405</v>
       </c>
       <c r="C111" t="n">
-        <v>0.253701</v>
+        <v>0.25361</v>
       </c>
       <c r="D111" t="n">
-        <v>0.220644</v>
+        <v>0.220637</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.335036</v>
+        <v>0.33485</v>
       </c>
       <c r="C112" t="n">
-        <v>0.251621</v>
+        <v>0.251659</v>
       </c>
       <c r="D112" t="n">
-        <v>0.219439</v>
+        <v>0.21935</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.328004</v>
+        <v>0.328043</v>
       </c>
       <c r="C113" t="n">
-        <v>0.249982</v>
+        <v>0.250173</v>
       </c>
       <c r="D113" t="n">
-        <v>0.21833</v>
+        <v>0.218128</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.320403</v>
+        <v>0.320355</v>
       </c>
       <c r="C114" t="n">
-        <v>0.249002</v>
+        <v>0.249086</v>
       </c>
       <c r="D114" t="n">
-        <v>0.217216</v>
+        <v>0.217066</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.31231</v>
+        <v>0.312251</v>
       </c>
       <c r="C115" t="n">
-        <v>0.247837</v>
+        <v>0.24787</v>
       </c>
       <c r="D115" t="n">
-        <v>0.21638</v>
+        <v>0.216136</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304185</v>
+        <v>0.304249</v>
       </c>
       <c r="C116" t="n">
-        <v>0.246922</v>
+        <v>0.247244</v>
       </c>
       <c r="D116" t="n">
-        <v>0.215855</v>
+        <v>0.215293</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.295395</v>
+        <v>0.295085</v>
       </c>
       <c r="C117" t="n">
-        <v>0.245997</v>
+        <v>0.246025</v>
       </c>
       <c r="D117" t="n">
-        <v>0.214539</v>
+        <v>0.214922</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.285926</v>
+        <v>0.285548</v>
       </c>
       <c r="C118" t="n">
-        <v>0.245141</v>
+        <v>0.245259</v>
       </c>
       <c r="D118" t="n">
-        <v>0.2145</v>
+        <v>0.214201</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.274969</v>
+        <v>0.274942</v>
       </c>
       <c r="C119" t="n">
-        <v>0.24434</v>
+        <v>0.244435</v>
       </c>
       <c r="D119" t="n">
-        <v>0.213651</v>
+        <v>0.214049</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.263292</v>
+        <v>0.263224</v>
       </c>
       <c r="C120" t="n">
-        <v>0.243464</v>
+        <v>0.243671</v>
       </c>
       <c r="D120" t="n">
-        <v>0.213168</v>
+        <v>0.213095</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.251201</v>
+        <v>0.251328</v>
       </c>
       <c r="C121" t="n">
-        <v>0.242662</v>
+        <v>0.24288</v>
       </c>
       <c r="D121" t="n">
-        <v>0.212875</v>
+        <v>0.213192</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.23751</v>
+        <v>0.237385</v>
       </c>
       <c r="C122" t="n">
-        <v>0.242283</v>
+        <v>0.242155</v>
       </c>
       <c r="D122" t="n">
-        <v>0.212756</v>
+        <v>0.212743</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.222699</v>
+        <v>0.222679</v>
       </c>
       <c r="C123" t="n">
-        <v>0.241731</v>
+        <v>0.241938</v>
       </c>
       <c r="D123" t="n">
-        <v>0.22545</v>
+        <v>0.225063</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.34914</v>
+        <v>0.34889</v>
       </c>
       <c r="C124" t="n">
-        <v>0.257365</v>
+        <v>0.257261</v>
       </c>
       <c r="D124" t="n">
-        <v>0.223918</v>
+        <v>0.222959</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.34281</v>
+        <v>0.342736</v>
       </c>
       <c r="C125" t="n">
-        <v>0.254239</v>
+        <v>0.253887</v>
       </c>
       <c r="D125" t="n">
-        <v>0.222173</v>
+        <v>0.221913</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.336559</v>
+        <v>0.336248</v>
       </c>
       <c r="C126" t="n">
-        <v>0.25204</v>
+        <v>0.251999</v>
       </c>
       <c r="D126" t="n">
-        <v>0.22071</v>
+        <v>0.220507</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.329787</v>
+        <v>0.329386</v>
       </c>
       <c r="C127" t="n">
-        <v>0.249988</v>
+        <v>0.250026</v>
       </c>
       <c r="D127" t="n">
-        <v>0.218787</v>
+        <v>0.219708</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.32233</v>
+        <v>0.322005</v>
       </c>
       <c r="C128" t="n">
-        <v>0.248531</v>
+        <v>0.248599</v>
       </c>
       <c r="D128" t="n">
-        <v>0.218442</v>
+        <v>0.218271</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.314327</v>
+        <v>0.314172</v>
       </c>
       <c r="C129" t="n">
-        <v>0.247799</v>
+        <v>0.247276</v>
       </c>
       <c r="D129" t="n">
-        <v>0.217797</v>
+        <v>0.217175</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.306349</v>
+        <v>0.305764</v>
       </c>
       <c r="C130" t="n">
-        <v>0.246464</v>
+        <v>0.246614</v>
       </c>
       <c r="D130" t="n">
-        <v>0.216509</v>
+        <v>0.216635</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.297502</v>
+        <v>0.296835</v>
       </c>
       <c r="C131" t="n">
-        <v>0.245135</v>
+        <v>0.245391</v>
       </c>
       <c r="D131" t="n">
-        <v>0.215467</v>
+        <v>0.21517</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.288252</v>
+        <v>0.287319</v>
       </c>
       <c r="C132" t="n">
-        <v>0.244789</v>
+        <v>0.244484</v>
       </c>
       <c r="D132" t="n">
-        <v>0.214853</v>
+        <v>0.215957</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.277293</v>
+        <v>0.277285</v>
       </c>
       <c r="C133" t="n">
-        <v>0.243901</v>
+        <v>0.24414</v>
       </c>
       <c r="D133" t="n">
-        <v>0.214283</v>
+        <v>0.213791</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.266386</v>
+        <v>0.26608</v>
       </c>
       <c r="C134" t="n">
-        <v>0.243784</v>
+        <v>0.24335</v>
       </c>
       <c r="D134" t="n">
-        <v>0.214123</v>
+        <v>0.213833</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.253564</v>
+        <v>0.253628</v>
       </c>
       <c r="C135" t="n">
-        <v>0.242794</v>
+        <v>0.24278</v>
       </c>
       <c r="D135" t="n">
-        <v>0.216128</v>
+        <v>0.213741</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.240459</v>
+        <v>0.240596</v>
       </c>
       <c r="C136" t="n">
-        <v>0.24196</v>
+        <v>0.241746</v>
       </c>
       <c r="D136" t="n">
-        <v>0.214</v>
+        <v>0.213351</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.226255</v>
+        <v>0.225845</v>
       </c>
       <c r="C137" t="n">
-        <v>0.241413</v>
+        <v>0.241527</v>
       </c>
       <c r="D137" t="n">
-        <v>0.228838</v>
+        <v>0.22889</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.350767</v>
+        <v>0.350125</v>
       </c>
       <c r="C138" t="n">
-        <v>0.260176</v>
+        <v>0.260344</v>
       </c>
       <c r="D138" t="n">
-        <v>0.225214</v>
+        <v>0.22598</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.345045</v>
+        <v>0.344243</v>
       </c>
       <c r="C139" t="n">
-        <v>0.255662</v>
+        <v>0.2556</v>
       </c>
       <c r="D139" t="n">
-        <v>0.225217</v>
+        <v>0.225002</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.33802</v>
+        <v>0.337736</v>
       </c>
       <c r="C140" t="n">
-        <v>0.252973</v>
+        <v>0.254037</v>
       </c>
       <c r="D140" t="n">
-        <v>0.222415</v>
+        <v>0.222823</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331833</v>
+        <v>0.331268</v>
       </c>
       <c r="C141" t="n">
-        <v>0.251401</v>
+        <v>0.251234</v>
       </c>
       <c r="D141" t="n">
-        <v>0.222864</v>
+        <v>0.221839</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.32491</v>
+        <v>0.324085</v>
       </c>
       <c r="C142" t="n">
-        <v>0.249477</v>
+        <v>0.249095</v>
       </c>
       <c r="D142" t="n">
-        <v>0.22172</v>
+        <v>0.219936</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.316686</v>
+        <v>0.316748</v>
       </c>
       <c r="C143" t="n">
-        <v>0.248121</v>
+        <v>0.248006</v>
       </c>
       <c r="D143" t="n">
-        <v>0.220137</v>
+        <v>0.220772</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.298079</v>
+        <v>0.296772</v>
       </c>
       <c r="C2" t="n">
-        <v>0.223246</v>
+        <v>0.223761</v>
       </c>
       <c r="D2" t="n">
-        <v>0.198844</v>
+        <v>0.197813</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.290785</v>
+        <v>0.28953</v>
       </c>
       <c r="C3" t="n">
-        <v>0.225701</v>
+        <v>0.224526</v>
       </c>
       <c r="D3" t="n">
-        <v>0.197856</v>
+        <v>0.198235</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279231</v>
+        <v>0.279837</v>
       </c>
       <c r="C4" t="n">
-        <v>0.224185</v>
+        <v>0.224266</v>
       </c>
       <c r="D4" t="n">
-        <v>0.200843</v>
+        <v>0.199753</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.269648</v>
+        <v>0.26932</v>
       </c>
       <c r="C5" t="n">
-        <v>0.224396</v>
+        <v>0.224761</v>
       </c>
       <c r="D5" t="n">
-        <v>0.199979</v>
+        <v>0.200782</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.256956</v>
+        <v>0.257576</v>
       </c>
       <c r="C6" t="n">
-        <v>0.226462</v>
+        <v>0.22556</v>
       </c>
       <c r="D6" t="n">
-        <v>0.201394</v>
+        <v>0.20157</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.243448</v>
+        <v>0.244153</v>
       </c>
       <c r="C7" t="n">
-        <v>0.225029</v>
+        <v>0.226648</v>
       </c>
       <c r="D7" t="n">
-        <v>0.20242</v>
+        <v>0.201656</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.233104</v>
+        <v>0.231597</v>
       </c>
       <c r="C8" t="n">
-        <v>0.225395</v>
+        <v>0.225933</v>
       </c>
       <c r="D8" t="n">
-        <v>0.202973</v>
+        <v>0.202615</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.220456</v>
+        <v>0.219366</v>
       </c>
       <c r="C9" t="n">
-        <v>0.22656</v>
+        <v>0.227408</v>
       </c>
       <c r="D9" t="n">
-        <v>0.217796</v>
+        <v>0.202318</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.345437</v>
+        <v>0.344991</v>
       </c>
       <c r="C10" t="n">
-        <v>0.245876</v>
+        <v>0.245996</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216821</v>
+        <v>0.217588</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.338967</v>
+        <v>0.340087</v>
       </c>
       <c r="C11" t="n">
-        <v>0.244415</v>
+        <v>0.244731</v>
       </c>
       <c r="D11" t="n">
-        <v>0.215408</v>
+        <v>0.215741</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.33262</v>
+        <v>0.332171</v>
       </c>
       <c r="C12" t="n">
-        <v>0.242868</v>
+        <v>0.244015</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214319</v>
+        <v>0.214225</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.326363</v>
+        <v>0.326014</v>
       </c>
       <c r="C13" t="n">
-        <v>0.240997</v>
+        <v>0.242431</v>
       </c>
       <c r="D13" t="n">
-        <v>0.213365</v>
+        <v>0.213731</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.319892</v>
+        <v>0.318497</v>
       </c>
       <c r="C14" t="n">
-        <v>0.239285</v>
+        <v>0.240664</v>
       </c>
       <c r="D14" t="n">
-        <v>0.212266</v>
+        <v>0.212155</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.313277</v>
+        <v>0.309889</v>
       </c>
       <c r="C15" t="n">
-        <v>0.238708</v>
+        <v>0.24013</v>
       </c>
       <c r="D15" t="n">
-        <v>0.220627</v>
+        <v>0.211005</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.304211</v>
+        <v>0.303024</v>
       </c>
       <c r="C16" t="n">
-        <v>0.239147</v>
+        <v>0.239742</v>
       </c>
       <c r="D16" t="n">
-        <v>0.219531</v>
+        <v>0.210383</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.29527</v>
+        <v>0.293148</v>
       </c>
       <c r="C17" t="n">
-        <v>0.238663</v>
+        <v>0.239646</v>
       </c>
       <c r="D17" t="n">
-        <v>0.210202</v>
+        <v>0.21075</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.286242</v>
+        <v>0.284895</v>
       </c>
       <c r="C18" t="n">
-        <v>0.238595</v>
+        <v>0.239572</v>
       </c>
       <c r="D18" t="n">
-        <v>0.209742</v>
+        <v>0.210977</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.276126</v>
+        <v>0.274809</v>
       </c>
       <c r="C19" t="n">
-        <v>0.237364</v>
+        <v>0.238456</v>
       </c>
       <c r="D19" t="n">
-        <v>0.208388</v>
+        <v>0.210056</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.268988</v>
+        <v>0.263468</v>
       </c>
       <c r="C20" t="n">
-        <v>0.237115</v>
+        <v>0.2377</v>
       </c>
       <c r="D20" t="n">
-        <v>0.209605</v>
+        <v>0.210364</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.253811</v>
+        <v>0.252508</v>
       </c>
       <c r="C21" t="n">
-        <v>0.237463</v>
+        <v>0.23687</v>
       </c>
       <c r="D21" t="n">
-        <v>0.209349</v>
+        <v>0.210616</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.242409</v>
+        <v>0.240246</v>
       </c>
       <c r="C22" t="n">
-        <v>0.236893</v>
+        <v>0.237613</v>
       </c>
       <c r="D22" t="n">
-        <v>0.208908</v>
+        <v>0.209971</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.225891</v>
+        <v>0.226332</v>
       </c>
       <c r="C23" t="n">
-        <v>0.237728</v>
+        <v>0.23731</v>
       </c>
       <c r="D23" t="n">
-        <v>0.223881</v>
+        <v>0.209596</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348873</v>
+        <v>0.34841</v>
       </c>
       <c r="C24" t="n">
-        <v>0.254618</v>
+        <v>0.254751</v>
       </c>
       <c r="D24" t="n">
-        <v>0.222439</v>
+        <v>0.225703</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.341848</v>
+        <v>0.341888</v>
       </c>
       <c r="C25" t="n">
-        <v>0.253107</v>
+        <v>0.253289</v>
       </c>
       <c r="D25" t="n">
-        <v>0.221303</v>
+        <v>0.222653</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.336205</v>
+        <v>0.336019</v>
       </c>
       <c r="C26" t="n">
-        <v>0.251204</v>
+        <v>0.250877</v>
       </c>
       <c r="D26" t="n">
-        <v>0.220244</v>
+        <v>0.220793</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328857</v>
+        <v>0.328922</v>
       </c>
       <c r="C27" t="n">
-        <v>0.24965</v>
+        <v>0.249017</v>
       </c>
       <c r="D27" t="n">
-        <v>0.218913</v>
+        <v>0.219373</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.321763</v>
+        <v>0.321615</v>
       </c>
       <c r="C28" t="n">
-        <v>0.247582</v>
+        <v>0.247342</v>
       </c>
       <c r="D28" t="n">
-        <v>0.217019</v>
+        <v>0.217315</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.314738</v>
+        <v>0.314561</v>
       </c>
       <c r="C29" t="n">
-        <v>0.246547</v>
+        <v>0.246558</v>
       </c>
       <c r="D29" t="n">
-        <v>0.216181</v>
+        <v>0.216517</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.306989</v>
+        <v>0.306462</v>
       </c>
       <c r="C30" t="n">
-        <v>0.245002</v>
+        <v>0.24491</v>
       </c>
       <c r="D30" t="n">
-        <v>0.214727</v>
+        <v>0.21513</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.297901</v>
+        <v>0.297995</v>
       </c>
       <c r="C31" t="n">
-        <v>0.24391</v>
+        <v>0.244283</v>
       </c>
       <c r="D31" t="n">
-        <v>0.214197</v>
+        <v>0.214279</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.288651</v>
+        <v>0.289007</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2432</v>
+        <v>0.243663</v>
       </c>
       <c r="D32" t="n">
-        <v>0.213779</v>
+        <v>0.214071</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.279357</v>
+        <v>0.279836</v>
       </c>
       <c r="C33" t="n">
-        <v>0.242635</v>
+        <v>0.242783</v>
       </c>
       <c r="D33" t="n">
-        <v>0.213628</v>
+        <v>0.213985</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.269026</v>
+        <v>0.26889</v>
       </c>
       <c r="C34" t="n">
-        <v>0.242127</v>
+        <v>0.242146</v>
       </c>
       <c r="D34" t="n">
-        <v>0.212819</v>
+        <v>0.212836</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.257776</v>
+        <v>0.257882</v>
       </c>
       <c r="C35" t="n">
-        <v>0.24244</v>
+        <v>0.242228</v>
       </c>
       <c r="D35" t="n">
-        <v>0.21242</v>
+        <v>0.212239</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244885</v>
+        <v>0.244964</v>
       </c>
       <c r="C36" t="n">
-        <v>0.241682</v>
+        <v>0.241607</v>
       </c>
       <c r="D36" t="n">
-        <v>0.21211</v>
+        <v>0.21274</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.230587</v>
+        <v>0.230939</v>
       </c>
       <c r="C37" t="n">
-        <v>0.241247</v>
+        <v>0.241274</v>
       </c>
       <c r="D37" t="n">
-        <v>0.226667</v>
+        <v>0.213392</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.349479</v>
+        <v>0.349548</v>
       </c>
       <c r="C38" t="n">
-        <v>0.261451</v>
+        <v>0.261121</v>
       </c>
       <c r="D38" t="n">
-        <v>0.223804</v>
+        <v>0.23042</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.344503</v>
+        <v>0.344765</v>
       </c>
       <c r="C39" t="n">
-        <v>0.258029</v>
+        <v>0.257632</v>
       </c>
       <c r="D39" t="n">
-        <v>0.222169</v>
+        <v>0.226885</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.338354</v>
+        <v>0.338555</v>
       </c>
       <c r="C40" t="n">
-        <v>0.254822</v>
+        <v>0.254742</v>
       </c>
       <c r="D40" t="n">
-        <v>0.220578</v>
+        <v>0.225676</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.332056</v>
+        <v>0.332146</v>
       </c>
       <c r="C41" t="n">
-        <v>0.251637</v>
+        <v>0.251572</v>
       </c>
       <c r="D41" t="n">
-        <v>0.218942</v>
+        <v>0.220676</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.324614</v>
+        <v>0.324704</v>
       </c>
       <c r="C42" t="n">
-        <v>0.250635</v>
+        <v>0.250696</v>
       </c>
       <c r="D42" t="n">
-        <v>0.21774</v>
+        <v>0.218752</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.316616</v>
+        <v>0.317074</v>
       </c>
       <c r="C43" t="n">
-        <v>0.24936</v>
+        <v>0.249201</v>
       </c>
       <c r="D43" t="n">
-        <v>0.216634</v>
+        <v>0.217559</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.309238</v>
+        <v>0.309281</v>
       </c>
       <c r="C44" t="n">
-        <v>0.247632</v>
+        <v>0.247675</v>
       </c>
       <c r="D44" t="n">
-        <v>0.215757</v>
+        <v>0.21583</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.30034</v>
+        <v>0.300655</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246974</v>
+        <v>0.246856</v>
       </c>
       <c r="D45" t="n">
-        <v>0.214417</v>
+        <v>0.214855</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291964</v>
+        <v>0.292031</v>
       </c>
       <c r="C46" t="n">
-        <v>0.246037</v>
+        <v>0.245956</v>
       </c>
       <c r="D46" t="n">
-        <v>0.214083</v>
+        <v>0.21412</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.28271</v>
+        <v>0.282601</v>
       </c>
       <c r="C47" t="n">
-        <v>0.245072</v>
+        <v>0.244827</v>
       </c>
       <c r="D47" t="n">
-        <v>0.213992</v>
+        <v>0.214266</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.27184</v>
+        <v>0.271801</v>
       </c>
       <c r="C48" t="n">
-        <v>0.243893</v>
+        <v>0.243639</v>
       </c>
       <c r="D48" t="n">
-        <v>0.213044</v>
+        <v>0.213257</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.26089</v>
+        <v>0.26081</v>
       </c>
       <c r="C49" t="n">
-        <v>0.243319</v>
+        <v>0.243267</v>
       </c>
       <c r="D49" t="n">
-        <v>0.213173</v>
+        <v>0.212905</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.248889</v>
+        <v>0.248531</v>
       </c>
       <c r="C50" t="n">
-        <v>0.242919</v>
+        <v>0.242731</v>
       </c>
       <c r="D50" t="n">
-        <v>0.213778</v>
+        <v>0.212576</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.235087</v>
+        <v>0.234982</v>
       </c>
       <c r="C51" t="n">
-        <v>0.24236</v>
+        <v>0.242033</v>
       </c>
       <c r="D51" t="n">
-        <v>0.226569</v>
+        <v>0.212653</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.220103</v>
+        <v>0.219993</v>
       </c>
       <c r="C52" t="n">
-        <v>0.241639</v>
+        <v>0.241169</v>
       </c>
       <c r="D52" t="n">
-        <v>0.223956</v>
+        <v>0.216778</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.347492</v>
+        <v>0.347137</v>
       </c>
       <c r="C53" t="n">
-        <v>0.258522</v>
+        <v>0.257724</v>
       </c>
       <c r="D53" t="n">
-        <v>0.222168</v>
+        <v>0.226261</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.341129</v>
+        <v>0.341209</v>
       </c>
       <c r="C54" t="n">
-        <v>0.255166</v>
+        <v>0.254398</v>
       </c>
       <c r="D54" t="n">
-        <v>0.220629</v>
+        <v>0.223051</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.335121</v>
+        <v>0.335061</v>
       </c>
       <c r="C55" t="n">
-        <v>0.252485</v>
+        <v>0.252084</v>
       </c>
       <c r="D55" t="n">
-        <v>0.219459</v>
+        <v>0.220906</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.327468</v>
+        <v>0.327357</v>
       </c>
       <c r="C56" t="n">
-        <v>0.250895</v>
+        <v>0.250583</v>
       </c>
       <c r="D56" t="n">
-        <v>0.218143</v>
+        <v>0.219443</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.320237</v>
+        <v>0.320618</v>
       </c>
       <c r="C57" t="n">
-        <v>0.249299</v>
+        <v>0.249203</v>
       </c>
       <c r="D57" t="n">
-        <v>0.217226</v>
+        <v>0.217786</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.313117</v>
+        <v>0.313097</v>
       </c>
       <c r="C58" t="n">
-        <v>0.247991</v>
+        <v>0.247818</v>
       </c>
       <c r="D58" t="n">
-        <v>0.21628</v>
+        <v>0.216842</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304464</v>
+        <v>0.304404</v>
       </c>
       <c r="C59" t="n">
-        <v>0.246859</v>
+        <v>0.246773</v>
       </c>
       <c r="D59" t="n">
-        <v>0.215278</v>
+        <v>0.215627</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294592</v>
+        <v>0.294666</v>
       </c>
       <c r="C60" t="n">
-        <v>0.245981</v>
+        <v>0.245933</v>
       </c>
       <c r="D60" t="n">
-        <v>0.214598</v>
+        <v>0.214713</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284933</v>
+        <v>0.285083</v>
       </c>
       <c r="C61" t="n">
-        <v>0.245334</v>
+        <v>0.245285</v>
       </c>
       <c r="D61" t="n">
-        <v>0.214105</v>
+        <v>0.213967</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.274427</v>
+        <v>0.274655</v>
       </c>
       <c r="C62" t="n">
-        <v>0.244336</v>
+        <v>0.244209</v>
       </c>
       <c r="D62" t="n">
-        <v>0.213683</v>
+        <v>0.213494</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263073</v>
+        <v>0.263143</v>
       </c>
       <c r="C63" t="n">
-        <v>0.243376</v>
+        <v>0.24341</v>
       </c>
       <c r="D63" t="n">
-        <v>0.213129</v>
+        <v>0.213023</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.251186</v>
+        <v>0.251013</v>
       </c>
       <c r="C64" t="n">
-        <v>0.243277</v>
+        <v>0.243057</v>
       </c>
       <c r="D64" t="n">
-        <v>0.212598</v>
+        <v>0.212712</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.237911</v>
+        <v>0.237693</v>
       </c>
       <c r="C65" t="n">
-        <v>0.242415</v>
+        <v>0.242242</v>
       </c>
       <c r="D65" t="n">
-        <v>0.212813</v>
+        <v>0.213151</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.223323</v>
+        <v>0.223485</v>
       </c>
       <c r="C66" t="n">
-        <v>0.24191</v>
+        <v>0.241543</v>
       </c>
       <c r="D66" t="n">
-        <v>0.22506</v>
+        <v>0.213977</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.349127</v>
+        <v>0.349102</v>
       </c>
       <c r="C67" t="n">
-        <v>0.259665</v>
+        <v>0.259451</v>
       </c>
       <c r="D67" t="n">
-        <v>0.22308</v>
+        <v>0.22801</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.342953</v>
+        <v>0.343171</v>
       </c>
       <c r="C68" t="n">
-        <v>0.255795</v>
+        <v>0.255812</v>
       </c>
       <c r="D68" t="n">
-        <v>0.221215</v>
+        <v>0.224119</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.336504</v>
+        <v>0.336784</v>
       </c>
       <c r="C69" t="n">
-        <v>0.252825</v>
+        <v>0.25289</v>
       </c>
       <c r="D69" t="n">
-        <v>0.219753</v>
+        <v>0.220937</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.32991</v>
+        <v>0.329999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.251177</v>
+        <v>0.251109</v>
       </c>
       <c r="D70" t="n">
-        <v>0.218637</v>
+        <v>0.219176</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.322694</v>
+        <v>0.322761</v>
       </c>
       <c r="C71" t="n">
-        <v>0.24977</v>
+        <v>0.249786</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217676</v>
+        <v>0.218032</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.315467</v>
+        <v>0.315379</v>
       </c>
       <c r="C72" t="n">
-        <v>0.248445</v>
+        <v>0.248529</v>
       </c>
       <c r="D72" t="n">
-        <v>0.216611</v>
+        <v>0.216799</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.307224</v>
+        <v>0.306742</v>
       </c>
       <c r="C73" t="n">
-        <v>0.247094</v>
+        <v>0.247309</v>
       </c>
       <c r="D73" t="n">
-        <v>0.21554</v>
+        <v>0.215766</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.298719</v>
+        <v>0.298219</v>
       </c>
       <c r="C74" t="n">
-        <v>0.246204</v>
+        <v>0.246145</v>
       </c>
       <c r="D74" t="n">
-        <v>0.214682</v>
+        <v>0.2147</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.288974</v>
+        <v>0.288752</v>
       </c>
       <c r="C75" t="n">
-        <v>0.245366</v>
+        <v>0.24536</v>
       </c>
       <c r="D75" t="n">
-        <v>0.214241</v>
+        <v>0.214346</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.278671</v>
+        <v>0.278357</v>
       </c>
       <c r="C76" t="n">
-        <v>0.244415</v>
+        <v>0.244576</v>
       </c>
       <c r="D76" t="n">
-        <v>0.213586</v>
+        <v>0.213541</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.2676</v>
+        <v>0.267448</v>
       </c>
       <c r="C77" t="n">
-        <v>0.243501</v>
+        <v>0.24354</v>
       </c>
       <c r="D77" t="n">
-        <v>0.2131</v>
+        <v>0.213043</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.254966</v>
+        <v>0.254824</v>
       </c>
       <c r="C78" t="n">
-        <v>0.242558</v>
+        <v>0.242659</v>
       </c>
       <c r="D78" t="n">
-        <v>0.212831</v>
+        <v>0.212585</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.241998</v>
+        <v>0.242352</v>
       </c>
       <c r="C79" t="n">
-        <v>0.242245</v>
+        <v>0.242285</v>
       </c>
       <c r="D79" t="n">
-        <v>0.212587</v>
+        <v>0.212275</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227861</v>
+        <v>0.227341</v>
       </c>
       <c r="C80" t="n">
-        <v>0.242067</v>
+        <v>0.24196</v>
       </c>
       <c r="D80" t="n">
-        <v>0.225345</v>
+        <v>0.212584</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.350402</v>
+        <v>0.350428</v>
       </c>
       <c r="C81" t="n">
-        <v>0.258844</v>
+        <v>0.258668</v>
       </c>
       <c r="D81" t="n">
-        <v>0.223301</v>
+        <v>0.227609</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.344626</v>
+        <v>0.344765</v>
       </c>
       <c r="C82" t="n">
-        <v>0.255254</v>
+        <v>0.255203</v>
       </c>
       <c r="D82" t="n">
-        <v>0.221617</v>
+        <v>0.223971</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.338319</v>
+        <v>0.338105</v>
       </c>
       <c r="C83" t="n">
-        <v>0.252716</v>
+        <v>0.252814</v>
       </c>
       <c r="D83" t="n">
-        <v>0.220075</v>
+        <v>0.221144</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.331953</v>
+        <v>0.331486</v>
       </c>
       <c r="C84" t="n">
-        <v>0.250827</v>
+        <v>0.250864</v>
       </c>
       <c r="D84" t="n">
-        <v>0.218743</v>
+        <v>0.219278</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.32458</v>
+        <v>0.324504</v>
       </c>
       <c r="C85" t="n">
-        <v>0.24945</v>
+        <v>0.249501</v>
       </c>
       <c r="D85" t="n">
-        <v>0.21759</v>
+        <v>0.218199</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.316862</v>
+        <v>0.316699</v>
       </c>
       <c r="C86" t="n">
-        <v>0.24828</v>
+        <v>0.248403</v>
       </c>
       <c r="D86" t="n">
-        <v>0.216688</v>
+        <v>0.216973</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.308992</v>
+        <v>0.308627</v>
       </c>
       <c r="C87" t="n">
-        <v>0.247101</v>
+        <v>0.247252</v>
       </c>
       <c r="D87" t="n">
-        <v>0.215757</v>
+        <v>0.215988</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300036</v>
+        <v>0.30003</v>
       </c>
       <c r="C88" t="n">
-        <v>0.246414</v>
+        <v>0.246503</v>
       </c>
       <c r="D88" t="n">
-        <v>0.214906</v>
+        <v>0.215119</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.290804</v>
+        <v>0.290671</v>
       </c>
       <c r="C89" t="n">
-        <v>0.245452</v>
+        <v>0.245468</v>
       </c>
       <c r="D89" t="n">
-        <v>0.214268</v>
+        <v>0.214373</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.280921</v>
+        <v>0.280527</v>
       </c>
       <c r="C90" t="n">
-        <v>0.244636</v>
+        <v>0.244655</v>
       </c>
       <c r="D90" t="n">
-        <v>0.213729</v>
+        <v>0.213707</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.269678</v>
+        <v>0.269649</v>
       </c>
       <c r="C91" t="n">
-        <v>0.243762</v>
+        <v>0.24379</v>
       </c>
       <c r="D91" t="n">
-        <v>0.213052</v>
+        <v>0.212997</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.258205</v>
+        <v>0.257846</v>
       </c>
       <c r="C92" t="n">
-        <v>0.243026</v>
+        <v>0.242979</v>
       </c>
       <c r="D92" t="n">
-        <v>0.212662</v>
+        <v>0.212519</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.24508</v>
+        <v>0.244642</v>
       </c>
       <c r="C93" t="n">
-        <v>0.242465</v>
+        <v>0.242456</v>
       </c>
       <c r="D93" t="n">
-        <v>0.212592</v>
+        <v>0.212339</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.230698</v>
+        <v>0.23092</v>
       </c>
       <c r="C94" t="n">
-        <v>0.241997</v>
+        <v>0.242035</v>
       </c>
       <c r="D94" t="n">
-        <v>0.225872</v>
+        <v>0.212321</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.352021</v>
+        <v>0.351689</v>
       </c>
       <c r="C95" t="n">
-        <v>0.259379</v>
+        <v>0.259535</v>
       </c>
       <c r="D95" t="n">
-        <v>0.223698</v>
+        <v>0.228011</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.34606</v>
+        <v>0.346289</v>
       </c>
       <c r="C96" t="n">
-        <v>0.256083</v>
+        <v>0.256104</v>
       </c>
       <c r="D96" t="n">
-        <v>0.22188</v>
+        <v>0.224577</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.340216</v>
+        <v>0.340021</v>
       </c>
       <c r="C97" t="n">
-        <v>0.253494</v>
+        <v>0.253578</v>
       </c>
       <c r="D97" t="n">
-        <v>0.220357</v>
+        <v>0.221906</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.333722</v>
+        <v>0.333476</v>
       </c>
       <c r="C98" t="n">
-        <v>0.251398</v>
+        <v>0.251452</v>
       </c>
       <c r="D98" t="n">
-        <v>0.219063</v>
+        <v>0.219716</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.326386</v>
+        <v>0.32639</v>
       </c>
       <c r="C99" t="n">
-        <v>0.250151</v>
+        <v>0.250054</v>
       </c>
       <c r="D99" t="n">
-        <v>0.217937</v>
+        <v>0.218353</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.318716</v>
+        <v>0.318973</v>
       </c>
       <c r="C100" t="n">
-        <v>0.24874</v>
+        <v>0.248746</v>
       </c>
       <c r="D100" t="n">
-        <v>0.216965</v>
+        <v>0.216935</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.310434</v>
+        <v>0.310825</v>
       </c>
       <c r="C101" t="n">
-        <v>0.247553</v>
+        <v>0.247644</v>
       </c>
       <c r="D101" t="n">
-        <v>0.215975</v>
+        <v>0.216017</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302222</v>
+        <v>0.302055</v>
       </c>
       <c r="C102" t="n">
-        <v>0.246697</v>
+        <v>0.24675</v>
       </c>
       <c r="D102" t="n">
-        <v>0.215216</v>
+        <v>0.215208</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.292785</v>
+        <v>0.292714</v>
       </c>
       <c r="C103" t="n">
-        <v>0.245816</v>
+        <v>0.245722</v>
       </c>
       <c r="D103" t="n">
-        <v>0.214513</v>
+        <v>0.214485</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.283061</v>
+        <v>0.283162</v>
       </c>
       <c r="C104" t="n">
-        <v>0.245008</v>
+        <v>0.244977</v>
       </c>
       <c r="D104" t="n">
-        <v>0.213891</v>
+        <v>0.213882</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.272028</v>
+        <v>0.272479</v>
       </c>
       <c r="C105" t="n">
-        <v>0.244052</v>
+        <v>0.244034</v>
       </c>
       <c r="D105" t="n">
-        <v>0.213242</v>
+        <v>0.21298</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.260655</v>
+        <v>0.26045</v>
       </c>
       <c r="C106" t="n">
-        <v>0.243226</v>
+        <v>0.243185</v>
       </c>
       <c r="D106" t="n">
-        <v>0.212732</v>
+        <v>0.212503</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247694</v>
+        <v>0.24761</v>
       </c>
       <c r="C107" t="n">
-        <v>0.242571</v>
+        <v>0.242499</v>
       </c>
       <c r="D107" t="n">
-        <v>0.212302</v>
+        <v>0.212264</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.233871</v>
+        <v>0.234058</v>
       </c>
       <c r="C108" t="n">
-        <v>0.241938</v>
+        <v>0.242</v>
       </c>
       <c r="D108" t="n">
-        <v>0.226282</v>
+        <v>0.211951</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.219127</v>
+        <v>0.219267</v>
       </c>
       <c r="C109" t="n">
-        <v>0.241636</v>
+        <v>0.24166</v>
       </c>
       <c r="D109" t="n">
-        <v>0.224035</v>
+        <v>0.21231</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.347326</v>
+        <v>0.347235</v>
       </c>
       <c r="C110" t="n">
-        <v>0.256307</v>
+        <v>0.256536</v>
       </c>
       <c r="D110" t="n">
-        <v>0.222178</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.341405</v>
+        <v>0.34133</v>
       </c>
       <c r="C111" t="n">
-        <v>0.25361</v>
+        <v>0.253645</v>
       </c>
       <c r="D111" t="n">
-        <v>0.220637</v>
+        <v>0.222129</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.33485</v>
+        <v>0.334937</v>
       </c>
       <c r="C112" t="n">
-        <v>0.251659</v>
+        <v>0.251856</v>
       </c>
       <c r="D112" t="n">
-        <v>0.21935</v>
+        <v>0.22019</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.328043</v>
+        <v>0.327851</v>
       </c>
       <c r="C113" t="n">
-        <v>0.250173</v>
+        <v>0.250209</v>
       </c>
       <c r="D113" t="n">
-        <v>0.218128</v>
+        <v>0.218691</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.320355</v>
+        <v>0.320114</v>
       </c>
       <c r="C114" t="n">
-        <v>0.249086</v>
+        <v>0.249079</v>
       </c>
       <c r="D114" t="n">
-        <v>0.217066</v>
+        <v>0.217345</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.312251</v>
+        <v>0.312428</v>
       </c>
       <c r="C115" t="n">
-        <v>0.24787</v>
+        <v>0.247809</v>
       </c>
       <c r="D115" t="n">
-        <v>0.216136</v>
+        <v>0.216601</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304249</v>
+        <v>0.304152</v>
       </c>
       <c r="C116" t="n">
-        <v>0.247244</v>
+        <v>0.247079</v>
       </c>
       <c r="D116" t="n">
-        <v>0.215293</v>
+        <v>0.21543</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.295085</v>
+        <v>0.295252</v>
       </c>
       <c r="C117" t="n">
-        <v>0.246025</v>
+        <v>0.246072</v>
       </c>
       <c r="D117" t="n">
-        <v>0.214922</v>
+        <v>0.215118</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.285548</v>
+        <v>0.285071</v>
       </c>
       <c r="C118" t="n">
-        <v>0.245259</v>
+        <v>0.245094</v>
       </c>
       <c r="D118" t="n">
-        <v>0.214201</v>
+        <v>0.214505</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.274942</v>
+        <v>0.274984</v>
       </c>
       <c r="C119" t="n">
-        <v>0.244435</v>
+        <v>0.244302</v>
       </c>
       <c r="D119" t="n">
-        <v>0.214049</v>
+        <v>0.21355</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.263224</v>
+        <v>0.263283</v>
       </c>
       <c r="C120" t="n">
-        <v>0.243671</v>
+        <v>0.243478</v>
       </c>
       <c r="D120" t="n">
-        <v>0.213095</v>
+        <v>0.213644</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.251328</v>
+        <v>0.25111</v>
       </c>
       <c r="C121" t="n">
-        <v>0.24288</v>
+        <v>0.242923</v>
       </c>
       <c r="D121" t="n">
-        <v>0.213192</v>
+        <v>0.212999</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.237385</v>
+        <v>0.237692</v>
       </c>
       <c r="C122" t="n">
-        <v>0.242155</v>
+        <v>0.24238</v>
       </c>
       <c r="D122" t="n">
-        <v>0.212743</v>
+        <v>0.212625</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.222679</v>
+        <v>0.223063</v>
       </c>
       <c r="C123" t="n">
-        <v>0.241938</v>
+        <v>0.241695</v>
       </c>
       <c r="D123" t="n">
-        <v>0.225063</v>
+        <v>0.212372</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.34889</v>
+        <v>0.348852</v>
       </c>
       <c r="C124" t="n">
-        <v>0.257261</v>
+        <v>0.257293</v>
       </c>
       <c r="D124" t="n">
-        <v>0.222959</v>
+        <v>0.226392</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.342736</v>
+        <v>0.343193</v>
       </c>
       <c r="C125" t="n">
-        <v>0.253887</v>
+        <v>0.254523</v>
       </c>
       <c r="D125" t="n">
-        <v>0.221913</v>
+        <v>0.223268</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.336248</v>
+        <v>0.336924</v>
       </c>
       <c r="C126" t="n">
-        <v>0.251999</v>
+        <v>0.251874</v>
       </c>
       <c r="D126" t="n">
-        <v>0.220507</v>
+        <v>0.220797</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.329386</v>
+        <v>0.329785</v>
       </c>
       <c r="C127" t="n">
-        <v>0.250026</v>
+        <v>0.249912</v>
       </c>
       <c r="D127" t="n">
-        <v>0.219708</v>
+        <v>0.219736</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.322005</v>
+        <v>0.322396</v>
       </c>
       <c r="C128" t="n">
-        <v>0.248599</v>
+        <v>0.248429</v>
       </c>
       <c r="D128" t="n">
-        <v>0.218271</v>
+        <v>0.218335</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.314172</v>
+        <v>0.314559</v>
       </c>
       <c r="C129" t="n">
-        <v>0.247276</v>
+        <v>0.247569</v>
       </c>
       <c r="D129" t="n">
-        <v>0.217175</v>
+        <v>0.218218</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.305764</v>
+        <v>0.30628</v>
       </c>
       <c r="C130" t="n">
-        <v>0.246614</v>
+        <v>0.246484</v>
       </c>
       <c r="D130" t="n">
-        <v>0.216635</v>
+        <v>0.216697</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.296835</v>
+        <v>0.297332</v>
       </c>
       <c r="C131" t="n">
-        <v>0.245391</v>
+        <v>0.245539</v>
       </c>
       <c r="D131" t="n">
-        <v>0.21517</v>
+        <v>0.215373</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.287319</v>
+        <v>0.287771</v>
       </c>
       <c r="C132" t="n">
-        <v>0.244484</v>
+        <v>0.244311</v>
       </c>
       <c r="D132" t="n">
-        <v>0.215957</v>
+        <v>0.215174</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.277285</v>
+        <v>0.2772</v>
       </c>
       <c r="C133" t="n">
-        <v>0.24414</v>
+        <v>0.244201</v>
       </c>
       <c r="D133" t="n">
-        <v>0.213791</v>
+        <v>0.214261</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.26608</v>
+        <v>0.265997</v>
       </c>
       <c r="C134" t="n">
-        <v>0.24335</v>
+        <v>0.243613</v>
       </c>
       <c r="D134" t="n">
-        <v>0.213833</v>
+        <v>0.214156</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.253628</v>
+        <v>0.254086</v>
       </c>
       <c r="C135" t="n">
-        <v>0.24278</v>
+        <v>0.242595</v>
       </c>
       <c r="D135" t="n">
-        <v>0.213741</v>
+        <v>0.214014</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.240596</v>
+        <v>0.240429</v>
       </c>
       <c r="C136" t="n">
-        <v>0.241746</v>
+        <v>0.242006</v>
       </c>
       <c r="D136" t="n">
-        <v>0.213351</v>
+        <v>0.213261</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.225845</v>
+        <v>0.226156</v>
       </c>
       <c r="C137" t="n">
-        <v>0.241527</v>
+        <v>0.241841</v>
       </c>
       <c r="D137" t="n">
-        <v>0.22889</v>
+        <v>0.213404</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.350125</v>
+        <v>0.350382</v>
       </c>
       <c r="C138" t="n">
-        <v>0.260344</v>
+        <v>0.2593</v>
       </c>
       <c r="D138" t="n">
-        <v>0.22598</v>
+        <v>0.231624</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.344243</v>
+        <v>0.34428</v>
       </c>
       <c r="C139" t="n">
-        <v>0.2556</v>
+        <v>0.256121</v>
       </c>
       <c r="D139" t="n">
-        <v>0.225002</v>
+        <v>0.227233</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.337736</v>
+        <v>0.337786</v>
       </c>
       <c r="C140" t="n">
-        <v>0.254037</v>
+        <v>0.252717</v>
       </c>
       <c r="D140" t="n">
-        <v>0.222823</v>
+        <v>0.224878</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331268</v>
+        <v>0.331117</v>
       </c>
       <c r="C141" t="n">
-        <v>0.251234</v>
+        <v>0.250874</v>
       </c>
       <c r="D141" t="n">
-        <v>0.221839</v>
+        <v>0.222192</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.324085</v>
+        <v>0.324316</v>
       </c>
       <c r="C142" t="n">
-        <v>0.249095</v>
+        <v>0.250286</v>
       </c>
       <c r="D142" t="n">
-        <v>0.219936</v>
+        <v>0.221928</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.316748</v>
+        <v>0.316531</v>
       </c>
       <c r="C143" t="n">
-        <v>0.248006</v>
+        <v>0.247921</v>
       </c>
       <c r="D143" t="n">
-        <v>0.220772</v>
+        <v>0.220775</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.296772</v>
+        <v>0.301514</v>
       </c>
       <c r="C2" t="n">
-        <v>0.223761</v>
+        <v>0.224368</v>
       </c>
       <c r="D2" t="n">
-        <v>0.197813</v>
+        <v>0.197791</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.28953</v>
+        <v>0.290163</v>
       </c>
       <c r="C3" t="n">
-        <v>0.224526</v>
+        <v>0.223093</v>
       </c>
       <c r="D3" t="n">
-        <v>0.198235</v>
+        <v>0.198909</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279837</v>
+        <v>0.280008</v>
       </c>
       <c r="C4" t="n">
-        <v>0.224266</v>
+        <v>0.224284</v>
       </c>
       <c r="D4" t="n">
-        <v>0.199753</v>
+        <v>0.201174</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.26932</v>
+        <v>0.274089</v>
       </c>
       <c r="C5" t="n">
-        <v>0.224761</v>
+        <v>0.22419</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200782</v>
+        <v>0.20024</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.257576</v>
+        <v>0.258351</v>
       </c>
       <c r="C6" t="n">
-        <v>0.22556</v>
+        <v>0.225289</v>
       </c>
       <c r="D6" t="n">
-        <v>0.20157</v>
+        <v>0.201349</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.244153</v>
+        <v>0.243795</v>
       </c>
       <c r="C7" t="n">
-        <v>0.226648</v>
+        <v>0.226381</v>
       </c>
       <c r="D7" t="n">
-        <v>0.201656</v>
+        <v>0.201361</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.231597</v>
+        <v>0.231742</v>
       </c>
       <c r="C8" t="n">
-        <v>0.225933</v>
+        <v>0.226586</v>
       </c>
       <c r="D8" t="n">
-        <v>0.202615</v>
+        <v>0.202845</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.219366</v>
+        <v>0.219717</v>
       </c>
       <c r="C9" t="n">
-        <v>0.227408</v>
+        <v>0.226381</v>
       </c>
       <c r="D9" t="n">
-        <v>0.202318</v>
+        <v>0.202168</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.344991</v>
+        <v>0.345064</v>
       </c>
       <c r="C10" t="n">
-        <v>0.245996</v>
+        <v>0.245662</v>
       </c>
       <c r="D10" t="n">
-        <v>0.217588</v>
+        <v>0.216555</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.340087</v>
+        <v>0.339526</v>
       </c>
       <c r="C11" t="n">
-        <v>0.244731</v>
+        <v>0.245171</v>
       </c>
       <c r="D11" t="n">
-        <v>0.215741</v>
+        <v>0.215599</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.332171</v>
+        <v>0.332209</v>
       </c>
       <c r="C12" t="n">
-        <v>0.244015</v>
+        <v>0.243929</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214225</v>
+        <v>0.214843</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.326014</v>
+        <v>0.326116</v>
       </c>
       <c r="C13" t="n">
-        <v>0.242431</v>
+        <v>0.243023</v>
       </c>
       <c r="D13" t="n">
-        <v>0.213731</v>
+        <v>0.213904</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.318497</v>
+        <v>0.318515</v>
       </c>
       <c r="C14" t="n">
-        <v>0.240664</v>
+        <v>0.24145</v>
       </c>
       <c r="D14" t="n">
-        <v>0.212155</v>
+        <v>0.212428</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.309889</v>
+        <v>0.310203</v>
       </c>
       <c r="C15" t="n">
-        <v>0.24013</v>
+        <v>0.239763</v>
       </c>
       <c r="D15" t="n">
-        <v>0.211005</v>
+        <v>0.210832</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.303024</v>
+        <v>0.303261</v>
       </c>
       <c r="C16" t="n">
-        <v>0.239742</v>
+        <v>0.240321</v>
       </c>
       <c r="D16" t="n">
-        <v>0.210383</v>
+        <v>0.21072</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.293148</v>
+        <v>0.293226</v>
       </c>
       <c r="C17" t="n">
-        <v>0.239646</v>
+        <v>0.240077</v>
       </c>
       <c r="D17" t="n">
-        <v>0.21075</v>
+        <v>0.211065</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.284895</v>
+        <v>0.284884</v>
       </c>
       <c r="C18" t="n">
-        <v>0.239572</v>
+        <v>0.23943</v>
       </c>
       <c r="D18" t="n">
-        <v>0.210977</v>
+        <v>0.210709</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.274809</v>
+        <v>0.274585</v>
       </c>
       <c r="C19" t="n">
-        <v>0.238456</v>
+        <v>0.237751</v>
       </c>
       <c r="D19" t="n">
-        <v>0.210056</v>
+        <v>0.210311</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.263468</v>
+        <v>0.2631</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2377</v>
+        <v>0.23787</v>
       </c>
       <c r="D20" t="n">
-        <v>0.210364</v>
+        <v>0.211027</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.252508</v>
+        <v>0.252538</v>
       </c>
       <c r="C21" t="n">
-        <v>0.23687</v>
+        <v>0.237515</v>
       </c>
       <c r="D21" t="n">
-        <v>0.210616</v>
+        <v>0.21052</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.240246</v>
+        <v>0.240464</v>
       </c>
       <c r="C22" t="n">
-        <v>0.237613</v>
+        <v>0.237686</v>
       </c>
       <c r="D22" t="n">
-        <v>0.209971</v>
+        <v>0.210025</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.226332</v>
+        <v>0.226628</v>
       </c>
       <c r="C23" t="n">
-        <v>0.23731</v>
+        <v>0.237484</v>
       </c>
       <c r="D23" t="n">
-        <v>0.209596</v>
+        <v>0.210179</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.34841</v>
+        <v>0.348692</v>
       </c>
       <c r="C24" t="n">
-        <v>0.254751</v>
+        <v>0.25493</v>
       </c>
       <c r="D24" t="n">
-        <v>0.225703</v>
+        <v>0.226254</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.341888</v>
+        <v>0.341877</v>
       </c>
       <c r="C25" t="n">
-        <v>0.253289</v>
+        <v>0.253157</v>
       </c>
       <c r="D25" t="n">
-        <v>0.222653</v>
+        <v>0.223274</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.336019</v>
+        <v>0.336412</v>
       </c>
       <c r="C26" t="n">
-        <v>0.250877</v>
+        <v>0.251159</v>
       </c>
       <c r="D26" t="n">
-        <v>0.220793</v>
+        <v>0.221047</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328922</v>
+        <v>0.328739</v>
       </c>
       <c r="C27" t="n">
-        <v>0.249017</v>
+        <v>0.249272</v>
       </c>
       <c r="D27" t="n">
-        <v>0.219373</v>
+        <v>0.219357</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.321615</v>
+        <v>0.322222</v>
       </c>
       <c r="C28" t="n">
-        <v>0.247342</v>
+        <v>0.247397</v>
       </c>
       <c r="D28" t="n">
-        <v>0.217315</v>
+        <v>0.21761</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.314561</v>
+        <v>0.31509</v>
       </c>
       <c r="C29" t="n">
-        <v>0.246558</v>
+        <v>0.246312</v>
       </c>
       <c r="D29" t="n">
-        <v>0.216517</v>
+        <v>0.216597</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.306462</v>
+        <v>0.307051</v>
       </c>
       <c r="C30" t="n">
-        <v>0.24491</v>
+        <v>0.244684</v>
       </c>
       <c r="D30" t="n">
-        <v>0.21513</v>
+        <v>0.215305</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.297995</v>
+        <v>0.298429</v>
       </c>
       <c r="C31" t="n">
-        <v>0.244283</v>
+        <v>0.244092</v>
       </c>
       <c r="D31" t="n">
-        <v>0.214279</v>
+        <v>0.214323</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.289007</v>
+        <v>0.289326</v>
       </c>
       <c r="C32" t="n">
-        <v>0.243663</v>
+        <v>0.243625</v>
       </c>
       <c r="D32" t="n">
-        <v>0.214071</v>
+        <v>0.214085</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.279836</v>
+        <v>0.279653</v>
       </c>
       <c r="C33" t="n">
-        <v>0.242783</v>
+        <v>0.243041</v>
       </c>
       <c r="D33" t="n">
-        <v>0.213985</v>
+        <v>0.213908</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.26889</v>
+        <v>0.2691</v>
       </c>
       <c r="C34" t="n">
-        <v>0.242146</v>
+        <v>0.241861</v>
       </c>
       <c r="D34" t="n">
-        <v>0.212836</v>
+        <v>0.213243</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.257882</v>
+        <v>0.25791</v>
       </c>
       <c r="C35" t="n">
-        <v>0.242228</v>
+        <v>0.242311</v>
       </c>
       <c r="D35" t="n">
-        <v>0.212239</v>
+        <v>0.212471</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244964</v>
+        <v>0.244835</v>
       </c>
       <c r="C36" t="n">
-        <v>0.241607</v>
+        <v>0.242472</v>
       </c>
       <c r="D36" t="n">
-        <v>0.21274</v>
+        <v>0.213048</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.230939</v>
+        <v>0.230819</v>
       </c>
       <c r="C37" t="n">
-        <v>0.241274</v>
+        <v>0.241373</v>
       </c>
       <c r="D37" t="n">
-        <v>0.213392</v>
+        <v>0.213484</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.349548</v>
+        <v>0.349685</v>
       </c>
       <c r="C38" t="n">
-        <v>0.261121</v>
+        <v>0.260954</v>
       </c>
       <c r="D38" t="n">
-        <v>0.23042</v>
+        <v>0.230114</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.344765</v>
+        <v>0.34467</v>
       </c>
       <c r="C39" t="n">
-        <v>0.257632</v>
+        <v>0.257732</v>
       </c>
       <c r="D39" t="n">
-        <v>0.226885</v>
+        <v>0.227271</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.338555</v>
+        <v>0.338542</v>
       </c>
       <c r="C40" t="n">
-        <v>0.254742</v>
+        <v>0.254673</v>
       </c>
       <c r="D40" t="n">
-        <v>0.225676</v>
+        <v>0.225697</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.332146</v>
+        <v>0.331876</v>
       </c>
       <c r="C41" t="n">
-        <v>0.251572</v>
+        <v>0.251465</v>
       </c>
       <c r="D41" t="n">
-        <v>0.220676</v>
+        <v>0.220941</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.324704</v>
+        <v>0.324578</v>
       </c>
       <c r="C42" t="n">
-        <v>0.250696</v>
+        <v>0.250777</v>
       </c>
       <c r="D42" t="n">
-        <v>0.218752</v>
+        <v>0.218868</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.317074</v>
+        <v>0.316992</v>
       </c>
       <c r="C43" t="n">
-        <v>0.249201</v>
+        <v>0.249131</v>
       </c>
       <c r="D43" t="n">
-        <v>0.217559</v>
+        <v>0.217534</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.309281</v>
+        <v>0.309531</v>
       </c>
       <c r="C44" t="n">
-        <v>0.247675</v>
+        <v>0.247987</v>
       </c>
       <c r="D44" t="n">
-        <v>0.21583</v>
+        <v>0.215806</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300655</v>
+        <v>0.300503</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246856</v>
+        <v>0.246757</v>
       </c>
       <c r="D45" t="n">
-        <v>0.214855</v>
+        <v>0.214814</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.292031</v>
+        <v>0.292092</v>
       </c>
       <c r="C46" t="n">
-        <v>0.245956</v>
+        <v>0.245882</v>
       </c>
       <c r="D46" t="n">
-        <v>0.21412</v>
+        <v>0.214214</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.282601</v>
+        <v>0.282844</v>
       </c>
       <c r="C47" t="n">
-        <v>0.244827</v>
+        <v>0.244858</v>
       </c>
       <c r="D47" t="n">
-        <v>0.214266</v>
+        <v>0.214444</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.271801</v>
+        <v>0.272088</v>
       </c>
       <c r="C48" t="n">
-        <v>0.243639</v>
+        <v>0.243727</v>
       </c>
       <c r="D48" t="n">
-        <v>0.213257</v>
+        <v>0.213304</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.26081</v>
+        <v>0.261037</v>
       </c>
       <c r="C49" t="n">
-        <v>0.243267</v>
+        <v>0.243085</v>
       </c>
       <c r="D49" t="n">
-        <v>0.212905</v>
+        <v>0.213114</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.248531</v>
+        <v>0.248994</v>
       </c>
       <c r="C50" t="n">
-        <v>0.242731</v>
+        <v>0.243091</v>
       </c>
       <c r="D50" t="n">
-        <v>0.212576</v>
+        <v>0.213022</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.234982</v>
+        <v>0.234942</v>
       </c>
       <c r="C51" t="n">
-        <v>0.242033</v>
+        <v>0.242157</v>
       </c>
       <c r="D51" t="n">
-        <v>0.212653</v>
+        <v>0.212618</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.219993</v>
+        <v>0.220087</v>
       </c>
       <c r="C52" t="n">
-        <v>0.241169</v>
+        <v>0.241458</v>
       </c>
       <c r="D52" t="n">
-        <v>0.216778</v>
+        <v>0.216985</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.347137</v>
+        <v>0.347061</v>
       </c>
       <c r="C53" t="n">
-        <v>0.257724</v>
+        <v>0.257301</v>
       </c>
       <c r="D53" t="n">
-        <v>0.226261</v>
+        <v>0.225764</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.341209</v>
+        <v>0.34095</v>
       </c>
       <c r="C54" t="n">
-        <v>0.254398</v>
+        <v>0.254859</v>
       </c>
       <c r="D54" t="n">
-        <v>0.223051</v>
+        <v>0.223024</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.335061</v>
+        <v>0.335207</v>
       </c>
       <c r="C55" t="n">
-        <v>0.252084</v>
+        <v>0.252122</v>
       </c>
       <c r="D55" t="n">
-        <v>0.220906</v>
+        <v>0.220805</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.327357</v>
+        <v>0.327381</v>
       </c>
       <c r="C56" t="n">
-        <v>0.250583</v>
+        <v>0.250698</v>
       </c>
       <c r="D56" t="n">
-        <v>0.219443</v>
+        <v>0.219524</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.320618</v>
+        <v>0.320365</v>
       </c>
       <c r="C57" t="n">
-        <v>0.249203</v>
+        <v>0.249214</v>
       </c>
       <c r="D57" t="n">
-        <v>0.217786</v>
+        <v>0.217713</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.313097</v>
+        <v>0.312814</v>
       </c>
       <c r="C58" t="n">
-        <v>0.247818</v>
+        <v>0.247779</v>
       </c>
       <c r="D58" t="n">
-        <v>0.216842</v>
+        <v>0.216939</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304404</v>
+        <v>0.304441</v>
       </c>
       <c r="C59" t="n">
-        <v>0.246773</v>
+        <v>0.246765</v>
       </c>
       <c r="D59" t="n">
-        <v>0.215627</v>
+        <v>0.215665</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294666</v>
+        <v>0.294432</v>
       </c>
       <c r="C60" t="n">
-        <v>0.245933</v>
+        <v>0.245918</v>
       </c>
       <c r="D60" t="n">
-        <v>0.214713</v>
+        <v>0.214717</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.285083</v>
+        <v>0.284974</v>
       </c>
       <c r="C61" t="n">
-        <v>0.245285</v>
+        <v>0.24534</v>
       </c>
       <c r="D61" t="n">
-        <v>0.213967</v>
+        <v>0.214175</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.274655</v>
+        <v>0.274622</v>
       </c>
       <c r="C62" t="n">
-        <v>0.244209</v>
+        <v>0.244317</v>
       </c>
       <c r="D62" t="n">
-        <v>0.213494</v>
+        <v>0.213425</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263143</v>
+        <v>0.263268</v>
       </c>
       <c r="C63" t="n">
-        <v>0.24341</v>
+        <v>0.243224</v>
       </c>
       <c r="D63" t="n">
-        <v>0.213023</v>
+        <v>0.213121</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.251013</v>
+        <v>0.250944</v>
       </c>
       <c r="C64" t="n">
-        <v>0.243057</v>
+        <v>0.242842</v>
       </c>
       <c r="D64" t="n">
-        <v>0.212712</v>
+        <v>0.212716</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.237693</v>
+        <v>0.237787</v>
       </c>
       <c r="C65" t="n">
-        <v>0.242242</v>
+        <v>0.242291</v>
       </c>
       <c r="D65" t="n">
-        <v>0.213151</v>
+        <v>0.21239</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.223485</v>
+        <v>0.223393</v>
       </c>
       <c r="C66" t="n">
-        <v>0.241543</v>
+        <v>0.24144</v>
       </c>
       <c r="D66" t="n">
-        <v>0.213977</v>
+        <v>0.213591</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.349102</v>
+        <v>0.348989</v>
       </c>
       <c r="C67" t="n">
-        <v>0.259451</v>
+        <v>0.25951</v>
       </c>
       <c r="D67" t="n">
-        <v>0.22801</v>
+        <v>0.228046</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.343171</v>
+        <v>0.342827</v>
       </c>
       <c r="C68" t="n">
-        <v>0.255812</v>
+        <v>0.255677</v>
       </c>
       <c r="D68" t="n">
-        <v>0.224119</v>
+        <v>0.224069</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.336784</v>
+        <v>0.336825</v>
       </c>
       <c r="C69" t="n">
-        <v>0.25289</v>
+        <v>0.252864</v>
       </c>
       <c r="D69" t="n">
-        <v>0.220937</v>
+        <v>0.220924</v>
       </c>
     </row>
     <row r="70">
@@ -4204,10 +4204,10 @@
         <v>0.329999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.251109</v>
+        <v>0.251173</v>
       </c>
       <c r="D70" t="n">
-        <v>0.219176</v>
+        <v>0.219081</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.322761</v>
+        <v>0.322618</v>
       </c>
       <c r="C71" t="n">
-        <v>0.249786</v>
+        <v>0.249764</v>
       </c>
       <c r="D71" t="n">
-        <v>0.218032</v>
+        <v>0.217986</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.315379</v>
+        <v>0.315267</v>
       </c>
       <c r="C72" t="n">
-        <v>0.248529</v>
+        <v>0.248366</v>
       </c>
       <c r="D72" t="n">
-        <v>0.216799</v>
+        <v>0.216648</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.306742</v>
+        <v>0.306752</v>
       </c>
       <c r="C73" t="n">
-        <v>0.247309</v>
+        <v>0.247192</v>
       </c>
       <c r="D73" t="n">
-        <v>0.215766</v>
+        <v>0.215653</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.298219</v>
+        <v>0.298169</v>
       </c>
       <c r="C74" t="n">
-        <v>0.246145</v>
+        <v>0.246139</v>
       </c>
       <c r="D74" t="n">
-        <v>0.2147</v>
+        <v>0.214727</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.288752</v>
+        <v>0.288748</v>
       </c>
       <c r="C75" t="n">
-        <v>0.24536</v>
+        <v>0.245358</v>
       </c>
       <c r="D75" t="n">
-        <v>0.214346</v>
+        <v>0.214206</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.278357</v>
+        <v>0.2783</v>
       </c>
       <c r="C76" t="n">
-        <v>0.244576</v>
+        <v>0.24462</v>
       </c>
       <c r="D76" t="n">
-        <v>0.213541</v>
+        <v>0.213408</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.267448</v>
+        <v>0.267314</v>
       </c>
       <c r="C77" t="n">
-        <v>0.24354</v>
+        <v>0.243504</v>
       </c>
       <c r="D77" t="n">
-        <v>0.213043</v>
+        <v>0.212878</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.254824</v>
+        <v>0.254842</v>
       </c>
       <c r="C78" t="n">
-        <v>0.242659</v>
+        <v>0.242592</v>
       </c>
       <c r="D78" t="n">
-        <v>0.212585</v>
+        <v>0.212677</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.242352</v>
+        <v>0.241851</v>
       </c>
       <c r="C79" t="n">
-        <v>0.242285</v>
+        <v>0.242191</v>
       </c>
       <c r="D79" t="n">
-        <v>0.212275</v>
+        <v>0.212289</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227341</v>
+        <v>0.227256</v>
       </c>
       <c r="C80" t="n">
-        <v>0.24196</v>
+        <v>0.242068</v>
       </c>
       <c r="D80" t="n">
-        <v>0.212584</v>
+        <v>0.212648</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.350428</v>
+        <v>0.350628</v>
       </c>
       <c r="C81" t="n">
-        <v>0.258668</v>
+        <v>0.258924</v>
       </c>
       <c r="D81" t="n">
-        <v>0.227609</v>
+        <v>0.227605</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.344765</v>
+        <v>0.344639</v>
       </c>
       <c r="C82" t="n">
-        <v>0.255203</v>
+        <v>0.25537</v>
       </c>
       <c r="D82" t="n">
-        <v>0.223971</v>
+        <v>0.223998</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.338105</v>
+        <v>0.338268</v>
       </c>
       <c r="C83" t="n">
-        <v>0.252814</v>
+        <v>0.25276</v>
       </c>
       <c r="D83" t="n">
-        <v>0.221144</v>
+        <v>0.221178</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.331486</v>
+        <v>0.331682</v>
       </c>
       <c r="C84" t="n">
-        <v>0.250864</v>
+        <v>0.250717</v>
       </c>
       <c r="D84" t="n">
-        <v>0.219278</v>
+        <v>0.219279</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.324504</v>
+        <v>0.324455</v>
       </c>
       <c r="C85" t="n">
-        <v>0.249501</v>
+        <v>0.249589</v>
       </c>
       <c r="D85" t="n">
-        <v>0.218199</v>
+        <v>0.218129</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.316699</v>
+        <v>0.31677</v>
       </c>
       <c r="C86" t="n">
-        <v>0.248403</v>
+        <v>0.248243</v>
       </c>
       <c r="D86" t="n">
-        <v>0.216973</v>
+        <v>0.216771</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.308627</v>
+        <v>0.308728</v>
       </c>
       <c r="C87" t="n">
-        <v>0.247252</v>
+        <v>0.247231</v>
       </c>
       <c r="D87" t="n">
-        <v>0.215988</v>
+        <v>0.21583</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.30003</v>
+        <v>0.300041</v>
       </c>
       <c r="C88" t="n">
-        <v>0.246503</v>
+        <v>0.246463</v>
       </c>
       <c r="D88" t="n">
-        <v>0.215119</v>
+        <v>0.215048</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.290671</v>
+        <v>0.291028</v>
       </c>
       <c r="C89" t="n">
-        <v>0.245468</v>
+        <v>0.245454</v>
       </c>
       <c r="D89" t="n">
-        <v>0.214373</v>
+        <v>0.214415</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.280527</v>
+        <v>0.280949</v>
       </c>
       <c r="C90" t="n">
-        <v>0.244655</v>
+        <v>0.2447</v>
       </c>
       <c r="D90" t="n">
-        <v>0.213707</v>
+        <v>0.213688</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.269649</v>
+        <v>0.269896</v>
       </c>
       <c r="C91" t="n">
-        <v>0.24379</v>
+        <v>0.243792</v>
       </c>
       <c r="D91" t="n">
-        <v>0.212997</v>
+        <v>0.212988</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.257846</v>
+        <v>0.258237</v>
       </c>
       <c r="C92" t="n">
-        <v>0.242979</v>
+        <v>0.243178</v>
       </c>
       <c r="D92" t="n">
-        <v>0.212519</v>
+        <v>0.212636</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.244642</v>
+        <v>0.244939</v>
       </c>
       <c r="C93" t="n">
-        <v>0.242456</v>
+        <v>0.242567</v>
       </c>
       <c r="D93" t="n">
-        <v>0.212339</v>
+        <v>0.212206</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.23092</v>
+        <v>0.230883</v>
       </c>
       <c r="C94" t="n">
-        <v>0.242035</v>
+        <v>0.242016</v>
       </c>
       <c r="D94" t="n">
-        <v>0.212321</v>
+        <v>0.212232</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.351689</v>
+        <v>0.351888</v>
       </c>
       <c r="C95" t="n">
-        <v>0.259535</v>
+        <v>0.25952</v>
       </c>
       <c r="D95" t="n">
-        <v>0.228011</v>
+        <v>0.227968</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.346289</v>
+        <v>0.346035</v>
       </c>
       <c r="C96" t="n">
-        <v>0.256104</v>
+        <v>0.256224</v>
       </c>
       <c r="D96" t="n">
-        <v>0.224577</v>
+        <v>0.224462</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.340021</v>
+        <v>0.340227</v>
       </c>
       <c r="C97" t="n">
-        <v>0.253578</v>
+        <v>0.253613</v>
       </c>
       <c r="D97" t="n">
-        <v>0.221906</v>
+        <v>0.221858</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.333476</v>
+        <v>0.333659</v>
       </c>
       <c r="C98" t="n">
-        <v>0.251452</v>
+        <v>0.251476</v>
       </c>
       <c r="D98" t="n">
-        <v>0.219716</v>
+        <v>0.21971</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.32639</v>
+        <v>0.326363</v>
       </c>
       <c r="C99" t="n">
-        <v>0.250054</v>
+        <v>0.250056</v>
       </c>
       <c r="D99" t="n">
-        <v>0.218353</v>
+        <v>0.218257</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.318973</v>
+        <v>0.318904</v>
       </c>
       <c r="C100" t="n">
-        <v>0.248746</v>
+        <v>0.248733</v>
       </c>
       <c r="D100" t="n">
-        <v>0.216935</v>
+        <v>0.217057</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.310825</v>
+        <v>0.310732</v>
       </c>
       <c r="C101" t="n">
-        <v>0.247644</v>
+        <v>0.247551</v>
       </c>
       <c r="D101" t="n">
-        <v>0.216017</v>
+        <v>0.216001</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302055</v>
+        <v>0.302034</v>
       </c>
       <c r="C102" t="n">
-        <v>0.24675</v>
+        <v>0.246658</v>
       </c>
       <c r="D102" t="n">
-        <v>0.215208</v>
+        <v>0.215335</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.292714</v>
+        <v>0.292754</v>
       </c>
       <c r="C103" t="n">
-        <v>0.245722</v>
+        <v>0.245759</v>
       </c>
       <c r="D103" t="n">
-        <v>0.214485</v>
+        <v>0.214513</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.283162</v>
+        <v>0.282982</v>
       </c>
       <c r="C104" t="n">
-        <v>0.244977</v>
+        <v>0.245049</v>
       </c>
       <c r="D104" t="n">
-        <v>0.213882</v>
+        <v>0.213836</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.272479</v>
+        <v>0.272423</v>
       </c>
       <c r="C105" t="n">
-        <v>0.244034</v>
+        <v>0.244076</v>
       </c>
       <c r="D105" t="n">
-        <v>0.21298</v>
+        <v>0.213159</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.26045</v>
+        <v>0.260643</v>
       </c>
       <c r="C106" t="n">
-        <v>0.243185</v>
+        <v>0.243287</v>
       </c>
       <c r="D106" t="n">
-        <v>0.212503</v>
+        <v>0.212568</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.24761</v>
+        <v>0.247588</v>
       </c>
       <c r="C107" t="n">
-        <v>0.242499</v>
+        <v>0.242629</v>
       </c>
       <c r="D107" t="n">
-        <v>0.212264</v>
+        <v>0.212286</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.234058</v>
+        <v>0.234008</v>
       </c>
       <c r="C108" t="n">
-        <v>0.242</v>
+        <v>0.241988</v>
       </c>
       <c r="D108" t="n">
-        <v>0.211951</v>
+        <v>0.212221</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.219267</v>
+        <v>0.219141</v>
       </c>
       <c r="C109" t="n">
-        <v>0.24166</v>
+        <v>0.241632</v>
       </c>
       <c r="D109" t="n">
-        <v>0.21231</v>
+        <v>0.212263</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.347235</v>
+        <v>0.347386</v>
       </c>
       <c r="C110" t="n">
-        <v>0.256536</v>
+        <v>0.256537</v>
       </c>
       <c r="D110" t="n">
-        <v>0.225</v>
+        <v>0.224895</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.34133</v>
+        <v>0.341275</v>
       </c>
       <c r="C111" t="n">
-        <v>0.253645</v>
+        <v>0.25367</v>
       </c>
       <c r="D111" t="n">
-        <v>0.222129</v>
+        <v>0.222138</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.334937</v>
+        <v>0.334811</v>
       </c>
       <c r="C112" t="n">
-        <v>0.251856</v>
+        <v>0.251581</v>
       </c>
       <c r="D112" t="n">
-        <v>0.22019</v>
+        <v>0.220318</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.327851</v>
+        <v>0.327839</v>
       </c>
       <c r="C113" t="n">
-        <v>0.250209</v>
+        <v>0.250433</v>
       </c>
       <c r="D113" t="n">
-        <v>0.218691</v>
+        <v>0.21874</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.320114</v>
+        <v>0.32058</v>
       </c>
       <c r="C114" t="n">
-        <v>0.249079</v>
+        <v>0.24912</v>
       </c>
       <c r="D114" t="n">
-        <v>0.217345</v>
+        <v>0.217419</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.312428</v>
+        <v>0.312402</v>
       </c>
       <c r="C115" t="n">
-        <v>0.247809</v>
+        <v>0.247892</v>
       </c>
       <c r="D115" t="n">
-        <v>0.216601</v>
+        <v>0.216324</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304152</v>
+        <v>0.304147</v>
       </c>
       <c r="C116" t="n">
-        <v>0.247079</v>
+        <v>0.246856</v>
       </c>
       <c r="D116" t="n">
-        <v>0.21543</v>
+        <v>0.215583</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.295252</v>
+        <v>0.295231</v>
       </c>
       <c r="C117" t="n">
-        <v>0.246072</v>
+        <v>0.246134</v>
       </c>
       <c r="D117" t="n">
-        <v>0.215118</v>
+        <v>0.214914</v>
       </c>
     </row>
     <row r="118">
@@ -4873,10 +4873,10 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.285071</v>
+        <v>0.285268</v>
       </c>
       <c r="C118" t="n">
-        <v>0.245094</v>
+        <v>0.245257</v>
       </c>
       <c r="D118" t="n">
         <v>0.214505</v>
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.274984</v>
+        <v>0.274948</v>
       </c>
       <c r="C119" t="n">
-        <v>0.244302</v>
+        <v>0.244367</v>
       </c>
       <c r="D119" t="n">
-        <v>0.21355</v>
+        <v>0.213681</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.263283</v>
+        <v>0.263374</v>
       </c>
       <c r="C120" t="n">
-        <v>0.243478</v>
+        <v>0.243725</v>
       </c>
       <c r="D120" t="n">
-        <v>0.213644</v>
+        <v>0.213327</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.25111</v>
+        <v>0.250917</v>
       </c>
       <c r="C121" t="n">
-        <v>0.242923</v>
+        <v>0.242968</v>
       </c>
       <c r="D121" t="n">
-        <v>0.212999</v>
+        <v>0.212697</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.237692</v>
+        <v>0.237767</v>
       </c>
       <c r="C122" t="n">
-        <v>0.24238</v>
+        <v>0.242289</v>
       </c>
       <c r="D122" t="n">
-        <v>0.212625</v>
+        <v>0.212778</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.223063</v>
+        <v>0.222761</v>
       </c>
       <c r="C123" t="n">
-        <v>0.241695</v>
+        <v>0.241527</v>
       </c>
       <c r="D123" t="n">
-        <v>0.212372</v>
+        <v>0.212575</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.348852</v>
+        <v>0.348987</v>
       </c>
       <c r="C124" t="n">
-        <v>0.257293</v>
+        <v>0.257362</v>
       </c>
       <c r="D124" t="n">
-        <v>0.226392</v>
+        <v>0.22668</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.343193</v>
+        <v>0.343119</v>
       </c>
       <c r="C125" t="n">
-        <v>0.254523</v>
+        <v>0.254101</v>
       </c>
       <c r="D125" t="n">
-        <v>0.223268</v>
+        <v>0.224425</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.336924</v>
+        <v>0.336383</v>
       </c>
       <c r="C126" t="n">
-        <v>0.251874</v>
+        <v>0.2518</v>
       </c>
       <c r="D126" t="n">
-        <v>0.220797</v>
+        <v>0.220805</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.329785</v>
+        <v>0.329336</v>
       </c>
       <c r="C127" t="n">
-        <v>0.249912</v>
+        <v>0.249573</v>
       </c>
       <c r="D127" t="n">
-        <v>0.219736</v>
+        <v>0.219837</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.322396</v>
+        <v>0.322153</v>
       </c>
       <c r="C128" t="n">
-        <v>0.248429</v>
+        <v>0.248551</v>
       </c>
       <c r="D128" t="n">
-        <v>0.218335</v>
+        <v>0.218987</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.314559</v>
+        <v>0.31436</v>
       </c>
       <c r="C129" t="n">
-        <v>0.247569</v>
+        <v>0.247526</v>
       </c>
       <c r="D129" t="n">
-        <v>0.218218</v>
+        <v>0.217672</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.30628</v>
+        <v>0.305844</v>
       </c>
       <c r="C130" t="n">
-        <v>0.246484</v>
+        <v>0.24668</v>
       </c>
       <c r="D130" t="n">
-        <v>0.216697</v>
+        <v>0.215941</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.297332</v>
+        <v>0.297389</v>
       </c>
       <c r="C131" t="n">
-        <v>0.245539</v>
+        <v>0.245723</v>
       </c>
       <c r="D131" t="n">
-        <v>0.215373</v>
+        <v>0.215849</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.287771</v>
+        <v>0.288013</v>
       </c>
       <c r="C132" t="n">
-        <v>0.244311</v>
+        <v>0.244233</v>
       </c>
       <c r="D132" t="n">
-        <v>0.215174</v>
+        <v>0.215445</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.2772</v>
+        <v>0.277372</v>
       </c>
       <c r="C133" t="n">
-        <v>0.244201</v>
+        <v>0.244183</v>
       </c>
       <c r="D133" t="n">
-        <v>0.214261</v>
+        <v>0.214446</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.265997</v>
+        <v>0.265867</v>
       </c>
       <c r="C134" t="n">
-        <v>0.243613</v>
+        <v>0.243369</v>
       </c>
       <c r="D134" t="n">
-        <v>0.214156</v>
+        <v>0.213614</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.254086</v>
+        <v>0.253943</v>
       </c>
       <c r="C135" t="n">
-        <v>0.242595</v>
+        <v>0.242691</v>
       </c>
       <c r="D135" t="n">
-        <v>0.214014</v>
+        <v>0.213617</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.240429</v>
+        <v>0.240478</v>
       </c>
       <c r="C136" t="n">
-        <v>0.242006</v>
+        <v>0.242088</v>
       </c>
       <c r="D136" t="n">
-        <v>0.213261</v>
+        <v>0.213284</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.226156</v>
+        <v>0.226358</v>
       </c>
       <c r="C137" t="n">
-        <v>0.241841</v>
+        <v>0.241775</v>
       </c>
       <c r="D137" t="n">
-        <v>0.213404</v>
+        <v>0.212336</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.350382</v>
+        <v>0.350521</v>
       </c>
       <c r="C138" t="n">
-        <v>0.2593</v>
+        <v>0.25831</v>
       </c>
       <c r="D138" t="n">
-        <v>0.231624</v>
+        <v>0.231583</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.34428</v>
+        <v>0.344459</v>
       </c>
       <c r="C139" t="n">
-        <v>0.256121</v>
+        <v>0.255654</v>
       </c>
       <c r="D139" t="n">
-        <v>0.227233</v>
+        <v>0.22756</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.337786</v>
+        <v>0.338161</v>
       </c>
       <c r="C140" t="n">
-        <v>0.252717</v>
+        <v>0.252928</v>
       </c>
       <c r="D140" t="n">
-        <v>0.224878</v>
+        <v>0.224847</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331117</v>
+        <v>0.331831</v>
       </c>
       <c r="C141" t="n">
-        <v>0.250874</v>
+        <v>0.25136</v>
       </c>
       <c r="D141" t="n">
-        <v>0.222192</v>
+        <v>0.222483</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.324316</v>
+        <v>0.324349</v>
       </c>
       <c r="C142" t="n">
-        <v>0.250286</v>
+        <v>0.249628</v>
       </c>
       <c r="D142" t="n">
-        <v>0.221928</v>
+        <v>0.22371</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.316531</v>
+        <v>0.316378</v>
       </c>
       <c r="C143" t="n">
-        <v>0.247921</v>
+        <v>0.24787</v>
       </c>
       <c r="D143" t="n">
-        <v>0.220775</v>
+        <v>0.2218</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.301514</v>
+        <v>0.296627</v>
       </c>
       <c r="C2" t="n">
-        <v>0.224368</v>
+        <v>0.224751</v>
       </c>
       <c r="D2" t="n">
-        <v>0.197791</v>
+        <v>0.198576</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.290163</v>
+        <v>0.290028</v>
       </c>
       <c r="C3" t="n">
-        <v>0.223093</v>
+        <v>0.223841</v>
       </c>
       <c r="D3" t="n">
-        <v>0.198909</v>
+        <v>0.198398</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.280008</v>
+        <v>0.280127</v>
       </c>
       <c r="C4" t="n">
-        <v>0.224284</v>
+        <v>0.225439</v>
       </c>
       <c r="D4" t="n">
-        <v>0.201174</v>
+        <v>0.201087</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.274089</v>
+        <v>0.270015</v>
       </c>
       <c r="C5" t="n">
-        <v>0.22419</v>
+        <v>0.225705</v>
       </c>
       <c r="D5" t="n">
-        <v>0.20024</v>
+        <v>0.20012</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.258351</v>
+        <v>0.257618</v>
       </c>
       <c r="C6" t="n">
-        <v>0.225289</v>
+        <v>0.225249</v>
       </c>
       <c r="D6" t="n">
-        <v>0.201349</v>
+        <v>0.200622</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.243795</v>
+        <v>0.245226</v>
       </c>
       <c r="C7" t="n">
-        <v>0.226381</v>
+        <v>0.225647</v>
       </c>
       <c r="D7" t="n">
-        <v>0.201361</v>
+        <v>0.201808</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.231742</v>
+        <v>0.233532</v>
       </c>
       <c r="C8" t="n">
-        <v>0.226586</v>
+        <v>0.226123</v>
       </c>
       <c r="D8" t="n">
-        <v>0.202845</v>
+        <v>0.202467</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.219717</v>
+        <v>0.218479</v>
       </c>
       <c r="C9" t="n">
-        <v>0.226381</v>
+        <v>0.22649</v>
       </c>
       <c r="D9" t="n">
-        <v>0.202168</v>
+        <v>0.202652</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.345064</v>
+        <v>0.344011</v>
       </c>
       <c r="C10" t="n">
-        <v>0.245662</v>
+        <v>0.245748</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216555</v>
+        <v>0.216608</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.339526</v>
+        <v>0.3402</v>
       </c>
       <c r="C11" t="n">
-        <v>0.245171</v>
+        <v>0.245432</v>
       </c>
       <c r="D11" t="n">
-        <v>0.215599</v>
+        <v>0.214795</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.332209</v>
+        <v>0.332346</v>
       </c>
       <c r="C12" t="n">
-        <v>0.243929</v>
+        <v>0.243735</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214843</v>
+        <v>0.214567</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.326116</v>
+        <v>0.327145</v>
       </c>
       <c r="C13" t="n">
-        <v>0.243023</v>
+        <v>0.2425</v>
       </c>
       <c r="D13" t="n">
-        <v>0.213904</v>
+        <v>0.21288</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.318515</v>
+        <v>0.318417</v>
       </c>
       <c r="C14" t="n">
-        <v>0.24145</v>
+        <v>0.240894</v>
       </c>
       <c r="D14" t="n">
-        <v>0.212428</v>
+        <v>0.211509</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.310203</v>
+        <v>0.309918</v>
       </c>
       <c r="C15" t="n">
-        <v>0.239763</v>
+        <v>0.240337</v>
       </c>
       <c r="D15" t="n">
-        <v>0.210832</v>
+        <v>0.210668</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.303261</v>
+        <v>0.302362</v>
       </c>
       <c r="C16" t="n">
-        <v>0.240321</v>
+        <v>0.239883</v>
       </c>
       <c r="D16" t="n">
-        <v>0.21072</v>
+        <v>0.210504</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.293226</v>
+        <v>0.292923</v>
       </c>
       <c r="C17" t="n">
-        <v>0.240077</v>
+        <v>0.239428</v>
       </c>
       <c r="D17" t="n">
-        <v>0.211065</v>
+        <v>0.210131</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.284884</v>
+        <v>0.285009</v>
       </c>
       <c r="C18" t="n">
-        <v>0.23943</v>
+        <v>0.238983</v>
       </c>
       <c r="D18" t="n">
-        <v>0.210709</v>
+        <v>0.211046</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.274585</v>
+        <v>0.275372</v>
       </c>
       <c r="C19" t="n">
-        <v>0.237751</v>
+        <v>0.237511</v>
       </c>
       <c r="D19" t="n">
-        <v>0.210311</v>
+        <v>0.209315</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2631</v>
+        <v>0.263408</v>
       </c>
       <c r="C20" t="n">
-        <v>0.23787</v>
+        <v>0.237842</v>
       </c>
       <c r="D20" t="n">
-        <v>0.211027</v>
+        <v>0.210619</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.252538</v>
+        <v>0.252371</v>
       </c>
       <c r="C21" t="n">
-        <v>0.237515</v>
+        <v>0.236915</v>
       </c>
       <c r="D21" t="n">
-        <v>0.21052</v>
+        <v>0.210683</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.240464</v>
+        <v>0.240148</v>
       </c>
       <c r="C22" t="n">
-        <v>0.237686</v>
+        <v>0.237408</v>
       </c>
       <c r="D22" t="n">
-        <v>0.210025</v>
+        <v>0.209639</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.226628</v>
+        <v>0.22666</v>
       </c>
       <c r="C23" t="n">
-        <v>0.237484</v>
+        <v>0.237384</v>
       </c>
       <c r="D23" t="n">
-        <v>0.210179</v>
+        <v>0.210016</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348692</v>
+        <v>0.348271</v>
       </c>
       <c r="C24" t="n">
-        <v>0.25493</v>
+        <v>0.254499</v>
       </c>
       <c r="D24" t="n">
-        <v>0.226254</v>
+        <v>0.225577</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.341877</v>
+        <v>0.341953</v>
       </c>
       <c r="C25" t="n">
-        <v>0.253157</v>
+        <v>0.253099</v>
       </c>
       <c r="D25" t="n">
-        <v>0.223274</v>
+        <v>0.222974</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.336412</v>
+        <v>0.336168</v>
       </c>
       <c r="C26" t="n">
-        <v>0.251159</v>
+        <v>0.250358</v>
       </c>
       <c r="D26" t="n">
-        <v>0.221047</v>
+        <v>0.220964</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328739</v>
+        <v>0.328401</v>
       </c>
       <c r="C27" t="n">
-        <v>0.249272</v>
+        <v>0.248986</v>
       </c>
       <c r="D27" t="n">
-        <v>0.219357</v>
+        <v>0.219099</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.322222</v>
+        <v>0.321714</v>
       </c>
       <c r="C28" t="n">
-        <v>0.247397</v>
+        <v>0.247339</v>
       </c>
       <c r="D28" t="n">
-        <v>0.21761</v>
+        <v>0.217034</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.31509</v>
+        <v>0.314551</v>
       </c>
       <c r="C29" t="n">
-        <v>0.246312</v>
+        <v>0.246206</v>
       </c>
       <c r="D29" t="n">
-        <v>0.216597</v>
+        <v>0.216218</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.307051</v>
+        <v>0.306544</v>
       </c>
       <c r="C30" t="n">
-        <v>0.244684</v>
+        <v>0.245124</v>
       </c>
       <c r="D30" t="n">
-        <v>0.215305</v>
+        <v>0.214988</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.298429</v>
+        <v>0.297952</v>
       </c>
       <c r="C31" t="n">
-        <v>0.244092</v>
+        <v>0.243997</v>
       </c>
       <c r="D31" t="n">
-        <v>0.214323</v>
+        <v>0.214288</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.289326</v>
+        <v>0.288782</v>
       </c>
       <c r="C32" t="n">
-        <v>0.243625</v>
+        <v>0.243429</v>
       </c>
       <c r="D32" t="n">
-        <v>0.214085</v>
+        <v>0.213506</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.279653</v>
+        <v>0.279465</v>
       </c>
       <c r="C33" t="n">
-        <v>0.243041</v>
+        <v>0.242306</v>
       </c>
       <c r="D33" t="n">
-        <v>0.213908</v>
+        <v>0.213828</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.2691</v>
+        <v>0.269017</v>
       </c>
       <c r="C34" t="n">
-        <v>0.241861</v>
+        <v>0.241972</v>
       </c>
       <c r="D34" t="n">
-        <v>0.213243</v>
+        <v>0.21273</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.25791</v>
+        <v>0.258001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.242311</v>
+        <v>0.242008</v>
       </c>
       <c r="D35" t="n">
-        <v>0.212471</v>
+        <v>0.212128</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244835</v>
+        <v>0.245133</v>
       </c>
       <c r="C36" t="n">
-        <v>0.242472</v>
+        <v>0.241902</v>
       </c>
       <c r="D36" t="n">
-        <v>0.213048</v>
+        <v>0.212735</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.230819</v>
+        <v>0.230839</v>
       </c>
       <c r="C37" t="n">
-        <v>0.241373</v>
+        <v>0.241286</v>
       </c>
       <c r="D37" t="n">
-        <v>0.213484</v>
+        <v>0.213535</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.349685</v>
+        <v>0.349581</v>
       </c>
       <c r="C38" t="n">
-        <v>0.260954</v>
+        <v>0.261011</v>
       </c>
       <c r="D38" t="n">
-        <v>0.230114</v>
+        <v>0.230254</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.34467</v>
+        <v>0.34478</v>
       </c>
       <c r="C39" t="n">
-        <v>0.257732</v>
+        <v>0.257118</v>
       </c>
       <c r="D39" t="n">
-        <v>0.227271</v>
+        <v>0.22665</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.338542</v>
+        <v>0.338495</v>
       </c>
       <c r="C40" t="n">
-        <v>0.254673</v>
+        <v>0.254481</v>
       </c>
       <c r="D40" t="n">
-        <v>0.225697</v>
+        <v>0.22535</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.331876</v>
+        <v>0.331867</v>
       </c>
       <c r="C41" t="n">
-        <v>0.251465</v>
+        <v>0.251525</v>
       </c>
       <c r="D41" t="n">
-        <v>0.220941</v>
+        <v>0.220876</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.324578</v>
+        <v>0.324579</v>
       </c>
       <c r="C42" t="n">
-        <v>0.250777</v>
+        <v>0.250566</v>
       </c>
       <c r="D42" t="n">
-        <v>0.218868</v>
+        <v>0.21864</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.316992</v>
+        <v>0.316625</v>
       </c>
       <c r="C43" t="n">
-        <v>0.249131</v>
+        <v>0.24907</v>
       </c>
       <c r="D43" t="n">
-        <v>0.217534</v>
+        <v>0.217537</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.309531</v>
+        <v>0.309376</v>
       </c>
       <c r="C44" t="n">
-        <v>0.247987</v>
+        <v>0.247734</v>
       </c>
       <c r="D44" t="n">
-        <v>0.215806</v>
+        <v>0.215914</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300503</v>
+        <v>0.300619</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246757</v>
+        <v>0.246617</v>
       </c>
       <c r="D45" t="n">
-        <v>0.214814</v>
+        <v>0.214792</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.292092</v>
+        <v>0.29254</v>
       </c>
       <c r="C46" t="n">
-        <v>0.245882</v>
+        <v>0.245818</v>
       </c>
       <c r="D46" t="n">
-        <v>0.214214</v>
+        <v>0.21421</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.282844</v>
+        <v>0.283065</v>
       </c>
       <c r="C47" t="n">
-        <v>0.244858</v>
+        <v>0.244785</v>
       </c>
       <c r="D47" t="n">
-        <v>0.214444</v>
+        <v>0.214395</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.272088</v>
+        <v>0.27241</v>
       </c>
       <c r="C48" t="n">
-        <v>0.243727</v>
+        <v>0.243619</v>
       </c>
       <c r="D48" t="n">
-        <v>0.213304</v>
+        <v>0.213351</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.261037</v>
+        <v>0.26154</v>
       </c>
       <c r="C49" t="n">
-        <v>0.243085</v>
+        <v>0.243133</v>
       </c>
       <c r="D49" t="n">
-        <v>0.213114</v>
+        <v>0.212882</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.248994</v>
+        <v>0.249468</v>
       </c>
       <c r="C50" t="n">
-        <v>0.243091</v>
+        <v>0.242831</v>
       </c>
       <c r="D50" t="n">
-        <v>0.213022</v>
+        <v>0.212983</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.234942</v>
+        <v>0.235328</v>
       </c>
       <c r="C51" t="n">
-        <v>0.242157</v>
+        <v>0.242138</v>
       </c>
       <c r="D51" t="n">
-        <v>0.212618</v>
+        <v>0.212705</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.220087</v>
+        <v>0.22036</v>
       </c>
       <c r="C52" t="n">
-        <v>0.241458</v>
+        <v>0.241423</v>
       </c>
       <c r="D52" t="n">
-        <v>0.216985</v>
+        <v>0.21706</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.347061</v>
+        <v>0.346965</v>
       </c>
       <c r="C53" t="n">
-        <v>0.257301</v>
+        <v>0.25781</v>
       </c>
       <c r="D53" t="n">
-        <v>0.225764</v>
+        <v>0.22657</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.34095</v>
+        <v>0.34091</v>
       </c>
       <c r="C54" t="n">
-        <v>0.254859</v>
+        <v>0.254771</v>
       </c>
       <c r="D54" t="n">
-        <v>0.223024</v>
+        <v>0.223189</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.335207</v>
+        <v>0.33508</v>
       </c>
       <c r="C55" t="n">
-        <v>0.252122</v>
+        <v>0.251967</v>
       </c>
       <c r="D55" t="n">
-        <v>0.220805</v>
+        <v>0.220985</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.327381</v>
+        <v>0.327523</v>
       </c>
       <c r="C56" t="n">
-        <v>0.250698</v>
+        <v>0.250564</v>
       </c>
       <c r="D56" t="n">
-        <v>0.219524</v>
+        <v>0.219202</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.320365</v>
+        <v>0.320625</v>
       </c>
       <c r="C57" t="n">
-        <v>0.249214</v>
+        <v>0.24908</v>
       </c>
       <c r="D57" t="n">
-        <v>0.217713</v>
+        <v>0.217779</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.312814</v>
+        <v>0.313253</v>
       </c>
       <c r="C58" t="n">
-        <v>0.247779</v>
+        <v>0.247794</v>
       </c>
       <c r="D58" t="n">
-        <v>0.216939</v>
+        <v>0.216972</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304441</v>
+        <v>0.304717</v>
       </c>
       <c r="C59" t="n">
-        <v>0.246765</v>
+        <v>0.246737</v>
       </c>
       <c r="D59" t="n">
-        <v>0.215665</v>
+        <v>0.215582</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294432</v>
+        <v>0.294923</v>
       </c>
       <c r="C60" t="n">
-        <v>0.245918</v>
+        <v>0.245662</v>
       </c>
       <c r="D60" t="n">
-        <v>0.214717</v>
+        <v>0.214822</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284974</v>
+        <v>0.285151</v>
       </c>
       <c r="C61" t="n">
-        <v>0.24534</v>
+        <v>0.245064</v>
       </c>
       <c r="D61" t="n">
-        <v>0.214175</v>
+        <v>0.21415</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.274622</v>
+        <v>0.274803</v>
       </c>
       <c r="C62" t="n">
-        <v>0.244317</v>
+        <v>0.244106</v>
       </c>
       <c r="D62" t="n">
-        <v>0.213425</v>
+        <v>0.213332</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263268</v>
+        <v>0.263292</v>
       </c>
       <c r="C63" t="n">
-        <v>0.243224</v>
+        <v>0.243275</v>
       </c>
       <c r="D63" t="n">
-        <v>0.213121</v>
+        <v>0.212951</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.250944</v>
+        <v>0.25112</v>
       </c>
       <c r="C64" t="n">
-        <v>0.242842</v>
+        <v>0.242731</v>
       </c>
       <c r="D64" t="n">
-        <v>0.212716</v>
+        <v>0.212652</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.237787</v>
+        <v>0.237984</v>
       </c>
       <c r="C65" t="n">
-        <v>0.242291</v>
+        <v>0.242057</v>
       </c>
       <c r="D65" t="n">
-        <v>0.21239</v>
+        <v>0.212478</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.223393</v>
+        <v>0.223708</v>
       </c>
       <c r="C66" t="n">
-        <v>0.24144</v>
+        <v>0.241312</v>
       </c>
       <c r="D66" t="n">
-        <v>0.213591</v>
+        <v>0.213525</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.348989</v>
+        <v>0.349026</v>
       </c>
       <c r="C67" t="n">
-        <v>0.25951</v>
+        <v>0.259508</v>
       </c>
       <c r="D67" t="n">
-        <v>0.228046</v>
+        <v>0.228237</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.342827</v>
+        <v>0.342701</v>
       </c>
       <c r="C68" t="n">
-        <v>0.255677</v>
+        <v>0.255708</v>
       </c>
       <c r="D68" t="n">
-        <v>0.224069</v>
+        <v>0.224142</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.336825</v>
+        <v>0.336605</v>
       </c>
       <c r="C69" t="n">
-        <v>0.252864</v>
+        <v>0.25283</v>
       </c>
       <c r="D69" t="n">
-        <v>0.220924</v>
+        <v>0.220933</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.329999</v>
+        <v>0.330037</v>
       </c>
       <c r="C70" t="n">
-        <v>0.251173</v>
+        <v>0.251032</v>
       </c>
       <c r="D70" t="n">
-        <v>0.219081</v>
+        <v>0.219041</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.322618</v>
+        <v>0.322556</v>
       </c>
       <c r="C71" t="n">
-        <v>0.249764</v>
+        <v>0.249735</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217986</v>
+        <v>0.217825</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.315267</v>
+        <v>0.315328</v>
       </c>
       <c r="C72" t="n">
-        <v>0.248366</v>
+        <v>0.248321</v>
       </c>
       <c r="D72" t="n">
-        <v>0.216648</v>
+        <v>0.216811</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.306752</v>
+        <v>0.30664</v>
       </c>
       <c r="C73" t="n">
-        <v>0.247192</v>
+        <v>0.247015</v>
       </c>
       <c r="D73" t="n">
-        <v>0.215653</v>
+        <v>0.215684</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.298169</v>
+        <v>0.298788</v>
       </c>
       <c r="C74" t="n">
-        <v>0.246139</v>
+        <v>0.245951</v>
       </c>
       <c r="D74" t="n">
-        <v>0.214727</v>
+        <v>0.214713</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.288748</v>
+        <v>0.288773</v>
       </c>
       <c r="C75" t="n">
-        <v>0.245358</v>
+        <v>0.245193</v>
       </c>
       <c r="D75" t="n">
-        <v>0.214206</v>
+        <v>0.214175</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.2783</v>
+        <v>0.278649</v>
       </c>
       <c r="C76" t="n">
-        <v>0.24462</v>
+        <v>0.24446</v>
       </c>
       <c r="D76" t="n">
-        <v>0.213408</v>
+        <v>0.213416</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.267314</v>
+        <v>0.267589</v>
       </c>
       <c r="C77" t="n">
-        <v>0.243504</v>
+        <v>0.24333</v>
       </c>
       <c r="D77" t="n">
-        <v>0.212878</v>
+        <v>0.21298</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.254842</v>
+        <v>0.255371</v>
       </c>
       <c r="C78" t="n">
-        <v>0.242592</v>
+        <v>0.242375</v>
       </c>
       <c r="D78" t="n">
-        <v>0.212677</v>
+        <v>0.212605</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.241851</v>
+        <v>0.242068</v>
       </c>
       <c r="C79" t="n">
-        <v>0.242191</v>
+        <v>0.242062</v>
       </c>
       <c r="D79" t="n">
-        <v>0.212289</v>
+        <v>0.212202</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227256</v>
+        <v>0.227681</v>
       </c>
       <c r="C80" t="n">
-        <v>0.242068</v>
+        <v>0.241876</v>
       </c>
       <c r="D80" t="n">
-        <v>0.212648</v>
+        <v>0.212552</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.350628</v>
+        <v>0.35038</v>
       </c>
       <c r="C81" t="n">
-        <v>0.258924</v>
+        <v>0.259127</v>
       </c>
       <c r="D81" t="n">
-        <v>0.227605</v>
+        <v>0.227627</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.344639</v>
+        <v>0.344959</v>
       </c>
       <c r="C82" t="n">
-        <v>0.25537</v>
+        <v>0.255461</v>
       </c>
       <c r="D82" t="n">
-        <v>0.223998</v>
+        <v>0.224063</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.338268</v>
+        <v>0.338345</v>
       </c>
       <c r="C83" t="n">
-        <v>0.25276</v>
+        <v>0.25295</v>
       </c>
       <c r="D83" t="n">
-        <v>0.221178</v>
+        <v>0.221325</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.331682</v>
+        <v>0.331976</v>
       </c>
       <c r="C84" t="n">
-        <v>0.250717</v>
+        <v>0.250959</v>
       </c>
       <c r="D84" t="n">
-        <v>0.219279</v>
+        <v>0.219355</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.324455</v>
+        <v>0.324648</v>
       </c>
       <c r="C85" t="n">
-        <v>0.249589</v>
+        <v>0.249641</v>
       </c>
       <c r="D85" t="n">
-        <v>0.218129</v>
+        <v>0.218078</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.31677</v>
+        <v>0.317082</v>
       </c>
       <c r="C86" t="n">
-        <v>0.248243</v>
+        <v>0.248395</v>
       </c>
       <c r="D86" t="n">
-        <v>0.216771</v>
+        <v>0.216947</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.308728</v>
+        <v>0.308957</v>
       </c>
       <c r="C87" t="n">
-        <v>0.247231</v>
+        <v>0.247237</v>
       </c>
       <c r="D87" t="n">
-        <v>0.21583</v>
+        <v>0.216035</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300041</v>
+        <v>0.300341</v>
       </c>
       <c r="C88" t="n">
-        <v>0.246463</v>
+        <v>0.246558</v>
       </c>
       <c r="D88" t="n">
-        <v>0.215048</v>
+        <v>0.215177</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.291028</v>
+        <v>0.290895</v>
       </c>
       <c r="C89" t="n">
-        <v>0.245454</v>
+        <v>0.245453</v>
       </c>
       <c r="D89" t="n">
-        <v>0.214415</v>
+        <v>0.214465</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.280949</v>
+        <v>0.280901</v>
       </c>
       <c r="C90" t="n">
-        <v>0.2447</v>
+        <v>0.244701</v>
       </c>
       <c r="D90" t="n">
-        <v>0.213688</v>
+        <v>0.213662</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.269896</v>
+        <v>0.269701</v>
       </c>
       <c r="C91" t="n">
-        <v>0.243792</v>
+        <v>0.243749</v>
       </c>
       <c r="D91" t="n">
-        <v>0.212988</v>
+        <v>0.213058</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.258237</v>
+        <v>0.257847</v>
       </c>
       <c r="C92" t="n">
-        <v>0.243178</v>
+        <v>0.243105</v>
       </c>
       <c r="D92" t="n">
-        <v>0.212636</v>
+        <v>0.212623</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.244939</v>
+        <v>0.24491</v>
       </c>
       <c r="C93" t="n">
-        <v>0.242567</v>
+        <v>0.242456</v>
       </c>
       <c r="D93" t="n">
-        <v>0.212206</v>
+        <v>0.212279</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.230883</v>
+        <v>0.23093</v>
       </c>
       <c r="C94" t="n">
-        <v>0.242016</v>
+        <v>0.242057</v>
       </c>
       <c r="D94" t="n">
-        <v>0.212232</v>
+        <v>0.21232</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.351888</v>
+        <v>0.351993</v>
       </c>
       <c r="C95" t="n">
-        <v>0.25952</v>
+        <v>0.259485</v>
       </c>
       <c r="D95" t="n">
-        <v>0.227968</v>
+        <v>0.228038</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.346035</v>
+        <v>0.346029</v>
       </c>
       <c r="C96" t="n">
-        <v>0.256224</v>
+        <v>0.256084</v>
       </c>
       <c r="D96" t="n">
-        <v>0.224462</v>
+        <v>0.224449</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.340227</v>
+        <v>0.339973</v>
       </c>
       <c r="C97" t="n">
-        <v>0.253613</v>
+        <v>0.253509</v>
       </c>
       <c r="D97" t="n">
-        <v>0.221858</v>
+        <v>0.221943</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.333659</v>
+        <v>0.333742</v>
       </c>
       <c r="C98" t="n">
-        <v>0.251476</v>
+        <v>0.251448</v>
       </c>
       <c r="D98" t="n">
-        <v>0.21971</v>
+        <v>0.219758</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.326363</v>
+        <v>0.32646</v>
       </c>
       <c r="C99" t="n">
-        <v>0.250056</v>
+        <v>0.250152</v>
       </c>
       <c r="D99" t="n">
-        <v>0.218257</v>
+        <v>0.218349</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.318904</v>
+        <v>0.318908</v>
       </c>
       <c r="C100" t="n">
-        <v>0.248733</v>
+        <v>0.248672</v>
       </c>
       <c r="D100" t="n">
-        <v>0.217057</v>
+        <v>0.217048</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.310732</v>
+        <v>0.310511</v>
       </c>
       <c r="C101" t="n">
-        <v>0.247551</v>
+        <v>0.247604</v>
       </c>
       <c r="D101" t="n">
-        <v>0.216001</v>
+        <v>0.21609</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302034</v>
+        <v>0.301903</v>
       </c>
       <c r="C102" t="n">
-        <v>0.246658</v>
+        <v>0.246667</v>
       </c>
       <c r="D102" t="n">
-        <v>0.215335</v>
+        <v>0.215153</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.292754</v>
+        <v>0.292926</v>
       </c>
       <c r="C103" t="n">
-        <v>0.245759</v>
+        <v>0.245766</v>
       </c>
       <c r="D103" t="n">
-        <v>0.214513</v>
+        <v>0.21445</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.282982</v>
+        <v>0.283147</v>
       </c>
       <c r="C104" t="n">
-        <v>0.245049</v>
+        <v>0.244817</v>
       </c>
       <c r="D104" t="n">
-        <v>0.213836</v>
+        <v>0.213797</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.272423</v>
+        <v>0.272015</v>
       </c>
       <c r="C105" t="n">
-        <v>0.244076</v>
+        <v>0.244005</v>
       </c>
       <c r="D105" t="n">
-        <v>0.213159</v>
+        <v>0.213128</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.260643</v>
+        <v>0.260469</v>
       </c>
       <c r="C106" t="n">
-        <v>0.243287</v>
+        <v>0.243228</v>
       </c>
       <c r="D106" t="n">
-        <v>0.212568</v>
+        <v>0.212489</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247588</v>
+        <v>0.247982</v>
       </c>
       <c r="C107" t="n">
-        <v>0.242629</v>
+        <v>0.242631</v>
       </c>
       <c r="D107" t="n">
-        <v>0.212286</v>
+        <v>0.212284</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.234008</v>
+        <v>0.234149</v>
       </c>
       <c r="C108" t="n">
-        <v>0.241988</v>
+        <v>0.241958</v>
       </c>
       <c r="D108" t="n">
-        <v>0.212221</v>
+        <v>0.211924</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.219141</v>
+        <v>0.21925</v>
       </c>
       <c r="C109" t="n">
-        <v>0.241632</v>
+        <v>0.241673</v>
       </c>
       <c r="D109" t="n">
-        <v>0.212263</v>
+        <v>0.21245</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.347386</v>
+        <v>0.347715</v>
       </c>
       <c r="C110" t="n">
-        <v>0.256537</v>
+        <v>0.256437</v>
       </c>
       <c r="D110" t="n">
-        <v>0.224895</v>
+        <v>0.224894</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.341275</v>
+        <v>0.341321</v>
       </c>
       <c r="C111" t="n">
-        <v>0.25367</v>
+        <v>0.253876</v>
       </c>
       <c r="D111" t="n">
-        <v>0.222138</v>
+        <v>0.222374</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.334811</v>
+        <v>0.335043</v>
       </c>
       <c r="C112" t="n">
-        <v>0.251581</v>
+        <v>0.251839</v>
       </c>
       <c r="D112" t="n">
-        <v>0.220318</v>
+        <v>0.220162</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.327839</v>
+        <v>0.328112</v>
       </c>
       <c r="C113" t="n">
-        <v>0.250433</v>
+        <v>0.250475</v>
       </c>
       <c r="D113" t="n">
-        <v>0.21874</v>
+        <v>0.218638</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.32058</v>
+        <v>0.320392</v>
       </c>
       <c r="C114" t="n">
-        <v>0.24912</v>
+        <v>0.249243</v>
       </c>
       <c r="D114" t="n">
-        <v>0.217419</v>
+        <v>0.217672</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.312402</v>
+        <v>0.312589</v>
       </c>
       <c r="C115" t="n">
-        <v>0.247892</v>
+        <v>0.248184</v>
       </c>
       <c r="D115" t="n">
-        <v>0.216324</v>
+        <v>0.216531</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304147</v>
+        <v>0.304829</v>
       </c>
       <c r="C116" t="n">
-        <v>0.246856</v>
+        <v>0.247099</v>
       </c>
       <c r="D116" t="n">
-        <v>0.215583</v>
+        <v>0.215829</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.295231</v>
+        <v>0.295721</v>
       </c>
       <c r="C117" t="n">
-        <v>0.246134</v>
+        <v>0.246218</v>
       </c>
       <c r="D117" t="n">
-        <v>0.214914</v>
+        <v>0.215231</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.285268</v>
+        <v>0.285663</v>
       </c>
       <c r="C118" t="n">
-        <v>0.245257</v>
+        <v>0.24538</v>
       </c>
       <c r="D118" t="n">
-        <v>0.214505</v>
+        <v>0.21424</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.274948</v>
+        <v>0.275195</v>
       </c>
       <c r="C119" t="n">
-        <v>0.244367</v>
+        <v>0.244472</v>
       </c>
       <c r="D119" t="n">
-        <v>0.213681</v>
+        <v>0.213906</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.263374</v>
+        <v>0.263717</v>
       </c>
       <c r="C120" t="n">
-        <v>0.243725</v>
+        <v>0.243477</v>
       </c>
       <c r="D120" t="n">
-        <v>0.213327</v>
+        <v>0.213721</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.250917</v>
+        <v>0.251575</v>
       </c>
       <c r="C121" t="n">
-        <v>0.242968</v>
+        <v>0.243002</v>
       </c>
       <c r="D121" t="n">
-        <v>0.212697</v>
+        <v>0.213036</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.237767</v>
+        <v>0.237721</v>
       </c>
       <c r="C122" t="n">
         <v>0.242289</v>
       </c>
       <c r="D122" t="n">
-        <v>0.212778</v>
+        <v>0.212737</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.222761</v>
+        <v>0.22277</v>
       </c>
       <c r="C123" t="n">
-        <v>0.241527</v>
+        <v>0.241863</v>
       </c>
       <c r="D123" t="n">
-        <v>0.212575</v>
+        <v>0.212562</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.348987</v>
+        <v>0.349065</v>
       </c>
       <c r="C124" t="n">
-        <v>0.257362</v>
+        <v>0.257453</v>
       </c>
       <c r="D124" t="n">
-        <v>0.22668</v>
+        <v>0.226993</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.343119</v>
+        <v>0.343509</v>
       </c>
       <c r="C125" t="n">
-        <v>0.254101</v>
+        <v>0.254156</v>
       </c>
       <c r="D125" t="n">
-        <v>0.224425</v>
+        <v>0.223287</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.336383</v>
+        <v>0.337142</v>
       </c>
       <c r="C126" t="n">
-        <v>0.2518</v>
+        <v>0.252161</v>
       </c>
       <c r="D126" t="n">
-        <v>0.220805</v>
+        <v>0.222787</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.329336</v>
+        <v>0.329836</v>
       </c>
       <c r="C127" t="n">
-        <v>0.249573</v>
+        <v>0.250132</v>
       </c>
       <c r="D127" t="n">
-        <v>0.219837</v>
+        <v>0.219984</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.322153</v>
+        <v>0.322789</v>
       </c>
       <c r="C128" t="n">
-        <v>0.248551</v>
+        <v>0.248292</v>
       </c>
       <c r="D128" t="n">
-        <v>0.218987</v>
+        <v>0.218369</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.31436</v>
+        <v>0.314756</v>
       </c>
       <c r="C129" t="n">
-        <v>0.247526</v>
+        <v>0.247676</v>
       </c>
       <c r="D129" t="n">
-        <v>0.217672</v>
+        <v>0.217683</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.305844</v>
+        <v>0.306207</v>
       </c>
       <c r="C130" t="n">
-        <v>0.24668</v>
+        <v>0.246299</v>
       </c>
       <c r="D130" t="n">
-        <v>0.215941</v>
+        <v>0.21748</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.297389</v>
+        <v>0.297583</v>
       </c>
       <c r="C131" t="n">
-        <v>0.245723</v>
+        <v>0.245586</v>
       </c>
       <c r="D131" t="n">
-        <v>0.215849</v>
+        <v>0.215321</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.288013</v>
+        <v>0.28805</v>
       </c>
       <c r="C132" t="n">
-        <v>0.244233</v>
+        <v>0.244668</v>
       </c>
       <c r="D132" t="n">
-        <v>0.215445</v>
+        <v>0.215561</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.277372</v>
+        <v>0.277491</v>
       </c>
       <c r="C133" t="n">
-        <v>0.244183</v>
+        <v>0.243999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.214446</v>
+        <v>0.215607</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.265867</v>
+        <v>0.266065</v>
       </c>
       <c r="C134" t="n">
-        <v>0.243369</v>
+        <v>0.24393</v>
       </c>
       <c r="D134" t="n">
-        <v>0.213614</v>
+        <v>0.214412</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.253943</v>
+        <v>0.253606</v>
       </c>
       <c r="C135" t="n">
-        <v>0.242691</v>
+        <v>0.242761</v>
       </c>
       <c r="D135" t="n">
-        <v>0.213617</v>
+        <v>0.213833</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.240478</v>
+        <v>0.240956</v>
       </c>
       <c r="C136" t="n">
-        <v>0.242088</v>
+        <v>0.241919</v>
       </c>
       <c r="D136" t="n">
-        <v>0.213284</v>
+        <v>0.214209</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.226358</v>
+        <v>0.226175</v>
       </c>
       <c r="C137" t="n">
-        <v>0.241775</v>
+        <v>0.24202</v>
       </c>
       <c r="D137" t="n">
-        <v>0.212336</v>
+        <v>0.214645</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.350521</v>
+        <v>0.350421</v>
       </c>
       <c r="C138" t="n">
-        <v>0.25831</v>
+        <v>0.259034</v>
       </c>
       <c r="D138" t="n">
-        <v>0.231583</v>
+        <v>0.231864</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.344459</v>
+        <v>0.34488</v>
       </c>
       <c r="C139" t="n">
-        <v>0.255654</v>
+        <v>0.255855</v>
       </c>
       <c r="D139" t="n">
-        <v>0.22756</v>
+        <v>0.227852</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338161</v>
+        <v>0.338481</v>
       </c>
       <c r="C140" t="n">
-        <v>0.252928</v>
+        <v>0.252664</v>
       </c>
       <c r="D140" t="n">
-        <v>0.224847</v>
+        <v>0.22559</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331831</v>
+        <v>0.331636</v>
       </c>
       <c r="C141" t="n">
-        <v>0.25136</v>
+        <v>0.25134</v>
       </c>
       <c r="D141" t="n">
-        <v>0.222483</v>
+        <v>0.222771</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.324349</v>
+        <v>0.324545</v>
       </c>
       <c r="C142" t="n">
-        <v>0.249628</v>
+        <v>0.249767</v>
       </c>
       <c r="D142" t="n">
-        <v>0.22371</v>
+        <v>0.223419</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.316378</v>
+        <v>0.316838</v>
       </c>
       <c r="C143" t="n">
-        <v>0.24787</v>
+        <v>0.247769</v>
       </c>
       <c r="D143" t="n">
-        <v>0.2218</v>
+        <v>0.220864</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.296627</v>
+        <v>0.298842</v>
       </c>
       <c r="C2" t="n">
-        <v>0.224751</v>
+        <v>0.223894</v>
       </c>
       <c r="D2" t="n">
-        <v>0.198576</v>
+        <v>0.198872</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.290028</v>
+        <v>0.291273</v>
       </c>
       <c r="C3" t="n">
-        <v>0.223841</v>
+        <v>0.223455</v>
       </c>
       <c r="D3" t="n">
-        <v>0.198398</v>
+        <v>0.199643</v>
       </c>
     </row>
     <row r="4">
@@ -3280,10 +3280,10 @@
         <v>0.280127</v>
       </c>
       <c r="C4" t="n">
-        <v>0.225439</v>
+        <v>0.22526</v>
       </c>
       <c r="D4" t="n">
-        <v>0.201087</v>
+        <v>0.201289</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.270015</v>
+        <v>0.273709</v>
       </c>
       <c r="C5" t="n">
-        <v>0.225705</v>
+        <v>0.225795</v>
       </c>
       <c r="D5" t="n">
-        <v>0.20012</v>
+        <v>0.200874</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.257618</v>
+        <v>0.25753</v>
       </c>
       <c r="C6" t="n">
-        <v>0.225249</v>
+        <v>0.225714</v>
       </c>
       <c r="D6" t="n">
-        <v>0.200622</v>
+        <v>0.202088</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.245226</v>
+        <v>0.244071</v>
       </c>
       <c r="C7" t="n">
-        <v>0.225647</v>
+        <v>0.226138</v>
       </c>
       <c r="D7" t="n">
-        <v>0.201808</v>
+        <v>0.202495</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.233532</v>
+        <v>0.232096</v>
       </c>
       <c r="C8" t="n">
-        <v>0.226123</v>
+        <v>0.226084</v>
       </c>
       <c r="D8" t="n">
-        <v>0.202467</v>
+        <v>0.203204</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.218479</v>
+        <v>0.217887</v>
       </c>
       <c r="C9" t="n">
-        <v>0.22649</v>
+        <v>0.225864</v>
       </c>
       <c r="D9" t="n">
-        <v>0.202652</v>
+        <v>0.202899</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.344011</v>
+        <v>0.344887</v>
       </c>
       <c r="C10" t="n">
-        <v>0.245748</v>
+        <v>0.246127</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216608</v>
+        <v>0.218104</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3402</v>
+        <v>0.340389</v>
       </c>
       <c r="C11" t="n">
-        <v>0.245432</v>
+        <v>0.245264</v>
       </c>
       <c r="D11" t="n">
-        <v>0.214795</v>
+        <v>0.214787</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.332346</v>
+        <v>0.332701</v>
       </c>
       <c r="C12" t="n">
-        <v>0.243735</v>
+        <v>0.24375</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214567</v>
+        <v>0.214644</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.327145</v>
+        <v>0.326861</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2425</v>
+        <v>0.243748</v>
       </c>
       <c r="D13" t="n">
-        <v>0.21288</v>
+        <v>0.21286</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.318417</v>
+        <v>0.318557</v>
       </c>
       <c r="C14" t="n">
-        <v>0.240894</v>
+        <v>0.24069</v>
       </c>
       <c r="D14" t="n">
-        <v>0.211509</v>
+        <v>0.211862</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.309918</v>
+        <v>0.310934</v>
       </c>
       <c r="C15" t="n">
-        <v>0.240337</v>
+        <v>0.240011</v>
       </c>
       <c r="D15" t="n">
-        <v>0.210668</v>
+        <v>0.210896</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.302362</v>
+        <v>0.30332</v>
       </c>
       <c r="C16" t="n">
-        <v>0.239883</v>
+        <v>0.23999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.210504</v>
+        <v>0.211068</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.292923</v>
+        <v>0.293801</v>
       </c>
       <c r="C17" t="n">
-        <v>0.239428</v>
+        <v>0.239768</v>
       </c>
       <c r="D17" t="n">
-        <v>0.210131</v>
+        <v>0.21075</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.285009</v>
+        <v>0.286285</v>
       </c>
       <c r="C18" t="n">
-        <v>0.238983</v>
+        <v>0.239104</v>
       </c>
       <c r="D18" t="n">
-        <v>0.211046</v>
+        <v>0.210848</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.275372</v>
+        <v>0.275405</v>
       </c>
       <c r="C19" t="n">
-        <v>0.237511</v>
+        <v>0.2379</v>
       </c>
       <c r="D19" t="n">
-        <v>0.209315</v>
+        <v>0.210418</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.263408</v>
+        <v>0.263704</v>
       </c>
       <c r="C20" t="n">
-        <v>0.237842</v>
+        <v>0.23739</v>
       </c>
       <c r="D20" t="n">
-        <v>0.210619</v>
+        <v>0.210759</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.252371</v>
+        <v>0.252437</v>
       </c>
       <c r="C21" t="n">
-        <v>0.236915</v>
+        <v>0.237202</v>
       </c>
       <c r="D21" t="n">
-        <v>0.210683</v>
+        <v>0.210736</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.240148</v>
+        <v>0.240494</v>
       </c>
       <c r="C22" t="n">
-        <v>0.237408</v>
+        <v>0.237324</v>
       </c>
       <c r="D22" t="n">
-        <v>0.209639</v>
+        <v>0.210531</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.22666</v>
+        <v>0.226597</v>
       </c>
       <c r="C23" t="n">
-        <v>0.237384</v>
+        <v>0.23687</v>
       </c>
       <c r="D23" t="n">
-        <v>0.210016</v>
+        <v>0.210111</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348271</v>
+        <v>0.348956</v>
       </c>
       <c r="C24" t="n">
-        <v>0.254499</v>
+        <v>0.254822</v>
       </c>
       <c r="D24" t="n">
-        <v>0.225577</v>
+        <v>0.226222</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.341953</v>
+        <v>0.342337</v>
       </c>
       <c r="C25" t="n">
-        <v>0.253099</v>
+        <v>0.25311</v>
       </c>
       <c r="D25" t="n">
-        <v>0.222974</v>
+        <v>0.223239</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.336168</v>
+        <v>0.336247</v>
       </c>
       <c r="C26" t="n">
-        <v>0.250358</v>
+        <v>0.250292</v>
       </c>
       <c r="D26" t="n">
-        <v>0.220964</v>
+        <v>0.221044</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328401</v>
+        <v>0.328648</v>
       </c>
       <c r="C27" t="n">
-        <v>0.248986</v>
+        <v>0.248955</v>
       </c>
       <c r="D27" t="n">
-        <v>0.219099</v>
+        <v>0.219193</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.321714</v>
+        <v>0.322417</v>
       </c>
       <c r="C28" t="n">
-        <v>0.247339</v>
+        <v>0.247494</v>
       </c>
       <c r="D28" t="n">
-        <v>0.217034</v>
+        <v>0.217223</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.314551</v>
+        <v>0.314711</v>
       </c>
       <c r="C29" t="n">
-        <v>0.246206</v>
+        <v>0.246646</v>
       </c>
       <c r="D29" t="n">
-        <v>0.216218</v>
+        <v>0.216469</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.306544</v>
+        <v>0.306862</v>
       </c>
       <c r="C30" t="n">
-        <v>0.245124</v>
+        <v>0.244681</v>
       </c>
       <c r="D30" t="n">
-        <v>0.214988</v>
+        <v>0.215312</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.297952</v>
+        <v>0.298394</v>
       </c>
       <c r="C31" t="n">
-        <v>0.243997</v>
+        <v>0.243647</v>
       </c>
       <c r="D31" t="n">
-        <v>0.214288</v>
+        <v>0.214353</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.288782</v>
+        <v>0.289213</v>
       </c>
       <c r="C32" t="n">
-        <v>0.243429</v>
+        <v>0.243535</v>
       </c>
       <c r="D32" t="n">
-        <v>0.213506</v>
+        <v>0.213736</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.279465</v>
+        <v>0.279657</v>
       </c>
       <c r="C33" t="n">
-        <v>0.242306</v>
+        <v>0.24262</v>
       </c>
       <c r="D33" t="n">
-        <v>0.213828</v>
+        <v>0.213865</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.269017</v>
+        <v>0.268986</v>
       </c>
       <c r="C34" t="n">
-        <v>0.241972</v>
+        <v>0.241831</v>
       </c>
       <c r="D34" t="n">
-        <v>0.21273</v>
+        <v>0.212886</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.258001</v>
+        <v>0.257982</v>
       </c>
       <c r="C35" t="n">
-        <v>0.242008</v>
+        <v>0.242253</v>
       </c>
       <c r="D35" t="n">
-        <v>0.212128</v>
+        <v>0.21187</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.245133</v>
+        <v>0.245059</v>
       </c>
       <c r="C36" t="n">
-        <v>0.241902</v>
+        <v>0.242035</v>
       </c>
       <c r="D36" t="n">
-        <v>0.212735</v>
+        <v>0.212666</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.230839</v>
+        <v>0.230923</v>
       </c>
       <c r="C37" t="n">
-        <v>0.241286</v>
+        <v>0.241036</v>
       </c>
       <c r="D37" t="n">
-        <v>0.213535</v>
+        <v>0.21321</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.349581</v>
+        <v>0.349793</v>
       </c>
       <c r="C38" t="n">
-        <v>0.261011</v>
+        <v>0.260942</v>
       </c>
       <c r="D38" t="n">
-        <v>0.230254</v>
+        <v>0.230096</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.34478</v>
+        <v>0.3451</v>
       </c>
       <c r="C39" t="n">
-        <v>0.257118</v>
+        <v>0.257831</v>
       </c>
       <c r="D39" t="n">
-        <v>0.22665</v>
+        <v>0.226897</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.338495</v>
+        <v>0.33902</v>
       </c>
       <c r="C40" t="n">
-        <v>0.254481</v>
+        <v>0.254568</v>
       </c>
       <c r="D40" t="n">
-        <v>0.22535</v>
+        <v>0.225274</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.331867</v>
+        <v>0.332308</v>
       </c>
       <c r="C41" t="n">
-        <v>0.251525</v>
+        <v>0.251449</v>
       </c>
       <c r="D41" t="n">
-        <v>0.220876</v>
+        <v>0.220652</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.324579</v>
+        <v>0.32527</v>
       </c>
       <c r="C42" t="n">
-        <v>0.250566</v>
+        <v>0.250561</v>
       </c>
       <c r="D42" t="n">
-        <v>0.21864</v>
+        <v>0.218661</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.316625</v>
+        <v>0.317235</v>
       </c>
       <c r="C43" t="n">
-        <v>0.24907</v>
+        <v>0.249187</v>
       </c>
       <c r="D43" t="n">
-        <v>0.217537</v>
+        <v>0.2174</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.309376</v>
+        <v>0.309729</v>
       </c>
       <c r="C44" t="n">
-        <v>0.247734</v>
+        <v>0.247888</v>
       </c>
       <c r="D44" t="n">
-        <v>0.215914</v>
+        <v>0.216095</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300619</v>
+        <v>0.300865</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246617</v>
+        <v>0.246897</v>
       </c>
       <c r="D45" t="n">
-        <v>0.214792</v>
+        <v>0.21461</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.29254</v>
+        <v>0.292419</v>
       </c>
       <c r="C46" t="n">
-        <v>0.245818</v>
+        <v>0.245843</v>
       </c>
       <c r="D46" t="n">
-        <v>0.21421</v>
+        <v>0.21395</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.283065</v>
+        <v>0.282877</v>
       </c>
       <c r="C47" t="n">
-        <v>0.244785</v>
+        <v>0.244647</v>
       </c>
       <c r="D47" t="n">
-        <v>0.214395</v>
+        <v>0.214294</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.27241</v>
+        <v>0.27219</v>
       </c>
       <c r="C48" t="n">
-        <v>0.243619</v>
+        <v>0.243469</v>
       </c>
       <c r="D48" t="n">
-        <v>0.213351</v>
+        <v>0.21322</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.26154</v>
+        <v>0.26117</v>
       </c>
       <c r="C49" t="n">
-        <v>0.243133</v>
+        <v>0.243183</v>
       </c>
       <c r="D49" t="n">
-        <v>0.212882</v>
+        <v>0.212847</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.249468</v>
+        <v>0.248942</v>
       </c>
       <c r="C50" t="n">
-        <v>0.242831</v>
+        <v>0.242837</v>
       </c>
       <c r="D50" t="n">
-        <v>0.212983</v>
+        <v>0.212941</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.235328</v>
+        <v>0.23498</v>
       </c>
       <c r="C51" t="n">
-        <v>0.242138</v>
+        <v>0.242174</v>
       </c>
       <c r="D51" t="n">
-        <v>0.212705</v>
+        <v>0.212805</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.22036</v>
+        <v>0.220151</v>
       </c>
       <c r="C52" t="n">
-        <v>0.241423</v>
+        <v>0.241338</v>
       </c>
       <c r="D52" t="n">
-        <v>0.21706</v>
+        <v>0.217171</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.346965</v>
+        <v>0.347293</v>
       </c>
       <c r="C53" t="n">
-        <v>0.25781</v>
+        <v>0.257747</v>
       </c>
       <c r="D53" t="n">
-        <v>0.22657</v>
+        <v>0.226216</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.34091</v>
+        <v>0.341288</v>
       </c>
       <c r="C54" t="n">
-        <v>0.254771</v>
+        <v>0.254621</v>
       </c>
       <c r="D54" t="n">
-        <v>0.223189</v>
+        <v>0.223165</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.33508</v>
+        <v>0.335067</v>
       </c>
       <c r="C55" t="n">
-        <v>0.251967</v>
+        <v>0.251992</v>
       </c>
       <c r="D55" t="n">
-        <v>0.220985</v>
+        <v>0.220756</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.327523</v>
+        <v>0.327837</v>
       </c>
       <c r="C56" t="n">
-        <v>0.250564</v>
+        <v>0.250579</v>
       </c>
       <c r="D56" t="n">
-        <v>0.219202</v>
+        <v>0.219243</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.320625</v>
+        <v>0.320565</v>
       </c>
       <c r="C57" t="n">
-        <v>0.24908</v>
+        <v>0.249156</v>
       </c>
       <c r="D57" t="n">
-        <v>0.217779</v>
+        <v>0.217644</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.313253</v>
+        <v>0.313309</v>
       </c>
       <c r="C58" t="n">
-        <v>0.247794</v>
+        <v>0.247808</v>
       </c>
       <c r="D58" t="n">
-        <v>0.216972</v>
+        <v>0.216829</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304717</v>
+        <v>0.305194</v>
       </c>
       <c r="C59" t="n">
-        <v>0.246737</v>
+        <v>0.246632</v>
       </c>
       <c r="D59" t="n">
-        <v>0.215582</v>
+        <v>0.215484</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294923</v>
+        <v>0.294953</v>
       </c>
       <c r="C60" t="n">
-        <v>0.245662</v>
+        <v>0.2457</v>
       </c>
       <c r="D60" t="n">
-        <v>0.214822</v>
+        <v>0.214734</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.285151</v>
+        <v>0.285301</v>
       </c>
       <c r="C61" t="n">
-        <v>0.245064</v>
+        <v>0.245046</v>
       </c>
       <c r="D61" t="n">
-        <v>0.21415</v>
+        <v>0.214042</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.274803</v>
+        <v>0.274978</v>
       </c>
       <c r="C62" t="n">
-        <v>0.244106</v>
+        <v>0.244148</v>
       </c>
       <c r="D62" t="n">
-        <v>0.213332</v>
+        <v>0.213317</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263292</v>
+        <v>0.26364</v>
       </c>
       <c r="C63" t="n">
-        <v>0.243275</v>
+        <v>0.24318</v>
       </c>
       <c r="D63" t="n">
-        <v>0.212951</v>
+        <v>0.212964</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.25112</v>
+        <v>0.251067</v>
       </c>
       <c r="C64" t="n">
-        <v>0.242731</v>
+        <v>0.243086</v>
       </c>
       <c r="D64" t="n">
-        <v>0.212652</v>
+        <v>0.212504</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.237984</v>
+        <v>0.238193</v>
       </c>
       <c r="C65" t="n">
-        <v>0.242057</v>
+        <v>0.242084</v>
       </c>
       <c r="D65" t="n">
-        <v>0.212478</v>
+        <v>0.21232</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.223708</v>
+        <v>0.223606</v>
       </c>
       <c r="C66" t="n">
-        <v>0.241312</v>
+        <v>0.241504</v>
       </c>
       <c r="D66" t="n">
-        <v>0.213525</v>
+        <v>0.21389</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.349026</v>
+        <v>0.349104</v>
       </c>
       <c r="C67" t="n">
-        <v>0.259508</v>
+        <v>0.25956</v>
       </c>
       <c r="D67" t="n">
-        <v>0.228237</v>
+        <v>0.228011</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.342701</v>
+        <v>0.342998</v>
       </c>
       <c r="C68" t="n">
-        <v>0.255708</v>
+        <v>0.255682</v>
       </c>
       <c r="D68" t="n">
-        <v>0.224142</v>
+        <v>0.224032</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.336605</v>
+        <v>0.336845</v>
       </c>
       <c r="C69" t="n">
-        <v>0.25283</v>
+        <v>0.252762</v>
       </c>
       <c r="D69" t="n">
-        <v>0.220933</v>
+        <v>0.220885</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.330037</v>
+        <v>0.330137</v>
       </c>
       <c r="C70" t="n">
-        <v>0.251032</v>
+        <v>0.250899</v>
       </c>
       <c r="D70" t="n">
-        <v>0.219041</v>
+        <v>0.219005</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.322556</v>
+        <v>0.322959</v>
       </c>
       <c r="C71" t="n">
-        <v>0.249735</v>
+        <v>0.249565</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217825</v>
+        <v>0.217798</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.315328</v>
+        <v>0.31563</v>
       </c>
       <c r="C72" t="n">
-        <v>0.248321</v>
+        <v>0.248242</v>
       </c>
       <c r="D72" t="n">
-        <v>0.216811</v>
+        <v>0.216588</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.30664</v>
+        <v>0.307228</v>
       </c>
       <c r="C73" t="n">
-        <v>0.247015</v>
+        <v>0.247012</v>
       </c>
       <c r="D73" t="n">
-        <v>0.215684</v>
+        <v>0.21571</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.298788</v>
+        <v>0.298602</v>
       </c>
       <c r="C74" t="n">
-        <v>0.245951</v>
+        <v>0.245907</v>
       </c>
       <c r="D74" t="n">
-        <v>0.214713</v>
+        <v>0.214656</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.288773</v>
+        <v>0.288992</v>
       </c>
       <c r="C75" t="n">
-        <v>0.245193</v>
+        <v>0.245098</v>
       </c>
       <c r="D75" t="n">
-        <v>0.214175</v>
+        <v>0.214086</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.278649</v>
+        <v>0.278876</v>
       </c>
       <c r="C76" t="n">
-        <v>0.24446</v>
+        <v>0.244458</v>
       </c>
       <c r="D76" t="n">
-        <v>0.213416</v>
+        <v>0.213348</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.267589</v>
+        <v>0.267499</v>
       </c>
       <c r="C77" t="n">
-        <v>0.24333</v>
+        <v>0.243252</v>
       </c>
       <c r="D77" t="n">
-        <v>0.21298</v>
+        <v>0.212828</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.255371</v>
+        <v>0.255051</v>
       </c>
       <c r="C78" t="n">
-        <v>0.242375</v>
+        <v>0.242392</v>
       </c>
       <c r="D78" t="n">
-        <v>0.212605</v>
+        <v>0.212523</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.242068</v>
+        <v>0.242315</v>
       </c>
       <c r="C79" t="n">
-        <v>0.242062</v>
+        <v>0.242058</v>
       </c>
       <c r="D79" t="n">
-        <v>0.212202</v>
+        <v>0.211979</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227681</v>
+        <v>0.227542</v>
       </c>
       <c r="C80" t="n">
-        <v>0.241876</v>
+        <v>0.24199</v>
       </c>
       <c r="D80" t="n">
-        <v>0.212552</v>
+        <v>0.212339</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.35038</v>
+        <v>0.350347</v>
       </c>
       <c r="C81" t="n">
-        <v>0.259127</v>
+        <v>0.258995</v>
       </c>
       <c r="D81" t="n">
-        <v>0.227627</v>
+        <v>0.227629</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.344959</v>
+        <v>0.344788</v>
       </c>
       <c r="C82" t="n">
-        <v>0.255461</v>
+        <v>0.255328</v>
       </c>
       <c r="D82" t="n">
-        <v>0.224063</v>
+        <v>0.223927</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.338345</v>
+        <v>0.338547</v>
       </c>
       <c r="C83" t="n">
-        <v>0.25295</v>
+        <v>0.252773</v>
       </c>
       <c r="D83" t="n">
-        <v>0.221325</v>
+        <v>0.221156</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.331976</v>
+        <v>0.332152</v>
       </c>
       <c r="C84" t="n">
-        <v>0.250959</v>
+        <v>0.250809</v>
       </c>
       <c r="D84" t="n">
-        <v>0.219355</v>
+        <v>0.219328</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.324648</v>
+        <v>0.325021</v>
       </c>
       <c r="C85" t="n">
-        <v>0.249641</v>
+        <v>0.249556</v>
       </c>
       <c r="D85" t="n">
-        <v>0.218078</v>
+        <v>0.218014</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.317082</v>
+        <v>0.31723</v>
       </c>
       <c r="C86" t="n">
-        <v>0.248395</v>
+        <v>0.248375</v>
       </c>
       <c r="D86" t="n">
-        <v>0.216947</v>
+        <v>0.216809</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.308957</v>
+        <v>0.308955</v>
       </c>
       <c r="C87" t="n">
-        <v>0.247237</v>
+        <v>0.247187</v>
       </c>
       <c r="D87" t="n">
-        <v>0.216035</v>
+        <v>0.215922</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300341</v>
+        <v>0.300216</v>
       </c>
       <c r="C88" t="n">
-        <v>0.246558</v>
+        <v>0.246376</v>
       </c>
       <c r="D88" t="n">
-        <v>0.215177</v>
+        <v>0.215047</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.290895</v>
+        <v>0.291015</v>
       </c>
       <c r="C89" t="n">
-        <v>0.245453</v>
+        <v>0.245448</v>
       </c>
       <c r="D89" t="n">
-        <v>0.214465</v>
+        <v>0.214192</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.280901</v>
+        <v>0.28076</v>
       </c>
       <c r="C90" t="n">
-        <v>0.244701</v>
+        <v>0.244668</v>
       </c>
       <c r="D90" t="n">
-        <v>0.213662</v>
+        <v>0.213648</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.269701</v>
+        <v>0.270036</v>
       </c>
       <c r="C91" t="n">
-        <v>0.243749</v>
+        <v>0.243851</v>
       </c>
       <c r="D91" t="n">
-        <v>0.213058</v>
+        <v>0.212992</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.257847</v>
+        <v>0.258134</v>
       </c>
       <c r="C92" t="n">
-        <v>0.243105</v>
+        <v>0.243147</v>
       </c>
       <c r="D92" t="n">
-        <v>0.212623</v>
+        <v>0.212648</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.24491</v>
+        <v>0.244897</v>
       </c>
       <c r="C93" t="n">
-        <v>0.242456</v>
+        <v>0.242607</v>
       </c>
       <c r="D93" t="n">
-        <v>0.212279</v>
+        <v>0.212384</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.23093</v>
+        <v>0.231173</v>
       </c>
       <c r="C94" t="n">
-        <v>0.242057</v>
+        <v>0.242155</v>
       </c>
       <c r="D94" t="n">
-        <v>0.21232</v>
+        <v>0.212236</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.351993</v>
+        <v>0.351967</v>
       </c>
       <c r="C95" t="n">
-        <v>0.259485</v>
+        <v>0.260571</v>
       </c>
       <c r="D95" t="n">
-        <v>0.228038</v>
+        <v>0.228627</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.346029</v>
+        <v>0.346121</v>
       </c>
       <c r="C96" t="n">
-        <v>0.256084</v>
+        <v>0.256503</v>
       </c>
       <c r="D96" t="n">
-        <v>0.224449</v>
+        <v>0.224792</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.339973</v>
+        <v>0.340279</v>
       </c>
       <c r="C97" t="n">
-        <v>0.253509</v>
+        <v>0.253661</v>
       </c>
       <c r="D97" t="n">
-        <v>0.221943</v>
+        <v>0.222049</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.333742</v>
+        <v>0.333752</v>
       </c>
       <c r="C98" t="n">
-        <v>0.251448</v>
+        <v>0.251729</v>
       </c>
       <c r="D98" t="n">
-        <v>0.219758</v>
+        <v>0.219822</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.32646</v>
+        <v>0.326691</v>
       </c>
       <c r="C99" t="n">
-        <v>0.250152</v>
+        <v>0.250245</v>
       </c>
       <c r="D99" t="n">
-        <v>0.218349</v>
+        <v>0.218496</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.318908</v>
+        <v>0.318954</v>
       </c>
       <c r="C100" t="n">
-        <v>0.248672</v>
+        <v>0.248834</v>
       </c>
       <c r="D100" t="n">
-        <v>0.217048</v>
+        <v>0.217135</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.310511</v>
+        <v>0.310677</v>
       </c>
       <c r="C101" t="n">
-        <v>0.247604</v>
+        <v>0.247526</v>
       </c>
       <c r="D101" t="n">
-        <v>0.21609</v>
+        <v>0.216089</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.301903</v>
+        <v>0.302106</v>
       </c>
       <c r="C102" t="n">
-        <v>0.246667</v>
+        <v>0.246709</v>
       </c>
       <c r="D102" t="n">
-        <v>0.215153</v>
+        <v>0.215309</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.292926</v>
+        <v>0.293081</v>
       </c>
       <c r="C103" t="n">
-        <v>0.245766</v>
+        <v>0.245834</v>
       </c>
       <c r="D103" t="n">
-        <v>0.21445</v>
+        <v>0.214473</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.283147</v>
+        <v>0.283247</v>
       </c>
       <c r="C104" t="n">
-        <v>0.244817</v>
+        <v>0.245023</v>
       </c>
       <c r="D104" t="n">
-        <v>0.213797</v>
+        <v>0.213789</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.272015</v>
+        <v>0.272719</v>
       </c>
       <c r="C105" t="n">
-        <v>0.244005</v>
+        <v>0.244107</v>
       </c>
       <c r="D105" t="n">
-        <v>0.213128</v>
+        <v>0.213223</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.260469</v>
+        <v>0.260832</v>
       </c>
       <c r="C106" t="n">
-        <v>0.243228</v>
+        <v>0.243341</v>
       </c>
       <c r="D106" t="n">
-        <v>0.212489</v>
+        <v>0.212657</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247982</v>
+        <v>0.247805</v>
       </c>
       <c r="C107" t="n">
-        <v>0.242631</v>
+        <v>0.24258</v>
       </c>
       <c r="D107" t="n">
-        <v>0.212284</v>
+        <v>0.21213</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.234149</v>
+        <v>0.234203</v>
       </c>
       <c r="C108" t="n">
-        <v>0.241958</v>
+        <v>0.242079</v>
       </c>
       <c r="D108" t="n">
-        <v>0.211924</v>
+        <v>0.211954</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.21925</v>
+        <v>0.21929</v>
       </c>
       <c r="C109" t="n">
-        <v>0.241673</v>
+        <v>0.24164</v>
       </c>
       <c r="D109" t="n">
-        <v>0.21245</v>
+        <v>0.212398</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.347715</v>
+        <v>0.347589</v>
       </c>
       <c r="C110" t="n">
-        <v>0.256437</v>
+        <v>0.256628</v>
       </c>
       <c r="D110" t="n">
-        <v>0.224894</v>
+        <v>0.225147</v>
       </c>
     </row>
     <row r="111">
@@ -4778,10 +4778,10 @@
         <v>0.341321</v>
       </c>
       <c r="C111" t="n">
-        <v>0.253876</v>
+        <v>0.254038</v>
       </c>
       <c r="D111" t="n">
-        <v>0.222374</v>
+        <v>0.222578</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.335043</v>
+        <v>0.33488</v>
       </c>
       <c r="C112" t="n">
-        <v>0.251839</v>
+        <v>0.251763</v>
       </c>
       <c r="D112" t="n">
-        <v>0.220162</v>
+        <v>0.220489</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.328112</v>
+        <v>0.32788</v>
       </c>
       <c r="C113" t="n">
-        <v>0.250475</v>
+        <v>0.250318</v>
       </c>
       <c r="D113" t="n">
-        <v>0.218638</v>
+        <v>0.218682</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.320392</v>
+        <v>0.320418</v>
       </c>
       <c r="C114" t="n">
-        <v>0.249243</v>
+        <v>0.249167</v>
       </c>
       <c r="D114" t="n">
-        <v>0.217672</v>
+        <v>0.217336</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.312589</v>
+        <v>0.3125</v>
       </c>
       <c r="C115" t="n">
-        <v>0.248184</v>
+        <v>0.248199</v>
       </c>
       <c r="D115" t="n">
-        <v>0.216531</v>
+        <v>0.216437</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304829</v>
+        <v>0.304426</v>
       </c>
       <c r="C116" t="n">
-        <v>0.247099</v>
+        <v>0.246987</v>
       </c>
       <c r="D116" t="n">
-        <v>0.215829</v>
+        <v>0.215519</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.295721</v>
+        <v>0.295362</v>
       </c>
       <c r="C117" t="n">
-        <v>0.246218</v>
+        <v>0.245868</v>
       </c>
       <c r="D117" t="n">
-        <v>0.215231</v>
+        <v>0.214967</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.285663</v>
+        <v>0.285508</v>
       </c>
       <c r="C118" t="n">
-        <v>0.24538</v>
+        <v>0.245457</v>
       </c>
       <c r="D118" t="n">
-        <v>0.21424</v>
+        <v>0.214245</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.275195</v>
+        <v>0.274939</v>
       </c>
       <c r="C119" t="n">
-        <v>0.244472</v>
+        <v>0.244419</v>
       </c>
       <c r="D119" t="n">
-        <v>0.213906</v>
+        <v>0.213768</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.263717</v>
+        <v>0.263467</v>
       </c>
       <c r="C120" t="n">
-        <v>0.243477</v>
+        <v>0.243553</v>
       </c>
       <c r="D120" t="n">
-        <v>0.213721</v>
+        <v>0.213237</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.251575</v>
+        <v>0.251331</v>
       </c>
       <c r="C121" t="n">
-        <v>0.243002</v>
+        <v>0.242922</v>
       </c>
       <c r="D121" t="n">
-        <v>0.213036</v>
+        <v>0.21332</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.237721</v>
+        <v>0.237522</v>
       </c>
       <c r="C122" t="n">
-        <v>0.242289</v>
+        <v>0.242629</v>
       </c>
       <c r="D122" t="n">
-        <v>0.212737</v>
+        <v>0.212185</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.22277</v>
+        <v>0.222727</v>
       </c>
       <c r="C123" t="n">
-        <v>0.241863</v>
+        <v>0.241899</v>
       </c>
       <c r="D123" t="n">
-        <v>0.212562</v>
+        <v>0.212043</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.349065</v>
+        <v>0.349384</v>
       </c>
       <c r="C124" t="n">
-        <v>0.257453</v>
+        <v>0.257379</v>
       </c>
       <c r="D124" t="n">
-        <v>0.226993</v>
+        <v>0.226745</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.343509</v>
+        <v>0.342992</v>
       </c>
       <c r="C125" t="n">
-        <v>0.254156</v>
+        <v>0.254051</v>
       </c>
       <c r="D125" t="n">
-        <v>0.223287</v>
+        <v>0.223656</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.337142</v>
+        <v>0.336625</v>
       </c>
       <c r="C126" t="n">
-        <v>0.252161</v>
+        <v>0.251865</v>
       </c>
       <c r="D126" t="n">
-        <v>0.222787</v>
+        <v>0.221676</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.329836</v>
+        <v>0.329802</v>
       </c>
       <c r="C127" t="n">
-        <v>0.250132</v>
+        <v>0.250268</v>
       </c>
       <c r="D127" t="n">
-        <v>0.219984</v>
+        <v>0.219332</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.322789</v>
+        <v>0.322465</v>
       </c>
       <c r="C128" t="n">
-        <v>0.248292</v>
+        <v>0.248939</v>
       </c>
       <c r="D128" t="n">
-        <v>0.218369</v>
+        <v>0.218078</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.314756</v>
+        <v>0.314789</v>
       </c>
       <c r="C129" t="n">
-        <v>0.247676</v>
+        <v>0.247507</v>
       </c>
       <c r="D129" t="n">
-        <v>0.217683</v>
+        <v>0.21796</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.306207</v>
+        <v>0.306535</v>
       </c>
       <c r="C130" t="n">
-        <v>0.246299</v>
+        <v>0.246625</v>
       </c>
       <c r="D130" t="n">
-        <v>0.21748</v>
+        <v>0.216891</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.297583</v>
+        <v>0.297407</v>
       </c>
       <c r="C131" t="n">
-        <v>0.245586</v>
+        <v>0.245741</v>
       </c>
       <c r="D131" t="n">
-        <v>0.215321</v>
+        <v>0.216203</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.28805</v>
+        <v>0.287802</v>
       </c>
       <c r="C132" t="n">
-        <v>0.244668</v>
+        <v>0.244644</v>
       </c>
       <c r="D132" t="n">
-        <v>0.215561</v>
+        <v>0.216071</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.277491</v>
+        <v>0.277883</v>
       </c>
       <c r="C133" t="n">
-        <v>0.243999</v>
+        <v>0.244312</v>
       </c>
       <c r="D133" t="n">
-        <v>0.215607</v>
+        <v>0.214308</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.266065</v>
+        <v>0.265999</v>
       </c>
       <c r="C134" t="n">
-        <v>0.24393</v>
+        <v>0.243455</v>
       </c>
       <c r="D134" t="n">
-        <v>0.214412</v>
+        <v>0.213137</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.253606</v>
+        <v>0.253924</v>
       </c>
       <c r="C135" t="n">
-        <v>0.242761</v>
+        <v>0.243008</v>
       </c>
       <c r="D135" t="n">
-        <v>0.213833</v>
+        <v>0.212114</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.240956</v>
+        <v>0.240402</v>
       </c>
       <c r="C136" t="n">
-        <v>0.241919</v>
+        <v>0.242079</v>
       </c>
       <c r="D136" t="n">
-        <v>0.214209</v>
+        <v>0.21373</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.226175</v>
+        <v>0.226025</v>
       </c>
       <c r="C137" t="n">
-        <v>0.24202</v>
+        <v>0.24198</v>
       </c>
       <c r="D137" t="n">
-        <v>0.214645</v>
+        <v>0.21308</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.350421</v>
+        <v>0.350327</v>
       </c>
       <c r="C138" t="n">
-        <v>0.259034</v>
+        <v>0.25943</v>
       </c>
       <c r="D138" t="n">
-        <v>0.231864</v>
+        <v>0.231535</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.34488</v>
+        <v>0.344534</v>
       </c>
       <c r="C139" t="n">
-        <v>0.255855</v>
+        <v>0.255348</v>
       </c>
       <c r="D139" t="n">
-        <v>0.227852</v>
+        <v>0.227788</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338481</v>
+        <v>0.338201</v>
       </c>
       <c r="C140" t="n">
-        <v>0.252664</v>
+        <v>0.252968</v>
       </c>
       <c r="D140" t="n">
-        <v>0.22559</v>
+        <v>0.225604</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331636</v>
+        <v>0.331359</v>
       </c>
       <c r="C141" t="n">
-        <v>0.25134</v>
+        <v>0.25094</v>
       </c>
       <c r="D141" t="n">
-        <v>0.222771</v>
+        <v>0.223265</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.324545</v>
+        <v>0.324519</v>
       </c>
       <c r="C142" t="n">
-        <v>0.249767</v>
+        <v>0.249128</v>
       </c>
       <c r="D142" t="n">
-        <v>0.223419</v>
+        <v>0.222084</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.316838</v>
+        <v>0.317201</v>
       </c>
       <c r="C143" t="n">
-        <v>0.247769</v>
+        <v>0.248358</v>
       </c>
       <c r="D143" t="n">
-        <v>0.220864</v>
+        <v>0.220956</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.298842</v>
+        <v>0.298622</v>
       </c>
       <c r="C2" t="n">
-        <v>0.223894</v>
+        <v>0.223935</v>
       </c>
       <c r="D2" t="n">
-        <v>0.198872</v>
+        <v>0.199361</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.291273</v>
+        <v>0.292627</v>
       </c>
       <c r="C3" t="n">
-        <v>0.223455</v>
+        <v>0.22357</v>
       </c>
       <c r="D3" t="n">
-        <v>0.199643</v>
+        <v>0.199489</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.280127</v>
+        <v>0.279684</v>
       </c>
       <c r="C4" t="n">
-        <v>0.22526</v>
+        <v>0.225396</v>
       </c>
       <c r="D4" t="n">
-        <v>0.201289</v>
+        <v>0.200491</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.273709</v>
+        <v>0.270007</v>
       </c>
       <c r="C5" t="n">
-        <v>0.225795</v>
+        <v>0.225096</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200874</v>
+        <v>0.201228</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.25753</v>
+        <v>0.257541</v>
       </c>
       <c r="C6" t="n">
-        <v>0.225714</v>
+        <v>0.22499</v>
       </c>
       <c r="D6" t="n">
-        <v>0.202088</v>
+        <v>0.201202</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.244071</v>
+        <v>0.243803</v>
       </c>
       <c r="C7" t="n">
-        <v>0.226138</v>
+        <v>0.225561</v>
       </c>
       <c r="D7" t="n">
-        <v>0.202495</v>
+        <v>0.202003</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.232096</v>
+        <v>0.2311</v>
       </c>
       <c r="C8" t="n">
-        <v>0.226084</v>
+        <v>0.225627</v>
       </c>
       <c r="D8" t="n">
-        <v>0.203204</v>
+        <v>0.20293</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.217887</v>
+        <v>0.219134</v>
       </c>
       <c r="C9" t="n">
-        <v>0.225864</v>
+        <v>0.226126</v>
       </c>
       <c r="D9" t="n">
-        <v>0.202899</v>
+        <v>0.220046</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.344887</v>
+        <v>0.34498</v>
       </c>
       <c r="C10" t="n">
-        <v>0.246127</v>
+        <v>0.246558</v>
       </c>
       <c r="D10" t="n">
-        <v>0.218104</v>
+        <v>0.216796</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.340389</v>
+        <v>0.339155</v>
       </c>
       <c r="C11" t="n">
-        <v>0.245264</v>
+        <v>0.243521</v>
       </c>
       <c r="D11" t="n">
-        <v>0.214787</v>
+        <v>0.215608</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.332701</v>
+        <v>0.333731</v>
       </c>
       <c r="C12" t="n">
-        <v>0.24375</v>
+        <v>0.242983</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214644</v>
+        <v>0.223243</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.326861</v>
+        <v>0.327748</v>
       </c>
       <c r="C13" t="n">
-        <v>0.243748</v>
+        <v>0.241308</v>
       </c>
       <c r="D13" t="n">
-        <v>0.21286</v>
+        <v>0.212468</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.318557</v>
+        <v>0.323347</v>
       </c>
       <c r="C14" t="n">
-        <v>0.24069</v>
+        <v>0.238597</v>
       </c>
       <c r="D14" t="n">
-        <v>0.211862</v>
+        <v>0.224798</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.310934</v>
+        <v>0.31298</v>
       </c>
       <c r="C15" t="n">
-        <v>0.240011</v>
+        <v>0.238454</v>
       </c>
       <c r="D15" t="n">
-        <v>0.210896</v>
+        <v>0.21072</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.30332</v>
+        <v>0.304517</v>
       </c>
       <c r="C16" t="n">
-        <v>0.23999</v>
+        <v>0.238872</v>
       </c>
       <c r="D16" t="n">
-        <v>0.211068</v>
+        <v>0.210098</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.293801</v>
+        <v>0.297436</v>
       </c>
       <c r="C17" t="n">
-        <v>0.239768</v>
+        <v>0.238292</v>
       </c>
       <c r="D17" t="n">
-        <v>0.21075</v>
+        <v>0.210193</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.286285</v>
+        <v>0.286721</v>
       </c>
       <c r="C18" t="n">
-        <v>0.239104</v>
+        <v>0.239218</v>
       </c>
       <c r="D18" t="n">
-        <v>0.210848</v>
+        <v>0.208996</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.275405</v>
+        <v>0.27886</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2379</v>
+        <v>0.237412</v>
       </c>
       <c r="D19" t="n">
-        <v>0.210418</v>
+        <v>0.210028</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.263704</v>
+        <v>0.269594</v>
       </c>
       <c r="C20" t="n">
-        <v>0.23739</v>
+        <v>0.236713</v>
       </c>
       <c r="D20" t="n">
-        <v>0.210759</v>
+        <v>0.209613</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.252437</v>
+        <v>0.256815</v>
       </c>
       <c r="C21" t="n">
-        <v>0.237202</v>
+        <v>0.236974</v>
       </c>
       <c r="D21" t="n">
-        <v>0.210736</v>
+        <v>0.211439</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.240494</v>
+        <v>0.240557</v>
       </c>
       <c r="C22" t="n">
-        <v>0.237324</v>
+        <v>0.236902</v>
       </c>
       <c r="D22" t="n">
-        <v>0.210531</v>
+        <v>0.209389</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.226597</v>
+        <v>0.230767</v>
       </c>
       <c r="C23" t="n">
-        <v>0.23687</v>
+        <v>0.237572</v>
       </c>
       <c r="D23" t="n">
-        <v>0.210111</v>
+        <v>0.224193</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348956</v>
+        <v>0.348605</v>
       </c>
       <c r="C24" t="n">
-        <v>0.254822</v>
+        <v>0.254779</v>
       </c>
       <c r="D24" t="n">
-        <v>0.226222</v>
+        <v>0.222236</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342337</v>
+        <v>0.341808</v>
       </c>
       <c r="C25" t="n">
-        <v>0.25311</v>
+        <v>0.253057</v>
       </c>
       <c r="D25" t="n">
-        <v>0.223239</v>
+        <v>0.221302</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.336247</v>
+        <v>0.33586</v>
       </c>
       <c r="C26" t="n">
-        <v>0.250292</v>
+        <v>0.251043</v>
       </c>
       <c r="D26" t="n">
-        <v>0.221044</v>
+        <v>0.220377</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328648</v>
+        <v>0.329094</v>
       </c>
       <c r="C27" t="n">
-        <v>0.248955</v>
+        <v>0.249352</v>
       </c>
       <c r="D27" t="n">
-        <v>0.219193</v>
+        <v>0.218684</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.322417</v>
+        <v>0.322361</v>
       </c>
       <c r="C28" t="n">
-        <v>0.247494</v>
+        <v>0.247691</v>
       </c>
       <c r="D28" t="n">
-        <v>0.217223</v>
+        <v>0.216912</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.314711</v>
+        <v>0.315395</v>
       </c>
       <c r="C29" t="n">
-        <v>0.246646</v>
+        <v>0.246025</v>
       </c>
       <c r="D29" t="n">
-        <v>0.216469</v>
+        <v>0.216279</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.306862</v>
+        <v>0.307255</v>
       </c>
       <c r="C30" t="n">
-        <v>0.244681</v>
+        <v>0.244711</v>
       </c>
       <c r="D30" t="n">
-        <v>0.215312</v>
+        <v>0.214667</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.298394</v>
+        <v>0.298601</v>
       </c>
       <c r="C31" t="n">
-        <v>0.243647</v>
+        <v>0.244029</v>
       </c>
       <c r="D31" t="n">
-        <v>0.214353</v>
+        <v>0.214432</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.289213</v>
+        <v>0.288969</v>
       </c>
       <c r="C32" t="n">
-        <v>0.243535</v>
+        <v>0.243104</v>
       </c>
       <c r="D32" t="n">
-        <v>0.213736</v>
+        <v>0.213627</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.279657</v>
+        <v>0.27962</v>
       </c>
       <c r="C33" t="n">
-        <v>0.24262</v>
+        <v>0.242845</v>
       </c>
       <c r="D33" t="n">
-        <v>0.213865</v>
+        <v>0.213387</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.268986</v>
+        <v>0.269031</v>
       </c>
       <c r="C34" t="n">
-        <v>0.241831</v>
+        <v>0.241783</v>
       </c>
       <c r="D34" t="n">
-        <v>0.212886</v>
+        <v>0.212718</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.257982</v>
+        <v>0.258342</v>
       </c>
       <c r="C35" t="n">
-        <v>0.242253</v>
+        <v>0.242004</v>
       </c>
       <c r="D35" t="n">
-        <v>0.21187</v>
+        <v>0.212604</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.245059</v>
+        <v>0.244912</v>
       </c>
       <c r="C36" t="n">
-        <v>0.242035</v>
+        <v>0.241416</v>
       </c>
       <c r="D36" t="n">
-        <v>0.212666</v>
+        <v>0.212668</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.230923</v>
+        <v>0.230904</v>
       </c>
       <c r="C37" t="n">
-        <v>0.241036</v>
+        <v>0.24089</v>
       </c>
       <c r="D37" t="n">
-        <v>0.21321</v>
+        <v>0.226954</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.349793</v>
+        <v>0.349666</v>
       </c>
       <c r="C38" t="n">
-        <v>0.260942</v>
+        <v>0.261216</v>
       </c>
       <c r="D38" t="n">
-        <v>0.230096</v>
+        <v>0.224082</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3451</v>
+        <v>0.345046</v>
       </c>
       <c r="C39" t="n">
-        <v>0.257831</v>
+        <v>0.258062</v>
       </c>
       <c r="D39" t="n">
-        <v>0.226897</v>
+        <v>0.222342</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.33902</v>
+        <v>0.338995</v>
       </c>
       <c r="C40" t="n">
-        <v>0.254568</v>
+        <v>0.254231</v>
       </c>
       <c r="D40" t="n">
-        <v>0.225274</v>
+        <v>0.22064</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.332308</v>
+        <v>0.332396</v>
       </c>
       <c r="C41" t="n">
-        <v>0.251449</v>
+        <v>0.251227</v>
       </c>
       <c r="D41" t="n">
-        <v>0.220652</v>
+        <v>0.21879</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.32527</v>
+        <v>0.325152</v>
       </c>
       <c r="C42" t="n">
-        <v>0.250561</v>
+        <v>0.250544</v>
       </c>
       <c r="D42" t="n">
-        <v>0.218661</v>
+        <v>0.217642</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.317235</v>
+        <v>0.317298</v>
       </c>
       <c r="C43" t="n">
-        <v>0.249187</v>
+        <v>0.249139</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2174</v>
+        <v>0.216835</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.309729</v>
+        <v>0.309707</v>
       </c>
       <c r="C44" t="n">
-        <v>0.247888</v>
+        <v>0.247649</v>
       </c>
       <c r="D44" t="n">
-        <v>0.216095</v>
+        <v>0.215532</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300865</v>
+        <v>0.300453</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246897</v>
+        <v>0.2466</v>
       </c>
       <c r="D45" t="n">
-        <v>0.21461</v>
+        <v>0.214572</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.292419</v>
+        <v>0.292056</v>
       </c>
       <c r="C46" t="n">
-        <v>0.245843</v>
+        <v>0.245658</v>
       </c>
       <c r="D46" t="n">
-        <v>0.21395</v>
+        <v>0.213912</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.282877</v>
+        <v>0.282746</v>
       </c>
       <c r="C47" t="n">
-        <v>0.244647</v>
+        <v>0.244723</v>
       </c>
       <c r="D47" t="n">
-        <v>0.214294</v>
+        <v>0.213922</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.27219</v>
+        <v>0.271969</v>
       </c>
       <c r="C48" t="n">
-        <v>0.243469</v>
+        <v>0.243575</v>
       </c>
       <c r="D48" t="n">
-        <v>0.21322</v>
+        <v>0.212819</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.26117</v>
+        <v>0.261035</v>
       </c>
       <c r="C49" t="n">
-        <v>0.243183</v>
+        <v>0.243172</v>
       </c>
       <c r="D49" t="n">
-        <v>0.212847</v>
+        <v>0.213097</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.248942</v>
+        <v>0.248801</v>
       </c>
       <c r="C50" t="n">
-        <v>0.242837</v>
+        <v>0.242633</v>
       </c>
       <c r="D50" t="n">
-        <v>0.212941</v>
+        <v>0.213698</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.23498</v>
+        <v>0.235172</v>
       </c>
       <c r="C51" t="n">
-        <v>0.242174</v>
+        <v>0.241945</v>
       </c>
       <c r="D51" t="n">
-        <v>0.212805</v>
+        <v>0.225839</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.220151</v>
+        <v>0.220069</v>
       </c>
       <c r="C52" t="n">
-        <v>0.241338</v>
+        <v>0.241439</v>
       </c>
       <c r="D52" t="n">
-        <v>0.217171</v>
+        <v>0.223527</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.347293</v>
+        <v>0.347029</v>
       </c>
       <c r="C53" t="n">
-        <v>0.257747</v>
+        <v>0.257371</v>
       </c>
       <c r="D53" t="n">
-        <v>0.226216</v>
+        <v>0.222099</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.341288</v>
+        <v>0.340976</v>
       </c>
       <c r="C54" t="n">
-        <v>0.254621</v>
+        <v>0.25455</v>
       </c>
       <c r="D54" t="n">
-        <v>0.223165</v>
+        <v>0.220674</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.335067</v>
+        <v>0.33522</v>
       </c>
       <c r="C55" t="n">
-        <v>0.251992</v>
+        <v>0.251981</v>
       </c>
       <c r="D55" t="n">
-        <v>0.220756</v>
+        <v>0.219471</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.327837</v>
+        <v>0.327649</v>
       </c>
       <c r="C56" t="n">
-        <v>0.250579</v>
+        <v>0.250513</v>
       </c>
       <c r="D56" t="n">
-        <v>0.219243</v>
+        <v>0.218157</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.320565</v>
+        <v>0.320787</v>
       </c>
       <c r="C57" t="n">
-        <v>0.249156</v>
+        <v>0.249138</v>
       </c>
       <c r="D57" t="n">
-        <v>0.217644</v>
+        <v>0.216966</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.313309</v>
+        <v>0.31304</v>
       </c>
       <c r="C58" t="n">
-        <v>0.247808</v>
+        <v>0.247687</v>
       </c>
       <c r="D58" t="n">
-        <v>0.216829</v>
+        <v>0.216354</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.305194</v>
+        <v>0.304561</v>
       </c>
       <c r="C59" t="n">
-        <v>0.246632</v>
+        <v>0.246622</v>
       </c>
       <c r="D59" t="n">
-        <v>0.215484</v>
+        <v>0.215457</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294953</v>
+        <v>0.294721</v>
       </c>
       <c r="C60" t="n">
-        <v>0.2457</v>
+        <v>0.24564</v>
       </c>
       <c r="D60" t="n">
-        <v>0.214734</v>
+        <v>0.214536</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.285301</v>
+        <v>0.285089</v>
       </c>
       <c r="C61" t="n">
-        <v>0.245046</v>
+        <v>0.245293</v>
       </c>
       <c r="D61" t="n">
-        <v>0.214042</v>
+        <v>0.214121</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.274978</v>
+        <v>0.274294</v>
       </c>
       <c r="C62" t="n">
-        <v>0.244148</v>
+        <v>0.244161</v>
       </c>
       <c r="D62" t="n">
-        <v>0.213317</v>
+        <v>0.213507</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.26364</v>
+        <v>0.262984</v>
       </c>
       <c r="C63" t="n">
-        <v>0.24318</v>
+        <v>0.243319</v>
       </c>
       <c r="D63" t="n">
-        <v>0.212964</v>
+        <v>0.213266</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.251067</v>
+        <v>0.250758</v>
       </c>
       <c r="C64" t="n">
-        <v>0.243086</v>
+        <v>0.242981</v>
       </c>
       <c r="D64" t="n">
-        <v>0.212504</v>
+        <v>0.21252</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.238193</v>
+        <v>0.237808</v>
       </c>
       <c r="C65" t="n">
-        <v>0.242084</v>
+        <v>0.242004</v>
       </c>
       <c r="D65" t="n">
-        <v>0.21232</v>
+        <v>0.212382</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.223606</v>
+        <v>0.223367</v>
       </c>
       <c r="C66" t="n">
-        <v>0.241504</v>
+        <v>0.241288</v>
       </c>
       <c r="D66" t="n">
-        <v>0.21389</v>
+        <v>0.22489</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.349104</v>
+        <v>0.349079</v>
       </c>
       <c r="C67" t="n">
-        <v>0.25956</v>
+        <v>0.259442</v>
       </c>
       <c r="D67" t="n">
-        <v>0.228011</v>
+        <v>0.222831</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.342998</v>
+        <v>0.342582</v>
       </c>
       <c r="C68" t="n">
-        <v>0.255682</v>
+        <v>0.255526</v>
       </c>
       <c r="D68" t="n">
-        <v>0.224032</v>
+        <v>0.221076</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.336845</v>
+        <v>0.336543</v>
       </c>
       <c r="C69" t="n">
-        <v>0.252762</v>
+        <v>0.252531</v>
       </c>
       <c r="D69" t="n">
-        <v>0.220885</v>
+        <v>0.219582</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.330137</v>
+        <v>0.329967</v>
       </c>
       <c r="C70" t="n">
-        <v>0.250899</v>
+        <v>0.250929</v>
       </c>
       <c r="D70" t="n">
-        <v>0.219005</v>
+        <v>0.218545</v>
       </c>
     </row>
     <row r="71">
@@ -4215,10 +4215,10 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.322959</v>
+        <v>0.322547</v>
       </c>
       <c r="C71" t="n">
-        <v>0.249565</v>
+        <v>0.249496</v>
       </c>
       <c r="D71" t="n">
         <v>0.217798</v>
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.31563</v>
+        <v>0.315258</v>
       </c>
       <c r="C72" t="n">
-        <v>0.248242</v>
+        <v>0.248167</v>
       </c>
       <c r="D72" t="n">
-        <v>0.216588</v>
+        <v>0.216549</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.307228</v>
+        <v>0.306827</v>
       </c>
       <c r="C73" t="n">
-        <v>0.247012</v>
+        <v>0.246834</v>
       </c>
       <c r="D73" t="n">
-        <v>0.21571</v>
+        <v>0.215483</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.298602</v>
+        <v>0.298323</v>
       </c>
       <c r="C74" t="n">
-        <v>0.245907</v>
+        <v>0.245757</v>
       </c>
       <c r="D74" t="n">
-        <v>0.214656</v>
+        <v>0.214526</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.288992</v>
+        <v>0.288802</v>
       </c>
       <c r="C75" t="n">
-        <v>0.245098</v>
+        <v>0.245044</v>
       </c>
       <c r="D75" t="n">
-        <v>0.214086</v>
+        <v>0.214106</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.278876</v>
+        <v>0.278523</v>
       </c>
       <c r="C76" t="n">
-        <v>0.244458</v>
+        <v>0.244364</v>
       </c>
       <c r="D76" t="n">
-        <v>0.213348</v>
+        <v>0.21346</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.267499</v>
+        <v>0.267281</v>
       </c>
       <c r="C77" t="n">
-        <v>0.243252</v>
+        <v>0.243196</v>
       </c>
       <c r="D77" t="n">
-        <v>0.212828</v>
+        <v>0.213106</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.255051</v>
+        <v>0.254926</v>
       </c>
       <c r="C78" t="n">
-        <v>0.242392</v>
+        <v>0.242264</v>
       </c>
       <c r="D78" t="n">
-        <v>0.212523</v>
+        <v>0.212647</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.242315</v>
+        <v>0.241912</v>
       </c>
       <c r="C79" t="n">
-        <v>0.242058</v>
+        <v>0.241815</v>
       </c>
       <c r="D79" t="n">
-        <v>0.211979</v>
+        <v>0.212435</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227542</v>
+        <v>0.227421</v>
       </c>
       <c r="C80" t="n">
-        <v>0.24199</v>
+        <v>0.241811</v>
       </c>
       <c r="D80" t="n">
-        <v>0.212339</v>
+        <v>0.225285</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.350347</v>
+        <v>0.350514</v>
       </c>
       <c r="C81" t="n">
-        <v>0.258995</v>
+        <v>0.258831</v>
       </c>
       <c r="D81" t="n">
-        <v>0.227629</v>
+        <v>0.223307</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.344788</v>
+        <v>0.344575</v>
       </c>
       <c r="C82" t="n">
-        <v>0.255328</v>
+        <v>0.255147</v>
       </c>
       <c r="D82" t="n">
-        <v>0.223927</v>
+        <v>0.221601</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.338547</v>
+        <v>0.338154</v>
       </c>
       <c r="C83" t="n">
-        <v>0.252773</v>
+        <v>0.252602</v>
       </c>
       <c r="D83" t="n">
-        <v>0.221156</v>
+        <v>0.219995</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.332152</v>
+        <v>0.332097</v>
       </c>
       <c r="C84" t="n">
-        <v>0.250809</v>
+        <v>0.25066</v>
       </c>
       <c r="D84" t="n">
-        <v>0.219328</v>
+        <v>0.21877</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.325021</v>
+        <v>0.324355</v>
       </c>
       <c r="C85" t="n">
-        <v>0.249556</v>
+        <v>0.249488</v>
       </c>
       <c r="D85" t="n">
-        <v>0.218014</v>
+        <v>0.217656</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.31723</v>
+        <v>0.316901</v>
       </c>
       <c r="C86" t="n">
-        <v>0.248375</v>
+        <v>0.248249</v>
       </c>
       <c r="D86" t="n">
-        <v>0.216809</v>
+        <v>0.216752</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.308955</v>
+        <v>0.308853</v>
       </c>
       <c r="C87" t="n">
-        <v>0.247187</v>
+        <v>0.247029</v>
       </c>
       <c r="D87" t="n">
-        <v>0.215922</v>
+        <v>0.215744</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300216</v>
+        <v>0.300125</v>
       </c>
       <c r="C88" t="n">
-        <v>0.246376</v>
+        <v>0.246318</v>
       </c>
       <c r="D88" t="n">
-        <v>0.215047</v>
+        <v>0.214972</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.291015</v>
+        <v>0.290948</v>
       </c>
       <c r="C89" t="n">
-        <v>0.245448</v>
+        <v>0.245364</v>
       </c>
       <c r="D89" t="n">
-        <v>0.214192</v>
+        <v>0.214307</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.28076</v>
+        <v>0.280763</v>
       </c>
       <c r="C90" t="n">
-        <v>0.244668</v>
+        <v>0.244671</v>
       </c>
       <c r="D90" t="n">
-        <v>0.213648</v>
+        <v>0.213612</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.270036</v>
+        <v>0.269582</v>
       </c>
       <c r="C91" t="n">
-        <v>0.243851</v>
+        <v>0.243737</v>
       </c>
       <c r="D91" t="n">
-        <v>0.212992</v>
+        <v>0.213088</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.258134</v>
+        <v>0.257689</v>
       </c>
       <c r="C92" t="n">
-        <v>0.243147</v>
+        <v>0.243046</v>
       </c>
       <c r="D92" t="n">
-        <v>0.212648</v>
+        <v>0.212667</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.244897</v>
+        <v>0.244816</v>
       </c>
       <c r="C93" t="n">
-        <v>0.242607</v>
+        <v>0.242494</v>
       </c>
       <c r="D93" t="n">
-        <v>0.212384</v>
+        <v>0.212478</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.231173</v>
+        <v>0.230694</v>
       </c>
       <c r="C94" t="n">
-        <v>0.242155</v>
+        <v>0.241907</v>
       </c>
       <c r="D94" t="n">
-        <v>0.212236</v>
+        <v>0.225797</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.351967</v>
+        <v>0.351667</v>
       </c>
       <c r="C95" t="n">
-        <v>0.260571</v>
+        <v>0.259998</v>
       </c>
       <c r="D95" t="n">
-        <v>0.228627</v>
+        <v>0.223542</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.346121</v>
+        <v>0.346027</v>
       </c>
       <c r="C96" t="n">
-        <v>0.256503</v>
+        <v>0.256494</v>
       </c>
       <c r="D96" t="n">
-        <v>0.224792</v>
+        <v>0.221885</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.340279</v>
+        <v>0.339998</v>
       </c>
       <c r="C97" t="n">
-        <v>0.253661</v>
+        <v>0.253365</v>
       </c>
       <c r="D97" t="n">
-        <v>0.222049</v>
+        <v>0.220304</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.333752</v>
+        <v>0.333769</v>
       </c>
       <c r="C98" t="n">
-        <v>0.251729</v>
+        <v>0.251339</v>
       </c>
       <c r="D98" t="n">
-        <v>0.219822</v>
+        <v>0.21906</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.326691</v>
+        <v>0.326215</v>
       </c>
       <c r="C99" t="n">
-        <v>0.250245</v>
+        <v>0.250112</v>
       </c>
       <c r="D99" t="n">
-        <v>0.218496</v>
+        <v>0.21799</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.318954</v>
+        <v>0.318791</v>
       </c>
       <c r="C100" t="n">
-        <v>0.248834</v>
+        <v>0.24869</v>
       </c>
       <c r="D100" t="n">
-        <v>0.217135</v>
+        <v>0.2168</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.310677</v>
+        <v>0.310656</v>
       </c>
       <c r="C101" t="n">
-        <v>0.247526</v>
+        <v>0.247569</v>
       </c>
       <c r="D101" t="n">
-        <v>0.216089</v>
+        <v>0.215983</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302106</v>
+        <v>0.302288</v>
       </c>
       <c r="C102" t="n">
-        <v>0.246709</v>
+        <v>0.246725</v>
       </c>
       <c r="D102" t="n">
-        <v>0.215309</v>
+        <v>0.215282</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.293081</v>
+        <v>0.293095</v>
       </c>
       <c r="C103" t="n">
-        <v>0.245834</v>
+        <v>0.24566</v>
       </c>
       <c r="D103" t="n">
-        <v>0.214473</v>
+        <v>0.214429</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.283247</v>
+        <v>0.283034</v>
       </c>
       <c r="C104" t="n">
-        <v>0.245023</v>
+        <v>0.244773</v>
       </c>
       <c r="D104" t="n">
-        <v>0.213789</v>
+        <v>0.213833</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.272719</v>
+        <v>0.272219</v>
       </c>
       <c r="C105" t="n">
-        <v>0.244107</v>
+        <v>0.243994</v>
       </c>
       <c r="D105" t="n">
-        <v>0.213223</v>
+        <v>0.213264</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.260832</v>
+        <v>0.260366</v>
       </c>
       <c r="C106" t="n">
-        <v>0.243341</v>
+        <v>0.243317</v>
       </c>
       <c r="D106" t="n">
-        <v>0.212657</v>
+        <v>0.212705</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247805</v>
+        <v>0.247684</v>
       </c>
       <c r="C107" t="n">
-        <v>0.24258</v>
+        <v>0.242474</v>
       </c>
       <c r="D107" t="n">
-        <v>0.21213</v>
+        <v>0.212355</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.234203</v>
+        <v>0.233745</v>
       </c>
       <c r="C108" t="n">
-        <v>0.242079</v>
+        <v>0.242099</v>
       </c>
       <c r="D108" t="n">
-        <v>0.211954</v>
+        <v>0.226197</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.21929</v>
+        <v>0.219047</v>
       </c>
       <c r="C109" t="n">
-        <v>0.24164</v>
+        <v>0.241703</v>
       </c>
       <c r="D109" t="n">
-        <v>0.212398</v>
+        <v>0.223919</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.347589</v>
+        <v>0.347422</v>
       </c>
       <c r="C110" t="n">
-        <v>0.256628</v>
+        <v>0.256394</v>
       </c>
       <c r="D110" t="n">
-        <v>0.225147</v>
+        <v>0.222043</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.341321</v>
+        <v>0.341392</v>
       </c>
       <c r="C111" t="n">
-        <v>0.254038</v>
+        <v>0.253768</v>
       </c>
       <c r="D111" t="n">
-        <v>0.222578</v>
+        <v>0.22064</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.33488</v>
+        <v>0.334829</v>
       </c>
       <c r="C112" t="n">
-        <v>0.251763</v>
+        <v>0.251564</v>
       </c>
       <c r="D112" t="n">
-        <v>0.220489</v>
+        <v>0.219564</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.32788</v>
+        <v>0.327639</v>
       </c>
       <c r="C113" t="n">
-        <v>0.250318</v>
+        <v>0.250166</v>
       </c>
       <c r="D113" t="n">
-        <v>0.218682</v>
+        <v>0.218449</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.320418</v>
+        <v>0.320434</v>
       </c>
       <c r="C114" t="n">
-        <v>0.249167</v>
+        <v>0.249128</v>
       </c>
       <c r="D114" t="n">
-        <v>0.217336</v>
+        <v>0.216992</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.3125</v>
+        <v>0.312385</v>
       </c>
       <c r="C115" t="n">
-        <v>0.248199</v>
+        <v>0.247837</v>
       </c>
       <c r="D115" t="n">
-        <v>0.216437</v>
+        <v>0.216513</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304426</v>
+        <v>0.304174</v>
       </c>
       <c r="C116" t="n">
-        <v>0.246987</v>
+        <v>0.24694</v>
       </c>
       <c r="D116" t="n">
-        <v>0.215519</v>
+        <v>0.215207</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.295362</v>
+        <v>0.295278</v>
       </c>
       <c r="C117" t="n">
-        <v>0.245868</v>
+        <v>0.246079</v>
       </c>
       <c r="D117" t="n">
-        <v>0.214967</v>
+        <v>0.21456</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.285508</v>
+        <v>0.285237</v>
       </c>
       <c r="C118" t="n">
-        <v>0.245457</v>
+        <v>0.24514</v>
       </c>
       <c r="D118" t="n">
-        <v>0.214245</v>
+        <v>0.214444</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.274939</v>
+        <v>0.27471</v>
       </c>
       <c r="C119" t="n">
-        <v>0.244419</v>
+        <v>0.244383</v>
       </c>
       <c r="D119" t="n">
-        <v>0.213768</v>
+        <v>0.21355</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.263467</v>
+        <v>0.263093</v>
       </c>
       <c r="C120" t="n">
-        <v>0.243553</v>
+        <v>0.243315</v>
       </c>
       <c r="D120" t="n">
-        <v>0.213237</v>
+        <v>0.213121</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.251331</v>
+        <v>0.251142</v>
       </c>
       <c r="C121" t="n">
-        <v>0.242922</v>
+        <v>0.242661</v>
       </c>
       <c r="D121" t="n">
-        <v>0.21332</v>
+        <v>0.213704</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.237522</v>
+        <v>0.237212</v>
       </c>
       <c r="C122" t="n">
-        <v>0.242629</v>
+        <v>0.242151</v>
       </c>
       <c r="D122" t="n">
-        <v>0.212185</v>
+        <v>0.212679</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.222727</v>
+        <v>0.222803</v>
       </c>
       <c r="C123" t="n">
-        <v>0.241899</v>
+        <v>0.24169</v>
       </c>
       <c r="D123" t="n">
-        <v>0.212043</v>
+        <v>0.225814</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.349384</v>
+        <v>0.349077</v>
       </c>
       <c r="C124" t="n">
-        <v>0.257379</v>
+        <v>0.257318</v>
       </c>
       <c r="D124" t="n">
-        <v>0.226745</v>
+        <v>0.223275</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.342992</v>
+        <v>0.343022</v>
       </c>
       <c r="C125" t="n">
-        <v>0.254051</v>
+        <v>0.254594</v>
       </c>
       <c r="D125" t="n">
-        <v>0.223656</v>
+        <v>0.221102</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.336625</v>
+        <v>0.336391</v>
       </c>
       <c r="C126" t="n">
-        <v>0.251865</v>
+        <v>0.252135</v>
       </c>
       <c r="D126" t="n">
-        <v>0.221676</v>
+        <v>0.220342</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.329802</v>
+        <v>0.329967</v>
       </c>
       <c r="C127" t="n">
-        <v>0.250268</v>
+        <v>0.250453</v>
       </c>
       <c r="D127" t="n">
-        <v>0.219332</v>
+        <v>0.21912</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.322465</v>
+        <v>0.322352</v>
       </c>
       <c r="C128" t="n">
-        <v>0.248939</v>
+        <v>0.248477</v>
       </c>
       <c r="D128" t="n">
-        <v>0.218078</v>
+        <v>0.21782</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.314789</v>
+        <v>0.3144</v>
       </c>
       <c r="C129" t="n">
-        <v>0.247507</v>
+        <v>0.247567</v>
       </c>
       <c r="D129" t="n">
-        <v>0.21796</v>
+        <v>0.217717</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.306535</v>
+        <v>0.306107</v>
       </c>
       <c r="C130" t="n">
-        <v>0.246625</v>
+        <v>0.246231</v>
       </c>
       <c r="D130" t="n">
-        <v>0.216891</v>
+        <v>0.216063</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.297407</v>
+        <v>0.297423</v>
       </c>
       <c r="C131" t="n">
-        <v>0.245741</v>
+        <v>0.245268</v>
       </c>
       <c r="D131" t="n">
-        <v>0.216203</v>
+        <v>0.215983</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.287802</v>
+        <v>0.287976</v>
       </c>
       <c r="C132" t="n">
-        <v>0.244644</v>
+        <v>0.244665</v>
       </c>
       <c r="D132" t="n">
-        <v>0.216071</v>
+        <v>0.215963</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.277883</v>
+        <v>0.277282</v>
       </c>
       <c r="C133" t="n">
-        <v>0.244312</v>
+        <v>0.244558</v>
       </c>
       <c r="D133" t="n">
-        <v>0.214308</v>
+        <v>0.215408</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.265999</v>
+        <v>0.266292</v>
       </c>
       <c r="C134" t="n">
-        <v>0.243455</v>
+        <v>0.243478</v>
       </c>
       <c r="D134" t="n">
-        <v>0.213137</v>
+        <v>0.213876</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.253924</v>
+        <v>0.25366</v>
       </c>
       <c r="C135" t="n">
-        <v>0.243008</v>
+        <v>0.24252</v>
       </c>
       <c r="D135" t="n">
-        <v>0.212114</v>
+        <v>0.212614</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.240402</v>
+        <v>0.24019</v>
       </c>
       <c r="C136" t="n">
-        <v>0.242079</v>
+        <v>0.242297</v>
       </c>
       <c r="D136" t="n">
-        <v>0.21373</v>
+        <v>0.213331</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.226025</v>
+        <v>0.226019</v>
       </c>
       <c r="C137" t="n">
-        <v>0.24198</v>
+        <v>0.24169</v>
       </c>
       <c r="D137" t="n">
-        <v>0.21308</v>
+        <v>0.228742</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.350327</v>
+        <v>0.350708</v>
       </c>
       <c r="C138" t="n">
-        <v>0.25943</v>
+        <v>0.260042</v>
       </c>
       <c r="D138" t="n">
-        <v>0.231535</v>
+        <v>0.22709</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.344534</v>
+        <v>0.34472</v>
       </c>
       <c r="C139" t="n">
-        <v>0.255348</v>
+        <v>0.255255</v>
       </c>
       <c r="D139" t="n">
-        <v>0.227788</v>
+        <v>0.225001</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338201</v>
+        <v>0.338668</v>
       </c>
       <c r="C140" t="n">
-        <v>0.252968</v>
+        <v>0.253009</v>
       </c>
       <c r="D140" t="n">
-        <v>0.225604</v>
+        <v>0.223092</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331359</v>
+        <v>0.331943</v>
       </c>
       <c r="C141" t="n">
-        <v>0.25094</v>
+        <v>0.251771</v>
       </c>
       <c r="D141" t="n">
-        <v>0.223265</v>
+        <v>0.221961</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.324519</v>
+        <v>0.324455</v>
       </c>
       <c r="C142" t="n">
-        <v>0.249128</v>
+        <v>0.249991</v>
       </c>
       <c r="D142" t="n">
-        <v>0.222084</v>
+        <v>0.221207</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.317201</v>
+        <v>0.316239</v>
       </c>
       <c r="C143" t="n">
-        <v>0.248358</v>
+        <v>0.248221</v>
       </c>
       <c r="D143" t="n">
-        <v>0.220956</v>
+        <v>0.221466</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.298622</v>
+        <v>0.29489</v>
       </c>
       <c r="C2" t="n">
-        <v>0.223935</v>
+        <v>0.224208</v>
       </c>
       <c r="D2" t="n">
-        <v>0.199361</v>
+        <v>0.199062</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.292627</v>
+        <v>0.289052</v>
       </c>
       <c r="C3" t="n">
-        <v>0.22357</v>
+        <v>0.222615</v>
       </c>
       <c r="D3" t="n">
-        <v>0.199489</v>
+        <v>0.199286</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279684</v>
+        <v>0.278989</v>
       </c>
       <c r="C4" t="n">
-        <v>0.225396</v>
+        <v>0.22585</v>
       </c>
       <c r="D4" t="n">
-        <v>0.200491</v>
+        <v>0.200611</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.270007</v>
+        <v>0.273438</v>
       </c>
       <c r="C5" t="n">
-        <v>0.225096</v>
+        <v>0.224638</v>
       </c>
       <c r="D5" t="n">
-        <v>0.201228</v>
+        <v>0.206495</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.257541</v>
+        <v>0.259435</v>
       </c>
       <c r="C6" t="n">
-        <v>0.22499</v>
+        <v>0.225642</v>
       </c>
       <c r="D6" t="n">
-        <v>0.201202</v>
+        <v>0.20135</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.243803</v>
+        <v>0.243919</v>
       </c>
       <c r="C7" t="n">
-        <v>0.225561</v>
+        <v>0.225748</v>
       </c>
       <c r="D7" t="n">
-        <v>0.202003</v>
+        <v>0.202009</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2311</v>
+        <v>0.231184</v>
       </c>
       <c r="C8" t="n">
-        <v>0.225627</v>
+        <v>0.225209</v>
       </c>
       <c r="D8" t="n">
-        <v>0.20293</v>
+        <v>0.202153</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.219134</v>
+        <v>0.218372</v>
       </c>
       <c r="C9" t="n">
-        <v>0.226126</v>
+        <v>0.227241</v>
       </c>
       <c r="D9" t="n">
-        <v>0.220046</v>
+        <v>0.21844</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.34498</v>
+        <v>0.348345</v>
       </c>
       <c r="C10" t="n">
-        <v>0.246558</v>
+        <v>0.246299</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216796</v>
+        <v>0.217009</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.339155</v>
+        <v>0.340549</v>
       </c>
       <c r="C11" t="n">
-        <v>0.243521</v>
+        <v>0.244647</v>
       </c>
       <c r="D11" t="n">
-        <v>0.215608</v>
+        <v>0.216146</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.333731</v>
+        <v>0.333815</v>
       </c>
       <c r="C12" t="n">
-        <v>0.242983</v>
+        <v>0.243267</v>
       </c>
       <c r="D12" t="n">
-        <v>0.223243</v>
+        <v>0.214889</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.327748</v>
+        <v>0.339437</v>
       </c>
       <c r="C13" t="n">
-        <v>0.241308</v>
+        <v>0.24125</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212468</v>
+        <v>0.21295</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.323347</v>
+        <v>0.321291</v>
       </c>
       <c r="C14" t="n">
-        <v>0.238597</v>
+        <v>0.240082</v>
       </c>
       <c r="D14" t="n">
-        <v>0.224798</v>
+        <v>0.211406</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.31298</v>
+        <v>0.312044</v>
       </c>
       <c r="C15" t="n">
-        <v>0.238454</v>
+        <v>0.238851</v>
       </c>
       <c r="D15" t="n">
-        <v>0.21072</v>
+        <v>0.210249</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.304517</v>
+        <v>0.304282</v>
       </c>
       <c r="C16" t="n">
-        <v>0.238872</v>
+        <v>0.239361</v>
       </c>
       <c r="D16" t="n">
-        <v>0.210098</v>
+        <v>0.20974</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.297436</v>
+        <v>0.2956</v>
       </c>
       <c r="C17" t="n">
-        <v>0.238292</v>
+        <v>0.238969</v>
       </c>
       <c r="D17" t="n">
-        <v>0.210193</v>
+        <v>0.209982</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.286721</v>
+        <v>0.286703</v>
       </c>
       <c r="C18" t="n">
-        <v>0.239218</v>
+        <v>0.238323</v>
       </c>
       <c r="D18" t="n">
-        <v>0.208996</v>
+        <v>0.208956</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.27886</v>
+        <v>0.276193</v>
       </c>
       <c r="C19" t="n">
-        <v>0.237412</v>
+        <v>0.237279</v>
       </c>
       <c r="D19" t="n">
-        <v>0.210028</v>
+        <v>0.208959</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.269594</v>
+        <v>0.26511</v>
       </c>
       <c r="C20" t="n">
-        <v>0.236713</v>
+        <v>0.237154</v>
       </c>
       <c r="D20" t="n">
-        <v>0.209613</v>
+        <v>0.2099</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.256815</v>
+        <v>0.253562</v>
       </c>
       <c r="C21" t="n">
-        <v>0.236974</v>
+        <v>0.236658</v>
       </c>
       <c r="D21" t="n">
-        <v>0.211439</v>
+        <v>0.209333</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.240557</v>
+        <v>0.240026</v>
       </c>
       <c r="C22" t="n">
-        <v>0.236902</v>
+        <v>0.237208</v>
       </c>
       <c r="D22" t="n">
-        <v>0.209389</v>
+        <v>0.209489</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.230767</v>
+        <v>0.225683</v>
       </c>
       <c r="C23" t="n">
-        <v>0.237572</v>
+        <v>0.23737</v>
       </c>
       <c r="D23" t="n">
-        <v>0.224193</v>
+        <v>0.224529</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348605</v>
+        <v>0.348234</v>
       </c>
       <c r="C24" t="n">
-        <v>0.254779</v>
+        <v>0.255515</v>
       </c>
       <c r="D24" t="n">
-        <v>0.222236</v>
+        <v>0.222902</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.341808</v>
+        <v>0.341625</v>
       </c>
       <c r="C25" t="n">
-        <v>0.253057</v>
+        <v>0.252832</v>
       </c>
       <c r="D25" t="n">
-        <v>0.221302</v>
+        <v>0.221718</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.33586</v>
+        <v>0.335667</v>
       </c>
       <c r="C26" t="n">
-        <v>0.251043</v>
+        <v>0.251291</v>
       </c>
       <c r="D26" t="n">
-        <v>0.220377</v>
+        <v>0.220496</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.329094</v>
+        <v>0.328401</v>
       </c>
       <c r="C27" t="n">
-        <v>0.249352</v>
+        <v>0.249803</v>
       </c>
       <c r="D27" t="n">
-        <v>0.218684</v>
+        <v>0.21891</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.322361</v>
+        <v>0.32168</v>
       </c>
       <c r="C28" t="n">
-        <v>0.247691</v>
+        <v>0.247586</v>
       </c>
       <c r="D28" t="n">
-        <v>0.216912</v>
+        <v>0.216978</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.315395</v>
+        <v>0.314662</v>
       </c>
       <c r="C29" t="n">
-        <v>0.246025</v>
+        <v>0.246557</v>
       </c>
       <c r="D29" t="n">
-        <v>0.216279</v>
+        <v>0.216095</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.307255</v>
+        <v>0.306388</v>
       </c>
       <c r="C30" t="n">
-        <v>0.244711</v>
+        <v>0.245121</v>
       </c>
       <c r="D30" t="n">
-        <v>0.214667</v>
+        <v>0.214857</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.298601</v>
+        <v>0.297819</v>
       </c>
       <c r="C31" t="n">
-        <v>0.244029</v>
+        <v>0.243725</v>
       </c>
       <c r="D31" t="n">
-        <v>0.214432</v>
+        <v>0.214408</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.288969</v>
+        <v>0.288615</v>
       </c>
       <c r="C32" t="n">
-        <v>0.243104</v>
+        <v>0.243299</v>
       </c>
       <c r="D32" t="n">
-        <v>0.213627</v>
+        <v>0.213701</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.27962</v>
+        <v>0.279266</v>
       </c>
       <c r="C33" t="n">
-        <v>0.242845</v>
+        <v>0.242566</v>
       </c>
       <c r="D33" t="n">
-        <v>0.213387</v>
+        <v>0.213241</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.269031</v>
+        <v>0.268611</v>
       </c>
       <c r="C34" t="n">
-        <v>0.241783</v>
+        <v>0.241818</v>
       </c>
       <c r="D34" t="n">
-        <v>0.212718</v>
+        <v>0.212759</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.258342</v>
+        <v>0.257659</v>
       </c>
       <c r="C35" t="n">
-        <v>0.242004</v>
+        <v>0.242298</v>
       </c>
       <c r="D35" t="n">
-        <v>0.212604</v>
+        <v>0.212824</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244912</v>
+        <v>0.24475</v>
       </c>
       <c r="C36" t="n">
-        <v>0.241416</v>
+        <v>0.241931</v>
       </c>
       <c r="D36" t="n">
-        <v>0.212668</v>
+        <v>0.212125</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.230904</v>
+        <v>0.230885</v>
       </c>
       <c r="C37" t="n">
-        <v>0.24089</v>
+        <v>0.240811</v>
       </c>
       <c r="D37" t="n">
-        <v>0.226954</v>
+        <v>0.226935</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.349666</v>
+        <v>0.349512</v>
       </c>
       <c r="C38" t="n">
-        <v>0.261216</v>
+        <v>0.260858</v>
       </c>
       <c r="D38" t="n">
-        <v>0.224082</v>
+        <v>0.224125</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.345046</v>
+        <v>0.344423</v>
       </c>
       <c r="C39" t="n">
-        <v>0.258062</v>
+        <v>0.257344</v>
       </c>
       <c r="D39" t="n">
-        <v>0.222342</v>
+        <v>0.222634</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.338995</v>
+        <v>0.338321</v>
       </c>
       <c r="C40" t="n">
-        <v>0.254231</v>
+        <v>0.254427</v>
       </c>
       <c r="D40" t="n">
-        <v>0.22064</v>
+        <v>0.220813</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.332396</v>
+        <v>0.33186</v>
       </c>
       <c r="C41" t="n">
-        <v>0.251227</v>
+        <v>0.251535</v>
       </c>
       <c r="D41" t="n">
-        <v>0.21879</v>
+        <v>0.219082</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.325152</v>
+        <v>0.32466</v>
       </c>
       <c r="C42" t="n">
-        <v>0.250544</v>
+        <v>0.25069</v>
       </c>
       <c r="D42" t="n">
-        <v>0.217642</v>
+        <v>0.218046</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.317298</v>
+        <v>0.31661</v>
       </c>
       <c r="C43" t="n">
-        <v>0.249139</v>
+        <v>0.249258</v>
       </c>
       <c r="D43" t="n">
-        <v>0.216835</v>
+        <v>0.216905</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.309707</v>
+        <v>0.309324</v>
       </c>
       <c r="C44" t="n">
-        <v>0.247649</v>
+        <v>0.247847</v>
       </c>
       <c r="D44" t="n">
-        <v>0.215532</v>
+        <v>0.215788</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300453</v>
+        <v>0.300139</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2466</v>
+        <v>0.246721</v>
       </c>
       <c r="D45" t="n">
-        <v>0.214572</v>
+        <v>0.214796</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.292056</v>
+        <v>0.291962</v>
       </c>
       <c r="C46" t="n">
-        <v>0.245658</v>
+        <v>0.245712</v>
       </c>
       <c r="D46" t="n">
-        <v>0.213912</v>
+        <v>0.21416</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.282746</v>
+        <v>0.282698</v>
       </c>
       <c r="C47" t="n">
-        <v>0.244723</v>
+        <v>0.244682</v>
       </c>
       <c r="D47" t="n">
-        <v>0.213922</v>
+        <v>0.214178</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.271969</v>
+        <v>0.271878</v>
       </c>
       <c r="C48" t="n">
-        <v>0.243575</v>
+        <v>0.243706</v>
       </c>
       <c r="D48" t="n">
-        <v>0.212819</v>
+        <v>0.213627</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.261035</v>
+        <v>0.260915</v>
       </c>
       <c r="C49" t="n">
-        <v>0.243172</v>
+        <v>0.243364</v>
       </c>
       <c r="D49" t="n">
-        <v>0.213097</v>
+        <v>0.213528</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.248801</v>
+        <v>0.248751</v>
       </c>
       <c r="C50" t="n">
-        <v>0.242633</v>
+        <v>0.242786</v>
       </c>
       <c r="D50" t="n">
-        <v>0.213698</v>
+        <v>0.213832</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.235172</v>
+        <v>0.234857</v>
       </c>
       <c r="C51" t="n">
-        <v>0.241945</v>
+        <v>0.24206</v>
       </c>
       <c r="D51" t="n">
-        <v>0.225839</v>
+        <v>0.225724</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.220069</v>
+        <v>0.219958</v>
       </c>
       <c r="C52" t="n">
-        <v>0.241439</v>
+        <v>0.241258</v>
       </c>
       <c r="D52" t="n">
-        <v>0.223527</v>
+        <v>0.223557</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.347029</v>
+        <v>0.34719</v>
       </c>
       <c r="C53" t="n">
-        <v>0.257371</v>
+        <v>0.257588</v>
       </c>
       <c r="D53" t="n">
-        <v>0.222099</v>
+        <v>0.222136</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.340976</v>
+        <v>0.341002</v>
       </c>
       <c r="C54" t="n">
-        <v>0.25455</v>
+        <v>0.254649</v>
       </c>
       <c r="D54" t="n">
-        <v>0.220674</v>
+        <v>0.220689</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.33522</v>
+        <v>0.334869</v>
       </c>
       <c r="C55" t="n">
-        <v>0.251981</v>
+        <v>0.251995</v>
       </c>
       <c r="D55" t="n">
-        <v>0.219471</v>
+        <v>0.219457</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.327649</v>
+        <v>0.327505</v>
       </c>
       <c r="C56" t="n">
-        <v>0.250513</v>
+        <v>0.250659</v>
       </c>
       <c r="D56" t="n">
-        <v>0.218157</v>
+        <v>0.218326</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.320787</v>
+        <v>0.320477</v>
       </c>
       <c r="C57" t="n">
-        <v>0.249138</v>
+        <v>0.249193</v>
       </c>
       <c r="D57" t="n">
-        <v>0.216966</v>
+        <v>0.217151</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.31304</v>
+        <v>0.312834</v>
       </c>
       <c r="C58" t="n">
-        <v>0.247687</v>
+        <v>0.247861</v>
       </c>
       <c r="D58" t="n">
-        <v>0.216354</v>
+        <v>0.21644</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304561</v>
+        <v>0.304596</v>
       </c>
       <c r="C59" t="n">
-        <v>0.246622</v>
+        <v>0.246804</v>
       </c>
       <c r="D59" t="n">
-        <v>0.215457</v>
+        <v>0.215475</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294721</v>
+        <v>0.294679</v>
       </c>
       <c r="C60" t="n">
-        <v>0.24564</v>
+        <v>0.24584</v>
       </c>
       <c r="D60" t="n">
-        <v>0.214536</v>
+        <v>0.214694</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.285089</v>
+        <v>0.285143</v>
       </c>
       <c r="C61" t="n">
-        <v>0.245293</v>
+        <v>0.245373</v>
       </c>
       <c r="D61" t="n">
-        <v>0.214121</v>
+        <v>0.214125</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.274294</v>
+        <v>0.274613</v>
       </c>
       <c r="C62" t="n">
-        <v>0.244161</v>
+        <v>0.244226</v>
       </c>
       <c r="D62" t="n">
-        <v>0.213507</v>
+        <v>0.213624</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.262984</v>
+        <v>0.263262</v>
       </c>
       <c r="C63" t="n">
-        <v>0.243319</v>
+        <v>0.243335</v>
       </c>
       <c r="D63" t="n">
-        <v>0.213266</v>
+        <v>0.213295</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.250758</v>
+        <v>0.250813</v>
       </c>
       <c r="C64" t="n">
-        <v>0.242981</v>
+        <v>0.242853</v>
       </c>
       <c r="D64" t="n">
-        <v>0.21252</v>
+        <v>0.212725</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.237808</v>
+        <v>0.237827</v>
       </c>
       <c r="C65" t="n">
-        <v>0.242004</v>
+        <v>0.242171</v>
       </c>
       <c r="D65" t="n">
-        <v>0.212382</v>
+        <v>0.212508</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.223367</v>
+        <v>0.223328</v>
       </c>
       <c r="C66" t="n">
-        <v>0.241288</v>
+        <v>0.24128</v>
       </c>
       <c r="D66" t="n">
-        <v>0.22489</v>
+        <v>0.225035</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.349079</v>
+        <v>0.348901</v>
       </c>
       <c r="C67" t="n">
-        <v>0.259442</v>
+        <v>0.25948</v>
       </c>
       <c r="D67" t="n">
-        <v>0.222831</v>
+        <v>0.223017</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.342582</v>
+        <v>0.342873</v>
       </c>
       <c r="C68" t="n">
-        <v>0.255526</v>
+        <v>0.255676</v>
       </c>
       <c r="D68" t="n">
-        <v>0.221076</v>
+        <v>0.221185</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.336543</v>
+        <v>0.336696</v>
       </c>
       <c r="C69" t="n">
-        <v>0.252531</v>
+        <v>0.252906</v>
       </c>
       <c r="D69" t="n">
-        <v>0.219582</v>
+        <v>0.219786</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.329967</v>
+        <v>0.330066</v>
       </c>
       <c r="C70" t="n">
-        <v>0.250929</v>
+        <v>0.251184</v>
       </c>
       <c r="D70" t="n">
-        <v>0.218545</v>
+        <v>0.218581</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.322547</v>
+        <v>0.322621</v>
       </c>
       <c r="C71" t="n">
-        <v>0.249496</v>
+        <v>0.24965</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217798</v>
+        <v>0.217742</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.315258</v>
+        <v>0.315205</v>
       </c>
       <c r="C72" t="n">
-        <v>0.248167</v>
+        <v>0.248396</v>
       </c>
       <c r="D72" t="n">
-        <v>0.216549</v>
+        <v>0.216669</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.306827</v>
+        <v>0.306797</v>
       </c>
       <c r="C73" t="n">
-        <v>0.246834</v>
+        <v>0.247047</v>
       </c>
       <c r="D73" t="n">
-        <v>0.215483</v>
+        <v>0.215744</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.298323</v>
+        <v>0.298179</v>
       </c>
       <c r="C74" t="n">
-        <v>0.245757</v>
+        <v>0.246052</v>
       </c>
       <c r="D74" t="n">
-        <v>0.214526</v>
+        <v>0.214734</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.288802</v>
+        <v>0.288599</v>
       </c>
       <c r="C75" t="n">
-        <v>0.245044</v>
+        <v>0.245222</v>
       </c>
       <c r="D75" t="n">
-        <v>0.214106</v>
+        <v>0.214282</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.278523</v>
+        <v>0.278401</v>
       </c>
       <c r="C76" t="n">
-        <v>0.244364</v>
+        <v>0.244599</v>
       </c>
       <c r="D76" t="n">
-        <v>0.21346</v>
+        <v>0.213758</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.267281</v>
+        <v>0.267354</v>
       </c>
       <c r="C77" t="n">
-        <v>0.243196</v>
+        <v>0.243372</v>
       </c>
       <c r="D77" t="n">
-        <v>0.213106</v>
+        <v>0.213218</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.254926</v>
+        <v>0.254811</v>
       </c>
       <c r="C78" t="n">
-        <v>0.242264</v>
+        <v>0.242478</v>
       </c>
       <c r="D78" t="n">
-        <v>0.212647</v>
+        <v>0.212855</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.241912</v>
+        <v>0.241628</v>
       </c>
       <c r="C79" t="n">
-        <v>0.241815</v>
+        <v>0.242063</v>
       </c>
       <c r="D79" t="n">
-        <v>0.212435</v>
+        <v>0.212519</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227421</v>
+        <v>0.227189</v>
       </c>
       <c r="C80" t="n">
-        <v>0.241811</v>
+        <v>0.241939</v>
       </c>
       <c r="D80" t="n">
-        <v>0.225285</v>
+        <v>0.225894</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.350514</v>
+        <v>0.350324</v>
       </c>
       <c r="C81" t="n">
-        <v>0.258831</v>
+        <v>0.259259</v>
       </c>
       <c r="D81" t="n">
-        <v>0.223307</v>
+        <v>0.223563</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.344575</v>
+        <v>0.344706</v>
       </c>
       <c r="C82" t="n">
-        <v>0.255147</v>
+        <v>0.255627</v>
       </c>
       <c r="D82" t="n">
-        <v>0.221601</v>
+        <v>0.2219</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.338154</v>
+        <v>0.338093</v>
       </c>
       <c r="C83" t="n">
-        <v>0.252602</v>
+        <v>0.253017</v>
       </c>
       <c r="D83" t="n">
-        <v>0.219995</v>
+        <v>0.220346</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.332097</v>
+        <v>0.331677</v>
       </c>
       <c r="C84" t="n">
-        <v>0.25066</v>
+        <v>0.251129</v>
       </c>
       <c r="D84" t="n">
-        <v>0.21877</v>
+        <v>0.218999</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.324355</v>
+        <v>0.324362</v>
       </c>
       <c r="C85" t="n">
-        <v>0.249488</v>
+        <v>0.249642</v>
       </c>
       <c r="D85" t="n">
-        <v>0.217656</v>
+        <v>0.217842</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.316901</v>
+        <v>0.317071</v>
       </c>
       <c r="C86" t="n">
-        <v>0.248249</v>
+        <v>0.24837</v>
       </c>
       <c r="D86" t="n">
-        <v>0.216752</v>
+        <v>0.216947</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.308853</v>
+        <v>0.308781</v>
       </c>
       <c r="C87" t="n">
-        <v>0.247029</v>
+        <v>0.247245</v>
       </c>
       <c r="D87" t="n">
-        <v>0.215744</v>
+        <v>0.215922</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300125</v>
+        <v>0.300198</v>
       </c>
       <c r="C88" t="n">
-        <v>0.246318</v>
+        <v>0.246449</v>
       </c>
       <c r="D88" t="n">
-        <v>0.214972</v>
+        <v>0.215139</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.290948</v>
+        <v>0.290738</v>
       </c>
       <c r="C89" t="n">
-        <v>0.245364</v>
+        <v>0.245452</v>
       </c>
       <c r="D89" t="n">
-        <v>0.214307</v>
+        <v>0.21443</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.280763</v>
+        <v>0.280573</v>
       </c>
       <c r="C90" t="n">
-        <v>0.244671</v>
+        <v>0.244692</v>
       </c>
       <c r="D90" t="n">
-        <v>0.213612</v>
+        <v>0.213779</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.269582</v>
+        <v>0.269696</v>
       </c>
       <c r="C91" t="n">
-        <v>0.243737</v>
+        <v>0.243784</v>
       </c>
       <c r="D91" t="n">
-        <v>0.213088</v>
+        <v>0.213228</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.257689</v>
+        <v>0.257661</v>
       </c>
       <c r="C92" t="n">
-        <v>0.243046</v>
+        <v>0.24306</v>
       </c>
       <c r="D92" t="n">
-        <v>0.212667</v>
+        <v>0.212683</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.244816</v>
+        <v>0.244871</v>
       </c>
       <c r="C93" t="n">
-        <v>0.242494</v>
+        <v>0.242531</v>
       </c>
       <c r="D93" t="n">
-        <v>0.212478</v>
+        <v>0.212628</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.230694</v>
+        <v>0.230947</v>
       </c>
       <c r="C94" t="n">
-        <v>0.241907</v>
+        <v>0.241942</v>
       </c>
       <c r="D94" t="n">
-        <v>0.225797</v>
+        <v>0.226141</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.351667</v>
+        <v>0.3518</v>
       </c>
       <c r="C95" t="n">
-        <v>0.259998</v>
+        <v>0.259625</v>
       </c>
       <c r="D95" t="n">
-        <v>0.223542</v>
+        <v>0.223762</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.346027</v>
+        <v>0.346112</v>
       </c>
       <c r="C96" t="n">
-        <v>0.256494</v>
+        <v>0.256133</v>
       </c>
       <c r="D96" t="n">
-        <v>0.221885</v>
+        <v>0.221994</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.339998</v>
+        <v>0.340061</v>
       </c>
       <c r="C97" t="n">
-        <v>0.253365</v>
+        <v>0.253438</v>
       </c>
       <c r="D97" t="n">
-        <v>0.220304</v>
+        <v>0.220494</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.333769</v>
+        <v>0.333582</v>
       </c>
       <c r="C98" t="n">
-        <v>0.251339</v>
+        <v>0.251536</v>
       </c>
       <c r="D98" t="n">
-        <v>0.21906</v>
+        <v>0.21921</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.326215</v>
+        <v>0.326098</v>
       </c>
       <c r="C99" t="n">
-        <v>0.250112</v>
+        <v>0.25015</v>
       </c>
       <c r="D99" t="n">
-        <v>0.21799</v>
+        <v>0.218003</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.318791</v>
+        <v>0.318638</v>
       </c>
       <c r="C100" t="n">
-        <v>0.24869</v>
+        <v>0.248723</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2168</v>
+        <v>0.216941</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.310656</v>
+        <v>0.310826</v>
       </c>
       <c r="C101" t="n">
-        <v>0.247569</v>
+        <v>0.247538</v>
       </c>
       <c r="D101" t="n">
-        <v>0.215983</v>
+        <v>0.216057</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302288</v>
+        <v>0.302299</v>
       </c>
       <c r="C102" t="n">
-        <v>0.246725</v>
+        <v>0.246735</v>
       </c>
       <c r="D102" t="n">
-        <v>0.215282</v>
+        <v>0.21529</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.293095</v>
+        <v>0.292696</v>
       </c>
       <c r="C103" t="n">
-        <v>0.24566</v>
+        <v>0.245747</v>
       </c>
       <c r="D103" t="n">
-        <v>0.214429</v>
+        <v>0.214527</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.283034</v>
+        <v>0.28319</v>
       </c>
       <c r="C104" t="n">
-        <v>0.244773</v>
+        <v>0.244935</v>
       </c>
       <c r="D104" t="n">
-        <v>0.213833</v>
+        <v>0.214017</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.272219</v>
+        <v>0.272158</v>
       </c>
       <c r="C105" t="n">
-        <v>0.243994</v>
+        <v>0.243904</v>
       </c>
       <c r="D105" t="n">
-        <v>0.213264</v>
+        <v>0.213319</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.260366</v>
+        <v>0.260673</v>
       </c>
       <c r="C106" t="n">
-        <v>0.243317</v>
+        <v>0.243163</v>
       </c>
       <c r="D106" t="n">
-        <v>0.212705</v>
+        <v>0.212847</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247684</v>
+        <v>0.247523</v>
       </c>
       <c r="C107" t="n">
-        <v>0.242474</v>
+        <v>0.242542</v>
       </c>
       <c r="D107" t="n">
-        <v>0.212355</v>
+        <v>0.212447</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.233745</v>
+        <v>0.233721</v>
       </c>
       <c r="C108" t="n">
-        <v>0.242099</v>
+        <v>0.241812</v>
       </c>
       <c r="D108" t="n">
-        <v>0.226197</v>
+        <v>0.226247</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.219047</v>
+        <v>0.219031</v>
       </c>
       <c r="C109" t="n">
-        <v>0.241703</v>
+        <v>0.24169</v>
       </c>
       <c r="D109" t="n">
-        <v>0.223919</v>
+        <v>0.22392</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.347422</v>
+        <v>0.347273</v>
       </c>
       <c r="C110" t="n">
-        <v>0.256394</v>
+        <v>0.256347</v>
       </c>
       <c r="D110" t="n">
-        <v>0.222043</v>
+        <v>0.222232</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.341392</v>
+        <v>0.341662</v>
       </c>
       <c r="C111" t="n">
-        <v>0.253768</v>
+        <v>0.253524</v>
       </c>
       <c r="D111" t="n">
-        <v>0.22064</v>
+        <v>0.22066</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.334829</v>
+        <v>0.335171</v>
       </c>
       <c r="C112" t="n">
-        <v>0.251564</v>
+        <v>0.251503</v>
       </c>
       <c r="D112" t="n">
-        <v>0.219564</v>
+        <v>0.219519</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.327639</v>
+        <v>0.328151</v>
       </c>
       <c r="C113" t="n">
-        <v>0.250166</v>
+        <v>0.249987</v>
       </c>
       <c r="D113" t="n">
-        <v>0.218449</v>
+        <v>0.218152</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.320434</v>
+        <v>0.320733</v>
       </c>
       <c r="C114" t="n">
-        <v>0.249128</v>
+        <v>0.249072</v>
       </c>
       <c r="D114" t="n">
-        <v>0.216992</v>
+        <v>0.217267</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.312385</v>
+        <v>0.31239</v>
       </c>
       <c r="C115" t="n">
-        <v>0.247837</v>
+        <v>0.247921</v>
       </c>
       <c r="D115" t="n">
-        <v>0.216513</v>
+        <v>0.216106</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304174</v>
+        <v>0.304421</v>
       </c>
       <c r="C116" t="n">
-        <v>0.24694</v>
+        <v>0.247024</v>
       </c>
       <c r="D116" t="n">
-        <v>0.215207</v>
+        <v>0.215521</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.295278</v>
+        <v>0.295265</v>
       </c>
       <c r="C117" t="n">
-        <v>0.246079</v>
+        <v>0.245815</v>
       </c>
       <c r="D117" t="n">
-        <v>0.21456</v>
+        <v>0.214531</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.285237</v>
+        <v>0.285263</v>
       </c>
       <c r="C118" t="n">
-        <v>0.24514</v>
+        <v>0.245132</v>
       </c>
       <c r="D118" t="n">
-        <v>0.214444</v>
+        <v>0.2143</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.27471</v>
+        <v>0.274955</v>
       </c>
       <c r="C119" t="n">
-        <v>0.244383</v>
+        <v>0.244275</v>
       </c>
       <c r="D119" t="n">
-        <v>0.21355</v>
+        <v>0.213784</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.263093</v>
+        <v>0.263512</v>
       </c>
       <c r="C120" t="n">
-        <v>0.243315</v>
+        <v>0.243529</v>
       </c>
       <c r="D120" t="n">
-        <v>0.213121</v>
+        <v>0.213368</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.251142</v>
+        <v>0.251172</v>
       </c>
       <c r="C121" t="n">
-        <v>0.242661</v>
+        <v>0.242988</v>
       </c>
       <c r="D121" t="n">
-        <v>0.213704</v>
+        <v>0.213387</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.237212</v>
+        <v>0.237246</v>
       </c>
       <c r="C122" t="n">
-        <v>0.242151</v>
+        <v>0.242335</v>
       </c>
       <c r="D122" t="n">
-        <v>0.212679</v>
+        <v>0.212872</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.222803</v>
+        <v>0.22267</v>
       </c>
       <c r="C123" t="n">
-        <v>0.24169</v>
+        <v>0.241621</v>
       </c>
       <c r="D123" t="n">
-        <v>0.225814</v>
+        <v>0.225948</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.349077</v>
+        <v>0.348992</v>
       </c>
       <c r="C124" t="n">
-        <v>0.257318</v>
+        <v>0.257251</v>
       </c>
       <c r="D124" t="n">
-        <v>0.223275</v>
+        <v>0.22329</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.343022</v>
+        <v>0.342826</v>
       </c>
       <c r="C125" t="n">
-        <v>0.254594</v>
+        <v>0.254138</v>
       </c>
       <c r="D125" t="n">
-        <v>0.221102</v>
+        <v>0.221688</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.336391</v>
+        <v>0.337071</v>
       </c>
       <c r="C126" t="n">
-        <v>0.252135</v>
+        <v>0.25203</v>
       </c>
       <c r="D126" t="n">
-        <v>0.220342</v>
+        <v>0.220565</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.329967</v>
+        <v>0.329755</v>
       </c>
       <c r="C127" t="n">
-        <v>0.250453</v>
+        <v>0.249857</v>
       </c>
       <c r="D127" t="n">
-        <v>0.21912</v>
+        <v>0.219109</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.322352</v>
+        <v>0.322148</v>
       </c>
       <c r="C128" t="n">
-        <v>0.248477</v>
+        <v>0.248584</v>
       </c>
       <c r="D128" t="n">
-        <v>0.21782</v>
+        <v>0.217572</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.3144</v>
+        <v>0.314748</v>
       </c>
       <c r="C129" t="n">
-        <v>0.247567</v>
+        <v>0.24738</v>
       </c>
       <c r="D129" t="n">
-        <v>0.217717</v>
+        <v>0.216889</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.306107</v>
+        <v>0.306122</v>
       </c>
       <c r="C130" t="n">
-        <v>0.246231</v>
+        <v>0.24648</v>
       </c>
       <c r="D130" t="n">
-        <v>0.216063</v>
+        <v>0.21665</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.297423</v>
+        <v>0.297493</v>
       </c>
       <c r="C131" t="n">
-        <v>0.245268</v>
+        <v>0.245659</v>
       </c>
       <c r="D131" t="n">
-        <v>0.215983</v>
+        <v>0.216397</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.287976</v>
+        <v>0.287644</v>
       </c>
       <c r="C132" t="n">
-        <v>0.244665</v>
+        <v>0.244824</v>
       </c>
       <c r="D132" t="n">
-        <v>0.215963</v>
+        <v>0.214623</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.277282</v>
+        <v>0.277173</v>
       </c>
       <c r="C133" t="n">
-        <v>0.244558</v>
+        <v>0.244148</v>
       </c>
       <c r="D133" t="n">
-        <v>0.215408</v>
+        <v>0.214289</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.266292</v>
+        <v>0.265793</v>
       </c>
       <c r="C134" t="n">
-        <v>0.243478</v>
+        <v>0.243327</v>
       </c>
       <c r="D134" t="n">
-        <v>0.213876</v>
+        <v>0.215091</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.25366</v>
+        <v>0.254585</v>
       </c>
       <c r="C135" t="n">
-        <v>0.24252</v>
+        <v>0.242939</v>
       </c>
       <c r="D135" t="n">
-        <v>0.212614</v>
+        <v>0.213262</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.24019</v>
+        <v>0.241082</v>
       </c>
       <c r="C136" t="n">
-        <v>0.242297</v>
+        <v>0.241923</v>
       </c>
       <c r="D136" t="n">
-        <v>0.213331</v>
+        <v>0.213482</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.226019</v>
+        <v>0.225873</v>
       </c>
       <c r="C137" t="n">
-        <v>0.24169</v>
+        <v>0.241512</v>
       </c>
       <c r="D137" t="n">
-        <v>0.228742</v>
+        <v>0.228063</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.350708</v>
+        <v>0.350802</v>
       </c>
       <c r="C138" t="n">
-        <v>0.260042</v>
+        <v>0.258612</v>
       </c>
       <c r="D138" t="n">
-        <v>0.22709</v>
+        <v>0.226222</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.34472</v>
+        <v>0.344714</v>
       </c>
       <c r="C139" t="n">
-        <v>0.255255</v>
+        <v>0.255337</v>
       </c>
       <c r="D139" t="n">
-        <v>0.225001</v>
+        <v>0.224226</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338668</v>
+        <v>0.338358</v>
       </c>
       <c r="C140" t="n">
-        <v>0.253009</v>
+        <v>0.254241</v>
       </c>
       <c r="D140" t="n">
-        <v>0.223092</v>
+        <v>0.223314</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331943</v>
+        <v>0.331289</v>
       </c>
       <c r="C141" t="n">
-        <v>0.251771</v>
+        <v>0.251183</v>
       </c>
       <c r="D141" t="n">
-        <v>0.221961</v>
+        <v>0.221384</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.324455</v>
+        <v>0.324617</v>
       </c>
       <c r="C142" t="n">
-        <v>0.249991</v>
+        <v>0.249604</v>
       </c>
       <c r="D142" t="n">
-        <v>0.221207</v>
+        <v>0.221394</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.316239</v>
+        <v>0.316684</v>
       </c>
       <c r="C143" t="n">
-        <v>0.248221</v>
+        <v>0.248267</v>
       </c>
       <c r="D143" t="n">
-        <v>0.221466</v>
+        <v>0.219061</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.29489</v>
+        <v>0.297611</v>
       </c>
       <c r="C2" t="n">
-        <v>0.224208</v>
+        <v>0.223445</v>
       </c>
       <c r="D2" t="n">
-        <v>0.199062</v>
+        <v>0.199085</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.289052</v>
+        <v>0.290624</v>
       </c>
       <c r="C3" t="n">
-        <v>0.222615</v>
+        <v>0.223438</v>
       </c>
       <c r="D3" t="n">
-        <v>0.199286</v>
+        <v>0.198841</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.278989</v>
+        <v>0.281848</v>
       </c>
       <c r="C4" t="n">
-        <v>0.22585</v>
+        <v>0.225648</v>
       </c>
       <c r="D4" t="n">
-        <v>0.200611</v>
+        <v>0.20043</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.273438</v>
+        <v>0.270746</v>
       </c>
       <c r="C5" t="n">
-        <v>0.224638</v>
+        <v>0.225388</v>
       </c>
       <c r="D5" t="n">
-        <v>0.206495</v>
+        <v>0.200056</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.259435</v>
+        <v>0.258991</v>
       </c>
       <c r="C6" t="n">
-        <v>0.225642</v>
+        <v>0.225853</v>
       </c>
       <c r="D6" t="n">
-        <v>0.20135</v>
+        <v>0.201572</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.243919</v>
+        <v>0.244306</v>
       </c>
       <c r="C7" t="n">
-        <v>0.225748</v>
+        <v>0.226129</v>
       </c>
       <c r="D7" t="n">
-        <v>0.202009</v>
+        <v>0.202268</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.231184</v>
+        <v>0.231041</v>
       </c>
       <c r="C8" t="n">
-        <v>0.225209</v>
+        <v>0.225534</v>
       </c>
       <c r="D8" t="n">
-        <v>0.202153</v>
+        <v>0.20265</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.218372</v>
+        <v>0.218825</v>
       </c>
       <c r="C9" t="n">
-        <v>0.227241</v>
+        <v>0.227225</v>
       </c>
       <c r="D9" t="n">
-        <v>0.21844</v>
+        <v>0.218577</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.348345</v>
+        <v>0.344741</v>
       </c>
       <c r="C10" t="n">
-        <v>0.246299</v>
+        <v>0.246674</v>
       </c>
       <c r="D10" t="n">
-        <v>0.217009</v>
+        <v>0.217168</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.340549</v>
+        <v>0.339201</v>
       </c>
       <c r="C11" t="n">
-        <v>0.244647</v>
+        <v>0.244341</v>
       </c>
       <c r="D11" t="n">
-        <v>0.216146</v>
+        <v>0.215511</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.333815</v>
+        <v>0.332397</v>
       </c>
       <c r="C12" t="n">
-        <v>0.243267</v>
+        <v>0.242376</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214889</v>
+        <v>0.214141</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.339437</v>
+        <v>0.326184</v>
       </c>
       <c r="C13" t="n">
-        <v>0.24125</v>
+        <v>0.241552</v>
       </c>
       <c r="D13" t="n">
-        <v>0.21295</v>
+        <v>0.212517</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.321291</v>
+        <v>0.319167</v>
       </c>
       <c r="C14" t="n">
-        <v>0.240082</v>
+        <v>0.23997</v>
       </c>
       <c r="D14" t="n">
-        <v>0.211406</v>
+        <v>0.211181</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.312044</v>
+        <v>0.311393</v>
       </c>
       <c r="C15" t="n">
-        <v>0.238851</v>
+        <v>0.239355</v>
       </c>
       <c r="D15" t="n">
-        <v>0.210249</v>
+        <v>0.210382</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.304282</v>
+        <v>0.30529</v>
       </c>
       <c r="C16" t="n">
-        <v>0.239361</v>
+        <v>0.238976</v>
       </c>
       <c r="D16" t="n">
-        <v>0.20974</v>
+        <v>0.210201</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2956</v>
+        <v>0.294956</v>
       </c>
       <c r="C17" t="n">
-        <v>0.238969</v>
+        <v>0.238815</v>
       </c>
       <c r="D17" t="n">
-        <v>0.209982</v>
+        <v>0.210374</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.286703</v>
+        <v>0.286878</v>
       </c>
       <c r="C18" t="n">
-        <v>0.238323</v>
+        <v>0.238612</v>
       </c>
       <c r="D18" t="n">
-        <v>0.208956</v>
+        <v>0.209941</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.276193</v>
+        <v>0.278996</v>
       </c>
       <c r="C19" t="n">
-        <v>0.237279</v>
+        <v>0.237798</v>
       </c>
       <c r="D19" t="n">
-        <v>0.208959</v>
+        <v>0.209339</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.26511</v>
+        <v>0.26479</v>
       </c>
       <c r="C20" t="n">
-        <v>0.237154</v>
+        <v>0.237512</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2099</v>
+        <v>0.209934</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.253562</v>
+        <v>0.254956</v>
       </c>
       <c r="C21" t="n">
-        <v>0.236658</v>
+        <v>0.237749</v>
       </c>
       <c r="D21" t="n">
-        <v>0.209333</v>
+        <v>0.209772</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.240026</v>
+        <v>0.241552</v>
       </c>
       <c r="C22" t="n">
-        <v>0.237208</v>
+        <v>0.237227</v>
       </c>
       <c r="D22" t="n">
-        <v>0.209489</v>
+        <v>0.209417</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.225683</v>
+        <v>0.226023</v>
       </c>
       <c r="C23" t="n">
-        <v>0.23737</v>
+        <v>0.237908</v>
       </c>
       <c r="D23" t="n">
-        <v>0.224529</v>
+        <v>0.224288</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348234</v>
+        <v>0.348359</v>
       </c>
       <c r="C24" t="n">
-        <v>0.255515</v>
+        <v>0.254915</v>
       </c>
       <c r="D24" t="n">
-        <v>0.222902</v>
+        <v>0.222565</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.341625</v>
+        <v>0.342031</v>
       </c>
       <c r="C25" t="n">
-        <v>0.252832</v>
+        <v>0.253222</v>
       </c>
       <c r="D25" t="n">
-        <v>0.221718</v>
+        <v>0.220811</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.335667</v>
+        <v>0.336148</v>
       </c>
       <c r="C26" t="n">
-        <v>0.251291</v>
+        <v>0.251124</v>
       </c>
       <c r="D26" t="n">
-        <v>0.220496</v>
+        <v>0.220377</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328401</v>
+        <v>0.329128</v>
       </c>
       <c r="C27" t="n">
-        <v>0.249803</v>
+        <v>0.249465</v>
       </c>
       <c r="D27" t="n">
-        <v>0.21891</v>
+        <v>0.218658</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.32168</v>
+        <v>0.32209</v>
       </c>
       <c r="C28" t="n">
-        <v>0.247586</v>
+        <v>0.247079</v>
       </c>
       <c r="D28" t="n">
-        <v>0.216978</v>
+        <v>0.216836</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.314662</v>
+        <v>0.315001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.246557</v>
+        <v>0.246554</v>
       </c>
       <c r="D29" t="n">
-        <v>0.216095</v>
+        <v>0.216167</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.306388</v>
+        <v>0.306987</v>
       </c>
       <c r="C30" t="n">
-        <v>0.245121</v>
+        <v>0.244776</v>
       </c>
       <c r="D30" t="n">
-        <v>0.214857</v>
+        <v>0.214541</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.297819</v>
+        <v>0.298037</v>
       </c>
       <c r="C31" t="n">
-        <v>0.243725</v>
+        <v>0.243763</v>
       </c>
       <c r="D31" t="n">
-        <v>0.214408</v>
+        <v>0.214051</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.288615</v>
+        <v>0.289103</v>
       </c>
       <c r="C32" t="n">
-        <v>0.243299</v>
+        <v>0.243656</v>
       </c>
       <c r="D32" t="n">
-        <v>0.213701</v>
+        <v>0.213279</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.279266</v>
+        <v>0.279594</v>
       </c>
       <c r="C33" t="n">
-        <v>0.242566</v>
+        <v>0.242738</v>
       </c>
       <c r="D33" t="n">
-        <v>0.213241</v>
+        <v>0.213439</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.268611</v>
+        <v>0.26904</v>
       </c>
       <c r="C34" t="n">
-        <v>0.241818</v>
+        <v>0.24203</v>
       </c>
       <c r="D34" t="n">
-        <v>0.212759</v>
+        <v>0.212626</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.257659</v>
+        <v>0.258117</v>
       </c>
       <c r="C35" t="n">
-        <v>0.242298</v>
+        <v>0.242096</v>
       </c>
       <c r="D35" t="n">
-        <v>0.212824</v>
+        <v>0.212424</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.24475</v>
+        <v>0.244795</v>
       </c>
       <c r="C36" t="n">
-        <v>0.241931</v>
+        <v>0.241511</v>
       </c>
       <c r="D36" t="n">
-        <v>0.212125</v>
+        <v>0.212443</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.230885</v>
+        <v>0.230992</v>
       </c>
       <c r="C37" t="n">
-        <v>0.240811</v>
+        <v>0.241111</v>
       </c>
       <c r="D37" t="n">
-        <v>0.226935</v>
+        <v>0.227059</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.349512</v>
+        <v>0.349419</v>
       </c>
       <c r="C38" t="n">
-        <v>0.260858</v>
+        <v>0.261439</v>
       </c>
       <c r="D38" t="n">
-        <v>0.224125</v>
+        <v>0.224392</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.344423</v>
+        <v>0.344652</v>
       </c>
       <c r="C39" t="n">
-        <v>0.257344</v>
+        <v>0.257477</v>
       </c>
       <c r="D39" t="n">
-        <v>0.222634</v>
+        <v>0.222619</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.338321</v>
+        <v>0.338388</v>
       </c>
       <c r="C40" t="n">
-        <v>0.254427</v>
+        <v>0.254513</v>
       </c>
       <c r="D40" t="n">
-        <v>0.220813</v>
+        <v>0.22064</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.33186</v>
+        <v>0.332087</v>
       </c>
       <c r="C41" t="n">
-        <v>0.251535</v>
+        <v>0.251279</v>
       </c>
       <c r="D41" t="n">
-        <v>0.219082</v>
+        <v>0.218979</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.32466</v>
+        <v>0.324977</v>
       </c>
       <c r="C42" t="n">
-        <v>0.25069</v>
+        <v>0.250543</v>
       </c>
       <c r="D42" t="n">
-        <v>0.218046</v>
+        <v>0.217774</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.31661</v>
+        <v>0.316749</v>
       </c>
       <c r="C43" t="n">
-        <v>0.249258</v>
+        <v>0.249172</v>
       </c>
       <c r="D43" t="n">
-        <v>0.216905</v>
+        <v>0.216899</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.309324</v>
+        <v>0.309343</v>
       </c>
       <c r="C44" t="n">
-        <v>0.247847</v>
+        <v>0.247919</v>
       </c>
       <c r="D44" t="n">
-        <v>0.215788</v>
+        <v>0.215652</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.300139</v>
+        <v>0.30035</v>
       </c>
       <c r="C45" t="n">
-        <v>0.246721</v>
+        <v>0.24661</v>
       </c>
       <c r="D45" t="n">
-        <v>0.214796</v>
+        <v>0.2145</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.291962</v>
+        <v>0.292223</v>
       </c>
       <c r="C46" t="n">
-        <v>0.245712</v>
+        <v>0.245883</v>
       </c>
       <c r="D46" t="n">
-        <v>0.21416</v>
+        <v>0.214141</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.282698</v>
+        <v>0.282711</v>
       </c>
       <c r="C47" t="n">
-        <v>0.244682</v>
+        <v>0.244719</v>
       </c>
       <c r="D47" t="n">
-        <v>0.214178</v>
+        <v>0.214181</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.271878</v>
+        <v>0.272012</v>
       </c>
       <c r="C48" t="n">
-        <v>0.243706</v>
+        <v>0.243728</v>
       </c>
       <c r="D48" t="n">
-        <v>0.213627</v>
+        <v>0.21374</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.260915</v>
+        <v>0.261144</v>
       </c>
       <c r="C49" t="n">
-        <v>0.243364</v>
+        <v>0.243259</v>
       </c>
       <c r="D49" t="n">
-        <v>0.213528</v>
+        <v>0.213382</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.248751</v>
+        <v>0.249027</v>
       </c>
       <c r="C50" t="n">
-        <v>0.242786</v>
+        <v>0.242973</v>
       </c>
       <c r="D50" t="n">
-        <v>0.213832</v>
+        <v>0.213938</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.234857</v>
+        <v>0.235116</v>
       </c>
       <c r="C51" t="n">
-        <v>0.24206</v>
+        <v>0.242258</v>
       </c>
       <c r="D51" t="n">
-        <v>0.225724</v>
+        <v>0.225975</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.219958</v>
+        <v>0.219951</v>
       </c>
       <c r="C52" t="n">
-        <v>0.241258</v>
+        <v>0.241376</v>
       </c>
       <c r="D52" t="n">
-        <v>0.223557</v>
+        <v>0.223653</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.34719</v>
+        <v>0.347518</v>
       </c>
       <c r="C53" t="n">
-        <v>0.257588</v>
+        <v>0.257627</v>
       </c>
       <c r="D53" t="n">
-        <v>0.222136</v>
+        <v>0.221911</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.341002</v>
+        <v>0.341332</v>
       </c>
       <c r="C54" t="n">
-        <v>0.254649</v>
+        <v>0.254897</v>
       </c>
       <c r="D54" t="n">
-        <v>0.220689</v>
+        <v>0.220728</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.334869</v>
+        <v>0.335214</v>
       </c>
       <c r="C55" t="n">
-        <v>0.251995</v>
+        <v>0.252079</v>
       </c>
       <c r="D55" t="n">
-        <v>0.219457</v>
+        <v>0.219436</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.327505</v>
+        <v>0.327622</v>
       </c>
       <c r="C56" t="n">
-        <v>0.250659</v>
+        <v>0.250629</v>
       </c>
       <c r="D56" t="n">
-        <v>0.218326</v>
+        <v>0.218151</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.320477</v>
+        <v>0.320716</v>
       </c>
       <c r="C57" t="n">
-        <v>0.249193</v>
+        <v>0.249135</v>
       </c>
       <c r="D57" t="n">
-        <v>0.217151</v>
+        <v>0.217165</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.312834</v>
+        <v>0.313219</v>
       </c>
       <c r="C58" t="n">
-        <v>0.247861</v>
+        <v>0.24772</v>
       </c>
       <c r="D58" t="n">
-        <v>0.21644</v>
+        <v>0.216504</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304596</v>
+        <v>0.304476</v>
       </c>
       <c r="C59" t="n">
-        <v>0.246804</v>
+        <v>0.246615</v>
       </c>
       <c r="D59" t="n">
-        <v>0.215475</v>
+        <v>0.215335</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294679</v>
+        <v>0.294745</v>
       </c>
       <c r="C60" t="n">
-        <v>0.24584</v>
+        <v>0.245632</v>
       </c>
       <c r="D60" t="n">
-        <v>0.214694</v>
+        <v>0.214669</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.285143</v>
+        <v>0.285092</v>
       </c>
       <c r="C61" t="n">
-        <v>0.245373</v>
+        <v>0.245112</v>
       </c>
       <c r="D61" t="n">
-        <v>0.214125</v>
+        <v>0.213965</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.274613</v>
+        <v>0.274714</v>
       </c>
       <c r="C62" t="n">
-        <v>0.244226</v>
+        <v>0.243965</v>
       </c>
       <c r="D62" t="n">
-        <v>0.213624</v>
+        <v>0.213359</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263262</v>
+        <v>0.263394</v>
       </c>
       <c r="C63" t="n">
-        <v>0.243335</v>
+        <v>0.243224</v>
       </c>
       <c r="D63" t="n">
-        <v>0.213295</v>
+        <v>0.213258</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.250813</v>
+        <v>0.250918</v>
       </c>
       <c r="C64" t="n">
-        <v>0.242853</v>
+        <v>0.242856</v>
       </c>
       <c r="D64" t="n">
-        <v>0.212725</v>
+        <v>0.21246</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.237827</v>
+        <v>0.238014</v>
       </c>
       <c r="C65" t="n">
-        <v>0.242171</v>
+        <v>0.241937</v>
       </c>
       <c r="D65" t="n">
-        <v>0.212508</v>
+        <v>0.21233</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.223328</v>
+        <v>0.223612</v>
       </c>
       <c r="C66" t="n">
-        <v>0.24128</v>
+        <v>0.241529</v>
       </c>
       <c r="D66" t="n">
-        <v>0.225035</v>
+        <v>0.22497</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.348901</v>
+        <v>0.34917</v>
       </c>
       <c r="C67" t="n">
-        <v>0.25948</v>
+        <v>0.259515</v>
       </c>
       <c r="D67" t="n">
-        <v>0.223017</v>
+        <v>0.222958</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.342873</v>
+        <v>0.343012</v>
       </c>
       <c r="C68" t="n">
-        <v>0.255676</v>
+        <v>0.255549</v>
       </c>
       <c r="D68" t="n">
-        <v>0.221185</v>
+        <v>0.221096</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.336696</v>
+        <v>0.336832</v>
       </c>
       <c r="C69" t="n">
-        <v>0.252906</v>
+        <v>0.252567</v>
       </c>
       <c r="D69" t="n">
-        <v>0.219786</v>
+        <v>0.219675</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.330066</v>
+        <v>0.329965</v>
       </c>
       <c r="C70" t="n">
-        <v>0.251184</v>
+        <v>0.250909</v>
       </c>
       <c r="D70" t="n">
-        <v>0.218581</v>
+        <v>0.218437</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.322621</v>
+        <v>0.322767</v>
       </c>
       <c r="C71" t="n">
-        <v>0.24965</v>
+        <v>0.249617</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217742</v>
+        <v>0.217606</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.315205</v>
+        <v>0.315528</v>
       </c>
       <c r="C72" t="n">
-        <v>0.248396</v>
+        <v>0.248209</v>
       </c>
       <c r="D72" t="n">
-        <v>0.216669</v>
+        <v>0.21656</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.306797</v>
+        <v>0.307021</v>
       </c>
       <c r="C73" t="n">
-        <v>0.247047</v>
+        <v>0.246983</v>
       </c>
       <c r="D73" t="n">
-        <v>0.215744</v>
+        <v>0.215379</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.298179</v>
+        <v>0.298244</v>
       </c>
       <c r="C74" t="n">
-        <v>0.246052</v>
+        <v>0.245987</v>
       </c>
       <c r="D74" t="n">
-        <v>0.214734</v>
+        <v>0.214495</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4271,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.288599</v>
+        <v>0.288928</v>
       </c>
       <c r="C75" t="n">
-        <v>0.245222</v>
+        <v>0.245149</v>
       </c>
       <c r="D75" t="n">
-        <v>0.214282</v>
+        <v>0.214144</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.278401</v>
+        <v>0.278867</v>
       </c>
       <c r="C76" t="n">
-        <v>0.244599</v>
+        <v>0.244389</v>
       </c>
       <c r="D76" t="n">
-        <v>0.213758</v>
+        <v>0.213485</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.267354</v>
+        <v>0.267537</v>
       </c>
       <c r="C77" t="n">
-        <v>0.243372</v>
+        <v>0.243229</v>
       </c>
       <c r="D77" t="n">
-        <v>0.213218</v>
+        <v>0.213006</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.254811</v>
+        <v>0.255155</v>
       </c>
       <c r="C78" t="n">
-        <v>0.242478</v>
+        <v>0.242356</v>
       </c>
       <c r="D78" t="n">
-        <v>0.212855</v>
+        <v>0.212657</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.241628</v>
+        <v>0.241967</v>
       </c>
       <c r="C79" t="n">
-        <v>0.242063</v>
+        <v>0.241948</v>
       </c>
       <c r="D79" t="n">
-        <v>0.212519</v>
+        <v>0.212371</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227189</v>
+        <v>0.227519</v>
       </c>
       <c r="C80" t="n">
-        <v>0.241939</v>
+        <v>0.241885</v>
       </c>
       <c r="D80" t="n">
-        <v>0.225894</v>
+        <v>0.225355</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.350324</v>
+        <v>0.350225</v>
       </c>
       <c r="C81" t="n">
-        <v>0.259259</v>
+        <v>0.259027</v>
       </c>
       <c r="D81" t="n">
-        <v>0.223563</v>
+        <v>0.223367</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4369,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.344706</v>
+        <v>0.344716</v>
       </c>
       <c r="C82" t="n">
-        <v>0.255627</v>
+        <v>0.255289</v>
       </c>
       <c r="D82" t="n">
-        <v>0.2219</v>
+        <v>0.221724</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.338093</v>
+        <v>0.338186</v>
       </c>
       <c r="C83" t="n">
-        <v>0.253017</v>
+        <v>0.252699</v>
       </c>
       <c r="D83" t="n">
-        <v>0.220346</v>
+        <v>0.220063</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.331677</v>
+        <v>0.331807</v>
       </c>
       <c r="C84" t="n">
-        <v>0.251129</v>
+        <v>0.250829</v>
       </c>
       <c r="D84" t="n">
-        <v>0.218999</v>
+        <v>0.218746</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.324362</v>
+        <v>0.324742</v>
       </c>
       <c r="C85" t="n">
-        <v>0.249642</v>
+        <v>0.249405</v>
       </c>
       <c r="D85" t="n">
-        <v>0.217842</v>
+        <v>0.217595</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.317071</v>
+        <v>0.316686</v>
       </c>
       <c r="C86" t="n">
-        <v>0.24837</v>
+        <v>0.248223</v>
       </c>
       <c r="D86" t="n">
-        <v>0.216947</v>
+        <v>0.216631</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.308781</v>
+        <v>0.308922</v>
       </c>
       <c r="C87" t="n">
-        <v>0.247245</v>
+        <v>0.247022</v>
       </c>
       <c r="D87" t="n">
-        <v>0.215922</v>
+        <v>0.215747</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300198</v>
+        <v>0.300259</v>
       </c>
       <c r="C88" t="n">
-        <v>0.246449</v>
+        <v>0.246385</v>
       </c>
       <c r="D88" t="n">
-        <v>0.215139</v>
+        <v>0.215016</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.290738</v>
+        <v>0.290832</v>
       </c>
       <c r="C89" t="n">
-        <v>0.245452</v>
+        <v>0.245394</v>
       </c>
       <c r="D89" t="n">
-        <v>0.21443</v>
+        <v>0.214261</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.280573</v>
+        <v>0.280804</v>
       </c>
       <c r="C90" t="n">
-        <v>0.244692</v>
+        <v>0.24457</v>
       </c>
       <c r="D90" t="n">
-        <v>0.213779</v>
+        <v>0.213571</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.269696</v>
+        <v>0.269832</v>
       </c>
       <c r="C91" t="n">
-        <v>0.243784</v>
+        <v>0.243712</v>
       </c>
       <c r="D91" t="n">
-        <v>0.213228</v>
+        <v>0.213096</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.257661</v>
+        <v>0.258255</v>
       </c>
       <c r="C92" t="n">
-        <v>0.24306</v>
+        <v>0.242965</v>
       </c>
       <c r="D92" t="n">
-        <v>0.212683</v>
+        <v>0.212592</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.244871</v>
+        <v>0.244939</v>
       </c>
       <c r="C93" t="n">
-        <v>0.242531</v>
+        <v>0.242357</v>
       </c>
       <c r="D93" t="n">
-        <v>0.212628</v>
+        <v>0.212552</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.230947</v>
+        <v>0.230851</v>
       </c>
       <c r="C94" t="n">
-        <v>0.241942</v>
+        <v>0.241866</v>
       </c>
       <c r="D94" t="n">
-        <v>0.226141</v>
+        <v>0.22584</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.3518</v>
+        <v>0.351989</v>
       </c>
       <c r="C95" t="n">
-        <v>0.259625</v>
+        <v>0.259418</v>
       </c>
       <c r="D95" t="n">
-        <v>0.223762</v>
+        <v>0.223645</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.346112</v>
+        <v>0.346065</v>
       </c>
       <c r="C96" t="n">
-        <v>0.256133</v>
+        <v>0.255965</v>
       </c>
       <c r="D96" t="n">
-        <v>0.221994</v>
+        <v>0.221872</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.340061</v>
+        <v>0.340467</v>
       </c>
       <c r="C97" t="n">
-        <v>0.253438</v>
+        <v>0.25344</v>
       </c>
       <c r="D97" t="n">
-        <v>0.220494</v>
+        <v>0.220342</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.333582</v>
+        <v>0.33362</v>
       </c>
       <c r="C98" t="n">
-        <v>0.251536</v>
+        <v>0.251356</v>
       </c>
       <c r="D98" t="n">
-        <v>0.21921</v>
+        <v>0.219093</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.326098</v>
+        <v>0.326503</v>
       </c>
       <c r="C99" t="n">
-        <v>0.25015</v>
+        <v>0.249987</v>
       </c>
       <c r="D99" t="n">
-        <v>0.218003</v>
+        <v>0.217856</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.318638</v>
+        <v>0.318722</v>
       </c>
       <c r="C100" t="n">
-        <v>0.248723</v>
+        <v>0.248562</v>
       </c>
       <c r="D100" t="n">
-        <v>0.216941</v>
+        <v>0.216847</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.310826</v>
+        <v>0.31086</v>
       </c>
       <c r="C101" t="n">
-        <v>0.247538</v>
+        <v>0.247489</v>
       </c>
       <c r="D101" t="n">
-        <v>0.216057</v>
+        <v>0.215857</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302299</v>
+        <v>0.302263</v>
       </c>
       <c r="C102" t="n">
-        <v>0.246735</v>
+        <v>0.246601</v>
       </c>
       <c r="D102" t="n">
-        <v>0.21529</v>
+        <v>0.215319</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.292696</v>
+        <v>0.292702</v>
       </c>
       <c r="C103" t="n">
-        <v>0.245747</v>
+        <v>0.245665</v>
       </c>
       <c r="D103" t="n">
-        <v>0.214527</v>
+        <v>0.214423</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.28319</v>
+        <v>0.283006</v>
       </c>
       <c r="C104" t="n">
-        <v>0.244935</v>
+        <v>0.244923</v>
       </c>
       <c r="D104" t="n">
-        <v>0.214017</v>
+        <v>0.213918</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.272158</v>
+        <v>0.272226</v>
       </c>
       <c r="C105" t="n">
-        <v>0.243904</v>
+        <v>0.24399</v>
       </c>
       <c r="D105" t="n">
-        <v>0.213319</v>
+        <v>0.21313</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.260673</v>
+        <v>0.260553</v>
       </c>
       <c r="C106" t="n">
-        <v>0.243163</v>
+        <v>0.243095</v>
       </c>
       <c r="D106" t="n">
-        <v>0.212847</v>
+        <v>0.212586</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247523</v>
+        <v>0.247911</v>
       </c>
       <c r="C107" t="n">
-        <v>0.242542</v>
+        <v>0.242457</v>
       </c>
       <c r="D107" t="n">
-        <v>0.212447</v>
+        <v>0.212234</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.233721</v>
+        <v>0.233988</v>
       </c>
       <c r="C108" t="n">
-        <v>0.241812</v>
+        <v>0.241971</v>
       </c>
       <c r="D108" t="n">
-        <v>0.226247</v>
+        <v>0.226437</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.219031</v>
+        <v>0.219362</v>
       </c>
       <c r="C109" t="n">
-        <v>0.24169</v>
+        <v>0.241511</v>
       </c>
       <c r="D109" t="n">
-        <v>0.22392</v>
+        <v>0.224358</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.347273</v>
+        <v>0.347639</v>
       </c>
       <c r="C110" t="n">
-        <v>0.256347</v>
+        <v>0.256346</v>
       </c>
       <c r="D110" t="n">
-        <v>0.222232</v>
+        <v>0.222309</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.341662</v>
+        <v>0.341483</v>
       </c>
       <c r="C111" t="n">
-        <v>0.253524</v>
+        <v>0.253933</v>
       </c>
       <c r="D111" t="n">
-        <v>0.22066</v>
+        <v>0.221203</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.335171</v>
+        <v>0.335012</v>
       </c>
       <c r="C112" t="n">
-        <v>0.251503</v>
+        <v>0.251769</v>
       </c>
       <c r="D112" t="n">
-        <v>0.219519</v>
+        <v>0.219667</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.328151</v>
+        <v>0.327906</v>
       </c>
       <c r="C113" t="n">
-        <v>0.249987</v>
+        <v>0.250083</v>
       </c>
       <c r="D113" t="n">
-        <v>0.218152</v>
+        <v>0.218367</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.320733</v>
+        <v>0.320859</v>
       </c>
       <c r="C114" t="n">
-        <v>0.249072</v>
+        <v>0.249114</v>
       </c>
       <c r="D114" t="n">
-        <v>0.217267</v>
+        <v>0.217797</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.31239</v>
+        <v>0.313149</v>
       </c>
       <c r="C115" t="n">
-        <v>0.247921</v>
+        <v>0.248104</v>
       </c>
       <c r="D115" t="n">
-        <v>0.216106</v>
+        <v>0.216373</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304421</v>
+        <v>0.304328</v>
       </c>
       <c r="C116" t="n">
-        <v>0.247024</v>
+        <v>0.247029</v>
       </c>
       <c r="D116" t="n">
-        <v>0.215521</v>
+        <v>0.215928</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.295265</v>
+        <v>0.295727</v>
       </c>
       <c r="C117" t="n">
-        <v>0.245815</v>
+        <v>0.245907</v>
       </c>
       <c r="D117" t="n">
-        <v>0.214531</v>
+        <v>0.214665</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.285263</v>
+        <v>0.285667</v>
       </c>
       <c r="C118" t="n">
-        <v>0.245132</v>
+        <v>0.245045</v>
       </c>
       <c r="D118" t="n">
-        <v>0.2143</v>
+        <v>0.214286</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.274955</v>
+        <v>0.275237</v>
       </c>
       <c r="C119" t="n">
-        <v>0.244275</v>
+        <v>0.244273</v>
       </c>
       <c r="D119" t="n">
-        <v>0.213784</v>
+        <v>0.213895</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.263512</v>
+        <v>0.263577</v>
       </c>
       <c r="C120" t="n">
-        <v>0.243529</v>
+        <v>0.243621</v>
       </c>
       <c r="D120" t="n">
-        <v>0.213368</v>
+        <v>0.213794</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.251172</v>
+        <v>0.251498</v>
       </c>
       <c r="C121" t="n">
-        <v>0.242988</v>
+        <v>0.242857</v>
       </c>
       <c r="D121" t="n">
-        <v>0.213387</v>
+        <v>0.213091</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.237246</v>
+        <v>0.237737</v>
       </c>
       <c r="C122" t="n">
-        <v>0.242335</v>
+        <v>0.242355</v>
       </c>
       <c r="D122" t="n">
-        <v>0.212872</v>
+        <v>0.212831</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4943,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.22267</v>
+        <v>0.222906</v>
       </c>
       <c r="C123" t="n">
-        <v>0.241621</v>
+        <v>0.241758</v>
       </c>
       <c r="D123" t="n">
-        <v>0.225948</v>
+        <v>0.224966</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4957,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.348992</v>
+        <v>0.349261</v>
       </c>
       <c r="C124" t="n">
-        <v>0.257251</v>
+        <v>0.257751</v>
       </c>
       <c r="D124" t="n">
-        <v>0.22329</v>
+        <v>0.223617</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4971,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.342826</v>
+        <v>0.343058</v>
       </c>
       <c r="C125" t="n">
-        <v>0.254138</v>
+        <v>0.25399</v>
       </c>
       <c r="D125" t="n">
-        <v>0.221688</v>
+        <v>0.222584</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4985,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.337071</v>
+        <v>0.336779</v>
       </c>
       <c r="C126" t="n">
-        <v>0.25203</v>
+        <v>0.251813</v>
       </c>
       <c r="D126" t="n">
-        <v>0.220565</v>
+        <v>0.22109</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4999,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.329755</v>
+        <v>0.329439</v>
       </c>
       <c r="C127" t="n">
-        <v>0.249857</v>
+        <v>0.250079</v>
       </c>
       <c r="D127" t="n">
-        <v>0.219109</v>
+        <v>0.219103</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.322148</v>
+        <v>0.322239</v>
       </c>
       <c r="C128" t="n">
-        <v>0.248584</v>
+        <v>0.248833</v>
       </c>
       <c r="D128" t="n">
-        <v>0.217572</v>
+        <v>0.218185</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5027,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.314748</v>
+        <v>0.314531</v>
       </c>
       <c r="C129" t="n">
-        <v>0.24738</v>
+        <v>0.247831</v>
       </c>
       <c r="D129" t="n">
-        <v>0.216889</v>
+        <v>0.216682</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5041,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.306122</v>
+        <v>0.30586</v>
       </c>
       <c r="C130" t="n">
-        <v>0.24648</v>
+        <v>0.246112</v>
       </c>
       <c r="D130" t="n">
-        <v>0.21665</v>
+        <v>0.216894</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5055,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.297493</v>
+        <v>0.297364</v>
       </c>
       <c r="C131" t="n">
-        <v>0.245659</v>
+        <v>0.245904</v>
       </c>
       <c r="D131" t="n">
-        <v>0.216397</v>
+        <v>0.215808</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5069,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.287644</v>
+        <v>0.287435</v>
       </c>
       <c r="C132" t="n">
-        <v>0.244824</v>
+        <v>0.244468</v>
       </c>
       <c r="D132" t="n">
-        <v>0.214623</v>
+        <v>0.21441</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5083,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.277173</v>
+        <v>0.276874</v>
       </c>
       <c r="C133" t="n">
-        <v>0.244148</v>
+        <v>0.244089</v>
       </c>
       <c r="D133" t="n">
-        <v>0.214289</v>
+        <v>0.21448</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5097,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.265793</v>
+        <v>0.2661</v>
       </c>
       <c r="C134" t="n">
-        <v>0.243327</v>
+        <v>0.243616</v>
       </c>
       <c r="D134" t="n">
-        <v>0.215091</v>
+        <v>0.213936</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5111,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.254585</v>
+        <v>0.253158</v>
       </c>
       <c r="C135" t="n">
-        <v>0.242939</v>
+        <v>0.242797</v>
       </c>
       <c r="D135" t="n">
-        <v>0.213262</v>
+        <v>0.214834</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5125,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.241082</v>
+        <v>0.240564</v>
       </c>
       <c r="C136" t="n">
-        <v>0.241923</v>
+        <v>0.242246</v>
       </c>
       <c r="D136" t="n">
-        <v>0.213482</v>
+        <v>0.214358</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5139,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.225873</v>
+        <v>0.225438</v>
       </c>
       <c r="C137" t="n">
-        <v>0.241512</v>
+        <v>0.241432</v>
       </c>
       <c r="D137" t="n">
-        <v>0.228063</v>
+        <v>0.229265</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5153,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.350802</v>
+        <v>0.35048</v>
       </c>
       <c r="C138" t="n">
-        <v>0.258612</v>
+        <v>0.258954</v>
       </c>
       <c r="D138" t="n">
-        <v>0.226222</v>
+        <v>0.22689</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5167,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.344714</v>
+        <v>0.344554</v>
       </c>
       <c r="C139" t="n">
-        <v>0.255337</v>
+        <v>0.255198</v>
       </c>
       <c r="D139" t="n">
-        <v>0.224226</v>
+        <v>0.223908</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5181,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338358</v>
+        <v>0.338316</v>
       </c>
       <c r="C140" t="n">
-        <v>0.254241</v>
+        <v>0.253192</v>
       </c>
       <c r="D140" t="n">
-        <v>0.223314</v>
+        <v>0.223165</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5195,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331289</v>
+        <v>0.331928</v>
       </c>
       <c r="C141" t="n">
-        <v>0.251183</v>
+        <v>0.250673</v>
       </c>
       <c r="D141" t="n">
-        <v>0.221384</v>
+        <v>0.22228</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5209,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.324617</v>
+        <v>0.324466</v>
       </c>
       <c r="C142" t="n">
-        <v>0.249604</v>
+        <v>0.249247</v>
       </c>
       <c r="D142" t="n">
-        <v>0.221394</v>
+        <v>0.22108</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5223,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.316684</v>
+        <v>0.316798</v>
       </c>
       <c r="C143" t="n">
-        <v>0.248267</v>
+        <v>0.247914</v>
       </c>
       <c r="D143" t="n">
-        <v>0.219061</v>
+        <v>0.219304</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3272,13 +3272,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.297298</v>
+        <v>0.293938</v>
       </c>
       <c r="C2" t="n">
-        <v>0.321452</v>
+        <v>0.323335</v>
       </c>
       <c r="D2" t="n">
-        <v>0.200265</v>
+        <v>0.200286</v>
       </c>
     </row>
     <row r="3">
@@ -3286,13 +3286,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.289765</v>
+        <v>0.288118</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3468</v>
+        <v>0.348931</v>
       </c>
       <c r="D3" t="n">
-        <v>0.203911</v>
+        <v>0.203236</v>
       </c>
     </row>
     <row r="4">
@@ -3300,13 +3300,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279361</v>
+        <v>0.281254</v>
       </c>
       <c r="C4" t="n">
-        <v>0.36828</v>
+        <v>0.367595</v>
       </c>
       <c r="D4" t="n">
-        <v>0.204389</v>
+        <v>0.204589</v>
       </c>
     </row>
     <row r="5">
@@ -3314,13 +3314,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.268396</v>
+        <v>0.267781</v>
       </c>
       <c r="C5" t="n">
-        <v>0.391394</v>
+        <v>0.391351</v>
       </c>
       <c r="D5" t="n">
-        <v>0.202945</v>
+        <v>0.202692</v>
       </c>
     </row>
     <row r="6">
@@ -3328,13 +3328,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.256694</v>
+        <v>0.257125</v>
       </c>
       <c r="C6" t="n">
-        <v>0.419879</v>
+        <v>0.419748</v>
       </c>
       <c r="D6" t="n">
-        <v>0.20527</v>
+        <v>0.20371</v>
       </c>
     </row>
     <row r="7">
@@ -3342,13 +3342,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.245932</v>
+        <v>0.245613</v>
       </c>
       <c r="C7" t="n">
-        <v>0.449497</v>
+        <v>0.445128</v>
       </c>
       <c r="D7" t="n">
-        <v>0.202949</v>
+        <v>0.203636</v>
       </c>
     </row>
     <row r="8">
@@ -3356,13 +3356,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.231608</v>
+        <v>0.231581</v>
       </c>
       <c r="C8" t="n">
-        <v>0.253427</v>
+        <v>0.256762</v>
       </c>
       <c r="D8" t="n">
-        <v>0.205219</v>
+        <v>0.204481</v>
       </c>
     </row>
     <row r="9">
@@ -3370,13 +3370,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.216736</v>
+        <v>0.216868</v>
       </c>
       <c r="C9" t="n">
-        <v>0.266235</v>
+        <v>0.268744</v>
       </c>
       <c r="D9" t="n">
-        <v>0.223719</v>
+        <v>0.223816</v>
       </c>
     </row>
     <row r="10">
@@ -3384,13 +3384,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.341793</v>
+        <v>0.343681</v>
       </c>
       <c r="C10" t="n">
-        <v>0.278775</v>
+        <v>0.277533</v>
       </c>
       <c r="D10" t="n">
-        <v>0.223105</v>
+        <v>0.223618</v>
       </c>
     </row>
     <row r="11">
@@ -3398,13 +3398,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.337472</v>
+        <v>0.338036</v>
       </c>
       <c r="C11" t="n">
-        <v>0.291248</v>
+        <v>0.291572</v>
       </c>
       <c r="D11" t="n">
-        <v>0.221739</v>
+        <v>0.222418</v>
       </c>
     </row>
     <row r="12">
@@ -3412,13 +3412,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.332727</v>
+        <v>0.332441</v>
       </c>
       <c r="C12" t="n">
-        <v>0.303592</v>
+        <v>0.30269</v>
       </c>
       <c r="D12" t="n">
-        <v>0.221198</v>
+        <v>0.220737</v>
       </c>
     </row>
     <row r="13">
@@ -3426,13 +3426,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.326384</v>
+        <v>0.327498</v>
       </c>
       <c r="C13" t="n">
-        <v>0.315215</v>
+        <v>0.317532</v>
       </c>
       <c r="D13" t="n">
-        <v>0.21999</v>
+        <v>0.220148</v>
       </c>
     </row>
     <row r="14">
@@ -3440,13 +3440,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.318546</v>
+        <v>0.320887</v>
       </c>
       <c r="C14" t="n">
-        <v>0.331224</v>
+        <v>0.331517</v>
       </c>
       <c r="D14" t="n">
-        <v>0.218254</v>
+        <v>0.218349</v>
       </c>
     </row>
     <row r="15">
@@ -3454,13 +3454,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.31091</v>
+        <v>0.311638</v>
       </c>
       <c r="C15" t="n">
-        <v>0.343072</v>
+        <v>0.345993</v>
       </c>
       <c r="D15" t="n">
-        <v>0.218772</v>
+        <v>0.229527</v>
       </c>
     </row>
     <row r="16">
@@ -3468,13 +3468,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.303324</v>
+        <v>0.303718</v>
       </c>
       <c r="C16" t="n">
-        <v>0.357364</v>
+        <v>0.357213</v>
       </c>
       <c r="D16" t="n">
-        <v>0.216913</v>
+        <v>0.216919</v>
       </c>
     </row>
     <row r="17">
@@ -3482,13 +3482,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.29414</v>
+        <v>0.29632</v>
       </c>
       <c r="C17" t="n">
-        <v>0.372876</v>
+        <v>0.373873</v>
       </c>
       <c r="D17" t="n">
-        <v>0.216175</v>
+        <v>0.215745</v>
       </c>
     </row>
     <row r="18">
@@ -3496,13 +3496,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.285013</v>
+        <v>0.285863</v>
       </c>
       <c r="C18" t="n">
-        <v>0.392943</v>
+        <v>0.392884</v>
       </c>
       <c r="D18" t="n">
-        <v>0.215615</v>
+        <v>0.21557</v>
       </c>
     </row>
     <row r="19">
@@ -3510,13 +3510,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.273139</v>
+        <v>0.277359</v>
       </c>
       <c r="C19" t="n">
-        <v>0.412204</v>
+        <v>0.4091</v>
       </c>
       <c r="D19" t="n">
-        <v>0.215632</v>
+        <v>0.215871</v>
       </c>
     </row>
     <row r="20">
@@ -3524,13 +3524,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.261301</v>
+        <v>0.262089</v>
       </c>
       <c r="C20" t="n">
-        <v>0.432683</v>
+        <v>0.432752</v>
       </c>
       <c r="D20" t="n">
-        <v>0.215101</v>
+        <v>0.215348</v>
       </c>
     </row>
     <row r="21">
@@ -3538,13 +3538,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.25087</v>
+        <v>0.254713</v>
       </c>
       <c r="C21" t="n">
-        <v>0.457529</v>
+        <v>0.455678</v>
       </c>
       <c r="D21" t="n">
-        <v>0.214743</v>
+        <v>0.214393</v>
       </c>
     </row>
     <row r="22">
@@ -3552,13 +3552,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.237713</v>
+        <v>0.241893</v>
       </c>
       <c r="C22" t="n">
-        <v>0.299068</v>
+        <v>0.297673</v>
       </c>
       <c r="D22" t="n">
-        <v>0.215121</v>
+        <v>0.214844</v>
       </c>
     </row>
     <row r="23">
@@ -3566,13 +3566,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.225588</v>
+        <v>0.225534</v>
       </c>
       <c r="C23" t="n">
-        <v>0.306905</v>
+        <v>0.306492</v>
       </c>
       <c r="D23" t="n">
-        <v>0.22798</v>
+        <v>0.2277</v>
       </c>
     </row>
     <row r="24">
@@ -3580,13 +3580,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.345588</v>
+        <v>0.345203</v>
       </c>
       <c r="C24" t="n">
-        <v>0.313576</v>
+        <v>0.314961</v>
       </c>
       <c r="D24" t="n">
-        <v>0.225756</v>
+        <v>0.225922</v>
       </c>
     </row>
     <row r="25">
@@ -3594,13 +3594,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.340798</v>
+        <v>0.33997</v>
       </c>
       <c r="C25" t="n">
-        <v>0.324134</v>
+        <v>0.321678</v>
       </c>
       <c r="D25" t="n">
-        <v>0.224467</v>
+        <v>0.224758</v>
       </c>
     </row>
     <row r="26">
@@ -3608,13 +3608,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.334184</v>
+        <v>0.334115</v>
       </c>
       <c r="C26" t="n">
-        <v>0.332206</v>
+        <v>0.332623</v>
       </c>
       <c r="D26" t="n">
-        <v>0.223658</v>
+        <v>0.223554</v>
       </c>
     </row>
     <row r="27">
@@ -3622,13 +3622,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328256</v>
+        <v>0.327818</v>
       </c>
       <c r="C27" t="n">
-        <v>0.342148</v>
+        <v>0.34436</v>
       </c>
       <c r="D27" t="n">
-        <v>0.222588</v>
+        <v>0.222935</v>
       </c>
     </row>
     <row r="28">
@@ -3636,13 +3636,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.321341</v>
+        <v>0.321107</v>
       </c>
       <c r="C28" t="n">
-        <v>0.353574</v>
+        <v>0.353886</v>
       </c>
       <c r="D28" t="n">
-        <v>0.221706</v>
+        <v>0.221699</v>
       </c>
     </row>
     <row r="29">
@@ -3650,13 +3650,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.313758</v>
+        <v>0.313627</v>
       </c>
       <c r="C29" t="n">
-        <v>0.366324</v>
+        <v>0.367937</v>
       </c>
       <c r="D29" t="n">
-        <v>0.221164</v>
+        <v>0.221418</v>
       </c>
     </row>
     <row r="30">
@@ -3664,13 +3664,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.305355</v>
+        <v>0.305159</v>
       </c>
       <c r="C30" t="n">
-        <v>0.38039</v>
+        <v>0.380747</v>
       </c>
       <c r="D30" t="n">
-        <v>0.21994</v>
+        <v>0.220091</v>
       </c>
     </row>
     <row r="31">
@@ -3678,13 +3678,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.297368</v>
+        <v>0.296836</v>
       </c>
       <c r="C31" t="n">
-        <v>0.398878</v>
+        <v>0.399943</v>
       </c>
       <c r="D31" t="n">
-        <v>0.219398</v>
+        <v>0.219388</v>
       </c>
     </row>
     <row r="32">
@@ -3692,13 +3692,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.288539</v>
+        <v>0.288765</v>
       </c>
       <c r="C32" t="n">
-        <v>0.414062</v>
+        <v>0.414625</v>
       </c>
       <c r="D32" t="n">
-        <v>0.218289</v>
+        <v>0.218487</v>
       </c>
     </row>
     <row r="33">
@@ -3706,13 +3706,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.279293</v>
+        <v>0.279989</v>
       </c>
       <c r="C33" t="n">
-        <v>0.434205</v>
+        <v>0.435551</v>
       </c>
       <c r="D33" t="n">
-        <v>0.217384</v>
+        <v>0.217445</v>
       </c>
     </row>
     <row r="34">
@@ -3720,13 +3720,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.268449</v>
+        <v>0.268457</v>
       </c>
       <c r="C34" t="n">
-        <v>0.457548</v>
+        <v>0.456453</v>
       </c>
       <c r="D34" t="n">
-        <v>0.217166</v>
+        <v>0.217146</v>
       </c>
     </row>
     <row r="35">
@@ -3734,13 +3734,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.256913</v>
+        <v>0.256579</v>
       </c>
       <c r="C35" t="n">
-        <v>0.47845</v>
+        <v>0.478292</v>
       </c>
       <c r="D35" t="n">
-        <v>0.215954</v>
+        <v>0.216099</v>
       </c>
     </row>
     <row r="36">
@@ -3748,13 +3748,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244468</v>
+        <v>0.244815</v>
       </c>
       <c r="C36" t="n">
-        <v>0.506589</v>
+        <v>0.506321</v>
       </c>
       <c r="D36" t="n">
-        <v>0.215642</v>
+        <v>0.215638</v>
       </c>
     </row>
     <row r="37">
@@ -3762,13 +3762,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.230257</v>
+        <v>0.230635</v>
       </c>
       <c r="C37" t="n">
-        <v>0.49046</v>
+        <v>0.490425</v>
       </c>
       <c r="D37" t="n">
-        <v>0.228687</v>
+        <v>0.228737</v>
       </c>
     </row>
     <row r="38">
@@ -3776,13 +3776,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.349331</v>
+        <v>0.349451</v>
       </c>
       <c r="C38" t="n">
-        <v>0.489703</v>
+        <v>0.489636</v>
       </c>
       <c r="D38" t="n">
-        <v>0.227003</v>
+        <v>0.226956</v>
       </c>
     </row>
     <row r="39">
@@ -3790,13 +3790,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.344197</v>
+        <v>0.343713</v>
       </c>
       <c r="C39" t="n">
-        <v>0.489711</v>
+        <v>0.488607</v>
       </c>
       <c r="D39" t="n">
-        <v>0.225277</v>
+        <v>0.225244</v>
       </c>
     </row>
     <row r="40">
@@ -3804,13 +3804,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.337652</v>
+        <v>0.337887</v>
       </c>
       <c r="C40" t="n">
-        <v>0.487979</v>
+        <v>0.486859</v>
       </c>
       <c r="D40" t="n">
-        <v>0.224232</v>
+        <v>0.224134</v>
       </c>
     </row>
     <row r="41">
@@ -3818,13 +3818,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.331697</v>
+        <v>0.331324</v>
       </c>
       <c r="C41" t="n">
-        <v>0.487404</v>
+        <v>0.488296</v>
       </c>
       <c r="D41" t="n">
-        <v>0.223147</v>
+        <v>0.223094</v>
       </c>
     </row>
     <row r="42">
@@ -3832,13 +3832,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.325617</v>
+        <v>0.325393</v>
       </c>
       <c r="C42" t="n">
-        <v>0.488968</v>
+        <v>0.489351</v>
       </c>
       <c r="D42" t="n">
-        <v>0.221565</v>
+        <v>0.222079</v>
       </c>
     </row>
     <row r="43">
@@ -3846,13 +3846,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.317862</v>
+        <v>0.317922</v>
       </c>
       <c r="C43" t="n">
-        <v>0.492359</v>
+        <v>0.492687</v>
       </c>
       <c r="D43" t="n">
-        <v>0.220807</v>
+        <v>0.221116</v>
       </c>
     </row>
     <row r="44">
@@ -3860,13 +3860,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.309916</v>
+        <v>0.309791</v>
       </c>
       <c r="C44" t="n">
-        <v>0.497151</v>
+        <v>0.496296</v>
       </c>
       <c r="D44" t="n">
-        <v>0.219883</v>
+        <v>0.220349</v>
       </c>
     </row>
     <row r="45">
@@ -3874,13 +3874,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.301298</v>
+        <v>0.301292</v>
       </c>
       <c r="C45" t="n">
-        <v>0.503219</v>
+        <v>0.502144</v>
       </c>
       <c r="D45" t="n">
-        <v>0.218925</v>
+        <v>0.219213</v>
       </c>
     </row>
     <row r="46">
@@ -3888,13 +3888,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.29192</v>
+        <v>0.292288</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5097</v>
+        <v>0.508902</v>
       </c>
       <c r="D46" t="n">
-        <v>0.218271</v>
+        <v>0.218285</v>
       </c>
     </row>
     <row r="47">
@@ -3902,13 +3902,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.282052</v>
+        <v>0.282358</v>
       </c>
       <c r="C47" t="n">
-        <v>0.514532</v>
+        <v>0.517204</v>
       </c>
       <c r="D47" t="n">
-        <v>0.217552</v>
+        <v>0.217521</v>
       </c>
     </row>
     <row r="48">
@@ -3916,13 +3916,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.271312</v>
+        <v>0.271222</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5306110000000001</v>
+        <v>0.530672</v>
       </c>
       <c r="D48" t="n">
-        <v>0.217151</v>
+        <v>0.217572</v>
       </c>
     </row>
     <row r="49">
@@ -3930,13 +3930,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.260381</v>
+        <v>0.26078</v>
       </c>
       <c r="C49" t="n">
-        <v>0.546319</v>
+        <v>0.547226</v>
       </c>
       <c r="D49" t="n">
-        <v>0.216592</v>
+        <v>0.216811</v>
       </c>
     </row>
     <row r="50">
@@ -3944,13 +3944,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.247985</v>
+        <v>0.248331</v>
       </c>
       <c r="C50" t="n">
-        <v>0.564522</v>
+        <v>0.566279</v>
       </c>
       <c r="D50" t="n">
-        <v>0.216223</v>
+        <v>0.216023</v>
       </c>
     </row>
     <row r="51">
@@ -3958,13 +3958,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.234585</v>
+        <v>0.235005</v>
       </c>
       <c r="C51" t="n">
-        <v>0.498798</v>
+        <v>0.503264</v>
       </c>
       <c r="D51" t="n">
-        <v>0.229188</v>
+        <v>0.228898</v>
       </c>
     </row>
     <row r="52">
@@ -3975,10 +3975,10 @@
         <v>0.220195</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5007470000000001</v>
+        <v>0.501793</v>
       </c>
       <c r="D52" t="n">
-        <v>0.227381</v>
+        <v>0.227732</v>
       </c>
     </row>
     <row r="53">
@@ -3986,13 +3986,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.346752</v>
+        <v>0.346759</v>
       </c>
       <c r="C53" t="n">
-        <v>0.496418</v>
+        <v>0.499254</v>
       </c>
       <c r="D53" t="n">
-        <v>0.226084</v>
+        <v>0.226325</v>
       </c>
     </row>
     <row r="54">
@@ -4000,13 +4000,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.341073</v>
+        <v>0.34101</v>
       </c>
       <c r="C54" t="n">
-        <v>0.49916</v>
+        <v>0.499474</v>
       </c>
       <c r="D54" t="n">
-        <v>0.225218</v>
+        <v>0.225099</v>
       </c>
     </row>
     <row r="55">
@@ -4014,13 +4014,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.334927</v>
+        <v>0.334761</v>
       </c>
       <c r="C55" t="n">
-        <v>0.500042</v>
+        <v>0.499434</v>
       </c>
       <c r="D55" t="n">
-        <v>0.223979</v>
+        <v>0.223887</v>
       </c>
     </row>
     <row r="56">
@@ -4028,13 +4028,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.327885</v>
+        <v>0.327583</v>
       </c>
       <c r="C56" t="n">
-        <v>0.500436</v>
+        <v>0.500084</v>
       </c>
       <c r="D56" t="n">
-        <v>0.222621</v>
+        <v>0.222854</v>
       </c>
     </row>
     <row r="57">
@@ -4042,13 +4042,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.32039</v>
+        <v>0.320277</v>
       </c>
       <c r="C57" t="n">
-        <v>0.501484</v>
+        <v>0.502744</v>
       </c>
       <c r="D57" t="n">
-        <v>0.221416</v>
+        <v>0.221632</v>
       </c>
     </row>
     <row r="58">
@@ -4056,13 +4056,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.312666</v>
+        <v>0.312786</v>
       </c>
       <c r="C58" t="n">
-        <v>0.504911</v>
+        <v>0.504656</v>
       </c>
       <c r="D58" t="n">
-        <v>0.220736</v>
+        <v>0.220973</v>
       </c>
     </row>
     <row r="59">
@@ -4070,13 +4070,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.30383</v>
+        <v>0.30428</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5086619999999999</v>
+        <v>0.512463</v>
       </c>
       <c r="D59" t="n">
-        <v>0.219631</v>
+        <v>0.219936</v>
       </c>
     </row>
     <row r="60">
@@ -4084,13 +4084,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294344</v>
+        <v>0.294499</v>
       </c>
       <c r="C60" t="n">
-        <v>0.518391</v>
+        <v>0.519172</v>
       </c>
       <c r="D60" t="n">
-        <v>0.218667</v>
+        <v>0.218785</v>
       </c>
     </row>
     <row r="61">
@@ -4098,13 +4098,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.284893</v>
+        <v>0.285097</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5288119999999999</v>
+        <v>0.529424</v>
       </c>
       <c r="D61" t="n">
-        <v>0.218134</v>
+        <v>0.218189</v>
       </c>
     </row>
     <row r="62">
@@ -4112,13 +4112,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.274275</v>
+        <v>0.274418</v>
       </c>
       <c r="C62" t="n">
-        <v>0.535709</v>
+        <v>0.542422</v>
       </c>
       <c r="D62" t="n">
-        <v>0.217567</v>
+        <v>0.217666</v>
       </c>
     </row>
     <row r="63">
@@ -4126,13 +4126,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263151</v>
+        <v>0.263215</v>
       </c>
       <c r="C63" t="n">
-        <v>0.557497</v>
+        <v>0.556985</v>
       </c>
       <c r="D63" t="n">
-        <v>0.216697</v>
+        <v>0.217104</v>
       </c>
     </row>
     <row r="64">
@@ -4140,13 +4140,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.250899</v>
+        <v>0.250838</v>
       </c>
       <c r="C64" t="n">
-        <v>0.573184</v>
+        <v>0.5744669999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.216345</v>
+        <v>0.216429</v>
       </c>
     </row>
     <row r="65">
@@ -4154,13 +4154,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.238273</v>
+        <v>0.23814</v>
       </c>
       <c r="C65" t="n">
-        <v>0.511906</v>
+        <v>0.512105</v>
       </c>
       <c r="D65" t="n">
-        <v>0.215865</v>
+        <v>0.215949</v>
       </c>
     </row>
     <row r="66">
@@ -4168,13 +4168,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.223866</v>
+        <v>0.223879</v>
       </c>
       <c r="C66" t="n">
-        <v>0.508421</v>
+        <v>0.508867</v>
       </c>
       <c r="D66" t="n">
-        <v>0.228635</v>
+        <v>0.229037</v>
       </c>
     </row>
     <row r="67">
@@ -4182,13 +4182,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.348753</v>
+        <v>0.348654</v>
       </c>
       <c r="C67" t="n">
-        <v>0.508626</v>
+        <v>0.508297</v>
       </c>
       <c r="D67" t="n">
-        <v>0.227588</v>
+        <v>0.227434</v>
       </c>
     </row>
     <row r="68">
@@ -4196,13 +4196,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.342807</v>
+        <v>0.342818</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5057970000000001</v>
+        <v>0.506727</v>
       </c>
       <c r="D68" t="n">
-        <v>0.225586</v>
+        <v>0.226026</v>
       </c>
     </row>
     <row r="69">
@@ -4210,13 +4210,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.33634</v>
+        <v>0.336158</v>
       </c>
       <c r="C69" t="n">
-        <v>0.506918</v>
+        <v>0.506126</v>
       </c>
       <c r="D69" t="n">
-        <v>0.224426</v>
+        <v>0.224597</v>
       </c>
     </row>
     <row r="70">
@@ -4224,13 +4224,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.329837</v>
+        <v>0.329575</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5072</v>
+        <v>0.506902</v>
       </c>
       <c r="D70" t="n">
-        <v>0.222981</v>
+        <v>0.223604</v>
       </c>
     </row>
     <row r="71">
@@ -4238,13 +4238,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.322615</v>
+        <v>0.322293</v>
       </c>
       <c r="C71" t="n">
-        <v>0.505375</v>
+        <v>0.509003</v>
       </c>
       <c r="D71" t="n">
-        <v>0.221843</v>
+        <v>0.222257</v>
       </c>
     </row>
     <row r="72">
@@ -4252,13 +4252,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.314602</v>
+        <v>0.314656</v>
       </c>
       <c r="C72" t="n">
-        <v>0.511469</v>
+        <v>0.51179</v>
       </c>
       <c r="D72" t="n">
-        <v>0.221336</v>
+        <v>0.221632</v>
       </c>
     </row>
     <row r="73">
@@ -4266,13 +4266,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.306153</v>
+        <v>0.306139</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5157040000000001</v>
+        <v>0.5165</v>
       </c>
       <c r="D73" t="n">
-        <v>0.220232</v>
+        <v>0.220759</v>
       </c>
     </row>
     <row r="74">
@@ -4280,13 +4280,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.297115</v>
+        <v>0.297123</v>
       </c>
       <c r="C74" t="n">
-        <v>0.52239</v>
+        <v>0.522181</v>
       </c>
       <c r="D74" t="n">
-        <v>0.219385</v>
+        <v>0.21962</v>
       </c>
     </row>
     <row r="75">
@@ -4294,13 +4294,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.287671</v>
+        <v>0.287746</v>
       </c>
       <c r="C75" t="n">
-        <v>0.531671</v>
+        <v>0.531454</v>
       </c>
       <c r="D75" t="n">
-        <v>0.218762</v>
+        <v>0.218939</v>
       </c>
     </row>
     <row r="76">
@@ -4308,13 +4308,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.277474</v>
+        <v>0.277196</v>
       </c>
       <c r="C76" t="n">
-        <v>0.538691</v>
+        <v>0.541618</v>
       </c>
       <c r="D76" t="n">
-        <v>0.217946</v>
+        <v>0.218182</v>
       </c>
     </row>
     <row r="77">
@@ -4322,13 +4322,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.2664</v>
+        <v>0.267138</v>
       </c>
       <c r="C77" t="n">
-        <v>0.558053</v>
+        <v>0.557453</v>
       </c>
       <c r="D77" t="n">
-        <v>0.217459</v>
+        <v>0.217546</v>
       </c>
     </row>
     <row r="78">
@@ -4336,13 +4336,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.254345</v>
+        <v>0.254711</v>
       </c>
       <c r="C78" t="n">
-        <v>0.569806</v>
+        <v>0.574872</v>
       </c>
       <c r="D78" t="n">
-        <v>0.216839</v>
+        <v>0.217053</v>
       </c>
     </row>
     <row r="79">
@@ -4350,13 +4350,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.241915</v>
+        <v>0.241782</v>
       </c>
       <c r="C79" t="n">
-        <v>0.537568</v>
+        <v>0.536568</v>
       </c>
       <c r="D79" t="n">
-        <v>0.216175</v>
+        <v>0.216515</v>
       </c>
     </row>
     <row r="80">
@@ -4364,13 +4364,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227928</v>
+        <v>0.227801</v>
       </c>
       <c r="C80" t="n">
-        <v>0.527582</v>
+        <v>0.534384</v>
       </c>
       <c r="D80" t="n">
-        <v>0.23109</v>
+        <v>0.23047</v>
       </c>
     </row>
     <row r="81">
@@ -4378,13 +4378,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.350965</v>
+        <v>0.350524</v>
       </c>
       <c r="C81" t="n">
-        <v>0.529278</v>
+        <v>0.534186</v>
       </c>
       <c r="D81" t="n">
-        <v>0.228728</v>
+        <v>0.22839</v>
       </c>
     </row>
     <row r="82">
@@ -4392,13 +4392,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.344758</v>
+        <v>0.344599</v>
       </c>
       <c r="C82" t="n">
-        <v>0.531011</v>
+        <v>0.535891</v>
       </c>
       <c r="D82" t="n">
-        <v>0.226996</v>
+        <v>0.226645</v>
       </c>
     </row>
     <row r="83">
@@ -4406,13 +4406,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.338293</v>
+        <v>0.338409</v>
       </c>
       <c r="C83" t="n">
-        <v>0.530684</v>
+        <v>0.530424</v>
       </c>
       <c r="D83" t="n">
-        <v>0.225547</v>
+        <v>0.225199</v>
       </c>
     </row>
     <row r="84">
@@ -4420,13 +4420,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.331711</v>
+        <v>0.331732</v>
       </c>
       <c r="C84" t="n">
-        <v>0.52903</v>
+        <v>0.531143</v>
       </c>
       <c r="D84" t="n">
-        <v>0.224112</v>
+        <v>0.224114</v>
       </c>
     </row>
     <row r="85">
@@ -4434,13 +4434,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.324204</v>
+        <v>0.324632</v>
       </c>
       <c r="C85" t="n">
-        <v>0.527506</v>
+        <v>0.5331399999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.222641</v>
+        <v>0.223008</v>
       </c>
     </row>
     <row r="86">
@@ -4448,13 +4448,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.316721</v>
+        <v>0.316879</v>
       </c>
       <c r="C86" t="n">
-        <v>0.524257</v>
+        <v>0.5382209999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.22177</v>
+        <v>0.222065</v>
       </c>
     </row>
     <row r="87">
@@ -4462,13 +4462,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.308759</v>
+        <v>0.308923</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5396609999999999</v>
+        <v>0.541476</v>
       </c>
       <c r="D87" t="n">
-        <v>0.220933</v>
+        <v>0.220718</v>
       </c>
     </row>
     <row r="88">
@@ -4476,13 +4476,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.299571</v>
+        <v>0.29989</v>
       </c>
       <c r="C88" t="n">
-        <v>0.542259</v>
+        <v>0.544679</v>
       </c>
       <c r="D88" t="n">
-        <v>0.219632</v>
+        <v>0.219685</v>
       </c>
     </row>
     <row r="89">
@@ -4490,13 +4490,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.289915</v>
+        <v>0.289891</v>
       </c>
       <c r="C89" t="n">
-        <v>0.549505</v>
+        <v>0.553447</v>
       </c>
       <c r="D89" t="n">
-        <v>0.21882</v>
+        <v>0.219111</v>
       </c>
     </row>
     <row r="90">
@@ -4504,13 +4504,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.280028</v>
+        <v>0.280424</v>
       </c>
       <c r="C90" t="n">
-        <v>0.546795</v>
+        <v>0.5637529999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>0.218149</v>
+        <v>0.218261</v>
       </c>
     </row>
     <row r="91">
@@ -4518,13 +4518,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.269146</v>
+        <v>0.269279</v>
       </c>
       <c r="C91" t="n">
-        <v>0.577292</v>
+        <v>0.576717</v>
       </c>
       <c r="D91" t="n">
-        <v>0.217454</v>
+        <v>0.217542</v>
       </c>
     </row>
     <row r="92">
@@ -4532,13 +4532,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.257426</v>
+        <v>0.257461</v>
       </c>
       <c r="C92" t="n">
-        <v>0.579168</v>
+        <v>0.58835</v>
       </c>
       <c r="D92" t="n">
-        <v>0.216909</v>
+        <v>0.216995</v>
       </c>
     </row>
     <row r="93">
@@ -4546,13 +4546,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.244428</v>
+        <v>0.244674</v>
       </c>
       <c r="C93" t="n">
-        <v>0.618763</v>
+        <v>0.616142</v>
       </c>
       <c r="D93" t="n">
-        <v>0.216304</v>
+        <v>0.216347</v>
       </c>
     </row>
     <row r="94">
@@ -4560,13 +4560,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.230754</v>
+        <v>0.230706</v>
       </c>
       <c r="C94" t="n">
-        <v>0.690717</v>
+        <v>0.691069</v>
       </c>
       <c r="D94" t="n">
-        <v>0.231628</v>
+        <v>0.231759</v>
       </c>
     </row>
     <row r="95">
@@ -4574,13 +4574,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.351807</v>
+        <v>0.352061</v>
       </c>
       <c r="C95" t="n">
-        <v>0.688814</v>
+        <v>0.693238</v>
       </c>
       <c r="D95" t="n">
-        <v>0.229291</v>
+        <v>0.229181</v>
       </c>
     </row>
     <row r="96">
@@ -4588,13 +4588,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.34664</v>
+        <v>0.346204</v>
       </c>
       <c r="C96" t="n">
-        <v>0.695946</v>
+        <v>0.697707</v>
       </c>
       <c r="D96" t="n">
-        <v>0.227513</v>
+        <v>0.227559</v>
       </c>
     </row>
     <row r="97">
@@ -4602,13 +4602,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.339973</v>
+        <v>0.339982</v>
       </c>
       <c r="C97" t="n">
-        <v>0.707338</v>
+        <v>0.704556</v>
       </c>
       <c r="D97" t="n">
-        <v>0.225789</v>
+        <v>0.225666</v>
       </c>
     </row>
     <row r="98">
@@ -4616,13 +4616,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.333243</v>
+        <v>0.333685</v>
       </c>
       <c r="C98" t="n">
-        <v>0.674517</v>
+        <v>0.70433</v>
       </c>
       <c r="D98" t="n">
-        <v>0.22485</v>
+        <v>0.224406</v>
       </c>
     </row>
     <row r="99">
@@ -4630,13 +4630,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.326375</v>
+        <v>0.326531</v>
       </c>
       <c r="C99" t="n">
-        <v>0.686079</v>
+        <v>0.693341</v>
       </c>
       <c r="D99" t="n">
-        <v>0.223503</v>
+        <v>0.223333</v>
       </c>
     </row>
     <row r="100">
@@ -4644,13 +4644,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.318443</v>
+        <v>0.318585</v>
       </c>
       <c r="C100" t="n">
-        <v>0.723633</v>
+        <v>0.701897</v>
       </c>
       <c r="D100" t="n">
-        <v>0.222501</v>
+        <v>0.222354</v>
       </c>
     </row>
     <row r="101">
@@ -4658,13 +4658,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.31044</v>
+        <v>0.310355</v>
       </c>
       <c r="C101" t="n">
-        <v>0.730912</v>
+        <v>0.728379</v>
       </c>
       <c r="D101" t="n">
-        <v>0.221197</v>
+        <v>0.221257</v>
       </c>
     </row>
     <row r="102">
@@ -4672,13 +4672,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.301596</v>
+        <v>0.301583</v>
       </c>
       <c r="C102" t="n">
-        <v>0.742214</v>
+        <v>0.737601</v>
       </c>
       <c r="D102" t="n">
-        <v>0.220288</v>
+        <v>0.220337</v>
       </c>
     </row>
     <row r="103">
@@ -4686,13 +4686,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.292394</v>
+        <v>0.292596</v>
       </c>
       <c r="C103" t="n">
-        <v>0.731097</v>
+        <v>0.744887</v>
       </c>
       <c r="D103" t="n">
-        <v>0.219452</v>
+        <v>0.219482</v>
       </c>
     </row>
     <row r="104">
@@ -4700,13 +4700,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.282485</v>
+        <v>0.282507</v>
       </c>
       <c r="C104" t="n">
-        <v>0.778397</v>
+        <v>0.7617930000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.218843</v>
+        <v>0.218955</v>
       </c>
     </row>
     <row r="105">
@@ -4714,13 +4714,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.271944</v>
+        <v>0.271627</v>
       </c>
       <c r="C105" t="n">
-        <v>0.797058</v>
+        <v>0.789848</v>
       </c>
       <c r="D105" t="n">
-        <v>0.217967</v>
+        <v>0.218121</v>
       </c>
     </row>
     <row r="106">
@@ -4728,13 +4728,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.259882</v>
+        <v>0.260094</v>
       </c>
       <c r="C106" t="n">
-        <v>0.81989</v>
+        <v>0.807138</v>
       </c>
       <c r="D106" t="n">
-        <v>0.217525</v>
+        <v>0.21785</v>
       </c>
     </row>
     <row r="107">
@@ -4742,13 +4742,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.24759</v>
+        <v>0.247366</v>
       </c>
       <c r="C107" t="n">
-        <v>0.836525</v>
+        <v>0.8010620000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0.216804</v>
+        <v>0.216801</v>
       </c>
     </row>
     <row r="108">
@@ -4756,13 +4756,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.233968</v>
+        <v>0.234006</v>
       </c>
       <c r="C108" t="n">
-        <v>0.841682</v>
+        <v>0.8173240000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>0.232323</v>
+        <v>0.232004</v>
       </c>
     </row>
     <row r="109">
@@ -4770,13 +4770,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.219639</v>
+        <v>0.219438</v>
       </c>
       <c r="C109" t="n">
-        <v>0.856386</v>
+        <v>0.85161</v>
       </c>
       <c r="D109" t="n">
-        <v>0.230043</v>
+        <v>0.230314</v>
       </c>
     </row>
     <row r="110">
@@ -4784,13 +4784,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.347172</v>
+        <v>0.347432</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8546</v>
+        <v>0.852736</v>
       </c>
       <c r="D110" t="n">
-        <v>0.228666</v>
+        <v>0.228336</v>
       </c>
     </row>
     <row r="111">
@@ -4798,13 +4798,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.341319</v>
+        <v>0.341239</v>
       </c>
       <c r="C111" t="n">
-        <v>0.865295</v>
+        <v>0.862194</v>
       </c>
       <c r="D111" t="n">
-        <v>0.226071</v>
+        <v>0.226833</v>
       </c>
     </row>
     <row r="112">
@@ -4812,13 +4812,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.334614</v>
+        <v>0.334954</v>
       </c>
       <c r="C112" t="n">
-        <v>0.877046</v>
+        <v>0.8645350000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>0.225144</v>
+        <v>0.225253</v>
       </c>
     </row>
     <row r="113">
@@ -4826,13 +4826,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.327493</v>
+        <v>0.327668</v>
       </c>
       <c r="C113" t="n">
-        <v>0.880643</v>
+        <v>0.882863</v>
       </c>
       <c r="D113" t="n">
-        <v>0.223916</v>
+        <v>0.223785</v>
       </c>
     </row>
     <row r="114">
@@ -4840,13 +4840,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.320253</v>
+        <v>0.320249</v>
       </c>
       <c r="C114" t="n">
-        <v>0.908144</v>
+        <v>0.895818</v>
       </c>
       <c r="D114" t="n">
-        <v>0.223136</v>
+        <v>0.223102</v>
       </c>
     </row>
     <row r="115">
@@ -4854,13 +4854,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.31241</v>
+        <v>0.31229</v>
       </c>
       <c r="C115" t="n">
-        <v>0.903756</v>
+        <v>0.9085530000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.222285</v>
+        <v>0.222113</v>
       </c>
     </row>
     <row r="116">
@@ -4868,13 +4868,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.303766</v>
+        <v>0.30393</v>
       </c>
       <c r="C116" t="n">
-        <v>0.952711</v>
+        <v>0.948628</v>
       </c>
       <c r="D116" t="n">
-        <v>0.221367</v>
+        <v>0.221302</v>
       </c>
     </row>
     <row r="117">
@@ -4882,13 +4882,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.294782</v>
+        <v>0.294502</v>
       </c>
       <c r="C117" t="n">
-        <v>0.979141</v>
+        <v>0.970486</v>
       </c>
       <c r="D117" t="n">
-        <v>0.220038</v>
+        <v>0.220432</v>
       </c>
     </row>
     <row r="118">
@@ -4896,13 +4896,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.284829</v>
+        <v>0.284907</v>
       </c>
       <c r="C118" t="n">
-        <v>1.01406</v>
+        <v>1.01074</v>
       </c>
       <c r="D118" t="n">
-        <v>0.219997</v>
+        <v>0.219517</v>
       </c>
     </row>
     <row r="119">
@@ -4910,13 +4910,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.274342</v>
+        <v>0.274835</v>
       </c>
       <c r="C119" t="n">
-        <v>1.01479</v>
+        <v>1.02813</v>
       </c>
       <c r="D119" t="n">
-        <v>0.218911</v>
+        <v>0.219112</v>
       </c>
     </row>
     <row r="120">
@@ -4924,13 +4924,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.263246</v>
+        <v>0.263112</v>
       </c>
       <c r="C120" t="n">
-        <v>1.05916</v>
+        <v>1.06058</v>
       </c>
       <c r="D120" t="n">
-        <v>0.218312</v>
+        <v>0.218932</v>
       </c>
     </row>
     <row r="121">
@@ -4938,13 +4938,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.250498</v>
+        <v>0.250511</v>
       </c>
       <c r="C121" t="n">
-        <v>1.16056</v>
+        <v>1.15004</v>
       </c>
       <c r="D121" t="n">
-        <v>0.217756</v>
+        <v>0.217737</v>
       </c>
     </row>
     <row r="122">
@@ -4952,13 +4952,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.237118</v>
+        <v>0.237313</v>
       </c>
       <c r="C122" t="n">
-        <v>0.935465</v>
+        <v>0.924629</v>
       </c>
       <c r="D122" t="n">
-        <v>0.217016</v>
+        <v>0.217267</v>
       </c>
     </row>
     <row r="123">
@@ -4966,13 +4966,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.222827</v>
+        <v>0.222948</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9439610000000001</v>
+        <v>0.932512</v>
       </c>
       <c r="D123" t="n">
-        <v>0.232558</v>
+        <v>0.232246</v>
       </c>
     </row>
     <row r="124">
@@ -4980,13 +4980,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.349002</v>
+        <v>0.348848</v>
       </c>
       <c r="C124" t="n">
-        <v>0.951796</v>
+        <v>0.939292</v>
       </c>
       <c r="D124" t="n">
-        <v>0.229424</v>
+        <v>0.231792</v>
       </c>
     </row>
     <row r="125">
@@ -4994,13 +4994,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.342957</v>
+        <v>0.342522</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9620069999999999</v>
+        <v>0.953599</v>
       </c>
       <c r="D125" t="n">
-        <v>0.2287</v>
+        <v>0.228369</v>
       </c>
     </row>
     <row r="126">
@@ -5008,13 +5008,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.336403</v>
+        <v>0.336662</v>
       </c>
       <c r="C126" t="n">
-        <v>0.977309</v>
+        <v>0.966159</v>
       </c>
       <c r="D126" t="n">
-        <v>0.226646</v>
+        <v>0.227706</v>
       </c>
     </row>
     <row r="127">
@@ -5022,13 +5022,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.329397</v>
+        <v>0.329753</v>
       </c>
       <c r="C127" t="n">
-        <v>0.99036</v>
+        <v>0.965987</v>
       </c>
       <c r="D127" t="n">
-        <v>0.227586</v>
+        <v>0.225631</v>
       </c>
     </row>
     <row r="128">
@@ -5036,13 +5036,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.321906</v>
+        <v>0.321957</v>
       </c>
       <c r="C128" t="n">
-        <v>1.00934</v>
+        <v>0.99744</v>
       </c>
       <c r="D128" t="n">
-        <v>0.22543</v>
+        <v>0.225552</v>
       </c>
     </row>
     <row r="129">
@@ -5050,13 +5050,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.314634</v>
+        <v>0.314123</v>
       </c>
       <c r="C129" t="n">
-        <v>1.01392</v>
+        <v>1.01374</v>
       </c>
       <c r="D129" t="n">
-        <v>0.224623</v>
+        <v>0.22447</v>
       </c>
     </row>
     <row r="130">
@@ -5064,13 +5064,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.306096</v>
+        <v>0.305779</v>
       </c>
       <c r="C130" t="n">
-        <v>1.04097</v>
+        <v>1.04483</v>
       </c>
       <c r="D130" t="n">
-        <v>0.222817</v>
+        <v>0.2228</v>
       </c>
     </row>
     <row r="131">
@@ -5078,13 +5078,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.297038</v>
+        <v>0.296827</v>
       </c>
       <c r="C131" t="n">
-        <v>1.08701</v>
+        <v>1.08043</v>
       </c>
       <c r="D131" t="n">
-        <v>0.222355</v>
+        <v>0.221992</v>
       </c>
     </row>
     <row r="132">
@@ -5092,13 +5092,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.287082</v>
+        <v>0.287137</v>
       </c>
       <c r="C132" t="n">
-        <v>1.12633</v>
+        <v>1.10186</v>
       </c>
       <c r="D132" t="n">
-        <v>0.222554</v>
+        <v>0.220646</v>
       </c>
     </row>
     <row r="133">
@@ -5106,13 +5106,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.276726</v>
+        <v>0.276802</v>
       </c>
       <c r="C133" t="n">
-        <v>1.17091</v>
+        <v>1.16705</v>
       </c>
       <c r="D133" t="n">
-        <v>0.221516</v>
+        <v>0.220133</v>
       </c>
     </row>
     <row r="134">
@@ -5120,13 +5120,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.265454</v>
+        <v>0.265717</v>
       </c>
       <c r="C134" t="n">
-        <v>1.20963</v>
+        <v>1.22262</v>
       </c>
       <c r="D134" t="n">
-        <v>0.22088</v>
+        <v>0.21938</v>
       </c>
     </row>
     <row r="135">
@@ -5134,13 +5134,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.253317</v>
+        <v>0.253353</v>
       </c>
       <c r="C135" t="n">
-        <v>1.31907</v>
+        <v>1.31006</v>
       </c>
       <c r="D135" t="n">
-        <v>0.219746</v>
+        <v>0.219032</v>
       </c>
     </row>
     <row r="136">
@@ -5148,13 +5148,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.240278</v>
+        <v>0.240515</v>
       </c>
       <c r="C136" t="n">
-        <v>0.97571</v>
+        <v>0.98525</v>
       </c>
       <c r="D136" t="n">
-        <v>0.217702</v>
+        <v>0.219265</v>
       </c>
     </row>
     <row r="137">
@@ -5162,13 +5162,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.22603</v>
+        <v>0.226435</v>
       </c>
       <c r="C137" t="n">
-        <v>0.984197</v>
+        <v>0.992502</v>
       </c>
       <c r="D137" t="n">
-        <v>0.235995</v>
+        <v>0.236851</v>
       </c>
     </row>
     <row r="138">
@@ -5176,13 +5176,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.349787</v>
+        <v>0.350024</v>
       </c>
       <c r="C138" t="n">
-        <v>0.984892</v>
+        <v>1.0023</v>
       </c>
       <c r="D138" t="n">
-        <v>0.234496</v>
+        <v>0.233408</v>
       </c>
     </row>
     <row r="139">
@@ -5190,13 +5190,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.344645</v>
+        <v>0.344213</v>
       </c>
       <c r="C139" t="n">
-        <v>0.9995849999999999</v>
+        <v>1.01298</v>
       </c>
       <c r="D139" t="n">
-        <v>0.232681</v>
+        <v>0.232369</v>
       </c>
     </row>
     <row r="140">
@@ -5204,13 +5204,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338301</v>
+        <v>0.338527</v>
       </c>
       <c r="C140" t="n">
-        <v>1.00786</v>
+        <v>1.02231</v>
       </c>
       <c r="D140" t="n">
-        <v>0.233186</v>
+        <v>0.234207</v>
       </c>
     </row>
     <row r="141">
@@ -5218,13 +5218,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331194</v>
+        <v>0.331177</v>
       </c>
       <c r="C141" t="n">
-        <v>1.02034</v>
+        <v>1.03871</v>
       </c>
       <c r="D141" t="n">
-        <v>0.232054</v>
+        <v>0.229663</v>
       </c>
     </row>
     <row r="142">
@@ -5232,13 +5232,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.324561</v>
+        <v>0.324075</v>
       </c>
       <c r="C142" t="n">
-        <v>1.04353</v>
+        <v>1.06089</v>
       </c>
       <c r="D142" t="n">
-        <v>0.229002</v>
+        <v>0.228297</v>
       </c>
     </row>
     <row r="143">
@@ -5246,13 +5246,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.31584</v>
+        <v>0.316551</v>
       </c>
       <c r="C143" t="n">
-        <v>1.06527</v>
+        <v>1.07569</v>
       </c>
       <c r="D143" t="n">
-        <v>0.226374</v>
+        <v>0.228817</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3249,13 +3249,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.297611</v>
+        <v>0.300114</v>
       </c>
       <c r="C2" t="n">
-        <v>0.223445</v>
+        <v>0.223206</v>
       </c>
       <c r="D2" t="n">
-        <v>0.199085</v>
+        <v>0.198996</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3263,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.290624</v>
+        <v>0.28974</v>
       </c>
       <c r="C3" t="n">
-        <v>0.223438</v>
+        <v>0.222629</v>
       </c>
       <c r="D3" t="n">
-        <v>0.198841</v>
+        <v>0.197855</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3277,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.281848</v>
+        <v>0.279686</v>
       </c>
       <c r="C4" t="n">
-        <v>0.225648</v>
+        <v>0.225127</v>
       </c>
       <c r="D4" t="n">
-        <v>0.20043</v>
+        <v>0.200342</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3291,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.270746</v>
+        <v>0.271689</v>
       </c>
       <c r="C5" t="n">
-        <v>0.225388</v>
+        <v>0.225276</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200056</v>
+        <v>0.200304</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3305,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.258991</v>
+        <v>0.259192</v>
       </c>
       <c r="C6" t="n">
-        <v>0.225853</v>
+        <v>0.226336</v>
       </c>
       <c r="D6" t="n">
-        <v>0.201572</v>
+        <v>0.200928</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3319,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.244306</v>
+        <v>0.243781</v>
       </c>
       <c r="C7" t="n">
-        <v>0.226129</v>
+        <v>0.225972</v>
       </c>
       <c r="D7" t="n">
-        <v>0.202268</v>
+        <v>0.201359</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3333,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.231041</v>
+        <v>0.23072</v>
       </c>
       <c r="C8" t="n">
-        <v>0.225534</v>
+        <v>0.226474</v>
       </c>
       <c r="D8" t="n">
-        <v>0.20265</v>
+        <v>0.201853</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3347,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.218825</v>
+        <v>0.21882</v>
       </c>
       <c r="C9" t="n">
-        <v>0.227225</v>
+        <v>0.225845</v>
       </c>
       <c r="D9" t="n">
-        <v>0.218577</v>
+        <v>0.224198</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3361,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.344741</v>
+        <v>0.345502</v>
       </c>
       <c r="C10" t="n">
-        <v>0.246674</v>
+        <v>0.246176</v>
       </c>
       <c r="D10" t="n">
-        <v>0.217168</v>
+        <v>0.227215</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3375,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.339201</v>
+        <v>0.339902</v>
       </c>
       <c r="C11" t="n">
-        <v>0.244341</v>
+        <v>0.244067</v>
       </c>
       <c r="D11" t="n">
-        <v>0.215511</v>
+        <v>0.229023</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3389,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.332397</v>
+        <v>0.333829</v>
       </c>
       <c r="C12" t="n">
-        <v>0.242376</v>
+        <v>0.243376</v>
       </c>
       <c r="D12" t="n">
-        <v>0.214141</v>
+        <v>0.214761</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3403,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.326184</v>
+        <v>0.326898</v>
       </c>
       <c r="C13" t="n">
-        <v>0.241552</v>
+        <v>0.241435</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212517</v>
+        <v>0.213124</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3417,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.319167</v>
+        <v>0.321375</v>
       </c>
       <c r="C14" t="n">
-        <v>0.23997</v>
+        <v>0.239386</v>
       </c>
       <c r="D14" t="n">
-        <v>0.211181</v>
+        <v>0.212366</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3431,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.311393</v>
+        <v>0.325004</v>
       </c>
       <c r="C15" t="n">
-        <v>0.239355</v>
+        <v>0.239396</v>
       </c>
       <c r="D15" t="n">
-        <v>0.210382</v>
+        <v>0.223719</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3445,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.30529</v>
+        <v>0.306093</v>
       </c>
       <c r="C16" t="n">
-        <v>0.238976</v>
+        <v>0.239071</v>
       </c>
       <c r="D16" t="n">
-        <v>0.210201</v>
+        <v>0.209802</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3459,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.294956</v>
+        <v>0.296687</v>
       </c>
       <c r="C17" t="n">
-        <v>0.238815</v>
+        <v>0.238628</v>
       </c>
       <c r="D17" t="n">
-        <v>0.210374</v>
+        <v>0.21071</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3473,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.286878</v>
+        <v>0.289383</v>
       </c>
       <c r="C18" t="n">
-        <v>0.238612</v>
+        <v>0.238423</v>
       </c>
       <c r="D18" t="n">
-        <v>0.209941</v>
+        <v>0.209616</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3487,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.278996</v>
+        <v>0.276911</v>
       </c>
       <c r="C19" t="n">
-        <v>0.237798</v>
+        <v>0.237141</v>
       </c>
       <c r="D19" t="n">
-        <v>0.209339</v>
+        <v>0.209211</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3501,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.26479</v>
+        <v>0.265049</v>
       </c>
       <c r="C20" t="n">
-        <v>0.237512</v>
+        <v>0.237852</v>
       </c>
       <c r="D20" t="n">
-        <v>0.209934</v>
+        <v>0.210193</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3515,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.254956</v>
+        <v>0.254349</v>
       </c>
       <c r="C21" t="n">
-        <v>0.237749</v>
+        <v>0.237544</v>
       </c>
       <c r="D21" t="n">
-        <v>0.209772</v>
+        <v>0.209679</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3529,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.241552</v>
+        <v>0.241263</v>
       </c>
       <c r="C22" t="n">
-        <v>0.237227</v>
+        <v>0.237619</v>
       </c>
       <c r="D22" t="n">
-        <v>0.209417</v>
+        <v>0.209281</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3543,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.226023</v>
+        <v>0.227858</v>
       </c>
       <c r="C23" t="n">
-        <v>0.237908</v>
+        <v>0.237243</v>
       </c>
       <c r="D23" t="n">
-        <v>0.224288</v>
+        <v>0.224351</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3557,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348359</v>
+        <v>0.348671</v>
       </c>
       <c r="C24" t="n">
-        <v>0.254915</v>
+        <v>0.254082</v>
       </c>
       <c r="D24" t="n">
-        <v>0.222565</v>
+        <v>0.222253</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3571,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342031</v>
+        <v>0.341921</v>
       </c>
       <c r="C25" t="n">
-        <v>0.253222</v>
+        <v>0.253137</v>
       </c>
       <c r="D25" t="n">
-        <v>0.220811</v>
+        <v>0.22114</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3585,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.336148</v>
+        <v>0.336268</v>
       </c>
       <c r="C26" t="n">
-        <v>0.251124</v>
+        <v>0.250911</v>
       </c>
       <c r="D26" t="n">
-        <v>0.220377</v>
+        <v>0.220383</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3599,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.329128</v>
+        <v>0.328824</v>
       </c>
       <c r="C27" t="n">
-        <v>0.249465</v>
+        <v>0.249453</v>
       </c>
       <c r="D27" t="n">
-        <v>0.218658</v>
+        <v>0.218452</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3613,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.32209</v>
+        <v>0.322182</v>
       </c>
       <c r="C28" t="n">
-        <v>0.247079</v>
+        <v>0.247418</v>
       </c>
       <c r="D28" t="n">
-        <v>0.216836</v>
+        <v>0.21691</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3627,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.315001</v>
+        <v>0.315233</v>
       </c>
       <c r="C29" t="n">
-        <v>0.246554</v>
+        <v>0.246159</v>
       </c>
       <c r="D29" t="n">
-        <v>0.216167</v>
+        <v>0.215987</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3641,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.306987</v>
+        <v>0.306584</v>
       </c>
       <c r="C30" t="n">
-        <v>0.244776</v>
+        <v>0.244539</v>
       </c>
       <c r="D30" t="n">
-        <v>0.214541</v>
+        <v>0.214361</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3655,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.298037</v>
+        <v>0.297796</v>
       </c>
       <c r="C31" t="n">
-        <v>0.243763</v>
+        <v>0.244004</v>
       </c>
       <c r="D31" t="n">
-        <v>0.214051</v>
+        <v>0.214189</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3669,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.289103</v>
+        <v>0.288675</v>
       </c>
       <c r="C32" t="n">
-        <v>0.243656</v>
+        <v>0.243247</v>
       </c>
       <c r="D32" t="n">
-        <v>0.213279</v>
+        <v>0.213521</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3683,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.279594</v>
+        <v>0.27905</v>
       </c>
       <c r="C33" t="n">
-        <v>0.242738</v>
+        <v>0.24256</v>
       </c>
       <c r="D33" t="n">
-        <v>0.213439</v>
+        <v>0.213445</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3697,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.26904</v>
+        <v>0.268705</v>
       </c>
       <c r="C34" t="n">
-        <v>0.24203</v>
+        <v>0.241561</v>
       </c>
       <c r="D34" t="n">
-        <v>0.212626</v>
+        <v>0.212525</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3711,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.258117</v>
+        <v>0.257616</v>
       </c>
       <c r="C35" t="n">
-        <v>0.242096</v>
+        <v>0.24188</v>
       </c>
       <c r="D35" t="n">
-        <v>0.212424</v>
+        <v>0.21234</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3725,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244795</v>
+        <v>0.244613</v>
       </c>
       <c r="C36" t="n">
-        <v>0.241511</v>
+        <v>0.241643</v>
       </c>
       <c r="D36" t="n">
-        <v>0.212443</v>
+        <v>0.211724</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3739,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.230992</v>
+        <v>0.230776</v>
       </c>
       <c r="C37" t="n">
-        <v>0.241111</v>
+        <v>0.241253</v>
       </c>
       <c r="D37" t="n">
-        <v>0.227059</v>
+        <v>0.226993</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3753,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.349419</v>
+        <v>0.349824</v>
       </c>
       <c r="C38" t="n">
-        <v>0.261439</v>
+        <v>0.260633</v>
       </c>
       <c r="D38" t="n">
-        <v>0.224392</v>
+        <v>0.224262</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3767,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.344652</v>
+        <v>0.344668</v>
       </c>
       <c r="C39" t="n">
-        <v>0.257477</v>
+        <v>0.257339</v>
       </c>
       <c r="D39" t="n">
-        <v>0.222619</v>
+        <v>0.222243</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3781,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.338388</v>
+        <v>0.338677</v>
       </c>
       <c r="C40" t="n">
-        <v>0.254513</v>
+        <v>0.254507</v>
       </c>
       <c r="D40" t="n">
-        <v>0.22064</v>
+        <v>0.220672</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3795,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.332087</v>
+        <v>0.332397</v>
       </c>
       <c r="C41" t="n">
-        <v>0.251279</v>
+        <v>0.251238</v>
       </c>
       <c r="D41" t="n">
-        <v>0.218979</v>
+        <v>0.219098</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3809,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.324977</v>
+        <v>0.324735</v>
       </c>
       <c r="C42" t="n">
-        <v>0.250543</v>
+        <v>0.250339</v>
       </c>
       <c r="D42" t="n">
-        <v>0.217774</v>
+        <v>0.217622</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3823,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.316749</v>
+        <v>0.316837</v>
       </c>
       <c r="C43" t="n">
-        <v>0.249172</v>
+        <v>0.248917</v>
       </c>
       <c r="D43" t="n">
-        <v>0.216899</v>
+        <v>0.21665</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3837,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.309343</v>
+        <v>0.309573</v>
       </c>
       <c r="C44" t="n">
-        <v>0.247919</v>
+        <v>0.247626</v>
       </c>
       <c r="D44" t="n">
-        <v>0.215652</v>
+        <v>0.215328</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3851,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.30035</v>
+        <v>0.300592</v>
       </c>
       <c r="C45" t="n">
-        <v>0.24661</v>
+        <v>0.246606</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2145</v>
+        <v>0.214443</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3865,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.292223</v>
+        <v>0.292486</v>
       </c>
       <c r="C46" t="n">
-        <v>0.245883</v>
+        <v>0.245815</v>
       </c>
       <c r="D46" t="n">
-        <v>0.214141</v>
+        <v>0.214018</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3879,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.282711</v>
+        <v>0.28298</v>
       </c>
       <c r="C47" t="n">
-        <v>0.244719</v>
+        <v>0.24458</v>
       </c>
       <c r="D47" t="n">
-        <v>0.214181</v>
+        <v>0.213934</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3893,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.272012</v>
+        <v>0.272297</v>
       </c>
       <c r="C48" t="n">
-        <v>0.243728</v>
+        <v>0.243622</v>
       </c>
       <c r="D48" t="n">
-        <v>0.21374</v>
+        <v>0.212846</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3907,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.261144</v>
+        <v>0.261381</v>
       </c>
       <c r="C49" t="n">
-        <v>0.243259</v>
+        <v>0.243248</v>
       </c>
       <c r="D49" t="n">
-        <v>0.213382</v>
+        <v>0.213615</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3921,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.249027</v>
+        <v>0.249177</v>
       </c>
       <c r="C50" t="n">
-        <v>0.242973</v>
+        <v>0.242714</v>
       </c>
       <c r="D50" t="n">
-        <v>0.213938</v>
+        <v>0.213678</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3935,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.235116</v>
+        <v>0.235157</v>
       </c>
       <c r="C51" t="n">
-        <v>0.242258</v>
+        <v>0.242098</v>
       </c>
       <c r="D51" t="n">
-        <v>0.225975</v>
+        <v>0.225786</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3949,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.219951</v>
+        <v>0.220106</v>
       </c>
       <c r="C52" t="n">
-        <v>0.241376</v>
+        <v>0.241481</v>
       </c>
       <c r="D52" t="n">
-        <v>0.223653</v>
+        <v>0.223528</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3963,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.347518</v>
+        <v>0.347146</v>
       </c>
       <c r="C53" t="n">
-        <v>0.257627</v>
+        <v>0.257503</v>
       </c>
       <c r="D53" t="n">
-        <v>0.221911</v>
+        <v>0.222085</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3977,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.341332</v>
+        <v>0.341104</v>
       </c>
       <c r="C54" t="n">
-        <v>0.254897</v>
+        <v>0.254381</v>
       </c>
       <c r="D54" t="n">
-        <v>0.220728</v>
+        <v>0.220625</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3991,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.335214</v>
+        <v>0.335173</v>
       </c>
       <c r="C55" t="n">
-        <v>0.252079</v>
+        <v>0.251851</v>
       </c>
       <c r="D55" t="n">
-        <v>0.219436</v>
+        <v>0.219342</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4005,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.327622</v>
+        <v>0.327618</v>
       </c>
       <c r="C56" t="n">
-        <v>0.250629</v>
+        <v>0.250402</v>
       </c>
       <c r="D56" t="n">
-        <v>0.218151</v>
+        <v>0.218134</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4019,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.320716</v>
+        <v>0.320691</v>
       </c>
       <c r="C57" t="n">
-        <v>0.249135</v>
+        <v>0.248986</v>
       </c>
       <c r="D57" t="n">
-        <v>0.217165</v>
+        <v>0.217135</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4033,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.313219</v>
+        <v>0.313115</v>
       </c>
       <c r="C58" t="n">
-        <v>0.24772</v>
+        <v>0.247667</v>
       </c>
       <c r="D58" t="n">
-        <v>0.216504</v>
+        <v>0.216469</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4047,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.304476</v>
+        <v>0.304789</v>
       </c>
       <c r="C59" t="n">
-        <v>0.246615</v>
+        <v>0.246525</v>
       </c>
       <c r="D59" t="n">
-        <v>0.215335</v>
+        <v>0.215371</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4061,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.294745</v>
+        <v>0.294478</v>
       </c>
       <c r="C60" t="n">
-        <v>0.245632</v>
+        <v>0.245694</v>
       </c>
       <c r="D60" t="n">
-        <v>0.214669</v>
+        <v>0.214652</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4075,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.285092</v>
+        <v>0.28506</v>
       </c>
       <c r="C61" t="n">
-        <v>0.245112</v>
+        <v>0.24506</v>
       </c>
       <c r="D61" t="n">
-        <v>0.213965</v>
+        <v>0.214129</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4089,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.274714</v>
+        <v>0.274471</v>
       </c>
       <c r="C62" t="n">
-        <v>0.243965</v>
+        <v>0.243952</v>
       </c>
       <c r="D62" t="n">
-        <v>0.213359</v>
+        <v>0.213428</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4103,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263394</v>
+        <v>0.263117</v>
       </c>
       <c r="C63" t="n">
-        <v>0.243224</v>
+        <v>0.243272</v>
       </c>
       <c r="D63" t="n">
-        <v>0.213258</v>
+        <v>0.213185</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4117,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.250918</v>
+        <v>0.25119</v>
       </c>
       <c r="C64" t="n">
-        <v>0.242856</v>
+        <v>0.242682</v>
       </c>
       <c r="D64" t="n">
-        <v>0.21246</v>
+        <v>0.212503</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4131,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.238014</v>
+        <v>0.237883</v>
       </c>
       <c r="C65" t="n">
-        <v>0.241937</v>
+        <v>0.242156</v>
       </c>
       <c r="D65" t="n">
-        <v>0.21233</v>
+        <v>0.212275</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4145,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.223612</v>
+        <v>0.223666</v>
       </c>
       <c r="C66" t="n">
-        <v>0.241529</v>
+        <v>0.241427</v>
       </c>
       <c r="D66" t="n">
-        <v>0.22497</v>
+        <v>0.224783</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4159,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.34917</v>
+        <v>0.348954</v>
       </c>
       <c r="C67" t="n">
-        <v>0.259515</v>
+        <v>0.259165</v>
       </c>
       <c r="D67" t="n">
-        <v>0.222958</v>
+        <v>0.222825</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4173,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.343012</v>
+        <v>0.342816</v>
       </c>
       <c r="C68" t="n">
-        <v>0.255549</v>
+        <v>0.25542</v>
       </c>
       <c r="D68" t="n">
-        <v>0.221096</v>
+        <v>0.221049</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4187,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.336832</v>
+        <v>0.336543</v>
       </c>
       <c r="C69" t="n">
-        <v>0.252567</v>
+        <v>0.252498</v>
       </c>
       <c r="D69" t="n">
-        <v>0.219675</v>
+        <v>0.219626</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4201,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.329965</v>
+        <v>0.329836</v>
       </c>
       <c r="C70" t="n">
-        <v>0.250909</v>
+        <v>0.250934</v>
       </c>
       <c r="D70" t="n">
-        <v>0.218437</v>
+        <v>0.218488</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4215,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.322767</v>
+        <v>0.322728</v>
       </c>
       <c r="C71" t="n">
-        <v>0.249617</v>
+        <v>0.249461</v>
       </c>
       <c r="D71" t="n">
-        <v>0.217606</v>
+        <v>0.217518</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4229,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.315528</v>
+        <v>0.315504</v>
       </c>
       <c r="C72" t="n">
-        <v>0.248209</v>
+        <v>0.248064</v>
       </c>
       <c r="D72" t="n">
-        <v>0.21656</v>
+        <v>0.216564</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4243,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.307021</v>
+        <v>0.306875</v>
       </c>
       <c r="C73" t="n">
-        <v>0.246983</v>
+        <v>0.246841</v>
       </c>
       <c r="D73" t="n">
-        <v>0.215379</v>
+        <v>0.215367</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4257,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.298244</v>
+        <v>0.298277</v>
       </c>
       <c r="C74" t="n">
-        <v>0.245987</v>
+        <v>0.245763</v>
       </c>
       <c r="D74" t="n">
-        <v>0.214495</v>
+        <v>0.214641</v>
       </c>
     </row>
     <row r="75">
@@ -4271,10 +4271,10 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.288928</v>
+        <v>0.288748</v>
       </c>
       <c r="C75" t="n">
-        <v>0.245149</v>
+        <v>0.245047</v>
       </c>
       <c r="D75" t="n">
         <v>0.214144</v>
@@ -4285,13 +4285,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.278867</v>
+        <v>0.27871</v>
       </c>
       <c r="C76" t="n">
-        <v>0.244389</v>
+        <v>0.24442</v>
       </c>
       <c r="D76" t="n">
-        <v>0.213485</v>
+        <v>0.213442</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4299,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.267537</v>
+        <v>0.267295</v>
       </c>
       <c r="C77" t="n">
-        <v>0.243229</v>
+        <v>0.243118</v>
       </c>
       <c r="D77" t="n">
-        <v>0.213006</v>
+        <v>0.213054</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4313,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.255155</v>
+        <v>0.254543</v>
       </c>
       <c r="C78" t="n">
-        <v>0.242356</v>
+        <v>0.2423</v>
       </c>
       <c r="D78" t="n">
-        <v>0.212657</v>
+        <v>0.212563</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4327,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.241967</v>
+        <v>0.241958</v>
       </c>
       <c r="C79" t="n">
-        <v>0.241948</v>
+        <v>0.241987</v>
       </c>
       <c r="D79" t="n">
-        <v>0.212371</v>
+        <v>0.212293</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4341,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227519</v>
+        <v>0.227421</v>
       </c>
       <c r="C80" t="n">
-        <v>0.241885</v>
+        <v>0.241897</v>
       </c>
       <c r="D80" t="n">
-        <v>0.225355</v>
+        <v>0.225419</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4355,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.350225</v>
+        <v>0.35067</v>
       </c>
       <c r="C81" t="n">
-        <v>0.259027</v>
+        <v>0.258764</v>
       </c>
       <c r="D81" t="n">
-        <v>0.223367</v>
+        <v>0.223408</v>
       </c>
     </row>
     <row r="82">
@@ -4369,10 +4369,10 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.344716</v>
+        <v>0.344598</v>
       </c>
       <c r="C82" t="n">
-        <v>0.255289</v>
+        <v>0.25523</v>
       </c>
       <c r="D82" t="n">
         <v>0.221724</v>
@@ -4383,13 +4383,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.338186</v>
+        <v>0.338023</v>
       </c>
       <c r="C83" t="n">
-        <v>0.252699</v>
+        <v>0.252718</v>
       </c>
       <c r="D83" t="n">
-        <v>0.220063</v>
+        <v>0.220098</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4397,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.331807</v>
+        <v>0.331737</v>
       </c>
       <c r="C84" t="n">
-        <v>0.250829</v>
+        <v>0.250714</v>
       </c>
       <c r="D84" t="n">
-        <v>0.218746</v>
+        <v>0.218784</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4411,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.324742</v>
+        <v>0.324442</v>
       </c>
       <c r="C85" t="n">
-        <v>0.249405</v>
+        <v>0.249504</v>
       </c>
       <c r="D85" t="n">
-        <v>0.217595</v>
+        <v>0.217657</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4425,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.316686</v>
+        <v>0.316897</v>
       </c>
       <c r="C86" t="n">
-        <v>0.248223</v>
+        <v>0.248264</v>
       </c>
       <c r="D86" t="n">
-        <v>0.216631</v>
+        <v>0.216704</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4439,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.308922</v>
+        <v>0.308867</v>
       </c>
       <c r="C87" t="n">
-        <v>0.247022</v>
+        <v>0.247033</v>
       </c>
       <c r="D87" t="n">
-        <v>0.215747</v>
+        <v>0.2158</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4453,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300259</v>
+        <v>0.299915</v>
       </c>
       <c r="C88" t="n">
-        <v>0.246385</v>
+        <v>0.246362</v>
       </c>
       <c r="D88" t="n">
-        <v>0.215016</v>
+        <v>0.214985</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4467,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.290832</v>
+        <v>0.290679</v>
       </c>
       <c r="C89" t="n">
-        <v>0.245394</v>
+        <v>0.245314</v>
       </c>
       <c r="D89" t="n">
-        <v>0.214261</v>
+        <v>0.214275</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4481,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.280804</v>
+        <v>0.280986</v>
       </c>
       <c r="C90" t="n">
-        <v>0.24457</v>
+        <v>0.244573</v>
       </c>
       <c r="D90" t="n">
-        <v>0.213571</v>
+        <v>0.213641</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4495,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.269832</v>
+        <v>0.269604</v>
       </c>
       <c r="C91" t="n">
-        <v>0.243712</v>
+        <v>0.243666</v>
       </c>
       <c r="D91" t="n">
-        <v>0.213096</v>
+        <v>0.213024</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4509,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.258255</v>
+        <v>0.258002</v>
       </c>
       <c r="C92" t="n">
-        <v>0.242965</v>
+        <v>0.242939</v>
       </c>
       <c r="D92" t="n">
-        <v>0.212592</v>
+        <v>0.212665</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4523,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.244939</v>
+        <v>0.244665</v>
       </c>
       <c r="C93" t="n">
-        <v>0.242357</v>
+        <v>0.242378</v>
       </c>
       <c r="D93" t="n">
-        <v>0.212552</v>
+        <v>0.21252</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4537,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.230851</v>
+        <v>0.230784</v>
       </c>
       <c r="C94" t="n">
-        <v>0.241866</v>
+        <v>0.241932</v>
       </c>
       <c r="D94" t="n">
-        <v>0.22584</v>
+        <v>0.225879</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4551,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.351989</v>
+        <v>0.351695</v>
       </c>
       <c r="C95" t="n">
-        <v>0.259418</v>
+        <v>0.259777</v>
       </c>
       <c r="D95" t="n">
-        <v>0.223645</v>
+        <v>0.223749</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4565,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.346065</v>
+        <v>0.345746</v>
       </c>
       <c r="C96" t="n">
-        <v>0.255965</v>
+        <v>0.256088</v>
       </c>
       <c r="D96" t="n">
-        <v>0.221872</v>
+        <v>0.221886</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4579,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.340467</v>
+        <v>0.340026</v>
       </c>
       <c r="C97" t="n">
-        <v>0.25344</v>
+        <v>0.253522</v>
       </c>
       <c r="D97" t="n">
-        <v>0.220342</v>
+        <v>0.220463</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4593,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.33362</v>
+        <v>0.333459</v>
       </c>
       <c r="C98" t="n">
-        <v>0.251356</v>
+        <v>0.251315</v>
       </c>
       <c r="D98" t="n">
-        <v>0.219093</v>
+        <v>0.21912</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4607,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.326503</v>
+        <v>0.326169</v>
       </c>
       <c r="C99" t="n">
-        <v>0.249987</v>
+        <v>0.25008</v>
       </c>
       <c r="D99" t="n">
-        <v>0.217856</v>
+        <v>0.217944</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4621,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.318722</v>
+        <v>0.318638</v>
       </c>
       <c r="C100" t="n">
-        <v>0.248562</v>
+        <v>0.248585</v>
       </c>
       <c r="D100" t="n">
-        <v>0.216847</v>
+        <v>0.216862</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4635,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.31086</v>
+        <v>0.310853</v>
       </c>
       <c r="C101" t="n">
-        <v>0.247489</v>
+        <v>0.247551</v>
       </c>
       <c r="D101" t="n">
-        <v>0.215857</v>
+        <v>0.216019</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4649,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302263</v>
+        <v>0.301896</v>
       </c>
       <c r="C102" t="n">
-        <v>0.246601</v>
+        <v>0.246631</v>
       </c>
       <c r="D102" t="n">
-        <v>0.215319</v>
+        <v>0.215225</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4663,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.292702</v>
+        <v>0.29256</v>
       </c>
       <c r="C103" t="n">
-        <v>0.245665</v>
+        <v>0.245678</v>
       </c>
       <c r="D103" t="n">
-        <v>0.214423</v>
+        <v>0.214463</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4677,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.283006</v>
+        <v>0.28311</v>
       </c>
       <c r="C104" t="n">
-        <v>0.244923</v>
+        <v>0.244931</v>
       </c>
       <c r="D104" t="n">
-        <v>0.213918</v>
+        <v>0.213901</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4691,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.272226</v>
+        <v>0.271764</v>
       </c>
       <c r="C105" t="n">
-        <v>0.24399</v>
+        <v>0.243939</v>
       </c>
       <c r="D105" t="n">
-        <v>0.21313</v>
+        <v>0.213246</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4705,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.260553</v>
+        <v>0.260583</v>
       </c>
       <c r="C106" t="n">
-        <v>0.243095</v>
+        <v>0.243239</v>
       </c>
       <c r="D106" t="n">
-        <v>0.212586</v>
+        <v>0.212708</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4719,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.247911</v>
+        <v>0.24767</v>
       </c>
       <c r="C107" t="n">
-        <v>0.242457</v>
+        <v>0.242528</v>
       </c>
       <c r="D107" t="n">
-        <v>0.212234</v>
+        <v>0.212359</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4733,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.233988</v>
+        <v>0.233838</v>
       </c>
       <c r="C108" t="n">
-        <v>0.241971</v>
+        <v>0.241793</v>
       </c>
       <c r="D108" t="n">
-        <v>0.226437</v>
+        <v>0.226187</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4747,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.219362</v>
+        <v>0.219131</v>
       </c>
       <c r="C109" t="n">
-        <v>0.241511</v>
+        <v>0.241618</v>
       </c>
       <c r="D109" t="n">
-        <v>0.224358</v>
+        <v>0.223916</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4761,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.347639</v>
+        <v>0.347255</v>
       </c>
       <c r="C110" t="n">
-        <v>0.256346</v>
+        <v>0.256317</v>
       </c>
       <c r="D110" t="n">
-        <v>0.222309</v>
+        <v>0.222152</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4775,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.341483</v>
+        <v>0.341301</v>
       </c>
       <c r="C111" t="n">
-        <v>0.253933</v>
+        <v>0.253694</v>
       </c>
       <c r="D111" t="n">
-        <v>0.221203</v>
+        <v>0.220569</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4789,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.335012</v>
+        <v>0.334722</v>
       </c>
       <c r="C112" t="n">
-        <v>0.251769</v>
+        <v>0.251573</v>
       </c>
       <c r="D112" t="n">
-        <v>0.219667</v>
+        <v>0.21922</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4803,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.327906</v>
+        <v>0.327955</v>
       </c>
       <c r="C113" t="n">
-        <v>0.250083</v>
+        <v>0.250294</v>
       </c>
       <c r="D113" t="n">
-        <v>0.218367</v>
+        <v>0.218146</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4817,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.320859</v>
+        <v>0.320436</v>
       </c>
       <c r="C114" t="n">
-        <v>0.249114</v>
+        <v>0.249202</v>
       </c>
       <c r="D114" t="n">
-        <v>0.217797</v>
+        <v>0.217101</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4831,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313149</v>
+        <v>0.312469</v>
       </c>
       <c r="C115" t="n">
-        <v>0.248104</v>
+        <v>0.248009</v>
       </c>
       <c r="D115" t="n">
-        <v>0.216373</v>
+        <v>0.216043</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4845,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304328</v>
+        <v>0.304079</v>
       </c>
       <c r="C116" t="n">
-        <v>0.247029</v>
+        <v>0.247244</v>
       </c>
       <c r="D116" t="n">
-        <v>0.215928</v>
+        <v>0.215244</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4859,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.295727</v>
+        <v>0.295001</v>
       </c>
       <c r="C117" t="n">
-        <v>0.245907</v>
+        <v>0.246107</v>
       </c>
       <c r="D117" t="n">
-        <v>0.214665</v>
+        <v>0.21476</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4873,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.285667</v>
+        <v>0.285839</v>
       </c>
       <c r="C118" t="n">
-        <v>0.245045</v>
+        <v>0.245342</v>
       </c>
       <c r="D118" t="n">
-        <v>0.214286</v>
+        <v>0.21441</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4887,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.275237</v>
+        <v>0.274755</v>
       </c>
       <c r="C119" t="n">
-        <v>0.244273</v>
+        <v>0.244601</v>
       </c>
       <c r="D119" t="n">
-        <v>0.213895</v>
+        <v>0.213927</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4901,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.263577</v>
+        <v>0.263766</v>
       </c>
       <c r="C120" t="n">
-        <v>0.243621</v>
+        <v>0.243833</v>
       </c>
       <c r="D120" t="n">
-        <v>0.213794</v>
+        <v>0.213231</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4915,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.251498</v>
+        <v>0.251203</v>
       </c>
       <c r="C121" t="n">
-        <v>0.242857</v>
+        <v>0.242971</v>
       </c>
       <c r="D121" t="n">
-        <v>0.213091</v>
+        <v>0.212917</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4929,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.237737</v>
+        <v>0.237693</v>
       </c>
       <c r="C122" t="n">
-        <v>0.242355</v>
+        <v>0.242372</v>
       </c>
       <c r="D122" t="n">
-        <v>0.212831</v>
+        <v>0.21255</v>
       </c>
     </row>
     <row r="123">
@@